--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="189">
   <si>
     <t>Оборотная сторона формы № 1-Т</t>
   </si>
@@ -529,9 +529,6 @@
     <t>№ заказа 568719</t>
   </si>
   <si>
-    <t>Наценка %</t>
-  </si>
-  <si>
     <t>Товарная накладная имеет продолжение на</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
   </si>
   <si>
     <t>Менеджер</t>
-  </si>
-  <si>
-    <t>Складские или транспортные расходы</t>
   </si>
 </sst>
 </file>
@@ -819,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1261,24 +1255,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1878,38 +1859,317 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1917,325 +2177,82 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2244,74 +2261,32 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2686,49 +2661,49 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="305" t="s">
+      <c r="Z1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="305"/>
-      <c r="AB1" s="305"/>
-      <c r="AC1" s="305"/>
-      <c r="AD1" s="305"/>
-      <c r="AE1" s="305"/>
+      <c r="AA1" s="207"/>
+      <c r="AB1" s="207"/>
+      <c r="AC1" s="207"/>
+      <c r="AD1" s="207"/>
+      <c r="AE1" s="207"/>
     </row>
     <row r="2" spans="1:32" ht="9.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="227"/>
-      <c r="K2" s="227"/>
-      <c r="L2" s="227"/>
-      <c r="M2" s="227"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="227"/>
-      <c r="S2" s="227"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="227"/>
-      <c r="AB2" s="227"/>
-      <c r="AC2" s="227"/>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="208"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="208"/>
+      <c r="AE2" s="208"/>
     </row>
     <row r="3" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="153" t="s">
@@ -2773,20 +2748,20 @@
       <c r="AF3" s="18"/>
     </row>
     <row r="4" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="284" t="s">
+      <c r="A4" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="284"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284"/>
-      <c r="E4" s="284"/>
-      <c r="F4" s="284"/>
-      <c r="G4" s="284"/>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -2800,11 +2775,11 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="305" t="s">
+      <c r="Z4" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="305"/>
-      <c r="AB4" s="305"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
       <c r="AC4" s="92"/>
       <c r="AD4" s="88"/>
       <c r="AE4" s="93"/>
@@ -2814,32 +2789,32 @@
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="310"/>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="310"/>
-      <c r="I5" s="310"/>
-      <c r="J5" s="310"/>
-      <c r="K5" s="310"/>
-      <c r="L5" s="310"/>
-      <c r="M5" s="310"/>
-      <c r="N5" s="310"/>
-      <c r="O5" s="310"/>
-      <c r="P5" s="310"/>
-      <c r="Q5" s="310"/>
-      <c r="R5" s="310"/>
-      <c r="S5" s="310"/>
-      <c r="T5" s="310"/>
-      <c r="U5" s="310"/>
-      <c r="V5" s="310"/>
-      <c r="W5" s="310"/>
-      <c r="X5" s="310"/>
-      <c r="Y5" s="310"/>
-      <c r="Z5" s="310"/>
-      <c r="AA5" s="310"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="210"/>
+      <c r="M5" s="210"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="210"/>
+      <c r="P5" s="210"/>
+      <c r="Q5" s="210"/>
+      <c r="R5" s="210"/>
+      <c r="S5" s="210"/>
+      <c r="T5" s="210"/>
+      <c r="U5" s="210"/>
+      <c r="V5" s="210"/>
+      <c r="W5" s="210"/>
+      <c r="X5" s="210"/>
+      <c r="Y5" s="210"/>
+      <c r="Z5" s="210"/>
+      <c r="AA5" s="210"/>
       <c r="AB5" s="50" t="s">
         <v>6</v>
       </c>
@@ -2888,27 +2863,27 @@
       <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="234" t="s">
+      <c r="B7" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="288" t="s">
+      <c r="I7" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="288"/>
-      <c r="K7" s="288"/>
-      <c r="L7" s="288"/>
-      <c r="M7" s="288"/>
-      <c r="N7" s="234"/>
-      <c r="O7" s="234"/>
-      <c r="P7" s="234"/>
-      <c r="Q7" s="234"/>
-      <c r="R7" s="234"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="216"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -2961,38 +2936,38 @@
       <c r="AF8" s="18"/>
     </row>
     <row r="9" spans="1:32" ht="8.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="284" t="s">
+      <c r="A9" s="209" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="298"/>
-      <c r="C9" s="316" t="s">
+      <c r="B9" s="219"/>
+      <c r="C9" s="220" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="316"/>
-      <c r="E9" s="316"/>
-      <c r="F9" s="316"/>
-      <c r="G9" s="316"/>
-      <c r="H9" s="316"/>
-      <c r="I9" s="316"/>
-      <c r="J9" s="316"/>
-      <c r="K9" s="316"/>
-      <c r="L9" s="316"/>
-      <c r="M9" s="316"/>
-      <c r="N9" s="316"/>
-      <c r="O9" s="316"/>
-      <c r="P9" s="316"/>
-      <c r="Q9" s="316"/>
-      <c r="R9" s="316"/>
-      <c r="S9" s="316"/>
-      <c r="T9" s="316"/>
-      <c r="U9" s="316"/>
-      <c r="V9" s="316"/>
-      <c r="W9" s="316"/>
-      <c r="X9" s="316"/>
-      <c r="Y9" s="316"/>
-      <c r="Z9" s="316"/>
-      <c r="AA9" s="316"/>
-      <c r="AB9" s="317"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="220"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="220"/>
+      <c r="O9" s="220"/>
+      <c r="P9" s="220"/>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="220"/>
+      <c r="S9" s="220"/>
+      <c r="T9" s="220"/>
+      <c r="U9" s="220"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="220"/>
+      <c r="X9" s="220"/>
+      <c r="Y9" s="220"/>
+      <c r="Z9" s="220"/>
+      <c r="AA9" s="220"/>
+      <c r="AB9" s="221"/>
       <c r="AC9" s="98"/>
       <c r="AD9" s="99"/>
       <c r="AE9" s="100"/>
@@ -3035,38 +3010,38 @@
       <c r="AF10" s="18"/>
     </row>
     <row r="11" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="280" t="s">
+      <c r="A11" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="280"/>
-      <c r="C11" s="284"/>
-      <c r="D11" s="284"/>
-      <c r="E11" s="284"/>
-      <c r="F11" s="284"/>
-      <c r="G11" s="284"/>
-      <c r="H11" s="311"/>
-      <c r="I11" s="311"/>
-      <c r="J11" s="311"/>
-      <c r="K11" s="311"/>
-      <c r="L11" s="311"/>
-      <c r="M11" s="311"/>
-      <c r="N11" s="311"/>
-      <c r="O11" s="312"/>
-      <c r="P11" s="312"/>
-      <c r="Q11" s="312"/>
-      <c r="R11" s="312"/>
-      <c r="S11" s="312"/>
-      <c r="T11" s="312"/>
-      <c r="U11" s="312"/>
-      <c r="V11" s="312"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="212"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="212"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="213"/>
+      <c r="Q11" s="213"/>
+      <c r="R11" s="213"/>
+      <c r="S11" s="213"/>
+      <c r="T11" s="213"/>
+      <c r="U11" s="213"/>
+      <c r="V11" s="213"/>
       <c r="W11" s="55"/>
       <c r="X11" s="53" t="s">
         <v>14</v>
       </c>
       <c r="Y11" s="39"/>
-      <c r="Z11" s="313"/>
-      <c r="AA11" s="313"/>
-      <c r="AB11" s="314"/>
+      <c r="Z11" s="214"/>
+      <c r="AA11" s="214"/>
+      <c r="AB11" s="215"/>
       <c r="AC11" s="71"/>
       <c r="AD11" s="72"/>
       <c r="AE11" s="97"/>
@@ -3109,17 +3084,17 @@
       <c r="AF12" s="18"/>
     </row>
     <row r="13" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="284" t="s">
+      <c r="A13" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="284"/>
-      <c r="C13" s="234" t="s">
+      <c r="B13" s="209"/>
+      <c r="C13" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="234"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="216"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -3128,19 +3103,19 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="284" t="s">
+      <c r="P13" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="284"/>
-      <c r="R13" s="315"/>
-      <c r="S13" s="315"/>
-      <c r="T13" s="315"/>
-      <c r="U13" s="315"/>
-      <c r="V13" s="315"/>
-      <c r="W13" s="315"/>
-      <c r="X13" s="315"/>
-      <c r="Y13" s="315"/>
-      <c r="Z13" s="315"/>
+      <c r="Q13" s="209"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
+      <c r="T13" s="217"/>
+      <c r="U13" s="217"/>
+      <c r="V13" s="217"/>
+      <c r="W13" s="217"/>
+      <c r="X13" s="217"/>
+      <c r="Y13" s="217"/>
+      <c r="Z13" s="217"/>
       <c r="AA13" s="56"/>
       <c r="AB13" s="59" t="s">
         <v>152</v>
@@ -3187,10 +3162,10 @@
       <c r="AF14" s="18"/>
     </row>
     <row r="15" spans="1:32" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="284" t="s">
+      <c r="A15" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="284"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="54"/>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
@@ -3230,26 +3205,26 @@
       <c r="A16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="308" t="s">
+      <c r="B16" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="308"/>
-      <c r="D16" s="308"/>
-      <c r="E16" s="308"/>
-      <c r="F16" s="308"/>
-      <c r="G16" s="308"/>
-      <c r="H16" s="308"/>
-      <c r="I16" s="308"/>
-      <c r="J16" s="308"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="308"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
       <c r="M16" s="4"/>
       <c r="N16" s="21"/>
-      <c r="O16" s="309" t="s">
+      <c r="O16" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="309"/>
-      <c r="Q16" s="309"/>
+      <c r="P16" s="225"/>
+      <c r="Q16" s="225"/>
       <c r="R16" s="67"/>
       <c r="S16" s="63"/>
       <c r="T16" s="63"/>
@@ -3259,10 +3234,10 @@
       <c r="X16" s="63"/>
       <c r="Y16" s="63"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="305" t="s">
+      <c r="AA16" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="AB16" s="306"/>
+      <c r="AB16" s="223"/>
       <c r="AC16" s="101"/>
       <c r="AD16" s="44"/>
       <c r="AE16" s="102"/>
@@ -3290,11 +3265,11 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="243" t="s">
+      <c r="T17" s="222" t="s">
         <v>28</v>
       </c>
-      <c r="U17" s="243"/>
-      <c r="V17" s="243"/>
+      <c r="U17" s="222"/>
+      <c r="V17" s="222"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
@@ -3307,42 +3282,42 @@
       <c r="AF17" s="18"/>
     </row>
     <row r="18" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="284" t="s">
+      <c r="A18" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="284"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="280"/>
-      <c r="E18" s="280"/>
-      <c r="F18" s="280"/>
-      <c r="G18" s="280"/>
-      <c r="H18" s="280"/>
-      <c r="I18" s="280"/>
-      <c r="J18" s="280"/>
-      <c r="K18" s="280"/>
-      <c r="L18" s="280"/>
-      <c r="M18" s="284" t="s">
+      <c r="B18" s="209"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="211"/>
+      <c r="K18" s="211"/>
+      <c r="L18" s="211"/>
+      <c r="M18" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="284"/>
+      <c r="N18" s="209"/>
       <c r="O18" s="44"/>
       <c r="P18" s="44"/>
-      <c r="Q18" s="305" t="s">
+      <c r="Q18" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="R18" s="305"/>
-      <c r="S18" s="305"/>
-      <c r="T18" s="305"/>
+      <c r="R18" s="207"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="207"/>
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="44"/>
       <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
-      <c r="Z18" s="305" t="s">
+      <c r="Z18" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="AA18" s="305"/>
-      <c r="AB18" s="306"/>
+      <c r="AA18" s="207"/>
+      <c r="AB18" s="223"/>
       <c r="AC18" s="101"/>
       <c r="AD18" s="44"/>
       <c r="AE18" s="102"/>
@@ -3399,28 +3374,28 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="284" t="s">
+      <c r="M20" s="209" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="284"/>
+      <c r="N20" s="209"/>
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
-      <c r="Q20" s="305" t="s">
+      <c r="Q20" s="207" t="s">
         <v>153</v>
       </c>
-      <c r="R20" s="305"/>
-      <c r="S20" s="305"/>
-      <c r="T20" s="305"/>
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="207"/>
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="62"/>
       <c r="X20" s="62"/>
       <c r="Y20" s="62"/>
-      <c r="Z20" s="305" t="s">
+      <c r="Z20" s="207" t="s">
         <v>151</v>
       </c>
-      <c r="AA20" s="305"/>
-      <c r="AB20" s="306"/>
+      <c r="AA20" s="207"/>
+      <c r="AB20" s="223"/>
       <c r="AC20" s="75"/>
       <c r="AD20" s="77"/>
       <c r="AE20" s="76"/>
@@ -3464,23 +3439,23 @@
     <row r="22" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="278" t="s">
+      <c r="C22" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="278"/>
-      <c r="E22" s="278"/>
-      <c r="F22" s="278"/>
-      <c r="G22" s="278"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="229"/>
+      <c r="G22" s="229"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="307" t="s">
+      <c r="L22" s="230" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="307"/>
-      <c r="N22" s="307"/>
-      <c r="O22" s="307"/>
+      <c r="M22" s="230"/>
+      <c r="N22" s="230"/>
+      <c r="O22" s="230"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3499,147 +3474,147 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="222" t="s">
+      <c r="A23" s="226" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="249"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="249"/>
-      <c r="E23" s="222" t="s">
+      <c r="B23" s="227"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="222" t="s">
+      <c r="F23" s="227"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="227"/>
+      <c r="J23" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="249"/>
-      <c r="L23" s="249"/>
-      <c r="M23" s="222" t="s">
+      <c r="K23" s="227"/>
+      <c r="L23" s="227"/>
+      <c r="M23" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="249"/>
-      <c r="O23" s="249"/>
-      <c r="P23" s="249"/>
-      <c r="Q23" s="249"/>
-      <c r="R23" s="222" t="s">
+      <c r="N23" s="227"/>
+      <c r="O23" s="227"/>
+      <c r="P23" s="227"/>
+      <c r="Q23" s="227"/>
+      <c r="R23" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="S23" s="249"/>
-      <c r="T23" s="249"/>
-      <c r="U23" s="222" t="s">
+      <c r="S23" s="227"/>
+      <c r="T23" s="227"/>
+      <c r="U23" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="V23" s="249"/>
-      <c r="W23" s="222" t="s">
+      <c r="V23" s="227"/>
+      <c r="W23" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="X23" s="249"/>
-      <c r="Y23" s="249"/>
-      <c r="Z23" s="222" t="s">
+      <c r="X23" s="227"/>
+      <c r="Y23" s="227"/>
+      <c r="Z23" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="AA23" s="249"/>
-      <c r="AB23" s="249"/>
-      <c r="AC23" s="222" t="s">
+      <c r="AA23" s="227"/>
+      <c r="AB23" s="227"/>
+      <c r="AC23" s="226" t="s">
         <v>45</v>
       </c>
-      <c r="AD23" s="249"/>
-      <c r="AE23" s="249"/>
+      <c r="AD23" s="227"/>
+      <c r="AE23" s="227"/>
       <c r="AF23" s="17"/>
     </row>
     <row r="24" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="222">
+      <c r="A24" s="226">
         <v>1</v>
       </c>
-      <c r="B24" s="249"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="222">
+      <c r="B24" s="227"/>
+      <c r="C24" s="227"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="226">
         <v>2</v>
       </c>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249"/>
-      <c r="J24" s="222">
+      <c r="F24" s="227"/>
+      <c r="G24" s="227"/>
+      <c r="H24" s="227"/>
+      <c r="I24" s="227"/>
+      <c r="J24" s="226">
         <v>3</v>
       </c>
-      <c r="K24" s="249"/>
-      <c r="L24" s="249"/>
-      <c r="M24" s="222">
+      <c r="K24" s="227"/>
+      <c r="L24" s="227"/>
+      <c r="M24" s="226">
         <v>4</v>
       </c>
-      <c r="N24" s="249"/>
-      <c r="O24" s="249"/>
-      <c r="P24" s="249"/>
-      <c r="Q24" s="249"/>
-      <c r="R24" s="222">
+      <c r="N24" s="227"/>
+      <c r="O24" s="227"/>
+      <c r="P24" s="227"/>
+      <c r="Q24" s="227"/>
+      <c r="R24" s="226">
         <v>5</v>
       </c>
-      <c r="S24" s="249"/>
-      <c r="T24" s="249"/>
-      <c r="U24" s="222">
+      <c r="S24" s="227"/>
+      <c r="T24" s="227"/>
+      <c r="U24" s="226">
         <v>6</v>
       </c>
-      <c r="V24" s="249"/>
-      <c r="W24" s="222">
+      <c r="V24" s="227"/>
+      <c r="W24" s="226">
         <v>7</v>
       </c>
-      <c r="X24" s="249"/>
-      <c r="Y24" s="249"/>
-      <c r="Z24" s="222">
+      <c r="X24" s="227"/>
+      <c r="Y24" s="227"/>
+      <c r="Z24" s="226">
         <v>8</v>
       </c>
-      <c r="AA24" s="249"/>
-      <c r="AB24" s="249"/>
-      <c r="AC24" s="222">
+      <c r="AA24" s="227"/>
+      <c r="AB24" s="227"/>
+      <c r="AC24" s="226">
         <v>9</v>
       </c>
-      <c r="AD24" s="249"/>
-      <c r="AE24" s="250"/>
+      <c r="AD24" s="227"/>
+      <c r="AE24" s="228"/>
       <c r="AF24" s="17"/>
     </row>
     <row r="25" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="299" t="s">
+      <c r="A25" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="300"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="281" t="s">
+      <c r="B25" s="238"/>
+      <c r="C25" s="238"/>
+      <c r="D25" s="238"/>
+      <c r="E25" s="239" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="282"/>
-      <c r="G25" s="282"/>
-      <c r="H25" s="282"/>
-      <c r="I25" s="282"/>
-      <c r="J25" s="301" t="s">
+      <c r="F25" s="240"/>
+      <c r="G25" s="240"/>
+      <c r="H25" s="240"/>
+      <c r="I25" s="240"/>
+      <c r="J25" s="241" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="302"/>
-      <c r="L25" s="302"/>
-      <c r="M25" s="303"/>
-      <c r="N25" s="303"/>
-      <c r="O25" s="303"/>
-      <c r="P25" s="303"/>
-      <c r="Q25" s="303"/>
-      <c r="R25" s="300"/>
-      <c r="S25" s="300"/>
-      <c r="T25" s="300"/>
-      <c r="U25" s="291"/>
-      <c r="V25" s="291"/>
-      <c r="W25" s="291"/>
-      <c r="X25" s="291"/>
-      <c r="Y25" s="291"/>
-      <c r="Z25" s="291"/>
-      <c r="AA25" s="291"/>
-      <c r="AB25" s="291"/>
-      <c r="AC25" s="291"/>
-      <c r="AD25" s="291"/>
-      <c r="AE25" s="291"/>
+      <c r="K25" s="242"/>
+      <c r="L25" s="242"/>
+      <c r="M25" s="243"/>
+      <c r="N25" s="243"/>
+      <c r="O25" s="243"/>
+      <c r="P25" s="243"/>
+      <c r="Q25" s="243"/>
+      <c r="R25" s="238"/>
+      <c r="S25" s="238"/>
+      <c r="T25" s="238"/>
+      <c r="U25" s="231"/>
+      <c r="V25" s="231"/>
+      <c r="W25" s="231"/>
+      <c r="X25" s="231"/>
+      <c r="Y25" s="231"/>
+      <c r="Z25" s="231"/>
+      <c r="AA25" s="231"/>
+      <c r="AB25" s="231"/>
+      <c r="AC25" s="231"/>
+      <c r="AD25" s="231"/>
+      <c r="AE25" s="231"/>
       <c r="AF25" s="113"/>
     </row>
     <row r="26" spans="1:32" ht="3.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3665,39 +3640,39 @@
       <c r="T26" s="90"/>
       <c r="U26" s="114"/>
       <c r="V26" s="115"/>
-      <c r="W26" s="294" t="s">
+      <c r="W26" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="X26" s="295"/>
-      <c r="Y26" s="295"/>
-      <c r="Z26" s="295"/>
-      <c r="AA26" s="295"/>
-      <c r="AB26" s="295"/>
+      <c r="X26" s="233"/>
+      <c r="Y26" s="233"/>
+      <c r="Z26" s="233"/>
+      <c r="AA26" s="233"/>
+      <c r="AB26" s="233"/>
       <c r="AC26" s="117"/>
       <c r="AD26" s="91"/>
       <c r="AE26" s="115"/>
       <c r="AF26" s="113"/>
     </row>
     <row r="27" spans="1:32" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="284" t="s">
+      <c r="A27" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="284"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="284"/>
+      <c r="B27" s="209"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="209"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="234" t="s">
+      <c r="F27" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="234"/>
-      <c r="H27" s="297"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="235"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="283" t="s">
+      <c r="J27" s="236" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="284"/>
-      <c r="L27" s="284"/>
-      <c r="M27" s="298"/>
+      <c r="K27" s="209"/>
+      <c r="L27" s="209"/>
+      <c r="M27" s="219"/>
       <c r="N27" s="81"/>
       <c r="O27" s="81"/>
       <c r="P27" s="9" t="s">
@@ -3705,56 +3680,56 @@
       </c>
       <c r="Q27" s="79"/>
       <c r="R27" s="80"/>
-      <c r="S27" s="223" t="s">
+      <c r="S27" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="T27" s="294"/>
+      <c r="T27" s="232"/>
       <c r="U27" s="116"/>
       <c r="V27" s="78"/>
-      <c r="W27" s="295"/>
-      <c r="X27" s="296"/>
-      <c r="Y27" s="296"/>
-      <c r="Z27" s="296"/>
-      <c r="AA27" s="296"/>
-      <c r="AB27" s="296"/>
+      <c r="W27" s="233"/>
+      <c r="X27" s="234"/>
+      <c r="Y27" s="234"/>
+      <c r="Z27" s="234"/>
+      <c r="AA27" s="234"/>
+      <c r="AB27" s="234"/>
       <c r="AC27" s="116"/>
       <c r="AD27" s="44"/>
       <c r="AE27" s="78"/>
       <c r="AF27" s="113"/>
     </row>
     <row r="28" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="288" t="s">
+      <c r="A28" s="218" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="288"/>
-      <c r="C28" s="288"/>
-      <c r="D28" s="288"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="292"/>
-      <c r="I28" s="293"/>
-      <c r="J28" s="283"/>
-      <c r="K28" s="284"/>
-      <c r="L28" s="284"/>
-      <c r="M28" s="284"/>
-      <c r="N28" s="278" t="s">
+      <c r="H28" s="251"/>
+      <c r="I28" s="252"/>
+      <c r="J28" s="236"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="209"/>
+      <c r="M28" s="209"/>
+      <c r="N28" s="229" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="278"/>
+      <c r="O28" s="229"/>
       <c r="P28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q28" s="278" t="s">
+      <c r="Q28" s="229" t="s">
         <v>57</v>
       </c>
-      <c r="R28" s="304"/>
-      <c r="S28" s="274" t="s">
+      <c r="R28" s="245"/>
+      <c r="S28" s="246" t="s">
         <v>58</v>
       </c>
-      <c r="T28" s="290"/>
+      <c r="T28" s="247"/>
       <c r="U28" s="108"/>
       <c r="V28" s="108"/>
       <c r="W28" s="2"/>
@@ -3772,10 +3747,10 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="275" t="s">
+      <c r="E29" s="248" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="275"/>
+      <c r="F29" s="248"/>
       <c r="G29" s="2"/>
       <c r="H29" s="51"/>
       <c r="I29" s="154"/>
@@ -3783,11 +3758,11 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="275"/>
-      <c r="O29" s="275"/>
+      <c r="N29" s="248"/>
+      <c r="O29" s="248"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="275"/>
-      <c r="R29" s="275"/>
+      <c r="Q29" s="248"/>
+      <c r="R29" s="248"/>
       <c r="S29" s="26"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -3803,10 +3778,10 @@
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="280" t="s">
+      <c r="A30" s="211" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="280"/>
+      <c r="B30" s="211"/>
       <c r="C30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
@@ -3814,28 +3789,28 @@
       <c r="G30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="258" t="s">
+      <c r="H30" s="249" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="258"/>
-      <c r="J30" s="279" t="s">
+      <c r="I30" s="249"/>
+      <c r="J30" s="250" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="280"/>
-      <c r="L30" s="280"/>
+      <c r="K30" s="211"/>
+      <c r="L30" s="211"/>
       <c r="M30" s="81"/>
       <c r="N30" s="81"/>
       <c r="O30" s="81"/>
-      <c r="P30" s="280" t="s">
+      <c r="P30" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="280"/>
-      <c r="R30" s="280"/>
-      <c r="S30" s="279" t="s">
+      <c r="Q30" s="211"/>
+      <c r="R30" s="211"/>
+      <c r="S30" s="250" t="s">
         <v>64</v>
       </c>
-      <c r="T30" s="280"/>
-      <c r="U30" s="280"/>
+      <c r="T30" s="211"/>
+      <c r="U30" s="211"/>
       <c r="V30" s="81"/>
       <c r="W30" s="81"/>
       <c r="X30" s="81"/>
@@ -3851,22 +3826,22 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="273" t="s">
+      <c r="D31" s="253" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="273"/>
-      <c r="F31" s="273"/>
+      <c r="E31" s="253"/>
+      <c r="F31" s="253"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="24"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="278" t="s">
+      <c r="M31" s="229" t="s">
         <v>57</v>
       </c>
-      <c r="N31" s="278"/>
-      <c r="O31" s="278"/>
+      <c r="N31" s="229"/>
+      <c r="O31" s="229"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -3896,21 +3871,21 @@
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="80"/>
-      <c r="J32" s="279" t="s">
+      <c r="J32" s="250" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="280"/>
-      <c r="L32" s="280"/>
+      <c r="K32" s="211"/>
+      <c r="L32" s="211"/>
       <c r="M32" s="44"/>
       <c r="N32" s="44"/>
       <c r="O32" s="79"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="65"/>
-      <c r="S32" s="283" t="s">
+      <c r="S32" s="236" t="s">
         <v>68</v>
       </c>
-      <c r="T32" s="284"/>
+      <c r="T32" s="209"/>
       <c r="U32" s="81"/>
       <c r="V32" s="81"/>
       <c r="W32" s="81"/>
@@ -3925,33 +3900,33 @@
     </row>
     <row r="33" spans="1:32" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="243" t="s">
+      <c r="B33" s="222" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243" t="s">
+      <c r="C33" s="222"/>
+      <c r="D33" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
+      <c r="E33" s="222"/>
+      <c r="F33" s="222"/>
       <c r="G33" s="125" t="s">
         <v>71</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="124"/>
-      <c r="J33" s="281"/>
-      <c r="K33" s="282"/>
-      <c r="L33" s="282"/>
-      <c r="M33" s="278" t="s">
+      <c r="J33" s="239"/>
+      <c r="K33" s="240"/>
+      <c r="L33" s="240"/>
+      <c r="M33" s="229" t="s">
         <v>70</v>
       </c>
-      <c r="N33" s="278"/>
-      <c r="O33" s="278" t="s">
+      <c r="N33" s="229"/>
+      <c r="O33" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="P33" s="278"/>
-      <c r="Q33" s="278"/>
-      <c r="R33" s="285"/>
+      <c r="P33" s="229"/>
+      <c r="Q33" s="229"/>
+      <c r="R33" s="254"/>
       <c r="S33" s="24"/>
       <c r="T33" s="2"/>
       <c r="U33" s="19"/>
@@ -3967,10 +3942,10 @@
       <c r="AE33" s="19"/>
     </row>
     <row r="34" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="288" t="s">
+      <c r="A34" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="289"/>
+      <c r="B34" s="257"/>
       <c r="C34" s="65"/>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
@@ -3978,17 +3953,17 @@
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
       <c r="I34" s="122"/>
-      <c r="J34" s="279" t="s">
+      <c r="J34" s="250" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="280"/>
+      <c r="K34" s="211"/>
       <c r="L34" s="65"/>
       <c r="M34" s="44"/>
       <c r="N34" s="44"/>
       <c r="O34" s="79"/>
       <c r="P34" s="79"/>
       <c r="Q34" s="79"/>
-      <c r="R34" s="286"/>
+      <c r="R34" s="255"/>
       <c r="S34" s="24"/>
       <c r="T34" s="81"/>
       <c r="U34" s="81"/>
@@ -4004,34 +3979,34 @@
       <c r="AE34" s="81"/>
     </row>
     <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="290"/>
-      <c r="B35" s="289"/>
+      <c r="A35" s="247"/>
+      <c r="B35" s="257"/>
       <c r="C35" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="278" t="s">
+      <c r="D35" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="278"/>
-      <c r="F35" s="278"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
       <c r="G35" s="107"/>
       <c r="H35" s="107"/>
       <c r="I35" s="123"/>
-      <c r="J35" s="274"/>
-      <c r="K35" s="275"/>
+      <c r="J35" s="246"/>
+      <c r="K35" s="248"/>
       <c r="L35" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="M35" s="278" t="s">
+      <c r="M35" s="229" t="s">
         <v>70</v>
       </c>
-      <c r="N35" s="278"/>
-      <c r="O35" s="278" t="s">
+      <c r="N35" s="229"/>
+      <c r="O35" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="P35" s="278"/>
-      <c r="Q35" s="278"/>
-      <c r="R35" s="287"/>
+      <c r="P35" s="229"/>
+      <c r="Q35" s="229"/>
+      <c r="R35" s="256"/>
       <c r="S35" s="25"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
@@ -4053,11 +4028,11 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="268" t="s">
+      <c r="G36" s="258" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="268"/>
-      <c r="I36" s="269"/>
+      <c r="H36" s="258"/>
+      <c r="I36" s="259"/>
       <c r="J36" s="25"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -4117,257 +4092,257 @@
       <c r="AE37" s="5"/>
     </row>
     <row r="38" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="270" t="s">
+      <c r="A38" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="271"/>
-      <c r="C38" s="271"/>
-      <c r="D38" s="271"/>
-      <c r="E38" s="271"/>
-      <c r="F38" s="271"/>
-      <c r="G38" s="271"/>
-      <c r="H38" s="271"/>
-      <c r="I38" s="271"/>
-      <c r="J38" s="271"/>
-      <c r="K38" s="271"/>
-      <c r="L38" s="271"/>
-      <c r="M38" s="271"/>
-      <c r="N38" s="271"/>
-      <c r="O38" s="271"/>
-      <c r="P38" s="271"/>
-      <c r="Q38" s="271"/>
-      <c r="R38" s="271"/>
-      <c r="S38" s="271"/>
-      <c r="T38" s="271"/>
-      <c r="U38" s="271"/>
-      <c r="V38" s="271"/>
-      <c r="W38" s="271"/>
-      <c r="X38" s="271"/>
-      <c r="Y38" s="271"/>
-      <c r="Z38" s="271"/>
-      <c r="AA38" s="271"/>
-      <c r="AB38" s="271"/>
-      <c r="AC38" s="271"/>
-      <c r="AD38" s="271"/>
-      <c r="AE38" s="271"/>
+      <c r="B38" s="261"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="261"/>
+      <c r="F38" s="261"/>
+      <c r="G38" s="261"/>
+      <c r="H38" s="261"/>
+      <c r="I38" s="261"/>
+      <c r="J38" s="261"/>
+      <c r="K38" s="261"/>
+      <c r="L38" s="261"/>
+      <c r="M38" s="261"/>
+      <c r="N38" s="261"/>
+      <c r="O38" s="261"/>
+      <c r="P38" s="261"/>
+      <c r="Q38" s="261"/>
+      <c r="R38" s="261"/>
+      <c r="S38" s="261"/>
+      <c r="T38" s="261"/>
+      <c r="U38" s="261"/>
+      <c r="V38" s="261"/>
+      <c r="W38" s="261"/>
+      <c r="X38" s="261"/>
+      <c r="Y38" s="261"/>
+      <c r="Z38" s="261"/>
+      <c r="AA38" s="261"/>
+      <c r="AB38" s="261"/>
+      <c r="AC38" s="261"/>
+      <c r="AD38" s="261"/>
+      <c r="AE38" s="261"/>
       <c r="AF38" s="17"/>
     </row>
     <row r="39" spans="1:32" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="272" t="s">
+      <c r="A39" s="262" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="273"/>
-      <c r="C39" s="272" t="s">
+      <c r="B39" s="253"/>
+      <c r="C39" s="262" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="273"/>
-      <c r="E39" s="273"/>
-      <c r="F39" s="273"/>
-      <c r="G39" s="272" t="s">
+      <c r="D39" s="253"/>
+      <c r="E39" s="253"/>
+      <c r="F39" s="253"/>
+      <c r="G39" s="262" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="273"/>
-      <c r="I39" s="273"/>
-      <c r="J39" s="273"/>
-      <c r="K39" s="273"/>
-      <c r="L39" s="272" t="s">
+      <c r="H39" s="253"/>
+      <c r="I39" s="253"/>
+      <c r="J39" s="253"/>
+      <c r="K39" s="253"/>
+      <c r="L39" s="262" t="s">
         <v>79</v>
       </c>
-      <c r="M39" s="273"/>
-      <c r="N39" s="273"/>
-      <c r="O39" s="273"/>
-      <c r="P39" s="273"/>
-      <c r="Q39" s="222" t="s">
+      <c r="M39" s="253"/>
+      <c r="N39" s="253"/>
+      <c r="O39" s="253"/>
+      <c r="P39" s="253"/>
+      <c r="Q39" s="226" t="s">
         <v>80</v>
       </c>
-      <c r="R39" s="249"/>
-      <c r="S39" s="249"/>
-      <c r="T39" s="249"/>
-      <c r="U39" s="249"/>
-      <c r="V39" s="251" t="s">
+      <c r="R39" s="227"/>
+      <c r="S39" s="227"/>
+      <c r="T39" s="227"/>
+      <c r="U39" s="227"/>
+      <c r="V39" s="263" t="s">
         <v>81</v>
       </c>
-      <c r="W39" s="252"/>
-      <c r="X39" s="276"/>
-      <c r="Y39" s="277"/>
-      <c r="Z39" s="222" t="s">
+      <c r="W39" s="264"/>
+      <c r="X39" s="265"/>
+      <c r="Y39" s="266"/>
+      <c r="Z39" s="226" t="s">
         <v>82</v>
       </c>
-      <c r="AA39" s="249"/>
-      <c r="AB39" s="249"/>
-      <c r="AC39" s="222" t="s">
+      <c r="AA39" s="227"/>
+      <c r="AB39" s="227"/>
+      <c r="AC39" s="226" t="s">
         <v>83</v>
       </c>
-      <c r="AD39" s="249"/>
-      <c r="AE39" s="250"/>
+      <c r="AD39" s="227"/>
+      <c r="AE39" s="228"/>
       <c r="AF39" s="17"/>
     </row>
     <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="274"/>
-      <c r="B40" s="275"/>
-      <c r="C40" s="274"/>
-      <c r="D40" s="275"/>
-      <c r="E40" s="275"/>
-      <c r="F40" s="275"/>
-      <c r="G40" s="274"/>
-      <c r="H40" s="275"/>
-      <c r="I40" s="275"/>
-      <c r="J40" s="275"/>
-      <c r="K40" s="275"/>
-      <c r="L40" s="274"/>
-      <c r="M40" s="275"/>
-      <c r="N40" s="275"/>
-      <c r="O40" s="275"/>
-      <c r="P40" s="275"/>
-      <c r="Q40" s="263" t="s">
+      <c r="A40" s="246"/>
+      <c r="B40" s="248"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="248"/>
+      <c r="E40" s="248"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="246"/>
+      <c r="H40" s="248"/>
+      <c r="I40" s="248"/>
+      <c r="J40" s="248"/>
+      <c r="K40" s="248"/>
+      <c r="L40" s="246"/>
+      <c r="M40" s="248"/>
+      <c r="N40" s="248"/>
+      <c r="O40" s="248"/>
+      <c r="P40" s="248"/>
+      <c r="Q40" s="267" t="s">
         <v>84</v>
       </c>
-      <c r="R40" s="264"/>
-      <c r="S40" s="264"/>
-      <c r="T40" s="264"/>
+      <c r="R40" s="268"/>
+      <c r="S40" s="268"/>
+      <c r="T40" s="268"/>
       <c r="U40" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V40" s="222" t="s">
+      <c r="V40" s="226" t="s">
         <v>85</v>
       </c>
-      <c r="W40" s="249"/>
-      <c r="X40" s="222" t="s">
+      <c r="W40" s="227"/>
+      <c r="X40" s="226" t="s">
         <v>86</v>
       </c>
-      <c r="Y40" s="250"/>
-      <c r="Z40" s="223"/>
-      <c r="AA40" s="234"/>
-      <c r="AB40" s="234"/>
-      <c r="AC40" s="223"/>
-      <c r="AD40" s="234"/>
-      <c r="AE40" s="234"/>
+      <c r="Y40" s="228"/>
+      <c r="Z40" s="244"/>
+      <c r="AA40" s="216"/>
+      <c r="AB40" s="216"/>
+      <c r="AC40" s="244"/>
+      <c r="AD40" s="216"/>
+      <c r="AE40" s="216"/>
       <c r="AF40" s="17"/>
     </row>
     <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="222">
+      <c r="A41" s="226">
         <v>10</v>
       </c>
-      <c r="B41" s="249"/>
-      <c r="C41" s="222">
+      <c r="B41" s="227"/>
+      <c r="C41" s="226">
         <v>11</v>
       </c>
-      <c r="D41" s="249"/>
-      <c r="E41" s="249"/>
-      <c r="F41" s="249"/>
-      <c r="G41" s="222">
+      <c r="D41" s="227"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="226">
         <v>12</v>
       </c>
-      <c r="H41" s="249"/>
-      <c r="I41" s="249"/>
-      <c r="J41" s="249"/>
-      <c r="K41" s="249"/>
-      <c r="L41" s="222">
+      <c r="H41" s="227"/>
+      <c r="I41" s="227"/>
+      <c r="J41" s="227"/>
+      <c r="K41" s="227"/>
+      <c r="L41" s="226">
         <v>13</v>
       </c>
-      <c r="M41" s="249"/>
-      <c r="N41" s="249"/>
-      <c r="O41" s="249"/>
-      <c r="P41" s="249"/>
-      <c r="Q41" s="222">
+      <c r="M41" s="227"/>
+      <c r="N41" s="227"/>
+      <c r="O41" s="227"/>
+      <c r="P41" s="227"/>
+      <c r="Q41" s="226">
         <v>14</v>
       </c>
-      <c r="R41" s="249"/>
-      <c r="S41" s="249"/>
-      <c r="T41" s="249"/>
+      <c r="R41" s="227"/>
+      <c r="S41" s="227"/>
+      <c r="T41" s="227"/>
       <c r="U41" s="29">
         <v>15</v>
       </c>
-      <c r="V41" s="222">
+      <c r="V41" s="226">
         <v>16</v>
       </c>
-      <c r="W41" s="249"/>
-      <c r="X41" s="222">
+      <c r="W41" s="227"/>
+      <c r="X41" s="226">
         <v>17</v>
       </c>
-      <c r="Y41" s="249"/>
-      <c r="Z41" s="222">
+      <c r="Y41" s="227"/>
+      <c r="Z41" s="226">
         <v>18</v>
       </c>
-      <c r="AA41" s="249"/>
-      <c r="AB41" s="249"/>
-      <c r="AC41" s="222">
+      <c r="AA41" s="227"/>
+      <c r="AB41" s="227"/>
+      <c r="AC41" s="226">
         <v>19</v>
       </c>
-      <c r="AD41" s="249"/>
-      <c r="AE41" s="250"/>
+      <c r="AD41" s="227"/>
+      <c r="AE41" s="228"/>
       <c r="AF41" s="17"/>
     </row>
     <row r="42" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="263" t="s">
+      <c r="A42" s="267" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="264"/>
-      <c r="C42" s="265"/>
-      <c r="D42" s="266"/>
-      <c r="E42" s="266"/>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265"/>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="266"/>
-      <c r="L42" s="265"/>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="266"/>
-      <c r="Q42" s="265"/>
-      <c r="R42" s="266"/>
-      <c r="S42" s="266"/>
-      <c r="T42" s="266"/>
+      <c r="B42" s="268"/>
+      <c r="C42" s="269"/>
+      <c r="D42" s="270"/>
+      <c r="E42" s="270"/>
+      <c r="F42" s="270"/>
+      <c r="G42" s="269"/>
+      <c r="H42" s="270"/>
+      <c r="I42" s="270"/>
+      <c r="J42" s="270"/>
+      <c r="K42" s="270"/>
+      <c r="L42" s="269"/>
+      <c r="M42" s="270"/>
+      <c r="N42" s="270"/>
+      <c r="O42" s="270"/>
+      <c r="P42" s="270"/>
+      <c r="Q42" s="269"/>
+      <c r="R42" s="270"/>
+      <c r="S42" s="270"/>
+      <c r="T42" s="270"/>
       <c r="U42" s="109"/>
-      <c r="V42" s="242"/>
-      <c r="W42" s="242"/>
-      <c r="X42" s="242"/>
-      <c r="Y42" s="242"/>
-      <c r="Z42" s="242"/>
-      <c r="AA42" s="242"/>
-      <c r="AB42" s="242"/>
-      <c r="AC42" s="266"/>
-      <c r="AD42" s="266"/>
-      <c r="AE42" s="267"/>
+      <c r="V42" s="271"/>
+      <c r="W42" s="271"/>
+      <c r="X42" s="271"/>
+      <c r="Y42" s="271"/>
+      <c r="Z42" s="271"/>
+      <c r="AA42" s="271"/>
+      <c r="AB42" s="271"/>
+      <c r="AC42" s="270"/>
+      <c r="AD42" s="270"/>
+      <c r="AE42" s="272"/>
       <c r="AF42" s="17"/>
     </row>
     <row r="43" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="263" t="s">
+      <c r="A43" s="267" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="264"/>
-      <c r="C43" s="265"/>
-      <c r="D43" s="266"/>
-      <c r="E43" s="266"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="265"/>
-      <c r="H43" s="266"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="266"/>
-      <c r="K43" s="266"/>
-      <c r="L43" s="265"/>
-      <c r="M43" s="266"/>
-      <c r="N43" s="266"/>
-      <c r="O43" s="266"/>
-      <c r="P43" s="266"/>
-      <c r="Q43" s="265"/>
-      <c r="R43" s="266"/>
-      <c r="S43" s="266"/>
-      <c r="T43" s="266"/>
+      <c r="B43" s="268"/>
+      <c r="C43" s="269"/>
+      <c r="D43" s="270"/>
+      <c r="E43" s="270"/>
+      <c r="F43" s="270"/>
+      <c r="G43" s="269"/>
+      <c r="H43" s="270"/>
+      <c r="I43" s="270"/>
+      <c r="J43" s="270"/>
+      <c r="K43" s="270"/>
+      <c r="L43" s="269"/>
+      <c r="M43" s="270"/>
+      <c r="N43" s="270"/>
+      <c r="O43" s="270"/>
+      <c r="P43" s="270"/>
+      <c r="Q43" s="269"/>
+      <c r="R43" s="270"/>
+      <c r="S43" s="270"/>
+      <c r="T43" s="270"/>
       <c r="U43" s="109"/>
-      <c r="V43" s="242"/>
-      <c r="W43" s="242"/>
-      <c r="X43" s="242"/>
-      <c r="Y43" s="242"/>
-      <c r="Z43" s="242"/>
-      <c r="AA43" s="242"/>
-      <c r="AB43" s="242"/>
-      <c r="AC43" s="266"/>
-      <c r="AD43" s="266"/>
-      <c r="AE43" s="267"/>
+      <c r="V43" s="271"/>
+      <c r="W43" s="271"/>
+      <c r="X43" s="271"/>
+      <c r="Y43" s="271"/>
+      <c r="Z43" s="271"/>
+      <c r="AA43" s="271"/>
+      <c r="AB43" s="271"/>
+      <c r="AC43" s="270"/>
+      <c r="AD43" s="270"/>
+      <c r="AE43" s="272"/>
       <c r="AF43" s="17"/>
     </row>
     <row r="44" spans="1:32" ht="5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4404,78 +4379,78 @@
       <c r="AE44" s="20"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="222" t="s">
+      <c r="A45" s="226" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="249"/>
-      <c r="C45" s="249"/>
-      <c r="D45" s="249"/>
-      <c r="E45" s="249"/>
-      <c r="F45" s="249"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="249"/>
-      <c r="I45" s="249"/>
-      <c r="J45" s="249"/>
-      <c r="K45" s="249"/>
-      <c r="L45" s="249"/>
-      <c r="M45" s="249"/>
-      <c r="N45" s="249"/>
-      <c r="O45" s="249"/>
-      <c r="P45" s="249"/>
-      <c r="Q45" s="249"/>
-      <c r="R45" s="249"/>
-      <c r="S45" s="249"/>
-      <c r="T45" s="249"/>
-      <c r="U45" s="249"/>
-      <c r="V45" s="249"/>
-      <c r="W45" s="249"/>
-      <c r="X45" s="256" t="s">
+      <c r="B45" s="227"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="227"/>
+      <c r="E45" s="227"/>
+      <c r="F45" s="227"/>
+      <c r="G45" s="227"/>
+      <c r="H45" s="227"/>
+      <c r="I45" s="227"/>
+      <c r="J45" s="227"/>
+      <c r="K45" s="227"/>
+      <c r="L45" s="227"/>
+      <c r="M45" s="227"/>
+      <c r="N45" s="227"/>
+      <c r="O45" s="227"/>
+      <c r="P45" s="227"/>
+      <c r="Q45" s="227"/>
+      <c r="R45" s="227"/>
+      <c r="S45" s="227"/>
+      <c r="T45" s="227"/>
+      <c r="U45" s="227"/>
+      <c r="V45" s="227"/>
+      <c r="W45" s="227"/>
+      <c r="X45" s="273" t="s">
         <v>90</v>
       </c>
-      <c r="Y45" s="257"/>
-      <c r="Z45" s="258"/>
-      <c r="AA45" s="258"/>
-      <c r="AB45" s="258"/>
-      <c r="AC45" s="258"/>
-      <c r="AD45" s="258"/>
-      <c r="AE45" s="258"/>
+      <c r="Y45" s="274"/>
+      <c r="Z45" s="249"/>
+      <c r="AA45" s="249"/>
+      <c r="AB45" s="249"/>
+      <c r="AC45" s="249"/>
+      <c r="AD45" s="249"/>
+      <c r="AE45" s="249"/>
     </row>
     <row r="46" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="222" t="s">
+      <c r="A46" s="226" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="249"/>
-      <c r="C46" s="249"/>
-      <c r="D46" s="249"/>
-      <c r="E46" s="249"/>
-      <c r="F46" s="222" t="s">
+      <c r="B46" s="227"/>
+      <c r="C46" s="227"/>
+      <c r="D46" s="227"/>
+      <c r="E46" s="227"/>
+      <c r="F46" s="226" t="s">
         <v>92</v>
       </c>
-      <c r="G46" s="249"/>
-      <c r="H46" s="259" t="s">
+      <c r="G46" s="227"/>
+      <c r="H46" s="275" t="s">
         <v>93</v>
       </c>
-      <c r="I46" s="260"/>
-      <c r="J46" s="260"/>
-      <c r="K46" s="261"/>
-      <c r="L46" s="222" t="s">
+      <c r="I46" s="276"/>
+      <c r="J46" s="276"/>
+      <c r="K46" s="277"/>
+      <c r="L46" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="M46" s="249"/>
-      <c r="N46" s="249"/>
-      <c r="O46" s="249"/>
-      <c r="P46" s="249"/>
-      <c r="Q46" s="222" t="s">
+      <c r="M46" s="227"/>
+      <c r="N46" s="227"/>
+      <c r="O46" s="227"/>
+      <c r="P46" s="227"/>
+      <c r="Q46" s="226" t="s">
         <v>95</v>
       </c>
-      <c r="R46" s="249"/>
-      <c r="S46" s="249"/>
-      <c r="T46" s="222" t="s">
+      <c r="R46" s="227"/>
+      <c r="S46" s="227"/>
+      <c r="T46" s="226" t="s">
         <v>96</v>
       </c>
-      <c r="U46" s="249"/>
-      <c r="V46" s="249"/>
-      <c r="W46" s="250"/>
+      <c r="U46" s="227"/>
+      <c r="V46" s="227"/>
+      <c r="W46" s="228"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="79"/>
       <c r="Z46" s="79"/>
@@ -4486,41 +4461,41 @@
       <c r="AE46" s="79"/>
     </row>
     <row r="47" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="223"/>
-      <c r="B47" s="234"/>
-      <c r="C47" s="234"/>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="223"/>
-      <c r="G47" s="234"/>
-      <c r="H47" s="222" t="s">
+      <c r="A47" s="244"/>
+      <c r="B47" s="216"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="244"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="226" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="249"/>
-      <c r="J47" s="222" t="s">
+      <c r="I47" s="227"/>
+      <c r="J47" s="226" t="s">
         <v>98</v>
       </c>
-      <c r="K47" s="249"/>
-      <c r="L47" s="222"/>
-      <c r="M47" s="249"/>
-      <c r="N47" s="249"/>
-      <c r="O47" s="249"/>
-      <c r="P47" s="249"/>
-      <c r="Q47" s="222" t="s">
+      <c r="K47" s="227"/>
+      <c r="L47" s="226"/>
+      <c r="M47" s="227"/>
+      <c r="N47" s="227"/>
+      <c r="O47" s="227"/>
+      <c r="P47" s="227"/>
+      <c r="Q47" s="226" t="s">
         <v>99</v>
       </c>
-      <c r="R47" s="249"/>
-      <c r="S47" s="254" t="s">
+      <c r="R47" s="227"/>
+      <c r="S47" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="T47" s="222" t="s">
+      <c r="T47" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="U47" s="249"/>
-      <c r="V47" s="222" t="s">
+      <c r="U47" s="227"/>
+      <c r="V47" s="226" t="s">
         <v>102</v>
       </c>
-      <c r="W47" s="250"/>
+      <c r="W47" s="228"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="87"/>
       <c r="Z47" s="87"/>
@@ -4546,24 +4521,24 @@
       <c r="E48" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="223"/>
-      <c r="G48" s="234"/>
-      <c r="H48" s="223"/>
-      <c r="I48" s="234"/>
-      <c r="J48" s="223"/>
-      <c r="K48" s="234"/>
-      <c r="L48" s="223"/>
-      <c r="M48" s="234"/>
-      <c r="N48" s="234"/>
-      <c r="O48" s="234"/>
-      <c r="P48" s="234"/>
-      <c r="Q48" s="223"/>
-      <c r="R48" s="234"/>
-      <c r="S48" s="262"/>
-      <c r="T48" s="223"/>
-      <c r="U48" s="234"/>
-      <c r="V48" s="223"/>
-      <c r="W48" s="234"/>
+      <c r="F48" s="244"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="244"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="244"/>
+      <c r="K48" s="216"/>
+      <c r="L48" s="244"/>
+      <c r="M48" s="216"/>
+      <c r="N48" s="216"/>
+      <c r="O48" s="216"/>
+      <c r="P48" s="216"/>
+      <c r="Q48" s="244"/>
+      <c r="R48" s="216"/>
+      <c r="S48" s="279"/>
+      <c r="T48" s="244"/>
+      <c r="U48" s="216"/>
+      <c r="V48" s="244"/>
+      <c r="W48" s="216"/>
       <c r="X48" s="25"/>
       <c r="Y48" s="87"/>
       <c r="Z48" s="87"/>
@@ -4589,40 +4564,40 @@
       <c r="E49" s="29">
         <v>24</v>
       </c>
-      <c r="F49" s="222">
+      <c r="F49" s="226">
         <v>25</v>
       </c>
-      <c r="G49" s="249"/>
-      <c r="H49" s="222">
+      <c r="G49" s="227"/>
+      <c r="H49" s="226">
         <v>26</v>
       </c>
-      <c r="I49" s="249"/>
-      <c r="J49" s="222">
+      <c r="I49" s="227"/>
+      <c r="J49" s="226">
         <v>27</v>
       </c>
-      <c r="K49" s="249"/>
-      <c r="L49" s="222">
+      <c r="K49" s="227"/>
+      <c r="L49" s="226">
         <v>28</v>
       </c>
-      <c r="M49" s="249"/>
-      <c r="N49" s="249"/>
-      <c r="O49" s="249"/>
-      <c r="P49" s="249"/>
-      <c r="Q49" s="222">
+      <c r="M49" s="227"/>
+      <c r="N49" s="227"/>
+      <c r="O49" s="227"/>
+      <c r="P49" s="227"/>
+      <c r="Q49" s="226">
         <v>29</v>
       </c>
-      <c r="R49" s="249"/>
+      <c r="R49" s="227"/>
       <c r="S49" s="29">
         <v>30</v>
       </c>
-      <c r="T49" s="222">
+      <c r="T49" s="226">
         <v>31</v>
       </c>
-      <c r="U49" s="249"/>
-      <c r="V49" s="222">
+      <c r="U49" s="227"/>
+      <c r="V49" s="226">
         <v>32</v>
       </c>
-      <c r="W49" s="250"/>
+      <c r="W49" s="228"/>
       <c r="X49" s="25"/>
       <c r="Y49" s="23"/>
       <c r="Z49" s="23"/>
@@ -4638,24 +4613,24 @@
       <c r="C50" s="109"/>
       <c r="D50" s="109"/>
       <c r="E50" s="109"/>
-      <c r="F50" s="242"/>
-      <c r="G50" s="242"/>
-      <c r="H50" s="242"/>
-      <c r="I50" s="242"/>
-      <c r="J50" s="242"/>
-      <c r="K50" s="242"/>
-      <c r="L50" s="242"/>
-      <c r="M50" s="242"/>
-      <c r="N50" s="242"/>
-      <c r="O50" s="242"/>
-      <c r="P50" s="242"/>
-      <c r="Q50" s="242"/>
-      <c r="R50" s="242"/>
+      <c r="F50" s="271"/>
+      <c r="G50" s="271"/>
+      <c r="H50" s="271"/>
+      <c r="I50" s="271"/>
+      <c r="J50" s="271"/>
+      <c r="K50" s="271"/>
+      <c r="L50" s="271"/>
+      <c r="M50" s="271"/>
+      <c r="N50" s="271"/>
+      <c r="O50" s="271"/>
+      <c r="P50" s="271"/>
+      <c r="Q50" s="271"/>
+      <c r="R50" s="271"/>
       <c r="S50" s="109"/>
-      <c r="T50" s="242"/>
-      <c r="U50" s="242"/>
-      <c r="V50" s="242"/>
-      <c r="W50" s="242"/>
+      <c r="T50" s="271"/>
+      <c r="U50" s="271"/>
+      <c r="V50" s="271"/>
+      <c r="W50" s="271"/>
       <c r="X50" s="108"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="2"/>
@@ -4699,47 +4674,47 @@
       <c r="AE51" s="1"/>
     </row>
     <row r="52" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="222" t="s">
+      <c r="A52" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="249"/>
-      <c r="C52" s="249"/>
-      <c r="D52" s="249"/>
-      <c r="E52" s="222" t="s">
+      <c r="B52" s="227"/>
+      <c r="C52" s="227"/>
+      <c r="D52" s="227"/>
+      <c r="E52" s="226" t="s">
         <v>109</v>
       </c>
-      <c r="F52" s="249"/>
-      <c r="G52" s="222" t="s">
+      <c r="F52" s="227"/>
+      <c r="G52" s="226" t="s">
         <v>110</v>
       </c>
-      <c r="H52" s="249"/>
-      <c r="I52" s="222" t="s">
+      <c r="H52" s="227"/>
+      <c r="I52" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="J52" s="249"/>
-      <c r="K52" s="249"/>
-      <c r="L52" s="222" t="s">
+      <c r="J52" s="227"/>
+      <c r="K52" s="227"/>
+      <c r="L52" s="226" t="s">
         <v>112</v>
       </c>
-      <c r="M52" s="249"/>
-      <c r="N52" s="222" t="s">
+      <c r="M52" s="227"/>
+      <c r="N52" s="226" t="s">
         <v>113</v>
       </c>
-      <c r="O52" s="249"/>
-      <c r="P52" s="251" t="s">
+      <c r="O52" s="227"/>
+      <c r="P52" s="263" t="s">
         <v>155</v>
       </c>
-      <c r="Q52" s="252"/>
-      <c r="R52" s="252"/>
-      <c r="S52" s="253"/>
-      <c r="T52" s="254" t="s">
+      <c r="Q52" s="264"/>
+      <c r="R52" s="264"/>
+      <c r="S52" s="280"/>
+      <c r="T52" s="278" t="s">
         <v>156</v>
       </c>
-      <c r="U52" s="222" t="s">
+      <c r="U52" s="226" t="s">
         <v>114</v>
       </c>
-      <c r="V52" s="249"/>
-      <c r="W52" s="222" t="s">
+      <c r="V52" s="227"/>
+      <c r="W52" s="226" t="s">
         <v>115</v>
       </c>
       <c r="X52" s="24"/>
@@ -4752,33 +4727,33 @@
       <c r="AE52" s="5"/>
     </row>
     <row r="53" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="223"/>
-      <c r="B53" s="234"/>
-      <c r="C53" s="234"/>
-      <c r="D53" s="234"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="234"/>
-      <c r="G53" s="223"/>
-      <c r="H53" s="234"/>
-      <c r="I53" s="223"/>
-      <c r="J53" s="234"/>
-      <c r="K53" s="234"/>
-      <c r="L53" s="223"/>
-      <c r="M53" s="234"/>
-      <c r="N53" s="223"/>
-      <c r="O53" s="234"/>
-      <c r="P53" s="222" t="s">
+      <c r="A53" s="244"/>
+      <c r="B53" s="216"/>
+      <c r="C53" s="216"/>
+      <c r="D53" s="216"/>
+      <c r="E53" s="244"/>
+      <c r="F53" s="216"/>
+      <c r="G53" s="244"/>
+      <c r="H53" s="216"/>
+      <c r="I53" s="244"/>
+      <c r="J53" s="216"/>
+      <c r="K53" s="216"/>
+      <c r="L53" s="244"/>
+      <c r="M53" s="216"/>
+      <c r="N53" s="244"/>
+      <c r="O53" s="216"/>
+      <c r="P53" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="Q53" s="249"/>
-      <c r="R53" s="222" t="s">
+      <c r="Q53" s="227"/>
+      <c r="R53" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="S53" s="250"/>
-      <c r="T53" s="255"/>
-      <c r="U53" s="223"/>
-      <c r="V53" s="234"/>
-      <c r="W53" s="223"/>
+      <c r="S53" s="228"/>
+      <c r="T53" s="281"/>
+      <c r="U53" s="244"/>
+      <c r="V53" s="216"/>
+      <c r="W53" s="244"/>
       <c r="X53" s="24"/>
       <c r="Y53" s="79"/>
       <c r="Z53" s="79"/>
@@ -4789,46 +4764,46 @@
       <c r="AE53" s="79"/>
     </row>
     <row r="54" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="223"/>
-      <c r="B54" s="234"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="234"/>
-      <c r="E54" s="222">
+      <c r="A54" s="244"/>
+      <c r="B54" s="216"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="216"/>
+      <c r="E54" s="226">
         <v>33</v>
       </c>
-      <c r="F54" s="249"/>
-      <c r="G54" s="222">
+      <c r="F54" s="227"/>
+      <c r="G54" s="226">
         <v>34</v>
       </c>
-      <c r="H54" s="249"/>
-      <c r="I54" s="222">
+      <c r="H54" s="227"/>
+      <c r="I54" s="226">
         <v>35</v>
       </c>
-      <c r="J54" s="249"/>
-      <c r="K54" s="249"/>
-      <c r="L54" s="222">
+      <c r="J54" s="227"/>
+      <c r="K54" s="227"/>
+      <c r="L54" s="226">
         <v>36</v>
       </c>
-      <c r="M54" s="249"/>
-      <c r="N54" s="222">
+      <c r="M54" s="227"/>
+      <c r="N54" s="226">
         <v>37</v>
       </c>
-      <c r="O54" s="249"/>
-      <c r="P54" s="222">
+      <c r="O54" s="227"/>
+      <c r="P54" s="226">
         <v>38</v>
       </c>
-      <c r="Q54" s="249"/>
-      <c r="R54" s="222">
+      <c r="Q54" s="227"/>
+      <c r="R54" s="226">
         <v>39</v>
       </c>
-      <c r="S54" s="249"/>
+      <c r="S54" s="227"/>
       <c r="T54" s="30">
         <v>40</v>
       </c>
-      <c r="U54" s="222">
+      <c r="U54" s="226">
         <v>41</v>
       </c>
-      <c r="V54" s="249"/>
+      <c r="V54" s="227"/>
       <c r="W54" s="29">
         <v>42</v>
       </c>
@@ -4842,30 +4817,30 @@
       <c r="AE54" s="87"/>
     </row>
     <row r="55" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="245" t="s">
+      <c r="A55" s="284" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="246"/>
-      <c r="C55" s="246"/>
-      <c r="D55" s="247"/>
-      <c r="E55" s="242"/>
-      <c r="F55" s="242"/>
-      <c r="G55" s="242"/>
-      <c r="H55" s="242"/>
-      <c r="I55" s="242"/>
-      <c r="J55" s="242"/>
-      <c r="K55" s="242"/>
-      <c r="L55" s="242"/>
-      <c r="M55" s="242"/>
-      <c r="N55" s="242"/>
-      <c r="O55" s="242"/>
-      <c r="P55" s="242"/>
-      <c r="Q55" s="242"/>
-      <c r="R55" s="242"/>
-      <c r="S55" s="242"/>
+      <c r="B55" s="285"/>
+      <c r="C55" s="285"/>
+      <c r="D55" s="286"/>
+      <c r="E55" s="271"/>
+      <c r="F55" s="271"/>
+      <c r="G55" s="271"/>
+      <c r="H55" s="271"/>
+      <c r="I55" s="271"/>
+      <c r="J55" s="271"/>
+      <c r="K55" s="271"/>
+      <c r="L55" s="271"/>
+      <c r="M55" s="271"/>
+      <c r="N55" s="271"/>
+      <c r="O55" s="271"/>
+      <c r="P55" s="271"/>
+      <c r="Q55" s="271"/>
+      <c r="R55" s="271"/>
+      <c r="S55" s="271"/>
       <c r="T55" s="109"/>
-      <c r="U55" s="242"/>
-      <c r="V55" s="242"/>
+      <c r="U55" s="271"/>
+      <c r="V55" s="271"/>
       <c r="W55" s="109"/>
       <c r="X55" s="108"/>
       <c r="Y55" s="88"/>
@@ -4877,35 +4852,35 @@
       <c r="AE55" s="88"/>
     </row>
     <row r="56" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="245" t="s">
+      <c r="A56" s="284" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="246"/>
-      <c r="C56" s="246"/>
-      <c r="D56" s="247"/>
-      <c r="E56" s="242"/>
-      <c r="F56" s="242"/>
-      <c r="G56" s="242"/>
-      <c r="H56" s="242"/>
-      <c r="I56" s="242"/>
-      <c r="J56" s="242"/>
-      <c r="K56" s="242"/>
-      <c r="L56" s="242"/>
-      <c r="M56" s="242"/>
-      <c r="N56" s="242"/>
-      <c r="O56" s="242"/>
-      <c r="P56" s="242"/>
-      <c r="Q56" s="242"/>
-      <c r="R56" s="242"/>
-      <c r="S56" s="242"/>
+      <c r="B56" s="285"/>
+      <c r="C56" s="285"/>
+      <c r="D56" s="286"/>
+      <c r="E56" s="271"/>
+      <c r="F56" s="271"/>
+      <c r="G56" s="271"/>
+      <c r="H56" s="271"/>
+      <c r="I56" s="271"/>
+      <c r="J56" s="271"/>
+      <c r="K56" s="271"/>
+      <c r="L56" s="271"/>
+      <c r="M56" s="271"/>
+      <c r="N56" s="271"/>
+      <c r="O56" s="271"/>
+      <c r="P56" s="271"/>
+      <c r="Q56" s="271"/>
+      <c r="R56" s="271"/>
+      <c r="S56" s="271"/>
       <c r="T56" s="109"/>
-      <c r="U56" s="242"/>
-      <c r="V56" s="242"/>
+      <c r="U56" s="271"/>
+      <c r="V56" s="271"/>
       <c r="W56" s="109"/>
-      <c r="X56" s="248" t="s">
+      <c r="X56" s="282" t="s">
         <v>120</v>
       </c>
-      <c r="Y56" s="237"/>
+      <c r="Y56" s="283"/>
       <c r="Z56" s="89"/>
       <c r="AA56" s="89"/>
       <c r="AB56" s="89"/>
@@ -4914,43 +4889,43 @@
       <c r="AE56" s="89"/>
     </row>
     <row r="57" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="245" t="s">
+      <c r="A57" s="284" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="246"/>
-      <c r="C57" s="246"/>
-      <c r="D57" s="247"/>
-      <c r="E57" s="242"/>
-      <c r="F57" s="242"/>
-      <c r="G57" s="242"/>
-      <c r="H57" s="242"/>
-      <c r="I57" s="242"/>
-      <c r="J57" s="242"/>
-      <c r="K57" s="242"/>
-      <c r="L57" s="242"/>
-      <c r="M57" s="242"/>
-      <c r="N57" s="242"/>
-      <c r="O57" s="242"/>
-      <c r="P57" s="242"/>
-      <c r="Q57" s="242"/>
-      <c r="R57" s="242"/>
-      <c r="S57" s="242"/>
+      <c r="B57" s="285"/>
+      <c r="C57" s="285"/>
+      <c r="D57" s="286"/>
+      <c r="E57" s="271"/>
+      <c r="F57" s="271"/>
+      <c r="G57" s="271"/>
+      <c r="H57" s="271"/>
+      <c r="I57" s="271"/>
+      <c r="J57" s="271"/>
+      <c r="K57" s="271"/>
+      <c r="L57" s="271"/>
+      <c r="M57" s="271"/>
+      <c r="N57" s="271"/>
+      <c r="O57" s="271"/>
+      <c r="P57" s="271"/>
+      <c r="Q57" s="271"/>
+      <c r="R57" s="271"/>
+      <c r="S57" s="271"/>
       <c r="T57" s="109"/>
-      <c r="U57" s="242"/>
-      <c r="V57" s="242"/>
+      <c r="U57" s="271"/>
+      <c r="V57" s="271"/>
       <c r="W57" s="109"/>
       <c r="X57" s="111"/>
       <c r="Y57" s="112"/>
-      <c r="Z57" s="243" t="s">
+      <c r="Z57" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="AA57" s="243"/>
-      <c r="AB57" s="243" t="s">
+      <c r="AA57" s="222"/>
+      <c r="AB57" s="222" t="s">
         <v>122</v>
       </c>
-      <c r="AC57" s="243"/>
-      <c r="AD57" s="243"/>
-      <c r="AE57" s="243"/>
+      <c r="AC57" s="222"/>
+      <c r="AD57" s="222"/>
+      <c r="AE57" s="222"/>
     </row>
     <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
@@ -4970,14 +4945,14 @@
       <c r="O58" s="45"/>
       <c r="P58" s="45"/>
       <c r="Q58" s="45"/>
-      <c r="R58" s="244"/>
-      <c r="S58" s="244"/>
-      <c r="T58" s="244"/>
-      <c r="U58" s="244"/>
-      <c r="V58" s="244"/>
-      <c r="W58" s="244"/>
-      <c r="X58" s="244"/>
-      <c r="Y58" s="244"/>
+      <c r="R58" s="290"/>
+      <c r="S58" s="290"/>
+      <c r="T58" s="290"/>
+      <c r="U58" s="290"/>
+      <c r="V58" s="290"/>
+      <c r="W58" s="290"/>
+      <c r="X58" s="290"/>
+      <c r="Y58" s="290"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
       <c r="AB58" s="1"/>
@@ -5006,15 +4981,15 @@
       <c r="R59" s="12"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-      <c r="U59" s="240" t="s">
+      <c r="U59" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="V59" s="241"/>
-      <c r="W59" s="241"/>
-      <c r="X59" s="241"/>
-      <c r="Y59" s="241"/>
-      <c r="Z59" s="241"/>
-      <c r="AA59" s="241"/>
+      <c r="V59" s="288"/>
+      <c r="W59" s="288"/>
+      <c r="X59" s="288"/>
+      <c r="Y59" s="288"/>
+      <c r="Z59" s="288"/>
+      <c r="AA59" s="288"/>
       <c r="AB59" s="14"/>
       <c r="AC59" s="14"/>
       <c r="AD59" s="14"/>
@@ -5041,18 +5016,18 @@
       <c r="R60" s="12"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="U60" s="240" t="s">
+      <c r="U60" s="287" t="s">
         <v>124</v>
       </c>
-      <c r="V60" s="241"/>
-      <c r="W60" s="241"/>
-      <c r="X60" s="241"/>
-      <c r="Y60" s="241"/>
-      <c r="Z60" s="241"/>
-      <c r="AA60" s="241"/>
-      <c r="AB60" s="241"/>
-      <c r="AC60" s="241"/>
-      <c r="AD60" s="241"/>
+      <c r="V60" s="288"/>
+      <c r="W60" s="288"/>
+      <c r="X60" s="288"/>
+      <c r="Y60" s="288"/>
+      <c r="Z60" s="288"/>
+      <c r="AA60" s="288"/>
+      <c r="AB60" s="288"/>
+      <c r="AC60" s="288"/>
+      <c r="AD60" s="288"/>
       <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5076,18 +5051,18 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="240" t="s">
+      <c r="U61" s="287" t="s">
         <v>125</v>
       </c>
-      <c r="V61" s="241"/>
-      <c r="W61" s="241"/>
-      <c r="X61" s="241"/>
-      <c r="Y61" s="241"/>
-      <c r="Z61" s="241"/>
-      <c r="AA61" s="241"/>
-      <c r="AB61" s="241"/>
-      <c r="AC61" s="241"/>
-      <c r="AD61" s="241"/>
+      <c r="V61" s="288"/>
+      <c r="W61" s="288"/>
+      <c r="X61" s="288"/>
+      <c r="Y61" s="288"/>
+      <c r="Z61" s="288"/>
+      <c r="AA61" s="288"/>
+      <c r="AB61" s="288"/>
+      <c r="AC61" s="288"/>
+      <c r="AD61" s="288"/>
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:32" ht="4" customHeight="1" x14ac:dyDescent="0.2">
@@ -5183,11 +5158,11 @@
       <c r="U64" s="14"/>
       <c r="V64" s="14"/>
       <c r="W64" s="14"/>
-      <c r="X64" s="225" t="s">
+      <c r="X64" s="289" t="s">
         <v>126</v>
       </c>
-      <c r="Y64" s="225"/>
-      <c r="Z64" s="225"/>
+      <c r="Y64" s="289"/>
+      <c r="Z64" s="289"/>
       <c r="AA64" s="14"/>
       <c r="AB64" s="126"/>
       <c r="AC64" s="146" t="s">
@@ -5199,33 +5174,33 @@
     </row>
     <row r="65" spans="1:32" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
-      <c r="B65" s="233" t="s">
+      <c r="B65" s="297" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="233"/>
-      <c r="D65" s="233"/>
-      <c r="E65" s="233"/>
-      <c r="F65" s="233"/>
-      <c r="G65" s="233"/>
-      <c r="H65" s="233"/>
-      <c r="I65" s="233"/>
-      <c r="J65" s="233"/>
-      <c r="K65" s="233"/>
-      <c r="L65" s="233"/>
-      <c r="M65" s="233"/>
-      <c r="N65" s="233"/>
-      <c r="O65" s="233"/>
-      <c r="P65" s="233"/>
-      <c r="Q65" s="233"/>
-      <c r="R65" s="233"/>
-      <c r="S65" s="233"/>
-      <c r="T65" s="233"/>
-      <c r="U65" s="233"/>
-      <c r="V65" s="233"/>
-      <c r="W65" s="233"/>
-      <c r="X65" s="233"/>
-      <c r="Y65" s="233"/>
-      <c r="Z65" s="233"/>
+      <c r="C65" s="297"/>
+      <c r="D65" s="297"/>
+      <c r="E65" s="297"/>
+      <c r="F65" s="297"/>
+      <c r="G65" s="297"/>
+      <c r="H65" s="297"/>
+      <c r="I65" s="297"/>
+      <c r="J65" s="297"/>
+      <c r="K65" s="297"/>
+      <c r="L65" s="297"/>
+      <c r="M65" s="297"/>
+      <c r="N65" s="297"/>
+      <c r="O65" s="297"/>
+      <c r="P65" s="297"/>
+      <c r="Q65" s="297"/>
+      <c r="R65" s="297"/>
+      <c r="S65" s="297"/>
+      <c r="T65" s="297"/>
+      <c r="U65" s="297"/>
+      <c r="V65" s="297"/>
+      <c r="W65" s="297"/>
+      <c r="X65" s="297"/>
+      <c r="Y65" s="297"/>
+      <c r="Z65" s="297"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="129"/>
       <c r="AC65" s="147"/>
@@ -5252,18 +5227,18 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="234" t="s">
+      <c r="S66" s="216" t="s">
         <v>128</v>
       </c>
-      <c r="T66" s="234"/>
+      <c r="T66" s="216"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
-      <c r="W66" s="235" t="s">
+      <c r="W66" s="298" t="s">
         <v>129</v>
       </c>
-      <c r="X66" s="236"/>
-      <c r="Y66" s="236"/>
-      <c r="Z66" s="236"/>
+      <c r="X66" s="299"/>
+      <c r="Y66" s="299"/>
+      <c r="Z66" s="299"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="131"/>
       <c r="AC66" s="152"/>
@@ -5294,10 +5269,10 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="236"/>
-      <c r="X67" s="236"/>
-      <c r="Y67" s="236"/>
-      <c r="Z67" s="236"/>
+      <c r="W67" s="299"/>
+      <c r="X67" s="299"/>
+      <c r="Y67" s="299"/>
+      <c r="Z67" s="299"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="134"/>
       <c r="AC67" s="135"/>
@@ -5306,38 +5281,38 @@
       <c r="AF67" s="18"/>
     </row>
     <row r="68" spans="1:32" ht="39.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="224" t="s">
+      <c r="A68" s="292" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="224"/>
-      <c r="C68" s="224"/>
-      <c r="D68" s="224"/>
-      <c r="E68" s="228" t="s">
+      <c r="B68" s="292"/>
+      <c r="C68" s="292"/>
+      <c r="D68" s="292"/>
+      <c r="E68" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="237"/>
-      <c r="G68" s="237"/>
-      <c r="H68" s="237"/>
-      <c r="I68" s="237"/>
-      <c r="J68" s="237"/>
-      <c r="K68" s="237"/>
-      <c r="L68" s="237"/>
-      <c r="M68" s="237"/>
-      <c r="N68" s="237"/>
-      <c r="O68" s="237"/>
-      <c r="P68" s="237"/>
-      <c r="Q68" s="237"/>
-      <c r="R68" s="237"/>
-      <c r="S68" s="238"/>
-      <c r="T68" s="238"/>
-      <c r="U68" s="238"/>
-      <c r="V68" s="238"/>
-      <c r="W68" s="237"/>
-      <c r="X68" s="239"/>
-      <c r="Y68" s="225" t="s">
+      <c r="F68" s="283"/>
+      <c r="G68" s="283"/>
+      <c r="H68" s="283"/>
+      <c r="I68" s="283"/>
+      <c r="J68" s="283"/>
+      <c r="K68" s="283"/>
+      <c r="L68" s="283"/>
+      <c r="M68" s="283"/>
+      <c r="N68" s="283"/>
+      <c r="O68" s="283"/>
+      <c r="P68" s="283"/>
+      <c r="Q68" s="283"/>
+      <c r="R68" s="283"/>
+      <c r="S68" s="300"/>
+      <c r="T68" s="300"/>
+      <c r="U68" s="300"/>
+      <c r="V68" s="300"/>
+      <c r="W68" s="283"/>
+      <c r="X68" s="301"/>
+      <c r="Y68" s="289" t="s">
         <v>131</v>
       </c>
-      <c r="Z68" s="225"/>
+      <c r="Z68" s="289"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="131"/>
       <c r="AC68" s="132"/>
@@ -5346,10 +5321,10 @@
       <c r="AF68" s="18"/>
     </row>
     <row r="69" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="228"/>
-      <c r="B69" s="228"/>
-      <c r="C69" s="228"/>
-      <c r="D69" s="228"/>
+      <c r="A69" s="291"/>
+      <c r="B69" s="291"/>
+      <c r="C69" s="291"/>
+      <c r="D69" s="291"/>
       <c r="E69" s="31"/>
       <c r="F69" s="120"/>
       <c r="G69" s="120"/>
@@ -5382,36 +5357,36 @@
       <c r="AF69" s="18"/>
     </row>
     <row r="70" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="224" t="s">
+      <c r="A70" s="292" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="224"/>
-      <c r="C70" s="224"/>
-      <c r="D70" s="224"/>
-      <c r="E70" s="229"/>
-      <c r="F70" s="230"/>
-      <c r="G70" s="230"/>
-      <c r="H70" s="230"/>
-      <c r="I70" s="230"/>
-      <c r="J70" s="230"/>
-      <c r="K70" s="231"/>
-      <c r="L70" s="231"/>
-      <c r="M70" s="231"/>
-      <c r="N70" s="231"/>
-      <c r="O70" s="231"/>
-      <c r="P70" s="231"/>
-      <c r="Q70" s="231"/>
-      <c r="R70" s="231"/>
-      <c r="S70" s="231"/>
-      <c r="T70" s="231"/>
-      <c r="U70" s="230"/>
-      <c r="V70" s="230"/>
-      <c r="W70" s="232"/>
-      <c r="X70" s="232"/>
-      <c r="Y70" s="225" t="s">
+      <c r="B70" s="292"/>
+      <c r="C70" s="292"/>
+      <c r="D70" s="292"/>
+      <c r="E70" s="293"/>
+      <c r="F70" s="294"/>
+      <c r="G70" s="294"/>
+      <c r="H70" s="294"/>
+      <c r="I70" s="294"/>
+      <c r="J70" s="294"/>
+      <c r="K70" s="295"/>
+      <c r="L70" s="295"/>
+      <c r="M70" s="295"/>
+      <c r="N70" s="295"/>
+      <c r="O70" s="295"/>
+      <c r="P70" s="295"/>
+      <c r="Q70" s="295"/>
+      <c r="R70" s="295"/>
+      <c r="S70" s="295"/>
+      <c r="T70" s="295"/>
+      <c r="U70" s="294"/>
+      <c r="V70" s="294"/>
+      <c r="W70" s="296"/>
+      <c r="X70" s="296"/>
+      <c r="Y70" s="289" t="s">
         <v>131</v>
       </c>
-      <c r="Z70" s="225"/>
+      <c r="Z70" s="289"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="131"/>
       <c r="AC70" s="132"/>
@@ -5446,8 +5421,8 @@
       <c r="V71" s="120"/>
       <c r="W71" s="32"/>
       <c r="X71" s="32"/>
-      <c r="Y71" s="225"/>
-      <c r="Z71" s="225"/>
+      <c r="Y71" s="289"/>
+      <c r="Z71" s="289"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="134"/>
       <c r="AC71" s="135"/>
@@ -5456,36 +5431,36 @@
       <c r="AF71" s="18"/>
     </row>
     <row r="72" spans="1:32" ht="39.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="224" t="s">
+      <c r="A72" s="292" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="224"/>
-      <c r="C72" s="224"/>
+      <c r="B72" s="292"/>
+      <c r="C72" s="292"/>
       <c r="D72" s="151"/>
-      <c r="E72" s="226"/>
-      <c r="F72" s="226"/>
-      <c r="G72" s="226"/>
-      <c r="H72" s="226"/>
-      <c r="I72" s="226"/>
-      <c r="J72" s="226"/>
-      <c r="K72" s="226"/>
-      <c r="L72" s="226"/>
-      <c r="M72" s="226"/>
-      <c r="N72" s="226"/>
-      <c r="O72" s="226"/>
-      <c r="P72" s="226"/>
-      <c r="Q72" s="226"/>
-      <c r="R72" s="226"/>
-      <c r="S72" s="226"/>
-      <c r="T72" s="226"/>
-      <c r="U72" s="226"/>
-      <c r="V72" s="226"/>
-      <c r="W72" s="226"/>
-      <c r="X72" s="226"/>
-      <c r="Y72" s="225" t="s">
+      <c r="E72" s="306"/>
+      <c r="F72" s="306"/>
+      <c r="G72" s="306"/>
+      <c r="H72" s="306"/>
+      <c r="I72" s="306"/>
+      <c r="J72" s="306"/>
+      <c r="K72" s="306"/>
+      <c r="L72" s="306"/>
+      <c r="M72" s="306"/>
+      <c r="N72" s="306"/>
+      <c r="O72" s="306"/>
+      <c r="P72" s="306"/>
+      <c r="Q72" s="306"/>
+      <c r="R72" s="306"/>
+      <c r="S72" s="306"/>
+      <c r="T72" s="306"/>
+      <c r="U72" s="306"/>
+      <c r="V72" s="306"/>
+      <c r="W72" s="306"/>
+      <c r="X72" s="306"/>
+      <c r="Y72" s="289" t="s">
         <v>131</v>
       </c>
-      <c r="Z72" s="225"/>
+      <c r="Z72" s="289"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="139"/>
       <c r="AC72" s="140"/>
@@ -5529,231 +5504,410 @@
       <c r="AE73" s="22"/>
     </row>
     <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="227" t="s">
+      <c r="A74" s="208" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="227"/>
-      <c r="C74" s="227"/>
-      <c r="D74" s="227"/>
-      <c r="E74" s="227"/>
-      <c r="F74" s="227"/>
-      <c r="G74" s="227"/>
-      <c r="H74" s="227"/>
-      <c r="I74" s="227"/>
-      <c r="J74" s="227"/>
-      <c r="K74" s="227"/>
-      <c r="L74" s="227"/>
-      <c r="M74" s="227"/>
-      <c r="N74" s="227"/>
-      <c r="O74" s="227"/>
-      <c r="P74" s="227"/>
-      <c r="Q74" s="227"/>
-      <c r="R74" s="227"/>
-      <c r="S74" s="227"/>
-      <c r="T74" s="227"/>
-      <c r="U74" s="227"/>
-      <c r="V74" s="227"/>
-      <c r="W74" s="227"/>
-      <c r="X74" s="227"/>
-      <c r="Y74" s="227"/>
-      <c r="Z74" s="227"/>
-      <c r="AA74" s="227"/>
-      <c r="AB74" s="227"/>
-      <c r="AC74" s="227"/>
-      <c r="AD74" s="227"/>
-      <c r="AE74" s="227"/>
+      <c r="B74" s="208"/>
+      <c r="C74" s="208"/>
+      <c r="D74" s="208"/>
+      <c r="E74" s="208"/>
+      <c r="F74" s="208"/>
+      <c r="G74" s="208"/>
+      <c r="H74" s="208"/>
+      <c r="I74" s="208"/>
+      <c r="J74" s="208"/>
+      <c r="K74" s="208"/>
+      <c r="L74" s="208"/>
+      <c r="M74" s="208"/>
+      <c r="N74" s="208"/>
+      <c r="O74" s="208"/>
+      <c r="P74" s="208"/>
+      <c r="Q74" s="208"/>
+      <c r="R74" s="208"/>
+      <c r="S74" s="208"/>
+      <c r="T74" s="208"/>
+      <c r="U74" s="208"/>
+      <c r="V74" s="208"/>
+      <c r="W74" s="208"/>
+      <c r="X74" s="208"/>
+      <c r="Y74" s="208"/>
+      <c r="Z74" s="208"/>
+      <c r="AA74" s="208"/>
+      <c r="AB74" s="208"/>
+      <c r="AC74" s="208"/>
+      <c r="AD74" s="208"/>
+      <c r="AE74" s="208"/>
     </row>
     <row r="75" spans="1:32" ht="39.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="222" t="s">
+      <c r="A75" s="226" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="216" t="s">
+      <c r="B75" s="302" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="217"/>
-      <c r="D75" s="217"/>
-      <c r="E75" s="217"/>
-      <c r="F75" s="216" t="s">
+      <c r="C75" s="303"/>
+      <c r="D75" s="303"/>
+      <c r="E75" s="303"/>
+      <c r="F75" s="302" t="s">
         <v>138</v>
       </c>
-      <c r="G75" s="217"/>
-      <c r="H75" s="217"/>
-      <c r="I75" s="217"/>
-      <c r="J75" s="216" t="s">
+      <c r="G75" s="303"/>
+      <c r="H75" s="303"/>
+      <c r="I75" s="303"/>
+      <c r="J75" s="302" t="s">
         <v>53</v>
       </c>
-      <c r="K75" s="217"/>
-      <c r="L75" s="216" t="s">
+      <c r="K75" s="303"/>
+      <c r="L75" s="302" t="s">
         <v>139</v>
       </c>
-      <c r="M75" s="217"/>
-      <c r="N75" s="216" t="s">
+      <c r="M75" s="303"/>
+      <c r="N75" s="302" t="s">
         <v>140</v>
       </c>
-      <c r="O75" s="217"/>
-      <c r="P75" s="217"/>
-      <c r="Q75" s="217"/>
-      <c r="R75" s="217"/>
-      <c r="S75" s="217"/>
+      <c r="O75" s="303"/>
+      <c r="P75" s="303"/>
+      <c r="Q75" s="303"/>
+      <c r="R75" s="303"/>
+      <c r="S75" s="303"/>
       <c r="T75" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="U75" s="216" t="s">
+      <c r="U75" s="302" t="s">
         <v>142</v>
       </c>
-      <c r="V75" s="217"/>
-      <c r="W75" s="216" t="s">
+      <c r="V75" s="303"/>
+      <c r="W75" s="302" t="s">
         <v>51</v>
       </c>
-      <c r="X75" s="217"/>
-      <c r="Y75" s="216" t="s">
+      <c r="X75" s="303"/>
+      <c r="Y75" s="302" t="s">
         <v>143</v>
       </c>
-      <c r="Z75" s="217"/>
-      <c r="AA75" s="216" t="s">
+      <c r="Z75" s="303"/>
+      <c r="AA75" s="302" t="s">
         <v>144</v>
       </c>
-      <c r="AB75" s="217"/>
-      <c r="AC75" s="217"/>
-      <c r="AD75" s="216" t="s">
+      <c r="AB75" s="303"/>
+      <c r="AC75" s="303"/>
+      <c r="AD75" s="302" t="s">
         <v>145</v>
       </c>
-      <c r="AE75" s="217"/>
+      <c r="AE75" s="303"/>
       <c r="AF75" s="17"/>
     </row>
     <row r="76" spans="1:32" ht="39.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="223"/>
-      <c r="B76" s="218"/>
-      <c r="C76" s="219"/>
-      <c r="D76" s="219"/>
-      <c r="E76" s="219"/>
-      <c r="F76" s="218"/>
-      <c r="G76" s="219"/>
-      <c r="H76" s="219"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="218"/>
-      <c r="K76" s="219"/>
-      <c r="L76" s="216" t="s">
+      <c r="A76" s="244"/>
+      <c r="B76" s="304"/>
+      <c r="C76" s="305"/>
+      <c r="D76" s="305"/>
+      <c r="E76" s="305"/>
+      <c r="F76" s="304"/>
+      <c r="G76" s="305"/>
+      <c r="H76" s="305"/>
+      <c r="I76" s="305"/>
+      <c r="J76" s="304"/>
+      <c r="K76" s="305"/>
+      <c r="L76" s="302" t="s">
         <v>146</v>
       </c>
-      <c r="M76" s="217"/>
-      <c r="N76" s="216"/>
-      <c r="O76" s="217"/>
-      <c r="P76" s="217"/>
-      <c r="Q76" s="217"/>
-      <c r="R76" s="217"/>
-      <c r="S76" s="217"/>
+      <c r="M76" s="303"/>
+      <c r="N76" s="302"/>
+      <c r="O76" s="303"/>
+      <c r="P76" s="303"/>
+      <c r="Q76" s="303"/>
+      <c r="R76" s="303"/>
+      <c r="S76" s="303"/>
       <c r="T76" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="U76" s="216" t="s">
+      <c r="U76" s="302" t="s">
         <v>148</v>
       </c>
-      <c r="V76" s="217"/>
-      <c r="W76" s="216" t="s">
+      <c r="V76" s="303"/>
+      <c r="W76" s="302" t="s">
         <v>55</v>
       </c>
-      <c r="X76" s="217"/>
-      <c r="Y76" s="216" t="s">
+      <c r="X76" s="303"/>
+      <c r="Y76" s="302" t="s">
         <v>149</v>
       </c>
-      <c r="Z76" s="217"/>
-      <c r="AA76" s="216" t="s">
+      <c r="Z76" s="303"/>
+      <c r="AA76" s="302" t="s">
         <v>150</v>
       </c>
-      <c r="AB76" s="217"/>
-      <c r="AC76" s="220"/>
-      <c r="AD76" s="218"/>
-      <c r="AE76" s="219"/>
+      <c r="AB76" s="303"/>
+      <c r="AC76" s="309"/>
+      <c r="AD76" s="304"/>
+      <c r="AE76" s="305"/>
       <c r="AF76" s="17"/>
     </row>
     <row r="77" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="34">
         <v>1</v>
       </c>
-      <c r="B77" s="214">
+      <c r="B77" s="307">
         <v>2</v>
       </c>
-      <c r="C77" s="215"/>
-      <c r="D77" s="215"/>
-      <c r="E77" s="215"/>
-      <c r="F77" s="214">
+      <c r="C77" s="308"/>
+      <c r="D77" s="308"/>
+      <c r="E77" s="308"/>
+      <c r="F77" s="307">
         <v>3</v>
       </c>
-      <c r="G77" s="215"/>
-      <c r="H77" s="215"/>
-      <c r="I77" s="215"/>
-      <c r="J77" s="214">
+      <c r="G77" s="308"/>
+      <c r="H77" s="308"/>
+      <c r="I77" s="308"/>
+      <c r="J77" s="307">
         <v>4</v>
       </c>
-      <c r="K77" s="215"/>
-      <c r="L77" s="214">
+      <c r="K77" s="308"/>
+      <c r="L77" s="307">
         <v>5</v>
       </c>
-      <c r="M77" s="215"/>
-      <c r="N77" s="214">
+      <c r="M77" s="308"/>
+      <c r="N77" s="307">
         <v>6</v>
       </c>
-      <c r="O77" s="215"/>
-      <c r="P77" s="215"/>
-      <c r="Q77" s="215"/>
-      <c r="R77" s="215"/>
-      <c r="S77" s="215"/>
+      <c r="O77" s="308"/>
+      <c r="P77" s="308"/>
+      <c r="Q77" s="308"/>
+      <c r="R77" s="308"/>
+      <c r="S77" s="308"/>
       <c r="T77" s="34">
         <v>7</v>
       </c>
-      <c r="U77" s="214">
+      <c r="U77" s="307">
         <v>8</v>
       </c>
-      <c r="V77" s="215"/>
-      <c r="W77" s="214">
+      <c r="V77" s="308"/>
+      <c r="W77" s="307">
         <v>9</v>
       </c>
-      <c r="X77" s="215"/>
-      <c r="Y77" s="214">
+      <c r="X77" s="308"/>
+      <c r="Y77" s="307">
         <v>10</v>
       </c>
-      <c r="Z77" s="215"/>
-      <c r="AA77" s="214">
+      <c r="Z77" s="308"/>
+      <c r="AA77" s="307">
         <v>11</v>
       </c>
-      <c r="AB77" s="215"/>
-      <c r="AC77" s="215"/>
-      <c r="AD77" s="214">
+      <c r="AB77" s="308"/>
+      <c r="AC77" s="308"/>
+      <c r="AD77" s="307">
         <v>12</v>
       </c>
-      <c r="AE77" s="221"/>
+      <c r="AE77" s="310"/>
       <c r="AF77" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="B5:AA5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:V11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:AB9"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="AA75:AC75"/>
+    <mergeCell ref="AD75:AE76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="AA77:AC77"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:E76"/>
+    <mergeCell ref="F75:I76"/>
+    <mergeCell ref="J75:K76"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:S76"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="E72:X72"/>
+    <mergeCell ref="A74:AE74"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:X70"/>
+    <mergeCell ref="Y70:Z71"/>
+    <mergeCell ref="B65:Z65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="W66:Z67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="U60:AD60"/>
+    <mergeCell ref="U61:AD61"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AE57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:V53"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="A45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:U48"/>
+    <mergeCell ref="V47:W48"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="L39:P40"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AB40"/>
+    <mergeCell ref="AC39:AE40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J32:L33"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="W26:AB27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
     <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:Y23"/>
@@ -5777,212 +5931,33 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="W26:AB27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J32:L33"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:K40"/>
-    <mergeCell ref="L39:P40"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="Z39:AB40"/>
-    <mergeCell ref="AC39:AE40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="A45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:U48"/>
-    <mergeCell ref="V47:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:K53"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:V53"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="U60:AD60"/>
-    <mergeCell ref="U61:AD61"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AE57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:X70"/>
-    <mergeCell ref="Y70:Z71"/>
-    <mergeCell ref="B65:Z65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="W66:Z67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:E76"/>
-    <mergeCell ref="F75:I76"/>
-    <mergeCell ref="J75:K76"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:S76"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="E72:X72"/>
-    <mergeCell ref="A74:AE74"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:S77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="AA75:AC75"/>
-    <mergeCell ref="AD75:AE76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="W77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="AA77:AC77"/>
-    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="B5:AA5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:V11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:AB9"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -5998,8 +5973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="R1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6024,71 +5999,69 @@
       <c r="Q1" s="155"/>
       <c r="R1" s="155"/>
       <c r="S1" s="155"/>
-      <c r="T1" s="342" t="s">
+      <c r="T1" s="313" t="s">
         <v>158</v>
       </c>
-      <c r="U1" s="342"/>
-      <c r="V1" s="342"/>
-      <c r="W1" s="342"/>
-      <c r="X1" s="342"/>
-      <c r="Y1" s="208" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z1" s="209"/>
+      <c r="U1" s="313"/>
+      <c r="V1" s="313"/>
+      <c r="W1" s="313"/>
+      <c r="X1" s="313"/>
+      <c r="Y1" s="204" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z1" s="205"/>
       <c r="AA1" s="201"/>
-      <c r="AB1" s="206"/>
+      <c r="AB1" s="203"/>
       <c r="AC1" s="202"/>
       <c r="AD1" s="155"/>
       <c r="AE1" s="155"/>
     </row>
-    <row r="2" spans="1:31" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="338" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="338"/>
-      <c r="C2" s="338"/>
-      <c r="D2" s="338"/>
-      <c r="E2" s="338"/>
-      <c r="F2" s="338"/>
-      <c r="G2" s="338"/>
-      <c r="H2" s="338"/>
-      <c r="I2" s="338"/>
-      <c r="J2" s="338"/>
-      <c r="K2" s="338"/>
-      <c r="L2" s="338"/>
-      <c r="M2" s="338"/>
-      <c r="N2" s="338"/>
-      <c r="O2" s="338"/>
-      <c r="P2" s="338"/>
-      <c r="Q2" s="338"/>
-      <c r="R2" s="338"/>
+    <row r="2" spans="1:31" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="314" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="314"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
+      <c r="F2" s="314"/>
+      <c r="G2" s="314"/>
+      <c r="H2" s="314"/>
+      <c r="I2" s="314"/>
+      <c r="J2" s="314"/>
+      <c r="K2" s="314"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="314"/>
+      <c r="N2" s="314"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="314"/>
+      <c r="Q2" s="314"/>
+      <c r="R2" s="314"/>
       <c r="S2" s="156">
         <v>1</v>
       </c>
       <c r="T2" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="U2" s="315" t="s">
         <v>161</v>
       </c>
-      <c r="U2" s="343" t="s">
-        <v>162</v>
-      </c>
-      <c r="V2" s="343"/>
-      <c r="W2" s="338"/>
-      <c r="X2" s="338"/>
-      <c r="Y2" s="213" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="203"/>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="204"/>
+      <c r="V2" s="315"/>
+      <c r="W2" s="314"/>
+      <c r="X2" s="314"/>
+      <c r="Y2" s="341"/>
+      <c r="Z2" s="342"/>
+      <c r="AA2" s="343"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="343"/>
       <c r="AD2" s="155"/>
       <c r="AE2" s="158"/>
     </row>
-    <row r="3" spans="1:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="344" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="344"/>
+    <row r="3" spans="1:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="316" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="316"/>
       <c r="C3" s="199"/>
       <c r="D3" s="199"/>
       <c r="E3" s="199"/>
@@ -6106,20 +6079,18 @@
       <c r="Q3" s="199"/>
       <c r="R3" s="199"/>
       <c r="S3" s="200"/>
-      <c r="T3" s="343" t="s">
-        <v>164</v>
-      </c>
-      <c r="U3" s="343"/>
-      <c r="V3" s="343"/>
-      <c r="W3" s="344"/>
-      <c r="X3" s="344"/>
-      <c r="Y3" s="211" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z3" s="212"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="207"/>
-      <c r="AC3" s="204"/>
+      <c r="T3" s="315" t="s">
+        <v>163</v>
+      </c>
+      <c r="U3" s="315"/>
+      <c r="V3" s="315"/>
+      <c r="W3" s="316"/>
+      <c r="X3" s="316"/>
+      <c r="Y3" s="344"/>
+      <c r="Z3" s="345"/>
+      <c r="AA3" s="343"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="343"/>
       <c r="AD3" s="155"/>
       <c r="AE3" s="158"/>
     </row>
@@ -6141,15 +6112,15 @@
       <c r="O4" s="159"/>
       <c r="P4" s="159"/>
       <c r="Q4" s="159"/>
-      <c r="R4" s="345"/>
-      <c r="S4" s="345"/>
+      <c r="R4" s="318"/>
+      <c r="S4" s="318"/>
       <c r="T4" s="158"/>
       <c r="U4" s="158"/>
       <c r="V4" s="158"/>
       <c r="W4" s="158"/>
       <c r="X4" s="158"/>
-      <c r="Y4" s="346"/>
-      <c r="Z4" s="346"/>
+      <c r="Y4" s="339"/>
+      <c r="Z4" s="339"/>
       <c r="AA4" s="340"/>
       <c r="AB4" s="340"/>
       <c r="AC4" s="340"/>
@@ -6157,22 +6128,22 @@
       <c r="AE4" s="158"/>
     </row>
     <row r="5" spans="1:31" ht="10.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="332" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="332"/>
-      <c r="C5" s="332"/>
+      <c r="A5" s="317" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="317"/>
+      <c r="C5" s="317"/>
       <c r="D5" s="160"/>
       <c r="E5" s="160"/>
       <c r="F5" s="161"/>
       <c r="G5" s="160"/>
       <c r="H5" s="160"/>
       <c r="I5" s="160"/>
-      <c r="J5" s="318" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" s="318"/>
-      <c r="L5" s="318"/>
+      <c r="J5" s="312" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="312"/>
+      <c r="L5" s="312"/>
       <c r="M5" s="160"/>
       <c r="N5" s="160"/>
       <c r="O5" s="162"/>
@@ -6185,11 +6156,11 @@
       <c r="V5" s="158"/>
       <c r="W5" s="158"/>
       <c r="X5" s="158"/>
-      <c r="Y5" s="347"/>
-      <c r="Z5" s="347"/>
-      <c r="AA5" s="341"/>
-      <c r="AB5" s="341"/>
-      <c r="AC5" s="341"/>
+      <c r="Y5" s="319"/>
+      <c r="Z5" s="319"/>
+      <c r="AA5" s="311"/>
+      <c r="AB5" s="311"/>
+      <c r="AC5" s="311"/>
       <c r="AD5" s="158"/>
       <c r="AE5" s="158"/>
     </row>
@@ -6222,19 +6193,19 @@
       <c r="V6" s="158"/>
       <c r="W6" s="158"/>
       <c r="X6" s="158"/>
-      <c r="Y6" s="338"/>
-      <c r="Z6" s="339"/>
-      <c r="AA6" s="338"/>
-      <c r="AB6" s="339"/>
-      <c r="AC6" s="339"/>
+      <c r="Y6" s="314"/>
+      <c r="Z6" s="326"/>
+      <c r="AA6" s="314"/>
+      <c r="AB6" s="326"/>
+      <c r="AC6" s="326"/>
       <c r="AD6" s="158"/>
       <c r="AE6" s="158"/>
     </row>
     <row r="7" spans="1:31" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="336" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="336"/>
+      <c r="A7" s="323" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="323"/>
       <c r="C7" s="169"/>
       <c r="D7" s="169"/>
       <c r="E7" s="169"/>
@@ -6242,11 +6213,11 @@
       <c r="G7" s="169"/>
       <c r="H7" s="169"/>
       <c r="I7" s="169"/>
-      <c r="J7" s="318" t="s">
-        <v>168</v>
-      </c>
-      <c r="K7" s="318"/>
-      <c r="L7" s="318"/>
+      <c r="J7" s="312" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="312"/>
+      <c r="L7" s="312"/>
       <c r="M7" s="170"/>
       <c r="N7" s="170"/>
       <c r="O7" s="171"/>
@@ -6259,11 +6230,11 @@
       <c r="V7" s="158"/>
       <c r="W7" s="158"/>
       <c r="X7" s="158"/>
-      <c r="Y7" s="339"/>
-      <c r="Z7" s="339"/>
-      <c r="AA7" s="339"/>
-      <c r="AB7" s="339"/>
-      <c r="AC7" s="339"/>
+      <c r="Y7" s="326"/>
+      <c r="Z7" s="326"/>
+      <c r="AA7" s="326"/>
+      <c r="AB7" s="326"/>
+      <c r="AC7" s="326"/>
       <c r="AD7" s="158"/>
       <c r="AE7" s="158"/>
     </row>
@@ -6296,29 +6267,29 @@
       <c r="V8" s="173"/>
       <c r="W8" s="173"/>
       <c r="X8" s="173"/>
-      <c r="Y8" s="330"/>
-      <c r="Z8" s="330"/>
-      <c r="AA8" s="334"/>
-      <c r="AB8" s="334"/>
-      <c r="AC8" s="334"/>
+      <c r="Y8" s="320"/>
+      <c r="Z8" s="320"/>
+      <c r="AA8" s="321"/>
+      <c r="AB8" s="321"/>
+      <c r="AC8" s="321"/>
       <c r="AD8" s="173"/>
       <c r="AE8" s="173"/>
     </row>
     <row r="9" spans="1:31" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="332" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="335"/>
-      <c r="C9" s="335"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
+      <c r="A9" s="317" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="322"/>
+      <c r="C9" s="322"/>
+      <c r="D9" s="323"/>
+      <c r="E9" s="323"/>
       <c r="F9" s="160"/>
       <c r="G9" s="160"/>
       <c r="H9" s="178"/>
-      <c r="I9" s="333" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="337"/>
+      <c r="I9" s="324" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="325"/>
       <c r="K9" s="179"/>
       <c r="L9" s="179"/>
       <c r="M9" s="176"/>
@@ -6328,7 +6299,7 @@
       <c r="Q9" s="176"/>
       <c r="R9" s="180"/>
       <c r="S9" s="172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T9" s="160"/>
       <c r="U9" s="160"/>
@@ -6349,11 +6320,11 @@
       <c r="C10" s="158"/>
       <c r="D10" s="158"/>
       <c r="E10" s="158"/>
-      <c r="F10" s="331" t="s">
+      <c r="F10" s="327" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="331"/>
-      <c r="H10" s="331"/>
+      <c r="G10" s="327"/>
+      <c r="H10" s="327"/>
       <c r="I10" s="158"/>
       <c r="J10" s="158"/>
       <c r="K10" s="155"/>
@@ -6379,28 +6350,28 @@
       <c r="AE10" s="158"/>
     </row>
     <row r="11" spans="1:31" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="332" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="332"/>
-      <c r="C11" s="333"/>
-      <c r="D11" s="333"/>
-      <c r="E11" s="333"/>
-      <c r="F11" s="333"/>
-      <c r="G11" s="333"/>
-      <c r="H11" s="333"/>
-      <c r="I11" s="333"/>
-      <c r="J11" s="333"/>
-      <c r="K11" s="333"/>
-      <c r="L11" s="333"/>
-      <c r="M11" s="333"/>
-      <c r="N11" s="333"/>
-      <c r="O11" s="333"/>
-      <c r="P11" s="333"/>
-      <c r="Q11" s="333"/>
+      <c r="A11" s="317" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="317"/>
+      <c r="C11" s="324"/>
+      <c r="D11" s="324"/>
+      <c r="E11" s="324"/>
+      <c r="F11" s="324"/>
+      <c r="G11" s="324"/>
+      <c r="H11" s="324"/>
+      <c r="I11" s="324"/>
+      <c r="J11" s="324"/>
+      <c r="K11" s="324"/>
+      <c r="L11" s="324"/>
+      <c r="M11" s="324"/>
+      <c r="N11" s="324"/>
+      <c r="O11" s="324"/>
+      <c r="P11" s="324"/>
+      <c r="Q11" s="324"/>
       <c r="R11" s="180"/>
       <c r="S11" s="172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T11" s="182"/>
       <c r="U11" s="160"/>
@@ -6436,10 +6407,10 @@
       <c r="P12" s="174"/>
       <c r="Q12" s="184"/>
       <c r="R12" s="180"/>
-      <c r="S12" s="333" t="s">
-        <v>174</v>
-      </c>
-      <c r="T12" s="333"/>
+      <c r="S12" s="324" t="s">
+        <v>173</v>
+      </c>
+      <c r="T12" s="324"/>
       <c r="U12" s="185"/>
       <c r="V12" s="185"/>
       <c r="W12" s="186"/>
@@ -6464,11 +6435,11 @@
       <c r="I13" s="173"/>
       <c r="J13" s="173"/>
       <c r="K13" s="173"/>
-      <c r="L13" s="320" t="s">
-        <v>175</v>
-      </c>
-      <c r="M13" s="320"/>
-      <c r="N13" s="320"/>
+      <c r="L13" s="333" t="s">
+        <v>174</v>
+      </c>
+      <c r="M13" s="333"/>
+      <c r="N13" s="333"/>
       <c r="O13" s="173"/>
       <c r="P13" s="173"/>
       <c r="Q13" s="173"/>
@@ -6494,44 +6465,44 @@
       <c r="AE13" s="173"/>
     </row>
     <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="325" t="s">
+      <c r="A14" s="328" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="328"/>
+      <c r="C14" s="328"/>
+      <c r="D14" s="329" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="329"/>
+      <c r="F14" s="329"/>
+      <c r="G14" s="329"/>
+      <c r="H14" s="330" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="325"/>
-      <c r="C14" s="325"/>
-      <c r="D14" s="321" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="321"/>
-      <c r="F14" s="321"/>
-      <c r="G14" s="321"/>
-      <c r="H14" s="319" t="s">
+      <c r="I14" s="330"/>
+      <c r="J14" s="330"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="328" t="s">
         <v>177</v>
       </c>
-      <c r="I14" s="319"/>
-      <c r="J14" s="319"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="325" t="s">
+      <c r="M14" s="328"/>
+      <c r="N14" s="329"/>
+      <c r="O14" s="329"/>
+      <c r="P14" s="329" t="s">
         <v>178</v>
       </c>
-      <c r="M14" s="325"/>
-      <c r="N14" s="321"/>
-      <c r="O14" s="321"/>
-      <c r="P14" s="321" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q14" s="321"/>
+      <c r="Q14" s="329"/>
       <c r="R14" s="180"/>
-      <c r="S14" s="328"/>
-      <c r="T14" s="328"/>
-      <c r="U14" s="328"/>
-      <c r="V14" s="328"/>
-      <c r="W14" s="328"/>
-      <c r="X14" s="328"/>
-      <c r="Y14" s="328"/>
-      <c r="Z14" s="328"/>
-      <c r="AA14" s="328"/>
-      <c r="AB14" s="328"/>
+      <c r="S14" s="331"/>
+      <c r="T14" s="331"/>
+      <c r="U14" s="331"/>
+      <c r="V14" s="331"/>
+      <c r="W14" s="331"/>
+      <c r="X14" s="331"/>
+      <c r="Y14" s="331"/>
+      <c r="Z14" s="331"/>
+      <c r="AA14" s="331"/>
+      <c r="AB14" s="331"/>
       <c r="AC14" s="176"/>
       <c r="AD14" s="176"/>
       <c r="AE14" s="158"/>
@@ -6545,7 +6516,7 @@
       </c>
       <c r="E15" s="166"/>
       <c r="F15" s="166" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="166"/>
       <c r="H15" s="187" t="s">
@@ -6554,29 +6525,29 @@
       <c r="I15" s="166"/>
       <c r="J15" s="166"/>
       <c r="K15" s="176"/>
-      <c r="L15" s="329"/>
-      <c r="M15" s="329"/>
+      <c r="L15" s="332"/>
+      <c r="M15" s="332"/>
       <c r="N15" s="166" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O15" s="166"/>
       <c r="P15" s="166" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q15" s="188"/>
       <c r="R15" s="180"/>
-      <c r="S15" s="330" t="s">
-        <v>182</v>
-      </c>
-      <c r="T15" s="330"/>
-      <c r="U15" s="330"/>
-      <c r="V15" s="330"/>
-      <c r="W15" s="330"/>
-      <c r="X15" s="330"/>
-      <c r="Y15" s="330"/>
-      <c r="Z15" s="330"/>
-      <c r="AA15" s="330"/>
-      <c r="AB15" s="330"/>
+      <c r="S15" s="320" t="s">
+        <v>181</v>
+      </c>
+      <c r="T15" s="320"/>
+      <c r="U15" s="320"/>
+      <c r="V15" s="320"/>
+      <c r="W15" s="320"/>
+      <c r="X15" s="320"/>
+      <c r="Y15" s="320"/>
+      <c r="Z15" s="320"/>
+      <c r="AA15" s="320"/>
+      <c r="AB15" s="320"/>
       <c r="AC15" s="158"/>
       <c r="AD15" s="158"/>
       <c r="AE15" s="158"/>
@@ -6615,22 +6586,22 @@
       <c r="AE16" s="158"/>
     </row>
     <row r="17" spans="1:31" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="325" t="s">
+      <c r="A17" s="328" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="328"/>
+      <c r="C17" s="328"/>
+      <c r="D17" s="329" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="329"/>
+      <c r="F17" s="329"/>
+      <c r="G17" s="329"/>
+      <c r="H17" s="330" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="325"/>
-      <c r="C17" s="325"/>
-      <c r="D17" s="321" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="321"/>
-      <c r="F17" s="321"/>
-      <c r="G17" s="321"/>
-      <c r="H17" s="319" t="s">
-        <v>184</v>
-      </c>
-      <c r="I17" s="319"/>
-      <c r="J17" s="319"/>
+      <c r="I17" s="330"/>
+      <c r="J17" s="330"/>
       <c r="K17" s="194"/>
       <c r="L17" s="173"/>
       <c r="M17" s="173"/>
@@ -6639,14 +6610,14 @@
       <c r="P17" s="173"/>
       <c r="Q17" s="173"/>
       <c r="R17" s="180"/>
-      <c r="S17" s="326" t="s">
-        <v>185</v>
-      </c>
-      <c r="T17" s="326"/>
-      <c r="U17" s="324"/>
-      <c r="V17" s="327"/>
-      <c r="W17" s="324"/>
-      <c r="X17" s="324"/>
+      <c r="S17" s="337" t="s">
+        <v>184</v>
+      </c>
+      <c r="T17" s="337"/>
+      <c r="U17" s="336"/>
+      <c r="V17" s="338"/>
+      <c r="W17" s="336"/>
+      <c r="X17" s="336"/>
       <c r="Y17" s="174"/>
       <c r="Z17" s="174"/>
       <c r="AA17" s="159"/>
@@ -6664,7 +6635,7 @@
       </c>
       <c r="E18" s="166"/>
       <c r="F18" s="166" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" s="166"/>
       <c r="H18" s="195" t="s">
@@ -6701,11 +6672,11 @@
       <c r="AE18" s="158"/>
     </row>
     <row r="19" spans="1:31" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="320"/>
-      <c r="B19" s="320"/>
-      <c r="C19" s="320"/>
-      <c r="D19" s="321"/>
-      <c r="E19" s="321"/>
+      <c r="A19" s="333"/>
+      <c r="B19" s="333"/>
+      <c r="C19" s="333"/>
+      <c r="D19" s="329"/>
+      <c r="E19" s="329"/>
       <c r="F19" s="173"/>
       <c r="G19" s="173"/>
       <c r="H19" s="173"/>
@@ -6721,14 +6692,14 @@
       <c r="R19" s="180"/>
       <c r="S19" s="173"/>
       <c r="T19" s="173"/>
-      <c r="U19" s="322"/>
-      <c r="V19" s="322"/>
-      <c r="W19" s="323"/>
-      <c r="X19" s="323"/>
-      <c r="Y19" s="323"/>
-      <c r="Z19" s="323"/>
-      <c r="AA19" s="323"/>
-      <c r="AB19" s="323"/>
+      <c r="U19" s="334"/>
+      <c r="V19" s="334"/>
+      <c r="W19" s="335"/>
+      <c r="X19" s="335"/>
+      <c r="Y19" s="335"/>
+      <c r="Z19" s="335"/>
+      <c r="AA19" s="335"/>
+      <c r="AB19" s="335"/>
       <c r="AC19" s="173"/>
       <c r="AD19" s="173"/>
       <c r="AE19" s="173"/>
@@ -6737,19 +6708,19 @@
       <c r="A20" s="176"/>
       <c r="B20" s="176"/>
       <c r="C20" s="176"/>
-      <c r="D20" s="318"/>
-      <c r="E20" s="318"/>
+      <c r="D20" s="312"/>
+      <c r="E20" s="312"/>
       <c r="F20" s="197"/>
       <c r="G20" s="173"/>
-      <c r="H20" s="318"/>
-      <c r="I20" s="318"/>
-      <c r="J20" s="318"/>
+      <c r="H20" s="312"/>
+      <c r="I20" s="312"/>
+      <c r="J20" s="312"/>
       <c r="K20" s="198" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L20" s="197"/>
-      <c r="M20" s="318"/>
-      <c r="N20" s="318"/>
+      <c r="M20" s="312"/>
+      <c r="N20" s="312"/>
       <c r="O20" s="158"/>
       <c r="P20" s="197"/>
       <c r="Q20" s="176"/>
@@ -6770,6 +6741,44 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="S15:AB15"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="S14:AB14"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="AA6:AC7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AA4:AC5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="T1:X1"/>
@@ -6781,44 +6790,6 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="AA6:AC7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="S14:AB14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="S15:AB15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -1871,21 +1871,312 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1898,395 +2189,104 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2661,49 +2661,49 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="207" t="s">
+      <c r="Z1" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="207"/>
-      <c r="AB1" s="207"/>
-      <c r="AC1" s="207"/>
-      <c r="AD1" s="207"/>
-      <c r="AE1" s="207"/>
+      <c r="AA1" s="303"/>
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="303"/>
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
     </row>
     <row r="2" spans="1:32" ht="9.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="225"/>
+      <c r="AB2" s="225"/>
+      <c r="AC2" s="225"/>
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
     </row>
     <row r="3" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="153" t="s">
@@ -2748,20 +2748,20 @@
       <c r="AF3" s="18"/>
     </row>
     <row r="4" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="209"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="282"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -2775,11 +2775,11 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="207" t="s">
+      <c r="Z4" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
+      <c r="AA4" s="303"/>
+      <c r="AB4" s="303"/>
       <c r="AC4" s="92"/>
       <c r="AD4" s="88"/>
       <c r="AE4" s="93"/>
@@ -2789,32 +2789,32 @@
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
-      <c r="M5" s="210"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="210"/>
-      <c r="Q5" s="210"/>
-      <c r="R5" s="210"/>
-      <c r="S5" s="210"/>
-      <c r="T5" s="210"/>
-      <c r="U5" s="210"/>
-      <c r="V5" s="210"/>
-      <c r="W5" s="210"/>
-      <c r="X5" s="210"/>
-      <c r="Y5" s="210"/>
-      <c r="Z5" s="210"/>
-      <c r="AA5" s="210"/>
+      <c r="B5" s="308"/>
+      <c r="C5" s="308"/>
+      <c r="D5" s="308"/>
+      <c r="E5" s="308"/>
+      <c r="F5" s="308"/>
+      <c r="G5" s="308"/>
+      <c r="H5" s="308"/>
+      <c r="I5" s="308"/>
+      <c r="J5" s="308"/>
+      <c r="K5" s="308"/>
+      <c r="L5" s="308"/>
+      <c r="M5" s="308"/>
+      <c r="N5" s="308"/>
+      <c r="O5" s="308"/>
+      <c r="P5" s="308"/>
+      <c r="Q5" s="308"/>
+      <c r="R5" s="308"/>
+      <c r="S5" s="308"/>
+      <c r="T5" s="308"/>
+      <c r="U5" s="308"/>
+      <c r="V5" s="308"/>
+      <c r="W5" s="308"/>
+      <c r="X5" s="308"/>
+      <c r="Y5" s="308"/>
+      <c r="Z5" s="308"/>
+      <c r="AA5" s="308"/>
       <c r="AB5" s="50" t="s">
         <v>6</v>
       </c>
@@ -2863,27 +2863,27 @@
       <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="218" t="s">
+      <c r="I7" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="216"/>
-      <c r="P7" s="216"/>
-      <c r="Q7" s="216"/>
-      <c r="R7" s="216"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="286"/>
+      <c r="N7" s="232"/>
+      <c r="O7" s="232"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="232"/>
+      <c r="R7" s="232"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -2936,38 +2936,38 @@
       <c r="AF8" s="18"/>
     </row>
     <row r="9" spans="1:32" ht="8.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="282" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="220" t="s">
+      <c r="B9" s="296"/>
+      <c r="C9" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="220"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="220"/>
-      <c r="N9" s="220"/>
-      <c r="O9" s="220"/>
-      <c r="P9" s="220"/>
-      <c r="Q9" s="220"/>
-      <c r="R9" s="220"/>
-      <c r="S9" s="220"/>
-      <c r="T9" s="220"/>
-      <c r="U9" s="220"/>
-      <c r="V9" s="220"/>
-      <c r="W9" s="220"/>
-      <c r="X9" s="220"/>
-      <c r="Y9" s="220"/>
-      <c r="Z9" s="220"/>
-      <c r="AA9" s="220"/>
-      <c r="AB9" s="221"/>
+      <c r="D9" s="314"/>
+      <c r="E9" s="314"/>
+      <c r="F9" s="314"/>
+      <c r="G9" s="314"/>
+      <c r="H9" s="314"/>
+      <c r="I9" s="314"/>
+      <c r="J9" s="314"/>
+      <c r="K9" s="314"/>
+      <c r="L9" s="314"/>
+      <c r="M9" s="314"/>
+      <c r="N9" s="314"/>
+      <c r="O9" s="314"/>
+      <c r="P9" s="314"/>
+      <c r="Q9" s="314"/>
+      <c r="R9" s="314"/>
+      <c r="S9" s="314"/>
+      <c r="T9" s="314"/>
+      <c r="U9" s="314"/>
+      <c r="V9" s="314"/>
+      <c r="W9" s="314"/>
+      <c r="X9" s="314"/>
+      <c r="Y9" s="314"/>
+      <c r="Z9" s="314"/>
+      <c r="AA9" s="314"/>
+      <c r="AB9" s="315"/>
       <c r="AC9" s="98"/>
       <c r="AD9" s="99"/>
       <c r="AE9" s="100"/>
@@ -3010,38 +3010,38 @@
       <c r="AF10" s="18"/>
     </row>
     <row r="11" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="211" t="s">
+      <c r="A11" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="211"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-      <c r="L11" s="212"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="212"/>
-      <c r="O11" s="213"/>
-      <c r="P11" s="213"/>
-      <c r="Q11" s="213"/>
-      <c r="R11" s="213"/>
-      <c r="S11" s="213"/>
-      <c r="T11" s="213"/>
-      <c r="U11" s="213"/>
-      <c r="V11" s="213"/>
+      <c r="B11" s="278"/>
+      <c r="C11" s="282"/>
+      <c r="D11" s="282"/>
+      <c r="E11" s="282"/>
+      <c r="F11" s="282"/>
+      <c r="G11" s="282"/>
+      <c r="H11" s="309"/>
+      <c r="I11" s="309"/>
+      <c r="J11" s="309"/>
+      <c r="K11" s="309"/>
+      <c r="L11" s="309"/>
+      <c r="M11" s="309"/>
+      <c r="N11" s="309"/>
+      <c r="O11" s="310"/>
+      <c r="P11" s="310"/>
+      <c r="Q11" s="310"/>
+      <c r="R11" s="310"/>
+      <c r="S11" s="310"/>
+      <c r="T11" s="310"/>
+      <c r="U11" s="310"/>
+      <c r="V11" s="310"/>
       <c r="W11" s="55"/>
       <c r="X11" s="53" t="s">
         <v>14</v>
       </c>
       <c r="Y11" s="39"/>
-      <c r="Z11" s="214"/>
-      <c r="AA11" s="214"/>
-      <c r="AB11" s="215"/>
+      <c r="Z11" s="311"/>
+      <c r="AA11" s="311"/>
+      <c r="AB11" s="312"/>
       <c r="AC11" s="71"/>
       <c r="AD11" s="72"/>
       <c r="AE11" s="97"/>
@@ -3084,17 +3084,17 @@
       <c r="AF12" s="18"/>
     </row>
     <row r="13" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="209" t="s">
+      <c r="A13" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="209"/>
-      <c r="C13" s="216" t="s">
+      <c r="B13" s="282"/>
+      <c r="C13" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="216"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="216"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="232"/>
+      <c r="F13" s="232"/>
+      <c r="G13" s="232"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -3103,19 +3103,19 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="209" t="s">
+      <c r="P13" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="209"/>
-      <c r="R13" s="217"/>
-      <c r="S13" s="217"/>
-      <c r="T13" s="217"/>
-      <c r="U13" s="217"/>
-      <c r="V13" s="217"/>
-      <c r="W13" s="217"/>
-      <c r="X13" s="217"/>
-      <c r="Y13" s="217"/>
-      <c r="Z13" s="217"/>
+      <c r="Q13" s="282"/>
+      <c r="R13" s="313"/>
+      <c r="S13" s="313"/>
+      <c r="T13" s="313"/>
+      <c r="U13" s="313"/>
+      <c r="V13" s="313"/>
+      <c r="W13" s="313"/>
+      <c r="X13" s="313"/>
+      <c r="Y13" s="313"/>
+      <c r="Z13" s="313"/>
       <c r="AA13" s="56"/>
       <c r="AB13" s="59" t="s">
         <v>152</v>
@@ -3162,10 +3162,10 @@
       <c r="AF14" s="18"/>
     </row>
     <row r="15" spans="1:32" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="209" t="s">
+      <c r="A15" s="282" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="209"/>
+      <c r="B15" s="282"/>
       <c r="C15" s="54"/>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
@@ -3205,26 +3205,26 @@
       <c r="A16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="224" t="s">
+      <c r="B16" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="224"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="224"/>
-      <c r="J16" s="224"/>
-      <c r="K16" s="224"/>
-      <c r="L16" s="224"/>
+      <c r="C16" s="306"/>
+      <c r="D16" s="306"/>
+      <c r="E16" s="306"/>
+      <c r="F16" s="306"/>
+      <c r="G16" s="306"/>
+      <c r="H16" s="306"/>
+      <c r="I16" s="306"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
       <c r="M16" s="4"/>
       <c r="N16" s="21"/>
-      <c r="O16" s="225" t="s">
+      <c r="O16" s="307" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="225"/>
-      <c r="Q16" s="225"/>
+      <c r="P16" s="307"/>
+      <c r="Q16" s="307"/>
       <c r="R16" s="67"/>
       <c r="S16" s="63"/>
       <c r="T16" s="63"/>
@@ -3234,10 +3234,10 @@
       <c r="X16" s="63"/>
       <c r="Y16" s="63"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="207" t="s">
+      <c r="AA16" s="303" t="s">
         <v>27</v>
       </c>
-      <c r="AB16" s="223"/>
+      <c r="AB16" s="304"/>
       <c r="AC16" s="101"/>
       <c r="AD16" s="44"/>
       <c r="AE16" s="102"/>
@@ -3265,11 +3265,11 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="222" t="s">
+      <c r="T17" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="U17" s="222"/>
-      <c r="V17" s="222"/>
+      <c r="U17" s="241"/>
+      <c r="V17" s="241"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
@@ -3282,42 +3282,42 @@
       <c r="AF17" s="18"/>
     </row>
     <row r="18" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="209" t="s">
+      <c r="A18" s="282" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="209"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="209" t="s">
+      <c r="B18" s="282"/>
+      <c r="C18" s="282"/>
+      <c r="D18" s="278"/>
+      <c r="E18" s="278"/>
+      <c r="F18" s="278"/>
+      <c r="G18" s="278"/>
+      <c r="H18" s="278"/>
+      <c r="I18" s="278"/>
+      <c r="J18" s="278"/>
+      <c r="K18" s="278"/>
+      <c r="L18" s="278"/>
+      <c r="M18" s="282" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="209"/>
+      <c r="N18" s="282"/>
       <c r="O18" s="44"/>
       <c r="P18" s="44"/>
-      <c r="Q18" s="207" t="s">
+      <c r="Q18" s="303" t="s">
         <v>31</v>
       </c>
-      <c r="R18" s="207"/>
-      <c r="S18" s="207"/>
-      <c r="T18" s="207"/>
+      <c r="R18" s="303"/>
+      <c r="S18" s="303"/>
+      <c r="T18" s="303"/>
       <c r="U18" s="44"/>
       <c r="V18" s="44"/>
       <c r="W18" s="44"/>
       <c r="X18" s="44"/>
       <c r="Y18" s="44"/>
-      <c r="Z18" s="207" t="s">
+      <c r="Z18" s="303" t="s">
         <v>32</v>
       </c>
-      <c r="AA18" s="207"/>
-      <c r="AB18" s="223"/>
+      <c r="AA18" s="303"/>
+      <c r="AB18" s="304"/>
       <c r="AC18" s="101"/>
       <c r="AD18" s="44"/>
       <c r="AE18" s="102"/>
@@ -3374,28 +3374,28 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="209" t="s">
+      <c r="M20" s="282" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="209"/>
+      <c r="N20" s="282"/>
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
-      <c r="Q20" s="207" t="s">
+      <c r="Q20" s="303" t="s">
         <v>153</v>
       </c>
-      <c r="R20" s="207"/>
-      <c r="S20" s="207"/>
-      <c r="T20" s="207"/>
+      <c r="R20" s="303"/>
+      <c r="S20" s="303"/>
+      <c r="T20" s="303"/>
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="62"/>
       <c r="X20" s="62"/>
       <c r="Y20" s="62"/>
-      <c r="Z20" s="207" t="s">
+      <c r="Z20" s="303" t="s">
         <v>151</v>
       </c>
-      <c r="AA20" s="207"/>
-      <c r="AB20" s="223"/>
+      <c r="AA20" s="303"/>
+      <c r="AB20" s="304"/>
       <c r="AC20" s="75"/>
       <c r="AD20" s="77"/>
       <c r="AE20" s="76"/>
@@ -3439,23 +3439,23 @@
     <row r="22" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="229" t="s">
+      <c r="C22" s="276" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="229"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="229"/>
-      <c r="G22" s="229"/>
+      <c r="D22" s="276"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="276"/>
+      <c r="G22" s="276"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="230" t="s">
+      <c r="L22" s="305" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="230"/>
-      <c r="N22" s="230"/>
-      <c r="O22" s="230"/>
+      <c r="M22" s="305"/>
+      <c r="N22" s="305"/>
+      <c r="O22" s="305"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3474,147 +3474,147 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="226" t="s">
+      <c r="A23" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="227"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="226" t="s">
+      <c r="B23" s="247"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="247"/>
+      <c r="E23" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="227"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="227"/>
-      <c r="J23" s="226" t="s">
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="247"/>
+      <c r="I23" s="247"/>
+      <c r="J23" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="227"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="226" t="s">
+      <c r="K23" s="247"/>
+      <c r="L23" s="247"/>
+      <c r="M23" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="227"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="227"/>
-      <c r="Q23" s="227"/>
-      <c r="R23" s="226" t="s">
+      <c r="N23" s="247"/>
+      <c r="O23" s="247"/>
+      <c r="P23" s="247"/>
+      <c r="Q23" s="247"/>
+      <c r="R23" s="220" t="s">
         <v>41</v>
       </c>
-      <c r="S23" s="227"/>
-      <c r="T23" s="227"/>
-      <c r="U23" s="226" t="s">
+      <c r="S23" s="247"/>
+      <c r="T23" s="247"/>
+      <c r="U23" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="V23" s="227"/>
-      <c r="W23" s="226" t="s">
+      <c r="V23" s="247"/>
+      <c r="W23" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="X23" s="227"/>
-      <c r="Y23" s="227"/>
-      <c r="Z23" s="226" t="s">
+      <c r="X23" s="247"/>
+      <c r="Y23" s="247"/>
+      <c r="Z23" s="220" t="s">
         <v>44</v>
       </c>
-      <c r="AA23" s="227"/>
-      <c r="AB23" s="227"/>
-      <c r="AC23" s="226" t="s">
+      <c r="AA23" s="247"/>
+      <c r="AB23" s="247"/>
+      <c r="AC23" s="220" t="s">
         <v>45</v>
       </c>
-      <c r="AD23" s="227"/>
-      <c r="AE23" s="227"/>
+      <c r="AD23" s="247"/>
+      <c r="AE23" s="247"/>
       <c r="AF23" s="17"/>
     </row>
     <row r="24" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="226">
+      <c r="A24" s="220">
         <v>1</v>
       </c>
-      <c r="B24" s="227"/>
-      <c r="C24" s="227"/>
-      <c r="D24" s="227"/>
-      <c r="E24" s="226">
+      <c r="B24" s="247"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="247"/>
+      <c r="E24" s="220">
         <v>2</v>
       </c>
-      <c r="F24" s="227"/>
-      <c r="G24" s="227"/>
-      <c r="H24" s="227"/>
-      <c r="I24" s="227"/>
-      <c r="J24" s="226">
+      <c r="F24" s="247"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="247"/>
+      <c r="I24" s="247"/>
+      <c r="J24" s="220">
         <v>3</v>
       </c>
-      <c r="K24" s="227"/>
-      <c r="L24" s="227"/>
-      <c r="M24" s="226">
+      <c r="K24" s="247"/>
+      <c r="L24" s="247"/>
+      <c r="M24" s="220">
         <v>4</v>
       </c>
-      <c r="N24" s="227"/>
-      <c r="O24" s="227"/>
-      <c r="P24" s="227"/>
-      <c r="Q24" s="227"/>
-      <c r="R24" s="226">
+      <c r="N24" s="247"/>
+      <c r="O24" s="247"/>
+      <c r="P24" s="247"/>
+      <c r="Q24" s="247"/>
+      <c r="R24" s="220">
         <v>5</v>
       </c>
-      <c r="S24" s="227"/>
-      <c r="T24" s="227"/>
-      <c r="U24" s="226">
+      <c r="S24" s="247"/>
+      <c r="T24" s="247"/>
+      <c r="U24" s="220">
         <v>6</v>
       </c>
-      <c r="V24" s="227"/>
-      <c r="W24" s="226">
+      <c r="V24" s="247"/>
+      <c r="W24" s="220">
         <v>7</v>
       </c>
-      <c r="X24" s="227"/>
-      <c r="Y24" s="227"/>
-      <c r="Z24" s="226">
+      <c r="X24" s="247"/>
+      <c r="Y24" s="247"/>
+      <c r="Z24" s="220">
         <v>8</v>
       </c>
-      <c r="AA24" s="227"/>
-      <c r="AB24" s="227"/>
-      <c r="AC24" s="226">
+      <c r="AA24" s="247"/>
+      <c r="AB24" s="247"/>
+      <c r="AC24" s="220">
         <v>9</v>
       </c>
-      <c r="AD24" s="227"/>
-      <c r="AE24" s="228"/>
+      <c r="AD24" s="247"/>
+      <c r="AE24" s="248"/>
       <c r="AF24" s="17"/>
     </row>
     <row r="25" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="237" t="s">
+      <c r="A25" s="297" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="238"/>
-      <c r="C25" s="238"/>
-      <c r="D25" s="238"/>
-      <c r="E25" s="239" t="s">
+      <c r="B25" s="298"/>
+      <c r="C25" s="298"/>
+      <c r="D25" s="298"/>
+      <c r="E25" s="279" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="240"/>
-      <c r="G25" s="240"/>
-      <c r="H25" s="240"/>
-      <c r="I25" s="240"/>
-      <c r="J25" s="241" t="s">
+      <c r="F25" s="280"/>
+      <c r="G25" s="280"/>
+      <c r="H25" s="280"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="299" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="242"/>
-      <c r="L25" s="242"/>
-      <c r="M25" s="243"/>
-      <c r="N25" s="243"/>
-      <c r="O25" s="243"/>
-      <c r="P25" s="243"/>
-      <c r="Q25" s="243"/>
-      <c r="R25" s="238"/>
-      <c r="S25" s="238"/>
-      <c r="T25" s="238"/>
-      <c r="U25" s="231"/>
-      <c r="V25" s="231"/>
-      <c r="W25" s="231"/>
-      <c r="X25" s="231"/>
-      <c r="Y25" s="231"/>
-      <c r="Z25" s="231"/>
-      <c r="AA25" s="231"/>
-      <c r="AB25" s="231"/>
-      <c r="AC25" s="231"/>
-      <c r="AD25" s="231"/>
-      <c r="AE25" s="231"/>
+      <c r="K25" s="300"/>
+      <c r="L25" s="300"/>
+      <c r="M25" s="301"/>
+      <c r="N25" s="301"/>
+      <c r="O25" s="301"/>
+      <c r="P25" s="301"/>
+      <c r="Q25" s="301"/>
+      <c r="R25" s="298"/>
+      <c r="S25" s="298"/>
+      <c r="T25" s="298"/>
+      <c r="U25" s="289"/>
+      <c r="V25" s="289"/>
+      <c r="W25" s="289"/>
+      <c r="X25" s="289"/>
+      <c r="Y25" s="289"/>
+      <c r="Z25" s="289"/>
+      <c r="AA25" s="289"/>
+      <c r="AB25" s="289"/>
+      <c r="AC25" s="289"/>
+      <c r="AD25" s="289"/>
+      <c r="AE25" s="289"/>
       <c r="AF25" s="113"/>
     </row>
     <row r="26" spans="1:32" ht="3.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3640,39 +3640,39 @@
       <c r="T26" s="90"/>
       <c r="U26" s="114"/>
       <c r="V26" s="115"/>
-      <c r="W26" s="232" t="s">
+      <c r="W26" s="292" t="s">
         <v>49</v>
       </c>
-      <c r="X26" s="233"/>
-      <c r="Y26" s="233"/>
-      <c r="Z26" s="233"/>
-      <c r="AA26" s="233"/>
-      <c r="AB26" s="233"/>
+      <c r="X26" s="293"/>
+      <c r="Y26" s="293"/>
+      <c r="Z26" s="293"/>
+      <c r="AA26" s="293"/>
+      <c r="AB26" s="293"/>
       <c r="AC26" s="117"/>
       <c r="AD26" s="91"/>
       <c r="AE26" s="115"/>
       <c r="AF26" s="113"/>
     </row>
     <row r="27" spans="1:32" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="209" t="s">
+      <c r="A27" s="282" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="209"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="209"/>
+      <c r="B27" s="282"/>
+      <c r="C27" s="282"/>
+      <c r="D27" s="282"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="216" t="s">
+      <c r="F27" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="216"/>
-      <c r="H27" s="235"/>
+      <c r="G27" s="232"/>
+      <c r="H27" s="295"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="236" t="s">
+      <c r="J27" s="281" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="209"/>
-      <c r="L27" s="209"/>
-      <c r="M27" s="219"/>
+      <c r="K27" s="282"/>
+      <c r="L27" s="282"/>
+      <c r="M27" s="296"/>
       <c r="N27" s="81"/>
       <c r="O27" s="81"/>
       <c r="P27" s="9" t="s">
@@ -3680,56 +3680,56 @@
       </c>
       <c r="Q27" s="79"/>
       <c r="R27" s="80"/>
-      <c r="S27" s="244" t="s">
+      <c r="S27" s="221" t="s">
         <v>53</v>
       </c>
-      <c r="T27" s="232"/>
+      <c r="T27" s="292"/>
       <c r="U27" s="116"/>
       <c r="V27" s="78"/>
-      <c r="W27" s="233"/>
-      <c r="X27" s="234"/>
-      <c r="Y27" s="234"/>
-      <c r="Z27" s="234"/>
-      <c r="AA27" s="234"/>
-      <c r="AB27" s="234"/>
+      <c r="W27" s="293"/>
+      <c r="X27" s="294"/>
+      <c r="Y27" s="294"/>
+      <c r="Z27" s="294"/>
+      <c r="AA27" s="294"/>
+      <c r="AB27" s="294"/>
       <c r="AC27" s="116"/>
       <c r="AD27" s="44"/>
       <c r="AE27" s="78"/>
       <c r="AF27" s="113"/>
     </row>
     <row r="28" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="218" t="s">
+      <c r="A28" s="286" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="218"/>
-      <c r="C28" s="218"/>
-      <c r="D28" s="218"/>
+      <c r="B28" s="286"/>
+      <c r="C28" s="286"/>
+      <c r="D28" s="286"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="251"/>
-      <c r="I28" s="252"/>
-      <c r="J28" s="236"/>
-      <c r="K28" s="209"/>
-      <c r="L28" s="209"/>
-      <c r="M28" s="209"/>
-      <c r="N28" s="229" t="s">
+      <c r="H28" s="290"/>
+      <c r="I28" s="291"/>
+      <c r="J28" s="281"/>
+      <c r="K28" s="282"/>
+      <c r="L28" s="282"/>
+      <c r="M28" s="282"/>
+      <c r="N28" s="276" t="s">
         <v>56</v>
       </c>
-      <c r="O28" s="229"/>
+      <c r="O28" s="276"/>
       <c r="P28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q28" s="229" t="s">
+      <c r="Q28" s="276" t="s">
         <v>57</v>
       </c>
-      <c r="R28" s="245"/>
-      <c r="S28" s="246" t="s">
+      <c r="R28" s="302"/>
+      <c r="S28" s="272" t="s">
         <v>58</v>
       </c>
-      <c r="T28" s="247"/>
+      <c r="T28" s="288"/>
       <c r="U28" s="108"/>
       <c r="V28" s="108"/>
       <c r="W28" s="2"/>
@@ -3747,10 +3747,10 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="248" t="s">
+      <c r="E29" s="273" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="248"/>
+      <c r="F29" s="273"/>
       <c r="G29" s="2"/>
       <c r="H29" s="51"/>
       <c r="I29" s="154"/>
@@ -3758,11 +3758,11 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="248"/>
-      <c r="O29" s="248"/>
+      <c r="N29" s="273"/>
+      <c r="O29" s="273"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="248"/>
-      <c r="R29" s="248"/>
+      <c r="Q29" s="273"/>
+      <c r="R29" s="273"/>
       <c r="S29" s="26"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -3778,10 +3778,10 @@
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="211" t="s">
+      <c r="A30" s="278" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="211"/>
+      <c r="B30" s="278"/>
       <c r="C30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
@@ -3789,28 +3789,28 @@
       <c r="G30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="249" t="s">
+      <c r="H30" s="256" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="249"/>
-      <c r="J30" s="250" t="s">
+      <c r="I30" s="256"/>
+      <c r="J30" s="277" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="211"/>
-      <c r="L30" s="211"/>
+      <c r="K30" s="278"/>
+      <c r="L30" s="278"/>
       <c r="M30" s="81"/>
       <c r="N30" s="81"/>
       <c r="O30" s="81"/>
-      <c r="P30" s="211" t="s">
+      <c r="P30" s="278" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="211"/>
-      <c r="R30" s="211"/>
-      <c r="S30" s="250" t="s">
+      <c r="Q30" s="278"/>
+      <c r="R30" s="278"/>
+      <c r="S30" s="277" t="s">
         <v>64</v>
       </c>
-      <c r="T30" s="211"/>
-      <c r="U30" s="211"/>
+      <c r="T30" s="278"/>
+      <c r="U30" s="278"/>
       <c r="V30" s="81"/>
       <c r="W30" s="81"/>
       <c r="X30" s="81"/>
@@ -3826,22 +3826,22 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="253" t="s">
+      <c r="D31" s="271" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="253"/>
-      <c r="F31" s="253"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="271"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="24"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="229" t="s">
+      <c r="M31" s="276" t="s">
         <v>57</v>
       </c>
-      <c r="N31" s="229"/>
-      <c r="O31" s="229"/>
+      <c r="N31" s="276"/>
+      <c r="O31" s="276"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -3871,21 +3871,21 @@
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="80"/>
-      <c r="J32" s="250" t="s">
+      <c r="J32" s="277" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="211"/>
-      <c r="L32" s="211"/>
+      <c r="K32" s="278"/>
+      <c r="L32" s="278"/>
       <c r="M32" s="44"/>
       <c r="N32" s="44"/>
       <c r="O32" s="79"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="65"/>
-      <c r="S32" s="236" t="s">
+      <c r="S32" s="281" t="s">
         <v>68</v>
       </c>
-      <c r="T32" s="209"/>
+      <c r="T32" s="282"/>
       <c r="U32" s="81"/>
       <c r="V32" s="81"/>
       <c r="W32" s="81"/>
@@ -3900,33 +3900,33 @@
     </row>
     <row r="33" spans="1:32" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="222" t="s">
+      <c r="B33" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="222"/>
-      <c r="D33" s="222" t="s">
+      <c r="C33" s="241"/>
+      <c r="D33" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="222"/>
-      <c r="F33" s="222"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="241"/>
       <c r="G33" s="125" t="s">
         <v>71</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="124"/>
-      <c r="J33" s="239"/>
-      <c r="K33" s="240"/>
-      <c r="L33" s="240"/>
-      <c r="M33" s="229" t="s">
+      <c r="J33" s="279"/>
+      <c r="K33" s="280"/>
+      <c r="L33" s="280"/>
+      <c r="M33" s="276" t="s">
         <v>70</v>
       </c>
-      <c r="N33" s="229"/>
-      <c r="O33" s="229" t="s">
+      <c r="N33" s="276"/>
+      <c r="O33" s="276" t="s">
         <v>71</v>
       </c>
-      <c r="P33" s="229"/>
-      <c r="Q33" s="229"/>
-      <c r="R33" s="254"/>
+      <c r="P33" s="276"/>
+      <c r="Q33" s="276"/>
+      <c r="R33" s="283"/>
       <c r="S33" s="24"/>
       <c r="T33" s="2"/>
       <c r="U33" s="19"/>
@@ -3942,10 +3942,10 @@
       <c r="AE33" s="19"/>
     </row>
     <row r="34" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="218" t="s">
+      <c r="A34" s="286" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="257"/>
+      <c r="B34" s="287"/>
       <c r="C34" s="65"/>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
@@ -3953,17 +3953,17 @@
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
       <c r="I34" s="122"/>
-      <c r="J34" s="250" t="s">
+      <c r="J34" s="277" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="211"/>
+      <c r="K34" s="278"/>
       <c r="L34" s="65"/>
       <c r="M34" s="44"/>
       <c r="N34" s="44"/>
       <c r="O34" s="79"/>
       <c r="P34" s="79"/>
       <c r="Q34" s="79"/>
-      <c r="R34" s="255"/>
+      <c r="R34" s="284"/>
       <c r="S34" s="24"/>
       <c r="T34" s="81"/>
       <c r="U34" s="81"/>
@@ -3979,34 +3979,34 @@
       <c r="AE34" s="81"/>
     </row>
     <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="247"/>
-      <c r="B35" s="257"/>
+      <c r="A35" s="288"/>
+      <c r="B35" s="287"/>
       <c r="C35" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="229" t="s">
+      <c r="D35" s="276" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="229"/>
-      <c r="F35" s="229"/>
+      <c r="E35" s="276"/>
+      <c r="F35" s="276"/>
       <c r="G35" s="107"/>
       <c r="H35" s="107"/>
       <c r="I35" s="123"/>
-      <c r="J35" s="246"/>
-      <c r="K35" s="248"/>
+      <c r="J35" s="272"/>
+      <c r="K35" s="273"/>
       <c r="L35" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="M35" s="229" t="s">
+      <c r="M35" s="276" t="s">
         <v>70</v>
       </c>
-      <c r="N35" s="229"/>
-      <c r="O35" s="229" t="s">
+      <c r="N35" s="276"/>
+      <c r="O35" s="276" t="s">
         <v>71</v>
       </c>
-      <c r="P35" s="229"/>
-      <c r="Q35" s="229"/>
-      <c r="R35" s="256"/>
+      <c r="P35" s="276"/>
+      <c r="Q35" s="276"/>
+      <c r="R35" s="285"/>
       <c r="S35" s="25"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
@@ -4028,11 +4028,11 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="258" t="s">
+      <c r="G36" s="266" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="258"/>
-      <c r="I36" s="259"/>
+      <c r="H36" s="266"/>
+      <c r="I36" s="267"/>
       <c r="J36" s="25"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -4092,257 +4092,257 @@
       <c r="AE37" s="5"/>
     </row>
     <row r="38" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="268" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="261"/>
-      <c r="C38" s="261"/>
-      <c r="D38" s="261"/>
-      <c r="E38" s="261"/>
-      <c r="F38" s="261"/>
-      <c r="G38" s="261"/>
-      <c r="H38" s="261"/>
-      <c r="I38" s="261"/>
-      <c r="J38" s="261"/>
-      <c r="K38" s="261"/>
-      <c r="L38" s="261"/>
-      <c r="M38" s="261"/>
-      <c r="N38" s="261"/>
-      <c r="O38" s="261"/>
-      <c r="P38" s="261"/>
-      <c r="Q38" s="261"/>
-      <c r="R38" s="261"/>
-      <c r="S38" s="261"/>
-      <c r="T38" s="261"/>
-      <c r="U38" s="261"/>
-      <c r="V38" s="261"/>
-      <c r="W38" s="261"/>
-      <c r="X38" s="261"/>
-      <c r="Y38" s="261"/>
-      <c r="Z38" s="261"/>
-      <c r="AA38" s="261"/>
-      <c r="AB38" s="261"/>
-      <c r="AC38" s="261"/>
-      <c r="AD38" s="261"/>
-      <c r="AE38" s="261"/>
+      <c r="B38" s="269"/>
+      <c r="C38" s="269"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="269"/>
+      <c r="F38" s="269"/>
+      <c r="G38" s="269"/>
+      <c r="H38" s="269"/>
+      <c r="I38" s="269"/>
+      <c r="J38" s="269"/>
+      <c r="K38" s="269"/>
+      <c r="L38" s="269"/>
+      <c r="M38" s="269"/>
+      <c r="N38" s="269"/>
+      <c r="O38" s="269"/>
+      <c r="P38" s="269"/>
+      <c r="Q38" s="269"/>
+      <c r="R38" s="269"/>
+      <c r="S38" s="269"/>
+      <c r="T38" s="269"/>
+      <c r="U38" s="269"/>
+      <c r="V38" s="269"/>
+      <c r="W38" s="269"/>
+      <c r="X38" s="269"/>
+      <c r="Y38" s="269"/>
+      <c r="Z38" s="269"/>
+      <c r="AA38" s="269"/>
+      <c r="AB38" s="269"/>
+      <c r="AC38" s="269"/>
+      <c r="AD38" s="269"/>
+      <c r="AE38" s="269"/>
       <c r="AF38" s="17"/>
     </row>
     <row r="39" spans="1:32" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="262" t="s">
+      <c r="A39" s="270" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="253"/>
-      <c r="C39" s="262" t="s">
+      <c r="B39" s="271"/>
+      <c r="C39" s="270" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="253"/>
-      <c r="E39" s="253"/>
-      <c r="F39" s="253"/>
-      <c r="G39" s="262" t="s">
+      <c r="D39" s="271"/>
+      <c r="E39" s="271"/>
+      <c r="F39" s="271"/>
+      <c r="G39" s="270" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="253"/>
-      <c r="I39" s="253"/>
-      <c r="J39" s="253"/>
-      <c r="K39" s="253"/>
-      <c r="L39" s="262" t="s">
+      <c r="H39" s="271"/>
+      <c r="I39" s="271"/>
+      <c r="J39" s="271"/>
+      <c r="K39" s="271"/>
+      <c r="L39" s="270" t="s">
         <v>79</v>
       </c>
-      <c r="M39" s="253"/>
-      <c r="N39" s="253"/>
-      <c r="O39" s="253"/>
-      <c r="P39" s="253"/>
-      <c r="Q39" s="226" t="s">
+      <c r="M39" s="271"/>
+      <c r="N39" s="271"/>
+      <c r="O39" s="271"/>
+      <c r="P39" s="271"/>
+      <c r="Q39" s="220" t="s">
         <v>80</v>
       </c>
-      <c r="R39" s="227"/>
-      <c r="S39" s="227"/>
-      <c r="T39" s="227"/>
-      <c r="U39" s="227"/>
-      <c r="V39" s="263" t="s">
+      <c r="R39" s="247"/>
+      <c r="S39" s="247"/>
+      <c r="T39" s="247"/>
+      <c r="U39" s="247"/>
+      <c r="V39" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="W39" s="264"/>
-      <c r="X39" s="265"/>
-      <c r="Y39" s="266"/>
-      <c r="Z39" s="226" t="s">
+      <c r="W39" s="250"/>
+      <c r="X39" s="274"/>
+      <c r="Y39" s="275"/>
+      <c r="Z39" s="220" t="s">
         <v>82</v>
       </c>
-      <c r="AA39" s="227"/>
-      <c r="AB39" s="227"/>
-      <c r="AC39" s="226" t="s">
+      <c r="AA39" s="247"/>
+      <c r="AB39" s="247"/>
+      <c r="AC39" s="220" t="s">
         <v>83</v>
       </c>
-      <c r="AD39" s="227"/>
-      <c r="AE39" s="228"/>
+      <c r="AD39" s="247"/>
+      <c r="AE39" s="248"/>
       <c r="AF39" s="17"/>
     </row>
     <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="246"/>
-      <c r="B40" s="248"/>
-      <c r="C40" s="246"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="248"/>
-      <c r="F40" s="248"/>
-      <c r="G40" s="246"/>
-      <c r="H40" s="248"/>
-      <c r="I40" s="248"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="248"/>
-      <c r="L40" s="246"/>
-      <c r="M40" s="248"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="248"/>
-      <c r="P40" s="248"/>
-      <c r="Q40" s="267" t="s">
+      <c r="A40" s="272"/>
+      <c r="B40" s="273"/>
+      <c r="C40" s="272"/>
+      <c r="D40" s="273"/>
+      <c r="E40" s="273"/>
+      <c r="F40" s="273"/>
+      <c r="G40" s="272"/>
+      <c r="H40" s="273"/>
+      <c r="I40" s="273"/>
+      <c r="J40" s="273"/>
+      <c r="K40" s="273"/>
+      <c r="L40" s="272"/>
+      <c r="M40" s="273"/>
+      <c r="N40" s="273"/>
+      <c r="O40" s="273"/>
+      <c r="P40" s="273"/>
+      <c r="Q40" s="261" t="s">
         <v>84</v>
       </c>
-      <c r="R40" s="268"/>
-      <c r="S40" s="268"/>
-      <c r="T40" s="268"/>
+      <c r="R40" s="262"/>
+      <c r="S40" s="262"/>
+      <c r="T40" s="262"/>
       <c r="U40" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="V40" s="226" t="s">
+      <c r="V40" s="220" t="s">
         <v>85</v>
       </c>
-      <c r="W40" s="227"/>
-      <c r="X40" s="226" t="s">
+      <c r="W40" s="247"/>
+      <c r="X40" s="220" t="s">
         <v>86</v>
       </c>
-      <c r="Y40" s="228"/>
-      <c r="Z40" s="244"/>
-      <c r="AA40" s="216"/>
-      <c r="AB40" s="216"/>
-      <c r="AC40" s="244"/>
-      <c r="AD40" s="216"/>
-      <c r="AE40" s="216"/>
+      <c r="Y40" s="248"/>
+      <c r="Z40" s="221"/>
+      <c r="AA40" s="232"/>
+      <c r="AB40" s="232"/>
+      <c r="AC40" s="221"/>
+      <c r="AD40" s="232"/>
+      <c r="AE40" s="232"/>
       <c r="AF40" s="17"/>
     </row>
     <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="226">
+      <c r="A41" s="220">
         <v>10</v>
       </c>
-      <c r="B41" s="227"/>
-      <c r="C41" s="226">
+      <c r="B41" s="247"/>
+      <c r="C41" s="220">
         <v>11</v>
       </c>
-      <c r="D41" s="227"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="227"/>
-      <c r="G41" s="226">
+      <c r="D41" s="247"/>
+      <c r="E41" s="247"/>
+      <c r="F41" s="247"/>
+      <c r="G41" s="220">
         <v>12</v>
       </c>
-      <c r="H41" s="227"/>
-      <c r="I41" s="227"/>
-      <c r="J41" s="227"/>
-      <c r="K41" s="227"/>
-      <c r="L41" s="226">
+      <c r="H41" s="247"/>
+      <c r="I41" s="247"/>
+      <c r="J41" s="247"/>
+      <c r="K41" s="247"/>
+      <c r="L41" s="220">
         <v>13</v>
       </c>
-      <c r="M41" s="227"/>
-      <c r="N41" s="227"/>
-      <c r="O41" s="227"/>
-      <c r="P41" s="227"/>
-      <c r="Q41" s="226">
+      <c r="M41" s="247"/>
+      <c r="N41" s="247"/>
+      <c r="O41" s="247"/>
+      <c r="P41" s="247"/>
+      <c r="Q41" s="220">
         <v>14</v>
       </c>
-      <c r="R41" s="227"/>
-      <c r="S41" s="227"/>
-      <c r="T41" s="227"/>
+      <c r="R41" s="247"/>
+      <c r="S41" s="247"/>
+      <c r="T41" s="247"/>
       <c r="U41" s="29">
         <v>15</v>
       </c>
-      <c r="V41" s="226">
+      <c r="V41" s="220">
         <v>16</v>
       </c>
-      <c r="W41" s="227"/>
-      <c r="X41" s="226">
+      <c r="W41" s="247"/>
+      <c r="X41" s="220">
         <v>17</v>
       </c>
-      <c r="Y41" s="227"/>
-      <c r="Z41" s="226">
+      <c r="Y41" s="247"/>
+      <c r="Z41" s="220">
         <v>18</v>
       </c>
-      <c r="AA41" s="227"/>
-      <c r="AB41" s="227"/>
-      <c r="AC41" s="226">
+      <c r="AA41" s="247"/>
+      <c r="AB41" s="247"/>
+      <c r="AC41" s="220">
         <v>19</v>
       </c>
-      <c r="AD41" s="227"/>
-      <c r="AE41" s="228"/>
+      <c r="AD41" s="247"/>
+      <c r="AE41" s="248"/>
       <c r="AF41" s="17"/>
     </row>
     <row r="42" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="267" t="s">
+      <c r="A42" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="268"/>
-      <c r="C42" s="269"/>
-      <c r="D42" s="270"/>
-      <c r="E42" s="270"/>
-      <c r="F42" s="270"/>
-      <c r="G42" s="269"/>
-      <c r="H42" s="270"/>
-      <c r="I42" s="270"/>
-      <c r="J42" s="270"/>
-      <c r="K42" s="270"/>
-      <c r="L42" s="269"/>
-      <c r="M42" s="270"/>
-      <c r="N42" s="270"/>
-      <c r="O42" s="270"/>
-      <c r="P42" s="270"/>
-      <c r="Q42" s="269"/>
-      <c r="R42" s="270"/>
-      <c r="S42" s="270"/>
-      <c r="T42" s="270"/>
+      <c r="B42" s="262"/>
+      <c r="C42" s="263"/>
+      <c r="D42" s="264"/>
+      <c r="E42" s="264"/>
+      <c r="F42" s="264"/>
+      <c r="G42" s="263"/>
+      <c r="H42" s="264"/>
+      <c r="I42" s="264"/>
+      <c r="J42" s="264"/>
+      <c r="K42" s="264"/>
+      <c r="L42" s="263"/>
+      <c r="M42" s="264"/>
+      <c r="N42" s="264"/>
+      <c r="O42" s="264"/>
+      <c r="P42" s="264"/>
+      <c r="Q42" s="263"/>
+      <c r="R42" s="264"/>
+      <c r="S42" s="264"/>
+      <c r="T42" s="264"/>
       <c r="U42" s="109"/>
-      <c r="V42" s="271"/>
-      <c r="W42" s="271"/>
-      <c r="X42" s="271"/>
-      <c r="Y42" s="271"/>
-      <c r="Z42" s="271"/>
-      <c r="AA42" s="271"/>
-      <c r="AB42" s="271"/>
-      <c r="AC42" s="270"/>
-      <c r="AD42" s="270"/>
-      <c r="AE42" s="272"/>
+      <c r="V42" s="240"/>
+      <c r="W42" s="240"/>
+      <c r="X42" s="240"/>
+      <c r="Y42" s="240"/>
+      <c r="Z42" s="240"/>
+      <c r="AA42" s="240"/>
+      <c r="AB42" s="240"/>
+      <c r="AC42" s="264"/>
+      <c r="AD42" s="264"/>
+      <c r="AE42" s="265"/>
       <c r="AF42" s="17"/>
     </row>
     <row r="43" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="267" t="s">
+      <c r="A43" s="261" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="268"/>
-      <c r="C43" s="269"/>
-      <c r="D43" s="270"/>
-      <c r="E43" s="270"/>
-      <c r="F43" s="270"/>
-      <c r="G43" s="269"/>
-      <c r="H43" s="270"/>
-      <c r="I43" s="270"/>
-      <c r="J43" s="270"/>
-      <c r="K43" s="270"/>
-      <c r="L43" s="269"/>
-      <c r="M43" s="270"/>
-      <c r="N43" s="270"/>
-      <c r="O43" s="270"/>
-      <c r="P43" s="270"/>
-      <c r="Q43" s="269"/>
-      <c r="R43" s="270"/>
-      <c r="S43" s="270"/>
-      <c r="T43" s="270"/>
+      <c r="B43" s="262"/>
+      <c r="C43" s="263"/>
+      <c r="D43" s="264"/>
+      <c r="E43" s="264"/>
+      <c r="F43" s="264"/>
+      <c r="G43" s="263"/>
+      <c r="H43" s="264"/>
+      <c r="I43" s="264"/>
+      <c r="J43" s="264"/>
+      <c r="K43" s="264"/>
+      <c r="L43" s="263"/>
+      <c r="M43" s="264"/>
+      <c r="N43" s="264"/>
+      <c r="O43" s="264"/>
+      <c r="P43" s="264"/>
+      <c r="Q43" s="263"/>
+      <c r="R43" s="264"/>
+      <c r="S43" s="264"/>
+      <c r="T43" s="264"/>
       <c r="U43" s="109"/>
-      <c r="V43" s="271"/>
-      <c r="W43" s="271"/>
-      <c r="X43" s="271"/>
-      <c r="Y43" s="271"/>
-      <c r="Z43" s="271"/>
-      <c r="AA43" s="271"/>
-      <c r="AB43" s="271"/>
-      <c r="AC43" s="270"/>
-      <c r="AD43" s="270"/>
-      <c r="AE43" s="272"/>
+      <c r="V43" s="240"/>
+      <c r="W43" s="240"/>
+      <c r="X43" s="240"/>
+      <c r="Y43" s="240"/>
+      <c r="Z43" s="240"/>
+      <c r="AA43" s="240"/>
+      <c r="AB43" s="240"/>
+      <c r="AC43" s="264"/>
+      <c r="AD43" s="264"/>
+      <c r="AE43" s="265"/>
       <c r="AF43" s="17"/>
     </row>
     <row r="44" spans="1:32" ht="5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4379,78 +4379,78 @@
       <c r="AE44" s="20"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="226" t="s">
+      <c r="A45" s="220" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="227"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="227"/>
-      <c r="E45" s="227"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="227"/>
-      <c r="H45" s="227"/>
-      <c r="I45" s="227"/>
-      <c r="J45" s="227"/>
-      <c r="K45" s="227"/>
-      <c r="L45" s="227"/>
-      <c r="M45" s="227"/>
-      <c r="N45" s="227"/>
-      <c r="O45" s="227"/>
-      <c r="P45" s="227"/>
-      <c r="Q45" s="227"/>
-      <c r="R45" s="227"/>
-      <c r="S45" s="227"/>
-      <c r="T45" s="227"/>
-      <c r="U45" s="227"/>
-      <c r="V45" s="227"/>
-      <c r="W45" s="227"/>
-      <c r="X45" s="273" t="s">
+      <c r="B45" s="247"/>
+      <c r="C45" s="247"/>
+      <c r="D45" s="247"/>
+      <c r="E45" s="247"/>
+      <c r="F45" s="247"/>
+      <c r="G45" s="247"/>
+      <c r="H45" s="247"/>
+      <c r="I45" s="247"/>
+      <c r="J45" s="247"/>
+      <c r="K45" s="247"/>
+      <c r="L45" s="247"/>
+      <c r="M45" s="247"/>
+      <c r="N45" s="247"/>
+      <c r="O45" s="247"/>
+      <c r="P45" s="247"/>
+      <c r="Q45" s="247"/>
+      <c r="R45" s="247"/>
+      <c r="S45" s="247"/>
+      <c r="T45" s="247"/>
+      <c r="U45" s="247"/>
+      <c r="V45" s="247"/>
+      <c r="W45" s="247"/>
+      <c r="X45" s="254" t="s">
         <v>90</v>
       </c>
-      <c r="Y45" s="274"/>
-      <c r="Z45" s="249"/>
-      <c r="AA45" s="249"/>
-      <c r="AB45" s="249"/>
-      <c r="AC45" s="249"/>
-      <c r="AD45" s="249"/>
-      <c r="AE45" s="249"/>
+      <c r="Y45" s="255"/>
+      <c r="Z45" s="256"/>
+      <c r="AA45" s="256"/>
+      <c r="AB45" s="256"/>
+      <c r="AC45" s="256"/>
+      <c r="AD45" s="256"/>
+      <c r="AE45" s="256"/>
     </row>
     <row r="46" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="226" t="s">
+      <c r="A46" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="227"/>
-      <c r="C46" s="227"/>
-      <c r="D46" s="227"/>
-      <c r="E46" s="227"/>
-      <c r="F46" s="226" t="s">
+      <c r="B46" s="247"/>
+      <c r="C46" s="247"/>
+      <c r="D46" s="247"/>
+      <c r="E46" s="247"/>
+      <c r="F46" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="G46" s="227"/>
-      <c r="H46" s="275" t="s">
+      <c r="G46" s="247"/>
+      <c r="H46" s="257" t="s">
         <v>93</v>
       </c>
-      <c r="I46" s="276"/>
-      <c r="J46" s="276"/>
-      <c r="K46" s="277"/>
-      <c r="L46" s="226" t="s">
+      <c r="I46" s="258"/>
+      <c r="J46" s="258"/>
+      <c r="K46" s="259"/>
+      <c r="L46" s="220" t="s">
         <v>94</v>
       </c>
-      <c r="M46" s="227"/>
-      <c r="N46" s="227"/>
-      <c r="O46" s="227"/>
-      <c r="P46" s="227"/>
-      <c r="Q46" s="226" t="s">
+      <c r="M46" s="247"/>
+      <c r="N46" s="247"/>
+      <c r="O46" s="247"/>
+      <c r="P46" s="247"/>
+      <c r="Q46" s="220" t="s">
         <v>95</v>
       </c>
-      <c r="R46" s="227"/>
-      <c r="S46" s="227"/>
-      <c r="T46" s="226" t="s">
+      <c r="R46" s="247"/>
+      <c r="S46" s="247"/>
+      <c r="T46" s="220" t="s">
         <v>96</v>
       </c>
-      <c r="U46" s="227"/>
-      <c r="V46" s="227"/>
-      <c r="W46" s="228"/>
+      <c r="U46" s="247"/>
+      <c r="V46" s="247"/>
+      <c r="W46" s="248"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="79"/>
       <c r="Z46" s="79"/>
@@ -4461,41 +4461,41 @@
       <c r="AE46" s="79"/>
     </row>
     <row r="47" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="244"/>
-      <c r="B47" s="216"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="216"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="244"/>
-      <c r="G47" s="216"/>
-      <c r="H47" s="226" t="s">
+      <c r="A47" s="221"/>
+      <c r="B47" s="232"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="232"/>
+      <c r="E47" s="232"/>
+      <c r="F47" s="221"/>
+      <c r="G47" s="232"/>
+      <c r="H47" s="220" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="227"/>
-      <c r="J47" s="226" t="s">
+      <c r="I47" s="247"/>
+      <c r="J47" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="K47" s="227"/>
-      <c r="L47" s="226"/>
-      <c r="M47" s="227"/>
-      <c r="N47" s="227"/>
-      <c r="O47" s="227"/>
-      <c r="P47" s="227"/>
-      <c r="Q47" s="226" t="s">
+      <c r="K47" s="247"/>
+      <c r="L47" s="220"/>
+      <c r="M47" s="247"/>
+      <c r="N47" s="247"/>
+      <c r="O47" s="247"/>
+      <c r="P47" s="247"/>
+      <c r="Q47" s="220" t="s">
         <v>99</v>
       </c>
-      <c r="R47" s="227"/>
-      <c r="S47" s="278" t="s">
+      <c r="R47" s="247"/>
+      <c r="S47" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="T47" s="226" t="s">
+      <c r="T47" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="U47" s="227"/>
-      <c r="V47" s="226" t="s">
+      <c r="U47" s="247"/>
+      <c r="V47" s="220" t="s">
         <v>102</v>
       </c>
-      <c r="W47" s="228"/>
+      <c r="W47" s="248"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="87"/>
       <c r="Z47" s="87"/>
@@ -4521,24 +4521,24 @@
       <c r="E48" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="244"/>
-      <c r="G48" s="216"/>
-      <c r="H48" s="244"/>
-      <c r="I48" s="216"/>
-      <c r="J48" s="244"/>
-      <c r="K48" s="216"/>
-      <c r="L48" s="244"/>
-      <c r="M48" s="216"/>
-      <c r="N48" s="216"/>
-      <c r="O48" s="216"/>
-      <c r="P48" s="216"/>
-      <c r="Q48" s="244"/>
-      <c r="R48" s="216"/>
-      <c r="S48" s="279"/>
-      <c r="T48" s="244"/>
-      <c r="U48" s="216"/>
-      <c r="V48" s="244"/>
-      <c r="W48" s="216"/>
+      <c r="F48" s="221"/>
+      <c r="G48" s="232"/>
+      <c r="H48" s="221"/>
+      <c r="I48" s="232"/>
+      <c r="J48" s="221"/>
+      <c r="K48" s="232"/>
+      <c r="L48" s="221"/>
+      <c r="M48" s="232"/>
+      <c r="N48" s="232"/>
+      <c r="O48" s="232"/>
+      <c r="P48" s="232"/>
+      <c r="Q48" s="221"/>
+      <c r="R48" s="232"/>
+      <c r="S48" s="260"/>
+      <c r="T48" s="221"/>
+      <c r="U48" s="232"/>
+      <c r="V48" s="221"/>
+      <c r="W48" s="232"/>
       <c r="X48" s="25"/>
       <c r="Y48" s="87"/>
       <c r="Z48" s="87"/>
@@ -4564,40 +4564,40 @@
       <c r="E49" s="29">
         <v>24</v>
       </c>
-      <c r="F49" s="226">
+      <c r="F49" s="220">
         <v>25</v>
       </c>
-      <c r="G49" s="227"/>
-      <c r="H49" s="226">
+      <c r="G49" s="247"/>
+      <c r="H49" s="220">
         <v>26</v>
       </c>
-      <c r="I49" s="227"/>
-      <c r="J49" s="226">
+      <c r="I49" s="247"/>
+      <c r="J49" s="220">
         <v>27</v>
       </c>
-      <c r="K49" s="227"/>
-      <c r="L49" s="226">
+      <c r="K49" s="247"/>
+      <c r="L49" s="220">
         <v>28</v>
       </c>
-      <c r="M49" s="227"/>
-      <c r="N49" s="227"/>
-      <c r="O49" s="227"/>
-      <c r="P49" s="227"/>
-      <c r="Q49" s="226">
+      <c r="M49" s="247"/>
+      <c r="N49" s="247"/>
+      <c r="O49" s="247"/>
+      <c r="P49" s="247"/>
+      <c r="Q49" s="220">
         <v>29</v>
       </c>
-      <c r="R49" s="227"/>
+      <c r="R49" s="247"/>
       <c r="S49" s="29">
         <v>30</v>
       </c>
-      <c r="T49" s="226">
+      <c r="T49" s="220">
         <v>31</v>
       </c>
-      <c r="U49" s="227"/>
-      <c r="V49" s="226">
+      <c r="U49" s="247"/>
+      <c r="V49" s="220">
         <v>32</v>
       </c>
-      <c r="W49" s="228"/>
+      <c r="W49" s="248"/>
       <c r="X49" s="25"/>
       <c r="Y49" s="23"/>
       <c r="Z49" s="23"/>
@@ -4613,24 +4613,24 @@
       <c r="C50" s="109"/>
       <c r="D50" s="109"/>
       <c r="E50" s="109"/>
-      <c r="F50" s="271"/>
-      <c r="G50" s="271"/>
-      <c r="H50" s="271"/>
-      <c r="I50" s="271"/>
-      <c r="J50" s="271"/>
-      <c r="K50" s="271"/>
-      <c r="L50" s="271"/>
-      <c r="M50" s="271"/>
-      <c r="N50" s="271"/>
-      <c r="O50" s="271"/>
-      <c r="P50" s="271"/>
-      <c r="Q50" s="271"/>
-      <c r="R50" s="271"/>
+      <c r="F50" s="240"/>
+      <c r="G50" s="240"/>
+      <c r="H50" s="240"/>
+      <c r="I50" s="240"/>
+      <c r="J50" s="240"/>
+      <c r="K50" s="240"/>
+      <c r="L50" s="240"/>
+      <c r="M50" s="240"/>
+      <c r="N50" s="240"/>
+      <c r="O50" s="240"/>
+      <c r="P50" s="240"/>
+      <c r="Q50" s="240"/>
+      <c r="R50" s="240"/>
       <c r="S50" s="109"/>
-      <c r="T50" s="271"/>
-      <c r="U50" s="271"/>
-      <c r="V50" s="271"/>
-      <c r="W50" s="271"/>
+      <c r="T50" s="240"/>
+      <c r="U50" s="240"/>
+      <c r="V50" s="240"/>
+      <c r="W50" s="240"/>
       <c r="X50" s="108"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="2"/>
@@ -4674,47 +4674,47 @@
       <c r="AE51" s="1"/>
     </row>
     <row r="52" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="226" t="s">
+      <c r="A52" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="227"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="227"/>
-      <c r="E52" s="226" t="s">
+      <c r="B52" s="247"/>
+      <c r="C52" s="247"/>
+      <c r="D52" s="247"/>
+      <c r="E52" s="220" t="s">
         <v>109</v>
       </c>
-      <c r="F52" s="227"/>
-      <c r="G52" s="226" t="s">
+      <c r="F52" s="247"/>
+      <c r="G52" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="H52" s="227"/>
-      <c r="I52" s="226" t="s">
+      <c r="H52" s="247"/>
+      <c r="I52" s="220" t="s">
         <v>111</v>
       </c>
-      <c r="J52" s="227"/>
-      <c r="K52" s="227"/>
-      <c r="L52" s="226" t="s">
+      <c r="J52" s="247"/>
+      <c r="K52" s="247"/>
+      <c r="L52" s="220" t="s">
         <v>112</v>
       </c>
-      <c r="M52" s="227"/>
-      <c r="N52" s="226" t="s">
+      <c r="M52" s="247"/>
+      <c r="N52" s="220" t="s">
         <v>113</v>
       </c>
-      <c r="O52" s="227"/>
-      <c r="P52" s="263" t="s">
+      <c r="O52" s="247"/>
+      <c r="P52" s="249" t="s">
         <v>155</v>
       </c>
-      <c r="Q52" s="264"/>
-      <c r="R52" s="264"/>
-      <c r="S52" s="280"/>
-      <c r="T52" s="278" t="s">
+      <c r="Q52" s="250"/>
+      <c r="R52" s="250"/>
+      <c r="S52" s="251"/>
+      <c r="T52" s="252" t="s">
         <v>156</v>
       </c>
-      <c r="U52" s="226" t="s">
+      <c r="U52" s="220" t="s">
         <v>114</v>
       </c>
-      <c r="V52" s="227"/>
-      <c r="W52" s="226" t="s">
+      <c r="V52" s="247"/>
+      <c r="W52" s="220" t="s">
         <v>115</v>
       </c>
       <c r="X52" s="24"/>
@@ -4727,33 +4727,33 @@
       <c r="AE52" s="5"/>
     </row>
     <row r="53" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="244"/>
-      <c r="B53" s="216"/>
-      <c r="C53" s="216"/>
-      <c r="D53" s="216"/>
-      <c r="E53" s="244"/>
-      <c r="F53" s="216"/>
-      <c r="G53" s="244"/>
-      <c r="H53" s="216"/>
-      <c r="I53" s="244"/>
-      <c r="J53" s="216"/>
-      <c r="K53" s="216"/>
-      <c r="L53" s="244"/>
-      <c r="M53" s="216"/>
-      <c r="N53" s="244"/>
-      <c r="O53" s="216"/>
-      <c r="P53" s="226" t="s">
+      <c r="A53" s="221"/>
+      <c r="B53" s="232"/>
+      <c r="C53" s="232"/>
+      <c r="D53" s="232"/>
+      <c r="E53" s="221"/>
+      <c r="F53" s="232"/>
+      <c r="G53" s="221"/>
+      <c r="H53" s="232"/>
+      <c r="I53" s="221"/>
+      <c r="J53" s="232"/>
+      <c r="K53" s="232"/>
+      <c r="L53" s="221"/>
+      <c r="M53" s="232"/>
+      <c r="N53" s="221"/>
+      <c r="O53" s="232"/>
+      <c r="P53" s="220" t="s">
         <v>116</v>
       </c>
-      <c r="Q53" s="227"/>
-      <c r="R53" s="226" t="s">
+      <c r="Q53" s="247"/>
+      <c r="R53" s="220" t="s">
         <v>117</v>
       </c>
-      <c r="S53" s="228"/>
-      <c r="T53" s="281"/>
-      <c r="U53" s="244"/>
-      <c r="V53" s="216"/>
-      <c r="W53" s="244"/>
+      <c r="S53" s="248"/>
+      <c r="T53" s="253"/>
+      <c r="U53" s="221"/>
+      <c r="V53" s="232"/>
+      <c r="W53" s="221"/>
       <c r="X53" s="24"/>
       <c r="Y53" s="79"/>
       <c r="Z53" s="79"/>
@@ -4764,46 +4764,46 @@
       <c r="AE53" s="79"/>
     </row>
     <row r="54" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="244"/>
-      <c r="B54" s="216"/>
-      <c r="C54" s="216"/>
-      <c r="D54" s="216"/>
-      <c r="E54" s="226">
+      <c r="A54" s="221"/>
+      <c r="B54" s="232"/>
+      <c r="C54" s="232"/>
+      <c r="D54" s="232"/>
+      <c r="E54" s="220">
         <v>33</v>
       </c>
-      <c r="F54" s="227"/>
-      <c r="G54" s="226">
+      <c r="F54" s="247"/>
+      <c r="G54" s="220">
         <v>34</v>
       </c>
-      <c r="H54" s="227"/>
-      <c r="I54" s="226">
+      <c r="H54" s="247"/>
+      <c r="I54" s="220">
         <v>35</v>
       </c>
-      <c r="J54" s="227"/>
-      <c r="K54" s="227"/>
-      <c r="L54" s="226">
+      <c r="J54" s="247"/>
+      <c r="K54" s="247"/>
+      <c r="L54" s="220">
         <v>36</v>
       </c>
-      <c r="M54" s="227"/>
-      <c r="N54" s="226">
+      <c r="M54" s="247"/>
+      <c r="N54" s="220">
         <v>37</v>
       </c>
-      <c r="O54" s="227"/>
-      <c r="P54" s="226">
+      <c r="O54" s="247"/>
+      <c r="P54" s="220">
         <v>38</v>
       </c>
-      <c r="Q54" s="227"/>
-      <c r="R54" s="226">
+      <c r="Q54" s="247"/>
+      <c r="R54" s="220">
         <v>39</v>
       </c>
-      <c r="S54" s="227"/>
+      <c r="S54" s="247"/>
       <c r="T54" s="30">
         <v>40</v>
       </c>
-      <c r="U54" s="226">
+      <c r="U54" s="220">
         <v>41</v>
       </c>
-      <c r="V54" s="227"/>
+      <c r="V54" s="247"/>
       <c r="W54" s="29">
         <v>42</v>
       </c>
@@ -4817,30 +4817,30 @@
       <c r="AE54" s="87"/>
     </row>
     <row r="55" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="284" t="s">
+      <c r="A55" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="285"/>
-      <c r="C55" s="285"/>
-      <c r="D55" s="286"/>
-      <c r="E55" s="271"/>
-      <c r="F55" s="271"/>
-      <c r="G55" s="271"/>
-      <c r="H55" s="271"/>
-      <c r="I55" s="271"/>
-      <c r="J55" s="271"/>
-      <c r="K55" s="271"/>
-      <c r="L55" s="271"/>
-      <c r="M55" s="271"/>
-      <c r="N55" s="271"/>
-      <c r="O55" s="271"/>
-      <c r="P55" s="271"/>
-      <c r="Q55" s="271"/>
-      <c r="R55" s="271"/>
-      <c r="S55" s="271"/>
+      <c r="B55" s="244"/>
+      <c r="C55" s="244"/>
+      <c r="D55" s="245"/>
+      <c r="E55" s="240"/>
+      <c r="F55" s="240"/>
+      <c r="G55" s="240"/>
+      <c r="H55" s="240"/>
+      <c r="I55" s="240"/>
+      <c r="J55" s="240"/>
+      <c r="K55" s="240"/>
+      <c r="L55" s="240"/>
+      <c r="M55" s="240"/>
+      <c r="N55" s="240"/>
+      <c r="O55" s="240"/>
+      <c r="P55" s="240"/>
+      <c r="Q55" s="240"/>
+      <c r="R55" s="240"/>
+      <c r="S55" s="240"/>
       <c r="T55" s="109"/>
-      <c r="U55" s="271"/>
-      <c r="V55" s="271"/>
+      <c r="U55" s="240"/>
+      <c r="V55" s="240"/>
       <c r="W55" s="109"/>
       <c r="X55" s="108"/>
       <c r="Y55" s="88"/>
@@ -4852,35 +4852,35 @@
       <c r="AE55" s="88"/>
     </row>
     <row r="56" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="284" t="s">
+      <c r="A56" s="243" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="285"/>
-      <c r="C56" s="285"/>
-      <c r="D56" s="286"/>
-      <c r="E56" s="271"/>
-      <c r="F56" s="271"/>
-      <c r="G56" s="271"/>
-      <c r="H56" s="271"/>
-      <c r="I56" s="271"/>
-      <c r="J56" s="271"/>
-      <c r="K56" s="271"/>
-      <c r="L56" s="271"/>
-      <c r="M56" s="271"/>
-      <c r="N56" s="271"/>
-      <c r="O56" s="271"/>
-      <c r="P56" s="271"/>
-      <c r="Q56" s="271"/>
-      <c r="R56" s="271"/>
-      <c r="S56" s="271"/>
+      <c r="B56" s="244"/>
+      <c r="C56" s="244"/>
+      <c r="D56" s="245"/>
+      <c r="E56" s="240"/>
+      <c r="F56" s="240"/>
+      <c r="G56" s="240"/>
+      <c r="H56" s="240"/>
+      <c r="I56" s="240"/>
+      <c r="J56" s="240"/>
+      <c r="K56" s="240"/>
+      <c r="L56" s="240"/>
+      <c r="M56" s="240"/>
+      <c r="N56" s="240"/>
+      <c r="O56" s="240"/>
+      <c r="P56" s="240"/>
+      <c r="Q56" s="240"/>
+      <c r="R56" s="240"/>
+      <c r="S56" s="240"/>
       <c r="T56" s="109"/>
-      <c r="U56" s="271"/>
-      <c r="V56" s="271"/>
+      <c r="U56" s="240"/>
+      <c r="V56" s="240"/>
       <c r="W56" s="109"/>
-      <c r="X56" s="282" t="s">
+      <c r="X56" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="Y56" s="283"/>
+      <c r="Y56" s="235"/>
       <c r="Z56" s="89"/>
       <c r="AA56" s="89"/>
       <c r="AB56" s="89"/>
@@ -4889,43 +4889,43 @@
       <c r="AE56" s="89"/>
     </row>
     <row r="57" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="284" t="s">
+      <c r="A57" s="243" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="285"/>
-      <c r="C57" s="285"/>
-      <c r="D57" s="286"/>
-      <c r="E57" s="271"/>
-      <c r="F57" s="271"/>
-      <c r="G57" s="271"/>
-      <c r="H57" s="271"/>
-      <c r="I57" s="271"/>
-      <c r="J57" s="271"/>
-      <c r="K57" s="271"/>
-      <c r="L57" s="271"/>
-      <c r="M57" s="271"/>
-      <c r="N57" s="271"/>
-      <c r="O57" s="271"/>
-      <c r="P57" s="271"/>
-      <c r="Q57" s="271"/>
-      <c r="R57" s="271"/>
-      <c r="S57" s="271"/>
+      <c r="B57" s="244"/>
+      <c r="C57" s="244"/>
+      <c r="D57" s="245"/>
+      <c r="E57" s="240"/>
+      <c r="F57" s="240"/>
+      <c r="G57" s="240"/>
+      <c r="H57" s="240"/>
+      <c r="I57" s="240"/>
+      <c r="J57" s="240"/>
+      <c r="K57" s="240"/>
+      <c r="L57" s="240"/>
+      <c r="M57" s="240"/>
+      <c r="N57" s="240"/>
+      <c r="O57" s="240"/>
+      <c r="P57" s="240"/>
+      <c r="Q57" s="240"/>
+      <c r="R57" s="240"/>
+      <c r="S57" s="240"/>
       <c r="T57" s="109"/>
-      <c r="U57" s="271"/>
-      <c r="V57" s="271"/>
+      <c r="U57" s="240"/>
+      <c r="V57" s="240"/>
       <c r="W57" s="109"/>
       <c r="X57" s="111"/>
       <c r="Y57" s="112"/>
-      <c r="Z57" s="222" t="s">
+      <c r="Z57" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="AA57" s="222"/>
-      <c r="AB57" s="222" t="s">
+      <c r="AA57" s="241"/>
+      <c r="AB57" s="241" t="s">
         <v>122</v>
       </c>
-      <c r="AC57" s="222"/>
-      <c r="AD57" s="222"/>
-      <c r="AE57" s="222"/>
+      <c r="AC57" s="241"/>
+      <c r="AD57" s="241"/>
+      <c r="AE57" s="241"/>
     </row>
     <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
@@ -4945,14 +4945,14 @@
       <c r="O58" s="45"/>
       <c r="P58" s="45"/>
       <c r="Q58" s="45"/>
-      <c r="R58" s="290"/>
-      <c r="S58" s="290"/>
-      <c r="T58" s="290"/>
-      <c r="U58" s="290"/>
-      <c r="V58" s="290"/>
-      <c r="W58" s="290"/>
-      <c r="X58" s="290"/>
-      <c r="Y58" s="290"/>
+      <c r="R58" s="242"/>
+      <c r="S58" s="242"/>
+      <c r="T58" s="242"/>
+      <c r="U58" s="242"/>
+      <c r="V58" s="242"/>
+      <c r="W58" s="242"/>
+      <c r="X58" s="242"/>
+      <c r="Y58" s="242"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
       <c r="AB58" s="1"/>
@@ -4981,15 +4981,15 @@
       <c r="R59" s="12"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-      <c r="U59" s="287" t="s">
+      <c r="U59" s="238" t="s">
         <v>123</v>
       </c>
-      <c r="V59" s="288"/>
-      <c r="W59" s="288"/>
-      <c r="X59" s="288"/>
-      <c r="Y59" s="288"/>
-      <c r="Z59" s="288"/>
-      <c r="AA59" s="288"/>
+      <c r="V59" s="239"/>
+      <c r="W59" s="239"/>
+      <c r="X59" s="239"/>
+      <c r="Y59" s="239"/>
+      <c r="Z59" s="239"/>
+      <c r="AA59" s="239"/>
       <c r="AB59" s="14"/>
       <c r="AC59" s="14"/>
       <c r="AD59" s="14"/>
@@ -5016,18 +5016,18 @@
       <c r="R60" s="12"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="U60" s="287" t="s">
+      <c r="U60" s="238" t="s">
         <v>124</v>
       </c>
-      <c r="V60" s="288"/>
-      <c r="W60" s="288"/>
-      <c r="X60" s="288"/>
-      <c r="Y60" s="288"/>
-      <c r="Z60" s="288"/>
-      <c r="AA60" s="288"/>
-      <c r="AB60" s="288"/>
-      <c r="AC60" s="288"/>
-      <c r="AD60" s="288"/>
+      <c r="V60" s="239"/>
+      <c r="W60" s="239"/>
+      <c r="X60" s="239"/>
+      <c r="Y60" s="239"/>
+      <c r="Z60" s="239"/>
+      <c r="AA60" s="239"/>
+      <c r="AB60" s="239"/>
+      <c r="AC60" s="239"/>
+      <c r="AD60" s="239"/>
       <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5051,18 +5051,18 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="287" t="s">
+      <c r="U61" s="238" t="s">
         <v>125</v>
       </c>
-      <c r="V61" s="288"/>
-      <c r="W61" s="288"/>
-      <c r="X61" s="288"/>
-      <c r="Y61" s="288"/>
-      <c r="Z61" s="288"/>
-      <c r="AA61" s="288"/>
-      <c r="AB61" s="288"/>
-      <c r="AC61" s="288"/>
-      <c r="AD61" s="288"/>
+      <c r="V61" s="239"/>
+      <c r="W61" s="239"/>
+      <c r="X61" s="239"/>
+      <c r="Y61" s="239"/>
+      <c r="Z61" s="239"/>
+      <c r="AA61" s="239"/>
+      <c r="AB61" s="239"/>
+      <c r="AC61" s="239"/>
+      <c r="AD61" s="239"/>
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:32" ht="4" customHeight="1" x14ac:dyDescent="0.2">
@@ -5158,11 +5158,11 @@
       <c r="U64" s="14"/>
       <c r="V64" s="14"/>
       <c r="W64" s="14"/>
-      <c r="X64" s="289" t="s">
+      <c r="X64" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="Y64" s="289"/>
-      <c r="Z64" s="289"/>
+      <c r="Y64" s="223"/>
+      <c r="Z64" s="223"/>
       <c r="AA64" s="14"/>
       <c r="AB64" s="126"/>
       <c r="AC64" s="146" t="s">
@@ -5174,33 +5174,33 @@
     </row>
     <row r="65" spans="1:32" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
-      <c r="B65" s="297" t="s">
+      <c r="B65" s="231" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="297"/>
-      <c r="D65" s="297"/>
-      <c r="E65" s="297"/>
-      <c r="F65" s="297"/>
-      <c r="G65" s="297"/>
-      <c r="H65" s="297"/>
-      <c r="I65" s="297"/>
-      <c r="J65" s="297"/>
-      <c r="K65" s="297"/>
-      <c r="L65" s="297"/>
-      <c r="M65" s="297"/>
-      <c r="N65" s="297"/>
-      <c r="O65" s="297"/>
-      <c r="P65" s="297"/>
-      <c r="Q65" s="297"/>
-      <c r="R65" s="297"/>
-      <c r="S65" s="297"/>
-      <c r="T65" s="297"/>
-      <c r="U65" s="297"/>
-      <c r="V65" s="297"/>
-      <c r="W65" s="297"/>
-      <c r="X65" s="297"/>
-      <c r="Y65" s="297"/>
-      <c r="Z65" s="297"/>
+      <c r="C65" s="231"/>
+      <c r="D65" s="231"/>
+      <c r="E65" s="231"/>
+      <c r="F65" s="231"/>
+      <c r="G65" s="231"/>
+      <c r="H65" s="231"/>
+      <c r="I65" s="231"/>
+      <c r="J65" s="231"/>
+      <c r="K65" s="231"/>
+      <c r="L65" s="231"/>
+      <c r="M65" s="231"/>
+      <c r="N65" s="231"/>
+      <c r="O65" s="231"/>
+      <c r="P65" s="231"/>
+      <c r="Q65" s="231"/>
+      <c r="R65" s="231"/>
+      <c r="S65" s="231"/>
+      <c r="T65" s="231"/>
+      <c r="U65" s="231"/>
+      <c r="V65" s="231"/>
+      <c r="W65" s="231"/>
+      <c r="X65" s="231"/>
+      <c r="Y65" s="231"/>
+      <c r="Z65" s="231"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="129"/>
       <c r="AC65" s="147"/>
@@ -5227,18 +5227,18 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="216" t="s">
+      <c r="S66" s="232" t="s">
         <v>128</v>
       </c>
-      <c r="T66" s="216"/>
+      <c r="T66" s="232"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
-      <c r="W66" s="298" t="s">
+      <c r="W66" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="X66" s="299"/>
-      <c r="Y66" s="299"/>
-      <c r="Z66" s="299"/>
+      <c r="X66" s="234"/>
+      <c r="Y66" s="234"/>
+      <c r="Z66" s="234"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="131"/>
       <c r="AC66" s="152"/>
@@ -5269,10 +5269,10 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="299"/>
-      <c r="X67" s="299"/>
-      <c r="Y67" s="299"/>
-      <c r="Z67" s="299"/>
+      <c r="W67" s="234"/>
+      <c r="X67" s="234"/>
+      <c r="Y67" s="234"/>
+      <c r="Z67" s="234"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="134"/>
       <c r="AC67" s="135"/>
@@ -5281,38 +5281,38 @@
       <c r="AF67" s="18"/>
     </row>
     <row r="68" spans="1:32" ht="39.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="292" t="s">
+      <c r="A68" s="222" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="292"/>
-      <c r="C68" s="292"/>
-      <c r="D68" s="292"/>
-      <c r="E68" s="291" t="s">
+      <c r="B68" s="222"/>
+      <c r="C68" s="222"/>
+      <c r="D68" s="222"/>
+      <c r="E68" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="283"/>
-      <c r="G68" s="283"/>
-      <c r="H68" s="283"/>
-      <c r="I68" s="283"/>
-      <c r="J68" s="283"/>
-      <c r="K68" s="283"/>
-      <c r="L68" s="283"/>
-      <c r="M68" s="283"/>
-      <c r="N68" s="283"/>
-      <c r="O68" s="283"/>
-      <c r="P68" s="283"/>
-      <c r="Q68" s="283"/>
-      <c r="R68" s="283"/>
-      <c r="S68" s="300"/>
-      <c r="T68" s="300"/>
-      <c r="U68" s="300"/>
-      <c r="V68" s="300"/>
-      <c r="W68" s="283"/>
-      <c r="X68" s="301"/>
-      <c r="Y68" s="289" t="s">
+      <c r="F68" s="235"/>
+      <c r="G68" s="235"/>
+      <c r="H68" s="235"/>
+      <c r="I68" s="235"/>
+      <c r="J68" s="235"/>
+      <c r="K68" s="235"/>
+      <c r="L68" s="235"/>
+      <c r="M68" s="235"/>
+      <c r="N68" s="235"/>
+      <c r="O68" s="235"/>
+      <c r="P68" s="235"/>
+      <c r="Q68" s="235"/>
+      <c r="R68" s="235"/>
+      <c r="S68" s="236"/>
+      <c r="T68" s="236"/>
+      <c r="U68" s="236"/>
+      <c r="V68" s="236"/>
+      <c r="W68" s="235"/>
+      <c r="X68" s="237"/>
+      <c r="Y68" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="Z68" s="289"/>
+      <c r="Z68" s="223"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="131"/>
       <c r="AC68" s="132"/>
@@ -5321,10 +5321,10 @@
       <c r="AF68" s="18"/>
     </row>
     <row r="69" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="291"/>
-      <c r="B69" s="291"/>
-      <c r="C69" s="291"/>
-      <c r="D69" s="291"/>
+      <c r="A69" s="226"/>
+      <c r="B69" s="226"/>
+      <c r="C69" s="226"/>
+      <c r="D69" s="226"/>
       <c r="E69" s="31"/>
       <c r="F69" s="120"/>
       <c r="G69" s="120"/>
@@ -5357,36 +5357,36 @@
       <c r="AF69" s="18"/>
     </row>
     <row r="70" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="292" t="s">
+      <c r="A70" s="222" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="292"/>
-      <c r="C70" s="292"/>
-      <c r="D70" s="292"/>
-      <c r="E70" s="293"/>
-      <c r="F70" s="294"/>
-      <c r="G70" s="294"/>
-      <c r="H70" s="294"/>
-      <c r="I70" s="294"/>
-      <c r="J70" s="294"/>
-      <c r="K70" s="295"/>
-      <c r="L70" s="295"/>
-      <c r="M70" s="295"/>
-      <c r="N70" s="295"/>
-      <c r="O70" s="295"/>
-      <c r="P70" s="295"/>
-      <c r="Q70" s="295"/>
-      <c r="R70" s="295"/>
-      <c r="S70" s="295"/>
-      <c r="T70" s="295"/>
-      <c r="U70" s="294"/>
-      <c r="V70" s="294"/>
-      <c r="W70" s="296"/>
-      <c r="X70" s="296"/>
-      <c r="Y70" s="289" t="s">
+      <c r="B70" s="222"/>
+      <c r="C70" s="222"/>
+      <c r="D70" s="222"/>
+      <c r="E70" s="227"/>
+      <c r="F70" s="228"/>
+      <c r="G70" s="228"/>
+      <c r="H70" s="228"/>
+      <c r="I70" s="228"/>
+      <c r="J70" s="228"/>
+      <c r="K70" s="229"/>
+      <c r="L70" s="229"/>
+      <c r="M70" s="229"/>
+      <c r="N70" s="229"/>
+      <c r="O70" s="229"/>
+      <c r="P70" s="229"/>
+      <c r="Q70" s="229"/>
+      <c r="R70" s="229"/>
+      <c r="S70" s="229"/>
+      <c r="T70" s="229"/>
+      <c r="U70" s="228"/>
+      <c r="V70" s="228"/>
+      <c r="W70" s="230"/>
+      <c r="X70" s="230"/>
+      <c r="Y70" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="Z70" s="289"/>
+      <c r="Z70" s="223"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="131"/>
       <c r="AC70" s="132"/>
@@ -5421,8 +5421,8 @@
       <c r="V71" s="120"/>
       <c r="W71" s="32"/>
       <c r="X71" s="32"/>
-      <c r="Y71" s="289"/>
-      <c r="Z71" s="289"/>
+      <c r="Y71" s="223"/>
+      <c r="Z71" s="223"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="134"/>
       <c r="AC71" s="135"/>
@@ -5431,36 +5431,36 @@
       <c r="AF71" s="18"/>
     </row>
     <row r="72" spans="1:32" ht="39.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="292" t="s">
+      <c r="A72" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="292"/>
-      <c r="C72" s="292"/>
+      <c r="B72" s="222"/>
+      <c r="C72" s="222"/>
       <c r="D72" s="151"/>
-      <c r="E72" s="306"/>
-      <c r="F72" s="306"/>
-      <c r="G72" s="306"/>
-      <c r="H72" s="306"/>
-      <c r="I72" s="306"/>
-      <c r="J72" s="306"/>
-      <c r="K72" s="306"/>
-      <c r="L72" s="306"/>
-      <c r="M72" s="306"/>
-      <c r="N72" s="306"/>
-      <c r="O72" s="306"/>
-      <c r="P72" s="306"/>
-      <c r="Q72" s="306"/>
-      <c r="R72" s="306"/>
-      <c r="S72" s="306"/>
-      <c r="T72" s="306"/>
-      <c r="U72" s="306"/>
-      <c r="V72" s="306"/>
-      <c r="W72" s="306"/>
-      <c r="X72" s="306"/>
-      <c r="Y72" s="289" t="s">
+      <c r="E72" s="224"/>
+      <c r="F72" s="224"/>
+      <c r="G72" s="224"/>
+      <c r="H72" s="224"/>
+      <c r="I72" s="224"/>
+      <c r="J72" s="224"/>
+      <c r="K72" s="224"/>
+      <c r="L72" s="224"/>
+      <c r="M72" s="224"/>
+      <c r="N72" s="224"/>
+      <c r="O72" s="224"/>
+      <c r="P72" s="224"/>
+      <c r="Q72" s="224"/>
+      <c r="R72" s="224"/>
+      <c r="S72" s="224"/>
+      <c r="T72" s="224"/>
+      <c r="U72" s="224"/>
+      <c r="V72" s="224"/>
+      <c r="W72" s="224"/>
+      <c r="X72" s="224"/>
+      <c r="Y72" s="223" t="s">
         <v>131</v>
       </c>
-      <c r="Z72" s="289"/>
+      <c r="Z72" s="223"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="139"/>
       <c r="AC72" s="140"/>
@@ -5504,410 +5504,231 @@
       <c r="AE73" s="22"/>
     </row>
     <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="208" t="s">
+      <c r="A74" s="225" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="208"/>
-      <c r="C74" s="208"/>
-      <c r="D74" s="208"/>
-      <c r="E74" s="208"/>
-      <c r="F74" s="208"/>
-      <c r="G74" s="208"/>
-      <c r="H74" s="208"/>
-      <c r="I74" s="208"/>
-      <c r="J74" s="208"/>
-      <c r="K74" s="208"/>
-      <c r="L74" s="208"/>
-      <c r="M74" s="208"/>
-      <c r="N74" s="208"/>
-      <c r="O74" s="208"/>
-      <c r="P74" s="208"/>
-      <c r="Q74" s="208"/>
-      <c r="R74" s="208"/>
-      <c r="S74" s="208"/>
-      <c r="T74" s="208"/>
-      <c r="U74" s="208"/>
-      <c r="V74" s="208"/>
-      <c r="W74" s="208"/>
-      <c r="X74" s="208"/>
-      <c r="Y74" s="208"/>
-      <c r="Z74" s="208"/>
-      <c r="AA74" s="208"/>
-      <c r="AB74" s="208"/>
-      <c r="AC74" s="208"/>
-      <c r="AD74" s="208"/>
-      <c r="AE74" s="208"/>
+      <c r="B74" s="225"/>
+      <c r="C74" s="225"/>
+      <c r="D74" s="225"/>
+      <c r="E74" s="225"/>
+      <c r="F74" s="225"/>
+      <c r="G74" s="225"/>
+      <c r="H74" s="225"/>
+      <c r="I74" s="225"/>
+      <c r="J74" s="225"/>
+      <c r="K74" s="225"/>
+      <c r="L74" s="225"/>
+      <c r="M74" s="225"/>
+      <c r="N74" s="225"/>
+      <c r="O74" s="225"/>
+      <c r="P74" s="225"/>
+      <c r="Q74" s="225"/>
+      <c r="R74" s="225"/>
+      <c r="S74" s="225"/>
+      <c r="T74" s="225"/>
+      <c r="U74" s="225"/>
+      <c r="V74" s="225"/>
+      <c r="W74" s="225"/>
+      <c r="X74" s="225"/>
+      <c r="Y74" s="225"/>
+      <c r="Z74" s="225"/>
+      <c r="AA74" s="225"/>
+      <c r="AB74" s="225"/>
+      <c r="AC74" s="225"/>
+      <c r="AD74" s="225"/>
+      <c r="AE74" s="225"/>
     </row>
     <row r="75" spans="1:32" ht="39.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="226" t="s">
+      <c r="A75" s="220" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="302" t="s">
+      <c r="B75" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="303"/>
-      <c r="D75" s="303"/>
-      <c r="E75" s="303"/>
-      <c r="F75" s="302" t="s">
+      <c r="C75" s="215"/>
+      <c r="D75" s="215"/>
+      <c r="E75" s="215"/>
+      <c r="F75" s="214" t="s">
         <v>138</v>
       </c>
-      <c r="G75" s="303"/>
-      <c r="H75" s="303"/>
-      <c r="I75" s="303"/>
-      <c r="J75" s="302" t="s">
+      <c r="G75" s="215"/>
+      <c r="H75" s="215"/>
+      <c r="I75" s="215"/>
+      <c r="J75" s="214" t="s">
         <v>53</v>
       </c>
-      <c r="K75" s="303"/>
-      <c r="L75" s="302" t="s">
+      <c r="K75" s="215"/>
+      <c r="L75" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="M75" s="303"/>
-      <c r="N75" s="302" t="s">
+      <c r="M75" s="215"/>
+      <c r="N75" s="214" t="s">
         <v>140</v>
       </c>
-      <c r="O75" s="303"/>
-      <c r="P75" s="303"/>
-      <c r="Q75" s="303"/>
-      <c r="R75" s="303"/>
-      <c r="S75" s="303"/>
+      <c r="O75" s="215"/>
+      <c r="P75" s="215"/>
+      <c r="Q75" s="215"/>
+      <c r="R75" s="215"/>
+      <c r="S75" s="215"/>
       <c r="T75" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="U75" s="302" t="s">
+      <c r="U75" s="214" t="s">
         <v>142</v>
       </c>
-      <c r="V75" s="303"/>
-      <c r="W75" s="302" t="s">
+      <c r="V75" s="215"/>
+      <c r="W75" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="X75" s="303"/>
-      <c r="Y75" s="302" t="s">
+      <c r="X75" s="215"/>
+      <c r="Y75" s="214" t="s">
         <v>143</v>
       </c>
-      <c r="Z75" s="303"/>
-      <c r="AA75" s="302" t="s">
+      <c r="Z75" s="215"/>
+      <c r="AA75" s="214" t="s">
         <v>144</v>
       </c>
-      <c r="AB75" s="303"/>
-      <c r="AC75" s="303"/>
-      <c r="AD75" s="302" t="s">
+      <c r="AB75" s="215"/>
+      <c r="AC75" s="215"/>
+      <c r="AD75" s="214" t="s">
         <v>145</v>
       </c>
-      <c r="AE75" s="303"/>
+      <c r="AE75" s="215"/>
       <c r="AF75" s="17"/>
     </row>
     <row r="76" spans="1:32" ht="39.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="244"/>
-      <c r="B76" s="304"/>
-      <c r="C76" s="305"/>
-      <c r="D76" s="305"/>
-      <c r="E76" s="305"/>
-      <c r="F76" s="304"/>
-      <c r="G76" s="305"/>
-      <c r="H76" s="305"/>
-      <c r="I76" s="305"/>
-      <c r="J76" s="304"/>
-      <c r="K76" s="305"/>
-      <c r="L76" s="302" t="s">
+      <c r="A76" s="221"/>
+      <c r="B76" s="216"/>
+      <c r="C76" s="217"/>
+      <c r="D76" s="217"/>
+      <c r="E76" s="217"/>
+      <c r="F76" s="216"/>
+      <c r="G76" s="217"/>
+      <c r="H76" s="217"/>
+      <c r="I76" s="217"/>
+      <c r="J76" s="216"/>
+      <c r="K76" s="217"/>
+      <c r="L76" s="214" t="s">
         <v>146</v>
       </c>
-      <c r="M76" s="303"/>
-      <c r="N76" s="302"/>
-      <c r="O76" s="303"/>
-      <c r="P76" s="303"/>
-      <c r="Q76" s="303"/>
-      <c r="R76" s="303"/>
-      <c r="S76" s="303"/>
+      <c r="M76" s="215"/>
+      <c r="N76" s="214"/>
+      <c r="O76" s="215"/>
+      <c r="P76" s="215"/>
+      <c r="Q76" s="215"/>
+      <c r="R76" s="215"/>
+      <c r="S76" s="215"/>
       <c r="T76" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="U76" s="302" t="s">
+      <c r="U76" s="214" t="s">
         <v>148</v>
       </c>
-      <c r="V76" s="303"/>
-      <c r="W76" s="302" t="s">
+      <c r="V76" s="215"/>
+      <c r="W76" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="X76" s="303"/>
-      <c r="Y76" s="302" t="s">
+      <c r="X76" s="215"/>
+      <c r="Y76" s="214" t="s">
         <v>149</v>
       </c>
-      <c r="Z76" s="303"/>
-      <c r="AA76" s="302" t="s">
+      <c r="Z76" s="215"/>
+      <c r="AA76" s="214" t="s">
         <v>150</v>
       </c>
-      <c r="AB76" s="303"/>
-      <c r="AC76" s="309"/>
-      <c r="AD76" s="304"/>
-      <c r="AE76" s="305"/>
+      <c r="AB76" s="215"/>
+      <c r="AC76" s="218"/>
+      <c r="AD76" s="216"/>
+      <c r="AE76" s="217"/>
       <c r="AF76" s="17"/>
     </row>
     <row r="77" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="34">
         <v>1</v>
       </c>
-      <c r="B77" s="307">
+      <c r="B77" s="212">
         <v>2</v>
       </c>
-      <c r="C77" s="308"/>
-      <c r="D77" s="308"/>
-      <c r="E77" s="308"/>
-      <c r="F77" s="307">
+      <c r="C77" s="213"/>
+      <c r="D77" s="213"/>
+      <c r="E77" s="213"/>
+      <c r="F77" s="212">
         <v>3</v>
       </c>
-      <c r="G77" s="308"/>
-      <c r="H77" s="308"/>
-      <c r="I77" s="308"/>
-      <c r="J77" s="307">
+      <c r="G77" s="213"/>
+      <c r="H77" s="213"/>
+      <c r="I77" s="213"/>
+      <c r="J77" s="212">
         <v>4</v>
       </c>
-      <c r="K77" s="308"/>
-      <c r="L77" s="307">
+      <c r="K77" s="213"/>
+      <c r="L77" s="212">
         <v>5</v>
       </c>
-      <c r="M77" s="308"/>
-      <c r="N77" s="307">
+      <c r="M77" s="213"/>
+      <c r="N77" s="212">
         <v>6</v>
       </c>
-      <c r="O77" s="308"/>
-      <c r="P77" s="308"/>
-      <c r="Q77" s="308"/>
-      <c r="R77" s="308"/>
-      <c r="S77" s="308"/>
+      <c r="O77" s="213"/>
+      <c r="P77" s="213"/>
+      <c r="Q77" s="213"/>
+      <c r="R77" s="213"/>
+      <c r="S77" s="213"/>
       <c r="T77" s="34">
         <v>7</v>
       </c>
-      <c r="U77" s="307">
+      <c r="U77" s="212">
         <v>8</v>
       </c>
-      <c r="V77" s="308"/>
-      <c r="W77" s="307">
+      <c r="V77" s="213"/>
+      <c r="W77" s="212">
         <v>9</v>
       </c>
-      <c r="X77" s="308"/>
-      <c r="Y77" s="307">
+      <c r="X77" s="213"/>
+      <c r="Y77" s="212">
         <v>10</v>
       </c>
-      <c r="Z77" s="308"/>
-      <c r="AA77" s="307">
+      <c r="Z77" s="213"/>
+      <c r="AA77" s="212">
         <v>11</v>
       </c>
-      <c r="AB77" s="308"/>
-      <c r="AC77" s="308"/>
-      <c r="AD77" s="307">
+      <c r="AB77" s="213"/>
+      <c r="AC77" s="213"/>
+      <c r="AD77" s="212">
         <v>12</v>
       </c>
-      <c r="AE77" s="310"/>
+      <c r="AE77" s="219"/>
       <c r="AF77" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:S77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="AA75:AC75"/>
-    <mergeCell ref="AD75:AE76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="W77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="AA77:AC77"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:E76"/>
-    <mergeCell ref="F75:I76"/>
-    <mergeCell ref="J75:K76"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:S76"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="E72:X72"/>
-    <mergeCell ref="A74:AE74"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:X70"/>
-    <mergeCell ref="Y70:Z71"/>
-    <mergeCell ref="B65:Z65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="W66:Z67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="U60:AD60"/>
-    <mergeCell ref="U61:AD61"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AE57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:K53"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:V53"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="A45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:U48"/>
-    <mergeCell ref="V47:W48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:K40"/>
-    <mergeCell ref="L39:P40"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="Z39:AB40"/>
-    <mergeCell ref="AC39:AE40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J32:L33"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="W26:AB27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="B5:AA5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:V11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:AB9"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:Y23"/>
@@ -5931,33 +5752,212 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="B5:AA5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:V11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:AB9"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="W26:AB27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J32:L33"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="L39:P40"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AB40"/>
+    <mergeCell ref="AC39:AE40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="A45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:U48"/>
+    <mergeCell ref="V47:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:V53"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="U60:AD60"/>
+    <mergeCell ref="U61:AD61"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AE57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:X70"/>
+    <mergeCell ref="Y70:Z71"/>
+    <mergeCell ref="B65:Z65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="W66:Z67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:E76"/>
+    <mergeCell ref="F75:I76"/>
+    <mergeCell ref="J75:K76"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:S76"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="E72:X72"/>
+    <mergeCell ref="A74:AE74"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="AA75:AC75"/>
+    <mergeCell ref="AD75:AE76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="AA77:AC77"/>
+    <mergeCell ref="AD77:AE77"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -5999,13 +5999,13 @@
       <c r="Q1" s="155"/>
       <c r="R1" s="155"/>
       <c r="S1" s="155"/>
-      <c r="T1" s="313" t="s">
+      <c r="T1" s="340" t="s">
         <v>158</v>
       </c>
-      <c r="U1" s="313"/>
-      <c r="V1" s="313"/>
-      <c r="W1" s="313"/>
-      <c r="X1" s="313"/>
+      <c r="U1" s="340"/>
+      <c r="V1" s="340"/>
+      <c r="W1" s="340"/>
+      <c r="X1" s="340"/>
       <c r="Y1" s="204" t="s">
         <v>164</v>
       </c>
@@ -6017,51 +6017,51 @@
       <c r="AE1" s="155"/>
     </row>
     <row r="2" spans="1:31" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="336" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="314"/>
-      <c r="Q2" s="314"/>
-      <c r="R2" s="314"/>
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
+      <c r="R2" s="336"/>
       <c r="S2" s="156">
         <v>1</v>
       </c>
       <c r="T2" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="U2" s="315" t="s">
+      <c r="U2" s="341" t="s">
         <v>161</v>
       </c>
-      <c r="V2" s="315"/>
-      <c r="W2" s="314"/>
-      <c r="X2" s="314"/>
-      <c r="Y2" s="341"/>
-      <c r="Z2" s="342"/>
-      <c r="AA2" s="343"/>
+      <c r="V2" s="341"/>
+      <c r="W2" s="336"/>
+      <c r="X2" s="336"/>
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="209"/>
       <c r="AB2" s="206"/>
-      <c r="AC2" s="343"/>
+      <c r="AC2" s="209"/>
       <c r="AD2" s="155"/>
       <c r="AE2" s="158"/>
     </row>
     <row r="3" spans="1:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="342" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="316"/>
+      <c r="B3" s="342"/>
       <c r="C3" s="199"/>
       <c r="D3" s="199"/>
       <c r="E3" s="199"/>
@@ -6079,18 +6079,18 @@
       <c r="Q3" s="199"/>
       <c r="R3" s="199"/>
       <c r="S3" s="200"/>
-      <c r="T3" s="315" t="s">
+      <c r="T3" s="341" t="s">
         <v>163</v>
       </c>
-      <c r="U3" s="315"/>
-      <c r="V3" s="315"/>
-      <c r="W3" s="316"/>
-      <c r="X3" s="316"/>
-      <c r="Y3" s="344"/>
-      <c r="Z3" s="345"/>
-      <c r="AA3" s="343"/>
+      <c r="U3" s="341"/>
+      <c r="V3" s="341"/>
+      <c r="W3" s="342"/>
+      <c r="X3" s="342"/>
+      <c r="Y3" s="210"/>
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="209"/>
       <c r="AB3" s="206"/>
-      <c r="AC3" s="343"/>
+      <c r="AC3" s="209"/>
       <c r="AD3" s="155"/>
       <c r="AE3" s="158"/>
     </row>
@@ -6112,38 +6112,38 @@
       <c r="O4" s="159"/>
       <c r="P4" s="159"/>
       <c r="Q4" s="159"/>
-      <c r="R4" s="318"/>
-      <c r="S4" s="318"/>
+      <c r="R4" s="343"/>
+      <c r="S4" s="343"/>
       <c r="T4" s="158"/>
       <c r="U4" s="158"/>
       <c r="V4" s="158"/>
       <c r="W4" s="158"/>
       <c r="X4" s="158"/>
-      <c r="Y4" s="339"/>
-      <c r="Z4" s="339"/>
-      <c r="AA4" s="340"/>
-      <c r="AB4" s="340"/>
-      <c r="AC4" s="340"/>
+      <c r="Y4" s="344"/>
+      <c r="Z4" s="344"/>
+      <c r="AA4" s="338"/>
+      <c r="AB4" s="338"/>
+      <c r="AC4" s="338"/>
       <c r="AD4" s="158"/>
       <c r="AE4" s="158"/>
     </row>
     <row r="5" spans="1:31" ht="10.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="317" t="s">
+      <c r="A5" s="329" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="317"/>
-      <c r="C5" s="317"/>
+      <c r="B5" s="329"/>
+      <c r="C5" s="329"/>
       <c r="D5" s="160"/>
       <c r="E5" s="160"/>
       <c r="F5" s="161"/>
       <c r="G5" s="160"/>
       <c r="H5" s="160"/>
       <c r="I5" s="160"/>
-      <c r="J5" s="312" t="s">
+      <c r="J5" s="316" t="s">
         <v>186</v>
       </c>
-      <c r="K5" s="312"/>
-      <c r="L5" s="312"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
       <c r="M5" s="160"/>
       <c r="N5" s="160"/>
       <c r="O5" s="162"/>
@@ -6156,11 +6156,11 @@
       <c r="V5" s="158"/>
       <c r="W5" s="158"/>
       <c r="X5" s="158"/>
-      <c r="Y5" s="319"/>
-      <c r="Z5" s="319"/>
-      <c r="AA5" s="311"/>
-      <c r="AB5" s="311"/>
-      <c r="AC5" s="311"/>
+      <c r="Y5" s="345"/>
+      <c r="Z5" s="345"/>
+      <c r="AA5" s="339"/>
+      <c r="AB5" s="339"/>
+      <c r="AC5" s="339"/>
       <c r="AD5" s="158"/>
       <c r="AE5" s="158"/>
     </row>
@@ -6193,19 +6193,19 @@
       <c r="V6" s="158"/>
       <c r="W6" s="158"/>
       <c r="X6" s="158"/>
-      <c r="Y6" s="314"/>
-      <c r="Z6" s="326"/>
-      <c r="AA6" s="314"/>
-      <c r="AB6" s="326"/>
-      <c r="AC6" s="326"/>
+      <c r="Y6" s="336"/>
+      <c r="Z6" s="337"/>
+      <c r="AA6" s="336"/>
+      <c r="AB6" s="337"/>
+      <c r="AC6" s="337"/>
       <c r="AD6" s="158"/>
       <c r="AE6" s="158"/>
     </row>
     <row r="7" spans="1:31" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="323" t="s">
+      <c r="A7" s="334" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="323"/>
+      <c r="B7" s="334"/>
       <c r="C7" s="169"/>
       <c r="D7" s="169"/>
       <c r="E7" s="169"/>
@@ -6213,11 +6213,11 @@
       <c r="G7" s="169"/>
       <c r="H7" s="169"/>
       <c r="I7" s="169"/>
-      <c r="J7" s="312" t="s">
+      <c r="J7" s="316" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="312"/>
-      <c r="L7" s="312"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
       <c r="M7" s="170"/>
       <c r="N7" s="170"/>
       <c r="O7" s="171"/>
@@ -6230,11 +6230,11 @@
       <c r="V7" s="158"/>
       <c r="W7" s="158"/>
       <c r="X7" s="158"/>
-      <c r="Y7" s="326"/>
-      <c r="Z7" s="326"/>
-      <c r="AA7" s="326"/>
-      <c r="AB7" s="326"/>
-      <c r="AC7" s="326"/>
+      <c r="Y7" s="337"/>
+      <c r="Z7" s="337"/>
+      <c r="AA7" s="337"/>
+      <c r="AB7" s="337"/>
+      <c r="AC7" s="337"/>
       <c r="AD7" s="158"/>
       <c r="AE7" s="158"/>
     </row>
@@ -6267,29 +6267,29 @@
       <c r="V8" s="173"/>
       <c r="W8" s="173"/>
       <c r="X8" s="173"/>
-      <c r="Y8" s="320"/>
-      <c r="Z8" s="320"/>
-      <c r="AA8" s="321"/>
-      <c r="AB8" s="321"/>
-      <c r="AC8" s="321"/>
+      <c r="Y8" s="325"/>
+      <c r="Z8" s="325"/>
+      <c r="AA8" s="332"/>
+      <c r="AB8" s="332"/>
+      <c r="AC8" s="332"/>
       <c r="AD8" s="173"/>
       <c r="AE8" s="173"/>
     </row>
     <row r="9" spans="1:31" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="317" t="s">
+      <c r="A9" s="329" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="322"/>
-      <c r="C9" s="322"/>
-      <c r="D9" s="323"/>
-      <c r="E9" s="323"/>
+      <c r="B9" s="333"/>
+      <c r="C9" s="333"/>
+      <c r="D9" s="334"/>
+      <c r="E9" s="334"/>
       <c r="F9" s="160"/>
       <c r="G9" s="160"/>
       <c r="H9" s="178"/>
-      <c r="I9" s="324" t="s">
+      <c r="I9" s="330" t="s">
         <v>169</v>
       </c>
-      <c r="J9" s="325"/>
+      <c r="J9" s="335"/>
       <c r="K9" s="179"/>
       <c r="L9" s="179"/>
       <c r="M9" s="176"/>
@@ -6320,11 +6320,11 @@
       <c r="C10" s="158"/>
       <c r="D10" s="158"/>
       <c r="E10" s="158"/>
-      <c r="F10" s="327" t="s">
+      <c r="F10" s="328" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="327"/>
-      <c r="H10" s="327"/>
+      <c r="G10" s="328"/>
+      <c r="H10" s="328"/>
       <c r="I10" s="158"/>
       <c r="J10" s="158"/>
       <c r="K10" s="155"/>
@@ -6350,25 +6350,25 @@
       <c r="AE10" s="158"/>
     </row>
     <row r="11" spans="1:31" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="317" t="s">
+      <c r="A11" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="317"/>
-      <c r="C11" s="324"/>
-      <c r="D11" s="324"/>
-      <c r="E11" s="324"/>
-      <c r="F11" s="324"/>
-      <c r="G11" s="324"/>
-      <c r="H11" s="324"/>
-      <c r="I11" s="324"/>
-      <c r="J11" s="324"/>
-      <c r="K11" s="324"/>
-      <c r="L11" s="324"/>
-      <c r="M11" s="324"/>
-      <c r="N11" s="324"/>
-      <c r="O11" s="324"/>
-      <c r="P11" s="324"/>
-      <c r="Q11" s="324"/>
+      <c r="B11" s="329"/>
+      <c r="C11" s="330"/>
+      <c r="D11" s="330"/>
+      <c r="E11" s="330"/>
+      <c r="F11" s="330"/>
+      <c r="G11" s="330"/>
+      <c r="H11" s="330"/>
+      <c r="I11" s="330"/>
+      <c r="J11" s="330"/>
+      <c r="K11" s="330"/>
+      <c r="L11" s="330"/>
+      <c r="M11" s="330"/>
+      <c r="N11" s="330"/>
+      <c r="O11" s="330"/>
+      <c r="P11" s="330"/>
+      <c r="Q11" s="330"/>
       <c r="R11" s="180"/>
       <c r="S11" s="172" t="s">
         <v>172</v>
@@ -6407,10 +6407,10 @@
       <c r="P12" s="174"/>
       <c r="Q12" s="184"/>
       <c r="R12" s="180"/>
-      <c r="S12" s="324" t="s">
+      <c r="S12" s="330" t="s">
         <v>173</v>
       </c>
-      <c r="T12" s="324"/>
+      <c r="T12" s="330"/>
       <c r="U12" s="185"/>
       <c r="V12" s="185"/>
       <c r="W12" s="186"/>
@@ -6435,11 +6435,11 @@
       <c r="I13" s="173"/>
       <c r="J13" s="173"/>
       <c r="K13" s="173"/>
-      <c r="L13" s="333" t="s">
+      <c r="L13" s="318" t="s">
         <v>174</v>
       </c>
-      <c r="M13" s="333"/>
-      <c r="N13" s="333"/>
+      <c r="M13" s="318"/>
+      <c r="N13" s="318"/>
       <c r="O13" s="173"/>
       <c r="P13" s="173"/>
       <c r="Q13" s="173"/>
@@ -6465,33 +6465,33 @@
       <c r="AE13" s="173"/>
     </row>
     <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="328" t="s">
+      <c r="A14" s="320" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="328"/>
-      <c r="C14" s="328"/>
-      <c r="D14" s="329" t="s">
+      <c r="B14" s="320"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="319" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="329"/>
-      <c r="F14" s="329"/>
-      <c r="G14" s="329"/>
-      <c r="H14" s="330" t="s">
+      <c r="E14" s="319"/>
+      <c r="F14" s="319"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="317" t="s">
         <v>176</v>
       </c>
-      <c r="I14" s="330"/>
-      <c r="J14" s="330"/>
+      <c r="I14" s="317"/>
+      <c r="J14" s="317"/>
       <c r="K14" s="173"/>
-      <c r="L14" s="328" t="s">
+      <c r="L14" s="320" t="s">
         <v>177</v>
       </c>
-      <c r="M14" s="328"/>
-      <c r="N14" s="329"/>
-      <c r="O14" s="329"/>
-      <c r="P14" s="329" t="s">
+      <c r="M14" s="320"/>
+      <c r="N14" s="319"/>
+      <c r="O14" s="319"/>
+      <c r="P14" s="319" t="s">
         <v>178</v>
       </c>
-      <c r="Q14" s="329"/>
+      <c r="Q14" s="319"/>
       <c r="R14" s="180"/>
       <c r="S14" s="331"/>
       <c r="T14" s="331"/>
@@ -6525,8 +6525,8 @@
       <c r="I15" s="166"/>
       <c r="J15" s="166"/>
       <c r="K15" s="176"/>
-      <c r="L15" s="332"/>
-      <c r="M15" s="332"/>
+      <c r="L15" s="324"/>
+      <c r="M15" s="324"/>
       <c r="N15" s="166" t="s">
         <v>179</v>
       </c>
@@ -6536,18 +6536,18 @@
       </c>
       <c r="Q15" s="188"/>
       <c r="R15" s="180"/>
-      <c r="S15" s="320" t="s">
+      <c r="S15" s="325" t="s">
         <v>181</v>
       </c>
-      <c r="T15" s="320"/>
-      <c r="U15" s="320"/>
-      <c r="V15" s="320"/>
-      <c r="W15" s="320"/>
-      <c r="X15" s="320"/>
-      <c r="Y15" s="320"/>
-      <c r="Z15" s="320"/>
-      <c r="AA15" s="320"/>
-      <c r="AB15" s="320"/>
+      <c r="T15" s="325"/>
+      <c r="U15" s="325"/>
+      <c r="V15" s="325"/>
+      <c r="W15" s="325"/>
+      <c r="X15" s="325"/>
+      <c r="Y15" s="325"/>
+      <c r="Z15" s="325"/>
+      <c r="AA15" s="325"/>
+      <c r="AB15" s="325"/>
       <c r="AC15" s="158"/>
       <c r="AD15" s="158"/>
       <c r="AE15" s="158"/>
@@ -6586,22 +6586,22 @@
       <c r="AE16" s="158"/>
     </row>
     <row r="17" spans="1:31" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="328" t="s">
+      <c r="A17" s="320" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="328"/>
-      <c r="C17" s="328"/>
-      <c r="D17" s="329" t="s">
+      <c r="B17" s="320"/>
+      <c r="C17" s="320"/>
+      <c r="D17" s="319" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="329"/>
-      <c r="F17" s="329"/>
-      <c r="G17" s="329"/>
-      <c r="H17" s="330" t="s">
+      <c r="E17" s="319"/>
+      <c r="F17" s="319"/>
+      <c r="G17" s="319"/>
+      <c r="H17" s="317" t="s">
         <v>183</v>
       </c>
-      <c r="I17" s="330"/>
-      <c r="J17" s="330"/>
+      <c r="I17" s="317"/>
+      <c r="J17" s="317"/>
       <c r="K17" s="194"/>
       <c r="L17" s="173"/>
       <c r="M17" s="173"/>
@@ -6610,14 +6610,14 @@
       <c r="P17" s="173"/>
       <c r="Q17" s="173"/>
       <c r="R17" s="180"/>
-      <c r="S17" s="337" t="s">
+      <c r="S17" s="321" t="s">
         <v>184</v>
       </c>
-      <c r="T17" s="337"/>
-      <c r="U17" s="336"/>
-      <c r="V17" s="338"/>
-      <c r="W17" s="336"/>
-      <c r="X17" s="336"/>
+      <c r="T17" s="321"/>
+      <c r="U17" s="322"/>
+      <c r="V17" s="323"/>
+      <c r="W17" s="322"/>
+      <c r="X17" s="322"/>
       <c r="Y17" s="174"/>
       <c r="Z17" s="174"/>
       <c r="AA17" s="159"/>
@@ -6672,11 +6672,11 @@
       <c r="AE18" s="158"/>
     </row>
     <row r="19" spans="1:31" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="333"/>
-      <c r="B19" s="333"/>
-      <c r="C19" s="333"/>
-      <c r="D19" s="329"/>
-      <c r="E19" s="329"/>
+      <c r="A19" s="318"/>
+      <c r="B19" s="318"/>
+      <c r="C19" s="318"/>
+      <c r="D19" s="319"/>
+      <c r="E19" s="319"/>
       <c r="F19" s="173"/>
       <c r="G19" s="173"/>
       <c r="H19" s="173"/>
@@ -6692,14 +6692,14 @@
       <c r="R19" s="180"/>
       <c r="S19" s="173"/>
       <c r="T19" s="173"/>
-      <c r="U19" s="334"/>
-      <c r="V19" s="334"/>
-      <c r="W19" s="335"/>
-      <c r="X19" s="335"/>
-      <c r="Y19" s="335"/>
-      <c r="Z19" s="335"/>
-      <c r="AA19" s="335"/>
-      <c r="AB19" s="335"/>
+      <c r="U19" s="326"/>
+      <c r="V19" s="326"/>
+      <c r="W19" s="327"/>
+      <c r="X19" s="327"/>
+      <c r="Y19" s="327"/>
+      <c r="Z19" s="327"/>
+      <c r="AA19" s="327"/>
+      <c r="AB19" s="327"/>
       <c r="AC19" s="173"/>
       <c r="AD19" s="173"/>
       <c r="AE19" s="173"/>
@@ -6708,19 +6708,19 @@
       <c r="A20" s="176"/>
       <c r="B20" s="176"/>
       <c r="C20" s="176"/>
-      <c r="D20" s="312"/>
-      <c r="E20" s="312"/>
+      <c r="D20" s="316"/>
+      <c r="E20" s="316"/>
       <c r="F20" s="197"/>
       <c r="G20" s="173"/>
-      <c r="H20" s="312"/>
-      <c r="I20" s="312"/>
-      <c r="J20" s="312"/>
+      <c r="H20" s="316"/>
+      <c r="I20" s="316"/>
+      <c r="J20" s="316"/>
       <c r="K20" s="198" t="s">
         <v>185</v>
       </c>
       <c r="L20" s="197"/>
-      <c r="M20" s="312"/>
-      <c r="N20" s="312"/>
+      <c r="M20" s="316"/>
+      <c r="N20" s="316"/>
       <c r="O20" s="158"/>
       <c r="P20" s="197"/>
       <c r="Q20" s="176"/>
@@ -6741,44 +6741,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="S15:AB15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="S14:AB14"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="AA6:AC7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AA4:AC5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="T1:X1"/>
@@ -6790,6 +6752,44 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="AA6:AC7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="S14:AB14"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="S15:AB15"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/Avi Git/CRM-Avi/templates/order/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="187">
   <si>
     <t>Оборотная сторона формы № 1-Т</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Автомобиль:</t>
   </si>
   <si>
-    <t>Пежо</t>
-  </si>
-  <si>
     <t>Государственный номерной знак</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>Пункт погрузки:</t>
-  </si>
-  <si>
-    <t>123995, Москва, Кутузовский п-д., д.16</t>
   </si>
   <si>
     <t>Пункт разгрузки:</t>
@@ -622,7 +616,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1259,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1366,9 +1360,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1886,6 +1877,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2177,12 +2171,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2213,13 +2201,22 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2228,15 +2225,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2286,6 +2274,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2592,50 +2583,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="4.1640625" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" customWidth="1"/>
-    <col min="11" max="11" width="4.1640625" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="4.1640625" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" customWidth="1"/>
-    <col min="17" max="17" width="4.5" customWidth="1"/>
-    <col min="18" max="18" width="10.5" customWidth="1"/>
-    <col min="19" max="19" width="9.5" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" customWidth="1"/>
     <col min="21" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" customWidth="1"/>
-    <col min="23" max="23" width="6.5" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" customWidth="1"/>
     <col min="24" max="24" width="5" customWidth="1"/>
-    <col min="25" max="25" width="5.83203125" customWidth="1"/>
-    <col min="26" max="26" width="5.1640625" customWidth="1"/>
-    <col min="27" max="27" width="1.5" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" customWidth="1"/>
+    <col min="27" max="27" width="1.42578125" customWidth="1"/>
     <col min="28" max="28" width="8" customWidth="1"/>
-    <col min="29" max="29" width="1.6640625" customWidth="1"/>
+    <col min="29" max="29" width="1.7109375" customWidth="1"/>
     <col min="30" max="30" width="5" customWidth="1"/>
-    <col min="31" max="31" width="4.5" customWidth="1"/>
+    <col min="31" max="31" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="8.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2670,7 +2661,7 @@
       <c r="AD1" s="303"/>
       <c r="AE1" s="303"/>
     </row>
-    <row r="2" spans="1:32" ht="9.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="9.1999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="225" t="s">
         <v>1</v>
       </c>
@@ -2705,49 +2696,49 @@
       <c r="AD2" s="225"/>
       <c r="AE2" s="225"/>
     </row>
-    <row r="3" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="153" t="s">
+    <row r="3" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="56" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="105"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="104"/>
       <c r="AF3" s="18"/>
     </row>
-    <row r="4" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="282" t="s">
         <v>3</v>
       </c>
@@ -2780,13 +2771,13 @@
       </c>
       <c r="AA4" s="303"/>
       <c r="AB4" s="303"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="93"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="92"/>
       <c r="AF4" s="18"/>
     </row>
-    <row r="5" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="308"/>
@@ -2815,30 +2806,30 @@
       <c r="Y5" s="308"/>
       <c r="Z5" s="308"/>
       <c r="AA5" s="308"/>
-      <c r="AB5" s="50" t="s">
+      <c r="AB5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="95"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="94"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="43" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42" t="s">
         <v>7</v>
       </c>
       <c r="P6" s="19"/>
@@ -2854,18 +2845,16 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="70"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
       <c r="AF6" s="18"/>
     </row>
-    <row r="7" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="232" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="232"/>
       <c r="C7" s="232"/>
       <c r="D7" s="232"/>
       <c r="E7" s="232"/>
@@ -2873,7 +2862,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="286" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="286"/>
       <c r="K7" s="286"/>
@@ -2894,20 +2883,20 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="97"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="96"/>
       <c r="AF7" s="18"/>
     </row>
-    <row r="8" spans="1:32" ht="6.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="211" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2930,124 +2919,124 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="97"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="96"/>
       <c r="AF8" s="18"/>
     </row>
-    <row r="9" spans="1:32" ht="8.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="282" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="296"/>
-      <c r="C9" s="314" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="314"/>
-      <c r="J9" s="314"/>
-      <c r="K9" s="314"/>
-      <c r="L9" s="314"/>
-      <c r="M9" s="314"/>
-      <c r="N9" s="314"/>
-      <c r="O9" s="314"/>
-      <c r="P9" s="314"/>
-      <c r="Q9" s="314"/>
-      <c r="R9" s="314"/>
-      <c r="S9" s="314"/>
-      <c r="T9" s="314"/>
-      <c r="U9" s="314"/>
-      <c r="V9" s="314"/>
-      <c r="W9" s="314"/>
-      <c r="X9" s="314"/>
-      <c r="Y9" s="314"/>
-      <c r="Z9" s="314"/>
-      <c r="AA9" s="314"/>
-      <c r="AB9" s="315"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="100"/>
+      <c r="C9" s="312" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="312"/>
+      <c r="J9" s="312"/>
+      <c r="K9" s="312"/>
+      <c r="L9" s="312"/>
+      <c r="M9" s="312"/>
+      <c r="N9" s="312"/>
+      <c r="O9" s="312"/>
+      <c r="P9" s="312"/>
+      <c r="Q9" s="312"/>
+      <c r="R9" s="312"/>
+      <c r="S9" s="312"/>
+      <c r="T9" s="312"/>
+      <c r="U9" s="312"/>
+      <c r="V9" s="312"/>
+      <c r="W9" s="312"/>
+      <c r="X9" s="312"/>
+      <c r="Y9" s="312"/>
+      <c r="Z9" s="312"/>
+      <c r="AA9" s="312"/>
+      <c r="AB9" s="313"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
       <c r="AF9" s="18"/>
     </row>
-    <row r="10" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="43" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="46"/>
+      <c r="P10" s="45"/>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
-      <c r="W10" s="64"/>
+      <c r="W10" s="63"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
       <c r="Z10" s="35"/>
       <c r="AA10" s="35"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="70"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="69"/>
       <c r="AF10" s="18"/>
     </row>
-    <row r="11" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="278" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="278"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="232"/>
+      <c r="G11" s="232"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="266"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
+      <c r="M11" s="266"/>
+      <c r="N11" s="266"/>
+      <c r="O11" s="344"/>
+      <c r="P11" s="344"/>
+      <c r="Q11" s="344"/>
+      <c r="R11" s="344"/>
+      <c r="S11" s="344"/>
+      <c r="T11" s="344"/>
+      <c r="U11" s="344"/>
+      <c r="V11" s="344"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="278"/>
-      <c r="C11" s="282"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="282"/>
-      <c r="G11" s="282"/>
-      <c r="H11" s="309"/>
-      <c r="I11" s="309"/>
-      <c r="J11" s="309"/>
-      <c r="K11" s="309"/>
-      <c r="L11" s="309"/>
-      <c r="M11" s="309"/>
-      <c r="N11" s="309"/>
-      <c r="O11" s="310"/>
-      <c r="P11" s="310"/>
-      <c r="Q11" s="310"/>
-      <c r="R11" s="310"/>
-      <c r="S11" s="310"/>
-      <c r="T11" s="310"/>
-      <c r="U11" s="310"/>
-      <c r="V11" s="310"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="311"/>
-      <c r="AA11" s="311"/>
-      <c r="AB11" s="312"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="97"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="309"/>
+      <c r="AA11" s="309"/>
+      <c r="AB11" s="310"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="96"/>
       <c r="AF11" s="18"/>
     </row>
-    <row r="12" spans="1:32" ht="6.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="36"/>
@@ -3060,14 +3049,14 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
-      <c r="M12" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
+      <c r="M12" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
       <c r="S12" s="36"/>
       <c r="T12" s="36"/>
       <c r="U12" s="36"/>
@@ -3077,19 +3066,19 @@
       <c r="Y12" s="36"/>
       <c r="Z12" s="36"/>
       <c r="AA12" s="36"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="97"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="96"/>
       <c r="AF12" s="18"/>
     </row>
-    <row r="13" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="282" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="282"/>
       <c r="C13" s="232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="232"/>
       <c r="E13" s="232"/>
@@ -3104,37 +3093,37 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="282" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="282"/>
-      <c r="R13" s="313"/>
-      <c r="S13" s="313"/>
-      <c r="T13" s="313"/>
-      <c r="U13" s="313"/>
-      <c r="V13" s="313"/>
-      <c r="W13" s="313"/>
-      <c r="X13" s="313"/>
-      <c r="Y13" s="313"/>
-      <c r="Z13" s="313"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="102"/>
+      <c r="R13" s="311"/>
+      <c r="S13" s="311"/>
+      <c r="T13" s="311"/>
+      <c r="U13" s="311"/>
+      <c r="V13" s="311"/>
+      <c r="W13" s="311"/>
+      <c r="X13" s="311"/>
+      <c r="Y13" s="311"/>
+      <c r="Z13" s="311"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC13" s="100"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="101"/>
       <c r="AF13" s="18"/>
     </row>
-    <row r="14" spans="1:32" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3156,58 +3145,56 @@
       <c r="Z14" s="35"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="70"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="69"/>
       <c r="AF14" s="18"/>
     </row>
-    <row r="15" spans="1:32" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="282" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="282"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="282"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="18"/>
+    </row>
+    <row r="16" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="18"/>
-    </row>
-    <row r="16" spans="1:32" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="306" t="s">
-        <v>25</v>
-      </c>
+      <c r="B16" s="306"/>
       <c r="C16" s="306"/>
       <c r="D16" s="306"/>
       <c r="E16" s="306"/>
@@ -3221,40 +3208,40 @@
       <c r="M16" s="4"/>
       <c r="N16" s="21"/>
       <c r="O16" s="307" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P16" s="307"/>
       <c r="Q16" s="307"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="303" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB16" s="304"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="102"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="101"/>
       <c r="AF16" s="18"/>
     </row>
-    <row r="17" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
@@ -3266,7 +3253,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="241" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U17" s="241"/>
       <c r="V17" s="241"/>
@@ -3276,14 +3263,14 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="70"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="69"/>
       <c r="AF17" s="18"/>
     </row>
-    <row r="18" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="282" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="282"/>
       <c r="C18" s="282"/>
@@ -3297,53 +3284,53 @@
       <c r="K18" s="278"/>
       <c r="L18" s="278"/>
       <c r="M18" s="282" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N18" s="282"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
       <c r="Q18" s="303" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R18" s="303"/>
       <c r="S18" s="303"/>
       <c r="T18" s="303"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
       <c r="Z18" s="303" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA18" s="303"/>
       <c r="AB18" s="304"/>
-      <c r="AC18" s="101"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="102"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="101"/>
       <c r="AF18" s="18"/>
     </row>
-    <row r="19" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="42"/>
+      <c r="O19" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="41"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
@@ -3356,12 +3343,12 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="74"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="73"/>
       <c r="AF19" s="18"/>
     </row>
-    <row r="20" spans="1:32" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3375,40 +3362,40 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="282" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N20" s="282"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
       <c r="Q20" s="303" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R20" s="303"/>
       <c r="S20" s="303"/>
       <c r="T20" s="303"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
       <c r="Z20" s="303" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA20" s="303"/>
       <c r="AB20" s="304"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="76"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="75"/>
       <c r="AF20" s="18"/>
     </row>
-    <row r="21" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3416,10 +3403,10 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="42"/>
+      <c r="O21" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="41"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3436,11 +3423,11 @@
       <c r="AD21" s="22"/>
       <c r="AE21" s="22"/>
     </row>
-    <row r="22" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="276" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="276"/>
       <c r="E22" s="276"/>
@@ -3451,7 +3438,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="305" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M22" s="305"/>
       <c r="N22" s="305"/>
@@ -3473,59 +3460,59 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="220" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="247"/>
       <c r="C23" s="247"/>
       <c r="D23" s="247"/>
       <c r="E23" s="220" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" s="247"/>
       <c r="G23" s="247"/>
       <c r="H23" s="247"/>
       <c r="I23" s="247"/>
       <c r="J23" s="220" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K23" s="247"/>
       <c r="L23" s="247"/>
       <c r="M23" s="220" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N23" s="247"/>
       <c r="O23" s="247"/>
       <c r="P23" s="247"/>
       <c r="Q23" s="247"/>
       <c r="R23" s="220" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S23" s="247"/>
       <c r="T23" s="247"/>
       <c r="U23" s="220" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V23" s="247"/>
       <c r="W23" s="220" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X23" s="247"/>
       <c r="Y23" s="247"/>
       <c r="Z23" s="220" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA23" s="247"/>
       <c r="AB23" s="247"/>
       <c r="AC23" s="220" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD23" s="247"/>
       <c r="AE23" s="247"/>
       <c r="AF23" s="17"/>
     </row>
-    <row r="24" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="220">
         <v>1</v>
       </c>
@@ -3577,22 +3564,22 @@
       <c r="AE24" s="248"/>
       <c r="AF24" s="17"/>
     </row>
-    <row r="25" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="297" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="298"/>
       <c r="C25" s="298"/>
       <c r="D25" s="298"/>
       <c r="E25" s="279" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" s="280"/>
       <c r="G25" s="280"/>
       <c r="H25" s="280"/>
       <c r="I25" s="280"/>
       <c r="J25" s="299" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K25" s="300"/>
       <c r="L25" s="300"/>
@@ -3615,9 +3602,9 @@
       <c r="AC25" s="289"/>
       <c r="AD25" s="289"/>
       <c r="AE25" s="289"/>
-      <c r="AF25" s="113"/>
-    </row>
-    <row r="26" spans="1:32" ht="3.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF25" s="112"/>
+    </row>
+    <row r="26" spans="1:32" ht="3.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -3630,84 +3617,84 @@
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
       <c r="R26" s="23"/>
       <c r="S26" s="19"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="114"/>
-      <c r="V26" s="115"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="114"/>
       <c r="W26" s="292" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X26" s="293"/>
       <c r="Y26" s="293"/>
       <c r="Z26" s="293"/>
       <c r="AA26" s="293"/>
       <c r="AB26" s="293"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="115"/>
-      <c r="AF26" s="113"/>
-    </row>
-    <row r="27" spans="1:32" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="114"/>
+      <c r="AF26" s="112"/>
+    </row>
+    <row r="27" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="282" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="282"/>
       <c r="C27" s="282"/>
       <c r="D27" s="282"/>
       <c r="E27" s="2"/>
       <c r="F27" s="232" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G27" s="232"/>
       <c r="H27" s="295"/>
       <c r="I27" s="2"/>
       <c r="J27" s="281" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K27" s="282"/>
       <c r="L27" s="282"/>
       <c r="M27" s="296"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
       <c r="P27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="80"/>
+        <v>51</v>
+      </c>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="79"/>
       <c r="S27" s="221" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T27" s="292"/>
-      <c r="U27" s="116"/>
-      <c r="V27" s="78"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="77"/>
       <c r="W27" s="293"/>
       <c r="X27" s="294"/>
       <c r="Y27" s="294"/>
       <c r="Z27" s="294"/>
       <c r="AA27" s="294"/>
       <c r="AB27" s="294"/>
-      <c r="AC27" s="116"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="78"/>
-      <c r="AF27" s="113"/>
-    </row>
-    <row r="28" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC27" s="115"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="112"/>
+    </row>
+    <row r="28" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="286" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="286"/>
       <c r="C28" s="286"/>
       <c r="D28" s="286"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H28" s="290"/>
       <c r="I28" s="291"/>
@@ -3716,44 +3703,44 @@
       <c r="L28" s="282"/>
       <c r="M28" s="282"/>
       <c r="N28" s="276" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O28" s="276"/>
       <c r="P28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" s="276" t="s">
         <v>55</v>
-      </c>
-      <c r="Q28" s="276" t="s">
-        <v>57</v>
       </c>
       <c r="R28" s="302"/>
       <c r="S28" s="272" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T28" s="288"/>
-      <c r="U28" s="108"/>
-      <c r="V28" s="108"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="107"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
-      <c r="AC28" s="108"/>
-      <c r="AD28" s="108"/>
-      <c r="AE28" s="108"/>
-    </row>
-    <row r="29" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="107"/>
+      <c r="AE28" s="107"/>
+    </row>
+    <row r="29" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="273" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F29" s="273"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="154"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="153"/>
       <c r="J29" s="24"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3777,57 +3764,57 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="278" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="278"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="256" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" s="278"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="256" t="s">
-        <v>62</v>
       </c>
       <c r="I30" s="256"/>
       <c r="J30" s="277" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K30" s="278"/>
       <c r="L30" s="278"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
       <c r="P30" s="278" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q30" s="278"/>
       <c r="R30" s="278"/>
       <c r="S30" s="277" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T30" s="278"/>
       <c r="U30" s="278"/>
-      <c r="V30" s="81"/>
-      <c r="W30" s="81"/>
-      <c r="X30" s="81"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="81"/>
-      <c r="AB30" s="81"/>
-      <c r="AC30" s="81"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="81"/>
-    </row>
-    <row r="31" spans="1:32" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="80"/>
+    </row>
+    <row r="31" spans="1:32" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="19"/>
       <c r="D31" s="271" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="271"/>
       <c r="F31" s="271"/>
@@ -3838,7 +3825,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="276" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N31" s="276"/>
       <c r="O31" s="276"/>
@@ -3859,70 +3846,70 @@
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
     </row>
-    <row r="32" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="80"/>
+    <row r="32" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="79"/>
       <c r="J32" s="277" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K32" s="278"/>
       <c r="L32" s="278"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="65"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="64"/>
       <c r="S32" s="281" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T32" s="282"/>
-      <c r="U32" s="81"/>
-      <c r="V32" s="81"/>
-      <c r="W32" s="81"/>
-      <c r="X32" s="81"/>
-      <c r="Y32" s="81"/>
-      <c r="Z32" s="81"/>
-      <c r="AA32" s="81"/>
-      <c r="AB32" s="81"/>
-      <c r="AC32" s="81"/>
-      <c r="AD32" s="81"/>
-      <c r="AE32" s="81"/>
-    </row>
-    <row r="33" spans="1:32" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="80"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="80"/>
+      <c r="AC32" s="80"/>
+      <c r="AD32" s="80"/>
+      <c r="AE32" s="80"/>
+    </row>
+    <row r="33" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="241" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="241"/>
       <c r="D33" s="241" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="241"/>
       <c r="F33" s="241"/>
-      <c r="G33" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="124"/>
+      <c r="G33" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="41"/>
+      <c r="I33" s="123"/>
       <c r="J33" s="279"/>
       <c r="K33" s="280"/>
       <c r="L33" s="280"/>
       <c r="M33" s="276" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N33" s="276"/>
       <c r="O33" s="276" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P33" s="276"/>
       <c r="Q33" s="276"/>
@@ -3941,68 +3928,68 @@
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
     </row>
-    <row r="34" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="286" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="287"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="122"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="121"/>
       <c r="J34" s="277" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K34" s="278"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="79"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
       <c r="R34" s="284"/>
       <c r="S34" s="24"/>
-      <c r="T34" s="81"/>
-      <c r="U34" s="81"/>
-      <c r="V34" s="81"/>
-      <c r="W34" s="81"/>
-      <c r="X34" s="81"/>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="81"/>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="81"/>
-    </row>
-    <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="80"/>
+      <c r="Z34" s="80"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="80"/>
+      <c r="AC34" s="80"/>
+      <c r="AD34" s="80"/>
+      <c r="AE34" s="80"/>
+    </row>
+    <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="288"/>
       <c r="B35" s="287"/>
       <c r="C35" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="276" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35" s="276"/>
       <c r="F35" s="276"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="123"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="122"/>
       <c r="J35" s="272"/>
       <c r="K35" s="273"/>
       <c r="L35" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M35" s="276" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N35" s="276"/>
       <c r="O35" s="276" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P35" s="276"/>
       <c r="Q35" s="276"/>
@@ -4021,7 +4008,7 @@
       <c r="AD35" s="23"/>
       <c r="AE35" s="23"/>
     </row>
-    <row r="36" spans="1:32" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4029,7 +4016,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="266" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H36" s="266"/>
       <c r="I36" s="267"/>
@@ -4041,8 +4028,8 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="85" t="s">
-        <v>74</v>
+      <c r="R36" s="84" t="s">
+        <v>72</v>
       </c>
       <c r="S36" s="25"/>
       <c r="T36" s="5"/>
@@ -4058,16 +4045,16 @@
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
     </row>
-    <row r="37" spans="1:32" ht="3.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="83"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="82"/>
       <c r="J37" s="25"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -4076,7 +4063,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="86"/>
+      <c r="R37" s="85"/>
       <c r="S37" s="25"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -4091,9 +4078,9 @@
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
     </row>
-    <row r="38" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="268" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" s="269"/>
       <c r="C38" s="269"/>
@@ -4127,57 +4114,57 @@
       <c r="AE38" s="269"/>
       <c r="AF38" s="17"/>
     </row>
-    <row r="39" spans="1:32" ht="9.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="270" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="271"/>
       <c r="C39" s="270" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="271"/>
       <c r="E39" s="271"/>
       <c r="F39" s="271"/>
       <c r="G39" s="270" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H39" s="271"/>
       <c r="I39" s="271"/>
       <c r="J39" s="271"/>
       <c r="K39" s="271"/>
       <c r="L39" s="270" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M39" s="271"/>
       <c r="N39" s="271"/>
       <c r="O39" s="271"/>
       <c r="P39" s="271"/>
       <c r="Q39" s="220" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R39" s="247"/>
       <c r="S39" s="247"/>
       <c r="T39" s="247"/>
       <c r="U39" s="247"/>
       <c r="V39" s="249" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W39" s="250"/>
       <c r="X39" s="274"/>
       <c r="Y39" s="275"/>
       <c r="Z39" s="220" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA39" s="247"/>
       <c r="AB39" s="247"/>
       <c r="AC39" s="220" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD39" s="247"/>
       <c r="AE39" s="248"/>
       <c r="AF39" s="17"/>
     </row>
-    <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="272"/>
       <c r="B40" s="273"/>
       <c r="C40" s="272"/>
@@ -4195,20 +4182,20 @@
       <c r="O40" s="273"/>
       <c r="P40" s="273"/>
       <c r="Q40" s="261" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R40" s="262"/>
       <c r="S40" s="262"/>
       <c r="T40" s="262"/>
       <c r="U40" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V40" s="220" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W40" s="247"/>
       <c r="X40" s="220" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y40" s="248"/>
       <c r="Z40" s="221"/>
@@ -4219,7 +4206,7 @@
       <c r="AE40" s="232"/>
       <c r="AF40" s="17"/>
     </row>
-    <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="220">
         <v>10</v>
       </c>
@@ -4273,9 +4260,9 @@
       <c r="AE41" s="248"/>
       <c r="AF41" s="17"/>
     </row>
-    <row r="42" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="261" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" s="262"/>
       <c r="C42" s="263"/>
@@ -4296,7 +4283,7 @@
       <c r="R42" s="264"/>
       <c r="S42" s="264"/>
       <c r="T42" s="264"/>
-      <c r="U42" s="109"/>
+      <c r="U42" s="108"/>
       <c r="V42" s="240"/>
       <c r="W42" s="240"/>
       <c r="X42" s="240"/>
@@ -4309,9 +4296,9 @@
       <c r="AE42" s="265"/>
       <c r="AF42" s="17"/>
     </row>
-    <row r="43" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="261" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" s="262"/>
       <c r="C43" s="263"/>
@@ -4332,7 +4319,7 @@
       <c r="R43" s="264"/>
       <c r="S43" s="264"/>
       <c r="T43" s="264"/>
-      <c r="U43" s="109"/>
+      <c r="U43" s="108"/>
       <c r="V43" s="240"/>
       <c r="W43" s="240"/>
       <c r="X43" s="240"/>
@@ -4345,7 +4332,7 @@
       <c r="AE43" s="265"/>
       <c r="AF43" s="17"/>
     </row>
-    <row r="44" spans="1:32" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -4366,21 +4353,21 @@
       <c r="R44" s="19"/>
       <c r="S44" s="19"/>
       <c r="T44" s="19"/>
-      <c r="U44" s="108"/>
-      <c r="V44" s="108"/>
-      <c r="W44" s="108"/>
-      <c r="X44" s="108"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="107"/>
+      <c r="Y44" s="107"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
       <c r="AC44" s="20"/>
       <c r="AD44" s="20"/>
       <c r="AE44" s="20"/>
     </row>
-    <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="220" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="247"/>
       <c r="C45" s="247"/>
@@ -4405,7 +4392,7 @@
       <c r="V45" s="247"/>
       <c r="W45" s="247"/>
       <c r="X45" s="254" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y45" s="255"/>
       <c r="Z45" s="256"/>
@@ -4415,52 +4402,52 @@
       <c r="AD45" s="256"/>
       <c r="AE45" s="256"/>
     </row>
-    <row r="46" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="220" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="247"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
       <c r="E46" s="247"/>
       <c r="F46" s="220" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" s="247"/>
       <c r="H46" s="257" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I46" s="258"/>
       <c r="J46" s="258"/>
       <c r="K46" s="259"/>
       <c r="L46" s="220" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M46" s="247"/>
       <c r="N46" s="247"/>
       <c r="O46" s="247"/>
       <c r="P46" s="247"/>
       <c r="Q46" s="220" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R46" s="247"/>
       <c r="S46" s="247"/>
       <c r="T46" s="220" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U46" s="247"/>
       <c r="V46" s="247"/>
       <c r="W46" s="248"/>
       <c r="X46" s="25"/>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="79"/>
-      <c r="AB46" s="79"/>
-      <c r="AC46" s="79"/>
-      <c r="AD46" s="79"/>
-      <c r="AE46" s="79"/>
-    </row>
-    <row r="47" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y46" s="78"/>
+      <c r="Z46" s="78"/>
+      <c r="AA46" s="78"/>
+      <c r="AB46" s="78"/>
+      <c r="AC46" s="78"/>
+      <c r="AD46" s="78"/>
+      <c r="AE46" s="78"/>
+    </row>
+    <row r="47" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="221"/>
       <c r="B47" s="232"/>
       <c r="C47" s="232"/>
@@ -4469,11 +4456,11 @@
       <c r="F47" s="221"/>
       <c r="G47" s="232"/>
       <c r="H47" s="220" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I47" s="247"/>
       <c r="J47" s="220" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K47" s="247"/>
       <c r="L47" s="220"/>
@@ -4482,44 +4469,44 @@
       <c r="O47" s="247"/>
       <c r="P47" s="247"/>
       <c r="Q47" s="220" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R47" s="247"/>
       <c r="S47" s="252" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T47" s="220" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U47" s="247"/>
       <c r="V47" s="220" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W47" s="248"/>
       <c r="X47" s="25"/>
-      <c r="Y47" s="87"/>
-      <c r="Z47" s="87"/>
-      <c r="AA47" s="87"/>
-      <c r="AB47" s="87"/>
-      <c r="AC47" s="87"/>
-      <c r="AD47" s="87"/>
-      <c r="AE47" s="87"/>
-    </row>
-    <row r="48" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y47" s="86"/>
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="86"/>
+      <c r="AB47" s="86"/>
+      <c r="AC47" s="86"/>
+      <c r="AD47" s="86"/>
+      <c r="AE47" s="86"/>
+    </row>
+    <row r="48" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="D48" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="E48" s="118" t="s">
         <v>105</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="119" t="s">
-        <v>107</v>
       </c>
       <c r="F48" s="221"/>
       <c r="G48" s="232"/>
@@ -4540,15 +4527,15 @@
       <c r="V48" s="221"/>
       <c r="W48" s="232"/>
       <c r="X48" s="25"/>
-      <c r="Y48" s="87"/>
-      <c r="Z48" s="87"/>
-      <c r="AA48" s="87"/>
-      <c r="AB48" s="87"/>
-      <c r="AC48" s="87"/>
-      <c r="AD48" s="87"/>
-      <c r="AE48" s="87"/>
-    </row>
-    <row r="49" spans="1:32" ht="9.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y48" s="86"/>
+      <c r="Z48" s="86"/>
+      <c r="AA48" s="86"/>
+      <c r="AB48" s="86"/>
+      <c r="AC48" s="86"/>
+      <c r="AD48" s="86"/>
+      <c r="AE48" s="86"/>
+    </row>
+    <row r="49" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>20</v>
       </c>
@@ -4607,12 +4594,12 @@
       <c r="AD49" s="23"/>
       <c r="AE49" s="23"/>
     </row>
-    <row r="50" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="109"/>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
+    <row r="50" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="108"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
       <c r="F50" s="240"/>
       <c r="G50" s="240"/>
       <c r="H50" s="240"/>
@@ -4626,12 +4613,12 @@
       <c r="P50" s="240"/>
       <c r="Q50" s="240"/>
       <c r="R50" s="240"/>
-      <c r="S50" s="109"/>
+      <c r="S50" s="108"/>
       <c r="T50" s="240"/>
       <c r="U50" s="240"/>
       <c r="V50" s="240"/>
       <c r="W50" s="240"/>
-      <c r="X50" s="108"/>
+      <c r="X50" s="107"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="5"/>
@@ -4640,30 +4627,30 @@
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
     </row>
-    <row r="51" spans="1:32" ht="3.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="110"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="110"/>
-      <c r="L51" s="110"/>
-      <c r="M51" s="110"/>
-      <c r="N51" s="110"/>
-      <c r="O51" s="110"/>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="110"/>
-      <c r="R51" s="110"/>
-      <c r="S51" s="110"/>
-      <c r="T51" s="110"/>
-      <c r="U51" s="110"/>
-      <c r="V51" s="110"/>
-      <c r="W51" s="110"/>
+    <row r="51" spans="1:32" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="109"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="109"/>
+      <c r="L51" s="109"/>
+      <c r="M51" s="109"/>
+      <c r="N51" s="109"/>
+      <c r="O51" s="109"/>
+      <c r="P51" s="109"/>
+      <c r="Q51" s="109"/>
+      <c r="R51" s="109"/>
+      <c r="S51" s="109"/>
+      <c r="T51" s="109"/>
+      <c r="U51" s="109"/>
+      <c r="V51" s="109"/>
+      <c r="W51" s="109"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="11"/>
       <c r="Z51" s="10"/>
@@ -4673,49 +4660,49 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
     </row>
-    <row r="52" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="220" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" s="247"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
       <c r="E52" s="220" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F52" s="247"/>
       <c r="G52" s="220" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H52" s="247"/>
       <c r="I52" s="220" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J52" s="247"/>
       <c r="K52" s="247"/>
       <c r="L52" s="220" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M52" s="247"/>
       <c r="N52" s="220" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O52" s="247"/>
       <c r="P52" s="249" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q52" s="250"/>
       <c r="R52" s="250"/>
       <c r="S52" s="251"/>
       <c r="T52" s="252" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U52" s="220" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V52" s="247"/>
       <c r="W52" s="220" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="X52" s="24"/>
       <c r="Y52" s="5"/>
@@ -4726,7 +4713,7 @@
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
     </row>
-    <row r="53" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="221"/>
       <c r="B53" s="232"/>
       <c r="C53" s="232"/>
@@ -4743,11 +4730,11 @@
       <c r="N53" s="221"/>
       <c r="O53" s="232"/>
       <c r="P53" s="220" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q53" s="247"/>
       <c r="R53" s="220" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S53" s="248"/>
       <c r="T53" s="253"/>
@@ -4755,15 +4742,15 @@
       <c r="V53" s="232"/>
       <c r="W53" s="221"/>
       <c r="X53" s="24"/>
-      <c r="Y53" s="79"/>
-      <c r="Z53" s="79"/>
-      <c r="AA53" s="79"/>
-      <c r="AB53" s="79"/>
-      <c r="AC53" s="79"/>
-      <c r="AD53" s="79"/>
-      <c r="AE53" s="79"/>
-    </row>
-    <row r="54" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y53" s="78"/>
+      <c r="Z53" s="78"/>
+      <c r="AA53" s="78"/>
+      <c r="AB53" s="78"/>
+      <c r="AC53" s="78"/>
+      <c r="AD53" s="78"/>
+      <c r="AE53" s="78"/>
+    </row>
+    <row r="54" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="221"/>
       <c r="B54" s="232"/>
       <c r="C54" s="232"/>
@@ -4808,17 +4795,17 @@
         <v>42</v>
       </c>
       <c r="X54" s="24"/>
-      <c r="Y54" s="87"/>
-      <c r="Z54" s="87"/>
-      <c r="AA54" s="87"/>
-      <c r="AB54" s="87"/>
-      <c r="AC54" s="87"/>
-      <c r="AD54" s="87"/>
-      <c r="AE54" s="87"/>
-    </row>
-    <row r="55" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y54" s="86"/>
+      <c r="Z54" s="86"/>
+      <c r="AA54" s="86"/>
+      <c r="AB54" s="86"/>
+      <c r="AC54" s="86"/>
+      <c r="AD54" s="86"/>
+      <c r="AE54" s="86"/>
+    </row>
+    <row r="55" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="243" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B55" s="244"/>
       <c r="C55" s="244"/>
@@ -4838,22 +4825,22 @@
       <c r="Q55" s="240"/>
       <c r="R55" s="240"/>
       <c r="S55" s="240"/>
-      <c r="T55" s="109"/>
+      <c r="T55" s="108"/>
       <c r="U55" s="240"/>
       <c r="V55" s="240"/>
-      <c r="W55" s="109"/>
-      <c r="X55" s="108"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="88"/>
-      <c r="AB55" s="88"/>
-      <c r="AC55" s="88"/>
-      <c r="AD55" s="88"/>
-      <c r="AE55" s="88"/>
-    </row>
-    <row r="56" spans="1:32" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W55" s="108"/>
+      <c r="X55" s="107"/>
+      <c r="Y55" s="87"/>
+      <c r="Z55" s="87"/>
+      <c r="AA55" s="87"/>
+      <c r="AB55" s="87"/>
+      <c r="AC55" s="87"/>
+      <c r="AD55" s="87"/>
+      <c r="AE55" s="87"/>
+    </row>
+    <row r="56" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="243" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="244"/>
       <c r="C56" s="244"/>
@@ -4873,24 +4860,24 @@
       <c r="Q56" s="240"/>
       <c r="R56" s="240"/>
       <c r="S56" s="240"/>
-      <c r="T56" s="109"/>
+      <c r="T56" s="108"/>
       <c r="U56" s="240"/>
       <c r="V56" s="240"/>
-      <c r="W56" s="109"/>
+      <c r="W56" s="108"/>
       <c r="X56" s="246" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Y56" s="235"/>
-      <c r="Z56" s="89"/>
-      <c r="AA56" s="89"/>
-      <c r="AB56" s="89"/>
-      <c r="AC56" s="89"/>
-      <c r="AD56" s="89"/>
-      <c r="AE56" s="89"/>
-    </row>
-    <row r="57" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
+      <c r="AC56" s="88"/>
+      <c r="AD56" s="88"/>
+      <c r="AE56" s="88"/>
+    </row>
+    <row r="57" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="243" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57" s="244"/>
       <c r="C57" s="244"/>
@@ -4910,41 +4897,41 @@
       <c r="Q57" s="240"/>
       <c r="R57" s="240"/>
       <c r="S57" s="240"/>
-      <c r="T57" s="109"/>
+      <c r="T57" s="108"/>
       <c r="U57" s="240"/>
       <c r="V57" s="240"/>
-      <c r="W57" s="109"/>
-      <c r="X57" s="111"/>
-      <c r="Y57" s="112"/>
+      <c r="W57" s="108"/>
+      <c r="X57" s="110"/>
+      <c r="Y57" s="111"/>
       <c r="Z57" s="241" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA57" s="241"/>
       <c r="AB57" s="241" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC57" s="241"/>
       <c r="AD57" s="241"/>
       <c r="AE57" s="241"/>
     </row>
-    <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
       <c r="R58" s="242"/>
       <c r="S58" s="242"/>
       <c r="T58" s="242"/>
@@ -4960,7 +4947,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
     </row>
-    <row r="59" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4982,7 +4969,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="238" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V59" s="239"/>
       <c r="W59" s="239"/>
@@ -4995,7 +4982,7 @@
       <c r="AD59" s="14"/>
       <c r="AE59" s="1"/>
     </row>
-    <row r="60" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5017,7 +5004,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="238" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V60" s="239"/>
       <c r="W60" s="239"/>
@@ -5030,7 +5017,7 @@
       <c r="AD60" s="239"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5052,7 +5039,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="238" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V61" s="239"/>
       <c r="W61" s="239"/>
@@ -5065,7 +5052,7 @@
       <c r="AD61" s="239"/>
       <c r="AE61" s="1"/>
     </row>
-    <row r="62" spans="1:32" ht="4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -5098,7 +5085,7 @@
       <c r="AD62" s="14"/>
       <c r="AE62" s="14"/>
     </row>
-    <row r="63" spans="1:32" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -5122,19 +5109,19 @@
       <c r="U63" s="14"/>
       <c r="V63" s="14"/>
       <c r="W63" s="14"/>
-      <c r="X63" s="121"/>
+      <c r="X63" s="120"/>
       <c r="Y63" s="14"/>
       <c r="Z63" s="14"/>
       <c r="AA63" s="14"/>
-      <c r="AB63" s="142"/>
-      <c r="AC63" s="145" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD63" s="143"/>
-      <c r="AE63" s="144"/>
+      <c r="AB63" s="141"/>
+      <c r="AC63" s="144" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD63" s="142"/>
+      <c r="AE63" s="143"/>
       <c r="AF63" s="17"/>
     </row>
-    <row r="64" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -5159,23 +5146,23 @@
       <c r="V64" s="14"/>
       <c r="W64" s="14"/>
       <c r="X64" s="223" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y64" s="223"/>
       <c r="Z64" s="223"/>
       <c r="AA64" s="14"/>
-      <c r="AB64" s="126"/>
-      <c r="AC64" s="146" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD64" s="127"/>
-      <c r="AE64" s="128"/>
+      <c r="AB64" s="125"/>
+      <c r="AC64" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD64" s="126"/>
+      <c r="AE64" s="127"/>
       <c r="AF64" s="18"/>
     </row>
-    <row r="65" spans="1:32" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="231" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C65" s="231"/>
       <c r="D65" s="231"/>
@@ -5202,13 +5189,13 @@
       <c r="Y65" s="231"/>
       <c r="Z65" s="231"/>
       <c r="AA65" s="1"/>
-      <c r="AB65" s="129"/>
-      <c r="AC65" s="147"/>
-      <c r="AD65" s="89"/>
-      <c r="AE65" s="130"/>
+      <c r="AB65" s="128"/>
+      <c r="AC65" s="146"/>
+      <c r="AD65" s="88"/>
+      <c r="AE65" s="129"/>
       <c r="AF65" s="18"/>
     </row>
-    <row r="66" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5228,25 +5215,25 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="232" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T66" s="232"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="233" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X66" s="234"/>
       <c r="Y66" s="234"/>
       <c r="Z66" s="234"/>
       <c r="AA66" s="1"/>
-      <c r="AB66" s="131"/>
-      <c r="AC66" s="152"/>
-      <c r="AD66" s="132"/>
-      <c r="AE66" s="133"/>
+      <c r="AB66" s="130"/>
+      <c r="AC66" s="151"/>
+      <c r="AD66" s="131"/>
+      <c r="AE66" s="132"/>
       <c r="AF66" s="18"/>
     </row>
-    <row r="67" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5274,21 +5261,21 @@
       <c r="Y67" s="234"/>
       <c r="Z67" s="234"/>
       <c r="AA67" s="1"/>
-      <c r="AB67" s="134"/>
-      <c r="AC67" s="135"/>
-      <c r="AD67" s="135"/>
-      <c r="AE67" s="136"/>
+      <c r="AB67" s="133"/>
+      <c r="AC67" s="134"/>
+      <c r="AD67" s="134"/>
+      <c r="AE67" s="135"/>
       <c r="AF67" s="18"/>
     </row>
-    <row r="68" spans="1:32" ht="39.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="222" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B68" s="222"/>
       <c r="C68" s="222"/>
       <c r="D68" s="222"/>
       <c r="E68" s="226" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" s="235"/>
       <c r="G68" s="235"/>
@@ -5310,55 +5297,55 @@
       <c r="W68" s="235"/>
       <c r="X68" s="237"/>
       <c r="Y68" s="223" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z68" s="223"/>
       <c r="AA68" s="1"/>
-      <c r="AB68" s="131"/>
-      <c r="AC68" s="132"/>
-      <c r="AD68" s="132"/>
-      <c r="AE68" s="133"/>
+      <c r="AB68" s="130"/>
+      <c r="AC68" s="131"/>
+      <c r="AD68" s="131"/>
+      <c r="AE68" s="132"/>
       <c r="AF68" s="18"/>
     </row>
-    <row r="69" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="226"/>
       <c r="B69" s="226"/>
       <c r="C69" s="226"/>
       <c r="D69" s="226"/>
       <c r="E69" s="31"/>
-      <c r="F69" s="120"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="120"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="148"/>
-      <c r="L69" s="148"/>
-      <c r="M69" s="148"/>
-      <c r="N69" s="148"/>
-      <c r="O69" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="P69" s="148"/>
-      <c r="Q69" s="148"/>
-      <c r="R69" s="148"/>
-      <c r="S69" s="148"/>
-      <c r="T69" s="148"/>
-      <c r="U69" s="120"/>
-      <c r="V69" s="120"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="119"/>
+      <c r="J69" s="119"/>
+      <c r="K69" s="147"/>
+      <c r="L69" s="147"/>
+      <c r="M69" s="147"/>
+      <c r="N69" s="147"/>
+      <c r="O69" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="P69" s="147"/>
+      <c r="Q69" s="147"/>
+      <c r="R69" s="147"/>
+      <c r="S69" s="147"/>
+      <c r="T69" s="147"/>
+      <c r="U69" s="119"/>
+      <c r="V69" s="119"/>
       <c r="W69" s="32"/>
       <c r="X69" s="32"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
-      <c r="AB69" s="137"/>
-      <c r="AC69" s="68"/>
-      <c r="AD69" s="68"/>
-      <c r="AE69" s="138"/>
+      <c r="AB69" s="136"/>
+      <c r="AC69" s="67"/>
+      <c r="AD69" s="67"/>
+      <c r="AE69" s="137"/>
       <c r="AF69" s="18"/>
     </row>
-    <row r="70" spans="1:32" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="222" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B70" s="222"/>
       <c r="C70" s="222"/>
@@ -5384,59 +5371,59 @@
       <c r="W70" s="230"/>
       <c r="X70" s="230"/>
       <c r="Y70" s="223" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z70" s="223"/>
       <c r="AA70" s="1"/>
-      <c r="AB70" s="131"/>
-      <c r="AC70" s="132"/>
-      <c r="AD70" s="132"/>
-      <c r="AE70" s="133"/>
+      <c r="AB70" s="130"/>
+      <c r="AC70" s="131"/>
+      <c r="AD70" s="131"/>
+      <c r="AE70" s="132"/>
       <c r="AF70" s="18"/>
     </row>
-    <row r="71" spans="1:32" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="120"/>
-      <c r="F71" s="120"/>
-      <c r="G71" s="120"/>
-      <c r="H71" s="120"/>
-      <c r="I71" s="120"/>
-      <c r="J71" s="120"/>
-      <c r="K71" s="148"/>
-      <c r="L71" s="148"/>
-      <c r="M71" s="148"/>
-      <c r="N71" s="148"/>
-      <c r="O71" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="P71" s="148"/>
-      <c r="Q71" s="148"/>
-      <c r="R71" s="148"/>
-      <c r="S71" s="148"/>
-      <c r="T71" s="148"/>
-      <c r="U71" s="120"/>
-      <c r="V71" s="120"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="119"/>
+      <c r="H71" s="119"/>
+      <c r="I71" s="119"/>
+      <c r="J71" s="119"/>
+      <c r="K71" s="147"/>
+      <c r="L71" s="147"/>
+      <c r="M71" s="147"/>
+      <c r="N71" s="147"/>
+      <c r="O71" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="P71" s="147"/>
+      <c r="Q71" s="147"/>
+      <c r="R71" s="147"/>
+      <c r="S71" s="147"/>
+      <c r="T71" s="147"/>
+      <c r="U71" s="119"/>
+      <c r="V71" s="119"/>
       <c r="W71" s="32"/>
       <c r="X71" s="32"/>
       <c r="Y71" s="223"/>
       <c r="Z71" s="223"/>
       <c r="AA71" s="1"/>
-      <c r="AB71" s="134"/>
-      <c r="AC71" s="135"/>
-      <c r="AD71" s="135"/>
-      <c r="AE71" s="136"/>
+      <c r="AB71" s="133"/>
+      <c r="AC71" s="134"/>
+      <c r="AD71" s="134"/>
+      <c r="AE71" s="135"/>
       <c r="AF71" s="18"/>
     </row>
-    <row r="72" spans="1:32" ht="39.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="222" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72" s="222"/>
       <c r="C72" s="222"/>
-      <c r="D72" s="151"/>
+      <c r="D72" s="150"/>
       <c r="E72" s="224"/>
       <c r="F72" s="224"/>
       <c r="G72" s="224"/>
@@ -5458,43 +5445,43 @@
       <c r="W72" s="224"/>
       <c r="X72" s="224"/>
       <c r="Y72" s="223" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z72" s="223"/>
       <c r="AA72" s="1"/>
-      <c r="AB72" s="139"/>
-      <c r="AC72" s="140"/>
-      <c r="AD72" s="140"/>
-      <c r="AE72" s="141"/>
+      <c r="AB72" s="138"/>
+      <c r="AC72" s="139"/>
+      <c r="AD72" s="139"/>
+      <c r="AE72" s="140"/>
       <c r="AF72" s="18"/>
     </row>
-    <row r="73" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="120"/>
-      <c r="G73" s="120"/>
-      <c r="H73" s="120"/>
-      <c r="I73" s="120"/>
-      <c r="J73" s="120"/>
-      <c r="K73" s="149"/>
-      <c r="L73" s="149"/>
-      <c r="M73" s="149"/>
-      <c r="N73" s="149"/>
-      <c r="O73" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="P73" s="149"/>
-      <c r="Q73" s="149"/>
-      <c r="R73" s="149"/>
-      <c r="S73" s="149"/>
-      <c r="T73" s="149"/>
-      <c r="U73" s="120"/>
-      <c r="V73" s="120"/>
-      <c r="W73" s="120"/>
-      <c r="X73" s="120"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="119"/>
+      <c r="F73" s="119"/>
+      <c r="G73" s="119"/>
+      <c r="H73" s="119"/>
+      <c r="I73" s="119"/>
+      <c r="J73" s="119"/>
+      <c r="K73" s="148"/>
+      <c r="L73" s="148"/>
+      <c r="M73" s="148"/>
+      <c r="N73" s="148"/>
+      <c r="O73" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="P73" s="148"/>
+      <c r="Q73" s="148"/>
+      <c r="R73" s="148"/>
+      <c r="S73" s="148"/>
+      <c r="T73" s="148"/>
+      <c r="U73" s="119"/>
+      <c r="V73" s="119"/>
+      <c r="W73" s="119"/>
+      <c r="X73" s="119"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -5503,9 +5490,9 @@
       <c r="AD73" s="22"/>
       <c r="AE73" s="22"/>
     </row>
-    <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="225" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B74" s="225"/>
       <c r="C74" s="225"/>
@@ -5538,32 +5525,32 @@
       <c r="AD74" s="225"/>
       <c r="AE74" s="225"/>
     </row>
-    <row r="75" spans="1:32" ht="39.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="220" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B75" s="214" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C75" s="215"/>
       <c r="D75" s="215"/>
       <c r="E75" s="215"/>
       <c r="F75" s="214" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G75" s="215"/>
       <c r="H75" s="215"/>
       <c r="I75" s="215"/>
       <c r="J75" s="214" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K75" s="215"/>
       <c r="L75" s="214" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M75" s="215"/>
       <c r="N75" s="214" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O75" s="215"/>
       <c r="P75" s="215"/>
@@ -5571,32 +5558,32 @@
       <c r="R75" s="215"/>
       <c r="S75" s="215"/>
       <c r="T75" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U75" s="214" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V75" s="215"/>
       <c r="W75" s="214" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X75" s="215"/>
       <c r="Y75" s="214" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z75" s="215"/>
       <c r="AA75" s="214" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB75" s="215"/>
       <c r="AC75" s="215"/>
       <c r="AD75" s="214" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AE75" s="215"/>
       <c r="AF75" s="17"/>
     </row>
-    <row r="76" spans="1:32" ht="39.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="221"/>
       <c r="B76" s="216"/>
       <c r="C76" s="217"/>
@@ -5609,7 +5596,7 @@
       <c r="J76" s="216"/>
       <c r="K76" s="217"/>
       <c r="L76" s="214" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M76" s="215"/>
       <c r="N76" s="214"/>
@@ -5619,22 +5606,22 @@
       <c r="R76" s="215"/>
       <c r="S76" s="215"/>
       <c r="T76" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U76" s="214" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V76" s="215"/>
       <c r="W76" s="214" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X76" s="215"/>
       <c r="Y76" s="214" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Z76" s="215"/>
       <c r="AA76" s="214" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AB76" s="215"/>
       <c r="AC76" s="218"/>
@@ -5642,7 +5629,7 @@
       <c r="AE76" s="217"/>
       <c r="AF76" s="17"/>
     </row>
-    <row r="77" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
         <v>1</v>
       </c>
@@ -5977,767 +5964,767 @@
       <selection activeCell="AA1" sqref="AA1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="340" t="s">
+    <row r="1" spans="1:31" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="338" t="s">
+        <v>156</v>
+      </c>
+      <c r="U1" s="338"/>
+      <c r="V1" s="338"/>
+      <c r="W1" s="338"/>
+      <c r="X1" s="338"/>
+      <c r="Y1" s="203" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="201"/>
+      <c r="AD1" s="154"/>
+      <c r="AE1" s="154"/>
+    </row>
+    <row r="2" spans="1:31" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="334" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="155">
+        <v>1</v>
+      </c>
+      <c r="T2" s="156" t="s">
         <v>158</v>
       </c>
-      <c r="U1" s="340"/>
-      <c r="V1" s="340"/>
-      <c r="W1" s="340"/>
-      <c r="X1" s="340"/>
-      <c r="Y1" s="204" t="s">
+      <c r="U2" s="339" t="s">
+        <v>159</v>
+      </c>
+      <c r="V2" s="339"/>
+      <c r="W2" s="334"/>
+      <c r="X2" s="334"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="157"/>
+    </row>
+    <row r="3" spans="1:31" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="340" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="340"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="339" t="s">
+        <v>161</v>
+      </c>
+      <c r="U3" s="339"/>
+      <c r="V3" s="339"/>
+      <c r="W3" s="340"/>
+      <c r="X3" s="340"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="205"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="157"/>
+    </row>
+    <row r="4" spans="1:31" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="157"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="341"/>
+      <c r="S4" s="341"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="342"/>
+      <c r="Z4" s="342"/>
+      <c r="AA4" s="336"/>
+      <c r="AB4" s="336"/>
+      <c r="AC4" s="336"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="157"/>
+    </row>
+    <row r="5" spans="1:31" ht="10.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="327" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="327"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="314" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="314"/>
+      <c r="L5" s="314"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="157"/>
+      <c r="W5" s="157"/>
+      <c r="X5" s="157"/>
+      <c r="Y5" s="343"/>
+      <c r="Z5" s="343"/>
+      <c r="AA5" s="337"/>
+      <c r="AB5" s="337"/>
+      <c r="AC5" s="337"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="157"/>
+    </row>
+    <row r="6" spans="1:31" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="166" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="165"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="157"/>
+      <c r="U6" s="157"/>
+      <c r="V6" s="157"/>
+      <c r="W6" s="157"/>
+      <c r="X6" s="157"/>
+      <c r="Y6" s="334"/>
+      <c r="Z6" s="335"/>
+      <c r="AA6" s="334"/>
+      <c r="AB6" s="335"/>
+      <c r="AC6" s="335"/>
+      <c r="AD6" s="157"/>
+      <c r="AE6" s="157"/>
+    </row>
+    <row r="7" spans="1:31" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="332" t="s">
         <v>164</v>
       </c>
-      <c r="Z1" s="205"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="203"/>
-      <c r="AC1" s="202"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-    </row>
-    <row r="2" spans="1:31" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="336" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="336"/>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
-      <c r="S2" s="156">
-        <v>1</v>
-      </c>
-      <c r="T2" s="157" t="s">
-        <v>160</v>
-      </c>
-      <c r="U2" s="341" t="s">
-        <v>161</v>
-      </c>
-      <c r="V2" s="341"/>
-      <c r="W2" s="336"/>
-      <c r="X2" s="336"/>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="158"/>
-    </row>
-    <row r="3" spans="1:31" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="342" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="342"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="200"/>
-      <c r="T3" s="341" t="s">
-        <v>163</v>
-      </c>
-      <c r="U3" s="341"/>
-      <c r="V3" s="341"/>
-      <c r="W3" s="342"/>
-      <c r="X3" s="342"/>
-      <c r="Y3" s="210"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="158"/>
-    </row>
-    <row r="4" spans="1:31" ht="9.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="343"/>
-      <c r="S4" s="343"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="344"/>
-      <c r="Z4" s="344"/>
-      <c r="AA4" s="338"/>
-      <c r="AB4" s="338"/>
-      <c r="AC4" s="338"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="158"/>
-    </row>
-    <row r="5" spans="1:31" ht="10.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="329" t="s">
+      <c r="B7" s="332"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="314" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="329"/>
-      <c r="C5" s="329"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="316" t="s">
+      <c r="K7" s="314"/>
+      <c r="L7" s="314"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="157"/>
+      <c r="W7" s="157"/>
+      <c r="X7" s="157"/>
+      <c r="Y7" s="335"/>
+      <c r="Z7" s="335"/>
+      <c r="AA7" s="335"/>
+      <c r="AB7" s="335"/>
+      <c r="AC7" s="335"/>
+      <c r="AD7" s="157"/>
+      <c r="AE7" s="157"/>
+    </row>
+    <row r="8" spans="1:31" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="171"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="166" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="174"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="172"/>
+      <c r="U8" s="172"/>
+      <c r="V8" s="172"/>
+      <c r="W8" s="172"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="326"/>
+      <c r="Z8" s="326"/>
+      <c r="AA8" s="330"/>
+      <c r="AB8" s="330"/>
+      <c r="AC8" s="330"/>
+      <c r="AD8" s="172"/>
+      <c r="AE8" s="172"/>
+    </row>
+    <row r="9" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="327" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="331"/>
+      <c r="C9" s="331"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="328" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9" s="333"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="171" t="s">
+        <v>168</v>
+      </c>
+      <c r="T9" s="159"/>
+      <c r="U9" s="159"/>
+      <c r="V9" s="159"/>
+      <c r="W9" s="159"/>
+      <c r="X9" s="159"/>
+      <c r="Y9" s="159"/>
+      <c r="Z9" s="159"/>
+      <c r="AA9" s="159"/>
+      <c r="AB9" s="159"/>
+      <c r="AC9" s="172"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="172"/>
+    </row>
+    <row r="10" spans="1:31" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="322" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="322"/>
+      <c r="H10" s="322"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="180"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="158"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="158"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="157"/>
+      <c r="AE10" s="157"/>
+    </row>
+    <row r="11" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="327" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="327"/>
+      <c r="C11" s="328"/>
+      <c r="D11" s="328"/>
+      <c r="E11" s="328"/>
+      <c r="F11" s="328"/>
+      <c r="G11" s="328"/>
+      <c r="H11" s="328"/>
+      <c r="I11" s="328"/>
+      <c r="J11" s="328"/>
+      <c r="K11" s="328"/>
+      <c r="L11" s="328"/>
+      <c r="M11" s="328"/>
+      <c r="N11" s="328"/>
+      <c r="O11" s="328"/>
+      <c r="P11" s="328"/>
+      <c r="Q11" s="328"/>
+      <c r="R11" s="179"/>
+      <c r="S11" s="171" t="s">
+        <v>170</v>
+      </c>
+      <c r="T11" s="181"/>
+      <c r="U11" s="159"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="159"/>
+      <c r="X11" s="159"/>
+      <c r="Y11" s="159"/>
+      <c r="Z11" s="159"/>
+      <c r="AA11" s="159"/>
+      <c r="AB11" s="159"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="172"/>
+    </row>
+    <row r="12" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="172"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="182" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="173"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="173"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="179"/>
+      <c r="S12" s="328" t="s">
+        <v>171</v>
+      </c>
+      <c r="T12" s="328"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="184"/>
+      <c r="W12" s="185"/>
+      <c r="X12" s="185"/>
+      <c r="Y12" s="185"/>
+      <c r="Z12" s="185"/>
+      <c r="AA12" s="185"/>
+      <c r="AB12" s="185"/>
+      <c r="AC12" s="172"/>
+      <c r="AD12" s="172"/>
+      <c r="AE12" s="172"/>
+    </row>
+    <row r="13" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="172"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="316" t="s">
+        <v>172</v>
+      </c>
+      <c r="M13" s="316"/>
+      <c r="N13" s="316"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="179"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="165" t="s">
+        <v>67</v>
+      </c>
+      <c r="V13" s="165"/>
+      <c r="W13" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="X13" s="165"/>
+      <c r="Y13" s="186" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z13" s="186"/>
+      <c r="AA13" s="165"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="175"/>
+      <c r="AD13" s="175"/>
+      <c r="AE13" s="172"/>
+    </row>
+    <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="318" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="318"/>
+      <c r="C14" s="318"/>
+      <c r="D14" s="317" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="317"/>
+      <c r="F14" s="317"/>
+      <c r="G14" s="317"/>
+      <c r="H14" s="315" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="315"/>
+      <c r="J14" s="315"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="318" t="s">
+        <v>175</v>
+      </c>
+      <c r="M14" s="318"/>
+      <c r="N14" s="317"/>
+      <c r="O14" s="317"/>
+      <c r="P14" s="317" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="317"/>
+      <c r="R14" s="179"/>
+      <c r="S14" s="329"/>
+      <c r="T14" s="329"/>
+      <c r="U14" s="329"/>
+      <c r="V14" s="329"/>
+      <c r="W14" s="329"/>
+      <c r="X14" s="329"/>
+      <c r="Y14" s="329"/>
+      <c r="Z14" s="329"/>
+      <c r="AA14" s="329"/>
+      <c r="AB14" s="329"/>
+      <c r="AC14" s="175"/>
+      <c r="AD14" s="175"/>
+      <c r="AE14" s="157"/>
+    </row>
+    <row r="15" spans="1:31" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="172"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="165" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="165"/>
+      <c r="H15" s="186" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="325"/>
+      <c r="M15" s="325"/>
+      <c r="N15" s="165" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" s="165"/>
+      <c r="P15" s="165" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="179"/>
+      <c r="S15" s="326" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" s="326"/>
+      <c r="U15" s="326"/>
+      <c r="V15" s="326"/>
+      <c r="W15" s="326"/>
+      <c r="X15" s="326"/>
+      <c r="Y15" s="326"/>
+      <c r="Z15" s="326"/>
+      <c r="AA15" s="326"/>
+      <c r="AB15" s="326"/>
+      <c r="AC15" s="157"/>
+      <c r="AD15" s="157"/>
+      <c r="AE15" s="157"/>
+    </row>
+    <row r="16" spans="1:31" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="179"/>
+      <c r="S16" s="189"/>
+      <c r="T16" s="190"/>
+      <c r="U16" s="190"/>
+      <c r="V16" s="191"/>
+      <c r="W16" s="190"/>
+      <c r="X16" s="190"/>
+      <c r="Y16" s="190"/>
+      <c r="Z16" s="190"/>
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
+      <c r="AC16" s="157"/>
+      <c r="AD16" s="157"/>
+      <c r="AE16" s="157"/>
+    </row>
+    <row r="17" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="318" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="318"/>
+      <c r="C17" s="318"/>
+      <c r="D17" s="317" t="s">
         <v>186</v>
       </c>
-      <c r="K5" s="316"/>
-      <c r="L5" s="316"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="158"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="345"/>
-      <c r="Z5" s="345"/>
-      <c r="AA5" s="339"/>
-      <c r="AB5" s="339"/>
-      <c r="AC5" s="339"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="158"/>
-    </row>
-    <row r="6" spans="1:31" ht="8.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="158"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="167" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="166"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="166" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="158"/>
-      <c r="S6" s="158"/>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="158"/>
-      <c r="Y6" s="336"/>
-      <c r="Z6" s="337"/>
-      <c r="AA6" s="336"/>
-      <c r="AB6" s="337"/>
-      <c r="AC6" s="337"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="158"/>
-    </row>
-    <row r="7" spans="1:31" ht="8.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="334" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="334"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="316" t="s">
-        <v>167</v>
-      </c>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="158"/>
-      <c r="T7" s="158"/>
-      <c r="U7" s="158"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="158"/>
-      <c r="X7" s="158"/>
-      <c r="Y7" s="337"/>
-      <c r="Z7" s="337"/>
-      <c r="AA7" s="337"/>
-      <c r="AB7" s="337"/>
-      <c r="AC7" s="337"/>
-      <c r="AD7" s="158"/>
-      <c r="AE7" s="158"/>
-    </row>
-    <row r="8" spans="1:31" ht="11.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="175"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="166" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="177"/>
-      <c r="Q8" s="177"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="325"/>
-      <c r="Z8" s="325"/>
-      <c r="AA8" s="332"/>
-      <c r="AB8" s="332"/>
-      <c r="AC8" s="332"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="173"/>
-    </row>
-    <row r="9" spans="1:31" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="329" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="333"/>
-      <c r="C9" s="333"/>
-      <c r="D9" s="334"/>
-      <c r="E9" s="334"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="330" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="335"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="176"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="180"/>
-      <c r="S9" s="172" t="s">
-        <v>170</v>
-      </c>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-    </row>
-    <row r="10" spans="1:31" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="158"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="328" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="328"/>
-      <c r="H10" s="328"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="159"/>
-      <c r="V10" s="159"/>
-      <c r="W10" s="159"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="159"/>
-      <c r="Z10" s="159"/>
-      <c r="AA10" s="159"/>
-      <c r="AB10" s="159"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-    </row>
-    <row r="11" spans="1:31" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="329" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="329"/>
-      <c r="C11" s="330"/>
-      <c r="D11" s="330"/>
-      <c r="E11" s="330"/>
-      <c r="F11" s="330"/>
-      <c r="G11" s="330"/>
-      <c r="H11" s="330"/>
-      <c r="I11" s="330"/>
-      <c r="J11" s="330"/>
-      <c r="K11" s="330"/>
-      <c r="L11" s="330"/>
-      <c r="M11" s="330"/>
-      <c r="N11" s="330"/>
-      <c r="O11" s="330"/>
-      <c r="P11" s="330"/>
-      <c r="Q11" s="330"/>
-      <c r="R11" s="180"/>
-      <c r="S11" s="172" t="s">
-        <v>172</v>
-      </c>
-      <c r="T11" s="182"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-    </row>
-    <row r="12" spans="1:31" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="173"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="183" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="174"/>
-      <c r="P12" s="174"/>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="180"/>
-      <c r="S12" s="330" t="s">
-        <v>173</v>
-      </c>
-      <c r="T12" s="330"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="185"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="173"/>
-      <c r="AE12" s="173"/>
-    </row>
-    <row r="13" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="173"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="318" t="s">
-        <v>174</v>
-      </c>
-      <c r="M13" s="318"/>
-      <c r="N13" s="318"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="180"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="176"/>
-      <c r="U13" s="166" t="s">
+      <c r="E17" s="317"/>
+      <c r="F17" s="317"/>
+      <c r="G17" s="317"/>
+      <c r="H17" s="315" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="315"/>
+      <c r="J17" s="315"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="179"/>
+      <c r="S17" s="323" t="s">
+        <v>182</v>
+      </c>
+      <c r="T17" s="323"/>
+      <c r="U17" s="321"/>
+      <c r="V17" s="324"/>
+      <c r="W17" s="321"/>
+      <c r="X17" s="321"/>
+      <c r="Y17" s="173"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="158"/>
+      <c r="AB17" s="158"/>
+      <c r="AC17" s="157"/>
+      <c r="AD17" s="157"/>
+      <c r="AE17" s="157"/>
+    </row>
+    <row r="18" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="175"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="165" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="165"/>
+      <c r="H18" s="194" t="s">
         <v>69</v>
       </c>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166" t="s">
-        <v>70</v>
-      </c>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="187" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z13" s="187"/>
-      <c r="AA13" s="166"/>
-      <c r="AB13" s="166"/>
-      <c r="AC13" s="176"/>
-      <c r="AD13" s="176"/>
-      <c r="AE13" s="173"/>
-    </row>
-    <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="320" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="320"/>
-      <c r="C14" s="320"/>
-      <c r="D14" s="319" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="319"/>
-      <c r="F14" s="319"/>
-      <c r="G14" s="319"/>
-      <c r="H14" s="317" t="s">
-        <v>176</v>
-      </c>
-      <c r="I14" s="317"/>
-      <c r="J14" s="317"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="320" t="s">
-        <v>177</v>
-      </c>
-      <c r="M14" s="320"/>
-      <c r="N14" s="319"/>
-      <c r="O14" s="319"/>
-      <c r="P14" s="319" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q14" s="319"/>
-      <c r="R14" s="180"/>
-      <c r="S14" s="331"/>
-      <c r="T14" s="331"/>
-      <c r="U14" s="331"/>
-      <c r="V14" s="331"/>
-      <c r="W14" s="331"/>
-      <c r="X14" s="331"/>
-      <c r="Y14" s="331"/>
-      <c r="Z14" s="331"/>
-      <c r="AA14" s="331"/>
-      <c r="AB14" s="331"/>
-      <c r="AC14" s="176"/>
-      <c r="AD14" s="176"/>
-      <c r="AE14" s="158"/>
-    </row>
-    <row r="15" spans="1:31" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="166" t="s">
+      <c r="I18" s="195"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="195"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="172"/>
+      <c r="U18" s="165" t="s">
+        <v>67</v>
+      </c>
+      <c r="V18" s="165"/>
+      <c r="W18" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="X18" s="165"/>
+      <c r="Y18" s="186" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15" s="166"/>
-      <c r="H15" s="187" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="324"/>
-      <c r="M15" s="324"/>
-      <c r="N15" s="166" t="s">
-        <v>179</v>
-      </c>
-      <c r="O15" s="166"/>
-      <c r="P15" s="166" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="180"/>
-      <c r="S15" s="325" t="s">
-        <v>181</v>
-      </c>
-      <c r="T15" s="325"/>
-      <c r="U15" s="325"/>
-      <c r="V15" s="325"/>
-      <c r="W15" s="325"/>
-      <c r="X15" s="325"/>
-      <c r="Y15" s="325"/>
-      <c r="Z15" s="325"/>
-      <c r="AA15" s="325"/>
-      <c r="AB15" s="325"/>
-      <c r="AC15" s="158"/>
-      <c r="AD15" s="158"/>
-      <c r="AE15" s="158"/>
-    </row>
-    <row r="16" spans="1:31" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="173"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="180"/>
-      <c r="S16" s="190"/>
-      <c r="T16" s="191"/>
-      <c r="U16" s="191"/>
-      <c r="V16" s="192"/>
-      <c r="W16" s="191"/>
-      <c r="X16" s="191"/>
-      <c r="Y16" s="191"/>
-      <c r="Z16" s="191"/>
-      <c r="AA16" s="193"/>
-      <c r="AB16" s="193"/>
-      <c r="AC16" s="158"/>
-      <c r="AD16" s="158"/>
-      <c r="AE16" s="158"/>
-    </row>
-    <row r="17" spans="1:31" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="320" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="320"/>
-      <c r="C17" s="320"/>
-      <c r="D17" s="319" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="319"/>
-      <c r="F17" s="319"/>
-      <c r="G17" s="319"/>
-      <c r="H17" s="317" t="s">
+      <c r="Z18" s="165"/>
+      <c r="AA18" s="165"/>
+      <c r="AB18" s="165"/>
+      <c r="AC18" s="157"/>
+      <c r="AD18" s="157"/>
+      <c r="AE18" s="157"/>
+    </row>
+    <row r="19" spans="1:31" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="316"/>
+      <c r="B19" s="316"/>
+      <c r="C19" s="316"/>
+      <c r="D19" s="317"/>
+      <c r="E19" s="317"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="179"/>
+      <c r="S19" s="172"/>
+      <c r="T19" s="172"/>
+      <c r="U19" s="319"/>
+      <c r="V19" s="319"/>
+      <c r="W19" s="320"/>
+      <c r="X19" s="320"/>
+      <c r="Y19" s="320"/>
+      <c r="Z19" s="320"/>
+      <c r="AA19" s="320"/>
+      <c r="AB19" s="320"/>
+      <c r="AC19" s="172"/>
+      <c r="AD19" s="172"/>
+      <c r="AE19" s="172"/>
+    </row>
+    <row r="20" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="175"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="314"/>
+      <c r="E20" s="314"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="314"/>
+      <c r="I20" s="314"/>
+      <c r="J20" s="314"/>
+      <c r="K20" s="197" t="s">
         <v>183</v>
       </c>
-      <c r="I17" s="317"/>
-      <c r="J17" s="317"/>
-      <c r="K17" s="194"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="180"/>
-      <c r="S17" s="321" t="s">
-        <v>184</v>
-      </c>
-      <c r="T17" s="321"/>
-      <c r="U17" s="322"/>
-      <c r="V17" s="323"/>
-      <c r="W17" s="322"/>
-      <c r="X17" s="322"/>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="159"/>
-      <c r="AB17" s="159"/>
-      <c r="AC17" s="158"/>
-      <c r="AD17" s="158"/>
-      <c r="AE17" s="158"/>
-    </row>
-    <row r="18" spans="1:31" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="176"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="166" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="166"/>
-      <c r="H18" s="195" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="196"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="196"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="180"/>
-      <c r="S18" s="173"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="166" t="s">
-        <v>69</v>
-      </c>
-      <c r="V18" s="166"/>
-      <c r="W18" s="166" t="s">
-        <v>70</v>
-      </c>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="187" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z18" s="166"/>
-      <c r="AA18" s="166"/>
-      <c r="AB18" s="166"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
-    </row>
-    <row r="19" spans="1:31" ht="4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="318"/>
-      <c r="B19" s="318"/>
-      <c r="C19" s="318"/>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="180"/>
-      <c r="S19" s="173"/>
-      <c r="T19" s="173"/>
-      <c r="U19" s="326"/>
-      <c r="V19" s="326"/>
-      <c r="W19" s="327"/>
-      <c r="X19" s="327"/>
-      <c r="Y19" s="327"/>
-      <c r="Z19" s="327"/>
-      <c r="AA19" s="327"/>
-      <c r="AB19" s="327"/>
-      <c r="AC19" s="173"/>
-      <c r="AD19" s="173"/>
-      <c r="AE19" s="173"/>
-    </row>
-    <row r="20" spans="1:31" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="176"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="316"/>
-      <c r="E20" s="316"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="316"/>
-      <c r="I20" s="316"/>
-      <c r="J20" s="316"/>
-      <c r="K20" s="198" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="197"/>
-      <c r="M20" s="316"/>
-      <c r="N20" s="316"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="197"/>
-      <c r="Q20" s="176"/>
-      <c r="R20" s="181"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="158"/>
-      <c r="U20" s="158"/>
-      <c r="V20" s="158"/>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="158"/>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="158"/>
-      <c r="AC20" s="158"/>
-      <c r="AD20" s="158"/>
-      <c r="AE20" s="158"/>
+      <c r="L20" s="196"/>
+      <c r="M20" s="314"/>
+      <c r="N20" s="314"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="196"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="180"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="157"/>
+      <c r="V20" s="157"/>
+      <c r="W20" s="157"/>
+      <c r="X20" s="157"/>
+      <c r="Y20" s="157"/>
+      <c r="Z20" s="157"/>
+      <c r="AA20" s="157"/>
+      <c r="AB20" s="157"/>
+      <c r="AC20" s="157"/>
+      <c r="AD20" s="157"/>
+      <c r="AE20" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="49">

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -1253,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1827,9 +1827,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1844,15 +1841,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1880,6 +1868,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2171,6 +2168,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2276,8 +2276,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2652,49 +2658,49 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="303" t="s">
+      <c r="Z1" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="303"/>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="303"/>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
+      <c r="AA1" s="302"/>
+      <c r="AB1" s="302"/>
+      <c r="AC1" s="302"/>
+      <c r="AD1" s="302"/>
+      <c r="AE1" s="302"/>
     </row>
     <row r="2" spans="1:32" ht="9.1999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="225"/>
-      <c r="K2" s="225"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="225"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="225"/>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="225"/>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="224"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="224"/>
+      <c r="AB2" s="224"/>
+      <c r="AC2" s="224"/>
+      <c r="AD2" s="224"/>
+      <c r="AE2" s="224"/>
     </row>
     <row r="3" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="152" t="s">
@@ -2739,20 +2745,20 @@
       <c r="AF3" s="18"/>
     </row>
     <row r="4" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="282" t="s">
+      <c r="A4" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="281"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="281"/>
+      <c r="F4" s="281"/>
+      <c r="G4" s="281"/>
+      <c r="H4" s="281"/>
+      <c r="I4" s="281"/>
+      <c r="J4" s="281"/>
+      <c r="K4" s="281"/>
+      <c r="L4" s="281"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -2766,11 +2772,11 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="303" t="s">
+      <c r="Z4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="303"/>
-      <c r="AB4" s="303"/>
+      <c r="AA4" s="302"/>
+      <c r="AB4" s="302"/>
       <c r="AC4" s="91"/>
       <c r="AD4" s="87"/>
       <c r="AE4" s="92"/>
@@ -2780,32 +2786,32 @@
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="308"/>
-      <c r="C5" s="308"/>
-      <c r="D5" s="308"/>
-      <c r="E5" s="308"/>
-      <c r="F5" s="308"/>
-      <c r="G5" s="308"/>
-      <c r="H5" s="308"/>
-      <c r="I5" s="308"/>
-      <c r="J5" s="308"/>
-      <c r="K5" s="308"/>
-      <c r="L5" s="308"/>
-      <c r="M5" s="308"/>
-      <c r="N5" s="308"/>
-      <c r="O5" s="308"/>
-      <c r="P5" s="308"/>
-      <c r="Q5" s="308"/>
-      <c r="R5" s="308"/>
-      <c r="S5" s="308"/>
-      <c r="T5" s="308"/>
-      <c r="U5" s="308"/>
-      <c r="V5" s="308"/>
-      <c r="W5" s="308"/>
-      <c r="X5" s="308"/>
-      <c r="Y5" s="308"/>
-      <c r="Z5" s="308"/>
-      <c r="AA5" s="308"/>
+      <c r="B5" s="307"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
+      <c r="F5" s="307"/>
+      <c r="G5" s="307"/>
+      <c r="H5" s="307"/>
+      <c r="I5" s="307"/>
+      <c r="J5" s="307"/>
+      <c r="K5" s="307"/>
+      <c r="L5" s="307"/>
+      <c r="M5" s="307"/>
+      <c r="N5" s="307"/>
+      <c r="O5" s="307"/>
+      <c r="P5" s="307"/>
+      <c r="Q5" s="307"/>
+      <c r="R5" s="307"/>
+      <c r="S5" s="307"/>
+      <c r="T5" s="307"/>
+      <c r="U5" s="307"/>
+      <c r="V5" s="307"/>
+      <c r="W5" s="307"/>
+      <c r="X5" s="307"/>
+      <c r="Y5" s="307"/>
+      <c r="Z5" s="307"/>
+      <c r="AA5" s="307"/>
       <c r="AB5" s="49" t="s">
         <v>6</v>
       </c>
@@ -2854,25 +2860,25 @@
       <c r="A7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="286" t="s">
+      <c r="I7" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="286"/>
-      <c r="N7" s="232"/>
-      <c r="O7" s="232"/>
-      <c r="P7" s="232"/>
-      <c r="Q7" s="232"/>
-      <c r="R7" s="232"/>
+      <c r="J7" s="285"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
+      <c r="M7" s="285"/>
+      <c r="N7" s="231"/>
+      <c r="O7" s="231"/>
+      <c r="P7" s="231"/>
+      <c r="Q7" s="231"/>
+      <c r="R7" s="231"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -2892,7 +2898,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
-      <c r="D8" s="211" t="s">
+      <c r="D8" s="207" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="41"/>
@@ -2925,10 +2931,10 @@
       <c r="AF8" s="18"/>
     </row>
     <row r="9" spans="1:32" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="282" t="s">
+      <c r="A9" s="281" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="296"/>
+      <c r="B9" s="295"/>
       <c r="C9" s="312" t="s">
         <v>11</v>
       </c>
@@ -2999,30 +3005,30 @@
       <c r="AF10" s="18"/>
     </row>
     <row r="11" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="278" t="s">
+      <c r="A11" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="278"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="266"/>
-      <c r="I11" s="266"/>
-      <c r="J11" s="266"/>
-      <c r="K11" s="266"/>
-      <c r="L11" s="266"/>
-      <c r="M11" s="266"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="344"/>
-      <c r="P11" s="344"/>
-      <c r="Q11" s="344"/>
-      <c r="R11" s="344"/>
-      <c r="S11" s="344"/>
-      <c r="T11" s="344"/>
-      <c r="U11" s="344"/>
-      <c r="V11" s="344"/>
+      <c r="B11" s="277"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="265"/>
+      <c r="I11" s="265"/>
+      <c r="J11" s="265"/>
+      <c r="K11" s="265"/>
+      <c r="L11" s="265"/>
+      <c r="M11" s="265"/>
+      <c r="N11" s="265"/>
+      <c r="O11" s="308"/>
+      <c r="P11" s="308"/>
+      <c r="Q11" s="308"/>
+      <c r="R11" s="308"/>
+      <c r="S11" s="308"/>
+      <c r="T11" s="308"/>
+      <c r="U11" s="308"/>
+      <c r="V11" s="308"/>
       <c r="W11" s="54"/>
       <c r="X11" s="52" t="s">
         <v>13</v>
@@ -3073,17 +3079,17 @@
       <c r="AF12" s="18"/>
     </row>
     <row r="13" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="282" t="s">
+      <c r="A13" s="281" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="282"/>
-      <c r="C13" s="232" t="s">
+      <c r="B13" s="281"/>
+      <c r="C13" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="232"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="232"/>
-      <c r="G13" s="232"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="231"/>
+      <c r="G13" s="231"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -3092,10 +3098,10 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="282" t="s">
+      <c r="P13" s="281" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="282"/>
+      <c r="Q13" s="281"/>
       <c r="R13" s="311"/>
       <c r="S13" s="311"/>
       <c r="T13" s="311"/>
@@ -3151,10 +3157,10 @@
       <c r="AF14" s="18"/>
     </row>
     <row r="15" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="282" t="s">
+      <c r="A15" s="281" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="282"/>
+      <c r="B15" s="281"/>
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
@@ -3194,24 +3200,24 @@
       <c r="A16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="306"/>
-      <c r="C16" s="306"/>
-      <c r="D16" s="306"/>
-      <c r="E16" s="306"/>
-      <c r="F16" s="306"/>
-      <c r="G16" s="306"/>
-      <c r="H16" s="306"/>
-      <c r="I16" s="306"/>
-      <c r="J16" s="306"/>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
+      <c r="B16" s="305"/>
+      <c r="C16" s="305"/>
+      <c r="D16" s="305"/>
+      <c r="E16" s="305"/>
+      <c r="F16" s="305"/>
+      <c r="G16" s="305"/>
+      <c r="H16" s="305"/>
+      <c r="I16" s="305"/>
+      <c r="J16" s="305"/>
+      <c r="K16" s="305"/>
+      <c r="L16" s="305"/>
       <c r="M16" s="4"/>
       <c r="N16" s="21"/>
-      <c r="O16" s="307" t="s">
+      <c r="O16" s="306" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="307"/>
-      <c r="Q16" s="307"/>
+      <c r="P16" s="306"/>
+      <c r="Q16" s="306"/>
       <c r="R16" s="66"/>
       <c r="S16" s="62"/>
       <c r="T16" s="62"/>
@@ -3221,10 +3227,10 @@
       <c r="X16" s="62"/>
       <c r="Y16" s="62"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="303" t="s">
+      <c r="AA16" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="AB16" s="304"/>
+      <c r="AB16" s="303"/>
       <c r="AC16" s="100"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="101"/>
@@ -3252,11 +3258,11 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="241" t="s">
+      <c r="T17" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="U17" s="241"/>
-      <c r="V17" s="241"/>
+      <c r="U17" s="240"/>
+      <c r="V17" s="240"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
@@ -3269,42 +3275,42 @@
       <c r="AF17" s="18"/>
     </row>
     <row r="18" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="282" t="s">
+      <c r="A18" s="281" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="282"/>
-      <c r="C18" s="282"/>
-      <c r="D18" s="278"/>
-      <c r="E18" s="278"/>
-      <c r="F18" s="278"/>
-      <c r="G18" s="278"/>
-      <c r="H18" s="278"/>
-      <c r="I18" s="278"/>
-      <c r="J18" s="278"/>
-      <c r="K18" s="278"/>
-      <c r="L18" s="278"/>
-      <c r="M18" s="282" t="s">
+      <c r="B18" s="281"/>
+      <c r="C18" s="281"/>
+      <c r="D18" s="277"/>
+      <c r="E18" s="277"/>
+      <c r="F18" s="277"/>
+      <c r="G18" s="277"/>
+      <c r="H18" s="277"/>
+      <c r="I18" s="277"/>
+      <c r="J18" s="277"/>
+      <c r="K18" s="277"/>
+      <c r="L18" s="277"/>
+      <c r="M18" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="282"/>
+      <c r="N18" s="281"/>
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
-      <c r="Q18" s="303" t="s">
+      <c r="Q18" s="302" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="303"/>
-      <c r="S18" s="303"/>
-      <c r="T18" s="303"/>
+      <c r="R18" s="302"/>
+      <c r="S18" s="302"/>
+      <c r="T18" s="302"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
       <c r="W18" s="43"/>
       <c r="X18" s="43"/>
       <c r="Y18" s="43"/>
-      <c r="Z18" s="303" t="s">
+      <c r="Z18" s="302" t="s">
         <v>30</v>
       </c>
-      <c r="AA18" s="303"/>
-      <c r="AB18" s="304"/>
+      <c r="AA18" s="302"/>
+      <c r="AB18" s="303"/>
       <c r="AC18" s="100"/>
       <c r="AD18" s="43"/>
       <c r="AE18" s="101"/>
@@ -3361,28 +3367,28 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="282" t="s">
+      <c r="M20" s="281" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="282"/>
+      <c r="N20" s="281"/>
       <c r="O20" s="61"/>
       <c r="P20" s="61"/>
-      <c r="Q20" s="303" t="s">
+      <c r="Q20" s="302" t="s">
         <v>151</v>
       </c>
-      <c r="R20" s="303"/>
-      <c r="S20" s="303"/>
-      <c r="T20" s="303"/>
+      <c r="R20" s="302"/>
+      <c r="S20" s="302"/>
+      <c r="T20" s="302"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="61"/>
       <c r="X20" s="61"/>
       <c r="Y20" s="61"/>
-      <c r="Z20" s="303" t="s">
+      <c r="Z20" s="302" t="s">
         <v>149</v>
       </c>
-      <c r="AA20" s="303"/>
-      <c r="AB20" s="304"/>
+      <c r="AA20" s="302"/>
+      <c r="AB20" s="303"/>
       <c r="AC20" s="74"/>
       <c r="AD20" s="76"/>
       <c r="AE20" s="75"/>
@@ -3426,23 +3432,23 @@
     <row r="22" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="276" t="s">
+      <c r="C22" s="275" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="276"/>
-      <c r="E22" s="276"/>
-      <c r="F22" s="276"/>
-      <c r="G22" s="276"/>
+      <c r="D22" s="275"/>
+      <c r="E22" s="275"/>
+      <c r="F22" s="275"/>
+      <c r="G22" s="275"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="305" t="s">
+      <c r="L22" s="304" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="305"/>
-      <c r="N22" s="305"/>
-      <c r="O22" s="305"/>
+      <c r="M22" s="304"/>
+      <c r="N22" s="304"/>
+      <c r="O22" s="304"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3461,147 +3467,147 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="220" t="s">
+      <c r="A23" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="247"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="247"/>
-      <c r="E23" s="220" t="s">
+      <c r="B23" s="246"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="219" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="247"/>
-      <c r="I23" s="247"/>
-      <c r="J23" s="220" t="s">
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="219" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="247"/>
-      <c r="L23" s="247"/>
-      <c r="M23" s="220" t="s">
+      <c r="K23" s="246"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="219" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="247"/>
-      <c r="O23" s="247"/>
-      <c r="P23" s="247"/>
-      <c r="Q23" s="247"/>
-      <c r="R23" s="220" t="s">
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="219" t="s">
         <v>39</v>
       </c>
-      <c r="S23" s="247"/>
-      <c r="T23" s="247"/>
-      <c r="U23" s="220" t="s">
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="247"/>
-      <c r="W23" s="220" t="s">
+      <c r="V23" s="246"/>
+      <c r="W23" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="X23" s="247"/>
-      <c r="Y23" s="247"/>
-      <c r="Z23" s="220" t="s">
+      <c r="X23" s="246"/>
+      <c r="Y23" s="246"/>
+      <c r="Z23" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="AA23" s="247"/>
-      <c r="AB23" s="247"/>
-      <c r="AC23" s="220" t="s">
+      <c r="AA23" s="246"/>
+      <c r="AB23" s="246"/>
+      <c r="AC23" s="219" t="s">
         <v>43</v>
       </c>
-      <c r="AD23" s="247"/>
-      <c r="AE23" s="247"/>
+      <c r="AD23" s="246"/>
+      <c r="AE23" s="246"/>
       <c r="AF23" s="17"/>
     </row>
     <row r="24" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="220">
+      <c r="A24" s="219">
         <v>1</v>
       </c>
-      <c r="B24" s="247"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="247"/>
-      <c r="E24" s="220">
+      <c r="B24" s="246"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="219">
         <v>2</v>
       </c>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="247"/>
-      <c r="I24" s="247"/>
-      <c r="J24" s="220">
+      <c r="F24" s="246"/>
+      <c r="G24" s="246"/>
+      <c r="H24" s="246"/>
+      <c r="I24" s="246"/>
+      <c r="J24" s="219">
         <v>3</v>
       </c>
-      <c r="K24" s="247"/>
-      <c r="L24" s="247"/>
-      <c r="M24" s="220">
+      <c r="K24" s="246"/>
+      <c r="L24" s="246"/>
+      <c r="M24" s="219">
         <v>4</v>
       </c>
-      <c r="N24" s="247"/>
-      <c r="O24" s="247"/>
-      <c r="P24" s="247"/>
-      <c r="Q24" s="247"/>
-      <c r="R24" s="220">
+      <c r="N24" s="246"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="219">
         <v>5</v>
       </c>
-      <c r="S24" s="247"/>
-      <c r="T24" s="247"/>
-      <c r="U24" s="220">
+      <c r="S24" s="246"/>
+      <c r="T24" s="246"/>
+      <c r="U24" s="219">
         <v>6</v>
       </c>
-      <c r="V24" s="247"/>
-      <c r="W24" s="220">
+      <c r="V24" s="246"/>
+      <c r="W24" s="219">
         <v>7</v>
       </c>
-      <c r="X24" s="247"/>
-      <c r="Y24" s="247"/>
-      <c r="Z24" s="220">
+      <c r="X24" s="246"/>
+      <c r="Y24" s="246"/>
+      <c r="Z24" s="219">
         <v>8</v>
       </c>
-      <c r="AA24" s="247"/>
-      <c r="AB24" s="247"/>
-      <c r="AC24" s="220">
+      <c r="AA24" s="246"/>
+      <c r="AB24" s="246"/>
+      <c r="AC24" s="219">
         <v>9</v>
       </c>
-      <c r="AD24" s="247"/>
-      <c r="AE24" s="248"/>
+      <c r="AD24" s="246"/>
+      <c r="AE24" s="247"/>
       <c r="AF24" s="17"/>
     </row>
     <row r="25" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="297" t="s">
+      <c r="A25" s="296" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="298"/>
-      <c r="C25" s="298"/>
-      <c r="D25" s="298"/>
-      <c r="E25" s="279" t="s">
+      <c r="B25" s="297"/>
+      <c r="C25" s="297"/>
+      <c r="D25" s="297"/>
+      <c r="E25" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280"/>
-      <c r="H25" s="280"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="299" t="s">
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="298" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="300"/>
-      <c r="L25" s="300"/>
-      <c r="M25" s="301"/>
-      <c r="N25" s="301"/>
-      <c r="O25" s="301"/>
-      <c r="P25" s="301"/>
-      <c r="Q25" s="301"/>
-      <c r="R25" s="298"/>
-      <c r="S25" s="298"/>
-      <c r="T25" s="298"/>
-      <c r="U25" s="289"/>
-      <c r="V25" s="289"/>
-      <c r="W25" s="289"/>
-      <c r="X25" s="289"/>
-      <c r="Y25" s="289"/>
-      <c r="Z25" s="289"/>
-      <c r="AA25" s="289"/>
-      <c r="AB25" s="289"/>
-      <c r="AC25" s="289"/>
-      <c r="AD25" s="289"/>
-      <c r="AE25" s="289"/>
+      <c r="K25" s="299"/>
+      <c r="L25" s="299"/>
+      <c r="M25" s="300"/>
+      <c r="N25" s="300"/>
+      <c r="O25" s="300"/>
+      <c r="P25" s="300"/>
+      <c r="Q25" s="300"/>
+      <c r="R25" s="297"/>
+      <c r="S25" s="297"/>
+      <c r="T25" s="297"/>
+      <c r="U25" s="288"/>
+      <c r="V25" s="288"/>
+      <c r="W25" s="288"/>
+      <c r="X25" s="288"/>
+      <c r="Y25" s="288"/>
+      <c r="Z25" s="288"/>
+      <c r="AA25" s="288"/>
+      <c r="AB25" s="288"/>
+      <c r="AC25" s="288"/>
+      <c r="AD25" s="288"/>
+      <c r="AE25" s="288"/>
       <c r="AF25" s="112"/>
     </row>
     <row r="26" spans="1:32" ht="3.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3627,39 +3633,39 @@
       <c r="T26" s="89"/>
       <c r="U26" s="113"/>
       <c r="V26" s="114"/>
-      <c r="W26" s="292" t="s">
+      <c r="W26" s="291" t="s">
         <v>47</v>
       </c>
-      <c r="X26" s="293"/>
-      <c r="Y26" s="293"/>
-      <c r="Z26" s="293"/>
-      <c r="AA26" s="293"/>
-      <c r="AB26" s="293"/>
+      <c r="X26" s="292"/>
+      <c r="Y26" s="292"/>
+      <c r="Z26" s="292"/>
+      <c r="AA26" s="292"/>
+      <c r="AB26" s="292"/>
       <c r="AC26" s="116"/>
       <c r="AD26" s="90"/>
       <c r="AE26" s="114"/>
       <c r="AF26" s="112"/>
     </row>
     <row r="27" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="282" t="s">
+      <c r="A27" s="281" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="282"/>
-      <c r="C27" s="282"/>
-      <c r="D27" s="282"/>
+      <c r="B27" s="281"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="232" t="s">
+      <c r="F27" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="232"/>
-      <c r="H27" s="295"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="294"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="281" t="s">
+      <c r="J27" s="280" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="282"/>
-      <c r="L27" s="282"/>
-      <c r="M27" s="296"/>
+      <c r="K27" s="281"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="295"/>
       <c r="N27" s="80"/>
       <c r="O27" s="80"/>
       <c r="P27" s="9" t="s">
@@ -3667,56 +3673,56 @@
       </c>
       <c r="Q27" s="78"/>
       <c r="R27" s="79"/>
-      <c r="S27" s="221" t="s">
+      <c r="S27" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="T27" s="292"/>
+      <c r="T27" s="291"/>
       <c r="U27" s="115"/>
       <c r="V27" s="77"/>
-      <c r="W27" s="293"/>
-      <c r="X27" s="294"/>
-      <c r="Y27" s="294"/>
-      <c r="Z27" s="294"/>
-      <c r="AA27" s="294"/>
-      <c r="AB27" s="294"/>
+      <c r="W27" s="292"/>
+      <c r="X27" s="293"/>
+      <c r="Y27" s="293"/>
+      <c r="Z27" s="293"/>
+      <c r="AA27" s="293"/>
+      <c r="AB27" s="293"/>
       <c r="AC27" s="115"/>
       <c r="AD27" s="43"/>
       <c r="AE27" s="77"/>
       <c r="AF27" s="112"/>
     </row>
     <row r="28" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="286" t="s">
+      <c r="A28" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="286"/>
-      <c r="C28" s="286"/>
-      <c r="D28" s="286"/>
+      <c r="B28" s="285"/>
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
       <c r="G28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="290"/>
-      <c r="I28" s="291"/>
-      <c r="J28" s="281"/>
-      <c r="K28" s="282"/>
-      <c r="L28" s="282"/>
-      <c r="M28" s="282"/>
-      <c r="N28" s="276" t="s">
+      <c r="H28" s="289"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="280"/>
+      <c r="K28" s="281"/>
+      <c r="L28" s="281"/>
+      <c r="M28" s="281"/>
+      <c r="N28" s="275" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="276"/>
+      <c r="O28" s="275"/>
       <c r="P28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q28" s="276" t="s">
+      <c r="Q28" s="275" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="302"/>
-      <c r="S28" s="272" t="s">
+      <c r="R28" s="301"/>
+      <c r="S28" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="T28" s="288"/>
+      <c r="T28" s="287"/>
       <c r="U28" s="107"/>
       <c r="V28" s="107"/>
       <c r="W28" s="2"/>
@@ -3734,10 +3740,10 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="273" t="s">
+      <c r="E29" s="272" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="273"/>
+      <c r="F29" s="272"/>
       <c r="G29" s="2"/>
       <c r="H29" s="50"/>
       <c r="I29" s="153"/>
@@ -3745,11 +3751,11 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="273"/>
-      <c r="O29" s="273"/>
+      <c r="N29" s="272"/>
+      <c r="O29" s="272"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="273"/>
-      <c r="R29" s="273"/>
+      <c r="Q29" s="272"/>
+      <c r="R29" s="272"/>
       <c r="S29" s="26"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -3765,10 +3771,10 @@
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="278" t="s">
+      <c r="A30" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="278"/>
+      <c r="B30" s="277"/>
       <c r="C30" s="78"/>
       <c r="D30" s="78"/>
       <c r="E30" s="78"/>
@@ -3776,28 +3782,28 @@
       <c r="G30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="256" t="s">
+      <c r="H30" s="255" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="256"/>
-      <c r="J30" s="277" t="s">
+      <c r="I30" s="255"/>
+      <c r="J30" s="276" t="s">
         <v>58</v>
       </c>
-      <c r="K30" s="278"/>
-      <c r="L30" s="278"/>
+      <c r="K30" s="277"/>
+      <c r="L30" s="277"/>
       <c r="M30" s="80"/>
       <c r="N30" s="80"/>
       <c r="O30" s="80"/>
-      <c r="P30" s="278" t="s">
+      <c r="P30" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="278"/>
-      <c r="R30" s="278"/>
-      <c r="S30" s="277" t="s">
+      <c r="Q30" s="277"/>
+      <c r="R30" s="277"/>
+      <c r="S30" s="276" t="s">
         <v>62</v>
       </c>
-      <c r="T30" s="278"/>
-      <c r="U30" s="278"/>
+      <c r="T30" s="277"/>
+      <c r="U30" s="277"/>
       <c r="V30" s="80"/>
       <c r="W30" s="80"/>
       <c r="X30" s="80"/>
@@ -3813,22 +3819,22 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="271" t="s">
+      <c r="D31" s="270" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="271"/>
-      <c r="F31" s="271"/>
+      <c r="E31" s="270"/>
+      <c r="F31" s="270"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="24"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="276" t="s">
+      <c r="M31" s="275" t="s">
         <v>55</v>
       </c>
-      <c r="N31" s="276"/>
-      <c r="O31" s="276"/>
+      <c r="N31" s="275"/>
+      <c r="O31" s="275"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -3858,21 +3864,21 @@
       <c r="G32" s="78"/>
       <c r="H32" s="78"/>
       <c r="I32" s="79"/>
-      <c r="J32" s="277" t="s">
+      <c r="J32" s="276" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="278"/>
-      <c r="L32" s="278"/>
+      <c r="K32" s="277"/>
+      <c r="L32" s="277"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
       <c r="O32" s="78"/>
       <c r="P32" s="78"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="64"/>
-      <c r="S32" s="281" t="s">
+      <c r="S32" s="280" t="s">
         <v>66</v>
       </c>
-      <c r="T32" s="282"/>
+      <c r="T32" s="281"/>
       <c r="U32" s="80"/>
       <c r="V32" s="80"/>
       <c r="W32" s="80"/>
@@ -3887,33 +3893,33 @@
     </row>
     <row r="33" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="241" t="s">
+      <c r="B33" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241" t="s">
+      <c r="C33" s="240"/>
+      <c r="D33" s="240" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="240"/>
       <c r="G33" s="124" t="s">
         <v>69</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="123"/>
-      <c r="J33" s="279"/>
-      <c r="K33" s="280"/>
-      <c r="L33" s="280"/>
-      <c r="M33" s="276" t="s">
+      <c r="J33" s="278"/>
+      <c r="K33" s="279"/>
+      <c r="L33" s="279"/>
+      <c r="M33" s="275" t="s">
         <v>68</v>
       </c>
-      <c r="N33" s="276"/>
-      <c r="O33" s="276" t="s">
+      <c r="N33" s="275"/>
+      <c r="O33" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="276"/>
-      <c r="Q33" s="276"/>
-      <c r="R33" s="283"/>
+      <c r="P33" s="275"/>
+      <c r="Q33" s="275"/>
+      <c r="R33" s="282"/>
       <c r="S33" s="24"/>
       <c r="T33" s="2"/>
       <c r="U33" s="19"/>
@@ -3929,10 +3935,10 @@
       <c r="AE33" s="19"/>
     </row>
     <row r="34" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="286" t="s">
+      <c r="A34" s="285" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="287"/>
+      <c r="B34" s="286"/>
       <c r="C34" s="64"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
@@ -3940,17 +3946,17 @@
       <c r="G34" s="105"/>
       <c r="H34" s="105"/>
       <c r="I34" s="121"/>
-      <c r="J34" s="277" t="s">
+      <c r="J34" s="276" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="278"/>
+      <c r="K34" s="277"/>
       <c r="L34" s="64"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
       <c r="O34" s="78"/>
       <c r="P34" s="78"/>
       <c r="Q34" s="78"/>
-      <c r="R34" s="284"/>
+      <c r="R34" s="283"/>
       <c r="S34" s="24"/>
       <c r="T34" s="80"/>
       <c r="U34" s="80"/>
@@ -3966,34 +3972,34 @@
       <c r="AE34" s="80"/>
     </row>
     <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="288"/>
-      <c r="B35" s="287"/>
+      <c r="A35" s="287"/>
+      <c r="B35" s="286"/>
       <c r="C35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="276" t="s">
+      <c r="D35" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="276"/>
-      <c r="F35" s="276"/>
+      <c r="E35" s="275"/>
+      <c r="F35" s="275"/>
       <c r="G35" s="106"/>
       <c r="H35" s="106"/>
       <c r="I35" s="122"/>
-      <c r="J35" s="272"/>
-      <c r="K35" s="273"/>
+      <c r="J35" s="271"/>
+      <c r="K35" s="272"/>
       <c r="L35" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="M35" s="276" t="s">
+      <c r="M35" s="275" t="s">
         <v>68</v>
       </c>
-      <c r="N35" s="276"/>
-      <c r="O35" s="276" t="s">
+      <c r="N35" s="275"/>
+      <c r="O35" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="P35" s="276"/>
-      <c r="Q35" s="276"/>
-      <c r="R35" s="285"/>
+      <c r="P35" s="275"/>
+      <c r="Q35" s="275"/>
+      <c r="R35" s="284"/>
       <c r="S35" s="25"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
@@ -4015,11 +4021,11 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="266" t="s">
+      <c r="G36" s="265" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="266"/>
-      <c r="I36" s="267"/>
+      <c r="H36" s="265"/>
+      <c r="I36" s="266"/>
       <c r="J36" s="25"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -4079,257 +4085,257 @@
       <c r="AE37" s="5"/>
     </row>
     <row r="38" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="268" t="s">
+      <c r="A38" s="267" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="269"/>
-      <c r="C38" s="269"/>
-      <c r="D38" s="269"/>
-      <c r="E38" s="269"/>
-      <c r="F38" s="269"/>
-      <c r="G38" s="269"/>
-      <c r="H38" s="269"/>
-      <c r="I38" s="269"/>
-      <c r="J38" s="269"/>
-      <c r="K38" s="269"/>
-      <c r="L38" s="269"/>
-      <c r="M38" s="269"/>
-      <c r="N38" s="269"/>
-      <c r="O38" s="269"/>
-      <c r="P38" s="269"/>
-      <c r="Q38" s="269"/>
-      <c r="R38" s="269"/>
-      <c r="S38" s="269"/>
-      <c r="T38" s="269"/>
-      <c r="U38" s="269"/>
-      <c r="V38" s="269"/>
-      <c r="W38" s="269"/>
-      <c r="X38" s="269"/>
-      <c r="Y38" s="269"/>
-      <c r="Z38" s="269"/>
-      <c r="AA38" s="269"/>
-      <c r="AB38" s="269"/>
-      <c r="AC38" s="269"/>
-      <c r="AD38" s="269"/>
-      <c r="AE38" s="269"/>
+      <c r="B38" s="268"/>
+      <c r="C38" s="268"/>
+      <c r="D38" s="268"/>
+      <c r="E38" s="268"/>
+      <c r="F38" s="268"/>
+      <c r="G38" s="268"/>
+      <c r="H38" s="268"/>
+      <c r="I38" s="268"/>
+      <c r="J38" s="268"/>
+      <c r="K38" s="268"/>
+      <c r="L38" s="268"/>
+      <c r="M38" s="268"/>
+      <c r="N38" s="268"/>
+      <c r="O38" s="268"/>
+      <c r="P38" s="268"/>
+      <c r="Q38" s="268"/>
+      <c r="R38" s="268"/>
+      <c r="S38" s="268"/>
+      <c r="T38" s="268"/>
+      <c r="U38" s="268"/>
+      <c r="V38" s="268"/>
+      <c r="W38" s="268"/>
+      <c r="X38" s="268"/>
+      <c r="Y38" s="268"/>
+      <c r="Z38" s="268"/>
+      <c r="AA38" s="268"/>
+      <c r="AB38" s="268"/>
+      <c r="AC38" s="268"/>
+      <c r="AD38" s="268"/>
+      <c r="AE38" s="268"/>
       <c r="AF38" s="17"/>
     </row>
     <row r="39" spans="1:32" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="270" t="s">
+      <c r="A39" s="269" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="271"/>
-      <c r="C39" s="270" t="s">
+      <c r="B39" s="270"/>
+      <c r="C39" s="269" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="271"/>
-      <c r="E39" s="271"/>
-      <c r="F39" s="271"/>
-      <c r="G39" s="270" t="s">
+      <c r="D39" s="270"/>
+      <c r="E39" s="270"/>
+      <c r="F39" s="270"/>
+      <c r="G39" s="269" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="271"/>
-      <c r="I39" s="271"/>
-      <c r="J39" s="271"/>
-      <c r="K39" s="271"/>
-      <c r="L39" s="270" t="s">
+      <c r="H39" s="270"/>
+      <c r="I39" s="270"/>
+      <c r="J39" s="270"/>
+      <c r="K39" s="270"/>
+      <c r="L39" s="269" t="s">
         <v>77</v>
       </c>
-      <c r="M39" s="271"/>
-      <c r="N39" s="271"/>
-      <c r="O39" s="271"/>
-      <c r="P39" s="271"/>
-      <c r="Q39" s="220" t="s">
+      <c r="M39" s="270"/>
+      <c r="N39" s="270"/>
+      <c r="O39" s="270"/>
+      <c r="P39" s="270"/>
+      <c r="Q39" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="R39" s="247"/>
-      <c r="S39" s="247"/>
-      <c r="T39" s="247"/>
-      <c r="U39" s="247"/>
-      <c r="V39" s="249" t="s">
+      <c r="R39" s="246"/>
+      <c r="S39" s="246"/>
+      <c r="T39" s="246"/>
+      <c r="U39" s="246"/>
+      <c r="V39" s="248" t="s">
         <v>79</v>
       </c>
-      <c r="W39" s="250"/>
-      <c r="X39" s="274"/>
-      <c r="Y39" s="275"/>
-      <c r="Z39" s="220" t="s">
+      <c r="W39" s="249"/>
+      <c r="X39" s="273"/>
+      <c r="Y39" s="274"/>
+      <c r="Z39" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="AA39" s="247"/>
-      <c r="AB39" s="247"/>
-      <c r="AC39" s="220" t="s">
+      <c r="AA39" s="246"/>
+      <c r="AB39" s="246"/>
+      <c r="AC39" s="219" t="s">
         <v>81</v>
       </c>
-      <c r="AD39" s="247"/>
-      <c r="AE39" s="248"/>
+      <c r="AD39" s="246"/>
+      <c r="AE39" s="247"/>
       <c r="AF39" s="17"/>
     </row>
     <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="272"/>
-      <c r="B40" s="273"/>
-      <c r="C40" s="272"/>
-      <c r="D40" s="273"/>
-      <c r="E40" s="273"/>
-      <c r="F40" s="273"/>
-      <c r="G40" s="272"/>
-      <c r="H40" s="273"/>
-      <c r="I40" s="273"/>
-      <c r="J40" s="273"/>
-      <c r="K40" s="273"/>
-      <c r="L40" s="272"/>
-      <c r="M40" s="273"/>
-      <c r="N40" s="273"/>
-      <c r="O40" s="273"/>
-      <c r="P40" s="273"/>
-      <c r="Q40" s="261" t="s">
+      <c r="A40" s="271"/>
+      <c r="B40" s="272"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="272"/>
+      <c r="E40" s="272"/>
+      <c r="F40" s="272"/>
+      <c r="G40" s="271"/>
+      <c r="H40" s="272"/>
+      <c r="I40" s="272"/>
+      <c r="J40" s="272"/>
+      <c r="K40" s="272"/>
+      <c r="L40" s="271"/>
+      <c r="M40" s="272"/>
+      <c r="N40" s="272"/>
+      <c r="O40" s="272"/>
+      <c r="P40" s="272"/>
+      <c r="Q40" s="260" t="s">
         <v>82</v>
       </c>
-      <c r="R40" s="262"/>
-      <c r="S40" s="262"/>
-      <c r="T40" s="262"/>
+      <c r="R40" s="261"/>
+      <c r="S40" s="261"/>
+      <c r="T40" s="261"/>
       <c r="U40" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="V40" s="220" t="s">
+      <c r="V40" s="219" t="s">
         <v>83</v>
       </c>
-      <c r="W40" s="247"/>
-      <c r="X40" s="220" t="s">
+      <c r="W40" s="246"/>
+      <c r="X40" s="219" t="s">
         <v>84</v>
       </c>
-      <c r="Y40" s="248"/>
-      <c r="Z40" s="221"/>
-      <c r="AA40" s="232"/>
-      <c r="AB40" s="232"/>
-      <c r="AC40" s="221"/>
-      <c r="AD40" s="232"/>
-      <c r="AE40" s="232"/>
+      <c r="Y40" s="247"/>
+      <c r="Z40" s="220"/>
+      <c r="AA40" s="231"/>
+      <c r="AB40" s="231"/>
+      <c r="AC40" s="220"/>
+      <c r="AD40" s="231"/>
+      <c r="AE40" s="231"/>
       <c r="AF40" s="17"/>
     </row>
     <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="220">
+      <c r="A41" s="219">
         <v>10</v>
       </c>
-      <c r="B41" s="247"/>
-      <c r="C41" s="220">
+      <c r="B41" s="246"/>
+      <c r="C41" s="219">
         <v>11</v>
       </c>
-      <c r="D41" s="247"/>
-      <c r="E41" s="247"/>
-      <c r="F41" s="247"/>
-      <c r="G41" s="220">
+      <c r="D41" s="246"/>
+      <c r="E41" s="246"/>
+      <c r="F41" s="246"/>
+      <c r="G41" s="219">
         <v>12</v>
       </c>
-      <c r="H41" s="247"/>
-      <c r="I41" s="247"/>
-      <c r="J41" s="247"/>
-      <c r="K41" s="247"/>
-      <c r="L41" s="220">
+      <c r="H41" s="246"/>
+      <c r="I41" s="246"/>
+      <c r="J41" s="246"/>
+      <c r="K41" s="246"/>
+      <c r="L41" s="219">
         <v>13</v>
       </c>
-      <c r="M41" s="247"/>
-      <c r="N41" s="247"/>
-      <c r="O41" s="247"/>
-      <c r="P41" s="247"/>
-      <c r="Q41" s="220">
+      <c r="M41" s="246"/>
+      <c r="N41" s="246"/>
+      <c r="O41" s="246"/>
+      <c r="P41" s="246"/>
+      <c r="Q41" s="219">
         <v>14</v>
       </c>
-      <c r="R41" s="247"/>
-      <c r="S41" s="247"/>
-      <c r="T41" s="247"/>
+      <c r="R41" s="246"/>
+      <c r="S41" s="246"/>
+      <c r="T41" s="246"/>
       <c r="U41" s="29">
         <v>15</v>
       </c>
-      <c r="V41" s="220">
+      <c r="V41" s="219">
         <v>16</v>
       </c>
-      <c r="W41" s="247"/>
-      <c r="X41" s="220">
+      <c r="W41" s="246"/>
+      <c r="X41" s="219">
         <v>17</v>
       </c>
-      <c r="Y41" s="247"/>
-      <c r="Z41" s="220">
+      <c r="Y41" s="246"/>
+      <c r="Z41" s="219">
         <v>18</v>
       </c>
-      <c r="AA41" s="247"/>
-      <c r="AB41" s="247"/>
-      <c r="AC41" s="220">
+      <c r="AA41" s="246"/>
+      <c r="AB41" s="246"/>
+      <c r="AC41" s="219">
         <v>19</v>
       </c>
-      <c r="AD41" s="247"/>
-      <c r="AE41" s="248"/>
+      <c r="AD41" s="246"/>
+      <c r="AE41" s="247"/>
       <c r="AF41" s="17"/>
     </row>
     <row r="42" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="261" t="s">
+      <c r="A42" s="260" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="262"/>
-      <c r="C42" s="263"/>
-      <c r="D42" s="264"/>
-      <c r="E42" s="264"/>
-      <c r="F42" s="264"/>
-      <c r="G42" s="263"/>
-      <c r="H42" s="264"/>
-      <c r="I42" s="264"/>
-      <c r="J42" s="264"/>
-      <c r="K42" s="264"/>
-      <c r="L42" s="263"/>
-      <c r="M42" s="264"/>
-      <c r="N42" s="264"/>
-      <c r="O42" s="264"/>
-      <c r="P42" s="264"/>
-      <c r="Q42" s="263"/>
-      <c r="R42" s="264"/>
-      <c r="S42" s="264"/>
-      <c r="T42" s="264"/>
+      <c r="B42" s="261"/>
+      <c r="C42" s="262"/>
+      <c r="D42" s="263"/>
+      <c r="E42" s="263"/>
+      <c r="F42" s="263"/>
+      <c r="G42" s="262"/>
+      <c r="H42" s="263"/>
+      <c r="I42" s="263"/>
+      <c r="J42" s="263"/>
+      <c r="K42" s="263"/>
+      <c r="L42" s="262"/>
+      <c r="M42" s="263"/>
+      <c r="N42" s="263"/>
+      <c r="O42" s="263"/>
+      <c r="P42" s="263"/>
+      <c r="Q42" s="262"/>
+      <c r="R42" s="263"/>
+      <c r="S42" s="263"/>
+      <c r="T42" s="263"/>
       <c r="U42" s="108"/>
-      <c r="V42" s="240"/>
-      <c r="W42" s="240"/>
-      <c r="X42" s="240"/>
-      <c r="Y42" s="240"/>
-      <c r="Z42" s="240"/>
-      <c r="AA42" s="240"/>
-      <c r="AB42" s="240"/>
-      <c r="AC42" s="264"/>
-      <c r="AD42" s="264"/>
-      <c r="AE42" s="265"/>
+      <c r="V42" s="239"/>
+      <c r="W42" s="239"/>
+      <c r="X42" s="239"/>
+      <c r="Y42" s="239"/>
+      <c r="Z42" s="239"/>
+      <c r="AA42" s="239"/>
+      <c r="AB42" s="239"/>
+      <c r="AC42" s="263"/>
+      <c r="AD42" s="263"/>
+      <c r="AE42" s="264"/>
       <c r="AF42" s="17"/>
     </row>
     <row r="43" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="261" t="s">
+      <c r="A43" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="262"/>
-      <c r="C43" s="263"/>
-      <c r="D43" s="264"/>
-      <c r="E43" s="264"/>
-      <c r="F43" s="264"/>
-      <c r="G43" s="263"/>
-      <c r="H43" s="264"/>
-      <c r="I43" s="264"/>
-      <c r="J43" s="264"/>
-      <c r="K43" s="264"/>
-      <c r="L43" s="263"/>
-      <c r="M43" s="264"/>
-      <c r="N43" s="264"/>
-      <c r="O43" s="264"/>
-      <c r="P43" s="264"/>
-      <c r="Q43" s="263"/>
-      <c r="R43" s="264"/>
-      <c r="S43" s="264"/>
-      <c r="T43" s="264"/>
+      <c r="B43" s="261"/>
+      <c r="C43" s="262"/>
+      <c r="D43" s="263"/>
+      <c r="E43" s="263"/>
+      <c r="F43" s="263"/>
+      <c r="G43" s="262"/>
+      <c r="H43" s="263"/>
+      <c r="I43" s="263"/>
+      <c r="J43" s="263"/>
+      <c r="K43" s="263"/>
+      <c r="L43" s="262"/>
+      <c r="M43" s="263"/>
+      <c r="N43" s="263"/>
+      <c r="O43" s="263"/>
+      <c r="P43" s="263"/>
+      <c r="Q43" s="262"/>
+      <c r="R43" s="263"/>
+      <c r="S43" s="263"/>
+      <c r="T43" s="263"/>
       <c r="U43" s="108"/>
-      <c r="V43" s="240"/>
-      <c r="W43" s="240"/>
-      <c r="X43" s="240"/>
-      <c r="Y43" s="240"/>
-      <c r="Z43" s="240"/>
-      <c r="AA43" s="240"/>
-      <c r="AB43" s="240"/>
-      <c r="AC43" s="264"/>
-      <c r="AD43" s="264"/>
-      <c r="AE43" s="265"/>
+      <c r="V43" s="239"/>
+      <c r="W43" s="239"/>
+      <c r="X43" s="239"/>
+      <c r="Y43" s="239"/>
+      <c r="Z43" s="239"/>
+      <c r="AA43" s="239"/>
+      <c r="AB43" s="239"/>
+      <c r="AC43" s="263"/>
+      <c r="AD43" s="263"/>
+      <c r="AE43" s="264"/>
       <c r="AF43" s="17"/>
     </row>
     <row r="44" spans="1:32" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -4366,78 +4372,78 @@
       <c r="AE44" s="20"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="220" t="s">
+      <c r="A45" s="219" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="247"/>
-      <c r="C45" s="247"/>
-      <c r="D45" s="247"/>
-      <c r="E45" s="247"/>
-      <c r="F45" s="247"/>
-      <c r="G45" s="247"/>
-      <c r="H45" s="247"/>
-      <c r="I45" s="247"/>
-      <c r="J45" s="247"/>
-      <c r="K45" s="247"/>
-      <c r="L45" s="247"/>
-      <c r="M45" s="247"/>
-      <c r="N45" s="247"/>
-      <c r="O45" s="247"/>
-      <c r="P45" s="247"/>
-      <c r="Q45" s="247"/>
-      <c r="R45" s="247"/>
-      <c r="S45" s="247"/>
-      <c r="T45" s="247"/>
-      <c r="U45" s="247"/>
-      <c r="V45" s="247"/>
-      <c r="W45" s="247"/>
-      <c r="X45" s="254" t="s">
+      <c r="B45" s="246"/>
+      <c r="C45" s="246"/>
+      <c r="D45" s="246"/>
+      <c r="E45" s="246"/>
+      <c r="F45" s="246"/>
+      <c r="G45" s="246"/>
+      <c r="H45" s="246"/>
+      <c r="I45" s="246"/>
+      <c r="J45" s="246"/>
+      <c r="K45" s="246"/>
+      <c r="L45" s="246"/>
+      <c r="M45" s="246"/>
+      <c r="N45" s="246"/>
+      <c r="O45" s="246"/>
+      <c r="P45" s="246"/>
+      <c r="Q45" s="246"/>
+      <c r="R45" s="246"/>
+      <c r="S45" s="246"/>
+      <c r="T45" s="246"/>
+      <c r="U45" s="246"/>
+      <c r="V45" s="246"/>
+      <c r="W45" s="246"/>
+      <c r="X45" s="253" t="s">
         <v>88</v>
       </c>
-      <c r="Y45" s="255"/>
-      <c r="Z45" s="256"/>
-      <c r="AA45" s="256"/>
-      <c r="AB45" s="256"/>
-      <c r="AC45" s="256"/>
-      <c r="AD45" s="256"/>
-      <c r="AE45" s="256"/>
+      <c r="Y45" s="254"/>
+      <c r="Z45" s="255"/>
+      <c r="AA45" s="255"/>
+      <c r="AB45" s="255"/>
+      <c r="AC45" s="255"/>
+      <c r="AD45" s="255"/>
+      <c r="AE45" s="255"/>
     </row>
     <row r="46" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="220" t="s">
+      <c r="A46" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="247"/>
-      <c r="C46" s="247"/>
-      <c r="D46" s="247"/>
-      <c r="E46" s="247"/>
-      <c r="F46" s="220" t="s">
+      <c r="B46" s="246"/>
+      <c r="C46" s="246"/>
+      <c r="D46" s="246"/>
+      <c r="E46" s="246"/>
+      <c r="F46" s="219" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="247"/>
-      <c r="H46" s="257" t="s">
+      <c r="G46" s="246"/>
+      <c r="H46" s="256" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="258"/>
-      <c r="J46" s="258"/>
-      <c r="K46" s="259"/>
-      <c r="L46" s="220" t="s">
+      <c r="I46" s="257"/>
+      <c r="J46" s="257"/>
+      <c r="K46" s="258"/>
+      <c r="L46" s="219" t="s">
         <v>92</v>
       </c>
-      <c r="M46" s="247"/>
-      <c r="N46" s="247"/>
-      <c r="O46" s="247"/>
-      <c r="P46" s="247"/>
-      <c r="Q46" s="220" t="s">
+      <c r="M46" s="246"/>
+      <c r="N46" s="246"/>
+      <c r="O46" s="246"/>
+      <c r="P46" s="246"/>
+      <c r="Q46" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="R46" s="247"/>
-      <c r="S46" s="247"/>
-      <c r="T46" s="220" t="s">
+      <c r="R46" s="246"/>
+      <c r="S46" s="246"/>
+      <c r="T46" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="U46" s="247"/>
-      <c r="V46" s="247"/>
-      <c r="W46" s="248"/>
+      <c r="U46" s="246"/>
+      <c r="V46" s="246"/>
+      <c r="W46" s="247"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="78"/>
       <c r="Z46" s="78"/>
@@ -4448,41 +4454,41 @@
       <c r="AE46" s="78"/>
     </row>
     <row r="47" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="221"/>
-      <c r="B47" s="232"/>
-      <c r="C47" s="232"/>
-      <c r="D47" s="232"/>
-      <c r="E47" s="232"/>
-      <c r="F47" s="221"/>
-      <c r="G47" s="232"/>
-      <c r="H47" s="220" t="s">
+      <c r="A47" s="220"/>
+      <c r="B47" s="231"/>
+      <c r="C47" s="231"/>
+      <c r="D47" s="231"/>
+      <c r="E47" s="231"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="231"/>
+      <c r="H47" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="247"/>
-      <c r="J47" s="220" t="s">
+      <c r="I47" s="246"/>
+      <c r="J47" s="219" t="s">
         <v>96</v>
       </c>
-      <c r="K47" s="247"/>
-      <c r="L47" s="220"/>
-      <c r="M47" s="247"/>
-      <c r="N47" s="247"/>
-      <c r="O47" s="247"/>
-      <c r="P47" s="247"/>
-      <c r="Q47" s="220" t="s">
+      <c r="K47" s="246"/>
+      <c r="L47" s="219"/>
+      <c r="M47" s="246"/>
+      <c r="N47" s="246"/>
+      <c r="O47" s="246"/>
+      <c r="P47" s="246"/>
+      <c r="Q47" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="R47" s="247"/>
-      <c r="S47" s="252" t="s">
+      <c r="R47" s="246"/>
+      <c r="S47" s="251" t="s">
         <v>98</v>
       </c>
-      <c r="T47" s="220" t="s">
+      <c r="T47" s="219" t="s">
         <v>99</v>
       </c>
-      <c r="U47" s="247"/>
-      <c r="V47" s="220" t="s">
+      <c r="U47" s="246"/>
+      <c r="V47" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="W47" s="248"/>
+      <c r="W47" s="247"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="86"/>
       <c r="Z47" s="86"/>
@@ -4508,24 +4514,24 @@
       <c r="E48" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="221"/>
-      <c r="G48" s="232"/>
-      <c r="H48" s="221"/>
-      <c r="I48" s="232"/>
-      <c r="J48" s="221"/>
-      <c r="K48" s="232"/>
-      <c r="L48" s="221"/>
-      <c r="M48" s="232"/>
-      <c r="N48" s="232"/>
-      <c r="O48" s="232"/>
-      <c r="P48" s="232"/>
-      <c r="Q48" s="221"/>
-      <c r="R48" s="232"/>
-      <c r="S48" s="260"/>
-      <c r="T48" s="221"/>
-      <c r="U48" s="232"/>
-      <c r="V48" s="221"/>
-      <c r="W48" s="232"/>
+      <c r="F48" s="220"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="220"/>
+      <c r="I48" s="231"/>
+      <c r="J48" s="220"/>
+      <c r="K48" s="231"/>
+      <c r="L48" s="220"/>
+      <c r="M48" s="231"/>
+      <c r="N48" s="231"/>
+      <c r="O48" s="231"/>
+      <c r="P48" s="231"/>
+      <c r="Q48" s="220"/>
+      <c r="R48" s="231"/>
+      <c r="S48" s="259"/>
+      <c r="T48" s="220"/>
+      <c r="U48" s="231"/>
+      <c r="V48" s="220"/>
+      <c r="W48" s="231"/>
       <c r="X48" s="25"/>
       <c r="Y48" s="86"/>
       <c r="Z48" s="86"/>
@@ -4551,40 +4557,40 @@
       <c r="E49" s="29">
         <v>24</v>
       </c>
-      <c r="F49" s="220">
+      <c r="F49" s="219">
         <v>25</v>
       </c>
-      <c r="G49" s="247"/>
-      <c r="H49" s="220">
+      <c r="G49" s="246"/>
+      <c r="H49" s="219">
         <v>26</v>
       </c>
-      <c r="I49" s="247"/>
-      <c r="J49" s="220">
+      <c r="I49" s="246"/>
+      <c r="J49" s="219">
         <v>27</v>
       </c>
-      <c r="K49" s="247"/>
-      <c r="L49" s="220">
+      <c r="K49" s="246"/>
+      <c r="L49" s="219">
         <v>28</v>
       </c>
-      <c r="M49" s="247"/>
-      <c r="N49" s="247"/>
-      <c r="O49" s="247"/>
-      <c r="P49" s="247"/>
-      <c r="Q49" s="220">
+      <c r="M49" s="246"/>
+      <c r="N49" s="246"/>
+      <c r="O49" s="246"/>
+      <c r="P49" s="246"/>
+      <c r="Q49" s="219">
         <v>29</v>
       </c>
-      <c r="R49" s="247"/>
+      <c r="R49" s="246"/>
       <c r="S49" s="29">
         <v>30</v>
       </c>
-      <c r="T49" s="220">
+      <c r="T49" s="219">
         <v>31</v>
       </c>
-      <c r="U49" s="247"/>
-      <c r="V49" s="220">
+      <c r="U49" s="246"/>
+      <c r="V49" s="219">
         <v>32</v>
       </c>
-      <c r="W49" s="248"/>
+      <c r="W49" s="247"/>
       <c r="X49" s="25"/>
       <c r="Y49" s="23"/>
       <c r="Z49" s="23"/>
@@ -4600,24 +4606,24 @@
       <c r="C50" s="108"/>
       <c r="D50" s="108"/>
       <c r="E50" s="108"/>
-      <c r="F50" s="240"/>
-      <c r="G50" s="240"/>
-      <c r="H50" s="240"/>
-      <c r="I50" s="240"/>
-      <c r="J50" s="240"/>
-      <c r="K50" s="240"/>
-      <c r="L50" s="240"/>
-      <c r="M50" s="240"/>
-      <c r="N50" s="240"/>
-      <c r="O50" s="240"/>
-      <c r="P50" s="240"/>
-      <c r="Q50" s="240"/>
-      <c r="R50" s="240"/>
+      <c r="F50" s="239"/>
+      <c r="G50" s="239"/>
+      <c r="H50" s="239"/>
+      <c r="I50" s="239"/>
+      <c r="J50" s="239"/>
+      <c r="K50" s="239"/>
+      <c r="L50" s="239"/>
+      <c r="M50" s="239"/>
+      <c r="N50" s="239"/>
+      <c r="O50" s="239"/>
+      <c r="P50" s="239"/>
+      <c r="Q50" s="239"/>
+      <c r="R50" s="239"/>
       <c r="S50" s="108"/>
-      <c r="T50" s="240"/>
-      <c r="U50" s="240"/>
-      <c r="V50" s="240"/>
-      <c r="W50" s="240"/>
+      <c r="T50" s="239"/>
+      <c r="U50" s="239"/>
+      <c r="V50" s="239"/>
+      <c r="W50" s="239"/>
       <c r="X50" s="107"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="2"/>
@@ -4661,47 +4667,47 @@
       <c r="AE51" s="1"/>
     </row>
     <row r="52" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="220" t="s">
+      <c r="A52" s="219" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="247"/>
-      <c r="C52" s="247"/>
-      <c r="D52" s="247"/>
-      <c r="E52" s="220" t="s">
+      <c r="B52" s="246"/>
+      <c r="C52" s="246"/>
+      <c r="D52" s="246"/>
+      <c r="E52" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="F52" s="247"/>
-      <c r="G52" s="220" t="s">
+      <c r="F52" s="246"/>
+      <c r="G52" s="219" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="247"/>
-      <c r="I52" s="220" t="s">
+      <c r="H52" s="246"/>
+      <c r="I52" s="219" t="s">
         <v>109</v>
       </c>
-      <c r="J52" s="247"/>
-      <c r="K52" s="247"/>
-      <c r="L52" s="220" t="s">
+      <c r="J52" s="246"/>
+      <c r="K52" s="246"/>
+      <c r="L52" s="219" t="s">
         <v>110</v>
       </c>
-      <c r="M52" s="247"/>
-      <c r="N52" s="220" t="s">
+      <c r="M52" s="246"/>
+      <c r="N52" s="219" t="s">
         <v>111</v>
       </c>
-      <c r="O52" s="247"/>
-      <c r="P52" s="249" t="s">
+      <c r="O52" s="246"/>
+      <c r="P52" s="248" t="s">
         <v>153</v>
       </c>
-      <c r="Q52" s="250"/>
-      <c r="R52" s="250"/>
-      <c r="S52" s="251"/>
-      <c r="T52" s="252" t="s">
+      <c r="Q52" s="249"/>
+      <c r="R52" s="249"/>
+      <c r="S52" s="250"/>
+      <c r="T52" s="251" t="s">
         <v>154</v>
       </c>
-      <c r="U52" s="220" t="s">
+      <c r="U52" s="219" t="s">
         <v>112</v>
       </c>
-      <c r="V52" s="247"/>
-      <c r="W52" s="220" t="s">
+      <c r="V52" s="246"/>
+      <c r="W52" s="219" t="s">
         <v>113</v>
       </c>
       <c r="X52" s="24"/>
@@ -4714,33 +4720,33 @@
       <c r="AE52" s="5"/>
     </row>
     <row r="53" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="221"/>
-      <c r="B53" s="232"/>
-      <c r="C53" s="232"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="221"/>
-      <c r="F53" s="232"/>
-      <c r="G53" s="221"/>
-      <c r="H53" s="232"/>
-      <c r="I53" s="221"/>
-      <c r="J53" s="232"/>
-      <c r="K53" s="232"/>
-      <c r="L53" s="221"/>
-      <c r="M53" s="232"/>
-      <c r="N53" s="221"/>
-      <c r="O53" s="232"/>
-      <c r="P53" s="220" t="s">
+      <c r="A53" s="220"/>
+      <c r="B53" s="231"/>
+      <c r="C53" s="231"/>
+      <c r="D53" s="231"/>
+      <c r="E53" s="220"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="220"/>
+      <c r="H53" s="231"/>
+      <c r="I53" s="220"/>
+      <c r="J53" s="231"/>
+      <c r="K53" s="231"/>
+      <c r="L53" s="220"/>
+      <c r="M53" s="231"/>
+      <c r="N53" s="220"/>
+      <c r="O53" s="231"/>
+      <c r="P53" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="Q53" s="247"/>
-      <c r="R53" s="220" t="s">
+      <c r="Q53" s="246"/>
+      <c r="R53" s="219" t="s">
         <v>115</v>
       </c>
-      <c r="S53" s="248"/>
-      <c r="T53" s="253"/>
-      <c r="U53" s="221"/>
-      <c r="V53" s="232"/>
-      <c r="W53" s="221"/>
+      <c r="S53" s="247"/>
+      <c r="T53" s="252"/>
+      <c r="U53" s="220"/>
+      <c r="V53" s="231"/>
+      <c r="W53" s="220"/>
       <c r="X53" s="24"/>
       <c r="Y53" s="78"/>
       <c r="Z53" s="78"/>
@@ -4751,46 +4757,46 @@
       <c r="AE53" s="78"/>
     </row>
     <row r="54" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="221"/>
-      <c r="B54" s="232"/>
-      <c r="C54" s="232"/>
-      <c r="D54" s="232"/>
-      <c r="E54" s="220">
+      <c r="A54" s="220"/>
+      <c r="B54" s="231"/>
+      <c r="C54" s="231"/>
+      <c r="D54" s="231"/>
+      <c r="E54" s="219">
         <v>33</v>
       </c>
-      <c r="F54" s="247"/>
-      <c r="G54" s="220">
+      <c r="F54" s="246"/>
+      <c r="G54" s="219">
         <v>34</v>
       </c>
-      <c r="H54" s="247"/>
-      <c r="I54" s="220">
+      <c r="H54" s="246"/>
+      <c r="I54" s="219">
         <v>35</v>
       </c>
-      <c r="J54" s="247"/>
-      <c r="K54" s="247"/>
-      <c r="L54" s="220">
+      <c r="J54" s="246"/>
+      <c r="K54" s="246"/>
+      <c r="L54" s="219">
         <v>36</v>
       </c>
-      <c r="M54" s="247"/>
-      <c r="N54" s="220">
+      <c r="M54" s="246"/>
+      <c r="N54" s="219">
         <v>37</v>
       </c>
-      <c r="O54" s="247"/>
-      <c r="P54" s="220">
+      <c r="O54" s="246"/>
+      <c r="P54" s="219">
         <v>38</v>
       </c>
-      <c r="Q54" s="247"/>
-      <c r="R54" s="220">
+      <c r="Q54" s="246"/>
+      <c r="R54" s="219">
         <v>39</v>
       </c>
-      <c r="S54" s="247"/>
+      <c r="S54" s="246"/>
       <c r="T54" s="30">
         <v>40</v>
       </c>
-      <c r="U54" s="220">
+      <c r="U54" s="219">
         <v>41</v>
       </c>
-      <c r="V54" s="247"/>
+      <c r="V54" s="246"/>
       <c r="W54" s="29">
         <v>42</v>
       </c>
@@ -4804,30 +4810,30 @@
       <c r="AE54" s="86"/>
     </row>
     <row r="55" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="243" t="s">
+      <c r="A55" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="244"/>
-      <c r="C55" s="244"/>
-      <c r="D55" s="245"/>
-      <c r="E55" s="240"/>
-      <c r="F55" s="240"/>
-      <c r="G55" s="240"/>
-      <c r="H55" s="240"/>
-      <c r="I55" s="240"/>
-      <c r="J55" s="240"/>
-      <c r="K55" s="240"/>
-      <c r="L55" s="240"/>
-      <c r="M55" s="240"/>
-      <c r="N55" s="240"/>
-      <c r="O55" s="240"/>
-      <c r="P55" s="240"/>
-      <c r="Q55" s="240"/>
-      <c r="R55" s="240"/>
-      <c r="S55" s="240"/>
+      <c r="B55" s="243"/>
+      <c r="C55" s="243"/>
+      <c r="D55" s="244"/>
+      <c r="E55" s="239"/>
+      <c r="F55" s="239"/>
+      <c r="G55" s="239"/>
+      <c r="H55" s="239"/>
+      <c r="I55" s="239"/>
+      <c r="J55" s="239"/>
+      <c r="K55" s="239"/>
+      <c r="L55" s="239"/>
+      <c r="M55" s="239"/>
+      <c r="N55" s="239"/>
+      <c r="O55" s="239"/>
+      <c r="P55" s="239"/>
+      <c r="Q55" s="239"/>
+      <c r="R55" s="239"/>
+      <c r="S55" s="239"/>
       <c r="T55" s="108"/>
-      <c r="U55" s="240"/>
-      <c r="V55" s="240"/>
+      <c r="U55" s="239"/>
+      <c r="V55" s="239"/>
       <c r="W55" s="108"/>
       <c r="X55" s="107"/>
       <c r="Y55" s="87"/>
@@ -4839,35 +4845,35 @@
       <c r="AE55" s="87"/>
     </row>
     <row r="56" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="243" t="s">
+      <c r="A56" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="244"/>
-      <c r="C56" s="244"/>
-      <c r="D56" s="245"/>
-      <c r="E56" s="240"/>
-      <c r="F56" s="240"/>
-      <c r="G56" s="240"/>
-      <c r="H56" s="240"/>
-      <c r="I56" s="240"/>
-      <c r="J56" s="240"/>
-      <c r="K56" s="240"/>
-      <c r="L56" s="240"/>
-      <c r="M56" s="240"/>
-      <c r="N56" s="240"/>
-      <c r="O56" s="240"/>
-      <c r="P56" s="240"/>
-      <c r="Q56" s="240"/>
-      <c r="R56" s="240"/>
-      <c r="S56" s="240"/>
+      <c r="B56" s="243"/>
+      <c r="C56" s="243"/>
+      <c r="D56" s="244"/>
+      <c r="E56" s="239"/>
+      <c r="F56" s="239"/>
+      <c r="G56" s="239"/>
+      <c r="H56" s="239"/>
+      <c r="I56" s="239"/>
+      <c r="J56" s="239"/>
+      <c r="K56" s="239"/>
+      <c r="L56" s="239"/>
+      <c r="M56" s="239"/>
+      <c r="N56" s="239"/>
+      <c r="O56" s="239"/>
+      <c r="P56" s="239"/>
+      <c r="Q56" s="239"/>
+      <c r="R56" s="239"/>
+      <c r="S56" s="239"/>
       <c r="T56" s="108"/>
-      <c r="U56" s="240"/>
-      <c r="V56" s="240"/>
+      <c r="U56" s="239"/>
+      <c r="V56" s="239"/>
       <c r="W56" s="108"/>
-      <c r="X56" s="246" t="s">
+      <c r="X56" s="245" t="s">
         <v>118</v>
       </c>
-      <c r="Y56" s="235"/>
+      <c r="Y56" s="234"/>
       <c r="Z56" s="88"/>
       <c r="AA56" s="88"/>
       <c r="AB56" s="88"/>
@@ -4876,43 +4882,43 @@
       <c r="AE56" s="88"/>
     </row>
     <row r="57" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="243" t="s">
+      <c r="A57" s="242" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="244"/>
-      <c r="C57" s="244"/>
-      <c r="D57" s="245"/>
-      <c r="E57" s="240"/>
-      <c r="F57" s="240"/>
-      <c r="G57" s="240"/>
-      <c r="H57" s="240"/>
-      <c r="I57" s="240"/>
-      <c r="J57" s="240"/>
-      <c r="K57" s="240"/>
-      <c r="L57" s="240"/>
-      <c r="M57" s="240"/>
-      <c r="N57" s="240"/>
-      <c r="O57" s="240"/>
-      <c r="P57" s="240"/>
-      <c r="Q57" s="240"/>
-      <c r="R57" s="240"/>
-      <c r="S57" s="240"/>
+      <c r="B57" s="243"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="244"/>
+      <c r="E57" s="239"/>
+      <c r="F57" s="239"/>
+      <c r="G57" s="239"/>
+      <c r="H57" s="239"/>
+      <c r="I57" s="239"/>
+      <c r="J57" s="239"/>
+      <c r="K57" s="239"/>
+      <c r="L57" s="239"/>
+      <c r="M57" s="239"/>
+      <c r="N57" s="239"/>
+      <c r="O57" s="239"/>
+      <c r="P57" s="239"/>
+      <c r="Q57" s="239"/>
+      <c r="R57" s="239"/>
+      <c r="S57" s="239"/>
       <c r="T57" s="108"/>
-      <c r="U57" s="240"/>
-      <c r="V57" s="240"/>
+      <c r="U57" s="239"/>
+      <c r="V57" s="239"/>
       <c r="W57" s="108"/>
       <c r="X57" s="110"/>
       <c r="Y57" s="111"/>
-      <c r="Z57" s="241" t="s">
+      <c r="Z57" s="240" t="s">
         <v>68</v>
       </c>
-      <c r="AA57" s="241"/>
-      <c r="AB57" s="241" t="s">
+      <c r="AA57" s="240"/>
+      <c r="AB57" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="AC57" s="241"/>
-      <c r="AD57" s="241"/>
-      <c r="AE57" s="241"/>
+      <c r="AC57" s="240"/>
+      <c r="AD57" s="240"/>
+      <c r="AE57" s="240"/>
     </row>
     <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
@@ -4932,14 +4938,14 @@
       <c r="O58" s="44"/>
       <c r="P58" s="44"/>
       <c r="Q58" s="44"/>
-      <c r="R58" s="242"/>
-      <c r="S58" s="242"/>
-      <c r="T58" s="242"/>
-      <c r="U58" s="242"/>
-      <c r="V58" s="242"/>
-      <c r="W58" s="242"/>
-      <c r="X58" s="242"/>
-      <c r="Y58" s="242"/>
+      <c r="R58" s="241"/>
+      <c r="S58" s="241"/>
+      <c r="T58" s="241"/>
+      <c r="U58" s="241"/>
+      <c r="V58" s="241"/>
+      <c r="W58" s="241"/>
+      <c r="X58" s="241"/>
+      <c r="Y58" s="241"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
       <c r="AB58" s="1"/>
@@ -4968,15 +4974,15 @@
       <c r="R59" s="12"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-      <c r="U59" s="238" t="s">
+      <c r="U59" s="237" t="s">
         <v>121</v>
       </c>
-      <c r="V59" s="239"/>
-      <c r="W59" s="239"/>
-      <c r="X59" s="239"/>
-      <c r="Y59" s="239"/>
-      <c r="Z59" s="239"/>
-      <c r="AA59" s="239"/>
+      <c r="V59" s="238"/>
+      <c r="W59" s="238"/>
+      <c r="X59" s="238"/>
+      <c r="Y59" s="238"/>
+      <c r="Z59" s="238"/>
+      <c r="AA59" s="238"/>
       <c r="AB59" s="14"/>
       <c r="AC59" s="14"/>
       <c r="AD59" s="14"/>
@@ -5003,18 +5009,18 @@
       <c r="R60" s="12"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="U60" s="238" t="s">
+      <c r="U60" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="V60" s="239"/>
-      <c r="W60" s="239"/>
-      <c r="X60" s="239"/>
-      <c r="Y60" s="239"/>
-      <c r="Z60" s="239"/>
-      <c r="AA60" s="239"/>
-      <c r="AB60" s="239"/>
-      <c r="AC60" s="239"/>
-      <c r="AD60" s="239"/>
+      <c r="V60" s="238"/>
+      <c r="W60" s="238"/>
+      <c r="X60" s="238"/>
+      <c r="Y60" s="238"/>
+      <c r="Z60" s="238"/>
+      <c r="AA60" s="238"/>
+      <c r="AB60" s="238"/>
+      <c r="AC60" s="238"/>
+      <c r="AD60" s="238"/>
       <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5038,18 +5044,18 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="238" t="s">
+      <c r="U61" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="V61" s="239"/>
-      <c r="W61" s="239"/>
-      <c r="X61" s="239"/>
-      <c r="Y61" s="239"/>
-      <c r="Z61" s="239"/>
-      <c r="AA61" s="239"/>
-      <c r="AB61" s="239"/>
-      <c r="AC61" s="239"/>
-      <c r="AD61" s="239"/>
+      <c r="V61" s="238"/>
+      <c r="W61" s="238"/>
+      <c r="X61" s="238"/>
+      <c r="Y61" s="238"/>
+      <c r="Z61" s="238"/>
+      <c r="AA61" s="238"/>
+      <c r="AB61" s="238"/>
+      <c r="AC61" s="238"/>
+      <c r="AD61" s="238"/>
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:32" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5145,11 +5151,11 @@
       <c r="U64" s="14"/>
       <c r="V64" s="14"/>
       <c r="W64" s="14"/>
-      <c r="X64" s="223" t="s">
+      <c r="X64" s="222" t="s">
         <v>124</v>
       </c>
-      <c r="Y64" s="223"/>
-      <c r="Z64" s="223"/>
+      <c r="Y64" s="222"/>
+      <c r="Z64" s="222"/>
       <c r="AA64" s="14"/>
       <c r="AB64" s="125"/>
       <c r="AC64" s="145" t="s">
@@ -5161,33 +5167,33 @@
     </row>
     <row r="65" spans="1:32" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="231" t="s">
+      <c r="B65" s="230" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="231"/>
-      <c r="D65" s="231"/>
-      <c r="E65" s="231"/>
-      <c r="F65" s="231"/>
-      <c r="G65" s="231"/>
-      <c r="H65" s="231"/>
-      <c r="I65" s="231"/>
-      <c r="J65" s="231"/>
-      <c r="K65" s="231"/>
-      <c r="L65" s="231"/>
-      <c r="M65" s="231"/>
-      <c r="N65" s="231"/>
-      <c r="O65" s="231"/>
-      <c r="P65" s="231"/>
-      <c r="Q65" s="231"/>
-      <c r="R65" s="231"/>
-      <c r="S65" s="231"/>
-      <c r="T65" s="231"/>
-      <c r="U65" s="231"/>
-      <c r="V65" s="231"/>
-      <c r="W65" s="231"/>
-      <c r="X65" s="231"/>
-      <c r="Y65" s="231"/>
-      <c r="Z65" s="231"/>
+      <c r="C65" s="230"/>
+      <c r="D65" s="230"/>
+      <c r="E65" s="230"/>
+      <c r="F65" s="230"/>
+      <c r="G65" s="230"/>
+      <c r="H65" s="230"/>
+      <c r="I65" s="230"/>
+      <c r="J65" s="230"/>
+      <c r="K65" s="230"/>
+      <c r="L65" s="230"/>
+      <c r="M65" s="230"/>
+      <c r="N65" s="230"/>
+      <c r="O65" s="230"/>
+      <c r="P65" s="230"/>
+      <c r="Q65" s="230"/>
+      <c r="R65" s="230"/>
+      <c r="S65" s="230"/>
+      <c r="T65" s="230"/>
+      <c r="U65" s="230"/>
+      <c r="V65" s="230"/>
+      <c r="W65" s="230"/>
+      <c r="X65" s="230"/>
+      <c r="Y65" s="230"/>
+      <c r="Z65" s="230"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="128"/>
       <c r="AC65" s="146"/>
@@ -5214,18 +5220,18 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="232" t="s">
+      <c r="S66" s="231" t="s">
         <v>126</v>
       </c>
-      <c r="T66" s="232"/>
+      <c r="T66" s="231"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
-      <c r="W66" s="233" t="s">
+      <c r="W66" s="232" t="s">
         <v>127</v>
       </c>
-      <c r="X66" s="234"/>
-      <c r="Y66" s="234"/>
-      <c r="Z66" s="234"/>
+      <c r="X66" s="233"/>
+      <c r="Y66" s="233"/>
+      <c r="Z66" s="233"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="130"/>
       <c r="AC66" s="151"/>
@@ -5256,10 +5262,10 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="234"/>
-      <c r="X67" s="234"/>
-      <c r="Y67" s="234"/>
-      <c r="Z67" s="234"/>
+      <c r="W67" s="233"/>
+      <c r="X67" s="233"/>
+      <c r="Y67" s="233"/>
+      <c r="Z67" s="233"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="133"/>
       <c r="AC67" s="134"/>
@@ -5268,38 +5274,38 @@
       <c r="AF67" s="18"/>
     </row>
     <row r="68" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="222" t="s">
+      <c r="A68" s="221" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="222"/>
-      <c r="C68" s="222"/>
-      <c r="D68" s="222"/>
-      <c r="E68" s="226" t="s">
+      <c r="B68" s="221"/>
+      <c r="C68" s="221"/>
+      <c r="D68" s="221"/>
+      <c r="E68" s="225" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="235"/>
-      <c r="G68" s="235"/>
-      <c r="H68" s="235"/>
-      <c r="I68" s="235"/>
-      <c r="J68" s="235"/>
-      <c r="K68" s="235"/>
-      <c r="L68" s="235"/>
-      <c r="M68" s="235"/>
-      <c r="N68" s="235"/>
-      <c r="O68" s="235"/>
-      <c r="P68" s="235"/>
-      <c r="Q68" s="235"/>
-      <c r="R68" s="235"/>
-      <c r="S68" s="236"/>
-      <c r="T68" s="236"/>
-      <c r="U68" s="236"/>
-      <c r="V68" s="236"/>
-      <c r="W68" s="235"/>
-      <c r="X68" s="237"/>
-      <c r="Y68" s="223" t="s">
+      <c r="F68" s="234"/>
+      <c r="G68" s="234"/>
+      <c r="H68" s="234"/>
+      <c r="I68" s="234"/>
+      <c r="J68" s="234"/>
+      <c r="K68" s="234"/>
+      <c r="L68" s="234"/>
+      <c r="M68" s="234"/>
+      <c r="N68" s="234"/>
+      <c r="O68" s="234"/>
+      <c r="P68" s="234"/>
+      <c r="Q68" s="234"/>
+      <c r="R68" s="234"/>
+      <c r="S68" s="235"/>
+      <c r="T68" s="235"/>
+      <c r="U68" s="235"/>
+      <c r="V68" s="235"/>
+      <c r="W68" s="234"/>
+      <c r="X68" s="236"/>
+      <c r="Y68" s="222" t="s">
         <v>129</v>
       </c>
-      <c r="Z68" s="223"/>
+      <c r="Z68" s="222"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="130"/>
       <c r="AC68" s="131"/>
@@ -5308,10 +5314,10 @@
       <c r="AF68" s="18"/>
     </row>
     <row r="69" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="226"/>
-      <c r="B69" s="226"/>
-      <c r="C69" s="226"/>
-      <c r="D69" s="226"/>
+      <c r="A69" s="225"/>
+      <c r="B69" s="225"/>
+      <c r="C69" s="225"/>
+      <c r="D69" s="225"/>
       <c r="E69" s="31"/>
       <c r="F69" s="119"/>
       <c r="G69" s="119"/>
@@ -5344,36 +5350,36 @@
       <c r="AF69" s="18"/>
     </row>
     <row r="70" spans="1:32" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="222" t="s">
+      <c r="A70" s="221" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="222"/>
-      <c r="C70" s="222"/>
-      <c r="D70" s="222"/>
-      <c r="E70" s="227"/>
-      <c r="F70" s="228"/>
-      <c r="G70" s="228"/>
-      <c r="H70" s="228"/>
-      <c r="I70" s="228"/>
-      <c r="J70" s="228"/>
-      <c r="K70" s="229"/>
-      <c r="L70" s="229"/>
-      <c r="M70" s="229"/>
-      <c r="N70" s="229"/>
-      <c r="O70" s="229"/>
-      <c r="P70" s="229"/>
-      <c r="Q70" s="229"/>
-      <c r="R70" s="229"/>
-      <c r="S70" s="229"/>
-      <c r="T70" s="229"/>
-      <c r="U70" s="228"/>
-      <c r="V70" s="228"/>
-      <c r="W70" s="230"/>
-      <c r="X70" s="230"/>
-      <c r="Y70" s="223" t="s">
+      <c r="B70" s="221"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
+      <c r="E70" s="226"/>
+      <c r="F70" s="227"/>
+      <c r="G70" s="227"/>
+      <c r="H70" s="227"/>
+      <c r="I70" s="227"/>
+      <c r="J70" s="227"/>
+      <c r="K70" s="228"/>
+      <c r="L70" s="228"/>
+      <c r="M70" s="228"/>
+      <c r="N70" s="228"/>
+      <c r="O70" s="228"/>
+      <c r="P70" s="228"/>
+      <c r="Q70" s="228"/>
+      <c r="R70" s="228"/>
+      <c r="S70" s="228"/>
+      <c r="T70" s="228"/>
+      <c r="U70" s="227"/>
+      <c r="V70" s="227"/>
+      <c r="W70" s="229"/>
+      <c r="X70" s="229"/>
+      <c r="Y70" s="222" t="s">
         <v>129</v>
       </c>
-      <c r="Z70" s="223"/>
+      <c r="Z70" s="222"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="130"/>
       <c r="AC70" s="131"/>
@@ -5408,8 +5414,8 @@
       <c r="V71" s="119"/>
       <c r="W71" s="32"/>
       <c r="X71" s="32"/>
-      <c r="Y71" s="223"/>
-      <c r="Z71" s="223"/>
+      <c r="Y71" s="222"/>
+      <c r="Z71" s="222"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="133"/>
       <c r="AC71" s="134"/>
@@ -5418,36 +5424,36 @@
       <c r="AF71" s="18"/>
     </row>
     <row r="72" spans="1:32" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="222" t="s">
+      <c r="A72" s="221" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="222"/>
-      <c r="C72" s="222"/>
+      <c r="B72" s="221"/>
+      <c r="C72" s="221"/>
       <c r="D72" s="150"/>
-      <c r="E72" s="224"/>
-      <c r="F72" s="224"/>
-      <c r="G72" s="224"/>
-      <c r="H72" s="224"/>
-      <c r="I72" s="224"/>
-      <c r="J72" s="224"/>
-      <c r="K72" s="224"/>
-      <c r="L72" s="224"/>
-      <c r="M72" s="224"/>
-      <c r="N72" s="224"/>
-      <c r="O72" s="224"/>
-      <c r="P72" s="224"/>
-      <c r="Q72" s="224"/>
-      <c r="R72" s="224"/>
-      <c r="S72" s="224"/>
-      <c r="T72" s="224"/>
-      <c r="U72" s="224"/>
-      <c r="V72" s="224"/>
-      <c r="W72" s="224"/>
-      <c r="X72" s="224"/>
-      <c r="Y72" s="223" t="s">
+      <c r="E72" s="223"/>
+      <c r="F72" s="223"/>
+      <c r="G72" s="223"/>
+      <c r="H72" s="223"/>
+      <c r="I72" s="223"/>
+      <c r="J72" s="223"/>
+      <c r="K72" s="223"/>
+      <c r="L72" s="223"/>
+      <c r="M72" s="223"/>
+      <c r="N72" s="223"/>
+      <c r="O72" s="223"/>
+      <c r="P72" s="223"/>
+      <c r="Q72" s="223"/>
+      <c r="R72" s="223"/>
+      <c r="S72" s="223"/>
+      <c r="T72" s="223"/>
+      <c r="U72" s="223"/>
+      <c r="V72" s="223"/>
+      <c r="W72" s="223"/>
+      <c r="X72" s="223"/>
+      <c r="Y72" s="222" t="s">
         <v>129</v>
       </c>
-      <c r="Z72" s="223"/>
+      <c r="Z72" s="222"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="138"/>
       <c r="AC72" s="139"/>
@@ -5491,200 +5497,200 @@
       <c r="AE73" s="22"/>
     </row>
     <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="225" t="s">
+      <c r="A74" s="224" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="225"/>
-      <c r="C74" s="225"/>
-      <c r="D74" s="225"/>
-      <c r="E74" s="225"/>
-      <c r="F74" s="225"/>
-      <c r="G74" s="225"/>
-      <c r="H74" s="225"/>
-      <c r="I74" s="225"/>
-      <c r="J74" s="225"/>
-      <c r="K74" s="225"/>
-      <c r="L74" s="225"/>
-      <c r="M74" s="225"/>
-      <c r="N74" s="225"/>
-      <c r="O74" s="225"/>
-      <c r="P74" s="225"/>
-      <c r="Q74" s="225"/>
-      <c r="R74" s="225"/>
-      <c r="S74" s="225"/>
-      <c r="T74" s="225"/>
-      <c r="U74" s="225"/>
-      <c r="V74" s="225"/>
-      <c r="W74" s="225"/>
-      <c r="X74" s="225"/>
-      <c r="Y74" s="225"/>
-      <c r="Z74" s="225"/>
-      <c r="AA74" s="225"/>
-      <c r="AB74" s="225"/>
-      <c r="AC74" s="225"/>
-      <c r="AD74" s="225"/>
-      <c r="AE74" s="225"/>
+      <c r="B74" s="224"/>
+      <c r="C74" s="224"/>
+      <c r="D74" s="224"/>
+      <c r="E74" s="224"/>
+      <c r="F74" s="224"/>
+      <c r="G74" s="224"/>
+      <c r="H74" s="224"/>
+      <c r="I74" s="224"/>
+      <c r="J74" s="224"/>
+      <c r="K74" s="224"/>
+      <c r="L74" s="224"/>
+      <c r="M74" s="224"/>
+      <c r="N74" s="224"/>
+      <c r="O74" s="224"/>
+      <c r="P74" s="224"/>
+      <c r="Q74" s="224"/>
+      <c r="R74" s="224"/>
+      <c r="S74" s="224"/>
+      <c r="T74" s="224"/>
+      <c r="U74" s="224"/>
+      <c r="V74" s="224"/>
+      <c r="W74" s="224"/>
+      <c r="X74" s="224"/>
+      <c r="Y74" s="224"/>
+      <c r="Z74" s="224"/>
+      <c r="AA74" s="224"/>
+      <c r="AB74" s="224"/>
+      <c r="AC74" s="224"/>
+      <c r="AD74" s="224"/>
+      <c r="AE74" s="224"/>
     </row>
     <row r="75" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="220" t="s">
+      <c r="A75" s="219" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="214" t="s">
+      <c r="B75" s="213" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="215"/>
-      <c r="D75" s="215"/>
-      <c r="E75" s="215"/>
-      <c r="F75" s="214" t="s">
+      <c r="C75" s="214"/>
+      <c r="D75" s="214"/>
+      <c r="E75" s="214"/>
+      <c r="F75" s="213" t="s">
         <v>136</v>
       </c>
-      <c r="G75" s="215"/>
-      <c r="H75" s="215"/>
-      <c r="I75" s="215"/>
-      <c r="J75" s="214" t="s">
+      <c r="G75" s="214"/>
+      <c r="H75" s="214"/>
+      <c r="I75" s="214"/>
+      <c r="J75" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="K75" s="215"/>
-      <c r="L75" s="214" t="s">
+      <c r="K75" s="214"/>
+      <c r="L75" s="213" t="s">
         <v>137</v>
       </c>
-      <c r="M75" s="215"/>
-      <c r="N75" s="214" t="s">
+      <c r="M75" s="214"/>
+      <c r="N75" s="213" t="s">
         <v>138</v>
       </c>
-      <c r="O75" s="215"/>
-      <c r="P75" s="215"/>
-      <c r="Q75" s="215"/>
-      <c r="R75" s="215"/>
-      <c r="S75" s="215"/>
+      <c r="O75" s="214"/>
+      <c r="P75" s="214"/>
+      <c r="Q75" s="214"/>
+      <c r="R75" s="214"/>
+      <c r="S75" s="214"/>
       <c r="T75" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="U75" s="214" t="s">
+      <c r="U75" s="213" t="s">
         <v>140</v>
       </c>
-      <c r="V75" s="215"/>
-      <c r="W75" s="214" t="s">
+      <c r="V75" s="214"/>
+      <c r="W75" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="X75" s="215"/>
-      <c r="Y75" s="214" t="s">
+      <c r="X75" s="214"/>
+      <c r="Y75" s="213" t="s">
         <v>141</v>
       </c>
-      <c r="Z75" s="215"/>
-      <c r="AA75" s="214" t="s">
+      <c r="Z75" s="214"/>
+      <c r="AA75" s="213" t="s">
         <v>142</v>
       </c>
-      <c r="AB75" s="215"/>
-      <c r="AC75" s="215"/>
-      <c r="AD75" s="214" t="s">
+      <c r="AB75" s="214"/>
+      <c r="AC75" s="214"/>
+      <c r="AD75" s="213" t="s">
         <v>143</v>
       </c>
-      <c r="AE75" s="215"/>
+      <c r="AE75" s="214"/>
       <c r="AF75" s="17"/>
     </row>
     <row r="76" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="221"/>
-      <c r="B76" s="216"/>
-      <c r="C76" s="217"/>
-      <c r="D76" s="217"/>
-      <c r="E76" s="217"/>
-      <c r="F76" s="216"/>
-      <c r="G76" s="217"/>
-      <c r="H76" s="217"/>
-      <c r="I76" s="217"/>
-      <c r="J76" s="216"/>
-      <c r="K76" s="217"/>
-      <c r="L76" s="214" t="s">
+      <c r="A76" s="220"/>
+      <c r="B76" s="215"/>
+      <c r="C76" s="216"/>
+      <c r="D76" s="216"/>
+      <c r="E76" s="216"/>
+      <c r="F76" s="215"/>
+      <c r="G76" s="216"/>
+      <c r="H76" s="216"/>
+      <c r="I76" s="216"/>
+      <c r="J76" s="215"/>
+      <c r="K76" s="216"/>
+      <c r="L76" s="213" t="s">
         <v>144</v>
       </c>
-      <c r="M76" s="215"/>
-      <c r="N76" s="214"/>
-      <c r="O76" s="215"/>
-      <c r="P76" s="215"/>
-      <c r="Q76" s="215"/>
-      <c r="R76" s="215"/>
-      <c r="S76" s="215"/>
+      <c r="M76" s="214"/>
+      <c r="N76" s="213"/>
+      <c r="O76" s="214"/>
+      <c r="P76" s="214"/>
+      <c r="Q76" s="214"/>
+      <c r="R76" s="214"/>
+      <c r="S76" s="214"/>
       <c r="T76" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="U76" s="214" t="s">
+      <c r="U76" s="213" t="s">
         <v>146</v>
       </c>
-      <c r="V76" s="215"/>
-      <c r="W76" s="214" t="s">
+      <c r="V76" s="214"/>
+      <c r="W76" s="213" t="s">
         <v>53</v>
       </c>
-      <c r="X76" s="215"/>
-      <c r="Y76" s="214" t="s">
+      <c r="X76" s="214"/>
+      <c r="Y76" s="213" t="s">
         <v>147</v>
       </c>
-      <c r="Z76" s="215"/>
-      <c r="AA76" s="214" t="s">
+      <c r="Z76" s="214"/>
+      <c r="AA76" s="213" t="s">
         <v>148</v>
       </c>
-      <c r="AB76" s="215"/>
-      <c r="AC76" s="218"/>
-      <c r="AD76" s="216"/>
-      <c r="AE76" s="217"/>
+      <c r="AB76" s="214"/>
+      <c r="AC76" s="217"/>
+      <c r="AD76" s="215"/>
+      <c r="AE76" s="216"/>
       <c r="AF76" s="17"/>
     </row>
     <row r="77" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
         <v>1</v>
       </c>
-      <c r="B77" s="212">
+      <c r="B77" s="211">
         <v>2</v>
       </c>
-      <c r="C77" s="213"/>
-      <c r="D77" s="213"/>
-      <c r="E77" s="213"/>
-      <c r="F77" s="212">
+      <c r="C77" s="212"/>
+      <c r="D77" s="212"/>
+      <c r="E77" s="212"/>
+      <c r="F77" s="211">
         <v>3</v>
       </c>
-      <c r="G77" s="213"/>
-      <c r="H77" s="213"/>
-      <c r="I77" s="213"/>
-      <c r="J77" s="212">
+      <c r="G77" s="212"/>
+      <c r="H77" s="212"/>
+      <c r="I77" s="212"/>
+      <c r="J77" s="211">
         <v>4</v>
       </c>
-      <c r="K77" s="213"/>
-      <c r="L77" s="212">
+      <c r="K77" s="212"/>
+      <c r="L77" s="211">
         <v>5</v>
       </c>
-      <c r="M77" s="213"/>
-      <c r="N77" s="212">
+      <c r="M77" s="212"/>
+      <c r="N77" s="211">
         <v>6</v>
       </c>
-      <c r="O77" s="213"/>
-      <c r="P77" s="213"/>
-      <c r="Q77" s="213"/>
-      <c r="R77" s="213"/>
-      <c r="S77" s="213"/>
+      <c r="O77" s="212"/>
+      <c r="P77" s="212"/>
+      <c r="Q77" s="212"/>
+      <c r="R77" s="212"/>
+      <c r="S77" s="212"/>
       <c r="T77" s="34">
         <v>7</v>
       </c>
-      <c r="U77" s="212">
+      <c r="U77" s="211">
         <v>8</v>
       </c>
-      <c r="V77" s="213"/>
-      <c r="W77" s="212">
+      <c r="V77" s="212"/>
+      <c r="W77" s="211">
         <v>9</v>
       </c>
-      <c r="X77" s="213"/>
-      <c r="Y77" s="212">
+      <c r="X77" s="212"/>
+      <c r="Y77" s="211">
         <v>10</v>
       </c>
-      <c r="Z77" s="213"/>
-      <c r="AA77" s="212">
+      <c r="Z77" s="212"/>
+      <c r="AA77" s="211">
         <v>11</v>
       </c>
-      <c r="AB77" s="213"/>
-      <c r="AC77" s="213"/>
-      <c r="AD77" s="212">
+      <c r="AB77" s="212"/>
+      <c r="AC77" s="212"/>
+      <c r="AD77" s="211">
         <v>12</v>
       </c>
-      <c r="AE77" s="219"/>
+      <c r="AE77" s="218"/>
       <c r="AF77" s="17"/>
     </row>
   </sheetData>
@@ -5960,7 +5966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="136" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="136" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:AC1"/>
     </sheetView>
   </sheetViews>
@@ -5993,14 +5999,14 @@
       <c r="V1" s="338"/>
       <c r="W1" s="338"/>
       <c r="X1" s="338"/>
-      <c r="Y1" s="203" t="s">
+      <c r="Y1" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="154"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="344"/>
+      <c r="AB1" s="345"/>
+      <c r="AC1" s="346"/>
+      <c r="AD1" s="210"/>
       <c r="AE1" s="154"/>
     </row>
     <row r="2" spans="1:31" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -6036,11 +6042,11 @@
       <c r="V2" s="339"/>
       <c r="W2" s="334"/>
       <c r="X2" s="334"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="208"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="209"/>
+      <c r="AB2" s="208"/>
+      <c r="AC2" s="209"/>
       <c r="AD2" s="154"/>
       <c r="AE2" s="157"/>
     </row>
@@ -6049,23 +6055,23 @@
         <v>160</v>
       </c>
       <c r="B3" s="340"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="198"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="199"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="198"/>
       <c r="T3" s="339" t="s">
         <v>161</v>
       </c>
@@ -6073,11 +6079,11 @@
       <c r="V3" s="339"/>
       <c r="W3" s="340"/>
       <c r="X3" s="340"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="208"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="204"/>
       <c r="AD3" s="154"/>
       <c r="AE3" s="157"/>
     </row>
@@ -6625,12 +6631,12 @@
         <v>177</v>
       </c>
       <c r="G18" s="165"/>
-      <c r="H18" s="194" t="s">
+      <c r="H18" s="186" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="195"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="195"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="194"/>
       <c r="L18" s="172"/>
       <c r="M18" s="172"/>
       <c r="N18" s="172"/>
@@ -6697,19 +6703,19 @@
       <c r="C20" s="175"/>
       <c r="D20" s="314"/>
       <c r="E20" s="314"/>
-      <c r="F20" s="196"/>
+      <c r="F20" s="195"/>
       <c r="G20" s="172"/>
       <c r="H20" s="314"/>
       <c r="I20" s="314"/>
       <c r="J20" s="314"/>
-      <c r="K20" s="197" t="s">
+      <c r="K20" s="196" t="s">
         <v>183</v>
       </c>
-      <c r="L20" s="196"/>
+      <c r="L20" s="195"/>
       <c r="M20" s="314"/>
       <c r="N20" s="314"/>
       <c r="O20" s="157"/>
-      <c r="P20" s="196"/>
+      <c r="P20" s="195"/>
       <c r="Q20" s="175"/>
       <c r="R20" s="180"/>
       <c r="S20" s="157"/>
@@ -6727,7 +6733,7 @@
       <c r="AE20" s="157"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="50">
     <mergeCell ref="AA4:AC5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="T1:X1"/>
@@ -6739,6 +6745,7 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="AA8:AC8"/>
     <mergeCell ref="A9:E9"/>

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -1253,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1877,6 +1877,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2159,9 +2168,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2189,7 +2195,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2201,6 +2207,9 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2284,6 +2293,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2595,7 +2607,7 @@
   <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AE2"/>
+      <selection activeCell="B16" sqref="B16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,49 +2670,49 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="302" t="s">
+      <c r="Z1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="302"/>
-      <c r="AB1" s="302"/>
-      <c r="AC1" s="302"/>
-      <c r="AD1" s="302"/>
-      <c r="AE1" s="302"/>
+      <c r="AA1" s="305"/>
+      <c r="AB1" s="305"/>
+      <c r="AC1" s="305"/>
+      <c r="AD1" s="305"/>
+      <c r="AE1" s="305"/>
     </row>
     <row r="2" spans="1:32" ht="9.1999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="227" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="224"/>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="224"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="227"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="227"/>
+      <c r="V2" s="227"/>
+      <c r="W2" s="227"/>
+      <c r="X2" s="227"/>
+      <c r="Y2" s="227"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="227"/>
+      <c r="AB2" s="227"/>
+      <c r="AC2" s="227"/>
+      <c r="AD2" s="227"/>
+      <c r="AE2" s="227"/>
     </row>
     <row r="3" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="152" t="s">
@@ -2745,20 +2757,20 @@
       <c r="AF3" s="18"/>
     </row>
     <row r="4" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="284" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281"/>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="281"/>
+      <c r="B4" s="284"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="284"/>
+      <c r="L4" s="284"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -2772,11 +2784,11 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="302" t="s">
+      <c r="Z4" s="305" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="302"/>
-      <c r="AB4" s="302"/>
+      <c r="AA4" s="305"/>
+      <c r="AB4" s="305"/>
       <c r="AC4" s="91"/>
       <c r="AD4" s="87"/>
       <c r="AE4" s="92"/>
@@ -2786,32 +2798,32 @@
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="307"/>
-      <c r="C5" s="307"/>
-      <c r="D5" s="307"/>
-      <c r="E5" s="307"/>
-      <c r="F5" s="307"/>
-      <c r="G5" s="307"/>
-      <c r="H5" s="307"/>
-      <c r="I5" s="307"/>
-      <c r="J5" s="307"/>
-      <c r="K5" s="307"/>
-      <c r="L5" s="307"/>
-      <c r="M5" s="307"/>
-      <c r="N5" s="307"/>
-      <c r="O5" s="307"/>
-      <c r="P5" s="307"/>
-      <c r="Q5" s="307"/>
-      <c r="R5" s="307"/>
-      <c r="S5" s="307"/>
-      <c r="T5" s="307"/>
-      <c r="U5" s="307"/>
-      <c r="V5" s="307"/>
-      <c r="W5" s="307"/>
-      <c r="X5" s="307"/>
-      <c r="Y5" s="307"/>
-      <c r="Z5" s="307"/>
-      <c r="AA5" s="307"/>
+      <c r="B5" s="309"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="309"/>
+      <c r="E5" s="309"/>
+      <c r="F5" s="309"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
+      <c r="J5" s="309"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="309"/>
+      <c r="N5" s="309"/>
+      <c r="O5" s="309"/>
+      <c r="P5" s="309"/>
+      <c r="Q5" s="309"/>
+      <c r="R5" s="309"/>
+      <c r="S5" s="309"/>
+      <c r="T5" s="309"/>
+      <c r="U5" s="309"/>
+      <c r="V5" s="309"/>
+      <c r="W5" s="309"/>
+      <c r="X5" s="309"/>
+      <c r="Y5" s="309"/>
+      <c r="Z5" s="309"/>
+      <c r="AA5" s="309"/>
       <c r="AB5" s="49" t="s">
         <v>6</v>
       </c>
@@ -2860,25 +2872,25 @@
       <c r="A7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="285" t="s">
+      <c r="I7" s="288" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="285"/>
-      <c r="N7" s="231"/>
-      <c r="O7" s="231"/>
-      <c r="P7" s="231"/>
-      <c r="Q7" s="231"/>
-      <c r="R7" s="231"/>
+      <c r="J7" s="288"/>
+      <c r="K7" s="288"/>
+      <c r="L7" s="288"/>
+      <c r="M7" s="288"/>
+      <c r="N7" s="234"/>
+      <c r="O7" s="234"/>
+      <c r="P7" s="234"/>
+      <c r="Q7" s="234"/>
+      <c r="R7" s="234"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -2931,38 +2943,38 @@
       <c r="AF8" s="18"/>
     </row>
     <row r="9" spans="1:32" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="281" t="s">
+      <c r="A9" s="284" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="295"/>
-      <c r="C9" s="312" t="s">
+      <c r="B9" s="298"/>
+      <c r="C9" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="312"/>
-      <c r="G9" s="312"/>
-      <c r="H9" s="312"/>
-      <c r="I9" s="312"/>
-      <c r="J9" s="312"/>
-      <c r="K9" s="312"/>
-      <c r="L9" s="312"/>
-      <c r="M9" s="312"/>
-      <c r="N9" s="312"/>
-      <c r="O9" s="312"/>
-      <c r="P9" s="312"/>
-      <c r="Q9" s="312"/>
-      <c r="R9" s="312"/>
-      <c r="S9" s="312"/>
-      <c r="T9" s="312"/>
-      <c r="U9" s="312"/>
-      <c r="V9" s="312"/>
-      <c r="W9" s="312"/>
-      <c r="X9" s="312"/>
-      <c r="Y9" s="312"/>
-      <c r="Z9" s="312"/>
-      <c r="AA9" s="312"/>
-      <c r="AB9" s="313"/>
+      <c r="D9" s="314"/>
+      <c r="E9" s="314"/>
+      <c r="F9" s="314"/>
+      <c r="G9" s="314"/>
+      <c r="H9" s="314"/>
+      <c r="I9" s="314"/>
+      <c r="J9" s="314"/>
+      <c r="K9" s="314"/>
+      <c r="L9" s="314"/>
+      <c r="M9" s="314"/>
+      <c r="N9" s="314"/>
+      <c r="O9" s="314"/>
+      <c r="P9" s="314"/>
+      <c r="Q9" s="314"/>
+      <c r="R9" s="314"/>
+      <c r="S9" s="314"/>
+      <c r="T9" s="314"/>
+      <c r="U9" s="314"/>
+      <c r="V9" s="314"/>
+      <c r="W9" s="314"/>
+      <c r="X9" s="314"/>
+      <c r="Y9" s="314"/>
+      <c r="Z9" s="314"/>
+      <c r="AA9" s="314"/>
+      <c r="AB9" s="315"/>
       <c r="AC9" s="97"/>
       <c r="AD9" s="98"/>
       <c r="AE9" s="99"/>
@@ -3005,38 +3017,38 @@
       <c r="AF10" s="18"/>
     </row>
     <row r="11" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="277" t="s">
+      <c r="A11" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="277"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="231"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="265"/>
-      <c r="I11" s="265"/>
-      <c r="J11" s="265"/>
-      <c r="K11" s="265"/>
-      <c r="L11" s="265"/>
-      <c r="M11" s="265"/>
-      <c r="N11" s="265"/>
-      <c r="O11" s="308"/>
-      <c r="P11" s="308"/>
-      <c r="Q11" s="308"/>
-      <c r="R11" s="308"/>
-      <c r="S11" s="308"/>
-      <c r="T11" s="308"/>
-      <c r="U11" s="308"/>
-      <c r="V11" s="308"/>
+      <c r="B11" s="280"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="234"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="268"/>
+      <c r="L11" s="268"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="310"/>
+      <c r="P11" s="310"/>
+      <c r="Q11" s="310"/>
+      <c r="R11" s="310"/>
+      <c r="S11" s="310"/>
+      <c r="T11" s="310"/>
+      <c r="U11" s="310"/>
+      <c r="V11" s="310"/>
       <c r="W11" s="54"/>
       <c r="X11" s="52" t="s">
         <v>13</v>
       </c>
       <c r="Y11" s="38"/>
-      <c r="Z11" s="309"/>
-      <c r="AA11" s="309"/>
-      <c r="AB11" s="310"/>
+      <c r="Z11" s="311"/>
+      <c r="AA11" s="311"/>
+      <c r="AB11" s="312"/>
       <c r="AC11" s="70"/>
       <c r="AD11" s="71"/>
       <c r="AE11" s="96"/>
@@ -3079,17 +3091,17 @@
       <c r="AF12" s="18"/>
     </row>
     <row r="13" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="281" t="s">
+      <c r="A13" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="281"/>
-      <c r="C13" s="231" t="s">
+      <c r="B13" s="284"/>
+      <c r="C13" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="231"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="231"/>
-      <c r="G13" s="231"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="234"/>
+      <c r="G13" s="234"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -3098,19 +3110,19 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="281" t="s">
+      <c r="P13" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="281"/>
-      <c r="R13" s="311"/>
-      <c r="S13" s="311"/>
-      <c r="T13" s="311"/>
-      <c r="U13" s="311"/>
-      <c r="V13" s="311"/>
-      <c r="W13" s="311"/>
-      <c r="X13" s="311"/>
-      <c r="Y13" s="311"/>
-      <c r="Z13" s="311"/>
+      <c r="Q13" s="284"/>
+      <c r="R13" s="313"/>
+      <c r="S13" s="313"/>
+      <c r="T13" s="313"/>
+      <c r="U13" s="313"/>
+      <c r="V13" s="313"/>
+      <c r="W13" s="313"/>
+      <c r="X13" s="313"/>
+      <c r="Y13" s="313"/>
+      <c r="Z13" s="313"/>
       <c r="AA13" s="55"/>
       <c r="AB13" s="58" t="s">
         <v>150</v>
@@ -3157,10 +3169,10 @@
       <c r="AF14" s="18"/>
     </row>
     <row r="15" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="281" t="s">
+      <c r="A15" s="284" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="281"/>
+      <c r="B15" s="284"/>
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
@@ -3200,24 +3212,24 @@
       <c r="A16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="305"/>
-      <c r="C16" s="305"/>
-      <c r="D16" s="305"/>
-      <c r="E16" s="305"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="305"/>
-      <c r="H16" s="305"/>
-      <c r="I16" s="305"/>
-      <c r="J16" s="305"/>
-      <c r="K16" s="305"/>
-      <c r="L16" s="305"/>
+      <c r="B16" s="350"/>
+      <c r="C16" s="350"/>
+      <c r="D16" s="350"/>
+      <c r="E16" s="350"/>
+      <c r="F16" s="350"/>
+      <c r="G16" s="350"/>
+      <c r="H16" s="350"/>
+      <c r="I16" s="350"/>
+      <c r="J16" s="350"/>
+      <c r="K16" s="350"/>
+      <c r="L16" s="350"/>
       <c r="M16" s="4"/>
       <c r="N16" s="21"/>
-      <c r="O16" s="306" t="s">
+      <c r="O16" s="308" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="306"/>
-      <c r="Q16" s="306"/>
+      <c r="P16" s="308"/>
+      <c r="Q16" s="308"/>
       <c r="R16" s="66"/>
       <c r="S16" s="62"/>
       <c r="T16" s="62"/>
@@ -3227,10 +3239,10 @@
       <c r="X16" s="62"/>
       <c r="Y16" s="62"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="302" t="s">
+      <c r="AA16" s="305" t="s">
         <v>25</v>
       </c>
-      <c r="AB16" s="303"/>
+      <c r="AB16" s="306"/>
       <c r="AC16" s="100"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="101"/>
@@ -3258,11 +3270,11 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="240" t="s">
+      <c r="T17" s="243" t="s">
         <v>26</v>
       </c>
-      <c r="U17" s="240"/>
-      <c r="V17" s="240"/>
+      <c r="U17" s="243"/>
+      <c r="V17" s="243"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
@@ -3275,42 +3287,42 @@
       <c r="AF17" s="18"/>
     </row>
     <row r="18" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="281" t="s">
+      <c r="A18" s="284" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="281"/>
-      <c r="C18" s="281"/>
-      <c r="D18" s="277"/>
-      <c r="E18" s="277"/>
-      <c r="F18" s="277"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="277"/>
-      <c r="I18" s="277"/>
-      <c r="J18" s="277"/>
-      <c r="K18" s="277"/>
-      <c r="L18" s="277"/>
-      <c r="M18" s="281" t="s">
+      <c r="B18" s="284"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="280"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="280"/>
+      <c r="G18" s="280"/>
+      <c r="H18" s="280"/>
+      <c r="I18" s="280"/>
+      <c r="J18" s="280"/>
+      <c r="K18" s="280"/>
+      <c r="L18" s="280"/>
+      <c r="M18" s="284" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="281"/>
+      <c r="N18" s="284"/>
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
-      <c r="Q18" s="302" t="s">
+      <c r="Q18" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="302"/>
-      <c r="S18" s="302"/>
-      <c r="T18" s="302"/>
+      <c r="R18" s="305"/>
+      <c r="S18" s="305"/>
+      <c r="T18" s="305"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
       <c r="W18" s="43"/>
       <c r="X18" s="43"/>
       <c r="Y18" s="43"/>
-      <c r="Z18" s="302" t="s">
+      <c r="Z18" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="AA18" s="302"/>
-      <c r="AB18" s="303"/>
+      <c r="AA18" s="305"/>
+      <c r="AB18" s="306"/>
       <c r="AC18" s="100"/>
       <c r="AD18" s="43"/>
       <c r="AE18" s="101"/>
@@ -3367,28 +3379,28 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="281" t="s">
+      <c r="M20" s="284" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="281"/>
+      <c r="N20" s="284"/>
       <c r="O20" s="61"/>
       <c r="P20" s="61"/>
-      <c r="Q20" s="302" t="s">
+      <c r="Q20" s="305" t="s">
         <v>151</v>
       </c>
-      <c r="R20" s="302"/>
-      <c r="S20" s="302"/>
-      <c r="T20" s="302"/>
+      <c r="R20" s="305"/>
+      <c r="S20" s="305"/>
+      <c r="T20" s="305"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="61"/>
       <c r="X20" s="61"/>
       <c r="Y20" s="61"/>
-      <c r="Z20" s="302" t="s">
+      <c r="Z20" s="305" t="s">
         <v>149</v>
       </c>
-      <c r="AA20" s="302"/>
-      <c r="AB20" s="303"/>
+      <c r="AA20" s="305"/>
+      <c r="AB20" s="306"/>
       <c r="AC20" s="74"/>
       <c r="AD20" s="76"/>
       <c r="AE20" s="75"/>
@@ -3432,23 +3444,23 @@
     <row r="22" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="275" t="s">
+      <c r="C22" s="278" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="275"/>
-      <c r="E22" s="275"/>
-      <c r="F22" s="275"/>
-      <c r="G22" s="275"/>
+      <c r="D22" s="278"/>
+      <c r="E22" s="278"/>
+      <c r="F22" s="278"/>
+      <c r="G22" s="278"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="304" t="s">
+      <c r="L22" s="307" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="304"/>
-      <c r="N22" s="304"/>
-      <c r="O22" s="304"/>
+      <c r="M22" s="307"/>
+      <c r="N22" s="307"/>
+      <c r="O22" s="307"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3467,147 +3479,147 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="219" t="s">
+      <c r="A23" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="246"/>
-      <c r="C23" s="246"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="219" t="s">
+      <c r="B23" s="249"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="246"/>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="246"/>
-      <c r="J23" s="219" t="s">
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="246"/>
-      <c r="L23" s="246"/>
-      <c r="M23" s="219" t="s">
+      <c r="K23" s="249"/>
+      <c r="L23" s="249"/>
+      <c r="M23" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="219" t="s">
+      <c r="N23" s="249"/>
+      <c r="O23" s="249"/>
+      <c r="P23" s="249"/>
+      <c r="Q23" s="249"/>
+      <c r="R23" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="219" t="s">
+      <c r="S23" s="249"/>
+      <c r="T23" s="249"/>
+      <c r="U23" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="246"/>
-      <c r="W23" s="219" t="s">
+      <c r="V23" s="249"/>
+      <c r="W23" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="X23" s="246"/>
-      <c r="Y23" s="246"/>
-      <c r="Z23" s="219" t="s">
+      <c r="X23" s="249"/>
+      <c r="Y23" s="249"/>
+      <c r="Z23" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="AA23" s="246"/>
-      <c r="AB23" s="246"/>
-      <c r="AC23" s="219" t="s">
+      <c r="AA23" s="249"/>
+      <c r="AB23" s="249"/>
+      <c r="AC23" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="AD23" s="246"/>
-      <c r="AE23" s="246"/>
+      <c r="AD23" s="249"/>
+      <c r="AE23" s="249"/>
       <c r="AF23" s="17"/>
     </row>
     <row r="24" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="219">
+      <c r="A24" s="222">
         <v>1</v>
       </c>
-      <c r="B24" s="246"/>
-      <c r="C24" s="246"/>
-      <c r="D24" s="246"/>
-      <c r="E24" s="219">
+      <c r="B24" s="249"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="249"/>
+      <c r="E24" s="222">
         <v>2</v>
       </c>
-      <c r="F24" s="246"/>
-      <c r="G24" s="246"/>
-      <c r="H24" s="246"/>
-      <c r="I24" s="246"/>
-      <c r="J24" s="219">
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="222">
         <v>3</v>
       </c>
-      <c r="K24" s="246"/>
-      <c r="L24" s="246"/>
-      <c r="M24" s="219">
+      <c r="K24" s="249"/>
+      <c r="L24" s="249"/>
+      <c r="M24" s="222">
         <v>4</v>
       </c>
-      <c r="N24" s="246"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="219">
+      <c r="N24" s="249"/>
+      <c r="O24" s="249"/>
+      <c r="P24" s="249"/>
+      <c r="Q24" s="249"/>
+      <c r="R24" s="222">
         <v>5</v>
       </c>
-      <c r="S24" s="246"/>
-      <c r="T24" s="246"/>
-      <c r="U24" s="219">
+      <c r="S24" s="249"/>
+      <c r="T24" s="249"/>
+      <c r="U24" s="222">
         <v>6</v>
       </c>
-      <c r="V24" s="246"/>
-      <c r="W24" s="219">
+      <c r="V24" s="249"/>
+      <c r="W24" s="222">
         <v>7</v>
       </c>
-      <c r="X24" s="246"/>
-      <c r="Y24" s="246"/>
-      <c r="Z24" s="219">
+      <c r="X24" s="249"/>
+      <c r="Y24" s="249"/>
+      <c r="Z24" s="222">
         <v>8</v>
       </c>
-      <c r="AA24" s="246"/>
-      <c r="AB24" s="246"/>
-      <c r="AC24" s="219">
+      <c r="AA24" s="249"/>
+      <c r="AB24" s="249"/>
+      <c r="AC24" s="222">
         <v>9</v>
       </c>
-      <c r="AD24" s="246"/>
-      <c r="AE24" s="247"/>
+      <c r="AD24" s="249"/>
+      <c r="AE24" s="250"/>
       <c r="AF24" s="17"/>
     </row>
     <row r="25" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="296" t="s">
+      <c r="A25" s="299" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="297"/>
-      <c r="C25" s="297"/>
-      <c r="D25" s="297"/>
-      <c r="E25" s="278" t="s">
+      <c r="B25" s="300"/>
+      <c r="C25" s="300"/>
+      <c r="D25" s="300"/>
+      <c r="E25" s="281" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="I25" s="279"/>
-      <c r="J25" s="298" t="s">
+      <c r="F25" s="282"/>
+      <c r="G25" s="282"/>
+      <c r="H25" s="282"/>
+      <c r="I25" s="282"/>
+      <c r="J25" s="301" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="299"/>
-      <c r="L25" s="299"/>
-      <c r="M25" s="300"/>
-      <c r="N25" s="300"/>
-      <c r="O25" s="300"/>
-      <c r="P25" s="300"/>
-      <c r="Q25" s="300"/>
-      <c r="R25" s="297"/>
-      <c r="S25" s="297"/>
-      <c r="T25" s="297"/>
-      <c r="U25" s="288"/>
-      <c r="V25" s="288"/>
-      <c r="W25" s="288"/>
-      <c r="X25" s="288"/>
-      <c r="Y25" s="288"/>
-      <c r="Z25" s="288"/>
-      <c r="AA25" s="288"/>
-      <c r="AB25" s="288"/>
-      <c r="AC25" s="288"/>
-      <c r="AD25" s="288"/>
-      <c r="AE25" s="288"/>
+      <c r="K25" s="302"/>
+      <c r="L25" s="302"/>
+      <c r="M25" s="303"/>
+      <c r="N25" s="303"/>
+      <c r="O25" s="303"/>
+      <c r="P25" s="303"/>
+      <c r="Q25" s="303"/>
+      <c r="R25" s="300"/>
+      <c r="S25" s="300"/>
+      <c r="T25" s="300"/>
+      <c r="U25" s="291"/>
+      <c r="V25" s="291"/>
+      <c r="W25" s="291"/>
+      <c r="X25" s="291"/>
+      <c r="Y25" s="291"/>
+      <c r="Z25" s="291"/>
+      <c r="AA25" s="291"/>
+      <c r="AB25" s="291"/>
+      <c r="AC25" s="291"/>
+      <c r="AD25" s="291"/>
+      <c r="AE25" s="291"/>
       <c r="AF25" s="112"/>
     </row>
     <row r="26" spans="1:32" ht="3.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3633,39 +3645,39 @@
       <c r="T26" s="89"/>
       <c r="U26" s="113"/>
       <c r="V26" s="114"/>
-      <c r="W26" s="291" t="s">
+      <c r="W26" s="294" t="s">
         <v>47</v>
       </c>
-      <c r="X26" s="292"/>
-      <c r="Y26" s="292"/>
-      <c r="Z26" s="292"/>
-      <c r="AA26" s="292"/>
-      <c r="AB26" s="292"/>
+      <c r="X26" s="295"/>
+      <c r="Y26" s="295"/>
+      <c r="Z26" s="295"/>
+      <c r="AA26" s="295"/>
+      <c r="AB26" s="295"/>
       <c r="AC26" s="116"/>
       <c r="AD26" s="90"/>
       <c r="AE26" s="114"/>
       <c r="AF26" s="112"/>
     </row>
     <row r="27" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="281" t="s">
+      <c r="A27" s="284" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="281"/>
-      <c r="C27" s="281"/>
-      <c r="D27" s="281"/>
+      <c r="B27" s="284"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="284"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="231" t="s">
+      <c r="F27" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="231"/>
-      <c r="H27" s="294"/>
+      <c r="G27" s="234"/>
+      <c r="H27" s="297"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="280" t="s">
+      <c r="J27" s="283" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="281"/>
-      <c r="L27" s="281"/>
-      <c r="M27" s="295"/>
+      <c r="K27" s="284"/>
+      <c r="L27" s="284"/>
+      <c r="M27" s="298"/>
       <c r="N27" s="80"/>
       <c r="O27" s="80"/>
       <c r="P27" s="9" t="s">
@@ -3673,56 +3685,56 @@
       </c>
       <c r="Q27" s="78"/>
       <c r="R27" s="79"/>
-      <c r="S27" s="220" t="s">
+      <c r="S27" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="T27" s="291"/>
+      <c r="T27" s="294"/>
       <c r="U27" s="115"/>
       <c r="V27" s="77"/>
-      <c r="W27" s="292"/>
-      <c r="X27" s="293"/>
-      <c r="Y27" s="293"/>
-      <c r="Z27" s="293"/>
-      <c r="AA27" s="293"/>
-      <c r="AB27" s="293"/>
+      <c r="W27" s="295"/>
+      <c r="X27" s="296"/>
+      <c r="Y27" s="296"/>
+      <c r="Z27" s="296"/>
+      <c r="AA27" s="296"/>
+      <c r="AB27" s="296"/>
       <c r="AC27" s="115"/>
       <c r="AD27" s="43"/>
       <c r="AE27" s="77"/>
       <c r="AF27" s="112"/>
     </row>
     <row r="28" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="285" t="s">
+      <c r="A28" s="288" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="285"/>
-      <c r="C28" s="285"/>
-      <c r="D28" s="285"/>
+      <c r="B28" s="288"/>
+      <c r="C28" s="288"/>
+      <c r="D28" s="288"/>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
       <c r="G28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="289"/>
-      <c r="I28" s="290"/>
-      <c r="J28" s="280"/>
-      <c r="K28" s="281"/>
-      <c r="L28" s="281"/>
-      <c r="M28" s="281"/>
-      <c r="N28" s="275" t="s">
+      <c r="H28" s="292"/>
+      <c r="I28" s="293"/>
+      <c r="J28" s="283"/>
+      <c r="K28" s="284"/>
+      <c r="L28" s="284"/>
+      <c r="M28" s="284"/>
+      <c r="N28" s="278" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="275"/>
+      <c r="O28" s="278"/>
       <c r="P28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q28" s="275" t="s">
+      <c r="Q28" s="278" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="301"/>
-      <c r="S28" s="271" t="s">
+      <c r="R28" s="304"/>
+      <c r="S28" s="274" t="s">
         <v>56</v>
       </c>
-      <c r="T28" s="287"/>
+      <c r="T28" s="290"/>
       <c r="U28" s="107"/>
       <c r="V28" s="107"/>
       <c r="W28" s="2"/>
@@ -3740,10 +3752,10 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="272" t="s">
+      <c r="E29" s="275" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="272"/>
+      <c r="F29" s="275"/>
       <c r="G29" s="2"/>
       <c r="H29" s="50"/>
       <c r="I29" s="153"/>
@@ -3751,11 +3763,11 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="272"/>
-      <c r="O29" s="272"/>
+      <c r="N29" s="275"/>
+      <c r="O29" s="275"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="272"/>
-      <c r="R29" s="272"/>
+      <c r="Q29" s="275"/>
+      <c r="R29" s="275"/>
       <c r="S29" s="26"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -3771,10 +3783,10 @@
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="277" t="s">
+      <c r="A30" s="280" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="277"/>
+      <c r="B30" s="280"/>
       <c r="C30" s="78"/>
       <c r="D30" s="78"/>
       <c r="E30" s="78"/>
@@ -3782,28 +3794,28 @@
       <c r="G30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="255" t="s">
+      <c r="H30" s="258" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="255"/>
-      <c r="J30" s="276" t="s">
+      <c r="I30" s="258"/>
+      <c r="J30" s="279" t="s">
         <v>58</v>
       </c>
-      <c r="K30" s="277"/>
-      <c r="L30" s="277"/>
+      <c r="K30" s="280"/>
+      <c r="L30" s="280"/>
       <c r="M30" s="80"/>
       <c r="N30" s="80"/>
       <c r="O30" s="80"/>
-      <c r="P30" s="277" t="s">
+      <c r="P30" s="280" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="277"/>
-      <c r="R30" s="277"/>
-      <c r="S30" s="276" t="s">
+      <c r="Q30" s="280"/>
+      <c r="R30" s="280"/>
+      <c r="S30" s="279" t="s">
         <v>62</v>
       </c>
-      <c r="T30" s="277"/>
-      <c r="U30" s="277"/>
+      <c r="T30" s="280"/>
+      <c r="U30" s="280"/>
       <c r="V30" s="80"/>
       <c r="W30" s="80"/>
       <c r="X30" s="80"/>
@@ -3819,22 +3831,22 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="270" t="s">
+      <c r="D31" s="273" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="270"/>
-      <c r="F31" s="270"/>
+      <c r="E31" s="273"/>
+      <c r="F31" s="273"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="24"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="275" t="s">
+      <c r="M31" s="278" t="s">
         <v>55</v>
       </c>
-      <c r="N31" s="275"/>
-      <c r="O31" s="275"/>
+      <c r="N31" s="278"/>
+      <c r="O31" s="278"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -3864,21 +3876,21 @@
       <c r="G32" s="78"/>
       <c r="H32" s="78"/>
       <c r="I32" s="79"/>
-      <c r="J32" s="276" t="s">
+      <c r="J32" s="279" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="277"/>
-      <c r="L32" s="277"/>
+      <c r="K32" s="280"/>
+      <c r="L32" s="280"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
       <c r="O32" s="78"/>
       <c r="P32" s="78"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="64"/>
-      <c r="S32" s="280" t="s">
+      <c r="S32" s="283" t="s">
         <v>66</v>
       </c>
-      <c r="T32" s="281"/>
+      <c r="T32" s="284"/>
       <c r="U32" s="80"/>
       <c r="V32" s="80"/>
       <c r="W32" s="80"/>
@@ -3893,33 +3905,33 @@
     </row>
     <row r="33" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="240" t="s">
+      <c r="B33" s="243" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="240"/>
-      <c r="D33" s="240" t="s">
+      <c r="C33" s="243"/>
+      <c r="D33" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
       <c r="G33" s="124" t="s">
         <v>69</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="123"/>
-      <c r="J33" s="278"/>
-      <c r="K33" s="279"/>
-      <c r="L33" s="279"/>
-      <c r="M33" s="275" t="s">
+      <c r="J33" s="281"/>
+      <c r="K33" s="282"/>
+      <c r="L33" s="282"/>
+      <c r="M33" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="N33" s="275"/>
-      <c r="O33" s="275" t="s">
+      <c r="N33" s="278"/>
+      <c r="O33" s="278" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="275"/>
-      <c r="Q33" s="275"/>
-      <c r="R33" s="282"/>
+      <c r="P33" s="278"/>
+      <c r="Q33" s="278"/>
+      <c r="R33" s="285"/>
       <c r="S33" s="24"/>
       <c r="T33" s="2"/>
       <c r="U33" s="19"/>
@@ -3935,10 +3947,10 @@
       <c r="AE33" s="19"/>
     </row>
     <row r="34" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="285" t="s">
+      <c r="A34" s="288" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="286"/>
+      <c r="B34" s="289"/>
       <c r="C34" s="64"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
@@ -3946,17 +3958,17 @@
       <c r="G34" s="105"/>
       <c r="H34" s="105"/>
       <c r="I34" s="121"/>
-      <c r="J34" s="276" t="s">
+      <c r="J34" s="279" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="277"/>
+      <c r="K34" s="280"/>
       <c r="L34" s="64"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
       <c r="O34" s="78"/>
       <c r="P34" s="78"/>
       <c r="Q34" s="78"/>
-      <c r="R34" s="283"/>
+      <c r="R34" s="286"/>
       <c r="S34" s="24"/>
       <c r="T34" s="80"/>
       <c r="U34" s="80"/>
@@ -3972,34 +3984,34 @@
       <c r="AE34" s="80"/>
     </row>
     <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="287"/>
-      <c r="B35" s="286"/>
+      <c r="A35" s="290"/>
+      <c r="B35" s="289"/>
       <c r="C35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="275" t="s">
+      <c r="D35" s="278" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="275"/>
-      <c r="F35" s="275"/>
+      <c r="E35" s="278"/>
+      <c r="F35" s="278"/>
       <c r="G35" s="106"/>
       <c r="H35" s="106"/>
       <c r="I35" s="122"/>
-      <c r="J35" s="271"/>
-      <c r="K35" s="272"/>
+      <c r="J35" s="274"/>
+      <c r="K35" s="275"/>
       <c r="L35" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="M35" s="275" t="s">
+      <c r="M35" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="N35" s="275"/>
-      <c r="O35" s="275" t="s">
+      <c r="N35" s="278"/>
+      <c r="O35" s="278" t="s">
         <v>69</v>
       </c>
-      <c r="P35" s="275"/>
-      <c r="Q35" s="275"/>
-      <c r="R35" s="284"/>
+      <c r="P35" s="278"/>
+      <c r="Q35" s="278"/>
+      <c r="R35" s="287"/>
       <c r="S35" s="25"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
@@ -4021,11 +4033,11 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="265" t="s">
+      <c r="G36" s="268" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="265"/>
-      <c r="I36" s="266"/>
+      <c r="H36" s="268"/>
+      <c r="I36" s="269"/>
       <c r="J36" s="25"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -4085,257 +4097,257 @@
       <c r="AE37" s="5"/>
     </row>
     <row r="38" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="267" t="s">
+      <c r="A38" s="270" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="268"/>
-      <c r="C38" s="268"/>
-      <c r="D38" s="268"/>
-      <c r="E38" s="268"/>
-      <c r="F38" s="268"/>
-      <c r="G38" s="268"/>
-      <c r="H38" s="268"/>
-      <c r="I38" s="268"/>
-      <c r="J38" s="268"/>
-      <c r="K38" s="268"/>
-      <c r="L38" s="268"/>
-      <c r="M38" s="268"/>
-      <c r="N38" s="268"/>
-      <c r="O38" s="268"/>
-      <c r="P38" s="268"/>
-      <c r="Q38" s="268"/>
-      <c r="R38" s="268"/>
-      <c r="S38" s="268"/>
-      <c r="T38" s="268"/>
-      <c r="U38" s="268"/>
-      <c r="V38" s="268"/>
-      <c r="W38" s="268"/>
-      <c r="X38" s="268"/>
-      <c r="Y38" s="268"/>
-      <c r="Z38" s="268"/>
-      <c r="AA38" s="268"/>
-      <c r="AB38" s="268"/>
-      <c r="AC38" s="268"/>
-      <c r="AD38" s="268"/>
-      <c r="AE38" s="268"/>
+      <c r="B38" s="271"/>
+      <c r="C38" s="271"/>
+      <c r="D38" s="271"/>
+      <c r="E38" s="271"/>
+      <c r="F38" s="271"/>
+      <c r="G38" s="271"/>
+      <c r="H38" s="271"/>
+      <c r="I38" s="271"/>
+      <c r="J38" s="271"/>
+      <c r="K38" s="271"/>
+      <c r="L38" s="271"/>
+      <c r="M38" s="271"/>
+      <c r="N38" s="271"/>
+      <c r="O38" s="271"/>
+      <c r="P38" s="271"/>
+      <c r="Q38" s="271"/>
+      <c r="R38" s="271"/>
+      <c r="S38" s="271"/>
+      <c r="T38" s="271"/>
+      <c r="U38" s="271"/>
+      <c r="V38" s="271"/>
+      <c r="W38" s="271"/>
+      <c r="X38" s="271"/>
+      <c r="Y38" s="271"/>
+      <c r="Z38" s="271"/>
+      <c r="AA38" s="271"/>
+      <c r="AB38" s="271"/>
+      <c r="AC38" s="271"/>
+      <c r="AD38" s="271"/>
+      <c r="AE38" s="271"/>
       <c r="AF38" s="17"/>
     </row>
     <row r="39" spans="1:32" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="269" t="s">
+      <c r="A39" s="272" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="270"/>
-      <c r="C39" s="269" t="s">
+      <c r="B39" s="273"/>
+      <c r="C39" s="272" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="270"/>
-      <c r="E39" s="270"/>
-      <c r="F39" s="270"/>
-      <c r="G39" s="269" t="s">
+      <c r="D39" s="273"/>
+      <c r="E39" s="273"/>
+      <c r="F39" s="273"/>
+      <c r="G39" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="270"/>
-      <c r="I39" s="270"/>
-      <c r="J39" s="270"/>
-      <c r="K39" s="270"/>
-      <c r="L39" s="269" t="s">
+      <c r="H39" s="273"/>
+      <c r="I39" s="273"/>
+      <c r="J39" s="273"/>
+      <c r="K39" s="273"/>
+      <c r="L39" s="272" t="s">
         <v>77</v>
       </c>
-      <c r="M39" s="270"/>
-      <c r="N39" s="270"/>
-      <c r="O39" s="270"/>
-      <c r="P39" s="270"/>
-      <c r="Q39" s="219" t="s">
+      <c r="M39" s="273"/>
+      <c r="N39" s="273"/>
+      <c r="O39" s="273"/>
+      <c r="P39" s="273"/>
+      <c r="Q39" s="222" t="s">
         <v>78</v>
       </c>
-      <c r="R39" s="246"/>
-      <c r="S39" s="246"/>
-      <c r="T39" s="246"/>
-      <c r="U39" s="246"/>
-      <c r="V39" s="248" t="s">
+      <c r="R39" s="249"/>
+      <c r="S39" s="249"/>
+      <c r="T39" s="249"/>
+      <c r="U39" s="249"/>
+      <c r="V39" s="251" t="s">
         <v>79</v>
       </c>
-      <c r="W39" s="249"/>
-      <c r="X39" s="273"/>
-      <c r="Y39" s="274"/>
-      <c r="Z39" s="219" t="s">
+      <c r="W39" s="252"/>
+      <c r="X39" s="276"/>
+      <c r="Y39" s="277"/>
+      <c r="Z39" s="222" t="s">
         <v>80</v>
       </c>
-      <c r="AA39" s="246"/>
-      <c r="AB39" s="246"/>
-      <c r="AC39" s="219" t="s">
+      <c r="AA39" s="249"/>
+      <c r="AB39" s="249"/>
+      <c r="AC39" s="222" t="s">
         <v>81</v>
       </c>
-      <c r="AD39" s="246"/>
-      <c r="AE39" s="247"/>
+      <c r="AD39" s="249"/>
+      <c r="AE39" s="250"/>
       <c r="AF39" s="17"/>
     </row>
     <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="271"/>
-      <c r="B40" s="272"/>
-      <c r="C40" s="271"/>
-      <c r="D40" s="272"/>
-      <c r="E40" s="272"/>
-      <c r="F40" s="272"/>
-      <c r="G40" s="271"/>
-      <c r="H40" s="272"/>
-      <c r="I40" s="272"/>
-      <c r="J40" s="272"/>
-      <c r="K40" s="272"/>
-      <c r="L40" s="271"/>
-      <c r="M40" s="272"/>
-      <c r="N40" s="272"/>
-      <c r="O40" s="272"/>
-      <c r="P40" s="272"/>
-      <c r="Q40" s="260" t="s">
+      <c r="A40" s="274"/>
+      <c r="B40" s="275"/>
+      <c r="C40" s="274"/>
+      <c r="D40" s="275"/>
+      <c r="E40" s="275"/>
+      <c r="F40" s="275"/>
+      <c r="G40" s="274"/>
+      <c r="H40" s="275"/>
+      <c r="I40" s="275"/>
+      <c r="J40" s="275"/>
+      <c r="K40" s="275"/>
+      <c r="L40" s="274"/>
+      <c r="M40" s="275"/>
+      <c r="N40" s="275"/>
+      <c r="O40" s="275"/>
+      <c r="P40" s="275"/>
+      <c r="Q40" s="263" t="s">
         <v>82</v>
       </c>
-      <c r="R40" s="261"/>
-      <c r="S40" s="261"/>
-      <c r="T40" s="261"/>
+      <c r="R40" s="264"/>
+      <c r="S40" s="264"/>
+      <c r="T40" s="264"/>
       <c r="U40" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="V40" s="219" t="s">
+      <c r="V40" s="222" t="s">
         <v>83</v>
       </c>
-      <c r="W40" s="246"/>
-      <c r="X40" s="219" t="s">
+      <c r="W40" s="249"/>
+      <c r="X40" s="222" t="s">
         <v>84</v>
       </c>
-      <c r="Y40" s="247"/>
-      <c r="Z40" s="220"/>
-      <c r="AA40" s="231"/>
-      <c r="AB40" s="231"/>
-      <c r="AC40" s="220"/>
-      <c r="AD40" s="231"/>
-      <c r="AE40" s="231"/>
+      <c r="Y40" s="250"/>
+      <c r="Z40" s="223"/>
+      <c r="AA40" s="234"/>
+      <c r="AB40" s="234"/>
+      <c r="AC40" s="223"/>
+      <c r="AD40" s="234"/>
+      <c r="AE40" s="234"/>
       <c r="AF40" s="17"/>
     </row>
     <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="219">
+      <c r="A41" s="222">
         <v>10</v>
       </c>
-      <c r="B41" s="246"/>
-      <c r="C41" s="219">
+      <c r="B41" s="249"/>
+      <c r="C41" s="222">
         <v>11</v>
       </c>
-      <c r="D41" s="246"/>
-      <c r="E41" s="246"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="219">
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="249"/>
+      <c r="G41" s="222">
         <v>12</v>
       </c>
-      <c r="H41" s="246"/>
-      <c r="I41" s="246"/>
-      <c r="J41" s="246"/>
-      <c r="K41" s="246"/>
-      <c r="L41" s="219">
+      <c r="H41" s="249"/>
+      <c r="I41" s="249"/>
+      <c r="J41" s="249"/>
+      <c r="K41" s="249"/>
+      <c r="L41" s="222">
         <v>13</v>
       </c>
-      <c r="M41" s="246"/>
-      <c r="N41" s="246"/>
-      <c r="O41" s="246"/>
-      <c r="P41" s="246"/>
-      <c r="Q41" s="219">
+      <c r="M41" s="249"/>
+      <c r="N41" s="249"/>
+      <c r="O41" s="249"/>
+      <c r="P41" s="249"/>
+      <c r="Q41" s="222">
         <v>14</v>
       </c>
-      <c r="R41" s="246"/>
-      <c r="S41" s="246"/>
-      <c r="T41" s="246"/>
+      <c r="R41" s="249"/>
+      <c r="S41" s="249"/>
+      <c r="T41" s="249"/>
       <c r="U41" s="29">
         <v>15</v>
       </c>
-      <c r="V41" s="219">
+      <c r="V41" s="222">
         <v>16</v>
       </c>
-      <c r="W41" s="246"/>
-      <c r="X41" s="219">
+      <c r="W41" s="249"/>
+      <c r="X41" s="222">
         <v>17</v>
       </c>
-      <c r="Y41" s="246"/>
-      <c r="Z41" s="219">
+      <c r="Y41" s="249"/>
+      <c r="Z41" s="222">
         <v>18</v>
       </c>
-      <c r="AA41" s="246"/>
-      <c r="AB41" s="246"/>
-      <c r="AC41" s="219">
+      <c r="AA41" s="249"/>
+      <c r="AB41" s="249"/>
+      <c r="AC41" s="222">
         <v>19</v>
       </c>
-      <c r="AD41" s="246"/>
-      <c r="AE41" s="247"/>
+      <c r="AD41" s="249"/>
+      <c r="AE41" s="250"/>
       <c r="AF41" s="17"/>
     </row>
     <row r="42" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="260" t="s">
+      <c r="A42" s="263" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="261"/>
-      <c r="C42" s="262"/>
-      <c r="D42" s="263"/>
-      <c r="E42" s="263"/>
-      <c r="F42" s="263"/>
-      <c r="G42" s="262"/>
-      <c r="H42" s="263"/>
-      <c r="I42" s="263"/>
-      <c r="J42" s="263"/>
-      <c r="K42" s="263"/>
-      <c r="L42" s="262"/>
-      <c r="M42" s="263"/>
-      <c r="N42" s="263"/>
-      <c r="O42" s="263"/>
-      <c r="P42" s="263"/>
-      <c r="Q42" s="262"/>
-      <c r="R42" s="263"/>
-      <c r="S42" s="263"/>
-      <c r="T42" s="263"/>
+      <c r="B42" s="264"/>
+      <c r="C42" s="265"/>
+      <c r="D42" s="266"/>
+      <c r="E42" s="266"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="265"/>
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="266"/>
+      <c r="L42" s="265"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="266"/>
+      <c r="Q42" s="265"/>
+      <c r="R42" s="266"/>
+      <c r="S42" s="266"/>
+      <c r="T42" s="266"/>
       <c r="U42" s="108"/>
-      <c r="V42" s="239"/>
-      <c r="W42" s="239"/>
-      <c r="X42" s="239"/>
-      <c r="Y42" s="239"/>
-      <c r="Z42" s="239"/>
-      <c r="AA42" s="239"/>
-      <c r="AB42" s="239"/>
-      <c r="AC42" s="263"/>
-      <c r="AD42" s="263"/>
-      <c r="AE42" s="264"/>
+      <c r="V42" s="242"/>
+      <c r="W42" s="242"/>
+      <c r="X42" s="242"/>
+      <c r="Y42" s="242"/>
+      <c r="Z42" s="242"/>
+      <c r="AA42" s="242"/>
+      <c r="AB42" s="242"/>
+      <c r="AC42" s="266"/>
+      <c r="AD42" s="266"/>
+      <c r="AE42" s="267"/>
       <c r="AF42" s="17"/>
     </row>
     <row r="43" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="260" t="s">
+      <c r="A43" s="263" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="261"/>
-      <c r="C43" s="262"/>
-      <c r="D43" s="263"/>
-      <c r="E43" s="263"/>
-      <c r="F43" s="263"/>
-      <c r="G43" s="262"/>
-      <c r="H43" s="263"/>
-      <c r="I43" s="263"/>
-      <c r="J43" s="263"/>
-      <c r="K43" s="263"/>
-      <c r="L43" s="262"/>
-      <c r="M43" s="263"/>
-      <c r="N43" s="263"/>
-      <c r="O43" s="263"/>
-      <c r="P43" s="263"/>
-      <c r="Q43" s="262"/>
-      <c r="R43" s="263"/>
-      <c r="S43" s="263"/>
-      <c r="T43" s="263"/>
+      <c r="B43" s="264"/>
+      <c r="C43" s="265"/>
+      <c r="D43" s="266"/>
+      <c r="E43" s="266"/>
+      <c r="F43" s="266"/>
+      <c r="G43" s="265"/>
+      <c r="H43" s="266"/>
+      <c r="I43" s="266"/>
+      <c r="J43" s="266"/>
+      <c r="K43" s="266"/>
+      <c r="L43" s="265"/>
+      <c r="M43" s="266"/>
+      <c r="N43" s="266"/>
+      <c r="O43" s="266"/>
+      <c r="P43" s="266"/>
+      <c r="Q43" s="265"/>
+      <c r="R43" s="266"/>
+      <c r="S43" s="266"/>
+      <c r="T43" s="266"/>
       <c r="U43" s="108"/>
-      <c r="V43" s="239"/>
-      <c r="W43" s="239"/>
-      <c r="X43" s="239"/>
-      <c r="Y43" s="239"/>
-      <c r="Z43" s="239"/>
-      <c r="AA43" s="239"/>
-      <c r="AB43" s="239"/>
-      <c r="AC43" s="263"/>
-      <c r="AD43" s="263"/>
-      <c r="AE43" s="264"/>
+      <c r="V43" s="242"/>
+      <c r="W43" s="242"/>
+      <c r="X43" s="242"/>
+      <c r="Y43" s="242"/>
+      <c r="Z43" s="242"/>
+      <c r="AA43" s="242"/>
+      <c r="AB43" s="242"/>
+      <c r="AC43" s="266"/>
+      <c r="AD43" s="266"/>
+      <c r="AE43" s="267"/>
       <c r="AF43" s="17"/>
     </row>
     <row r="44" spans="1:32" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -4372,78 +4384,78 @@
       <c r="AE44" s="20"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="219" t="s">
+      <c r="A45" s="222" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="246"/>
-      <c r="C45" s="246"/>
-      <c r="D45" s="246"/>
-      <c r="E45" s="246"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="246"/>
-      <c r="H45" s="246"/>
-      <c r="I45" s="246"/>
-      <c r="J45" s="246"/>
-      <c r="K45" s="246"/>
-      <c r="L45" s="246"/>
-      <c r="M45" s="246"/>
-      <c r="N45" s="246"/>
-      <c r="O45" s="246"/>
-      <c r="P45" s="246"/>
-      <c r="Q45" s="246"/>
-      <c r="R45" s="246"/>
-      <c r="S45" s="246"/>
-      <c r="T45" s="246"/>
-      <c r="U45" s="246"/>
-      <c r="V45" s="246"/>
-      <c r="W45" s="246"/>
-      <c r="X45" s="253" t="s">
+      <c r="B45" s="249"/>
+      <c r="C45" s="249"/>
+      <c r="D45" s="249"/>
+      <c r="E45" s="249"/>
+      <c r="F45" s="249"/>
+      <c r="G45" s="249"/>
+      <c r="H45" s="249"/>
+      <c r="I45" s="249"/>
+      <c r="J45" s="249"/>
+      <c r="K45" s="249"/>
+      <c r="L45" s="249"/>
+      <c r="M45" s="249"/>
+      <c r="N45" s="249"/>
+      <c r="O45" s="249"/>
+      <c r="P45" s="249"/>
+      <c r="Q45" s="249"/>
+      <c r="R45" s="249"/>
+      <c r="S45" s="249"/>
+      <c r="T45" s="249"/>
+      <c r="U45" s="249"/>
+      <c r="V45" s="249"/>
+      <c r="W45" s="249"/>
+      <c r="X45" s="256" t="s">
         <v>88</v>
       </c>
-      <c r="Y45" s="254"/>
-      <c r="Z45" s="255"/>
-      <c r="AA45" s="255"/>
-      <c r="AB45" s="255"/>
-      <c r="AC45" s="255"/>
-      <c r="AD45" s="255"/>
-      <c r="AE45" s="255"/>
+      <c r="Y45" s="257"/>
+      <c r="Z45" s="258"/>
+      <c r="AA45" s="258"/>
+      <c r="AB45" s="258"/>
+      <c r="AC45" s="258"/>
+      <c r="AD45" s="258"/>
+      <c r="AE45" s="258"/>
     </row>
     <row r="46" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="219" t="s">
+      <c r="A46" s="222" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="246"/>
-      <c r="C46" s="246"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="246"/>
-      <c r="F46" s="219" t="s">
+      <c r="B46" s="249"/>
+      <c r="C46" s="249"/>
+      <c r="D46" s="249"/>
+      <c r="E46" s="249"/>
+      <c r="F46" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="246"/>
-      <c r="H46" s="256" t="s">
+      <c r="G46" s="249"/>
+      <c r="H46" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="257"/>
-      <c r="J46" s="257"/>
-      <c r="K46" s="258"/>
-      <c r="L46" s="219" t="s">
+      <c r="I46" s="260"/>
+      <c r="J46" s="260"/>
+      <c r="K46" s="261"/>
+      <c r="L46" s="222" t="s">
         <v>92</v>
       </c>
-      <c r="M46" s="246"/>
-      <c r="N46" s="246"/>
-      <c r="O46" s="246"/>
-      <c r="P46" s="246"/>
-      <c r="Q46" s="219" t="s">
+      <c r="M46" s="249"/>
+      <c r="N46" s="249"/>
+      <c r="O46" s="249"/>
+      <c r="P46" s="249"/>
+      <c r="Q46" s="222" t="s">
         <v>93</v>
       </c>
-      <c r="R46" s="246"/>
-      <c r="S46" s="246"/>
-      <c r="T46" s="219" t="s">
+      <c r="R46" s="249"/>
+      <c r="S46" s="249"/>
+      <c r="T46" s="222" t="s">
         <v>94</v>
       </c>
-      <c r="U46" s="246"/>
-      <c r="V46" s="246"/>
-      <c r="W46" s="247"/>
+      <c r="U46" s="249"/>
+      <c r="V46" s="249"/>
+      <c r="W46" s="250"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="78"/>
       <c r="Z46" s="78"/>
@@ -4454,41 +4466,41 @@
       <c r="AE46" s="78"/>
     </row>
     <row r="47" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="220"/>
-      <c r="B47" s="231"/>
-      <c r="C47" s="231"/>
-      <c r="D47" s="231"/>
-      <c r="E47" s="231"/>
-      <c r="F47" s="220"/>
-      <c r="G47" s="231"/>
-      <c r="H47" s="219" t="s">
+      <c r="A47" s="223"/>
+      <c r="B47" s="234"/>
+      <c r="C47" s="234"/>
+      <c r="D47" s="234"/>
+      <c r="E47" s="234"/>
+      <c r="F47" s="223"/>
+      <c r="G47" s="234"/>
+      <c r="H47" s="222" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="246"/>
-      <c r="J47" s="219" t="s">
+      <c r="I47" s="249"/>
+      <c r="J47" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="K47" s="246"/>
-      <c r="L47" s="219"/>
-      <c r="M47" s="246"/>
-      <c r="N47" s="246"/>
-      <c r="O47" s="246"/>
-      <c r="P47" s="246"/>
-      <c r="Q47" s="219" t="s">
+      <c r="K47" s="249"/>
+      <c r="L47" s="222"/>
+      <c r="M47" s="249"/>
+      <c r="N47" s="249"/>
+      <c r="O47" s="249"/>
+      <c r="P47" s="249"/>
+      <c r="Q47" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="R47" s="246"/>
-      <c r="S47" s="251" t="s">
+      <c r="R47" s="249"/>
+      <c r="S47" s="254" t="s">
         <v>98</v>
       </c>
-      <c r="T47" s="219" t="s">
+      <c r="T47" s="222" t="s">
         <v>99</v>
       </c>
-      <c r="U47" s="246"/>
-      <c r="V47" s="219" t="s">
+      <c r="U47" s="249"/>
+      <c r="V47" s="222" t="s">
         <v>100</v>
       </c>
-      <c r="W47" s="247"/>
+      <c r="W47" s="250"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="86"/>
       <c r="Z47" s="86"/>
@@ -4514,24 +4526,24 @@
       <c r="E48" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="220"/>
-      <c r="G48" s="231"/>
-      <c r="H48" s="220"/>
-      <c r="I48" s="231"/>
-      <c r="J48" s="220"/>
-      <c r="K48" s="231"/>
-      <c r="L48" s="220"/>
-      <c r="M48" s="231"/>
-      <c r="N48" s="231"/>
-      <c r="O48" s="231"/>
-      <c r="P48" s="231"/>
-      <c r="Q48" s="220"/>
-      <c r="R48" s="231"/>
-      <c r="S48" s="259"/>
-      <c r="T48" s="220"/>
-      <c r="U48" s="231"/>
-      <c r="V48" s="220"/>
-      <c r="W48" s="231"/>
+      <c r="F48" s="223"/>
+      <c r="G48" s="234"/>
+      <c r="H48" s="223"/>
+      <c r="I48" s="234"/>
+      <c r="J48" s="223"/>
+      <c r="K48" s="234"/>
+      <c r="L48" s="223"/>
+      <c r="M48" s="234"/>
+      <c r="N48" s="234"/>
+      <c r="O48" s="234"/>
+      <c r="P48" s="234"/>
+      <c r="Q48" s="223"/>
+      <c r="R48" s="234"/>
+      <c r="S48" s="262"/>
+      <c r="T48" s="223"/>
+      <c r="U48" s="234"/>
+      <c r="V48" s="223"/>
+      <c r="W48" s="234"/>
       <c r="X48" s="25"/>
       <c r="Y48" s="86"/>
       <c r="Z48" s="86"/>
@@ -4557,40 +4569,40 @@
       <c r="E49" s="29">
         <v>24</v>
       </c>
-      <c r="F49" s="219">
+      <c r="F49" s="222">
         <v>25</v>
       </c>
-      <c r="G49" s="246"/>
-      <c r="H49" s="219">
+      <c r="G49" s="249"/>
+      <c r="H49" s="222">
         <v>26</v>
       </c>
-      <c r="I49" s="246"/>
-      <c r="J49" s="219">
+      <c r="I49" s="249"/>
+      <c r="J49" s="222">
         <v>27</v>
       </c>
-      <c r="K49" s="246"/>
-      <c r="L49" s="219">
+      <c r="K49" s="249"/>
+      <c r="L49" s="222">
         <v>28</v>
       </c>
-      <c r="M49" s="246"/>
-      <c r="N49" s="246"/>
-      <c r="O49" s="246"/>
-      <c r="P49" s="246"/>
-      <c r="Q49" s="219">
+      <c r="M49" s="249"/>
+      <c r="N49" s="249"/>
+      <c r="O49" s="249"/>
+      <c r="P49" s="249"/>
+      <c r="Q49" s="222">
         <v>29</v>
       </c>
-      <c r="R49" s="246"/>
+      <c r="R49" s="249"/>
       <c r="S49" s="29">
         <v>30</v>
       </c>
-      <c r="T49" s="219">
+      <c r="T49" s="222">
         <v>31</v>
       </c>
-      <c r="U49" s="246"/>
-      <c r="V49" s="219">
+      <c r="U49" s="249"/>
+      <c r="V49" s="222">
         <v>32</v>
       </c>
-      <c r="W49" s="247"/>
+      <c r="W49" s="250"/>
       <c r="X49" s="25"/>
       <c r="Y49" s="23"/>
       <c r="Z49" s="23"/>
@@ -4606,24 +4618,24 @@
       <c r="C50" s="108"/>
       <c r="D50" s="108"/>
       <c r="E50" s="108"/>
-      <c r="F50" s="239"/>
-      <c r="G50" s="239"/>
-      <c r="H50" s="239"/>
-      <c r="I50" s="239"/>
-      <c r="J50" s="239"/>
-      <c r="K50" s="239"/>
-      <c r="L50" s="239"/>
-      <c r="M50" s="239"/>
-      <c r="N50" s="239"/>
-      <c r="O50" s="239"/>
-      <c r="P50" s="239"/>
-      <c r="Q50" s="239"/>
-      <c r="R50" s="239"/>
+      <c r="F50" s="242"/>
+      <c r="G50" s="242"/>
+      <c r="H50" s="242"/>
+      <c r="I50" s="242"/>
+      <c r="J50" s="242"/>
+      <c r="K50" s="242"/>
+      <c r="L50" s="242"/>
+      <c r="M50" s="242"/>
+      <c r="N50" s="242"/>
+      <c r="O50" s="242"/>
+      <c r="P50" s="242"/>
+      <c r="Q50" s="242"/>
+      <c r="R50" s="242"/>
       <c r="S50" s="108"/>
-      <c r="T50" s="239"/>
-      <c r="U50" s="239"/>
-      <c r="V50" s="239"/>
-      <c r="W50" s="239"/>
+      <c r="T50" s="242"/>
+      <c r="U50" s="242"/>
+      <c r="V50" s="242"/>
+      <c r="W50" s="242"/>
       <c r="X50" s="107"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="2"/>
@@ -4667,47 +4679,47 @@
       <c r="AE51" s="1"/>
     </row>
     <row r="52" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="219" t="s">
+      <c r="A52" s="222" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="246"/>
-      <c r="C52" s="246"/>
-      <c r="D52" s="246"/>
-      <c r="E52" s="219" t="s">
+      <c r="B52" s="249"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="249"/>
+      <c r="E52" s="222" t="s">
         <v>107</v>
       </c>
-      <c r="F52" s="246"/>
-      <c r="G52" s="219" t="s">
+      <c r="F52" s="249"/>
+      <c r="G52" s="222" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="246"/>
-      <c r="I52" s="219" t="s">
+      <c r="H52" s="249"/>
+      <c r="I52" s="222" t="s">
         <v>109</v>
       </c>
-      <c r="J52" s="246"/>
-      <c r="K52" s="246"/>
-      <c r="L52" s="219" t="s">
+      <c r="J52" s="249"/>
+      <c r="K52" s="249"/>
+      <c r="L52" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="M52" s="246"/>
-      <c r="N52" s="219" t="s">
+      <c r="M52" s="249"/>
+      <c r="N52" s="222" t="s">
         <v>111</v>
       </c>
-      <c r="O52" s="246"/>
-      <c r="P52" s="248" t="s">
+      <c r="O52" s="249"/>
+      <c r="P52" s="251" t="s">
         <v>153</v>
       </c>
-      <c r="Q52" s="249"/>
-      <c r="R52" s="249"/>
-      <c r="S52" s="250"/>
-      <c r="T52" s="251" t="s">
+      <c r="Q52" s="252"/>
+      <c r="R52" s="252"/>
+      <c r="S52" s="253"/>
+      <c r="T52" s="254" t="s">
         <v>154</v>
       </c>
-      <c r="U52" s="219" t="s">
+      <c r="U52" s="222" t="s">
         <v>112</v>
       </c>
-      <c r="V52" s="246"/>
-      <c r="W52" s="219" t="s">
+      <c r="V52" s="249"/>
+      <c r="W52" s="222" t="s">
         <v>113</v>
       </c>
       <c r="X52" s="24"/>
@@ -4720,33 +4732,33 @@
       <c r="AE52" s="5"/>
     </row>
     <row r="53" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="220"/>
-      <c r="B53" s="231"/>
-      <c r="C53" s="231"/>
-      <c r="D53" s="231"/>
-      <c r="E53" s="220"/>
-      <c r="F53" s="231"/>
-      <c r="G53" s="220"/>
-      <c r="H53" s="231"/>
-      <c r="I53" s="220"/>
-      <c r="J53" s="231"/>
-      <c r="K53" s="231"/>
-      <c r="L53" s="220"/>
-      <c r="M53" s="231"/>
-      <c r="N53" s="220"/>
-      <c r="O53" s="231"/>
-      <c r="P53" s="219" t="s">
+      <c r="A53" s="223"/>
+      <c r="B53" s="234"/>
+      <c r="C53" s="234"/>
+      <c r="D53" s="234"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="234"/>
+      <c r="G53" s="223"/>
+      <c r="H53" s="234"/>
+      <c r="I53" s="223"/>
+      <c r="J53" s="234"/>
+      <c r="K53" s="234"/>
+      <c r="L53" s="223"/>
+      <c r="M53" s="234"/>
+      <c r="N53" s="223"/>
+      <c r="O53" s="234"/>
+      <c r="P53" s="222" t="s">
         <v>114</v>
       </c>
-      <c r="Q53" s="246"/>
-      <c r="R53" s="219" t="s">
+      <c r="Q53" s="249"/>
+      <c r="R53" s="222" t="s">
         <v>115</v>
       </c>
-      <c r="S53" s="247"/>
-      <c r="T53" s="252"/>
-      <c r="U53" s="220"/>
-      <c r="V53" s="231"/>
-      <c r="W53" s="220"/>
+      <c r="S53" s="250"/>
+      <c r="T53" s="255"/>
+      <c r="U53" s="223"/>
+      <c r="V53" s="234"/>
+      <c r="W53" s="223"/>
       <c r="X53" s="24"/>
       <c r="Y53" s="78"/>
       <c r="Z53" s="78"/>
@@ -4757,46 +4769,46 @@
       <c r="AE53" s="78"/>
     </row>
     <row r="54" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="220"/>
-      <c r="B54" s="231"/>
-      <c r="C54" s="231"/>
-      <c r="D54" s="231"/>
-      <c r="E54" s="219">
+      <c r="A54" s="223"/>
+      <c r="B54" s="234"/>
+      <c r="C54" s="234"/>
+      <c r="D54" s="234"/>
+      <c r="E54" s="222">
         <v>33</v>
       </c>
-      <c r="F54" s="246"/>
-      <c r="G54" s="219">
+      <c r="F54" s="249"/>
+      <c r="G54" s="222">
         <v>34</v>
       </c>
-      <c r="H54" s="246"/>
-      <c r="I54" s="219">
+      <c r="H54" s="249"/>
+      <c r="I54" s="222">
         <v>35</v>
       </c>
-      <c r="J54" s="246"/>
-      <c r="K54" s="246"/>
-      <c r="L54" s="219">
+      <c r="J54" s="249"/>
+      <c r="K54" s="249"/>
+      <c r="L54" s="222">
         <v>36</v>
       </c>
-      <c r="M54" s="246"/>
-      <c r="N54" s="219">
+      <c r="M54" s="249"/>
+      <c r="N54" s="222">
         <v>37</v>
       </c>
-      <c r="O54" s="246"/>
-      <c r="P54" s="219">
+      <c r="O54" s="249"/>
+      <c r="P54" s="222">
         <v>38</v>
       </c>
-      <c r="Q54" s="246"/>
-      <c r="R54" s="219">
+      <c r="Q54" s="249"/>
+      <c r="R54" s="222">
         <v>39</v>
       </c>
-      <c r="S54" s="246"/>
+      <c r="S54" s="249"/>
       <c r="T54" s="30">
         <v>40</v>
       </c>
-      <c r="U54" s="219">
+      <c r="U54" s="222">
         <v>41</v>
       </c>
-      <c r="V54" s="246"/>
+      <c r="V54" s="249"/>
       <c r="W54" s="29">
         <v>42</v>
       </c>
@@ -4810,30 +4822,30 @@
       <c r="AE54" s="86"/>
     </row>
     <row r="55" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="242" t="s">
+      <c r="A55" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="243"/>
-      <c r="C55" s="243"/>
-      <c r="D55" s="244"/>
-      <c r="E55" s="239"/>
-      <c r="F55" s="239"/>
-      <c r="G55" s="239"/>
-      <c r="H55" s="239"/>
-      <c r="I55" s="239"/>
-      <c r="J55" s="239"/>
-      <c r="K55" s="239"/>
-      <c r="L55" s="239"/>
-      <c r="M55" s="239"/>
-      <c r="N55" s="239"/>
-      <c r="O55" s="239"/>
-      <c r="P55" s="239"/>
-      <c r="Q55" s="239"/>
-      <c r="R55" s="239"/>
-      <c r="S55" s="239"/>
+      <c r="B55" s="246"/>
+      <c r="C55" s="246"/>
+      <c r="D55" s="247"/>
+      <c r="E55" s="242"/>
+      <c r="F55" s="242"/>
+      <c r="G55" s="242"/>
+      <c r="H55" s="242"/>
+      <c r="I55" s="242"/>
+      <c r="J55" s="242"/>
+      <c r="K55" s="242"/>
+      <c r="L55" s="242"/>
+      <c r="M55" s="242"/>
+      <c r="N55" s="242"/>
+      <c r="O55" s="242"/>
+      <c r="P55" s="242"/>
+      <c r="Q55" s="242"/>
+      <c r="R55" s="242"/>
+      <c r="S55" s="242"/>
       <c r="T55" s="108"/>
-      <c r="U55" s="239"/>
-      <c r="V55" s="239"/>
+      <c r="U55" s="242"/>
+      <c r="V55" s="242"/>
       <c r="W55" s="108"/>
       <c r="X55" s="107"/>
       <c r="Y55" s="87"/>
@@ -4845,35 +4857,35 @@
       <c r="AE55" s="87"/>
     </row>
     <row r="56" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="242" t="s">
+      <c r="A56" s="245" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="243"/>
-      <c r="C56" s="243"/>
-      <c r="D56" s="244"/>
-      <c r="E56" s="239"/>
-      <c r="F56" s="239"/>
-      <c r="G56" s="239"/>
-      <c r="H56" s="239"/>
-      <c r="I56" s="239"/>
-      <c r="J56" s="239"/>
-      <c r="K56" s="239"/>
-      <c r="L56" s="239"/>
-      <c r="M56" s="239"/>
-      <c r="N56" s="239"/>
-      <c r="O56" s="239"/>
-      <c r="P56" s="239"/>
-      <c r="Q56" s="239"/>
-      <c r="R56" s="239"/>
-      <c r="S56" s="239"/>
+      <c r="B56" s="246"/>
+      <c r="C56" s="246"/>
+      <c r="D56" s="247"/>
+      <c r="E56" s="242"/>
+      <c r="F56" s="242"/>
+      <c r="G56" s="242"/>
+      <c r="H56" s="242"/>
+      <c r="I56" s="242"/>
+      <c r="J56" s="242"/>
+      <c r="K56" s="242"/>
+      <c r="L56" s="242"/>
+      <c r="M56" s="242"/>
+      <c r="N56" s="242"/>
+      <c r="O56" s="242"/>
+      <c r="P56" s="242"/>
+      <c r="Q56" s="242"/>
+      <c r="R56" s="242"/>
+      <c r="S56" s="242"/>
       <c r="T56" s="108"/>
-      <c r="U56" s="239"/>
-      <c r="V56" s="239"/>
+      <c r="U56" s="242"/>
+      <c r="V56" s="242"/>
       <c r="W56" s="108"/>
-      <c r="X56" s="245" t="s">
+      <c r="X56" s="248" t="s">
         <v>118</v>
       </c>
-      <c r="Y56" s="234"/>
+      <c r="Y56" s="237"/>
       <c r="Z56" s="88"/>
       <c r="AA56" s="88"/>
       <c r="AB56" s="88"/>
@@ -4882,43 +4894,43 @@
       <c r="AE56" s="88"/>
     </row>
     <row r="57" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="242" t="s">
+      <c r="A57" s="245" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="243"/>
-      <c r="C57" s="243"/>
-      <c r="D57" s="244"/>
-      <c r="E57" s="239"/>
-      <c r="F57" s="239"/>
-      <c r="G57" s="239"/>
-      <c r="H57" s="239"/>
-      <c r="I57" s="239"/>
-      <c r="J57" s="239"/>
-      <c r="K57" s="239"/>
-      <c r="L57" s="239"/>
-      <c r="M57" s="239"/>
-      <c r="N57" s="239"/>
-      <c r="O57" s="239"/>
-      <c r="P57" s="239"/>
-      <c r="Q57" s="239"/>
-      <c r="R57" s="239"/>
-      <c r="S57" s="239"/>
+      <c r="B57" s="246"/>
+      <c r="C57" s="246"/>
+      <c r="D57" s="247"/>
+      <c r="E57" s="242"/>
+      <c r="F57" s="242"/>
+      <c r="G57" s="242"/>
+      <c r="H57" s="242"/>
+      <c r="I57" s="242"/>
+      <c r="J57" s="242"/>
+      <c r="K57" s="242"/>
+      <c r="L57" s="242"/>
+      <c r="M57" s="242"/>
+      <c r="N57" s="242"/>
+      <c r="O57" s="242"/>
+      <c r="P57" s="242"/>
+      <c r="Q57" s="242"/>
+      <c r="R57" s="242"/>
+      <c r="S57" s="242"/>
       <c r="T57" s="108"/>
-      <c r="U57" s="239"/>
-      <c r="V57" s="239"/>
+      <c r="U57" s="242"/>
+      <c r="V57" s="242"/>
       <c r="W57" s="108"/>
       <c r="X57" s="110"/>
       <c r="Y57" s="111"/>
-      <c r="Z57" s="240" t="s">
+      <c r="Z57" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="AA57" s="240"/>
-      <c r="AB57" s="240" t="s">
+      <c r="AA57" s="243"/>
+      <c r="AB57" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="AC57" s="240"/>
-      <c r="AD57" s="240"/>
-      <c r="AE57" s="240"/>
+      <c r="AC57" s="243"/>
+      <c r="AD57" s="243"/>
+      <c r="AE57" s="243"/>
     </row>
     <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
@@ -4938,14 +4950,14 @@
       <c r="O58" s="44"/>
       <c r="P58" s="44"/>
       <c r="Q58" s="44"/>
-      <c r="R58" s="241"/>
-      <c r="S58" s="241"/>
-      <c r="T58" s="241"/>
-      <c r="U58" s="241"/>
-      <c r="V58" s="241"/>
-      <c r="W58" s="241"/>
-      <c r="X58" s="241"/>
-      <c r="Y58" s="241"/>
+      <c r="R58" s="244"/>
+      <c r="S58" s="244"/>
+      <c r="T58" s="244"/>
+      <c r="U58" s="244"/>
+      <c r="V58" s="244"/>
+      <c r="W58" s="244"/>
+      <c r="X58" s="244"/>
+      <c r="Y58" s="244"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
       <c r="AB58" s="1"/>
@@ -4974,15 +4986,15 @@
       <c r="R59" s="12"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-      <c r="U59" s="237" t="s">
+      <c r="U59" s="240" t="s">
         <v>121</v>
       </c>
-      <c r="V59" s="238"/>
-      <c r="W59" s="238"/>
-      <c r="X59" s="238"/>
-      <c r="Y59" s="238"/>
-      <c r="Z59" s="238"/>
-      <c r="AA59" s="238"/>
+      <c r="V59" s="241"/>
+      <c r="W59" s="241"/>
+      <c r="X59" s="241"/>
+      <c r="Y59" s="241"/>
+      <c r="Z59" s="241"/>
+      <c r="AA59" s="241"/>
       <c r="AB59" s="14"/>
       <c r="AC59" s="14"/>
       <c r="AD59" s="14"/>
@@ -5009,18 +5021,18 @@
       <c r="R60" s="12"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="U60" s="237" t="s">
+      <c r="U60" s="240" t="s">
         <v>122</v>
       </c>
-      <c r="V60" s="238"/>
-      <c r="W60" s="238"/>
-      <c r="X60" s="238"/>
-      <c r="Y60" s="238"/>
-      <c r="Z60" s="238"/>
-      <c r="AA60" s="238"/>
-      <c r="AB60" s="238"/>
-      <c r="AC60" s="238"/>
-      <c r="AD60" s="238"/>
+      <c r="V60" s="241"/>
+      <c r="W60" s="241"/>
+      <c r="X60" s="241"/>
+      <c r="Y60" s="241"/>
+      <c r="Z60" s="241"/>
+      <c r="AA60" s="241"/>
+      <c r="AB60" s="241"/>
+      <c r="AC60" s="241"/>
+      <c r="AD60" s="241"/>
       <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5044,18 +5056,18 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="237" t="s">
+      <c r="U61" s="240" t="s">
         <v>123</v>
       </c>
-      <c r="V61" s="238"/>
-      <c r="W61" s="238"/>
-      <c r="X61" s="238"/>
-      <c r="Y61" s="238"/>
-      <c r="Z61" s="238"/>
-      <c r="AA61" s="238"/>
-      <c r="AB61" s="238"/>
-      <c r="AC61" s="238"/>
-      <c r="AD61" s="238"/>
+      <c r="V61" s="241"/>
+      <c r="W61" s="241"/>
+      <c r="X61" s="241"/>
+      <c r="Y61" s="241"/>
+      <c r="Z61" s="241"/>
+      <c r="AA61" s="241"/>
+      <c r="AB61" s="241"/>
+      <c r="AC61" s="241"/>
+      <c r="AD61" s="241"/>
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:32" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5151,11 +5163,11 @@
       <c r="U64" s="14"/>
       <c r="V64" s="14"/>
       <c r="W64" s="14"/>
-      <c r="X64" s="222" t="s">
+      <c r="X64" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="Y64" s="222"/>
-      <c r="Z64" s="222"/>
+      <c r="Y64" s="225"/>
+      <c r="Z64" s="225"/>
       <c r="AA64" s="14"/>
       <c r="AB64" s="125"/>
       <c r="AC64" s="145" t="s">
@@ -5167,33 +5179,33 @@
     </row>
     <row r="65" spans="1:32" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="230" t="s">
+      <c r="B65" s="233" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="230"/>
-      <c r="D65" s="230"/>
-      <c r="E65" s="230"/>
-      <c r="F65" s="230"/>
-      <c r="G65" s="230"/>
-      <c r="H65" s="230"/>
-      <c r="I65" s="230"/>
-      <c r="J65" s="230"/>
-      <c r="K65" s="230"/>
-      <c r="L65" s="230"/>
-      <c r="M65" s="230"/>
-      <c r="N65" s="230"/>
-      <c r="O65" s="230"/>
-      <c r="P65" s="230"/>
-      <c r="Q65" s="230"/>
-      <c r="R65" s="230"/>
-      <c r="S65" s="230"/>
-      <c r="T65" s="230"/>
-      <c r="U65" s="230"/>
-      <c r="V65" s="230"/>
-      <c r="W65" s="230"/>
-      <c r="X65" s="230"/>
-      <c r="Y65" s="230"/>
-      <c r="Z65" s="230"/>
+      <c r="C65" s="233"/>
+      <c r="D65" s="233"/>
+      <c r="E65" s="233"/>
+      <c r="F65" s="233"/>
+      <c r="G65" s="233"/>
+      <c r="H65" s="233"/>
+      <c r="I65" s="233"/>
+      <c r="J65" s="233"/>
+      <c r="K65" s="233"/>
+      <c r="L65" s="233"/>
+      <c r="M65" s="233"/>
+      <c r="N65" s="233"/>
+      <c r="O65" s="233"/>
+      <c r="P65" s="233"/>
+      <c r="Q65" s="233"/>
+      <c r="R65" s="233"/>
+      <c r="S65" s="233"/>
+      <c r="T65" s="233"/>
+      <c r="U65" s="233"/>
+      <c r="V65" s="233"/>
+      <c r="W65" s="233"/>
+      <c r="X65" s="233"/>
+      <c r="Y65" s="233"/>
+      <c r="Z65" s="233"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="128"/>
       <c r="AC65" s="146"/>
@@ -5220,18 +5232,18 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="231" t="s">
+      <c r="S66" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="T66" s="231"/>
+      <c r="T66" s="234"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
-      <c r="W66" s="232" t="s">
+      <c r="W66" s="235" t="s">
         <v>127</v>
       </c>
-      <c r="X66" s="233"/>
-      <c r="Y66" s="233"/>
-      <c r="Z66" s="233"/>
+      <c r="X66" s="236"/>
+      <c r="Y66" s="236"/>
+      <c r="Z66" s="236"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="130"/>
       <c r="AC66" s="151"/>
@@ -5262,10 +5274,10 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="233"/>
-      <c r="X67" s="233"/>
-      <c r="Y67" s="233"/>
-      <c r="Z67" s="233"/>
+      <c r="W67" s="236"/>
+      <c r="X67" s="236"/>
+      <c r="Y67" s="236"/>
+      <c r="Z67" s="236"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="133"/>
       <c r="AC67" s="134"/>
@@ -5274,38 +5286,38 @@
       <c r="AF67" s="18"/>
     </row>
     <row r="68" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="221" t="s">
+      <c r="A68" s="224" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="221"/>
-      <c r="C68" s="221"/>
-      <c r="D68" s="221"/>
-      <c r="E68" s="225" t="s">
+      <c r="B68" s="224"/>
+      <c r="C68" s="224"/>
+      <c r="D68" s="224"/>
+      <c r="E68" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="234"/>
-      <c r="G68" s="234"/>
-      <c r="H68" s="234"/>
-      <c r="I68" s="234"/>
-      <c r="J68" s="234"/>
-      <c r="K68" s="234"/>
-      <c r="L68" s="234"/>
-      <c r="M68" s="234"/>
-      <c r="N68" s="234"/>
-      <c r="O68" s="234"/>
-      <c r="P68" s="234"/>
-      <c r="Q68" s="234"/>
-      <c r="R68" s="234"/>
-      <c r="S68" s="235"/>
-      <c r="T68" s="235"/>
-      <c r="U68" s="235"/>
-      <c r="V68" s="235"/>
-      <c r="W68" s="234"/>
-      <c r="X68" s="236"/>
-      <c r="Y68" s="222" t="s">
+      <c r="F68" s="237"/>
+      <c r="G68" s="237"/>
+      <c r="H68" s="237"/>
+      <c r="I68" s="237"/>
+      <c r="J68" s="237"/>
+      <c r="K68" s="237"/>
+      <c r="L68" s="237"/>
+      <c r="M68" s="237"/>
+      <c r="N68" s="237"/>
+      <c r="O68" s="237"/>
+      <c r="P68" s="237"/>
+      <c r="Q68" s="237"/>
+      <c r="R68" s="237"/>
+      <c r="S68" s="238"/>
+      <c r="T68" s="238"/>
+      <c r="U68" s="238"/>
+      <c r="V68" s="238"/>
+      <c r="W68" s="237"/>
+      <c r="X68" s="239"/>
+      <c r="Y68" s="225" t="s">
         <v>129</v>
       </c>
-      <c r="Z68" s="222"/>
+      <c r="Z68" s="225"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="130"/>
       <c r="AC68" s="131"/>
@@ -5314,10 +5326,10 @@
       <c r="AF68" s="18"/>
     </row>
     <row r="69" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="225"/>
-      <c r="B69" s="225"/>
-      <c r="C69" s="225"/>
-      <c r="D69" s="225"/>
+      <c r="A69" s="228"/>
+      <c r="B69" s="228"/>
+      <c r="C69" s="228"/>
+      <c r="D69" s="228"/>
       <c r="E69" s="31"/>
       <c r="F69" s="119"/>
       <c r="G69" s="119"/>
@@ -5350,36 +5362,36 @@
       <c r="AF69" s="18"/>
     </row>
     <row r="70" spans="1:32" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="221" t="s">
+      <c r="A70" s="224" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="221"/>
-      <c r="C70" s="221"/>
-      <c r="D70" s="221"/>
-      <c r="E70" s="226"/>
-      <c r="F70" s="227"/>
-      <c r="G70" s="227"/>
-      <c r="H70" s="227"/>
-      <c r="I70" s="227"/>
-      <c r="J70" s="227"/>
-      <c r="K70" s="228"/>
-      <c r="L70" s="228"/>
-      <c r="M70" s="228"/>
-      <c r="N70" s="228"/>
-      <c r="O70" s="228"/>
-      <c r="P70" s="228"/>
-      <c r="Q70" s="228"/>
-      <c r="R70" s="228"/>
-      <c r="S70" s="228"/>
-      <c r="T70" s="228"/>
-      <c r="U70" s="227"/>
-      <c r="V70" s="227"/>
-      <c r="W70" s="229"/>
-      <c r="X70" s="229"/>
-      <c r="Y70" s="222" t="s">
+      <c r="B70" s="224"/>
+      <c r="C70" s="224"/>
+      <c r="D70" s="224"/>
+      <c r="E70" s="229"/>
+      <c r="F70" s="230"/>
+      <c r="G70" s="230"/>
+      <c r="H70" s="230"/>
+      <c r="I70" s="230"/>
+      <c r="J70" s="230"/>
+      <c r="K70" s="231"/>
+      <c r="L70" s="231"/>
+      <c r="M70" s="231"/>
+      <c r="N70" s="231"/>
+      <c r="O70" s="231"/>
+      <c r="P70" s="231"/>
+      <c r="Q70" s="231"/>
+      <c r="R70" s="231"/>
+      <c r="S70" s="231"/>
+      <c r="T70" s="231"/>
+      <c r="U70" s="230"/>
+      <c r="V70" s="230"/>
+      <c r="W70" s="232"/>
+      <c r="X70" s="232"/>
+      <c r="Y70" s="225" t="s">
         <v>129</v>
       </c>
-      <c r="Z70" s="222"/>
+      <c r="Z70" s="225"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="130"/>
       <c r="AC70" s="131"/>
@@ -5414,8 +5426,8 @@
       <c r="V71" s="119"/>
       <c r="W71" s="32"/>
       <c r="X71" s="32"/>
-      <c r="Y71" s="222"/>
-      <c r="Z71" s="222"/>
+      <c r="Y71" s="225"/>
+      <c r="Z71" s="225"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="133"/>
       <c r="AC71" s="134"/>
@@ -5424,36 +5436,36 @@
       <c r="AF71" s="18"/>
     </row>
     <row r="72" spans="1:32" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="221" t="s">
+      <c r="A72" s="224" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="221"/>
-      <c r="C72" s="221"/>
+      <c r="B72" s="224"/>
+      <c r="C72" s="224"/>
       <c r="D72" s="150"/>
-      <c r="E72" s="223"/>
-      <c r="F72" s="223"/>
-      <c r="G72" s="223"/>
-      <c r="H72" s="223"/>
-      <c r="I72" s="223"/>
-      <c r="J72" s="223"/>
-      <c r="K72" s="223"/>
-      <c r="L72" s="223"/>
-      <c r="M72" s="223"/>
-      <c r="N72" s="223"/>
-      <c r="O72" s="223"/>
-      <c r="P72" s="223"/>
-      <c r="Q72" s="223"/>
-      <c r="R72" s="223"/>
-      <c r="S72" s="223"/>
-      <c r="T72" s="223"/>
-      <c r="U72" s="223"/>
-      <c r="V72" s="223"/>
-      <c r="W72" s="223"/>
-      <c r="X72" s="223"/>
-      <c r="Y72" s="222" t="s">
+      <c r="E72" s="226"/>
+      <c r="F72" s="226"/>
+      <c r="G72" s="226"/>
+      <c r="H72" s="226"/>
+      <c r="I72" s="226"/>
+      <c r="J72" s="226"/>
+      <c r="K72" s="226"/>
+      <c r="L72" s="226"/>
+      <c r="M72" s="226"/>
+      <c r="N72" s="226"/>
+      <c r="O72" s="226"/>
+      <c r="P72" s="226"/>
+      <c r="Q72" s="226"/>
+      <c r="R72" s="226"/>
+      <c r="S72" s="226"/>
+      <c r="T72" s="226"/>
+      <c r="U72" s="226"/>
+      <c r="V72" s="226"/>
+      <c r="W72" s="226"/>
+      <c r="X72" s="226"/>
+      <c r="Y72" s="225" t="s">
         <v>129</v>
       </c>
-      <c r="Z72" s="222"/>
+      <c r="Z72" s="225"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="138"/>
       <c r="AC72" s="139"/>
@@ -5497,200 +5509,200 @@
       <c r="AE73" s="22"/>
     </row>
     <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="224" t="s">
+      <c r="A74" s="227" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="224"/>
-      <c r="C74" s="224"/>
-      <c r="D74" s="224"/>
-      <c r="E74" s="224"/>
-      <c r="F74" s="224"/>
-      <c r="G74" s="224"/>
-      <c r="H74" s="224"/>
-      <c r="I74" s="224"/>
-      <c r="J74" s="224"/>
-      <c r="K74" s="224"/>
-      <c r="L74" s="224"/>
-      <c r="M74" s="224"/>
-      <c r="N74" s="224"/>
-      <c r="O74" s="224"/>
-      <c r="P74" s="224"/>
-      <c r="Q74" s="224"/>
-      <c r="R74" s="224"/>
-      <c r="S74" s="224"/>
-      <c r="T74" s="224"/>
-      <c r="U74" s="224"/>
-      <c r="V74" s="224"/>
-      <c r="W74" s="224"/>
-      <c r="X74" s="224"/>
-      <c r="Y74" s="224"/>
-      <c r="Z74" s="224"/>
-      <c r="AA74" s="224"/>
-      <c r="AB74" s="224"/>
-      <c r="AC74" s="224"/>
-      <c r="AD74" s="224"/>
-      <c r="AE74" s="224"/>
+      <c r="B74" s="227"/>
+      <c r="C74" s="227"/>
+      <c r="D74" s="227"/>
+      <c r="E74" s="227"/>
+      <c r="F74" s="227"/>
+      <c r="G74" s="227"/>
+      <c r="H74" s="227"/>
+      <c r="I74" s="227"/>
+      <c r="J74" s="227"/>
+      <c r="K74" s="227"/>
+      <c r="L74" s="227"/>
+      <c r="M74" s="227"/>
+      <c r="N74" s="227"/>
+      <c r="O74" s="227"/>
+      <c r="P74" s="227"/>
+      <c r="Q74" s="227"/>
+      <c r="R74" s="227"/>
+      <c r="S74" s="227"/>
+      <c r="T74" s="227"/>
+      <c r="U74" s="227"/>
+      <c r="V74" s="227"/>
+      <c r="W74" s="227"/>
+      <c r="X74" s="227"/>
+      <c r="Y74" s="227"/>
+      <c r="Z74" s="227"/>
+      <c r="AA74" s="227"/>
+      <c r="AB74" s="227"/>
+      <c r="AC74" s="227"/>
+      <c r="AD74" s="227"/>
+      <c r="AE74" s="227"/>
     </row>
     <row r="75" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="219" t="s">
+      <c r="A75" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="213" t="s">
+      <c r="B75" s="216" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="214"/>
-      <c r="D75" s="214"/>
-      <c r="E75" s="214"/>
-      <c r="F75" s="213" t="s">
+      <c r="C75" s="217"/>
+      <c r="D75" s="217"/>
+      <c r="E75" s="217"/>
+      <c r="F75" s="216" t="s">
         <v>136</v>
       </c>
-      <c r="G75" s="214"/>
-      <c r="H75" s="214"/>
-      <c r="I75" s="214"/>
-      <c r="J75" s="213" t="s">
+      <c r="G75" s="217"/>
+      <c r="H75" s="217"/>
+      <c r="I75" s="217"/>
+      <c r="J75" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="K75" s="214"/>
-      <c r="L75" s="213" t="s">
+      <c r="K75" s="217"/>
+      <c r="L75" s="216" t="s">
         <v>137</v>
       </c>
-      <c r="M75" s="214"/>
-      <c r="N75" s="213" t="s">
+      <c r="M75" s="217"/>
+      <c r="N75" s="216" t="s">
         <v>138</v>
       </c>
-      <c r="O75" s="214"/>
-      <c r="P75" s="214"/>
-      <c r="Q75" s="214"/>
-      <c r="R75" s="214"/>
-      <c r="S75" s="214"/>
+      <c r="O75" s="217"/>
+      <c r="P75" s="217"/>
+      <c r="Q75" s="217"/>
+      <c r="R75" s="217"/>
+      <c r="S75" s="217"/>
       <c r="T75" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="U75" s="213" t="s">
+      <c r="U75" s="216" t="s">
         <v>140</v>
       </c>
-      <c r="V75" s="214"/>
-      <c r="W75" s="213" t="s">
+      <c r="V75" s="217"/>
+      <c r="W75" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="X75" s="214"/>
-      <c r="Y75" s="213" t="s">
+      <c r="X75" s="217"/>
+      <c r="Y75" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="Z75" s="214"/>
-      <c r="AA75" s="213" t="s">
+      <c r="Z75" s="217"/>
+      <c r="AA75" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="AB75" s="214"/>
-      <c r="AC75" s="214"/>
-      <c r="AD75" s="213" t="s">
+      <c r="AB75" s="217"/>
+      <c r="AC75" s="217"/>
+      <c r="AD75" s="216" t="s">
         <v>143</v>
       </c>
-      <c r="AE75" s="214"/>
+      <c r="AE75" s="217"/>
       <c r="AF75" s="17"/>
     </row>
     <row r="76" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="220"/>
-      <c r="B76" s="215"/>
-      <c r="C76" s="216"/>
-      <c r="D76" s="216"/>
-      <c r="E76" s="216"/>
-      <c r="F76" s="215"/>
-      <c r="G76" s="216"/>
-      <c r="H76" s="216"/>
-      <c r="I76" s="216"/>
-      <c r="J76" s="215"/>
-      <c r="K76" s="216"/>
-      <c r="L76" s="213" t="s">
+      <c r="A76" s="223"/>
+      <c r="B76" s="218"/>
+      <c r="C76" s="219"/>
+      <c r="D76" s="219"/>
+      <c r="E76" s="219"/>
+      <c r="F76" s="218"/>
+      <c r="G76" s="219"/>
+      <c r="H76" s="219"/>
+      <c r="I76" s="219"/>
+      <c r="J76" s="218"/>
+      <c r="K76" s="219"/>
+      <c r="L76" s="216" t="s">
         <v>144</v>
       </c>
-      <c r="M76" s="214"/>
-      <c r="N76" s="213"/>
-      <c r="O76" s="214"/>
-      <c r="P76" s="214"/>
-      <c r="Q76" s="214"/>
-      <c r="R76" s="214"/>
-      <c r="S76" s="214"/>
+      <c r="M76" s="217"/>
+      <c r="N76" s="216"/>
+      <c r="O76" s="217"/>
+      <c r="P76" s="217"/>
+      <c r="Q76" s="217"/>
+      <c r="R76" s="217"/>
+      <c r="S76" s="217"/>
       <c r="T76" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="U76" s="213" t="s">
+      <c r="U76" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="V76" s="214"/>
-      <c r="W76" s="213" t="s">
+      <c r="V76" s="217"/>
+      <c r="W76" s="216" t="s">
         <v>53</v>
       </c>
-      <c r="X76" s="214"/>
-      <c r="Y76" s="213" t="s">
+      <c r="X76" s="217"/>
+      <c r="Y76" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="Z76" s="214"/>
-      <c r="AA76" s="213" t="s">
+      <c r="Z76" s="217"/>
+      <c r="AA76" s="216" t="s">
         <v>148</v>
       </c>
-      <c r="AB76" s="214"/>
-      <c r="AC76" s="217"/>
-      <c r="AD76" s="215"/>
-      <c r="AE76" s="216"/>
+      <c r="AB76" s="217"/>
+      <c r="AC76" s="220"/>
+      <c r="AD76" s="218"/>
+      <c r="AE76" s="219"/>
       <c r="AF76" s="17"/>
     </row>
     <row r="77" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
         <v>1</v>
       </c>
-      <c r="B77" s="211">
+      <c r="B77" s="214">
         <v>2</v>
       </c>
-      <c r="C77" s="212"/>
-      <c r="D77" s="212"/>
-      <c r="E77" s="212"/>
-      <c r="F77" s="211">
+      <c r="C77" s="215"/>
+      <c r="D77" s="215"/>
+      <c r="E77" s="215"/>
+      <c r="F77" s="214">
         <v>3</v>
       </c>
-      <c r="G77" s="212"/>
-      <c r="H77" s="212"/>
-      <c r="I77" s="212"/>
-      <c r="J77" s="211">
+      <c r="G77" s="215"/>
+      <c r="H77" s="215"/>
+      <c r="I77" s="215"/>
+      <c r="J77" s="214">
         <v>4</v>
       </c>
-      <c r="K77" s="212"/>
-      <c r="L77" s="211">
+      <c r="K77" s="215"/>
+      <c r="L77" s="214">
         <v>5</v>
       </c>
-      <c r="M77" s="212"/>
-      <c r="N77" s="211">
+      <c r="M77" s="215"/>
+      <c r="N77" s="214">
         <v>6</v>
       </c>
-      <c r="O77" s="212"/>
-      <c r="P77" s="212"/>
-      <c r="Q77" s="212"/>
-      <c r="R77" s="212"/>
-      <c r="S77" s="212"/>
+      <c r="O77" s="215"/>
+      <c r="P77" s="215"/>
+      <c r="Q77" s="215"/>
+      <c r="R77" s="215"/>
+      <c r="S77" s="215"/>
       <c r="T77" s="34">
         <v>7</v>
       </c>
-      <c r="U77" s="211">
+      <c r="U77" s="214">
         <v>8</v>
       </c>
-      <c r="V77" s="212"/>
-      <c r="W77" s="211">
+      <c r="V77" s="215"/>
+      <c r="W77" s="214">
         <v>9</v>
       </c>
-      <c r="X77" s="212"/>
-      <c r="Y77" s="211">
+      <c r="X77" s="215"/>
+      <c r="Y77" s="214">
         <v>10</v>
       </c>
-      <c r="Z77" s="212"/>
-      <c r="AA77" s="211">
+      <c r="Z77" s="215"/>
+      <c r="AA77" s="214">
         <v>11</v>
       </c>
-      <c r="AB77" s="212"/>
-      <c r="AC77" s="212"/>
-      <c r="AD77" s="211">
+      <c r="AB77" s="215"/>
+      <c r="AC77" s="215"/>
+      <c r="AD77" s="214">
         <v>12</v>
       </c>
-      <c r="AE77" s="218"/>
+      <c r="AE77" s="221"/>
       <c r="AF77" s="17"/>
     </row>
   </sheetData>
@@ -5966,8 +5978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AC1"/>
+    <sheetView topLeftCell="E1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5992,56 +6004,56 @@
       <c r="Q1" s="154"/>
       <c r="R1" s="154"/>
       <c r="S1" s="154"/>
-      <c r="T1" s="338" t="s">
+      <c r="T1" s="341" t="s">
         <v>156</v>
       </c>
-      <c r="U1" s="338"/>
-      <c r="V1" s="338"/>
-      <c r="W1" s="338"/>
-      <c r="X1" s="338"/>
+      <c r="U1" s="341"/>
+      <c r="V1" s="341"/>
+      <c r="W1" s="341"/>
+      <c r="X1" s="341"/>
       <c r="Y1" s="199" t="s">
         <v>162</v>
       </c>
       <c r="Z1" s="200"/>
-      <c r="AA1" s="344"/>
-      <c r="AB1" s="345"/>
-      <c r="AC1" s="346"/>
+      <c r="AA1" s="347"/>
+      <c r="AB1" s="348"/>
+      <c r="AC1" s="349"/>
       <c r="AD1" s="210"/>
       <c r="AE1" s="154"/>
     </row>
     <row r="2" spans="1:31" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="337" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334"/>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
+      <c r="L2" s="337"/>
+      <c r="M2" s="337"/>
+      <c r="N2" s="337"/>
+      <c r="O2" s="337"/>
+      <c r="P2" s="337"/>
+      <c r="Q2" s="337"/>
+      <c r="R2" s="337"/>
       <c r="S2" s="155">
         <v>1</v>
       </c>
       <c r="T2" s="156" t="s">
         <v>158</v>
       </c>
-      <c r="U2" s="339" t="s">
+      <c r="U2" s="342" t="s">
         <v>159</v>
       </c>
-      <c r="V2" s="339"/>
-      <c r="W2" s="334"/>
-      <c r="X2" s="334"/>
+      <c r="V2" s="342"/>
+      <c r="W2" s="337"/>
+      <c r="X2" s="337"/>
       <c r="Y2" s="202"/>
       <c r="Z2" s="203"/>
       <c r="AA2" s="209"/>
@@ -6051,10 +6063,10 @@
       <c r="AE2" s="157"/>
     </row>
     <row r="3" spans="1:31" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="343" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="340"/>
+      <c r="B3" s="343"/>
       <c r="C3" s="197"/>
       <c r="D3" s="197"/>
       <c r="E3" s="197"/>
@@ -6072,13 +6084,13 @@
       <c r="Q3" s="197"/>
       <c r="R3" s="197"/>
       <c r="S3" s="198"/>
-      <c r="T3" s="339" t="s">
+      <c r="T3" s="342" t="s">
         <v>161</v>
       </c>
-      <c r="U3" s="339"/>
-      <c r="V3" s="339"/>
-      <c r="W3" s="340"/>
-      <c r="X3" s="340"/>
+      <c r="U3" s="342"/>
+      <c r="V3" s="342"/>
+      <c r="W3" s="343"/>
+      <c r="X3" s="343"/>
       <c r="Y3" s="205"/>
       <c r="Z3" s="206"/>
       <c r="AA3" s="204"/>
@@ -6105,38 +6117,38 @@
       <c r="O4" s="158"/>
       <c r="P4" s="158"/>
       <c r="Q4" s="158"/>
-      <c r="R4" s="341"/>
-      <c r="S4" s="341"/>
+      <c r="R4" s="344"/>
+      <c r="S4" s="344"/>
       <c r="T4" s="157"/>
       <c r="U4" s="157"/>
       <c r="V4" s="157"/>
       <c r="W4" s="157"/>
       <c r="X4" s="157"/>
-      <c r="Y4" s="342"/>
-      <c r="Z4" s="342"/>
-      <c r="AA4" s="336"/>
-      <c r="AB4" s="336"/>
-      <c r="AC4" s="336"/>
+      <c r="Y4" s="345"/>
+      <c r="Z4" s="345"/>
+      <c r="AA4" s="339"/>
+      <c r="AB4" s="339"/>
+      <c r="AC4" s="339"/>
       <c r="AD4" s="157"/>
       <c r="AE4" s="157"/>
     </row>
     <row r="5" spans="1:31" ht="10.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="327" t="s">
+      <c r="A5" s="330" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="327"/>
-      <c r="C5" s="327"/>
+      <c r="B5" s="330"/>
+      <c r="C5" s="330"/>
       <c r="D5" s="159"/>
       <c r="E5" s="159"/>
       <c r="F5" s="160"/>
       <c r="G5" s="159"/>
       <c r="H5" s="159"/>
       <c r="I5" s="159"/>
-      <c r="J5" s="314" t="s">
+      <c r="J5" s="316" t="s">
         <v>184</v>
       </c>
-      <c r="K5" s="314"/>
-      <c r="L5" s="314"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
       <c r="M5" s="159"/>
       <c r="N5" s="159"/>
       <c r="O5" s="161"/>
@@ -6149,11 +6161,11 @@
       <c r="V5" s="157"/>
       <c r="W5" s="157"/>
       <c r="X5" s="157"/>
-      <c r="Y5" s="343"/>
-      <c r="Z5" s="343"/>
-      <c r="AA5" s="337"/>
-      <c r="AB5" s="337"/>
-      <c r="AC5" s="337"/>
+      <c r="Y5" s="346"/>
+      <c r="Z5" s="346"/>
+      <c r="AA5" s="340"/>
+      <c r="AB5" s="340"/>
+      <c r="AC5" s="340"/>
       <c r="AD5" s="157"/>
       <c r="AE5" s="157"/>
     </row>
@@ -6186,19 +6198,19 @@
       <c r="V6" s="157"/>
       <c r="W6" s="157"/>
       <c r="X6" s="157"/>
-      <c r="Y6" s="334"/>
-      <c r="Z6" s="335"/>
-      <c r="AA6" s="334"/>
-      <c r="AB6" s="335"/>
-      <c r="AC6" s="335"/>
+      <c r="Y6" s="337"/>
+      <c r="Z6" s="338"/>
+      <c r="AA6" s="337"/>
+      <c r="AB6" s="338"/>
+      <c r="AC6" s="338"/>
       <c r="AD6" s="157"/>
       <c r="AE6" s="157"/>
     </row>
     <row r="7" spans="1:31" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="332" t="s">
+      <c r="A7" s="335" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="332"/>
+      <c r="B7" s="335"/>
       <c r="C7" s="168"/>
       <c r="D7" s="168"/>
       <c r="E7" s="168"/>
@@ -6206,11 +6218,11 @@
       <c r="G7" s="168"/>
       <c r="H7" s="168"/>
       <c r="I7" s="168"/>
-      <c r="J7" s="314" t="s">
+      <c r="J7" s="316" t="s">
         <v>165</v>
       </c>
-      <c r="K7" s="314"/>
-      <c r="L7" s="314"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
       <c r="M7" s="169"/>
       <c r="N7" s="169"/>
       <c r="O7" s="170"/>
@@ -6223,11 +6235,11 @@
       <c r="V7" s="157"/>
       <c r="W7" s="157"/>
       <c r="X7" s="157"/>
-      <c r="Y7" s="335"/>
-      <c r="Z7" s="335"/>
-      <c r="AA7" s="335"/>
-      <c r="AB7" s="335"/>
-      <c r="AC7" s="335"/>
+      <c r="Y7" s="338"/>
+      <c r="Z7" s="338"/>
+      <c r="AA7" s="338"/>
+      <c r="AB7" s="338"/>
+      <c r="AC7" s="338"/>
       <c r="AD7" s="157"/>
       <c r="AE7" s="157"/>
     </row>
@@ -6260,29 +6272,29 @@
       <c r="V8" s="172"/>
       <c r="W8" s="172"/>
       <c r="X8" s="172"/>
-      <c r="Y8" s="326"/>
-      <c r="Z8" s="326"/>
-      <c r="AA8" s="330"/>
-      <c r="AB8" s="330"/>
-      <c r="AC8" s="330"/>
+      <c r="Y8" s="329"/>
+      <c r="Z8" s="329"/>
+      <c r="AA8" s="333"/>
+      <c r="AB8" s="333"/>
+      <c r="AC8" s="333"/>
       <c r="AD8" s="172"/>
       <c r="AE8" s="172"/>
     </row>
     <row r="9" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="327" t="s">
+      <c r="A9" s="330" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="331"/>
-      <c r="C9" s="331"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
+      <c r="B9" s="334"/>
+      <c r="C9" s="334"/>
+      <c r="D9" s="335"/>
+      <c r="E9" s="335"/>
       <c r="F9" s="159"/>
       <c r="G9" s="159"/>
       <c r="H9" s="177"/>
-      <c r="I9" s="328" t="s">
+      <c r="I9" s="331" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="333"/>
+      <c r="J9" s="336"/>
       <c r="K9" s="178"/>
       <c r="L9" s="178"/>
       <c r="M9" s="175"/>
@@ -6313,11 +6325,11 @@
       <c r="C10" s="157"/>
       <c r="D10" s="157"/>
       <c r="E10" s="157"/>
-      <c r="F10" s="322" t="s">
+      <c r="F10" s="325" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="322"/>
-      <c r="H10" s="322"/>
+      <c r="G10" s="325"/>
+      <c r="H10" s="325"/>
       <c r="I10" s="157"/>
       <c r="J10" s="157"/>
       <c r="K10" s="154"/>
@@ -6343,25 +6355,25 @@
       <c r="AE10" s="157"/>
     </row>
     <row r="11" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="327" t="s">
+      <c r="A11" s="330" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="327"/>
-      <c r="C11" s="328"/>
-      <c r="D11" s="328"/>
-      <c r="E11" s="328"/>
-      <c r="F11" s="328"/>
-      <c r="G11" s="328"/>
-      <c r="H11" s="328"/>
-      <c r="I11" s="328"/>
-      <c r="J11" s="328"/>
-      <c r="K11" s="328"/>
-      <c r="L11" s="328"/>
-      <c r="M11" s="328"/>
-      <c r="N11" s="328"/>
-      <c r="O11" s="328"/>
-      <c r="P11" s="328"/>
-      <c r="Q11" s="328"/>
+      <c r="B11" s="330"/>
+      <c r="C11" s="331"/>
+      <c r="D11" s="331"/>
+      <c r="E11" s="331"/>
+      <c r="F11" s="331"/>
+      <c r="G11" s="331"/>
+      <c r="H11" s="331"/>
+      <c r="I11" s="331"/>
+      <c r="J11" s="331"/>
+      <c r="K11" s="331"/>
+      <c r="L11" s="331"/>
+      <c r="M11" s="331"/>
+      <c r="N11" s="331"/>
+      <c r="O11" s="331"/>
+      <c r="P11" s="331"/>
+      <c r="Q11" s="331"/>
       <c r="R11" s="179"/>
       <c r="S11" s="171" t="s">
         <v>170</v>
@@ -6400,10 +6412,10 @@
       <c r="P12" s="173"/>
       <c r="Q12" s="183"/>
       <c r="R12" s="179"/>
-      <c r="S12" s="328" t="s">
+      <c r="S12" s="331" t="s">
         <v>171</v>
       </c>
-      <c r="T12" s="328"/>
+      <c r="T12" s="331"/>
       <c r="U12" s="184"/>
       <c r="V12" s="184"/>
       <c r="W12" s="185"/>
@@ -6428,11 +6440,11 @@
       <c r="I13" s="172"/>
       <c r="J13" s="172"/>
       <c r="K13" s="172"/>
-      <c r="L13" s="316" t="s">
+      <c r="L13" s="318" t="s">
         <v>172</v>
       </c>
-      <c r="M13" s="316"/>
-      <c r="N13" s="316"/>
+      <c r="M13" s="318"/>
+      <c r="N13" s="318"/>
       <c r="O13" s="172"/>
       <c r="P13" s="172"/>
       <c r="Q13" s="172"/>
@@ -6458,44 +6470,44 @@
       <c r="AE13" s="172"/>
     </row>
     <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="318" t="s">
+      <c r="A14" s="320" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="318"/>
-      <c r="C14" s="318"/>
-      <c r="D14" s="317" t="s">
+      <c r="B14" s="320"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="321" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="317"/>
-      <c r="F14" s="317"/>
-      <c r="G14" s="317"/>
-      <c r="H14" s="315" t="s">
+      <c r="E14" s="321"/>
+      <c r="F14" s="319"/>
+      <c r="G14" s="319"/>
+      <c r="H14" s="317" t="s">
         <v>174</v>
       </c>
-      <c r="I14" s="315"/>
-      <c r="J14" s="315"/>
+      <c r="I14" s="317"/>
+      <c r="J14" s="317"/>
       <c r="K14" s="172"/>
-      <c r="L14" s="318" t="s">
+      <c r="L14" s="320" t="s">
         <v>175</v>
       </c>
-      <c r="M14" s="318"/>
-      <c r="N14" s="317"/>
-      <c r="O14" s="317"/>
-      <c r="P14" s="317" t="s">
+      <c r="M14" s="320"/>
+      <c r="N14" s="212"/>
+      <c r="O14" s="213" t="s">
         <v>176</v>
       </c>
-      <c r="Q14" s="317"/>
+      <c r="P14" s="211"/>
+      <c r="Q14" s="211"/>
       <c r="R14" s="179"/>
-      <c r="S14" s="329"/>
-      <c r="T14" s="329"/>
-      <c r="U14" s="329"/>
-      <c r="V14" s="329"/>
-      <c r="W14" s="329"/>
-      <c r="X14" s="329"/>
-      <c r="Y14" s="329"/>
-      <c r="Z14" s="329"/>
-      <c r="AA14" s="329"/>
-      <c r="AB14" s="329"/>
+      <c r="S14" s="332"/>
+      <c r="T14" s="332"/>
+      <c r="U14" s="332"/>
+      <c r="V14" s="332"/>
+      <c r="W14" s="332"/>
+      <c r="X14" s="332"/>
+      <c r="Y14" s="332"/>
+      <c r="Z14" s="332"/>
+      <c r="AA14" s="332"/>
+      <c r="AB14" s="332"/>
       <c r="AC14" s="175"/>
       <c r="AD14" s="175"/>
       <c r="AE14" s="157"/>
@@ -6518,8 +6530,8 @@
       <c r="I15" s="165"/>
       <c r="J15" s="165"/>
       <c r="K15" s="175"/>
-      <c r="L15" s="325"/>
-      <c r="M15" s="325"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="328"/>
       <c r="N15" s="165" t="s">
         <v>177</v>
       </c>
@@ -6529,18 +6541,18 @@
       </c>
       <c r="Q15" s="187"/>
       <c r="R15" s="179"/>
-      <c r="S15" s="326" t="s">
+      <c r="S15" s="329" t="s">
         <v>179</v>
       </c>
-      <c r="T15" s="326"/>
-      <c r="U15" s="326"/>
-      <c r="V15" s="326"/>
-      <c r="W15" s="326"/>
-      <c r="X15" s="326"/>
-      <c r="Y15" s="326"/>
-      <c r="Z15" s="326"/>
-      <c r="AA15" s="326"/>
-      <c r="AB15" s="326"/>
+      <c r="T15" s="329"/>
+      <c r="U15" s="329"/>
+      <c r="V15" s="329"/>
+      <c r="W15" s="329"/>
+      <c r="X15" s="329"/>
+      <c r="Y15" s="329"/>
+      <c r="Z15" s="329"/>
+      <c r="AA15" s="329"/>
+      <c r="AB15" s="329"/>
       <c r="AC15" s="157"/>
       <c r="AD15" s="157"/>
       <c r="AE15" s="157"/>
@@ -6579,22 +6591,22 @@
       <c r="AE16" s="157"/>
     </row>
     <row r="17" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="318" t="s">
+      <c r="A17" s="320" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="318"/>
-      <c r="C17" s="318"/>
-      <c r="D17" s="317" t="s">
+      <c r="B17" s="320"/>
+      <c r="C17" s="320"/>
+      <c r="D17" s="321" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="317"/>
-      <c r="F17" s="317"/>
-      <c r="G17" s="317"/>
-      <c r="H17" s="315" t="s">
+      <c r="E17" s="321"/>
+      <c r="F17" s="319"/>
+      <c r="G17" s="319"/>
+      <c r="H17" s="317" t="s">
         <v>181</v>
       </c>
-      <c r="I17" s="315"/>
-      <c r="J17" s="315"/>
+      <c r="I17" s="317"/>
+      <c r="J17" s="317"/>
       <c r="K17" s="193"/>
       <c r="L17" s="172"/>
       <c r="M17" s="172"/>
@@ -6603,14 +6615,14 @@
       <c r="P17" s="172"/>
       <c r="Q17" s="172"/>
       <c r="R17" s="179"/>
-      <c r="S17" s="323" t="s">
+      <c r="S17" s="326" t="s">
         <v>182</v>
       </c>
-      <c r="T17" s="323"/>
-      <c r="U17" s="321"/>
-      <c r="V17" s="324"/>
-      <c r="W17" s="321"/>
-      <c r="X17" s="321"/>
+      <c r="T17" s="326"/>
+      <c r="U17" s="324"/>
+      <c r="V17" s="327"/>
+      <c r="W17" s="324"/>
+      <c r="X17" s="324"/>
       <c r="Y17" s="173"/>
       <c r="Z17" s="173"/>
       <c r="AA17" s="158"/>
@@ -6665,11 +6677,11 @@
       <c r="AE18" s="157"/>
     </row>
     <row r="19" spans="1:31" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="316"/>
-      <c r="B19" s="316"/>
-      <c r="C19" s="316"/>
-      <c r="D19" s="317"/>
-      <c r="E19" s="317"/>
+      <c r="A19" s="318"/>
+      <c r="B19" s="318"/>
+      <c r="C19" s="318"/>
+      <c r="D19" s="319"/>
+      <c r="E19" s="319"/>
       <c r="F19" s="172"/>
       <c r="G19" s="172"/>
       <c r="H19" s="172"/>
@@ -6685,14 +6697,14 @@
       <c r="R19" s="179"/>
       <c r="S19" s="172"/>
       <c r="T19" s="172"/>
-      <c r="U19" s="319"/>
-      <c r="V19" s="319"/>
-      <c r="W19" s="320"/>
-      <c r="X19" s="320"/>
-      <c r="Y19" s="320"/>
-      <c r="Z19" s="320"/>
-      <c r="AA19" s="320"/>
-      <c r="AB19" s="320"/>
+      <c r="U19" s="322"/>
+      <c r="V19" s="322"/>
+      <c r="W19" s="323"/>
+      <c r="X19" s="323"/>
+      <c r="Y19" s="323"/>
+      <c r="Z19" s="323"/>
+      <c r="AA19" s="323"/>
+      <c r="AB19" s="323"/>
       <c r="AC19" s="172"/>
       <c r="AD19" s="172"/>
       <c r="AE19" s="172"/>
@@ -6701,19 +6713,19 @@
       <c r="A20" s="175"/>
       <c r="B20" s="175"/>
       <c r="C20" s="175"/>
-      <c r="D20" s="314"/>
-      <c r="E20" s="314"/>
+      <c r="D20" s="316"/>
+      <c r="E20" s="316"/>
       <c r="F20" s="195"/>
       <c r="G20" s="172"/>
-      <c r="H20" s="314"/>
-      <c r="I20" s="314"/>
-      <c r="J20" s="314"/>
+      <c r="H20" s="316"/>
+      <c r="I20" s="316"/>
+      <c r="J20" s="316"/>
       <c r="K20" s="196" t="s">
         <v>183</v>
       </c>
       <c r="L20" s="195"/>
-      <c r="M20" s="314"/>
-      <c r="N20" s="314"/>
+      <c r="M20" s="316"/>
+      <c r="N20" s="316"/>
       <c r="O20" s="157"/>
       <c r="P20" s="195"/>
       <c r="Q20" s="175"/>
@@ -6733,7 +6745,7 @@
       <c r="AE20" s="157"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="48">
     <mergeCell ref="AA4:AC5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="T1:X1"/>
@@ -6762,7 +6774,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="S14:AB14"/>
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="W19:Y19"/>
@@ -6774,7 +6785,6 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="S15:AB15"/>
     <mergeCell ref="L13:N13"/>
-    <mergeCell ref="N14:O14"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="M20:N20"/>

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -426,9 +426,6 @@
     <t>Форма по ОКУД</t>
   </si>
   <si>
-    <t>ТОВАРНО-ТРАНСПОРТНАЯ НАКЛАДНАЯ № 00987_____________________________________  №</t>
-  </si>
-  <si>
     <t>(серия)</t>
   </si>
   <si>
@@ -611,6 +608,9 @@
   </si>
   <si>
     <t>Менеджер</t>
+  </si>
+  <si>
+    <t>ТОВАРНО-ТРАНСПОРТНАЯ НАКЛАДНАЯ _____________________________________  №</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1682,9 +1682,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1886,416 +1883,422 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2606,8 +2609,8 @@
   </sheetPr>
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:L16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,52 +2673,52 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="305" t="s">
+      <c r="Z1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="305"/>
-      <c r="AB1" s="305"/>
-      <c r="AC1" s="305"/>
-      <c r="AD1" s="305"/>
-      <c r="AE1" s="305"/>
+      <c r="AA1" s="213"/>
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="213"/>
+      <c r="AD1" s="213"/>
+      <c r="AE1" s="213"/>
     </row>
     <row r="2" spans="1:32" ht="9.1999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="227"/>
-      <c r="K2" s="227"/>
-      <c r="L2" s="227"/>
-      <c r="M2" s="227"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="227"/>
-      <c r="S2" s="227"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="227"/>
-      <c r="AB2" s="227"/>
-      <c r="AC2" s="227"/>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
     </row>
     <row r="3" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="151" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="43"/>
@@ -2757,20 +2760,20 @@
       <c r="AF3" s="18"/>
     </row>
     <row r="4" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="284" t="s">
+      <c r="A4" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="284"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284"/>
-      <c r="E4" s="284"/>
-      <c r="F4" s="284"/>
-      <c r="G4" s="284"/>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -2784,11 +2787,11 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="305" t="s">
+      <c r="Z4" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="305"/>
-      <c r="AB4" s="305"/>
+      <c r="AA4" s="213"/>
+      <c r="AB4" s="213"/>
       <c r="AC4" s="91"/>
       <c r="AD4" s="87"/>
       <c r="AE4" s="92"/>
@@ -2798,32 +2801,32 @@
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="309"/>
-      <c r="C5" s="309"/>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="309"/>
-      <c r="J5" s="309"/>
-      <c r="K5" s="309"/>
-      <c r="L5" s="309"/>
-      <c r="M5" s="309"/>
-      <c r="N5" s="309"/>
-      <c r="O5" s="309"/>
-      <c r="P5" s="309"/>
-      <c r="Q5" s="309"/>
-      <c r="R5" s="309"/>
-      <c r="S5" s="309"/>
-      <c r="T5" s="309"/>
-      <c r="U5" s="309"/>
-      <c r="V5" s="309"/>
-      <c r="W5" s="309"/>
-      <c r="X5" s="309"/>
-      <c r="Y5" s="309"/>
-      <c r="Z5" s="309"/>
-      <c r="AA5" s="309"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
+      <c r="S5" s="216"/>
+      <c r="T5" s="216"/>
+      <c r="U5" s="216"/>
+      <c r="V5" s="216"/>
+      <c r="W5" s="216"/>
+      <c r="X5" s="216"/>
+      <c r="Y5" s="216"/>
+      <c r="Z5" s="216"/>
+      <c r="AA5" s="216"/>
       <c r="AB5" s="49" t="s">
         <v>6</v>
       </c>
@@ -2872,25 +2875,25 @@
       <c r="A7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
+      <c r="B7" s="218"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="288" t="s">
+      <c r="I7" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="288"/>
-      <c r="K7" s="288"/>
-      <c r="L7" s="288"/>
-      <c r="M7" s="288"/>
-      <c r="N7" s="234"/>
-      <c r="O7" s="234"/>
-      <c r="P7" s="234"/>
-      <c r="Q7" s="234"/>
-      <c r="R7" s="234"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="224"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="218"/>
+      <c r="R7" s="218"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -2910,7 +2913,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
-      <c r="D8" s="207" t="s">
+      <c r="D8" s="206" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="41"/>
@@ -2943,38 +2946,38 @@
       <c r="AF8" s="18"/>
     </row>
     <row r="9" spans="1:32" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="284" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="298"/>
-      <c r="C9" s="314" t="s">
+      <c r="A9" s="215" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="225"/>
+      <c r="C9" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="314"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="314"/>
-      <c r="G9" s="314"/>
-      <c r="H9" s="314"/>
-      <c r="I9" s="314"/>
-      <c r="J9" s="314"/>
-      <c r="K9" s="314"/>
-      <c r="L9" s="314"/>
-      <c r="M9" s="314"/>
-      <c r="N9" s="314"/>
-      <c r="O9" s="314"/>
-      <c r="P9" s="314"/>
-      <c r="Q9" s="314"/>
-      <c r="R9" s="314"/>
-      <c r="S9" s="314"/>
-      <c r="T9" s="314"/>
-      <c r="U9" s="314"/>
-      <c r="V9" s="314"/>
-      <c r="W9" s="314"/>
-      <c r="X9" s="314"/>
-      <c r="Y9" s="314"/>
-      <c r="Z9" s="314"/>
-      <c r="AA9" s="314"/>
-      <c r="AB9" s="315"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="226"/>
+      <c r="H9" s="226"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="226"/>
+      <c r="K9" s="226"/>
+      <c r="L9" s="226"/>
+      <c r="M9" s="226"/>
+      <c r="N9" s="226"/>
+      <c r="O9" s="226"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="226"/>
+      <c r="S9" s="226"/>
+      <c r="T9" s="226"/>
+      <c r="U9" s="226"/>
+      <c r="V9" s="226"/>
+      <c r="W9" s="226"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="226"/>
+      <c r="AA9" s="226"/>
+      <c r="AB9" s="227"/>
       <c r="AC9" s="97"/>
       <c r="AD9" s="98"/>
       <c r="AE9" s="99"/>
@@ -3017,38 +3020,38 @@
       <c r="AF10" s="18"/>
     </row>
     <row r="11" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="280" t="s">
+      <c r="A11" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="280"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="268"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="268"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="268"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="310"/>
-      <c r="P11" s="310"/>
-      <c r="Q11" s="310"/>
-      <c r="R11" s="310"/>
-      <c r="S11" s="310"/>
-      <c r="T11" s="310"/>
-      <c r="U11" s="310"/>
-      <c r="V11" s="310"/>
+      <c r="B11" s="217"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="219"/>
+      <c r="N11" s="219"/>
+      <c r="O11" s="220"/>
+      <c r="P11" s="220"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="220"/>
+      <c r="S11" s="220"/>
+      <c r="T11" s="220"/>
+      <c r="U11" s="220"/>
+      <c r="V11" s="220"/>
       <c r="W11" s="54"/>
       <c r="X11" s="52" t="s">
         <v>13</v>
       </c>
       <c r="Y11" s="38"/>
-      <c r="Z11" s="311"/>
-      <c r="AA11" s="311"/>
-      <c r="AB11" s="312"/>
+      <c r="Z11" s="221"/>
+      <c r="AA11" s="221"/>
+      <c r="AB11" s="222"/>
       <c r="AC11" s="70"/>
       <c r="AD11" s="71"/>
       <c r="AE11" s="96"/>
@@ -3091,17 +3094,17 @@
       <c r="AF12" s="18"/>
     </row>
     <row r="13" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="284" t="s">
+      <c r="A13" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="284"/>
-      <c r="C13" s="234" t="s">
+      <c r="B13" s="215"/>
+      <c r="C13" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="234"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -3110,22 +3113,22 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="284" t="s">
+      <c r="P13" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="284"/>
-      <c r="R13" s="313"/>
-      <c r="S13" s="313"/>
-      <c r="T13" s="313"/>
-      <c r="U13" s="313"/>
-      <c r="V13" s="313"/>
-      <c r="W13" s="313"/>
-      <c r="X13" s="313"/>
-      <c r="Y13" s="313"/>
-      <c r="Z13" s="313"/>
+      <c r="Q13" s="215"/>
+      <c r="R13" s="223"/>
+      <c r="S13" s="223"/>
+      <c r="T13" s="223"/>
+      <c r="U13" s="223"/>
+      <c r="V13" s="223"/>
+      <c r="W13" s="223"/>
+      <c r="X13" s="223"/>
+      <c r="Y13" s="223"/>
+      <c r="Z13" s="223"/>
       <c r="AA13" s="55"/>
       <c r="AB13" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC13" s="100"/>
       <c r="AD13" s="43"/>
@@ -3169,10 +3172,10 @@
       <c r="AF14" s="18"/>
     </row>
     <row r="15" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="284" t="s">
+      <c r="A15" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="284"/>
+      <c r="B15" s="215"/>
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
@@ -3212,24 +3215,24 @@
       <c r="A16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="350"/>
-      <c r="C16" s="350"/>
-      <c r="D16" s="350"/>
-      <c r="E16" s="350"/>
-      <c r="F16" s="350"/>
-      <c r="G16" s="350"/>
-      <c r="H16" s="350"/>
-      <c r="I16" s="350"/>
-      <c r="J16" s="350"/>
-      <c r="K16" s="350"/>
-      <c r="L16" s="350"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="230"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="230"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="230"/>
+      <c r="I16" s="230"/>
+      <c r="J16" s="230"/>
+      <c r="K16" s="230"/>
+      <c r="L16" s="230"/>
       <c r="M16" s="4"/>
       <c r="N16" s="21"/>
-      <c r="O16" s="308" t="s">
+      <c r="O16" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="308"/>
-      <c r="Q16" s="308"/>
+      <c r="P16" s="231"/>
+      <c r="Q16" s="231"/>
       <c r="R16" s="66"/>
       <c r="S16" s="62"/>
       <c r="T16" s="62"/>
@@ -3239,10 +3242,10 @@
       <c r="X16" s="62"/>
       <c r="Y16" s="62"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="305" t="s">
+      <c r="AA16" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="AB16" s="306"/>
+      <c r="AB16" s="229"/>
       <c r="AC16" s="100"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="101"/>
@@ -3270,11 +3273,11 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="243" t="s">
+      <c r="T17" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="U17" s="243"/>
-      <c r="V17" s="243"/>
+      <c r="U17" s="228"/>
+      <c r="V17" s="228"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
@@ -3287,42 +3290,42 @@
       <c r="AF17" s="18"/>
     </row>
     <row r="18" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="284" t="s">
+      <c r="A18" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="284"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="280"/>
-      <c r="E18" s="280"/>
-      <c r="F18" s="280"/>
-      <c r="G18" s="280"/>
-      <c r="H18" s="280"/>
-      <c r="I18" s="280"/>
-      <c r="J18" s="280"/>
-      <c r="K18" s="280"/>
-      <c r="L18" s="280"/>
-      <c r="M18" s="284" t="s">
+      <c r="B18" s="215"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="217"/>
+      <c r="L18" s="217"/>
+      <c r="M18" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="284"/>
+      <c r="N18" s="215"/>
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
-      <c r="Q18" s="305" t="s">
+      <c r="Q18" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="305"/>
-      <c r="S18" s="305"/>
-      <c r="T18" s="305"/>
+      <c r="R18" s="213"/>
+      <c r="S18" s="213"/>
+      <c r="T18" s="213"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
       <c r="W18" s="43"/>
       <c r="X18" s="43"/>
       <c r="Y18" s="43"/>
-      <c r="Z18" s="305" t="s">
+      <c r="Z18" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="AA18" s="305"/>
-      <c r="AB18" s="306"/>
+      <c r="AA18" s="213"/>
+      <c r="AB18" s="229"/>
       <c r="AC18" s="100"/>
       <c r="AD18" s="43"/>
       <c r="AE18" s="101"/>
@@ -3379,28 +3382,28 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="284" t="s">
+      <c r="M20" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="284"/>
+      <c r="N20" s="215"/>
       <c r="O20" s="61"/>
       <c r="P20" s="61"/>
-      <c r="Q20" s="305" t="s">
-        <v>151</v>
-      </c>
-      <c r="R20" s="305"/>
-      <c r="S20" s="305"/>
-      <c r="T20" s="305"/>
+      <c r="Q20" s="213" t="s">
+        <v>150</v>
+      </c>
+      <c r="R20" s="213"/>
+      <c r="S20" s="213"/>
+      <c r="T20" s="213"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="61"/>
       <c r="X20" s="61"/>
       <c r="Y20" s="61"/>
-      <c r="Z20" s="305" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA20" s="305"/>
-      <c r="AB20" s="306"/>
+      <c r="Z20" s="213" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA20" s="213"/>
+      <c r="AB20" s="229"/>
       <c r="AC20" s="74"/>
       <c r="AD20" s="76"/>
       <c r="AE20" s="75"/>
@@ -3444,23 +3447,23 @@
     <row r="22" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="278" t="s">
+      <c r="C22" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="278"/>
-      <c r="E22" s="278"/>
-      <c r="F22" s="278"/>
-      <c r="G22" s="278"/>
+      <c r="D22" s="235"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="307" t="s">
+      <c r="L22" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="307"/>
-      <c r="N22" s="307"/>
-      <c r="O22" s="307"/>
+      <c r="M22" s="236"/>
+      <c r="N22" s="236"/>
+      <c r="O22" s="236"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3479,147 +3482,147 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="222" t="s">
+      <c r="A23" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="249"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="249"/>
-      <c r="E23" s="222" t="s">
+      <c r="B23" s="233"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="222" t="s">
+      <c r="F23" s="233"/>
+      <c r="G23" s="233"/>
+      <c r="H23" s="233"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="232" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="249"/>
-      <c r="L23" s="249"/>
-      <c r="M23" s="222" t="s">
+      <c r="K23" s="233"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="249"/>
-      <c r="O23" s="249"/>
-      <c r="P23" s="249"/>
-      <c r="Q23" s="249"/>
-      <c r="R23" s="222" t="s">
+      <c r="N23" s="233"/>
+      <c r="O23" s="233"/>
+      <c r="P23" s="233"/>
+      <c r="Q23" s="233"/>
+      <c r="R23" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="S23" s="249"/>
-      <c r="T23" s="249"/>
-      <c r="U23" s="222" t="s">
+      <c r="S23" s="233"/>
+      <c r="T23" s="233"/>
+      <c r="U23" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="249"/>
-      <c r="W23" s="222" t="s">
+      <c r="V23" s="233"/>
+      <c r="W23" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="X23" s="249"/>
-      <c r="Y23" s="249"/>
-      <c r="Z23" s="222" t="s">
+      <c r="X23" s="233"/>
+      <c r="Y23" s="233"/>
+      <c r="Z23" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="AA23" s="249"/>
-      <c r="AB23" s="249"/>
-      <c r="AC23" s="222" t="s">
+      <c r="AA23" s="233"/>
+      <c r="AB23" s="233"/>
+      <c r="AC23" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="AD23" s="249"/>
-      <c r="AE23" s="249"/>
+      <c r="AD23" s="233"/>
+      <c r="AE23" s="233"/>
       <c r="AF23" s="17"/>
     </row>
     <row r="24" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="222">
+      <c r="A24" s="232">
         <v>1</v>
       </c>
-      <c r="B24" s="249"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="222">
+      <c r="B24" s="233"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="232">
         <v>2</v>
       </c>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249"/>
-      <c r="J24" s="222">
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="232">
         <v>3</v>
       </c>
-      <c r="K24" s="249"/>
-      <c r="L24" s="249"/>
-      <c r="M24" s="222">
+      <c r="K24" s="233"/>
+      <c r="L24" s="233"/>
+      <c r="M24" s="232">
         <v>4</v>
       </c>
-      <c r="N24" s="249"/>
-      <c r="O24" s="249"/>
-      <c r="P24" s="249"/>
-      <c r="Q24" s="249"/>
-      <c r="R24" s="222">
+      <c r="N24" s="233"/>
+      <c r="O24" s="233"/>
+      <c r="P24" s="233"/>
+      <c r="Q24" s="233"/>
+      <c r="R24" s="232">
         <v>5</v>
       </c>
-      <c r="S24" s="249"/>
-      <c r="T24" s="249"/>
-      <c r="U24" s="222">
+      <c r="S24" s="233"/>
+      <c r="T24" s="233"/>
+      <c r="U24" s="232">
         <v>6</v>
       </c>
-      <c r="V24" s="249"/>
-      <c r="W24" s="222">
+      <c r="V24" s="233"/>
+      <c r="W24" s="232">
         <v>7</v>
       </c>
-      <c r="X24" s="249"/>
-      <c r="Y24" s="249"/>
-      <c r="Z24" s="222">
+      <c r="X24" s="233"/>
+      <c r="Y24" s="233"/>
+      <c r="Z24" s="232">
         <v>8</v>
       </c>
-      <c r="AA24" s="249"/>
-      <c r="AB24" s="249"/>
-      <c r="AC24" s="222">
+      <c r="AA24" s="233"/>
+      <c r="AB24" s="233"/>
+      <c r="AC24" s="232">
         <v>9</v>
       </c>
-      <c r="AD24" s="249"/>
-      <c r="AE24" s="250"/>
+      <c r="AD24" s="233"/>
+      <c r="AE24" s="234"/>
       <c r="AF24" s="17"/>
     </row>
     <row r="25" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="299" t="s">
+      <c r="A25" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="300"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="281" t="s">
+      <c r="B25" s="244"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="282"/>
-      <c r="G25" s="282"/>
-      <c r="H25" s="282"/>
-      <c r="I25" s="282"/>
-      <c r="J25" s="301" t="s">
+      <c r="F25" s="246"/>
+      <c r="G25" s="246"/>
+      <c r="H25" s="246"/>
+      <c r="I25" s="246"/>
+      <c r="J25" s="247" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="302"/>
-      <c r="L25" s="302"/>
-      <c r="M25" s="303"/>
-      <c r="N25" s="303"/>
-      <c r="O25" s="303"/>
-      <c r="P25" s="303"/>
-      <c r="Q25" s="303"/>
-      <c r="R25" s="300"/>
-      <c r="S25" s="300"/>
-      <c r="T25" s="300"/>
-      <c r="U25" s="291"/>
-      <c r="V25" s="291"/>
-      <c r="W25" s="291"/>
-      <c r="X25" s="291"/>
-      <c r="Y25" s="291"/>
-      <c r="Z25" s="291"/>
-      <c r="AA25" s="291"/>
-      <c r="AB25" s="291"/>
-      <c r="AC25" s="291"/>
-      <c r="AD25" s="291"/>
-      <c r="AE25" s="291"/>
+      <c r="K25" s="248"/>
+      <c r="L25" s="248"/>
+      <c r="M25" s="249"/>
+      <c r="N25" s="249"/>
+      <c r="O25" s="249"/>
+      <c r="P25" s="249"/>
+      <c r="Q25" s="249"/>
+      <c r="R25" s="244"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="244"/>
+      <c r="U25" s="237"/>
+      <c r="V25" s="237"/>
+      <c r="W25" s="237"/>
+      <c r="X25" s="237"/>
+      <c r="Y25" s="237"/>
+      <c r="Z25" s="237"/>
+      <c r="AA25" s="237"/>
+      <c r="AB25" s="237"/>
+      <c r="AC25" s="237"/>
+      <c r="AD25" s="237"/>
+      <c r="AE25" s="237"/>
       <c r="AF25" s="112"/>
     </row>
     <row r="26" spans="1:32" ht="3.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3645,39 +3648,39 @@
       <c r="T26" s="89"/>
       <c r="U26" s="113"/>
       <c r="V26" s="114"/>
-      <c r="W26" s="294" t="s">
+      <c r="W26" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="X26" s="295"/>
-      <c r="Y26" s="295"/>
-      <c r="Z26" s="295"/>
-      <c r="AA26" s="295"/>
-      <c r="AB26" s="295"/>
+      <c r="X26" s="239"/>
+      <c r="Y26" s="239"/>
+      <c r="Z26" s="239"/>
+      <c r="AA26" s="239"/>
+      <c r="AB26" s="239"/>
       <c r="AC26" s="116"/>
       <c r="AD26" s="90"/>
       <c r="AE26" s="114"/>
       <c r="AF26" s="112"/>
     </row>
     <row r="27" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="284" t="s">
+      <c r="A27" s="215" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="284"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="284"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="234" t="s">
+      <c r="F27" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="234"/>
-      <c r="H27" s="297"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="241"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="283" t="s">
+      <c r="J27" s="242" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="284"/>
-      <c r="L27" s="284"/>
-      <c r="M27" s="298"/>
+      <c r="K27" s="215"/>
+      <c r="L27" s="215"/>
+      <c r="M27" s="225"/>
       <c r="N27" s="80"/>
       <c r="O27" s="80"/>
       <c r="P27" s="9" t="s">
@@ -3685,56 +3688,56 @@
       </c>
       <c r="Q27" s="78"/>
       <c r="R27" s="79"/>
-      <c r="S27" s="223" t="s">
+      <c r="S27" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="T27" s="294"/>
+      <c r="T27" s="238"/>
       <c r="U27" s="115"/>
       <c r="V27" s="77"/>
-      <c r="W27" s="295"/>
-      <c r="X27" s="296"/>
-      <c r="Y27" s="296"/>
-      <c r="Z27" s="296"/>
-      <c r="AA27" s="296"/>
-      <c r="AB27" s="296"/>
+      <c r="W27" s="239"/>
+      <c r="X27" s="240"/>
+      <c r="Y27" s="240"/>
+      <c r="Z27" s="240"/>
+      <c r="AA27" s="240"/>
+      <c r="AB27" s="240"/>
       <c r="AC27" s="115"/>
       <c r="AD27" s="43"/>
       <c r="AE27" s="77"/>
       <c r="AF27" s="112"/>
     </row>
     <row r="28" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="288" t="s">
+      <c r="A28" s="224" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="288"/>
-      <c r="C28" s="288"/>
-      <c r="D28" s="288"/>
+      <c r="B28" s="224"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="224"/>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
       <c r="G28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="292"/>
-      <c r="I28" s="293"/>
-      <c r="J28" s="283"/>
-      <c r="K28" s="284"/>
-      <c r="L28" s="284"/>
-      <c r="M28" s="284"/>
-      <c r="N28" s="278" t="s">
+      <c r="H28" s="257"/>
+      <c r="I28" s="258"/>
+      <c r="J28" s="242"/>
+      <c r="K28" s="215"/>
+      <c r="L28" s="215"/>
+      <c r="M28" s="215"/>
+      <c r="N28" s="235" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="278"/>
+      <c r="O28" s="235"/>
       <c r="P28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q28" s="278" t="s">
+      <c r="Q28" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="304"/>
-      <c r="S28" s="274" t="s">
+      <c r="R28" s="251"/>
+      <c r="S28" s="252" t="s">
         <v>56</v>
       </c>
-      <c r="T28" s="290"/>
+      <c r="T28" s="253"/>
       <c r="U28" s="107"/>
       <c r="V28" s="107"/>
       <c r="W28" s="2"/>
@@ -3752,22 +3755,22 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="275" t="s">
+      <c r="E29" s="254" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="275"/>
+      <c r="F29" s="254"/>
       <c r="G29" s="2"/>
       <c r="H29" s="50"/>
-      <c r="I29" s="153"/>
+      <c r="I29" s="152"/>
       <c r="J29" s="24"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="275"/>
-      <c r="O29" s="275"/>
+      <c r="N29" s="254"/>
+      <c r="O29" s="254"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="275"/>
-      <c r="R29" s="275"/>
+      <c r="Q29" s="254"/>
+      <c r="R29" s="254"/>
       <c r="S29" s="26"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -3783,10 +3786,10 @@
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="280" t="s">
+      <c r="A30" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="280"/>
+      <c r="B30" s="217"/>
       <c r="C30" s="78"/>
       <c r="D30" s="78"/>
       <c r="E30" s="78"/>
@@ -3794,28 +3797,28 @@
       <c r="G30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="258" t="s">
+      <c r="H30" s="255" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="258"/>
-      <c r="J30" s="279" t="s">
+      <c r="I30" s="255"/>
+      <c r="J30" s="256" t="s">
         <v>58</v>
       </c>
-      <c r="K30" s="280"/>
-      <c r="L30" s="280"/>
+      <c r="K30" s="217"/>
+      <c r="L30" s="217"/>
       <c r="M30" s="80"/>
       <c r="N30" s="80"/>
       <c r="O30" s="80"/>
-      <c r="P30" s="280" t="s">
+      <c r="P30" s="217" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="280"/>
-      <c r="R30" s="280"/>
-      <c r="S30" s="279" t="s">
+      <c r="Q30" s="217"/>
+      <c r="R30" s="217"/>
+      <c r="S30" s="256" t="s">
         <v>62</v>
       </c>
-      <c r="T30" s="280"/>
-      <c r="U30" s="280"/>
+      <c r="T30" s="217"/>
+      <c r="U30" s="217"/>
       <c r="V30" s="80"/>
       <c r="W30" s="80"/>
       <c r="X30" s="80"/>
@@ -3831,22 +3834,22 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="273" t="s">
+      <c r="D31" s="259" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="273"/>
-      <c r="F31" s="273"/>
+      <c r="E31" s="259"/>
+      <c r="F31" s="259"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="24"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="278" t="s">
+      <c r="M31" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="N31" s="278"/>
-      <c r="O31" s="278"/>
+      <c r="N31" s="235"/>
+      <c r="O31" s="235"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -3876,21 +3879,21 @@
       <c r="G32" s="78"/>
       <c r="H32" s="78"/>
       <c r="I32" s="79"/>
-      <c r="J32" s="279" t="s">
+      <c r="J32" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="280"/>
-      <c r="L32" s="280"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
       <c r="O32" s="78"/>
       <c r="P32" s="78"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="64"/>
-      <c r="S32" s="283" t="s">
+      <c r="S32" s="242" t="s">
         <v>66</v>
       </c>
-      <c r="T32" s="284"/>
+      <c r="T32" s="215"/>
       <c r="U32" s="80"/>
       <c r="V32" s="80"/>
       <c r="W32" s="80"/>
@@ -3905,33 +3908,33 @@
     </row>
     <row r="33" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="243" t="s">
+      <c r="B33" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243" t="s">
+      <c r="C33" s="228"/>
+      <c r="D33" s="228" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
       <c r="G33" s="124" t="s">
         <v>69</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="123"/>
-      <c r="J33" s="281"/>
-      <c r="K33" s="282"/>
-      <c r="L33" s="282"/>
-      <c r="M33" s="278" t="s">
+      <c r="J33" s="245"/>
+      <c r="K33" s="246"/>
+      <c r="L33" s="246"/>
+      <c r="M33" s="235" t="s">
         <v>68</v>
       </c>
-      <c r="N33" s="278"/>
-      <c r="O33" s="278" t="s">
+      <c r="N33" s="235"/>
+      <c r="O33" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="278"/>
-      <c r="Q33" s="278"/>
-      <c r="R33" s="285"/>
+      <c r="P33" s="235"/>
+      <c r="Q33" s="235"/>
+      <c r="R33" s="260"/>
       <c r="S33" s="24"/>
       <c r="T33" s="2"/>
       <c r="U33" s="19"/>
@@ -3947,10 +3950,10 @@
       <c r="AE33" s="19"/>
     </row>
     <row r="34" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="288" t="s">
+      <c r="A34" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="289"/>
+      <c r="B34" s="263"/>
       <c r="C34" s="64"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
@@ -3958,17 +3961,17 @@
       <c r="G34" s="105"/>
       <c r="H34" s="105"/>
       <c r="I34" s="121"/>
-      <c r="J34" s="279" t="s">
+      <c r="J34" s="256" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="280"/>
+      <c r="K34" s="217"/>
       <c r="L34" s="64"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
       <c r="O34" s="78"/>
       <c r="P34" s="78"/>
       <c r="Q34" s="78"/>
-      <c r="R34" s="286"/>
+      <c r="R34" s="261"/>
       <c r="S34" s="24"/>
       <c r="T34" s="80"/>
       <c r="U34" s="80"/>
@@ -3984,34 +3987,34 @@
       <c r="AE34" s="80"/>
     </row>
     <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="290"/>
-      <c r="B35" s="289"/>
+      <c r="A35" s="253"/>
+      <c r="B35" s="263"/>
       <c r="C35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="278" t="s">
+      <c r="D35" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="278"/>
-      <c r="F35" s="278"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
       <c r="G35" s="106"/>
       <c r="H35" s="106"/>
       <c r="I35" s="122"/>
-      <c r="J35" s="274"/>
-      <c r="K35" s="275"/>
+      <c r="J35" s="252"/>
+      <c r="K35" s="254"/>
       <c r="L35" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="M35" s="278" t="s">
+      <c r="M35" s="235" t="s">
         <v>68</v>
       </c>
-      <c r="N35" s="278"/>
-      <c r="O35" s="278" t="s">
+      <c r="N35" s="235"/>
+      <c r="O35" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="P35" s="278"/>
-      <c r="Q35" s="278"/>
-      <c r="R35" s="287"/>
+      <c r="P35" s="235"/>
+      <c r="Q35" s="235"/>
+      <c r="R35" s="262"/>
       <c r="S35" s="25"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
@@ -4033,11 +4036,11 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="268" t="s">
+      <c r="G36" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="268"/>
-      <c r="I36" s="269"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="264"/>
       <c r="J36" s="25"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -4097,257 +4100,257 @@
       <c r="AE37" s="5"/>
     </row>
     <row r="38" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="270" t="s">
+      <c r="A38" s="265" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="271"/>
-      <c r="C38" s="271"/>
-      <c r="D38" s="271"/>
-      <c r="E38" s="271"/>
-      <c r="F38" s="271"/>
-      <c r="G38" s="271"/>
-      <c r="H38" s="271"/>
-      <c r="I38" s="271"/>
-      <c r="J38" s="271"/>
-      <c r="K38" s="271"/>
-      <c r="L38" s="271"/>
-      <c r="M38" s="271"/>
-      <c r="N38" s="271"/>
-      <c r="O38" s="271"/>
-      <c r="P38" s="271"/>
-      <c r="Q38" s="271"/>
-      <c r="R38" s="271"/>
-      <c r="S38" s="271"/>
-      <c r="T38" s="271"/>
-      <c r="U38" s="271"/>
-      <c r="V38" s="271"/>
-      <c r="W38" s="271"/>
-      <c r="X38" s="271"/>
-      <c r="Y38" s="271"/>
-      <c r="Z38" s="271"/>
-      <c r="AA38" s="271"/>
-      <c r="AB38" s="271"/>
-      <c r="AC38" s="271"/>
-      <c r="AD38" s="271"/>
-      <c r="AE38" s="271"/>
+      <c r="B38" s="266"/>
+      <c r="C38" s="266"/>
+      <c r="D38" s="266"/>
+      <c r="E38" s="266"/>
+      <c r="F38" s="266"/>
+      <c r="G38" s="266"/>
+      <c r="H38" s="266"/>
+      <c r="I38" s="266"/>
+      <c r="J38" s="266"/>
+      <c r="K38" s="266"/>
+      <c r="L38" s="266"/>
+      <c r="M38" s="266"/>
+      <c r="N38" s="266"/>
+      <c r="O38" s="266"/>
+      <c r="P38" s="266"/>
+      <c r="Q38" s="266"/>
+      <c r="R38" s="266"/>
+      <c r="S38" s="266"/>
+      <c r="T38" s="266"/>
+      <c r="U38" s="266"/>
+      <c r="V38" s="266"/>
+      <c r="W38" s="266"/>
+      <c r="X38" s="266"/>
+      <c r="Y38" s="266"/>
+      <c r="Z38" s="266"/>
+      <c r="AA38" s="266"/>
+      <c r="AB38" s="266"/>
+      <c r="AC38" s="266"/>
+      <c r="AD38" s="266"/>
+      <c r="AE38" s="266"/>
       <c r="AF38" s="17"/>
     </row>
     <row r="39" spans="1:32" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="272" t="s">
+      <c r="A39" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="273"/>
-      <c r="C39" s="272" t="s">
+      <c r="B39" s="259"/>
+      <c r="C39" s="267" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="273"/>
-      <c r="E39" s="273"/>
-      <c r="F39" s="273"/>
-      <c r="G39" s="272" t="s">
+      <c r="D39" s="259"/>
+      <c r="E39" s="259"/>
+      <c r="F39" s="259"/>
+      <c r="G39" s="267" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="273"/>
-      <c r="I39" s="273"/>
-      <c r="J39" s="273"/>
-      <c r="K39" s="273"/>
-      <c r="L39" s="272" t="s">
+      <c r="H39" s="259"/>
+      <c r="I39" s="259"/>
+      <c r="J39" s="259"/>
+      <c r="K39" s="259"/>
+      <c r="L39" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="M39" s="273"/>
-      <c r="N39" s="273"/>
-      <c r="O39" s="273"/>
-      <c r="P39" s="273"/>
-      <c r="Q39" s="222" t="s">
+      <c r="M39" s="259"/>
+      <c r="N39" s="259"/>
+      <c r="O39" s="259"/>
+      <c r="P39" s="259"/>
+      <c r="Q39" s="232" t="s">
         <v>78</v>
       </c>
-      <c r="R39" s="249"/>
-      <c r="S39" s="249"/>
-      <c r="T39" s="249"/>
-      <c r="U39" s="249"/>
-      <c r="V39" s="251" t="s">
+      <c r="R39" s="233"/>
+      <c r="S39" s="233"/>
+      <c r="T39" s="233"/>
+      <c r="U39" s="233"/>
+      <c r="V39" s="268" t="s">
         <v>79</v>
       </c>
-      <c r="W39" s="252"/>
-      <c r="X39" s="276"/>
-      <c r="Y39" s="277"/>
-      <c r="Z39" s="222" t="s">
+      <c r="W39" s="269"/>
+      <c r="X39" s="270"/>
+      <c r="Y39" s="271"/>
+      <c r="Z39" s="232" t="s">
         <v>80</v>
       </c>
-      <c r="AA39" s="249"/>
-      <c r="AB39" s="249"/>
-      <c r="AC39" s="222" t="s">
+      <c r="AA39" s="233"/>
+      <c r="AB39" s="233"/>
+      <c r="AC39" s="232" t="s">
         <v>81</v>
       </c>
-      <c r="AD39" s="249"/>
-      <c r="AE39" s="250"/>
+      <c r="AD39" s="233"/>
+      <c r="AE39" s="234"/>
       <c r="AF39" s="17"/>
     </row>
     <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="274"/>
-      <c r="B40" s="275"/>
-      <c r="C40" s="274"/>
-      <c r="D40" s="275"/>
-      <c r="E40" s="275"/>
-      <c r="F40" s="275"/>
-      <c r="G40" s="274"/>
-      <c r="H40" s="275"/>
-      <c r="I40" s="275"/>
-      <c r="J40" s="275"/>
-      <c r="K40" s="275"/>
-      <c r="L40" s="274"/>
-      <c r="M40" s="275"/>
-      <c r="N40" s="275"/>
-      <c r="O40" s="275"/>
-      <c r="P40" s="275"/>
-      <c r="Q40" s="263" t="s">
+      <c r="A40" s="252"/>
+      <c r="B40" s="254"/>
+      <c r="C40" s="252"/>
+      <c r="D40" s="254"/>
+      <c r="E40" s="254"/>
+      <c r="F40" s="254"/>
+      <c r="G40" s="252"/>
+      <c r="H40" s="254"/>
+      <c r="I40" s="254"/>
+      <c r="J40" s="254"/>
+      <c r="K40" s="254"/>
+      <c r="L40" s="252"/>
+      <c r="M40" s="254"/>
+      <c r="N40" s="254"/>
+      <c r="O40" s="254"/>
+      <c r="P40" s="254"/>
+      <c r="Q40" s="272" t="s">
         <v>82</v>
       </c>
-      <c r="R40" s="264"/>
-      <c r="S40" s="264"/>
-      <c r="T40" s="264"/>
+      <c r="R40" s="273"/>
+      <c r="S40" s="273"/>
+      <c r="T40" s="273"/>
       <c r="U40" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="V40" s="222" t="s">
+      <c r="V40" s="232" t="s">
         <v>83</v>
       </c>
-      <c r="W40" s="249"/>
-      <c r="X40" s="222" t="s">
+      <c r="W40" s="233"/>
+      <c r="X40" s="232" t="s">
         <v>84</v>
       </c>
-      <c r="Y40" s="250"/>
-      <c r="Z40" s="223"/>
-      <c r="AA40" s="234"/>
-      <c r="AB40" s="234"/>
-      <c r="AC40" s="223"/>
-      <c r="AD40" s="234"/>
-      <c r="AE40" s="234"/>
+      <c r="Y40" s="234"/>
+      <c r="Z40" s="250"/>
+      <c r="AA40" s="218"/>
+      <c r="AB40" s="218"/>
+      <c r="AC40" s="250"/>
+      <c r="AD40" s="218"/>
+      <c r="AE40" s="218"/>
       <c r="AF40" s="17"/>
     </row>
     <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="222">
+      <c r="A41" s="232">
         <v>10</v>
       </c>
-      <c r="B41" s="249"/>
-      <c r="C41" s="222">
+      <c r="B41" s="233"/>
+      <c r="C41" s="232">
         <v>11</v>
       </c>
-      <c r="D41" s="249"/>
-      <c r="E41" s="249"/>
-      <c r="F41" s="249"/>
-      <c r="G41" s="222">
+      <c r="D41" s="233"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="233"/>
+      <c r="G41" s="232">
         <v>12</v>
       </c>
-      <c r="H41" s="249"/>
-      <c r="I41" s="249"/>
-      <c r="J41" s="249"/>
-      <c r="K41" s="249"/>
-      <c r="L41" s="222">
+      <c r="H41" s="233"/>
+      <c r="I41" s="233"/>
+      <c r="J41" s="233"/>
+      <c r="K41" s="233"/>
+      <c r="L41" s="232">
         <v>13</v>
       </c>
-      <c r="M41" s="249"/>
-      <c r="N41" s="249"/>
-      <c r="O41" s="249"/>
-      <c r="P41" s="249"/>
-      <c r="Q41" s="222">
+      <c r="M41" s="233"/>
+      <c r="N41" s="233"/>
+      <c r="O41" s="233"/>
+      <c r="P41" s="233"/>
+      <c r="Q41" s="232">
         <v>14</v>
       </c>
-      <c r="R41" s="249"/>
-      <c r="S41" s="249"/>
-      <c r="T41" s="249"/>
+      <c r="R41" s="233"/>
+      <c r="S41" s="233"/>
+      <c r="T41" s="233"/>
       <c r="U41" s="29">
         <v>15</v>
       </c>
-      <c r="V41" s="222">
+      <c r="V41" s="232">
         <v>16</v>
       </c>
-      <c r="W41" s="249"/>
-      <c r="X41" s="222">
+      <c r="W41" s="233"/>
+      <c r="X41" s="232">
         <v>17</v>
       </c>
-      <c r="Y41" s="249"/>
-      <c r="Z41" s="222">
+      <c r="Y41" s="233"/>
+      <c r="Z41" s="232">
         <v>18</v>
       </c>
-      <c r="AA41" s="249"/>
-      <c r="AB41" s="249"/>
-      <c r="AC41" s="222">
+      <c r="AA41" s="233"/>
+      <c r="AB41" s="233"/>
+      <c r="AC41" s="232">
         <v>19</v>
       </c>
-      <c r="AD41" s="249"/>
-      <c r="AE41" s="250"/>
+      <c r="AD41" s="233"/>
+      <c r="AE41" s="234"/>
       <c r="AF41" s="17"/>
     </row>
     <row r="42" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="263" t="s">
+      <c r="A42" s="272" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="264"/>
-      <c r="C42" s="265"/>
-      <c r="D42" s="266"/>
-      <c r="E42" s="266"/>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265"/>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="266"/>
-      <c r="L42" s="265"/>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="266"/>
-      <c r="Q42" s="265"/>
-      <c r="R42" s="266"/>
-      <c r="S42" s="266"/>
-      <c r="T42" s="266"/>
+      <c r="B42" s="273"/>
+      <c r="C42" s="274"/>
+      <c r="D42" s="275"/>
+      <c r="E42" s="275"/>
+      <c r="F42" s="275"/>
+      <c r="G42" s="274"/>
+      <c r="H42" s="275"/>
+      <c r="I42" s="275"/>
+      <c r="J42" s="275"/>
+      <c r="K42" s="275"/>
+      <c r="L42" s="274"/>
+      <c r="M42" s="275"/>
+      <c r="N42" s="275"/>
+      <c r="O42" s="275"/>
+      <c r="P42" s="275"/>
+      <c r="Q42" s="274"/>
+      <c r="R42" s="275"/>
+      <c r="S42" s="275"/>
+      <c r="T42" s="275"/>
       <c r="U42" s="108"/>
-      <c r="V42" s="242"/>
-      <c r="W42" s="242"/>
-      <c r="X42" s="242"/>
-      <c r="Y42" s="242"/>
-      <c r="Z42" s="242"/>
-      <c r="AA42" s="242"/>
-      <c r="AB42" s="242"/>
-      <c r="AC42" s="266"/>
-      <c r="AD42" s="266"/>
-      <c r="AE42" s="267"/>
+      <c r="V42" s="276"/>
+      <c r="W42" s="276"/>
+      <c r="X42" s="276"/>
+      <c r="Y42" s="276"/>
+      <c r="Z42" s="276"/>
+      <c r="AA42" s="276"/>
+      <c r="AB42" s="276"/>
+      <c r="AC42" s="275"/>
+      <c r="AD42" s="275"/>
+      <c r="AE42" s="277"/>
       <c r="AF42" s="17"/>
     </row>
     <row r="43" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="263" t="s">
+      <c r="A43" s="272" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="264"/>
-      <c r="C43" s="265"/>
-      <c r="D43" s="266"/>
-      <c r="E43" s="266"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="265"/>
-      <c r="H43" s="266"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="266"/>
-      <c r="K43" s="266"/>
-      <c r="L43" s="265"/>
-      <c r="M43" s="266"/>
-      <c r="N43" s="266"/>
-      <c r="O43" s="266"/>
-      <c r="P43" s="266"/>
-      <c r="Q43" s="265"/>
-      <c r="R43" s="266"/>
-      <c r="S43" s="266"/>
-      <c r="T43" s="266"/>
+      <c r="B43" s="273"/>
+      <c r="C43" s="274"/>
+      <c r="D43" s="275"/>
+      <c r="E43" s="275"/>
+      <c r="F43" s="275"/>
+      <c r="G43" s="274"/>
+      <c r="H43" s="275"/>
+      <c r="I43" s="275"/>
+      <c r="J43" s="275"/>
+      <c r="K43" s="275"/>
+      <c r="L43" s="274"/>
+      <c r="M43" s="275"/>
+      <c r="N43" s="275"/>
+      <c r="O43" s="275"/>
+      <c r="P43" s="275"/>
+      <c r="Q43" s="274"/>
+      <c r="R43" s="275"/>
+      <c r="S43" s="275"/>
+      <c r="T43" s="275"/>
       <c r="U43" s="108"/>
-      <c r="V43" s="242"/>
-      <c r="W43" s="242"/>
-      <c r="X43" s="242"/>
-      <c r="Y43" s="242"/>
-      <c r="Z43" s="242"/>
-      <c r="AA43" s="242"/>
-      <c r="AB43" s="242"/>
-      <c r="AC43" s="266"/>
-      <c r="AD43" s="266"/>
-      <c r="AE43" s="267"/>
+      <c r="V43" s="276"/>
+      <c r="W43" s="276"/>
+      <c r="X43" s="276"/>
+      <c r="Y43" s="276"/>
+      <c r="Z43" s="276"/>
+      <c r="AA43" s="276"/>
+      <c r="AB43" s="276"/>
+      <c r="AC43" s="275"/>
+      <c r="AD43" s="275"/>
+      <c r="AE43" s="277"/>
       <c r="AF43" s="17"/>
     </row>
     <row r="44" spans="1:32" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -4384,78 +4387,78 @@
       <c r="AE44" s="20"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="222" t="s">
+      <c r="A45" s="232" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="249"/>
-      <c r="C45" s="249"/>
-      <c r="D45" s="249"/>
-      <c r="E45" s="249"/>
-      <c r="F45" s="249"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="249"/>
-      <c r="I45" s="249"/>
-      <c r="J45" s="249"/>
-      <c r="K45" s="249"/>
-      <c r="L45" s="249"/>
-      <c r="M45" s="249"/>
-      <c r="N45" s="249"/>
-      <c r="O45" s="249"/>
-      <c r="P45" s="249"/>
-      <c r="Q45" s="249"/>
-      <c r="R45" s="249"/>
-      <c r="S45" s="249"/>
-      <c r="T45" s="249"/>
-      <c r="U45" s="249"/>
-      <c r="V45" s="249"/>
-      <c r="W45" s="249"/>
-      <c r="X45" s="256" t="s">
+      <c r="B45" s="233"/>
+      <c r="C45" s="233"/>
+      <c r="D45" s="233"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="233"/>
+      <c r="G45" s="233"/>
+      <c r="H45" s="233"/>
+      <c r="I45" s="233"/>
+      <c r="J45" s="233"/>
+      <c r="K45" s="233"/>
+      <c r="L45" s="233"/>
+      <c r="M45" s="233"/>
+      <c r="N45" s="233"/>
+      <c r="O45" s="233"/>
+      <c r="P45" s="233"/>
+      <c r="Q45" s="233"/>
+      <c r="R45" s="233"/>
+      <c r="S45" s="233"/>
+      <c r="T45" s="233"/>
+      <c r="U45" s="233"/>
+      <c r="V45" s="233"/>
+      <c r="W45" s="233"/>
+      <c r="X45" s="278" t="s">
         <v>88</v>
       </c>
-      <c r="Y45" s="257"/>
-      <c r="Z45" s="258"/>
-      <c r="AA45" s="258"/>
-      <c r="AB45" s="258"/>
-      <c r="AC45" s="258"/>
-      <c r="AD45" s="258"/>
-      <c r="AE45" s="258"/>
+      <c r="Y45" s="279"/>
+      <c r="Z45" s="255"/>
+      <c r="AA45" s="255"/>
+      <c r="AB45" s="255"/>
+      <c r="AC45" s="255"/>
+      <c r="AD45" s="255"/>
+      <c r="AE45" s="255"/>
     </row>
     <row r="46" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="222" t="s">
+      <c r="A46" s="232" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="249"/>
-      <c r="C46" s="249"/>
-      <c r="D46" s="249"/>
-      <c r="E46" s="249"/>
-      <c r="F46" s="222" t="s">
+      <c r="B46" s="233"/>
+      <c r="C46" s="233"/>
+      <c r="D46" s="233"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="232" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="249"/>
-      <c r="H46" s="259" t="s">
+      <c r="G46" s="233"/>
+      <c r="H46" s="280" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="260"/>
-      <c r="J46" s="260"/>
-      <c r="K46" s="261"/>
-      <c r="L46" s="222" t="s">
+      <c r="I46" s="281"/>
+      <c r="J46" s="281"/>
+      <c r="K46" s="282"/>
+      <c r="L46" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="M46" s="249"/>
-      <c r="N46" s="249"/>
-      <c r="O46" s="249"/>
-      <c r="P46" s="249"/>
-      <c r="Q46" s="222" t="s">
+      <c r="M46" s="233"/>
+      <c r="N46" s="233"/>
+      <c r="O46" s="233"/>
+      <c r="P46" s="233"/>
+      <c r="Q46" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="R46" s="249"/>
-      <c r="S46" s="249"/>
-      <c r="T46" s="222" t="s">
+      <c r="R46" s="233"/>
+      <c r="S46" s="233"/>
+      <c r="T46" s="232" t="s">
         <v>94</v>
       </c>
-      <c r="U46" s="249"/>
-      <c r="V46" s="249"/>
-      <c r="W46" s="250"/>
+      <c r="U46" s="233"/>
+      <c r="V46" s="233"/>
+      <c r="W46" s="234"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="78"/>
       <c r="Z46" s="78"/>
@@ -4466,41 +4469,41 @@
       <c r="AE46" s="78"/>
     </row>
     <row r="47" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="223"/>
-      <c r="B47" s="234"/>
-      <c r="C47" s="234"/>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="223"/>
-      <c r="G47" s="234"/>
-      <c r="H47" s="222" t="s">
+      <c r="A47" s="250"/>
+      <c r="B47" s="218"/>
+      <c r="C47" s="218"/>
+      <c r="D47" s="218"/>
+      <c r="E47" s="218"/>
+      <c r="F47" s="250"/>
+      <c r="G47" s="218"/>
+      <c r="H47" s="232" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="249"/>
-      <c r="J47" s="222" t="s">
+      <c r="I47" s="233"/>
+      <c r="J47" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="K47" s="249"/>
-      <c r="L47" s="222"/>
-      <c r="M47" s="249"/>
-      <c r="N47" s="249"/>
-      <c r="O47" s="249"/>
-      <c r="P47" s="249"/>
-      <c r="Q47" s="222" t="s">
+      <c r="K47" s="233"/>
+      <c r="L47" s="232"/>
+      <c r="M47" s="233"/>
+      <c r="N47" s="233"/>
+      <c r="O47" s="233"/>
+      <c r="P47" s="233"/>
+      <c r="Q47" s="232" t="s">
         <v>97</v>
       </c>
-      <c r="R47" s="249"/>
-      <c r="S47" s="254" t="s">
+      <c r="R47" s="233"/>
+      <c r="S47" s="283" t="s">
         <v>98</v>
       </c>
-      <c r="T47" s="222" t="s">
+      <c r="T47" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="U47" s="249"/>
-      <c r="V47" s="222" t="s">
+      <c r="U47" s="233"/>
+      <c r="V47" s="232" t="s">
         <v>100</v>
       </c>
-      <c r="W47" s="250"/>
+      <c r="W47" s="234"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="86"/>
       <c r="Z47" s="86"/>
@@ -4526,24 +4529,24 @@
       <c r="E48" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="223"/>
-      <c r="G48" s="234"/>
-      <c r="H48" s="223"/>
-      <c r="I48" s="234"/>
-      <c r="J48" s="223"/>
-      <c r="K48" s="234"/>
-      <c r="L48" s="223"/>
-      <c r="M48" s="234"/>
-      <c r="N48" s="234"/>
-      <c r="O48" s="234"/>
-      <c r="P48" s="234"/>
-      <c r="Q48" s="223"/>
-      <c r="R48" s="234"/>
-      <c r="S48" s="262"/>
-      <c r="T48" s="223"/>
-      <c r="U48" s="234"/>
-      <c r="V48" s="223"/>
-      <c r="W48" s="234"/>
+      <c r="F48" s="250"/>
+      <c r="G48" s="218"/>
+      <c r="H48" s="250"/>
+      <c r="I48" s="218"/>
+      <c r="J48" s="250"/>
+      <c r="K48" s="218"/>
+      <c r="L48" s="250"/>
+      <c r="M48" s="218"/>
+      <c r="N48" s="218"/>
+      <c r="O48" s="218"/>
+      <c r="P48" s="218"/>
+      <c r="Q48" s="250"/>
+      <c r="R48" s="218"/>
+      <c r="S48" s="284"/>
+      <c r="T48" s="250"/>
+      <c r="U48" s="218"/>
+      <c r="V48" s="250"/>
+      <c r="W48" s="218"/>
       <c r="X48" s="25"/>
       <c r="Y48" s="86"/>
       <c r="Z48" s="86"/>
@@ -4569,40 +4572,40 @@
       <c r="E49" s="29">
         <v>24</v>
       </c>
-      <c r="F49" s="222">
+      <c r="F49" s="232">
         <v>25</v>
       </c>
-      <c r="G49" s="249"/>
-      <c r="H49" s="222">
+      <c r="G49" s="233"/>
+      <c r="H49" s="232">
         <v>26</v>
       </c>
-      <c r="I49" s="249"/>
-      <c r="J49" s="222">
+      <c r="I49" s="233"/>
+      <c r="J49" s="232">
         <v>27</v>
       </c>
-      <c r="K49" s="249"/>
-      <c r="L49" s="222">
+      <c r="K49" s="233"/>
+      <c r="L49" s="232">
         <v>28</v>
       </c>
-      <c r="M49" s="249"/>
-      <c r="N49" s="249"/>
-      <c r="O49" s="249"/>
-      <c r="P49" s="249"/>
-      <c r="Q49" s="222">
+      <c r="M49" s="233"/>
+      <c r="N49" s="233"/>
+      <c r="O49" s="233"/>
+      <c r="P49" s="233"/>
+      <c r="Q49" s="232">
         <v>29</v>
       </c>
-      <c r="R49" s="249"/>
+      <c r="R49" s="233"/>
       <c r="S49" s="29">
         <v>30</v>
       </c>
-      <c r="T49" s="222">
+      <c r="T49" s="232">
         <v>31</v>
       </c>
-      <c r="U49" s="249"/>
-      <c r="V49" s="222">
+      <c r="U49" s="233"/>
+      <c r="V49" s="232">
         <v>32</v>
       </c>
-      <c r="W49" s="250"/>
+      <c r="W49" s="234"/>
       <c r="X49" s="25"/>
       <c r="Y49" s="23"/>
       <c r="Z49" s="23"/>
@@ -4618,24 +4621,24 @@
       <c r="C50" s="108"/>
       <c r="D50" s="108"/>
       <c r="E50" s="108"/>
-      <c r="F50" s="242"/>
-      <c r="G50" s="242"/>
-      <c r="H50" s="242"/>
-      <c r="I50" s="242"/>
-      <c r="J50" s="242"/>
-      <c r="K50" s="242"/>
-      <c r="L50" s="242"/>
-      <c r="M50" s="242"/>
-      <c r="N50" s="242"/>
-      <c r="O50" s="242"/>
-      <c r="P50" s="242"/>
-      <c r="Q50" s="242"/>
-      <c r="R50" s="242"/>
+      <c r="F50" s="276"/>
+      <c r="G50" s="276"/>
+      <c r="H50" s="276"/>
+      <c r="I50" s="276"/>
+      <c r="J50" s="276"/>
+      <c r="K50" s="276"/>
+      <c r="L50" s="276"/>
+      <c r="M50" s="276"/>
+      <c r="N50" s="276"/>
+      <c r="O50" s="276"/>
+      <c r="P50" s="276"/>
+      <c r="Q50" s="276"/>
+      <c r="R50" s="276"/>
       <c r="S50" s="108"/>
-      <c r="T50" s="242"/>
-      <c r="U50" s="242"/>
-      <c r="V50" s="242"/>
-      <c r="W50" s="242"/>
+      <c r="T50" s="276"/>
+      <c r="U50" s="276"/>
+      <c r="V50" s="276"/>
+      <c r="W50" s="276"/>
       <c r="X50" s="107"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="2"/>
@@ -4679,47 +4682,47 @@
       <c r="AE51" s="1"/>
     </row>
     <row r="52" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="222" t="s">
+      <c r="A52" s="232" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="249"/>
-      <c r="C52" s="249"/>
-      <c r="D52" s="249"/>
-      <c r="E52" s="222" t="s">
+      <c r="B52" s="233"/>
+      <c r="C52" s="233"/>
+      <c r="D52" s="233"/>
+      <c r="E52" s="232" t="s">
         <v>107</v>
       </c>
-      <c r="F52" s="249"/>
-      <c r="G52" s="222" t="s">
+      <c r="F52" s="233"/>
+      <c r="G52" s="232" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="249"/>
-      <c r="I52" s="222" t="s">
+      <c r="H52" s="233"/>
+      <c r="I52" s="232" t="s">
         <v>109</v>
       </c>
-      <c r="J52" s="249"/>
-      <c r="K52" s="249"/>
-      <c r="L52" s="222" t="s">
+      <c r="J52" s="233"/>
+      <c r="K52" s="233"/>
+      <c r="L52" s="232" t="s">
         <v>110</v>
       </c>
-      <c r="M52" s="249"/>
-      <c r="N52" s="222" t="s">
+      <c r="M52" s="233"/>
+      <c r="N52" s="232" t="s">
         <v>111</v>
       </c>
-      <c r="O52" s="249"/>
-      <c r="P52" s="251" t="s">
+      <c r="O52" s="233"/>
+      <c r="P52" s="268" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q52" s="269"/>
+      <c r="R52" s="269"/>
+      <c r="S52" s="285"/>
+      <c r="T52" s="283" t="s">
         <v>153</v>
       </c>
-      <c r="Q52" s="252"/>
-      <c r="R52" s="252"/>
-      <c r="S52" s="253"/>
-      <c r="T52" s="254" t="s">
-        <v>154</v>
-      </c>
-      <c r="U52" s="222" t="s">
+      <c r="U52" s="232" t="s">
         <v>112</v>
       </c>
-      <c r="V52" s="249"/>
-      <c r="W52" s="222" t="s">
+      <c r="V52" s="233"/>
+      <c r="W52" s="232" t="s">
         <v>113</v>
       </c>
       <c r="X52" s="24"/>
@@ -4732,33 +4735,33 @@
       <c r="AE52" s="5"/>
     </row>
     <row r="53" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="223"/>
-      <c r="B53" s="234"/>
-      <c r="C53" s="234"/>
-      <c r="D53" s="234"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="234"/>
-      <c r="G53" s="223"/>
-      <c r="H53" s="234"/>
-      <c r="I53" s="223"/>
-      <c r="J53" s="234"/>
-      <c r="K53" s="234"/>
-      <c r="L53" s="223"/>
-      <c r="M53" s="234"/>
-      <c r="N53" s="223"/>
-      <c r="O53" s="234"/>
-      <c r="P53" s="222" t="s">
+      <c r="A53" s="250"/>
+      <c r="B53" s="218"/>
+      <c r="C53" s="218"/>
+      <c r="D53" s="218"/>
+      <c r="E53" s="250"/>
+      <c r="F53" s="218"/>
+      <c r="G53" s="250"/>
+      <c r="H53" s="218"/>
+      <c r="I53" s="250"/>
+      <c r="J53" s="218"/>
+      <c r="K53" s="218"/>
+      <c r="L53" s="250"/>
+      <c r="M53" s="218"/>
+      <c r="N53" s="250"/>
+      <c r="O53" s="218"/>
+      <c r="P53" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="Q53" s="249"/>
-      <c r="R53" s="222" t="s">
+      <c r="Q53" s="233"/>
+      <c r="R53" s="232" t="s">
         <v>115</v>
       </c>
-      <c r="S53" s="250"/>
-      <c r="T53" s="255"/>
-      <c r="U53" s="223"/>
-      <c r="V53" s="234"/>
-      <c r="W53" s="223"/>
+      <c r="S53" s="234"/>
+      <c r="T53" s="286"/>
+      <c r="U53" s="250"/>
+      <c r="V53" s="218"/>
+      <c r="W53" s="250"/>
       <c r="X53" s="24"/>
       <c r="Y53" s="78"/>
       <c r="Z53" s="78"/>
@@ -4769,46 +4772,46 @@
       <c r="AE53" s="78"/>
     </row>
     <row r="54" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="223"/>
-      <c r="B54" s="234"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="234"/>
-      <c r="E54" s="222">
+      <c r="A54" s="250"/>
+      <c r="B54" s="218"/>
+      <c r="C54" s="218"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="232">
         <v>33</v>
       </c>
-      <c r="F54" s="249"/>
-      <c r="G54" s="222">
+      <c r="F54" s="233"/>
+      <c r="G54" s="232">
         <v>34</v>
       </c>
-      <c r="H54" s="249"/>
-      <c r="I54" s="222">
+      <c r="H54" s="233"/>
+      <c r="I54" s="232">
         <v>35</v>
       </c>
-      <c r="J54" s="249"/>
-      <c r="K54" s="249"/>
-      <c r="L54" s="222">
+      <c r="J54" s="233"/>
+      <c r="K54" s="233"/>
+      <c r="L54" s="232">
         <v>36</v>
       </c>
-      <c r="M54" s="249"/>
-      <c r="N54" s="222">
+      <c r="M54" s="233"/>
+      <c r="N54" s="232">
         <v>37</v>
       </c>
-      <c r="O54" s="249"/>
-      <c r="P54" s="222">
+      <c r="O54" s="233"/>
+      <c r="P54" s="232">
         <v>38</v>
       </c>
-      <c r="Q54" s="249"/>
-      <c r="R54" s="222">
+      <c r="Q54" s="233"/>
+      <c r="R54" s="232">
         <v>39</v>
       </c>
-      <c r="S54" s="249"/>
+      <c r="S54" s="233"/>
       <c r="T54" s="30">
         <v>40</v>
       </c>
-      <c r="U54" s="222">
+      <c r="U54" s="232">
         <v>41</v>
       </c>
-      <c r="V54" s="249"/>
+      <c r="V54" s="233"/>
       <c r="W54" s="29">
         <v>42</v>
       </c>
@@ -4822,30 +4825,30 @@
       <c r="AE54" s="86"/>
     </row>
     <row r="55" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="245" t="s">
+      <c r="A55" s="289" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="246"/>
-      <c r="C55" s="246"/>
-      <c r="D55" s="247"/>
-      <c r="E55" s="242"/>
-      <c r="F55" s="242"/>
-      <c r="G55" s="242"/>
-      <c r="H55" s="242"/>
-      <c r="I55" s="242"/>
-      <c r="J55" s="242"/>
-      <c r="K55" s="242"/>
-      <c r="L55" s="242"/>
-      <c r="M55" s="242"/>
-      <c r="N55" s="242"/>
-      <c r="O55" s="242"/>
-      <c r="P55" s="242"/>
-      <c r="Q55" s="242"/>
-      <c r="R55" s="242"/>
-      <c r="S55" s="242"/>
+      <c r="B55" s="290"/>
+      <c r="C55" s="290"/>
+      <c r="D55" s="291"/>
+      <c r="E55" s="276"/>
+      <c r="F55" s="276"/>
+      <c r="G55" s="276"/>
+      <c r="H55" s="276"/>
+      <c r="I55" s="276"/>
+      <c r="J55" s="276"/>
+      <c r="K55" s="276"/>
+      <c r="L55" s="276"/>
+      <c r="M55" s="276"/>
+      <c r="N55" s="276"/>
+      <c r="O55" s="276"/>
+      <c r="P55" s="276"/>
+      <c r="Q55" s="276"/>
+      <c r="R55" s="276"/>
+      <c r="S55" s="276"/>
       <c r="T55" s="108"/>
-      <c r="U55" s="242"/>
-      <c r="V55" s="242"/>
+      <c r="U55" s="276"/>
+      <c r="V55" s="276"/>
       <c r="W55" s="108"/>
       <c r="X55" s="107"/>
       <c r="Y55" s="87"/>
@@ -4857,35 +4860,35 @@
       <c r="AE55" s="87"/>
     </row>
     <row r="56" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="245" t="s">
+      <c r="A56" s="289" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="246"/>
-      <c r="C56" s="246"/>
-      <c r="D56" s="247"/>
-      <c r="E56" s="242"/>
-      <c r="F56" s="242"/>
-      <c r="G56" s="242"/>
-      <c r="H56" s="242"/>
-      <c r="I56" s="242"/>
-      <c r="J56" s="242"/>
-      <c r="K56" s="242"/>
-      <c r="L56" s="242"/>
-      <c r="M56" s="242"/>
-      <c r="N56" s="242"/>
-      <c r="O56" s="242"/>
-      <c r="P56" s="242"/>
-      <c r="Q56" s="242"/>
-      <c r="R56" s="242"/>
-      <c r="S56" s="242"/>
+      <c r="B56" s="290"/>
+      <c r="C56" s="290"/>
+      <c r="D56" s="291"/>
+      <c r="E56" s="276"/>
+      <c r="F56" s="276"/>
+      <c r="G56" s="276"/>
+      <c r="H56" s="276"/>
+      <c r="I56" s="276"/>
+      <c r="J56" s="276"/>
+      <c r="K56" s="276"/>
+      <c r="L56" s="276"/>
+      <c r="M56" s="276"/>
+      <c r="N56" s="276"/>
+      <c r="O56" s="276"/>
+      <c r="P56" s="276"/>
+      <c r="Q56" s="276"/>
+      <c r="R56" s="276"/>
+      <c r="S56" s="276"/>
       <c r="T56" s="108"/>
-      <c r="U56" s="242"/>
-      <c r="V56" s="242"/>
+      <c r="U56" s="276"/>
+      <c r="V56" s="276"/>
       <c r="W56" s="108"/>
-      <c r="X56" s="248" t="s">
+      <c r="X56" s="287" t="s">
         <v>118</v>
       </c>
-      <c r="Y56" s="237"/>
+      <c r="Y56" s="288"/>
       <c r="Z56" s="88"/>
       <c r="AA56" s="88"/>
       <c r="AB56" s="88"/>
@@ -4894,43 +4897,43 @@
       <c r="AE56" s="88"/>
     </row>
     <row r="57" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="245" t="s">
+      <c r="A57" s="289" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="246"/>
-      <c r="C57" s="246"/>
-      <c r="D57" s="247"/>
-      <c r="E57" s="242"/>
-      <c r="F57" s="242"/>
-      <c r="G57" s="242"/>
-      <c r="H57" s="242"/>
-      <c r="I57" s="242"/>
-      <c r="J57" s="242"/>
-      <c r="K57" s="242"/>
-      <c r="L57" s="242"/>
-      <c r="M57" s="242"/>
-      <c r="N57" s="242"/>
-      <c r="O57" s="242"/>
-      <c r="P57" s="242"/>
-      <c r="Q57" s="242"/>
-      <c r="R57" s="242"/>
-      <c r="S57" s="242"/>
+      <c r="B57" s="290"/>
+      <c r="C57" s="290"/>
+      <c r="D57" s="291"/>
+      <c r="E57" s="276"/>
+      <c r="F57" s="276"/>
+      <c r="G57" s="276"/>
+      <c r="H57" s="276"/>
+      <c r="I57" s="276"/>
+      <c r="J57" s="276"/>
+      <c r="K57" s="276"/>
+      <c r="L57" s="276"/>
+      <c r="M57" s="276"/>
+      <c r="N57" s="276"/>
+      <c r="O57" s="276"/>
+      <c r="P57" s="276"/>
+      <c r="Q57" s="276"/>
+      <c r="R57" s="276"/>
+      <c r="S57" s="276"/>
       <c r="T57" s="108"/>
-      <c r="U57" s="242"/>
-      <c r="V57" s="242"/>
+      <c r="U57" s="276"/>
+      <c r="V57" s="276"/>
       <c r="W57" s="108"/>
       <c r="X57" s="110"/>
       <c r="Y57" s="111"/>
-      <c r="Z57" s="243" t="s">
+      <c r="Z57" s="228" t="s">
         <v>68</v>
       </c>
-      <c r="AA57" s="243"/>
-      <c r="AB57" s="243" t="s">
+      <c r="AA57" s="228"/>
+      <c r="AB57" s="228" t="s">
         <v>120</v>
       </c>
-      <c r="AC57" s="243"/>
-      <c r="AD57" s="243"/>
-      <c r="AE57" s="243"/>
+      <c r="AC57" s="228"/>
+      <c r="AD57" s="228"/>
+      <c r="AE57" s="228"/>
     </row>
     <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
@@ -4950,14 +4953,14 @@
       <c r="O58" s="44"/>
       <c r="P58" s="44"/>
       <c r="Q58" s="44"/>
-      <c r="R58" s="244"/>
-      <c r="S58" s="244"/>
-      <c r="T58" s="244"/>
-      <c r="U58" s="244"/>
-      <c r="V58" s="244"/>
-      <c r="W58" s="244"/>
-      <c r="X58" s="244"/>
-      <c r="Y58" s="244"/>
+      <c r="R58" s="295"/>
+      <c r="S58" s="295"/>
+      <c r="T58" s="295"/>
+      <c r="U58" s="295"/>
+      <c r="V58" s="295"/>
+      <c r="W58" s="295"/>
+      <c r="X58" s="295"/>
+      <c r="Y58" s="295"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
       <c r="AB58" s="1"/>
@@ -4986,15 +4989,15 @@
       <c r="R59" s="12"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-      <c r="U59" s="240" t="s">
+      <c r="U59" s="292" t="s">
         <v>121</v>
       </c>
-      <c r="V59" s="241"/>
-      <c r="W59" s="241"/>
-      <c r="X59" s="241"/>
-      <c r="Y59" s="241"/>
-      <c r="Z59" s="241"/>
-      <c r="AA59" s="241"/>
+      <c r="V59" s="293"/>
+      <c r="W59" s="293"/>
+      <c r="X59" s="293"/>
+      <c r="Y59" s="293"/>
+      <c r="Z59" s="293"/>
+      <c r="AA59" s="293"/>
       <c r="AB59" s="14"/>
       <c r="AC59" s="14"/>
       <c r="AD59" s="14"/>
@@ -5021,18 +5024,18 @@
       <c r="R60" s="12"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="U60" s="240" t="s">
+      <c r="U60" s="292" t="s">
         <v>122</v>
       </c>
-      <c r="V60" s="241"/>
-      <c r="W60" s="241"/>
-      <c r="X60" s="241"/>
-      <c r="Y60" s="241"/>
-      <c r="Z60" s="241"/>
-      <c r="AA60" s="241"/>
-      <c r="AB60" s="241"/>
-      <c r="AC60" s="241"/>
-      <c r="AD60" s="241"/>
+      <c r="V60" s="293"/>
+      <c r="W60" s="293"/>
+      <c r="X60" s="293"/>
+      <c r="Y60" s="293"/>
+      <c r="Z60" s="293"/>
+      <c r="AA60" s="293"/>
+      <c r="AB60" s="293"/>
+      <c r="AC60" s="293"/>
+      <c r="AD60" s="293"/>
       <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5056,18 +5059,18 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="240" t="s">
+      <c r="U61" s="292" t="s">
         <v>123</v>
       </c>
-      <c r="V61" s="241"/>
-      <c r="W61" s="241"/>
-      <c r="X61" s="241"/>
-      <c r="Y61" s="241"/>
-      <c r="Z61" s="241"/>
-      <c r="AA61" s="241"/>
-      <c r="AB61" s="241"/>
-      <c r="AC61" s="241"/>
-      <c r="AD61" s="241"/>
+      <c r="V61" s="293"/>
+      <c r="W61" s="293"/>
+      <c r="X61" s="293"/>
+      <c r="Y61" s="293"/>
+      <c r="Z61" s="293"/>
+      <c r="AA61" s="293"/>
+      <c r="AB61" s="293"/>
+      <c r="AC61" s="293"/>
+      <c r="AD61" s="293"/>
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:32" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5163,15 +5166,15 @@
       <c r="U64" s="14"/>
       <c r="V64" s="14"/>
       <c r="W64" s="14"/>
-      <c r="X64" s="225" t="s">
+      <c r="X64" s="294" t="s">
         <v>124</v>
       </c>
-      <c r="Y64" s="225"/>
-      <c r="Z64" s="225"/>
+      <c r="Y64" s="294"/>
+      <c r="Z64" s="294"/>
       <c r="AA64" s="14"/>
       <c r="AB64" s="125"/>
       <c r="AC64" s="145" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD64" s="126"/>
       <c r="AE64" s="127"/>
@@ -5179,36 +5182,36 @@
     </row>
     <row r="65" spans="1:32" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="233" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="233"/>
-      <c r="D65" s="233"/>
-      <c r="E65" s="233"/>
-      <c r="F65" s="233"/>
-      <c r="G65" s="233"/>
-      <c r="H65" s="233"/>
-      <c r="I65" s="233"/>
-      <c r="J65" s="233"/>
-      <c r="K65" s="233"/>
-      <c r="L65" s="233"/>
-      <c r="M65" s="233"/>
-      <c r="N65" s="233"/>
-      <c r="O65" s="233"/>
-      <c r="P65" s="233"/>
-      <c r="Q65" s="233"/>
-      <c r="R65" s="233"/>
-      <c r="S65" s="233"/>
-      <c r="T65" s="233"/>
-      <c r="U65" s="233"/>
-      <c r="V65" s="233"/>
-      <c r="W65" s="233"/>
-      <c r="X65" s="233"/>
-      <c r="Y65" s="233"/>
-      <c r="Z65" s="233"/>
+      <c r="B65" s="349" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="349"/>
+      <c r="D65" s="349"/>
+      <c r="E65" s="349"/>
+      <c r="F65" s="349"/>
+      <c r="G65" s="349"/>
+      <c r="H65" s="349"/>
+      <c r="I65" s="349"/>
+      <c r="J65" s="349"/>
+      <c r="K65" s="349"/>
+      <c r="L65" s="349"/>
+      <c r="M65" s="349"/>
+      <c r="N65" s="349"/>
+      <c r="O65" s="349"/>
+      <c r="P65" s="349"/>
+      <c r="Q65" s="349"/>
+      <c r="R65" s="349"/>
+      <c r="S65" s="349"/>
+      <c r="T65" s="349"/>
+      <c r="U65" s="349"/>
+      <c r="V65" s="349"/>
+      <c r="W65" s="349"/>
+      <c r="X65" s="349"/>
+      <c r="Y65" s="349"/>
+      <c r="Z65" s="349"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="128"/>
-      <c r="AC65" s="146"/>
+      <c r="AC65" s="351"/>
       <c r="AD65" s="88"/>
       <c r="AE65" s="129"/>
       <c r="AF65" s="18"/>
@@ -5232,21 +5235,21 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="234" t="s">
+      <c r="S66" s="218"/>
+      <c r="T66" s="218"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="350" t="s">
+        <v>125</v>
+      </c>
+      <c r="W66" s="302" t="s">
         <v>126</v>
       </c>
-      <c r="T66" s="234"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="235" t="s">
-        <v>127</v>
-      </c>
-      <c r="X66" s="236"/>
-      <c r="Y66" s="236"/>
-      <c r="Z66" s="236"/>
+      <c r="X66" s="303"/>
+      <c r="Y66" s="303"/>
+      <c r="Z66" s="303"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="130"/>
-      <c r="AC66" s="151"/>
+      <c r="AC66" s="150"/>
       <c r="AD66" s="131"/>
       <c r="AE66" s="132"/>
       <c r="AF66" s="18"/>
@@ -5274,10 +5277,10 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="236"/>
-      <c r="X67" s="236"/>
-      <c r="Y67" s="236"/>
-      <c r="Z67" s="236"/>
+      <c r="W67" s="303"/>
+      <c r="X67" s="303"/>
+      <c r="Y67" s="303"/>
+      <c r="Z67" s="303"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="133"/>
       <c r="AC67" s="134"/>
@@ -5286,38 +5289,38 @@
       <c r="AF67" s="18"/>
     </row>
     <row r="68" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="224" t="s">
+      <c r="A68" s="297" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="297"/>
+      <c r="C68" s="297"/>
+      <c r="D68" s="297"/>
+      <c r="E68" s="296" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="288"/>
+      <c r="G68" s="288"/>
+      <c r="H68" s="288"/>
+      <c r="I68" s="288"/>
+      <c r="J68" s="288"/>
+      <c r="K68" s="288"/>
+      <c r="L68" s="288"/>
+      <c r="M68" s="288"/>
+      <c r="N68" s="288"/>
+      <c r="O68" s="288"/>
+      <c r="P68" s="288"/>
+      <c r="Q68" s="288"/>
+      <c r="R68" s="288"/>
+      <c r="S68" s="304"/>
+      <c r="T68" s="304"/>
+      <c r="U68" s="304"/>
+      <c r="V68" s="304"/>
+      <c r="W68" s="288"/>
+      <c r="X68" s="305"/>
+      <c r="Y68" s="294" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="224"/>
-      <c r="C68" s="224"/>
-      <c r="D68" s="224"/>
-      <c r="E68" s="228" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="237"/>
-      <c r="G68" s="237"/>
-      <c r="H68" s="237"/>
-      <c r="I68" s="237"/>
-      <c r="J68" s="237"/>
-      <c r="K68" s="237"/>
-      <c r="L68" s="237"/>
-      <c r="M68" s="237"/>
-      <c r="N68" s="237"/>
-      <c r="O68" s="237"/>
-      <c r="P68" s="237"/>
-      <c r="Q68" s="237"/>
-      <c r="R68" s="237"/>
-      <c r="S68" s="238"/>
-      <c r="T68" s="238"/>
-      <c r="U68" s="238"/>
-      <c r="V68" s="238"/>
-      <c r="W68" s="237"/>
-      <c r="X68" s="239"/>
-      <c r="Y68" s="225" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z68" s="225"/>
+      <c r="Z68" s="294"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="130"/>
       <c r="AC68" s="131"/>
@@ -5326,28 +5329,28 @@
       <c r="AF68" s="18"/>
     </row>
     <row r="69" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="228"/>
-      <c r="B69" s="228"/>
-      <c r="C69" s="228"/>
-      <c r="D69" s="228"/>
+      <c r="A69" s="296"/>
+      <c r="B69" s="296"/>
+      <c r="C69" s="296"/>
+      <c r="D69" s="296"/>
       <c r="E69" s="31"/>
       <c r="F69" s="119"/>
       <c r="G69" s="119"/>
       <c r="H69" s="119"/>
       <c r="I69" s="119"/>
       <c r="J69" s="119"/>
-      <c r="K69" s="147"/>
-      <c r="L69" s="147"/>
-      <c r="M69" s="147"/>
-      <c r="N69" s="147"/>
-      <c r="O69" s="149" t="s">
-        <v>130</v>
-      </c>
-      <c r="P69" s="147"/>
-      <c r="Q69" s="147"/>
-      <c r="R69" s="147"/>
-      <c r="S69" s="147"/>
-      <c r="T69" s="147"/>
+      <c r="K69" s="146"/>
+      <c r="L69" s="146"/>
+      <c r="M69" s="146"/>
+      <c r="N69" s="146"/>
+      <c r="O69" s="148" t="s">
+        <v>129</v>
+      </c>
+      <c r="P69" s="146"/>
+      <c r="Q69" s="146"/>
+      <c r="R69" s="146"/>
+      <c r="S69" s="146"/>
+      <c r="T69" s="146"/>
       <c r="U69" s="119"/>
       <c r="V69" s="119"/>
       <c r="W69" s="32"/>
@@ -5362,36 +5365,36 @@
       <c r="AF69" s="18"/>
     </row>
     <row r="70" spans="1:32" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="224" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="224"/>
-      <c r="C70" s="224"/>
-      <c r="D70" s="224"/>
-      <c r="E70" s="229"/>
-      <c r="F70" s="230"/>
-      <c r="G70" s="230"/>
-      <c r="H70" s="230"/>
-      <c r="I70" s="230"/>
-      <c r="J70" s="230"/>
-      <c r="K70" s="231"/>
-      <c r="L70" s="231"/>
-      <c r="M70" s="231"/>
-      <c r="N70" s="231"/>
-      <c r="O70" s="231"/>
-      <c r="P70" s="231"/>
-      <c r="Q70" s="231"/>
-      <c r="R70" s="231"/>
-      <c r="S70" s="231"/>
-      <c r="T70" s="231"/>
-      <c r="U70" s="230"/>
-      <c r="V70" s="230"/>
-      <c r="W70" s="232"/>
-      <c r="X70" s="232"/>
-      <c r="Y70" s="225" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z70" s="225"/>
+      <c r="A70" s="297" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="297"/>
+      <c r="C70" s="297"/>
+      <c r="D70" s="297"/>
+      <c r="E70" s="298"/>
+      <c r="F70" s="299"/>
+      <c r="G70" s="299"/>
+      <c r="H70" s="299"/>
+      <c r="I70" s="299"/>
+      <c r="J70" s="299"/>
+      <c r="K70" s="300"/>
+      <c r="L70" s="300"/>
+      <c r="M70" s="300"/>
+      <c r="N70" s="300"/>
+      <c r="O70" s="300"/>
+      <c r="P70" s="300"/>
+      <c r="Q70" s="300"/>
+      <c r="R70" s="300"/>
+      <c r="S70" s="300"/>
+      <c r="T70" s="300"/>
+      <c r="U70" s="299"/>
+      <c r="V70" s="299"/>
+      <c r="W70" s="301"/>
+      <c r="X70" s="301"/>
+      <c r="Y70" s="294" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z70" s="294"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="130"/>
       <c r="AC70" s="131"/>
@@ -5410,24 +5413,24 @@
       <c r="H71" s="119"/>
       <c r="I71" s="119"/>
       <c r="J71" s="119"/>
-      <c r="K71" s="147"/>
-      <c r="L71" s="147"/>
-      <c r="M71" s="147"/>
-      <c r="N71" s="147"/>
-      <c r="O71" s="149" t="s">
-        <v>130</v>
-      </c>
-      <c r="P71" s="147"/>
-      <c r="Q71" s="147"/>
-      <c r="R71" s="147"/>
-      <c r="S71" s="147"/>
-      <c r="T71" s="147"/>
+      <c r="K71" s="146"/>
+      <c r="L71" s="146"/>
+      <c r="M71" s="146"/>
+      <c r="N71" s="146"/>
+      <c r="O71" s="148" t="s">
+        <v>129</v>
+      </c>
+      <c r="P71" s="146"/>
+      <c r="Q71" s="146"/>
+      <c r="R71" s="146"/>
+      <c r="S71" s="146"/>
+      <c r="T71" s="146"/>
       <c r="U71" s="119"/>
       <c r="V71" s="119"/>
       <c r="W71" s="32"/>
       <c r="X71" s="32"/>
-      <c r="Y71" s="225"/>
-      <c r="Z71" s="225"/>
+      <c r="Y71" s="294"/>
+      <c r="Z71" s="294"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="133"/>
       <c r="AC71" s="134"/>
@@ -5436,36 +5439,36 @@
       <c r="AF71" s="18"/>
     </row>
     <row r="72" spans="1:32" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="224" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="224"/>
-      <c r="C72" s="224"/>
-      <c r="D72" s="150"/>
-      <c r="E72" s="226"/>
-      <c r="F72" s="226"/>
-      <c r="G72" s="226"/>
-      <c r="H72" s="226"/>
-      <c r="I72" s="226"/>
-      <c r="J72" s="226"/>
-      <c r="K72" s="226"/>
-      <c r="L72" s="226"/>
-      <c r="M72" s="226"/>
-      <c r="N72" s="226"/>
-      <c r="O72" s="226"/>
-      <c r="P72" s="226"/>
-      <c r="Q72" s="226"/>
-      <c r="R72" s="226"/>
-      <c r="S72" s="226"/>
-      <c r="T72" s="226"/>
-      <c r="U72" s="226"/>
-      <c r="V72" s="226"/>
-      <c r="W72" s="226"/>
-      <c r="X72" s="226"/>
-      <c r="Y72" s="225" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z72" s="225"/>
+      <c r="A72" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="297"/>
+      <c r="C72" s="297"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="310"/>
+      <c r="F72" s="310"/>
+      <c r="G72" s="310"/>
+      <c r="H72" s="310"/>
+      <c r="I72" s="310"/>
+      <c r="J72" s="310"/>
+      <c r="K72" s="310"/>
+      <c r="L72" s="310"/>
+      <c r="M72" s="310"/>
+      <c r="N72" s="310"/>
+      <c r="O72" s="310"/>
+      <c r="P72" s="310"/>
+      <c r="Q72" s="310"/>
+      <c r="R72" s="310"/>
+      <c r="S72" s="310"/>
+      <c r="T72" s="310"/>
+      <c r="U72" s="310"/>
+      <c r="V72" s="310"/>
+      <c r="W72" s="310"/>
+      <c r="X72" s="310"/>
+      <c r="Y72" s="294" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z72" s="294"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="138"/>
       <c r="AC72" s="139"/>
@@ -5484,18 +5487,18 @@
       <c r="H73" s="119"/>
       <c r="I73" s="119"/>
       <c r="J73" s="119"/>
-      <c r="K73" s="148"/>
-      <c r="L73" s="148"/>
-      <c r="M73" s="148"/>
-      <c r="N73" s="148"/>
-      <c r="O73" s="149" t="s">
-        <v>130</v>
-      </c>
-      <c r="P73" s="148"/>
-      <c r="Q73" s="148"/>
-      <c r="R73" s="148"/>
-      <c r="S73" s="148"/>
-      <c r="T73" s="148"/>
+      <c r="K73" s="147"/>
+      <c r="L73" s="147"/>
+      <c r="M73" s="147"/>
+      <c r="N73" s="147"/>
+      <c r="O73" s="148" t="s">
+        <v>129</v>
+      </c>
+      <c r="P73" s="147"/>
+      <c r="Q73" s="147"/>
+      <c r="R73" s="147"/>
+      <c r="S73" s="147"/>
+      <c r="T73" s="147"/>
       <c r="U73" s="119"/>
       <c r="V73" s="119"/>
       <c r="W73" s="119"/>
@@ -5509,231 +5512,410 @@
       <c r="AE73" s="22"/>
     </row>
     <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="227" t="s">
+      <c r="A74" s="214" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="214"/>
+      <c r="C74" s="214"/>
+      <c r="D74" s="214"/>
+      <c r="E74" s="214"/>
+      <c r="F74" s="214"/>
+      <c r="G74" s="214"/>
+      <c r="H74" s="214"/>
+      <c r="I74" s="214"/>
+      <c r="J74" s="214"/>
+      <c r="K74" s="214"/>
+      <c r="L74" s="214"/>
+      <c r="M74" s="214"/>
+      <c r="N74" s="214"/>
+      <c r="O74" s="214"/>
+      <c r="P74" s="214"/>
+      <c r="Q74" s="214"/>
+      <c r="R74" s="214"/>
+      <c r="S74" s="214"/>
+      <c r="T74" s="214"/>
+      <c r="U74" s="214"/>
+      <c r="V74" s="214"/>
+      <c r="W74" s="214"/>
+      <c r="X74" s="214"/>
+      <c r="Y74" s="214"/>
+      <c r="Z74" s="214"/>
+      <c r="AA74" s="214"/>
+      <c r="AB74" s="214"/>
+      <c r="AC74" s="214"/>
+      <c r="AD74" s="214"/>
+      <c r="AE74" s="214"/>
+    </row>
+    <row r="75" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="232" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="227"/>
-      <c r="C74" s="227"/>
-      <c r="D74" s="227"/>
-      <c r="E74" s="227"/>
-      <c r="F74" s="227"/>
-      <c r="G74" s="227"/>
-      <c r="H74" s="227"/>
-      <c r="I74" s="227"/>
-      <c r="J74" s="227"/>
-      <c r="K74" s="227"/>
-      <c r="L74" s="227"/>
-      <c r="M74" s="227"/>
-      <c r="N74" s="227"/>
-      <c r="O74" s="227"/>
-      <c r="P74" s="227"/>
-      <c r="Q74" s="227"/>
-      <c r="R74" s="227"/>
-      <c r="S74" s="227"/>
-      <c r="T74" s="227"/>
-      <c r="U74" s="227"/>
-      <c r="V74" s="227"/>
-      <c r="W74" s="227"/>
-      <c r="X74" s="227"/>
-      <c r="Y74" s="227"/>
-      <c r="Z74" s="227"/>
-      <c r="AA74" s="227"/>
-      <c r="AB74" s="227"/>
-      <c r="AC74" s="227"/>
-      <c r="AD74" s="227"/>
-      <c r="AE74" s="227"/>
-    </row>
-    <row r="75" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="222" t="s">
+      <c r="B75" s="306" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="216" t="s">
+      <c r="C75" s="307"/>
+      <c r="D75" s="307"/>
+      <c r="E75" s="307"/>
+      <c r="F75" s="306" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="217"/>
-      <c r="D75" s="217"/>
-      <c r="E75" s="217"/>
-      <c r="F75" s="216" t="s">
+      <c r="G75" s="307"/>
+      <c r="H75" s="307"/>
+      <c r="I75" s="307"/>
+      <c r="J75" s="306" t="s">
+        <v>51</v>
+      </c>
+      <c r="K75" s="307"/>
+      <c r="L75" s="306" t="s">
         <v>136</v>
       </c>
-      <c r="G75" s="217"/>
-      <c r="H75" s="217"/>
-      <c r="I75" s="217"/>
-      <c r="J75" s="216" t="s">
-        <v>51</v>
-      </c>
-      <c r="K75" s="217"/>
-      <c r="L75" s="216" t="s">
+      <c r="M75" s="307"/>
+      <c r="N75" s="306" t="s">
         <v>137</v>
       </c>
-      <c r="M75" s="217"/>
-      <c r="N75" s="216" t="s">
+      <c r="O75" s="307"/>
+      <c r="P75" s="307"/>
+      <c r="Q75" s="307"/>
+      <c r="R75" s="307"/>
+      <c r="S75" s="307"/>
+      <c r="T75" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="O75" s="217"/>
-      <c r="P75" s="217"/>
-      <c r="Q75" s="217"/>
-      <c r="R75" s="217"/>
-      <c r="S75" s="217"/>
-      <c r="T75" s="33" t="s">
+      <c r="U75" s="306" t="s">
         <v>139</v>
       </c>
-      <c r="U75" s="216" t="s">
+      <c r="V75" s="307"/>
+      <c r="W75" s="306" t="s">
+        <v>49</v>
+      </c>
+      <c r="X75" s="307"/>
+      <c r="Y75" s="306" t="s">
         <v>140</v>
       </c>
-      <c r="V75" s="217"/>
-      <c r="W75" s="216" t="s">
-        <v>49</v>
-      </c>
-      <c r="X75" s="217"/>
-      <c r="Y75" s="216" t="s">
+      <c r="Z75" s="307"/>
+      <c r="AA75" s="306" t="s">
         <v>141</v>
       </c>
-      <c r="Z75" s="217"/>
-      <c r="AA75" s="216" t="s">
+      <c r="AB75" s="307"/>
+      <c r="AC75" s="307"/>
+      <c r="AD75" s="306" t="s">
         <v>142</v>
       </c>
-      <c r="AB75" s="217"/>
-      <c r="AC75" s="217"/>
-      <c r="AD75" s="216" t="s">
+      <c r="AE75" s="307"/>
+      <c r="AF75" s="17"/>
+    </row>
+    <row r="76" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="250"/>
+      <c r="B76" s="308"/>
+      <c r="C76" s="309"/>
+      <c r="D76" s="309"/>
+      <c r="E76" s="309"/>
+      <c r="F76" s="308"/>
+      <c r="G76" s="309"/>
+      <c r="H76" s="309"/>
+      <c r="I76" s="309"/>
+      <c r="J76" s="308"/>
+      <c r="K76" s="309"/>
+      <c r="L76" s="306" t="s">
         <v>143</v>
       </c>
-      <c r="AE75" s="217"/>
-      <c r="AF75" s="17"/>
-    </row>
-    <row r="76" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="223"/>
-      <c r="B76" s="218"/>
-      <c r="C76" s="219"/>
-      <c r="D76" s="219"/>
-      <c r="E76" s="219"/>
-      <c r="F76" s="218"/>
-      <c r="G76" s="219"/>
-      <c r="H76" s="219"/>
-      <c r="I76" s="219"/>
-      <c r="J76" s="218"/>
-      <c r="K76" s="219"/>
-      <c r="L76" s="216" t="s">
+      <c r="M76" s="307"/>
+      <c r="N76" s="306"/>
+      <c r="O76" s="307"/>
+      <c r="P76" s="307"/>
+      <c r="Q76" s="307"/>
+      <c r="R76" s="307"/>
+      <c r="S76" s="307"/>
+      <c r="T76" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="M76" s="217"/>
-      <c r="N76" s="216"/>
-      <c r="O76" s="217"/>
-      <c r="P76" s="217"/>
-      <c r="Q76" s="217"/>
-      <c r="R76" s="217"/>
-      <c r="S76" s="217"/>
-      <c r="T76" s="33" t="s">
+      <c r="U76" s="306" t="s">
         <v>145</v>
       </c>
-      <c r="U76" s="216" t="s">
+      <c r="V76" s="307"/>
+      <c r="W76" s="306" t="s">
+        <v>53</v>
+      </c>
+      <c r="X76" s="307"/>
+      <c r="Y76" s="306" t="s">
         <v>146</v>
       </c>
-      <c r="V76" s="217"/>
-      <c r="W76" s="216" t="s">
-        <v>53</v>
-      </c>
-      <c r="X76" s="217"/>
-      <c r="Y76" s="216" t="s">
+      <c r="Z76" s="307"/>
+      <c r="AA76" s="306" t="s">
         <v>147</v>
       </c>
-      <c r="Z76" s="217"/>
-      <c r="AA76" s="216" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB76" s="217"/>
-      <c r="AC76" s="220"/>
-      <c r="AD76" s="218"/>
-      <c r="AE76" s="219"/>
+      <c r="AB76" s="307"/>
+      <c r="AC76" s="313"/>
+      <c r="AD76" s="308"/>
+      <c r="AE76" s="309"/>
       <c r="AF76" s="17"/>
     </row>
     <row r="77" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
         <v>1</v>
       </c>
-      <c r="B77" s="214">
+      <c r="B77" s="311">
         <v>2</v>
       </c>
-      <c r="C77" s="215"/>
-      <c r="D77" s="215"/>
-      <c r="E77" s="215"/>
-      <c r="F77" s="214">
+      <c r="C77" s="312"/>
+      <c r="D77" s="312"/>
+      <c r="E77" s="312"/>
+      <c r="F77" s="311">
         <v>3</v>
       </c>
-      <c r="G77" s="215"/>
-      <c r="H77" s="215"/>
-      <c r="I77" s="215"/>
-      <c r="J77" s="214">
+      <c r="G77" s="312"/>
+      <c r="H77" s="312"/>
+      <c r="I77" s="312"/>
+      <c r="J77" s="311">
         <v>4</v>
       </c>
-      <c r="K77" s="215"/>
-      <c r="L77" s="214">
+      <c r="K77" s="312"/>
+      <c r="L77" s="311">
         <v>5</v>
       </c>
-      <c r="M77" s="215"/>
-      <c r="N77" s="214">
+      <c r="M77" s="312"/>
+      <c r="N77" s="311">
         <v>6</v>
       </c>
-      <c r="O77" s="215"/>
-      <c r="P77" s="215"/>
-      <c r="Q77" s="215"/>
-      <c r="R77" s="215"/>
-      <c r="S77" s="215"/>
+      <c r="O77" s="312"/>
+      <c r="P77" s="312"/>
+      <c r="Q77" s="312"/>
+      <c r="R77" s="312"/>
+      <c r="S77" s="312"/>
       <c r="T77" s="34">
         <v>7</v>
       </c>
-      <c r="U77" s="214">
+      <c r="U77" s="311">
         <v>8</v>
       </c>
-      <c r="V77" s="215"/>
-      <c r="W77" s="214">
+      <c r="V77" s="312"/>
+      <c r="W77" s="311">
         <v>9</v>
       </c>
-      <c r="X77" s="215"/>
-      <c r="Y77" s="214">
+      <c r="X77" s="312"/>
+      <c r="Y77" s="311">
         <v>10</v>
       </c>
-      <c r="Z77" s="215"/>
-      <c r="AA77" s="214">
+      <c r="Z77" s="312"/>
+      <c r="AA77" s="311">
         <v>11</v>
       </c>
-      <c r="AB77" s="215"/>
-      <c r="AC77" s="215"/>
-      <c r="AD77" s="214">
+      <c r="AB77" s="312"/>
+      <c r="AC77" s="312"/>
+      <c r="AD77" s="311">
         <v>12</v>
       </c>
-      <c r="AE77" s="221"/>
+      <c r="AE77" s="314"/>
       <c r="AF77" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="B5:AA5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:V11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:AB9"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="AA75:AC75"/>
+    <mergeCell ref="AD75:AE76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="AA77:AC77"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:E76"/>
+    <mergeCell ref="F75:I76"/>
+    <mergeCell ref="J75:K76"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:S76"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="E72:X72"/>
+    <mergeCell ref="A74:AE74"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:X70"/>
+    <mergeCell ref="Y70:Z71"/>
+    <mergeCell ref="B65:Z65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="W66:Z67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="U60:AD60"/>
+    <mergeCell ref="U61:AD61"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AE57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:V53"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="A45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:U48"/>
+    <mergeCell ref="V47:W48"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="L39:P40"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AB40"/>
+    <mergeCell ref="AC39:AE40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J32:L33"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="W26:AB27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
     <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:Y23"/>
@@ -5757,212 +5939,33 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="W26:AB27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J32:L33"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:K40"/>
-    <mergeCell ref="L39:P40"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="Z39:AB40"/>
-    <mergeCell ref="AC39:AE40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="A45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:U48"/>
-    <mergeCell ref="V47:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:K53"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:V53"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="U60:AD60"/>
-    <mergeCell ref="U61:AD61"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AE57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:X70"/>
-    <mergeCell ref="Y70:Z71"/>
-    <mergeCell ref="B65:Z65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="W66:Z67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:E76"/>
-    <mergeCell ref="F75:I76"/>
-    <mergeCell ref="J75:K76"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:S76"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="E72:X72"/>
-    <mergeCell ref="A74:AE74"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:S77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="AA75:AC75"/>
-    <mergeCell ref="AD75:AE76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="W77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="AA77:AC77"/>
-    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="B5:AA5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:V11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:AB9"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -5985,564 +5988,564 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="154"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="341" t="s">
+      <c r="A1" s="153"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="318" t="s">
+        <v>155</v>
+      </c>
+      <c r="U1" s="318"/>
+      <c r="V1" s="318"/>
+      <c r="W1" s="318"/>
+      <c r="X1" s="318"/>
+      <c r="Y1" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="326"/>
+      <c r="AB1" s="327"/>
+      <c r="AC1" s="328"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="153"/>
+    </row>
+    <row r="2" spans="1:31" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="319" t="s">
         <v>156</v>
       </c>
-      <c r="U1" s="341"/>
-      <c r="V1" s="341"/>
-      <c r="W1" s="341"/>
-      <c r="X1" s="341"/>
-      <c r="Y1" s="199" t="s">
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="319"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="319"/>
+      <c r="P2" s="319"/>
+      <c r="Q2" s="319"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="154">
+        <v>1</v>
+      </c>
+      <c r="T2" s="155" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="320" t="s">
+        <v>158</v>
+      </c>
+      <c r="V2" s="320"/>
+      <c r="W2" s="319"/>
+      <c r="X2" s="319"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="156"/>
+    </row>
+    <row r="3" spans="1:31" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="321" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="321"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
+      <c r="R3" s="196"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="320" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" s="320"/>
+      <c r="V3" s="320"/>
+      <c r="W3" s="321"/>
+      <c r="X3" s="321"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="200"/>
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="156"/>
+    </row>
+    <row r="4" spans="1:31" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="323"/>
+      <c r="S4" s="323"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="324"/>
+      <c r="Z4" s="324"/>
+      <c r="AA4" s="315"/>
+      <c r="AB4" s="315"/>
+      <c r="AC4" s="315"/>
+      <c r="AD4" s="156"/>
+      <c r="AE4" s="156"/>
+    </row>
+    <row r="5" spans="1:31" ht="10.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="322" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="347"/>
-      <c r="AB1" s="348"/>
-      <c r="AC1" s="349"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="154"/>
-    </row>
-    <row r="2" spans="1:31" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="337" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="337"/>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
-      <c r="N2" s="337"/>
-      <c r="O2" s="337"/>
-      <c r="P2" s="337"/>
-      <c r="Q2" s="337"/>
-      <c r="R2" s="337"/>
-      <c r="S2" s="155">
-        <v>1</v>
-      </c>
-      <c r="T2" s="156" t="s">
-        <v>158</v>
-      </c>
-      <c r="U2" s="342" t="s">
-        <v>159</v>
-      </c>
-      <c r="V2" s="342"/>
-      <c r="W2" s="337"/>
-      <c r="X2" s="337"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="209"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="157"/>
-    </row>
-    <row r="3" spans="1:31" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="343" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="343"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="342" t="s">
-        <v>161</v>
-      </c>
-      <c r="U3" s="342"/>
-      <c r="V3" s="342"/>
-      <c r="W3" s="343"/>
-      <c r="X3" s="343"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="206"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="201"/>
-      <c r="AC3" s="204"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="157"/>
-    </row>
-    <row r="4" spans="1:31" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="344"/>
-      <c r="S4" s="344"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="345"/>
-      <c r="Z4" s="345"/>
-      <c r="AA4" s="339"/>
-      <c r="AB4" s="339"/>
-      <c r="AC4" s="339"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="157"/>
-    </row>
-    <row r="5" spans="1:31" ht="10.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="330" t="s">
+      <c r="B5" s="322"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="317" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
+      <c r="X5" s="156"/>
+      <c r="Y5" s="325"/>
+      <c r="Z5" s="325"/>
+      <c r="AA5" s="316"/>
+      <c r="AB5" s="316"/>
+      <c r="AC5" s="316"/>
+      <c r="AD5" s="156"/>
+      <c r="AE5" s="156"/>
+    </row>
+    <row r="6" spans="1:31" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="164"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="164" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="164"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="156"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="319"/>
+      <c r="Z6" s="335"/>
+      <c r="AA6" s="319"/>
+      <c r="AB6" s="335"/>
+      <c r="AC6" s="335"/>
+      <c r="AD6" s="156"/>
+      <c r="AE6" s="156"/>
+    </row>
+    <row r="7" spans="1:31" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="332" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="330"/>
-      <c r="C5" s="330"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="316" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" s="316"/>
-      <c r="L5" s="316"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="157"/>
-      <c r="X5" s="157"/>
-      <c r="Y5" s="346"/>
-      <c r="Z5" s="346"/>
-      <c r="AA5" s="340"/>
-      <c r="AB5" s="340"/>
-      <c r="AC5" s="340"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="157"/>
-    </row>
-    <row r="6" spans="1:31" ht="8.4499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="157"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="166" t="s">
+      <c r="B7" s="332"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="317" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="317"/>
+      <c r="L7" s="317"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="156"/>
+      <c r="W7" s="156"/>
+      <c r="X7" s="156"/>
+      <c r="Y7" s="335"/>
+      <c r="Z7" s="335"/>
+      <c r="AA7" s="335"/>
+      <c r="AB7" s="335"/>
+      <c r="AC7" s="335"/>
+      <c r="AD7" s="156"/>
+      <c r="AE7" s="156"/>
+    </row>
+    <row r="8" spans="1:31" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="165"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="165" t="s">
+      <c r="G8" s="173"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="157"/>
-      <c r="S6" s="157"/>
-      <c r="T6" s="157"/>
-      <c r="U6" s="157"/>
-      <c r="V6" s="157"/>
-      <c r="W6" s="157"/>
-      <c r="X6" s="157"/>
-      <c r="Y6" s="337"/>
-      <c r="Z6" s="338"/>
-      <c r="AA6" s="337"/>
-      <c r="AB6" s="338"/>
-      <c r="AC6" s="338"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="157"/>
-    </row>
-    <row r="7" spans="1:31" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="335" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="335"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="316" t="s">
-        <v>165</v>
-      </c>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="157"/>
-      <c r="T7" s="157"/>
-      <c r="U7" s="157"/>
-      <c r="V7" s="157"/>
-      <c r="W7" s="157"/>
-      <c r="X7" s="157"/>
-      <c r="Y7" s="338"/>
-      <c r="Z7" s="338"/>
-      <c r="AA7" s="338"/>
-      <c r="AB7" s="338"/>
-      <c r="AC7" s="338"/>
-      <c r="AD7" s="157"/>
-      <c r="AE7" s="157"/>
-    </row>
-    <row r="8" spans="1:31" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="171"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="174"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="165" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="172"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="172"/>
-      <c r="X8" s="172"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
       <c r="Y8" s="329"/>
       <c r="Z8" s="329"/>
-      <c r="AA8" s="333"/>
-      <c r="AB8" s="333"/>
-      <c r="AC8" s="333"/>
-      <c r="AD8" s="172"/>
-      <c r="AE8" s="172"/>
+      <c r="AA8" s="330"/>
+      <c r="AB8" s="330"/>
+      <c r="AC8" s="330"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="171"/>
     </row>
     <row r="9" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="330" t="s">
+      <c r="A9" s="322" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="331"/>
+      <c r="C9" s="331"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="334"/>
-      <c r="C9" s="334"/>
-      <c r="D9" s="335"/>
-      <c r="E9" s="335"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="331" t="s">
+      <c r="J9" s="334"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="170" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="336"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="179"/>
-      <c r="S9" s="171" t="s">
+      <c r="T9" s="158"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="158"/>
+      <c r="W9" s="158"/>
+      <c r="X9" s="158"/>
+      <c r="Y9" s="158"/>
+      <c r="Z9" s="158"/>
+      <c r="AA9" s="158"/>
+      <c r="AB9" s="158"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="171"/>
+      <c r="AE9" s="171"/>
+    </row>
+    <row r="10" spans="1:31" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="156"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="344" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="344"/>
+      <c r="H10" s="344"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="157"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="157"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="157"/>
+      <c r="AA10" s="157"/>
+      <c r="AB10" s="157"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="156"/>
+      <c r="AE10" s="156"/>
+    </row>
+    <row r="11" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="322" t="s">
         <v>168</v>
       </c>
-      <c r="T9" s="159"/>
-      <c r="U9" s="159"/>
-      <c r="V9" s="159"/>
-      <c r="W9" s="159"/>
-      <c r="X9" s="159"/>
-      <c r="Y9" s="159"/>
-      <c r="Z9" s="159"/>
-      <c r="AA9" s="159"/>
-      <c r="AB9" s="159"/>
-      <c r="AC9" s="172"/>
-      <c r="AD9" s="172"/>
-      <c r="AE9" s="172"/>
-    </row>
-    <row r="10" spans="1:31" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="157"/>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="325" t="s">
+      <c r="B11" s="322"/>
+      <c r="C11" s="333"/>
+      <c r="D11" s="333"/>
+      <c r="E11" s="333"/>
+      <c r="F11" s="333"/>
+      <c r="G11" s="333"/>
+      <c r="H11" s="333"/>
+      <c r="I11" s="333"/>
+      <c r="J11" s="333"/>
+      <c r="K11" s="333"/>
+      <c r="L11" s="333"/>
+      <c r="M11" s="333"/>
+      <c r="N11" s="333"/>
+      <c r="O11" s="333"/>
+      <c r="P11" s="333"/>
+      <c r="Q11" s="333"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="170" t="s">
+        <v>169</v>
+      </c>
+      <c r="T11" s="180"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="158"/>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="158"/>
+      <c r="AA11" s="158"/>
+      <c r="AB11" s="158"/>
+      <c r="AC11" s="171"/>
+      <c r="AD11" s="171"/>
+      <c r="AE11" s="171"/>
+    </row>
+    <row r="12" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="171"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="325"/>
-      <c r="H10" s="325"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
-      <c r="P10" s="157"/>
-      <c r="Q10" s="157"/>
-      <c r="R10" s="180"/>
-      <c r="S10" s="157"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="157"/>
-      <c r="AD10" s="157"/>
-      <c r="AE10" s="157"/>
-    </row>
-    <row r="11" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="330" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="330"/>
-      <c r="C11" s="331"/>
-      <c r="D11" s="331"/>
-      <c r="E11" s="331"/>
-      <c r="F11" s="331"/>
-      <c r="G11" s="331"/>
-      <c r="H11" s="331"/>
-      <c r="I11" s="331"/>
-      <c r="J11" s="331"/>
-      <c r="K11" s="331"/>
-      <c r="L11" s="331"/>
-      <c r="M11" s="331"/>
-      <c r="N11" s="331"/>
-      <c r="O11" s="331"/>
-      <c r="P11" s="331"/>
-      <c r="Q11" s="331"/>
-      <c r="R11" s="179"/>
-      <c r="S11" s="171" t="s">
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="172"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="182"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="333" t="s">
         <v>170</v>
       </c>
-      <c r="T11" s="181"/>
-      <c r="U11" s="159"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="159"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="159"/>
-      <c r="Z11" s="159"/>
-      <c r="AA11" s="159"/>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="172"/>
-    </row>
-    <row r="12" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="172"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="182" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="183"/>
-      <c r="R12" s="179"/>
-      <c r="S12" s="331" t="s">
+      <c r="T12" s="333"/>
+      <c r="U12" s="183"/>
+      <c r="V12" s="183"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="184"/>
+      <c r="Y12" s="184"/>
+      <c r="Z12" s="184"/>
+      <c r="AA12" s="184"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="171"/>
+      <c r="AD12" s="171"/>
+      <c r="AE12" s="171"/>
+    </row>
+    <row r="13" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="171"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="348" t="s">
         <v>171</v>
       </c>
-      <c r="T12" s="331"/>
-      <c r="U12" s="184"/>
-      <c r="V12" s="184"/>
-      <c r="W12" s="185"/>
-      <c r="X12" s="185"/>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="172"/>
-      <c r="AD12" s="172"/>
-      <c r="AE12" s="172"/>
-    </row>
-    <row r="13" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="172"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="318" t="s">
+      <c r="M13" s="348"/>
+      <c r="N13" s="348"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="171"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="178"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="174"/>
+      <c r="U13" s="164" t="s">
+        <v>67</v>
+      </c>
+      <c r="V13" s="164"/>
+      <c r="W13" s="164" t="s">
+        <v>68</v>
+      </c>
+      <c r="X13" s="164"/>
+      <c r="Y13" s="185" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z13" s="185"/>
+      <c r="AA13" s="164"/>
+      <c r="AB13" s="164"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="171"/>
+    </row>
+    <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="336" t="s">
         <v>172</v>
       </c>
-      <c r="M13" s="318"/>
-      <c r="N13" s="318"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="179"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="175"/>
-      <c r="U13" s="165" t="s">
+      <c r="B14" s="336"/>
+      <c r="C14" s="336"/>
+      <c r="D14" s="337" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="337"/>
+      <c r="F14" s="338"/>
+      <c r="G14" s="338"/>
+      <c r="H14" s="339" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="339"/>
+      <c r="J14" s="339"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="336" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14" s="336"/>
+      <c r="N14" s="211"/>
+      <c r="O14" s="212" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="210"/>
+      <c r="Q14" s="210"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="340"/>
+      <c r="T14" s="340"/>
+      <c r="U14" s="340"/>
+      <c r="V14" s="340"/>
+      <c r="W14" s="340"/>
+      <c r="X14" s="340"/>
+      <c r="Y14" s="340"/>
+      <c r="Z14" s="340"/>
+      <c r="AA14" s="340"/>
+      <c r="AB14" s="340"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="174"/>
+      <c r="AE14" s="156"/>
+    </row>
+    <row r="15" spans="1:31" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="171"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="V13" s="165"/>
-      <c r="W13" s="165" t="s">
-        <v>68</v>
-      </c>
-      <c r="X13" s="165"/>
-      <c r="Y13" s="186" t="s">
+      <c r="E15" s="164"/>
+      <c r="F15" s="164" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="164"/>
+      <c r="H15" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="Z13" s="186"/>
-      <c r="AA13" s="165"/>
-      <c r="AB13" s="165"/>
-      <c r="AC13" s="175"/>
-      <c r="AD13" s="175"/>
-      <c r="AE13" s="172"/>
-    </row>
-    <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="320" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="320"/>
-      <c r="C14" s="320"/>
-      <c r="D14" s="321" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="321"/>
-      <c r="F14" s="319"/>
-      <c r="G14" s="319"/>
-      <c r="H14" s="317" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" s="317"/>
-      <c r="J14" s="317"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="320" t="s">
-        <v>175</v>
-      </c>
-      <c r="M14" s="320"/>
-      <c r="N14" s="212"/>
-      <c r="O14" s="213" t="s">
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="347"/>
+      <c r="M15" s="347"/>
+      <c r="N15" s="164" t="s">
         <v>176</v>
       </c>
-      <c r="P14" s="211"/>
-      <c r="Q14" s="211"/>
-      <c r="R14" s="179"/>
-      <c r="S14" s="332"/>
-      <c r="T14" s="332"/>
-      <c r="U14" s="332"/>
-      <c r="V14" s="332"/>
-      <c r="W14" s="332"/>
-      <c r="X14" s="332"/>
-      <c r="Y14" s="332"/>
-      <c r="Z14" s="332"/>
-      <c r="AA14" s="332"/>
-      <c r="AB14" s="332"/>
-      <c r="AC14" s="175"/>
-      <c r="AD14" s="175"/>
-      <c r="AE14" s="157"/>
-    </row>
-    <row r="15" spans="1:31" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="172"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="165" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165" t="s">
+      <c r="O15" s="164"/>
+      <c r="P15" s="164" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="165"/>
-      <c r="H15" s="186" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="328"/>
-      <c r="M15" s="328"/>
-      <c r="N15" s="165" t="s">
-        <v>177</v>
-      </c>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165" t="s">
+      <c r="Q15" s="186"/>
+      <c r="R15" s="178"/>
+      <c r="S15" s="329" t="s">
         <v>178</v>
-      </c>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="179"/>
-      <c r="S15" s="329" t="s">
-        <v>179</v>
       </c>
       <c r="T15" s="329"/>
       <c r="U15" s="329"/>
@@ -6553,199 +6556,235 @@
       <c r="Z15" s="329"/>
       <c r="AA15" s="329"/>
       <c r="AB15" s="329"/>
-      <c r="AC15" s="157"/>
-      <c r="AD15" s="157"/>
-      <c r="AE15" s="157"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="156"/>
+      <c r="AE15" s="156"/>
     </row>
     <row r="16" spans="1:31" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="172"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="175"/>
-      <c r="R16" s="179"/>
-      <c r="S16" s="189"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="190"/>
-      <c r="V16" s="191"/>
-      <c r="W16" s="190"/>
-      <c r="X16" s="190"/>
-      <c r="Y16" s="190"/>
-      <c r="Z16" s="190"/>
-      <c r="AA16" s="192"/>
-      <c r="AB16" s="192"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="157"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="178"/>
+      <c r="S16" s="188"/>
+      <c r="T16" s="189"/>
+      <c r="U16" s="189"/>
+      <c r="V16" s="190"/>
+      <c r="W16" s="189"/>
+      <c r="X16" s="189"/>
+      <c r="Y16" s="189"/>
+      <c r="Z16" s="189"/>
+      <c r="AA16" s="191"/>
+      <c r="AB16" s="191"/>
+      <c r="AC16" s="156"/>
+      <c r="AD16" s="156"/>
+      <c r="AE16" s="156"/>
     </row>
     <row r="17" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="320" t="s">
+      <c r="A17" s="336" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="336"/>
+      <c r="C17" s="336"/>
+      <c r="D17" s="337" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="337"/>
+      <c r="F17" s="338"/>
+      <c r="G17" s="338"/>
+      <c r="H17" s="339" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="320"/>
-      <c r="C17" s="320"/>
-      <c r="D17" s="321" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="321"/>
-      <c r="F17" s="319"/>
-      <c r="G17" s="319"/>
-      <c r="H17" s="317" t="s">
+      <c r="I17" s="339"/>
+      <c r="J17" s="339"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="171"/>
+      <c r="R17" s="178"/>
+      <c r="S17" s="345" t="s">
         <v>181</v>
       </c>
-      <c r="I17" s="317"/>
-      <c r="J17" s="317"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="172"/>
-      <c r="R17" s="179"/>
-      <c r="S17" s="326" t="s">
+      <c r="T17" s="345"/>
+      <c r="U17" s="343"/>
+      <c r="V17" s="346"/>
+      <c r="W17" s="343"/>
+      <c r="X17" s="343"/>
+      <c r="Y17" s="172"/>
+      <c r="Z17" s="172"/>
+      <c r="AA17" s="157"/>
+      <c r="AB17" s="157"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="156"/>
+      <c r="AE17" s="156"/>
+    </row>
+    <row r="18" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="174"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="164" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="164"/>
+      <c r="H18" s="185" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="171"/>
+      <c r="Q18" s="171"/>
+      <c r="R18" s="178"/>
+      <c r="S18" s="171"/>
+      <c r="T18" s="171"/>
+      <c r="U18" s="164" t="s">
+        <v>67</v>
+      </c>
+      <c r="V18" s="164"/>
+      <c r="W18" s="164" t="s">
+        <v>68</v>
+      </c>
+      <c r="X18" s="164"/>
+      <c r="Y18" s="185" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z18" s="164"/>
+      <c r="AA18" s="164"/>
+      <c r="AB18" s="164"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="156"/>
+    </row>
+    <row r="19" spans="1:31" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="348"/>
+      <c r="B19" s="348"/>
+      <c r="C19" s="348"/>
+      <c r="D19" s="338"/>
+      <c r="E19" s="338"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="178"/>
+      <c r="S19" s="171"/>
+      <c r="T19" s="171"/>
+      <c r="U19" s="341"/>
+      <c r="V19" s="341"/>
+      <c r="W19" s="342"/>
+      <c r="X19" s="342"/>
+      <c r="Y19" s="342"/>
+      <c r="Z19" s="342"/>
+      <c r="AA19" s="342"/>
+      <c r="AB19" s="342"/>
+      <c r="AC19" s="171"/>
+      <c r="AD19" s="171"/>
+      <c r="AE19" s="171"/>
+    </row>
+    <row r="20" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="174"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="317"/>
+      <c r="E20" s="317"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="317"/>
+      <c r="I20" s="317"/>
+      <c r="J20" s="317"/>
+      <c r="K20" s="195" t="s">
         <v>182</v>
       </c>
-      <c r="T17" s="326"/>
-      <c r="U17" s="324"/>
-      <c r="V17" s="327"/>
-      <c r="W17" s="324"/>
-      <c r="X17" s="324"/>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="173"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="157"/>
-      <c r="AE17" s="157"/>
-    </row>
-    <row r="18" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="175"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="165" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="165"/>
-      <c r="H18" s="186" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172"/>
-      <c r="U18" s="165" t="s">
-        <v>67</v>
-      </c>
-      <c r="V18" s="165"/>
-      <c r="W18" s="165" t="s">
-        <v>68</v>
-      </c>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="186" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z18" s="165"/>
-      <c r="AA18" s="165"/>
-      <c r="AB18" s="165"/>
-      <c r="AC18" s="157"/>
-      <c r="AD18" s="157"/>
-      <c r="AE18" s="157"/>
-    </row>
-    <row r="19" spans="1:31" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="318"/>
-      <c r="B19" s="318"/>
-      <c r="C19" s="318"/>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="179"/>
-      <c r="S19" s="172"/>
-      <c r="T19" s="172"/>
-      <c r="U19" s="322"/>
-      <c r="V19" s="322"/>
-      <c r="W19" s="323"/>
-      <c r="X19" s="323"/>
-      <c r="Y19" s="323"/>
-      <c r="Z19" s="323"/>
-      <c r="AA19" s="323"/>
-      <c r="AB19" s="323"/>
-      <c r="AC19" s="172"/>
-      <c r="AD19" s="172"/>
-      <c r="AE19" s="172"/>
-    </row>
-    <row r="20" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="175"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="316"/>
-      <c r="E20" s="316"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="316"/>
-      <c r="I20" s="316"/>
-      <c r="J20" s="316"/>
-      <c r="K20" s="196" t="s">
-        <v>183</v>
-      </c>
-      <c r="L20" s="195"/>
-      <c r="M20" s="316"/>
-      <c r="N20" s="316"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="195"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="180"/>
-      <c r="S20" s="157"/>
-      <c r="T20" s="157"/>
-      <c r="U20" s="157"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="157"/>
-      <c r="X20" s="157"/>
-      <c r="Y20" s="157"/>
-      <c r="Z20" s="157"/>
-      <c r="AA20" s="157"/>
-      <c r="AB20" s="157"/>
-      <c r="AC20" s="157"/>
-      <c r="AD20" s="157"/>
-      <c r="AE20" s="157"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="317"/>
+      <c r="N20" s="317"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="194"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="179"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="156"/>
+      <c r="Z20" s="156"/>
+      <c r="AA20" s="156"/>
+      <c r="AB20" s="156"/>
+      <c r="AC20" s="156"/>
+      <c r="AD20" s="156"/>
+      <c r="AE20" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="S15:AB15"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="S14:AB14"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="AA6:AC7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AA4:AC5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="T1:X1"/>
@@ -6758,42 +6797,6 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="Y4:Z5"/>
     <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="AA6:AC7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="S14:AB14"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="S15:AB15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
   <si>
     <t>Оборотная сторона формы № 1-Т</t>
   </si>
@@ -590,9 +590,6 @@
   </si>
   <si>
     <t>Отпуск груза произвел</t>
-  </si>
-  <si>
-    <t>Косяченко В.А.</t>
   </si>
   <si>
     <t>Груз получил грузополучатель:</t>
@@ -1883,27 +1880,303 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1916,278 +2189,80 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2195,24 +2270,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2230,75 +2296,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2673,49 +2670,49 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="213" t="s">
+      <c r="Z1" s="306" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="213"/>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
+      <c r="AA1" s="306"/>
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="306"/>
+      <c r="AD1" s="306"/>
+      <c r="AE1" s="306"/>
     </row>
     <row r="2" spans="1:32" ht="9.1999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="214"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="214"/>
+      <c r="B2" s="228"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="228"/>
+      <c r="O2" s="228"/>
+      <c r="P2" s="228"/>
+      <c r="Q2" s="228"/>
+      <c r="R2" s="228"/>
+      <c r="S2" s="228"/>
+      <c r="T2" s="228"/>
+      <c r="U2" s="228"/>
+      <c r="V2" s="228"/>
+      <c r="W2" s="228"/>
+      <c r="X2" s="228"/>
+      <c r="Y2" s="228"/>
+      <c r="Z2" s="228"/>
+      <c r="AA2" s="228"/>
+      <c r="AB2" s="228"/>
+      <c r="AC2" s="228"/>
+      <c r="AD2" s="228"/>
+      <c r="AE2" s="228"/>
     </row>
     <row r="3" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="151" t="s">
@@ -2760,20 +2757,20 @@
       <c r="AF3" s="18"/>
     </row>
     <row r="4" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
+      <c r="B4" s="285"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285"/>
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285"/>
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -2787,11 +2784,11 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="213" t="s">
+      <c r="Z4" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="213"/>
-      <c r="AB4" s="213"/>
+      <c r="AA4" s="306"/>
+      <c r="AB4" s="306"/>
       <c r="AC4" s="91"/>
       <c r="AD4" s="87"/>
       <c r="AE4" s="92"/>
@@ -2801,32 +2798,32 @@
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="216"/>
-      <c r="S5" s="216"/>
-      <c r="T5" s="216"/>
-      <c r="U5" s="216"/>
-      <c r="V5" s="216"/>
-      <c r="W5" s="216"/>
-      <c r="X5" s="216"/>
-      <c r="Y5" s="216"/>
-      <c r="Z5" s="216"/>
-      <c r="AA5" s="216"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="311"/>
+      <c r="G5" s="311"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="311"/>
+      <c r="J5" s="311"/>
+      <c r="K5" s="311"/>
+      <c r="L5" s="311"/>
+      <c r="M5" s="311"/>
+      <c r="N5" s="311"/>
+      <c r="O5" s="311"/>
+      <c r="P5" s="311"/>
+      <c r="Q5" s="311"/>
+      <c r="R5" s="311"/>
+      <c r="S5" s="311"/>
+      <c r="T5" s="311"/>
+      <c r="U5" s="311"/>
+      <c r="V5" s="311"/>
+      <c r="W5" s="311"/>
+      <c r="X5" s="311"/>
+      <c r="Y5" s="311"/>
+      <c r="Z5" s="311"/>
+      <c r="AA5" s="311"/>
       <c r="AB5" s="49" t="s">
         <v>6</v>
       </c>
@@ -2875,25 +2872,25 @@
       <c r="A7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="218"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="224" t="s">
+      <c r="I7" s="289" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="224"/>
-      <c r="K7" s="224"/>
-      <c r="L7" s="224"/>
-      <c r="M7" s="224"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="218"/>
+      <c r="J7" s="289"/>
+      <c r="K7" s="289"/>
+      <c r="L7" s="289"/>
+      <c r="M7" s="289"/>
+      <c r="N7" s="235"/>
+      <c r="O7" s="235"/>
+      <c r="P7" s="235"/>
+      <c r="Q7" s="235"/>
+      <c r="R7" s="235"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -2946,38 +2943,38 @@
       <c r="AF8" s="18"/>
     </row>
     <row r="9" spans="1:32" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="215" t="s">
+      <c r="A9" s="285" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="225"/>
-      <c r="C9" s="226" t="s">
+      <c r="B9" s="299"/>
+      <c r="C9" s="316" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="226"/>
-      <c r="I9" s="226"/>
-      <c r="J9" s="226"/>
-      <c r="K9" s="226"/>
-      <c r="L9" s="226"/>
-      <c r="M9" s="226"/>
-      <c r="N9" s="226"/>
-      <c r="O9" s="226"/>
-      <c r="P9" s="226"/>
-      <c r="Q9" s="226"/>
-      <c r="R9" s="226"/>
-      <c r="S9" s="226"/>
-      <c r="T9" s="226"/>
-      <c r="U9" s="226"/>
-      <c r="V9" s="226"/>
-      <c r="W9" s="226"/>
-      <c r="X9" s="226"/>
-      <c r="Y9" s="226"/>
-      <c r="Z9" s="226"/>
-      <c r="AA9" s="226"/>
-      <c r="AB9" s="227"/>
+      <c r="D9" s="316"/>
+      <c r="E9" s="316"/>
+      <c r="F9" s="316"/>
+      <c r="G9" s="316"/>
+      <c r="H9" s="316"/>
+      <c r="I9" s="316"/>
+      <c r="J9" s="316"/>
+      <c r="K9" s="316"/>
+      <c r="L9" s="316"/>
+      <c r="M9" s="316"/>
+      <c r="N9" s="316"/>
+      <c r="O9" s="316"/>
+      <c r="P9" s="316"/>
+      <c r="Q9" s="316"/>
+      <c r="R9" s="316"/>
+      <c r="S9" s="316"/>
+      <c r="T9" s="316"/>
+      <c r="U9" s="316"/>
+      <c r="V9" s="316"/>
+      <c r="W9" s="316"/>
+      <c r="X9" s="316"/>
+      <c r="Y9" s="316"/>
+      <c r="Z9" s="316"/>
+      <c r="AA9" s="316"/>
+      <c r="AB9" s="317"/>
       <c r="AC9" s="97"/>
       <c r="AD9" s="98"/>
       <c r="AE9" s="99"/>
@@ -3020,38 +3017,38 @@
       <c r="AF10" s="18"/>
     </row>
     <row r="11" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="217" t="s">
+      <c r="A11" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="217"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="219"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="219"/>
-      <c r="N11" s="219"/>
-      <c r="O11" s="220"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="220"/>
-      <c r="S11" s="220"/>
-      <c r="T11" s="220"/>
-      <c r="U11" s="220"/>
-      <c r="V11" s="220"/>
+      <c r="B11" s="281"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="269"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="269"/>
+      <c r="M11" s="269"/>
+      <c r="N11" s="269"/>
+      <c r="O11" s="312"/>
+      <c r="P11" s="312"/>
+      <c r="Q11" s="312"/>
+      <c r="R11" s="312"/>
+      <c r="S11" s="312"/>
+      <c r="T11" s="312"/>
+      <c r="U11" s="312"/>
+      <c r="V11" s="312"/>
       <c r="W11" s="54"/>
       <c r="X11" s="52" t="s">
         <v>13</v>
       </c>
       <c r="Y11" s="38"/>
-      <c r="Z11" s="221"/>
-      <c r="AA11" s="221"/>
-      <c r="AB11" s="222"/>
+      <c r="Z11" s="313"/>
+      <c r="AA11" s="313"/>
+      <c r="AB11" s="314"/>
       <c r="AC11" s="70"/>
       <c r="AD11" s="71"/>
       <c r="AE11" s="96"/>
@@ -3094,17 +3091,17 @@
       <c r="AF12" s="18"/>
     </row>
     <row r="13" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="215" t="s">
+      <c r="A13" s="285" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="215"/>
-      <c r="C13" s="218" t="s">
+      <c r="B13" s="285"/>
+      <c r="C13" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="218"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="218"/>
-      <c r="G13" s="218"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="235"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -3113,19 +3110,19 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="215" t="s">
+      <c r="P13" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="215"/>
-      <c r="R13" s="223"/>
-      <c r="S13" s="223"/>
-      <c r="T13" s="223"/>
-      <c r="U13" s="223"/>
-      <c r="V13" s="223"/>
-      <c r="W13" s="223"/>
-      <c r="X13" s="223"/>
-      <c r="Y13" s="223"/>
-      <c r="Z13" s="223"/>
+      <c r="Q13" s="285"/>
+      <c r="R13" s="315"/>
+      <c r="S13" s="315"/>
+      <c r="T13" s="315"/>
+      <c r="U13" s="315"/>
+      <c r="V13" s="315"/>
+      <c r="W13" s="315"/>
+      <c r="X13" s="315"/>
+      <c r="Y13" s="315"/>
+      <c r="Z13" s="315"/>
       <c r="AA13" s="55"/>
       <c r="AB13" s="58" t="s">
         <v>149</v>
@@ -3172,10 +3169,10 @@
       <c r="AF14" s="18"/>
     </row>
     <row r="15" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="215" t="s">
+      <c r="A15" s="285" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="215"/>
+      <c r="B15" s="285"/>
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
@@ -3215,24 +3212,24 @@
       <c r="A16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="230"/>
-      <c r="C16" s="230"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="230"/>
-      <c r="G16" s="230"/>
-      <c r="H16" s="230"/>
-      <c r="I16" s="230"/>
-      <c r="J16" s="230"/>
-      <c r="K16" s="230"/>
-      <c r="L16" s="230"/>
+      <c r="B16" s="309"/>
+      <c r="C16" s="309"/>
+      <c r="D16" s="309"/>
+      <c r="E16" s="309"/>
+      <c r="F16" s="309"/>
+      <c r="G16" s="309"/>
+      <c r="H16" s="309"/>
+      <c r="I16" s="309"/>
+      <c r="J16" s="309"/>
+      <c r="K16" s="309"/>
+      <c r="L16" s="309"/>
       <c r="M16" s="4"/>
       <c r="N16" s="21"/>
-      <c r="O16" s="231" t="s">
+      <c r="O16" s="310" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="231"/>
-      <c r="Q16" s="231"/>
+      <c r="P16" s="310"/>
+      <c r="Q16" s="310"/>
       <c r="R16" s="66"/>
       <c r="S16" s="62"/>
       <c r="T16" s="62"/>
@@ -3242,10 +3239,10 @@
       <c r="X16" s="62"/>
       <c r="Y16" s="62"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="213" t="s">
+      <c r="AA16" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="AB16" s="229"/>
+      <c r="AB16" s="307"/>
       <c r="AC16" s="100"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="101"/>
@@ -3273,11 +3270,11 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="228" t="s">
+      <c r="T17" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="U17" s="228"/>
-      <c r="V17" s="228"/>
+      <c r="U17" s="244"/>
+      <c r="V17" s="244"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
@@ -3290,42 +3287,42 @@
       <c r="AF17" s="18"/>
     </row>
     <row r="18" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="215" t="s">
+      <c r="A18" s="285" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="215"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="217"/>
-      <c r="L18" s="217"/>
-      <c r="M18" s="215" t="s">
+      <c r="B18" s="285"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="281"/>
+      <c r="E18" s="281"/>
+      <c r="F18" s="281"/>
+      <c r="G18" s="281"/>
+      <c r="H18" s="281"/>
+      <c r="I18" s="281"/>
+      <c r="J18" s="281"/>
+      <c r="K18" s="281"/>
+      <c r="L18" s="281"/>
+      <c r="M18" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="215"/>
+      <c r="N18" s="285"/>
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
-      <c r="Q18" s="213" t="s">
+      <c r="Q18" s="306" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="213"/>
-      <c r="S18" s="213"/>
-      <c r="T18" s="213"/>
+      <c r="R18" s="306"/>
+      <c r="S18" s="306"/>
+      <c r="T18" s="306"/>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
       <c r="W18" s="43"/>
       <c r="X18" s="43"/>
       <c r="Y18" s="43"/>
-      <c r="Z18" s="213" t="s">
+      <c r="Z18" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="AA18" s="213"/>
-      <c r="AB18" s="229"/>
+      <c r="AA18" s="306"/>
+      <c r="AB18" s="307"/>
       <c r="AC18" s="100"/>
       <c r="AD18" s="43"/>
       <c r="AE18" s="101"/>
@@ -3382,28 +3379,28 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="215" t="s">
+      <c r="M20" s="285" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="215"/>
+      <c r="N20" s="285"/>
       <c r="O20" s="61"/>
       <c r="P20" s="61"/>
-      <c r="Q20" s="213" t="s">
+      <c r="Q20" s="306" t="s">
         <v>150</v>
       </c>
-      <c r="R20" s="213"/>
-      <c r="S20" s="213"/>
-      <c r="T20" s="213"/>
+      <c r="R20" s="306"/>
+      <c r="S20" s="306"/>
+      <c r="T20" s="306"/>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="61"/>
       <c r="X20" s="61"/>
       <c r="Y20" s="61"/>
-      <c r="Z20" s="213" t="s">
+      <c r="Z20" s="306" t="s">
         <v>148</v>
       </c>
-      <c r="AA20" s="213"/>
-      <c r="AB20" s="229"/>
+      <c r="AA20" s="306"/>
+      <c r="AB20" s="307"/>
       <c r="AC20" s="74"/>
       <c r="AD20" s="76"/>
       <c r="AE20" s="75"/>
@@ -3447,23 +3444,23 @@
     <row r="22" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="235" t="s">
+      <c r="C22" s="279" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="235"/>
-      <c r="E22" s="235"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="235"/>
+      <c r="D22" s="279"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="279"/>
+      <c r="G22" s="279"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="236" t="s">
+      <c r="L22" s="308" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="236"/>
-      <c r="N22" s="236"/>
-      <c r="O22" s="236"/>
+      <c r="M22" s="308"/>
+      <c r="N22" s="308"/>
+      <c r="O22" s="308"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3482,147 +3479,147 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="232" t="s">
+      <c r="A23" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="232" t="s">
+      <c r="B23" s="250"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="223" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="233"/>
-      <c r="G23" s="233"/>
-      <c r="H23" s="233"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="232" t="s">
+      <c r="F23" s="250"/>
+      <c r="G23" s="250"/>
+      <c r="H23" s="250"/>
+      <c r="I23" s="250"/>
+      <c r="J23" s="223" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="233"/>
-      <c r="L23" s="233"/>
-      <c r="M23" s="232" t="s">
+      <c r="K23" s="250"/>
+      <c r="L23" s="250"/>
+      <c r="M23" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="233"/>
-      <c r="O23" s="233"/>
-      <c r="P23" s="233"/>
-      <c r="Q23" s="233"/>
-      <c r="R23" s="232" t="s">
+      <c r="N23" s="250"/>
+      <c r="O23" s="250"/>
+      <c r="P23" s="250"/>
+      <c r="Q23" s="250"/>
+      <c r="R23" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="S23" s="233"/>
-      <c r="T23" s="233"/>
-      <c r="U23" s="232" t="s">
+      <c r="S23" s="250"/>
+      <c r="T23" s="250"/>
+      <c r="U23" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="233"/>
-      <c r="W23" s="232" t="s">
+      <c r="V23" s="250"/>
+      <c r="W23" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="X23" s="233"/>
-      <c r="Y23" s="233"/>
-      <c r="Z23" s="232" t="s">
+      <c r="X23" s="250"/>
+      <c r="Y23" s="250"/>
+      <c r="Z23" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="AA23" s="233"/>
-      <c r="AB23" s="233"/>
-      <c r="AC23" s="232" t="s">
+      <c r="AA23" s="250"/>
+      <c r="AB23" s="250"/>
+      <c r="AC23" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="AD23" s="233"/>
-      <c r="AE23" s="233"/>
+      <c r="AD23" s="250"/>
+      <c r="AE23" s="250"/>
       <c r="AF23" s="17"/>
     </row>
     <row r="24" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="232">
+      <c r="A24" s="223">
         <v>1</v>
       </c>
-      <c r="B24" s="233"/>
-      <c r="C24" s="233"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="232">
+      <c r="B24" s="250"/>
+      <c r="C24" s="250"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="223">
         <v>2</v>
       </c>
-      <c r="F24" s="233"/>
-      <c r="G24" s="233"/>
-      <c r="H24" s="233"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="232">
+      <c r="F24" s="250"/>
+      <c r="G24" s="250"/>
+      <c r="H24" s="250"/>
+      <c r="I24" s="250"/>
+      <c r="J24" s="223">
         <v>3</v>
       </c>
-      <c r="K24" s="233"/>
-      <c r="L24" s="233"/>
-      <c r="M24" s="232">
+      <c r="K24" s="250"/>
+      <c r="L24" s="250"/>
+      <c r="M24" s="223">
         <v>4</v>
       </c>
-      <c r="N24" s="233"/>
-      <c r="O24" s="233"/>
-      <c r="P24" s="233"/>
-      <c r="Q24" s="233"/>
-      <c r="R24" s="232">
+      <c r="N24" s="250"/>
+      <c r="O24" s="250"/>
+      <c r="P24" s="250"/>
+      <c r="Q24" s="250"/>
+      <c r="R24" s="223">
         <v>5</v>
       </c>
-      <c r="S24" s="233"/>
-      <c r="T24" s="233"/>
-      <c r="U24" s="232">
+      <c r="S24" s="250"/>
+      <c r="T24" s="250"/>
+      <c r="U24" s="223">
         <v>6</v>
       </c>
-      <c r="V24" s="233"/>
-      <c r="W24" s="232">
+      <c r="V24" s="250"/>
+      <c r="W24" s="223">
         <v>7</v>
       </c>
-      <c r="X24" s="233"/>
-      <c r="Y24" s="233"/>
-      <c r="Z24" s="232">
+      <c r="X24" s="250"/>
+      <c r="Y24" s="250"/>
+      <c r="Z24" s="223">
         <v>8</v>
       </c>
-      <c r="AA24" s="233"/>
-      <c r="AB24" s="233"/>
-      <c r="AC24" s="232">
+      <c r="AA24" s="250"/>
+      <c r="AB24" s="250"/>
+      <c r="AC24" s="223">
         <v>9</v>
       </c>
-      <c r="AD24" s="233"/>
-      <c r="AE24" s="234"/>
+      <c r="AD24" s="250"/>
+      <c r="AE24" s="251"/>
       <c r="AF24" s="17"/>
     </row>
     <row r="25" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="243" t="s">
+      <c r="A25" s="300" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="244"/>
-      <c r="C25" s="244"/>
-      <c r="D25" s="244"/>
-      <c r="E25" s="245" t="s">
+      <c r="B25" s="301"/>
+      <c r="C25" s="301"/>
+      <c r="D25" s="301"/>
+      <c r="E25" s="282" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="246"/>
-      <c r="G25" s="246"/>
-      <c r="H25" s="246"/>
-      <c r="I25" s="246"/>
-      <c r="J25" s="247" t="s">
+      <c r="F25" s="283"/>
+      <c r="G25" s="283"/>
+      <c r="H25" s="283"/>
+      <c r="I25" s="283"/>
+      <c r="J25" s="302" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="248"/>
-      <c r="L25" s="248"/>
-      <c r="M25" s="249"/>
-      <c r="N25" s="249"/>
-      <c r="O25" s="249"/>
-      <c r="P25" s="249"/>
-      <c r="Q25" s="249"/>
-      <c r="R25" s="244"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="244"/>
-      <c r="U25" s="237"/>
-      <c r="V25" s="237"/>
-      <c r="W25" s="237"/>
-      <c r="X25" s="237"/>
-      <c r="Y25" s="237"/>
-      <c r="Z25" s="237"/>
-      <c r="AA25" s="237"/>
-      <c r="AB25" s="237"/>
-      <c r="AC25" s="237"/>
-      <c r="AD25" s="237"/>
-      <c r="AE25" s="237"/>
+      <c r="K25" s="303"/>
+      <c r="L25" s="303"/>
+      <c r="M25" s="304"/>
+      <c r="N25" s="304"/>
+      <c r="O25" s="304"/>
+      <c r="P25" s="304"/>
+      <c r="Q25" s="304"/>
+      <c r="R25" s="301"/>
+      <c r="S25" s="301"/>
+      <c r="T25" s="301"/>
+      <c r="U25" s="292"/>
+      <c r="V25" s="292"/>
+      <c r="W25" s="292"/>
+      <c r="X25" s="292"/>
+      <c r="Y25" s="292"/>
+      <c r="Z25" s="292"/>
+      <c r="AA25" s="292"/>
+      <c r="AB25" s="292"/>
+      <c r="AC25" s="292"/>
+      <c r="AD25" s="292"/>
+      <c r="AE25" s="292"/>
       <c r="AF25" s="112"/>
     </row>
     <row r="26" spans="1:32" ht="3.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3648,39 +3645,39 @@
       <c r="T26" s="89"/>
       <c r="U26" s="113"/>
       <c r="V26" s="114"/>
-      <c r="W26" s="238" t="s">
+      <c r="W26" s="295" t="s">
         <v>47</v>
       </c>
-      <c r="X26" s="239"/>
-      <c r="Y26" s="239"/>
-      <c r="Z26" s="239"/>
-      <c r="AA26" s="239"/>
-      <c r="AB26" s="239"/>
+      <c r="X26" s="296"/>
+      <c r="Y26" s="296"/>
+      <c r="Z26" s="296"/>
+      <c r="AA26" s="296"/>
+      <c r="AB26" s="296"/>
       <c r="AC26" s="116"/>
       <c r="AD26" s="90"/>
       <c r="AE26" s="114"/>
       <c r="AF26" s="112"/>
     </row>
     <row r="27" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="215" t="s">
+      <c r="A27" s="285" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="215"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
+      <c r="B27" s="285"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="218" t="s">
+      <c r="F27" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="218"/>
-      <c r="H27" s="241"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="298"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="242" t="s">
+      <c r="J27" s="284" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="215"/>
-      <c r="L27" s="215"/>
-      <c r="M27" s="225"/>
+      <c r="K27" s="285"/>
+      <c r="L27" s="285"/>
+      <c r="M27" s="299"/>
       <c r="N27" s="80"/>
       <c r="O27" s="80"/>
       <c r="P27" s="9" t="s">
@@ -3688,56 +3685,56 @@
       </c>
       <c r="Q27" s="78"/>
       <c r="R27" s="79"/>
-      <c r="S27" s="250" t="s">
+      <c r="S27" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="T27" s="238"/>
+      <c r="T27" s="295"/>
       <c r="U27" s="115"/>
       <c r="V27" s="77"/>
-      <c r="W27" s="239"/>
-      <c r="X27" s="240"/>
-      <c r="Y27" s="240"/>
-      <c r="Z27" s="240"/>
-      <c r="AA27" s="240"/>
-      <c r="AB27" s="240"/>
+      <c r="W27" s="296"/>
+      <c r="X27" s="297"/>
+      <c r="Y27" s="297"/>
+      <c r="Z27" s="297"/>
+      <c r="AA27" s="297"/>
+      <c r="AB27" s="297"/>
       <c r="AC27" s="115"/>
       <c r="AD27" s="43"/>
       <c r="AE27" s="77"/>
       <c r="AF27" s="112"/>
     </row>
     <row r="28" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="224" t="s">
+      <c r="A28" s="289" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="224"/>
-      <c r="C28" s="224"/>
-      <c r="D28" s="224"/>
+      <c r="B28" s="289"/>
+      <c r="C28" s="289"/>
+      <c r="D28" s="289"/>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
       <c r="G28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="257"/>
-      <c r="I28" s="258"/>
-      <c r="J28" s="242"/>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215"/>
-      <c r="M28" s="215"/>
-      <c r="N28" s="235" t="s">
+      <c r="H28" s="293"/>
+      <c r="I28" s="294"/>
+      <c r="J28" s="284"/>
+      <c r="K28" s="285"/>
+      <c r="L28" s="285"/>
+      <c r="M28" s="285"/>
+      <c r="N28" s="279" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="235"/>
+      <c r="O28" s="279"/>
       <c r="P28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q28" s="235" t="s">
+      <c r="Q28" s="279" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="251"/>
-      <c r="S28" s="252" t="s">
+      <c r="R28" s="305"/>
+      <c r="S28" s="275" t="s">
         <v>56</v>
       </c>
-      <c r="T28" s="253"/>
+      <c r="T28" s="291"/>
       <c r="U28" s="107"/>
       <c r="V28" s="107"/>
       <c r="W28" s="2"/>
@@ -3755,10 +3752,10 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="254" t="s">
+      <c r="E29" s="276" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="254"/>
+      <c r="F29" s="276"/>
       <c r="G29" s="2"/>
       <c r="H29" s="50"/>
       <c r="I29" s="152"/>
@@ -3766,11 +3763,11 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="254"/>
-      <c r="O29" s="254"/>
+      <c r="N29" s="276"/>
+      <c r="O29" s="276"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="254"/>
-      <c r="R29" s="254"/>
+      <c r="Q29" s="276"/>
+      <c r="R29" s="276"/>
       <c r="S29" s="26"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -3786,10 +3783,10 @@
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="281" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="217"/>
+      <c r="B30" s="281"/>
       <c r="C30" s="78"/>
       <c r="D30" s="78"/>
       <c r="E30" s="78"/>
@@ -3797,28 +3794,28 @@
       <c r="G30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="255" t="s">
+      <c r="H30" s="259" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="255"/>
-      <c r="J30" s="256" t="s">
+      <c r="I30" s="259"/>
+      <c r="J30" s="280" t="s">
         <v>58</v>
       </c>
-      <c r="K30" s="217"/>
-      <c r="L30" s="217"/>
+      <c r="K30" s="281"/>
+      <c r="L30" s="281"/>
       <c r="M30" s="80"/>
       <c r="N30" s="80"/>
       <c r="O30" s="80"/>
-      <c r="P30" s="217" t="s">
+      <c r="P30" s="281" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="217"/>
-      <c r="R30" s="217"/>
-      <c r="S30" s="256" t="s">
+      <c r="Q30" s="281"/>
+      <c r="R30" s="281"/>
+      <c r="S30" s="280" t="s">
         <v>62</v>
       </c>
-      <c r="T30" s="217"/>
-      <c r="U30" s="217"/>
+      <c r="T30" s="281"/>
+      <c r="U30" s="281"/>
       <c r="V30" s="80"/>
       <c r="W30" s="80"/>
       <c r="X30" s="80"/>
@@ -3834,22 +3831,22 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="259" t="s">
+      <c r="D31" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="259"/>
-      <c r="F31" s="259"/>
+      <c r="E31" s="274"/>
+      <c r="F31" s="274"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="24"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="235" t="s">
+      <c r="M31" s="279" t="s">
         <v>55</v>
       </c>
-      <c r="N31" s="235"/>
-      <c r="O31" s="235"/>
+      <c r="N31" s="279"/>
+      <c r="O31" s="279"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -3879,21 +3876,21 @@
       <c r="G32" s="78"/>
       <c r="H32" s="78"/>
       <c r="I32" s="79"/>
-      <c r="J32" s="256" t="s">
+      <c r="J32" s="280" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="217"/>
-      <c r="L32" s="217"/>
+      <c r="K32" s="281"/>
+      <c r="L32" s="281"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
       <c r="O32" s="78"/>
       <c r="P32" s="78"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="64"/>
-      <c r="S32" s="242" t="s">
+      <c r="S32" s="284" t="s">
         <v>66</v>
       </c>
-      <c r="T32" s="215"/>
+      <c r="T32" s="285"/>
       <c r="U32" s="80"/>
       <c r="V32" s="80"/>
       <c r="W32" s="80"/>
@@ -3908,33 +3905,33 @@
     </row>
     <row r="33" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="228" t="s">
+      <c r="B33" s="244" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228" t="s">
+      <c r="C33" s="244"/>
+      <c r="D33" s="244" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
       <c r="G33" s="124" t="s">
         <v>69</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="123"/>
-      <c r="J33" s="245"/>
-      <c r="K33" s="246"/>
-      <c r="L33" s="246"/>
-      <c r="M33" s="235" t="s">
+      <c r="J33" s="282"/>
+      <c r="K33" s="283"/>
+      <c r="L33" s="283"/>
+      <c r="M33" s="279" t="s">
         <v>68</v>
       </c>
-      <c r="N33" s="235"/>
-      <c r="O33" s="235" t="s">
+      <c r="N33" s="279"/>
+      <c r="O33" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="235"/>
-      <c r="R33" s="260"/>
+      <c r="P33" s="279"/>
+      <c r="Q33" s="279"/>
+      <c r="R33" s="286"/>
       <c r="S33" s="24"/>
       <c r="T33" s="2"/>
       <c r="U33" s="19"/>
@@ -3950,10 +3947,10 @@
       <c r="AE33" s="19"/>
     </row>
     <row r="34" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="224" t="s">
+      <c r="A34" s="289" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="263"/>
+      <c r="B34" s="290"/>
       <c r="C34" s="64"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
@@ -3961,17 +3958,17 @@
       <c r="G34" s="105"/>
       <c r="H34" s="105"/>
       <c r="I34" s="121"/>
-      <c r="J34" s="256" t="s">
+      <c r="J34" s="280" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="217"/>
+      <c r="K34" s="281"/>
       <c r="L34" s="64"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
       <c r="O34" s="78"/>
       <c r="P34" s="78"/>
       <c r="Q34" s="78"/>
-      <c r="R34" s="261"/>
+      <c r="R34" s="287"/>
       <c r="S34" s="24"/>
       <c r="T34" s="80"/>
       <c r="U34" s="80"/>
@@ -3987,34 +3984,34 @@
       <c r="AE34" s="80"/>
     </row>
     <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="253"/>
-      <c r="B35" s="263"/>
+      <c r="A35" s="291"/>
+      <c r="B35" s="290"/>
       <c r="C35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="235" t="s">
+      <c r="D35" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="235"/>
-      <c r="F35" s="235"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
       <c r="G35" s="106"/>
       <c r="H35" s="106"/>
       <c r="I35" s="122"/>
-      <c r="J35" s="252"/>
-      <c r="K35" s="254"/>
+      <c r="J35" s="275"/>
+      <c r="K35" s="276"/>
       <c r="L35" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="M35" s="235" t="s">
+      <c r="M35" s="279" t="s">
         <v>68</v>
       </c>
-      <c r="N35" s="235"/>
-      <c r="O35" s="235" t="s">
+      <c r="N35" s="279"/>
+      <c r="O35" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="P35" s="235"/>
-      <c r="Q35" s="235"/>
-      <c r="R35" s="262"/>
+      <c r="P35" s="279"/>
+      <c r="Q35" s="279"/>
+      <c r="R35" s="288"/>
       <c r="S35" s="25"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
@@ -4036,11 +4033,11 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="219" t="s">
+      <c r="G36" s="269" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="219"/>
-      <c r="I36" s="264"/>
+      <c r="H36" s="269"/>
+      <c r="I36" s="270"/>
       <c r="J36" s="25"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -4100,257 +4097,257 @@
       <c r="AE37" s="5"/>
     </row>
     <row r="38" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="265" t="s">
+      <c r="A38" s="271" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="266"/>
-      <c r="C38" s="266"/>
-      <c r="D38" s="266"/>
-      <c r="E38" s="266"/>
-      <c r="F38" s="266"/>
-      <c r="G38" s="266"/>
-      <c r="H38" s="266"/>
-      <c r="I38" s="266"/>
-      <c r="J38" s="266"/>
-      <c r="K38" s="266"/>
-      <c r="L38" s="266"/>
-      <c r="M38" s="266"/>
-      <c r="N38" s="266"/>
-      <c r="O38" s="266"/>
-      <c r="P38" s="266"/>
-      <c r="Q38" s="266"/>
-      <c r="R38" s="266"/>
-      <c r="S38" s="266"/>
-      <c r="T38" s="266"/>
-      <c r="U38" s="266"/>
-      <c r="V38" s="266"/>
-      <c r="W38" s="266"/>
-      <c r="X38" s="266"/>
-      <c r="Y38" s="266"/>
-      <c r="Z38" s="266"/>
-      <c r="AA38" s="266"/>
-      <c r="AB38" s="266"/>
-      <c r="AC38" s="266"/>
-      <c r="AD38" s="266"/>
-      <c r="AE38" s="266"/>
+      <c r="B38" s="272"/>
+      <c r="C38" s="272"/>
+      <c r="D38" s="272"/>
+      <c r="E38" s="272"/>
+      <c r="F38" s="272"/>
+      <c r="G38" s="272"/>
+      <c r="H38" s="272"/>
+      <c r="I38" s="272"/>
+      <c r="J38" s="272"/>
+      <c r="K38" s="272"/>
+      <c r="L38" s="272"/>
+      <c r="M38" s="272"/>
+      <c r="N38" s="272"/>
+      <c r="O38" s="272"/>
+      <c r="P38" s="272"/>
+      <c r="Q38" s="272"/>
+      <c r="R38" s="272"/>
+      <c r="S38" s="272"/>
+      <c r="T38" s="272"/>
+      <c r="U38" s="272"/>
+      <c r="V38" s="272"/>
+      <c r="W38" s="272"/>
+      <c r="X38" s="272"/>
+      <c r="Y38" s="272"/>
+      <c r="Z38" s="272"/>
+      <c r="AA38" s="272"/>
+      <c r="AB38" s="272"/>
+      <c r="AC38" s="272"/>
+      <c r="AD38" s="272"/>
+      <c r="AE38" s="272"/>
       <c r="AF38" s="17"/>
     </row>
     <row r="39" spans="1:32" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="267" t="s">
+      <c r="A39" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="259"/>
-      <c r="C39" s="267" t="s">
+      <c r="B39" s="274"/>
+      <c r="C39" s="273" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="259"/>
-      <c r="E39" s="259"/>
-      <c r="F39" s="259"/>
-      <c r="G39" s="267" t="s">
+      <c r="D39" s="274"/>
+      <c r="E39" s="274"/>
+      <c r="F39" s="274"/>
+      <c r="G39" s="273" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="259"/>
-      <c r="I39" s="259"/>
-      <c r="J39" s="259"/>
-      <c r="K39" s="259"/>
-      <c r="L39" s="267" t="s">
+      <c r="H39" s="274"/>
+      <c r="I39" s="274"/>
+      <c r="J39" s="274"/>
+      <c r="K39" s="274"/>
+      <c r="L39" s="273" t="s">
         <v>77</v>
       </c>
-      <c r="M39" s="259"/>
-      <c r="N39" s="259"/>
-      <c r="O39" s="259"/>
-      <c r="P39" s="259"/>
-      <c r="Q39" s="232" t="s">
+      <c r="M39" s="274"/>
+      <c r="N39" s="274"/>
+      <c r="O39" s="274"/>
+      <c r="P39" s="274"/>
+      <c r="Q39" s="223" t="s">
         <v>78</v>
       </c>
-      <c r="R39" s="233"/>
-      <c r="S39" s="233"/>
-      <c r="T39" s="233"/>
-      <c r="U39" s="233"/>
-      <c r="V39" s="268" t="s">
+      <c r="R39" s="250"/>
+      <c r="S39" s="250"/>
+      <c r="T39" s="250"/>
+      <c r="U39" s="250"/>
+      <c r="V39" s="252" t="s">
         <v>79</v>
       </c>
-      <c r="W39" s="269"/>
-      <c r="X39" s="270"/>
-      <c r="Y39" s="271"/>
-      <c r="Z39" s="232" t="s">
+      <c r="W39" s="253"/>
+      <c r="X39" s="277"/>
+      <c r="Y39" s="278"/>
+      <c r="Z39" s="223" t="s">
         <v>80</v>
       </c>
-      <c r="AA39" s="233"/>
-      <c r="AB39" s="233"/>
-      <c r="AC39" s="232" t="s">
+      <c r="AA39" s="250"/>
+      <c r="AB39" s="250"/>
+      <c r="AC39" s="223" t="s">
         <v>81</v>
       </c>
-      <c r="AD39" s="233"/>
-      <c r="AE39" s="234"/>
+      <c r="AD39" s="250"/>
+      <c r="AE39" s="251"/>
       <c r="AF39" s="17"/>
     </row>
     <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="252"/>
-      <c r="B40" s="254"/>
-      <c r="C40" s="252"/>
-      <c r="D40" s="254"/>
-      <c r="E40" s="254"/>
-      <c r="F40" s="254"/>
-      <c r="G40" s="252"/>
-      <c r="H40" s="254"/>
-      <c r="I40" s="254"/>
-      <c r="J40" s="254"/>
-      <c r="K40" s="254"/>
-      <c r="L40" s="252"/>
-      <c r="M40" s="254"/>
-      <c r="N40" s="254"/>
-      <c r="O40" s="254"/>
-      <c r="P40" s="254"/>
-      <c r="Q40" s="272" t="s">
+      <c r="A40" s="275"/>
+      <c r="B40" s="276"/>
+      <c r="C40" s="275"/>
+      <c r="D40" s="276"/>
+      <c r="E40" s="276"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="275"/>
+      <c r="H40" s="276"/>
+      <c r="I40" s="276"/>
+      <c r="J40" s="276"/>
+      <c r="K40" s="276"/>
+      <c r="L40" s="275"/>
+      <c r="M40" s="276"/>
+      <c r="N40" s="276"/>
+      <c r="O40" s="276"/>
+      <c r="P40" s="276"/>
+      <c r="Q40" s="264" t="s">
         <v>82</v>
       </c>
-      <c r="R40" s="273"/>
-      <c r="S40" s="273"/>
-      <c r="T40" s="273"/>
+      <c r="R40" s="265"/>
+      <c r="S40" s="265"/>
+      <c r="T40" s="265"/>
       <c r="U40" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="V40" s="232" t="s">
+      <c r="V40" s="223" t="s">
         <v>83</v>
       </c>
-      <c r="W40" s="233"/>
-      <c r="X40" s="232" t="s">
+      <c r="W40" s="250"/>
+      <c r="X40" s="223" t="s">
         <v>84</v>
       </c>
-      <c r="Y40" s="234"/>
-      <c r="Z40" s="250"/>
-      <c r="AA40" s="218"/>
-      <c r="AB40" s="218"/>
-      <c r="AC40" s="250"/>
-      <c r="AD40" s="218"/>
-      <c r="AE40" s="218"/>
+      <c r="Y40" s="251"/>
+      <c r="Z40" s="224"/>
+      <c r="AA40" s="235"/>
+      <c r="AB40" s="235"/>
+      <c r="AC40" s="224"/>
+      <c r="AD40" s="235"/>
+      <c r="AE40" s="235"/>
       <c r="AF40" s="17"/>
     </row>
     <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="232">
+      <c r="A41" s="223">
         <v>10</v>
       </c>
-      <c r="B41" s="233"/>
-      <c r="C41" s="232">
+      <c r="B41" s="250"/>
+      <c r="C41" s="223">
         <v>11</v>
       </c>
-      <c r="D41" s="233"/>
-      <c r="E41" s="233"/>
-      <c r="F41" s="233"/>
-      <c r="G41" s="232">
+      <c r="D41" s="250"/>
+      <c r="E41" s="250"/>
+      <c r="F41" s="250"/>
+      <c r="G41" s="223">
         <v>12</v>
       </c>
-      <c r="H41" s="233"/>
-      <c r="I41" s="233"/>
-      <c r="J41" s="233"/>
-      <c r="K41" s="233"/>
-      <c r="L41" s="232">
+      <c r="H41" s="250"/>
+      <c r="I41" s="250"/>
+      <c r="J41" s="250"/>
+      <c r="K41" s="250"/>
+      <c r="L41" s="223">
         <v>13</v>
       </c>
-      <c r="M41" s="233"/>
-      <c r="N41" s="233"/>
-      <c r="O41" s="233"/>
-      <c r="P41" s="233"/>
-      <c r="Q41" s="232">
+      <c r="M41" s="250"/>
+      <c r="N41" s="250"/>
+      <c r="O41" s="250"/>
+      <c r="P41" s="250"/>
+      <c r="Q41" s="223">
         <v>14</v>
       </c>
-      <c r="R41" s="233"/>
-      <c r="S41" s="233"/>
-      <c r="T41" s="233"/>
+      <c r="R41" s="250"/>
+      <c r="S41" s="250"/>
+      <c r="T41" s="250"/>
       <c r="U41" s="29">
         <v>15</v>
       </c>
-      <c r="V41" s="232">
+      <c r="V41" s="223">
         <v>16</v>
       </c>
-      <c r="W41" s="233"/>
-      <c r="X41" s="232">
+      <c r="W41" s="250"/>
+      <c r="X41" s="223">
         <v>17</v>
       </c>
-      <c r="Y41" s="233"/>
-      <c r="Z41" s="232">
+      <c r="Y41" s="250"/>
+      <c r="Z41" s="223">
         <v>18</v>
       </c>
-      <c r="AA41" s="233"/>
-      <c r="AB41" s="233"/>
-      <c r="AC41" s="232">
+      <c r="AA41" s="250"/>
+      <c r="AB41" s="250"/>
+      <c r="AC41" s="223">
         <v>19</v>
       </c>
-      <c r="AD41" s="233"/>
-      <c r="AE41" s="234"/>
+      <c r="AD41" s="250"/>
+      <c r="AE41" s="251"/>
       <c r="AF41" s="17"/>
     </row>
     <row r="42" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="272" t="s">
+      <c r="A42" s="264" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="273"/>
-      <c r="C42" s="274"/>
-      <c r="D42" s="275"/>
-      <c r="E42" s="275"/>
-      <c r="F42" s="275"/>
-      <c r="G42" s="274"/>
-      <c r="H42" s="275"/>
-      <c r="I42" s="275"/>
-      <c r="J42" s="275"/>
-      <c r="K42" s="275"/>
-      <c r="L42" s="274"/>
-      <c r="M42" s="275"/>
-      <c r="N42" s="275"/>
-      <c r="O42" s="275"/>
-      <c r="P42" s="275"/>
-      <c r="Q42" s="274"/>
-      <c r="R42" s="275"/>
-      <c r="S42" s="275"/>
-      <c r="T42" s="275"/>
+      <c r="B42" s="265"/>
+      <c r="C42" s="266"/>
+      <c r="D42" s="267"/>
+      <c r="E42" s="267"/>
+      <c r="F42" s="267"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="267"/>
+      <c r="I42" s="267"/>
+      <c r="J42" s="267"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="266"/>
+      <c r="M42" s="267"/>
+      <c r="N42" s="267"/>
+      <c r="O42" s="267"/>
+      <c r="P42" s="267"/>
+      <c r="Q42" s="266"/>
+      <c r="R42" s="267"/>
+      <c r="S42" s="267"/>
+      <c r="T42" s="267"/>
       <c r="U42" s="108"/>
-      <c r="V42" s="276"/>
-      <c r="W42" s="276"/>
-      <c r="X42" s="276"/>
-      <c r="Y42" s="276"/>
-      <c r="Z42" s="276"/>
-      <c r="AA42" s="276"/>
-      <c r="AB42" s="276"/>
-      <c r="AC42" s="275"/>
-      <c r="AD42" s="275"/>
-      <c r="AE42" s="277"/>
+      <c r="V42" s="243"/>
+      <c r="W42" s="243"/>
+      <c r="X42" s="243"/>
+      <c r="Y42" s="243"/>
+      <c r="Z42" s="243"/>
+      <c r="AA42" s="243"/>
+      <c r="AB42" s="243"/>
+      <c r="AC42" s="267"/>
+      <c r="AD42" s="267"/>
+      <c r="AE42" s="268"/>
       <c r="AF42" s="17"/>
     </row>
     <row r="43" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="272" t="s">
+      <c r="A43" s="264" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="273"/>
-      <c r="C43" s="274"/>
-      <c r="D43" s="275"/>
-      <c r="E43" s="275"/>
-      <c r="F43" s="275"/>
-      <c r="G43" s="274"/>
-      <c r="H43" s="275"/>
-      <c r="I43" s="275"/>
-      <c r="J43" s="275"/>
-      <c r="K43" s="275"/>
-      <c r="L43" s="274"/>
-      <c r="M43" s="275"/>
-      <c r="N43" s="275"/>
-      <c r="O43" s="275"/>
-      <c r="P43" s="275"/>
-      <c r="Q43" s="274"/>
-      <c r="R43" s="275"/>
-      <c r="S43" s="275"/>
-      <c r="T43" s="275"/>
+      <c r="B43" s="265"/>
+      <c r="C43" s="266"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="267"/>
+      <c r="F43" s="267"/>
+      <c r="G43" s="266"/>
+      <c r="H43" s="267"/>
+      <c r="I43" s="267"/>
+      <c r="J43" s="267"/>
+      <c r="K43" s="267"/>
+      <c r="L43" s="266"/>
+      <c r="M43" s="267"/>
+      <c r="N43" s="267"/>
+      <c r="O43" s="267"/>
+      <c r="P43" s="267"/>
+      <c r="Q43" s="266"/>
+      <c r="R43" s="267"/>
+      <c r="S43" s="267"/>
+      <c r="T43" s="267"/>
       <c r="U43" s="108"/>
-      <c r="V43" s="276"/>
-      <c r="W43" s="276"/>
-      <c r="X43" s="276"/>
-      <c r="Y43" s="276"/>
-      <c r="Z43" s="276"/>
-      <c r="AA43" s="276"/>
-      <c r="AB43" s="276"/>
-      <c r="AC43" s="275"/>
-      <c r="AD43" s="275"/>
-      <c r="AE43" s="277"/>
+      <c r="V43" s="243"/>
+      <c r="W43" s="243"/>
+      <c r="X43" s="243"/>
+      <c r="Y43" s="243"/>
+      <c r="Z43" s="243"/>
+      <c r="AA43" s="243"/>
+      <c r="AB43" s="243"/>
+      <c r="AC43" s="267"/>
+      <c r="AD43" s="267"/>
+      <c r="AE43" s="268"/>
       <c r="AF43" s="17"/>
     </row>
     <row r="44" spans="1:32" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -4387,78 +4384,78 @@
       <c r="AE44" s="20"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="232" t="s">
+      <c r="A45" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="233"/>
-      <c r="C45" s="233"/>
-      <c r="D45" s="233"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="233"/>
-      <c r="G45" s="233"/>
-      <c r="H45" s="233"/>
-      <c r="I45" s="233"/>
-      <c r="J45" s="233"/>
-      <c r="K45" s="233"/>
-      <c r="L45" s="233"/>
-      <c r="M45" s="233"/>
-      <c r="N45" s="233"/>
-      <c r="O45" s="233"/>
-      <c r="P45" s="233"/>
-      <c r="Q45" s="233"/>
-      <c r="R45" s="233"/>
-      <c r="S45" s="233"/>
-      <c r="T45" s="233"/>
-      <c r="U45" s="233"/>
-      <c r="V45" s="233"/>
-      <c r="W45" s="233"/>
-      <c r="X45" s="278" t="s">
+      <c r="B45" s="250"/>
+      <c r="C45" s="250"/>
+      <c r="D45" s="250"/>
+      <c r="E45" s="250"/>
+      <c r="F45" s="250"/>
+      <c r="G45" s="250"/>
+      <c r="H45" s="250"/>
+      <c r="I45" s="250"/>
+      <c r="J45" s="250"/>
+      <c r="K45" s="250"/>
+      <c r="L45" s="250"/>
+      <c r="M45" s="250"/>
+      <c r="N45" s="250"/>
+      <c r="O45" s="250"/>
+      <c r="P45" s="250"/>
+      <c r="Q45" s="250"/>
+      <c r="R45" s="250"/>
+      <c r="S45" s="250"/>
+      <c r="T45" s="250"/>
+      <c r="U45" s="250"/>
+      <c r="V45" s="250"/>
+      <c r="W45" s="250"/>
+      <c r="X45" s="257" t="s">
         <v>88</v>
       </c>
-      <c r="Y45" s="279"/>
-      <c r="Z45" s="255"/>
-      <c r="AA45" s="255"/>
-      <c r="AB45" s="255"/>
-      <c r="AC45" s="255"/>
-      <c r="AD45" s="255"/>
-      <c r="AE45" s="255"/>
+      <c r="Y45" s="258"/>
+      <c r="Z45" s="259"/>
+      <c r="AA45" s="259"/>
+      <c r="AB45" s="259"/>
+      <c r="AC45" s="259"/>
+      <c r="AD45" s="259"/>
+      <c r="AE45" s="259"/>
     </row>
     <row r="46" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="232" t="s">
+      <c r="A46" s="223" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="233"/>
-      <c r="C46" s="233"/>
-      <c r="D46" s="233"/>
-      <c r="E46" s="233"/>
-      <c r="F46" s="232" t="s">
+      <c r="B46" s="250"/>
+      <c r="C46" s="250"/>
+      <c r="D46" s="250"/>
+      <c r="E46" s="250"/>
+      <c r="F46" s="223" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="233"/>
-      <c r="H46" s="280" t="s">
+      <c r="G46" s="250"/>
+      <c r="H46" s="260" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="281"/>
-      <c r="J46" s="281"/>
-      <c r="K46" s="282"/>
-      <c r="L46" s="232" t="s">
+      <c r="I46" s="261"/>
+      <c r="J46" s="261"/>
+      <c r="K46" s="262"/>
+      <c r="L46" s="223" t="s">
         <v>92</v>
       </c>
-      <c r="M46" s="233"/>
-      <c r="N46" s="233"/>
-      <c r="O46" s="233"/>
-      <c r="P46" s="233"/>
-      <c r="Q46" s="232" t="s">
+      <c r="M46" s="250"/>
+      <c r="N46" s="250"/>
+      <c r="O46" s="250"/>
+      <c r="P46" s="250"/>
+      <c r="Q46" s="223" t="s">
         <v>93</v>
       </c>
-      <c r="R46" s="233"/>
-      <c r="S46" s="233"/>
-      <c r="T46" s="232" t="s">
+      <c r="R46" s="250"/>
+      <c r="S46" s="250"/>
+      <c r="T46" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="U46" s="233"/>
-      <c r="V46" s="233"/>
-      <c r="W46" s="234"/>
+      <c r="U46" s="250"/>
+      <c r="V46" s="250"/>
+      <c r="W46" s="251"/>
       <c r="X46" s="25"/>
       <c r="Y46" s="78"/>
       <c r="Z46" s="78"/>
@@ -4469,41 +4466,41 @@
       <c r="AE46" s="78"/>
     </row>
     <row r="47" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="250"/>
-      <c r="B47" s="218"/>
-      <c r="C47" s="218"/>
-      <c r="D47" s="218"/>
-      <c r="E47" s="218"/>
-      <c r="F47" s="250"/>
-      <c r="G47" s="218"/>
-      <c r="H47" s="232" t="s">
+      <c r="A47" s="224"/>
+      <c r="B47" s="235"/>
+      <c r="C47" s="235"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="224"/>
+      <c r="G47" s="235"/>
+      <c r="H47" s="223" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="233"/>
-      <c r="J47" s="232" t="s">
+      <c r="I47" s="250"/>
+      <c r="J47" s="223" t="s">
         <v>96</v>
       </c>
-      <c r="K47" s="233"/>
-      <c r="L47" s="232"/>
-      <c r="M47" s="233"/>
-      <c r="N47" s="233"/>
-      <c r="O47" s="233"/>
-      <c r="P47" s="233"/>
-      <c r="Q47" s="232" t="s">
+      <c r="K47" s="250"/>
+      <c r="L47" s="223"/>
+      <c r="M47" s="250"/>
+      <c r="N47" s="250"/>
+      <c r="O47" s="250"/>
+      <c r="P47" s="250"/>
+      <c r="Q47" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="R47" s="233"/>
-      <c r="S47" s="283" t="s">
+      <c r="R47" s="250"/>
+      <c r="S47" s="255" t="s">
         <v>98</v>
       </c>
-      <c r="T47" s="232" t="s">
+      <c r="T47" s="223" t="s">
         <v>99</v>
       </c>
-      <c r="U47" s="233"/>
-      <c r="V47" s="232" t="s">
+      <c r="U47" s="250"/>
+      <c r="V47" s="223" t="s">
         <v>100</v>
       </c>
-      <c r="W47" s="234"/>
+      <c r="W47" s="251"/>
       <c r="X47" s="25"/>
       <c r="Y47" s="86"/>
       <c r="Z47" s="86"/>
@@ -4529,24 +4526,24 @@
       <c r="E48" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="250"/>
-      <c r="G48" s="218"/>
-      <c r="H48" s="250"/>
-      <c r="I48" s="218"/>
-      <c r="J48" s="250"/>
-      <c r="K48" s="218"/>
-      <c r="L48" s="250"/>
-      <c r="M48" s="218"/>
-      <c r="N48" s="218"/>
-      <c r="O48" s="218"/>
-      <c r="P48" s="218"/>
-      <c r="Q48" s="250"/>
-      <c r="R48" s="218"/>
-      <c r="S48" s="284"/>
-      <c r="T48" s="250"/>
-      <c r="U48" s="218"/>
-      <c r="V48" s="250"/>
-      <c r="W48" s="218"/>
+      <c r="F48" s="224"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="224"/>
+      <c r="I48" s="235"/>
+      <c r="J48" s="224"/>
+      <c r="K48" s="235"/>
+      <c r="L48" s="224"/>
+      <c r="M48" s="235"/>
+      <c r="N48" s="235"/>
+      <c r="O48" s="235"/>
+      <c r="P48" s="235"/>
+      <c r="Q48" s="224"/>
+      <c r="R48" s="235"/>
+      <c r="S48" s="263"/>
+      <c r="T48" s="224"/>
+      <c r="U48" s="235"/>
+      <c r="V48" s="224"/>
+      <c r="W48" s="235"/>
       <c r="X48" s="25"/>
       <c r="Y48" s="86"/>
       <c r="Z48" s="86"/>
@@ -4572,40 +4569,40 @@
       <c r="E49" s="29">
         <v>24</v>
       </c>
-      <c r="F49" s="232">
+      <c r="F49" s="223">
         <v>25</v>
       </c>
-      <c r="G49" s="233"/>
-      <c r="H49" s="232">
+      <c r="G49" s="250"/>
+      <c r="H49" s="223">
         <v>26</v>
       </c>
-      <c r="I49" s="233"/>
-      <c r="J49" s="232">
+      <c r="I49" s="250"/>
+      <c r="J49" s="223">
         <v>27</v>
       </c>
-      <c r="K49" s="233"/>
-      <c r="L49" s="232">
+      <c r="K49" s="250"/>
+      <c r="L49" s="223">
         <v>28</v>
       </c>
-      <c r="M49" s="233"/>
-      <c r="N49" s="233"/>
-      <c r="O49" s="233"/>
-      <c r="P49" s="233"/>
-      <c r="Q49" s="232">
+      <c r="M49" s="250"/>
+      <c r="N49" s="250"/>
+      <c r="O49" s="250"/>
+      <c r="P49" s="250"/>
+      <c r="Q49" s="223">
         <v>29</v>
       </c>
-      <c r="R49" s="233"/>
+      <c r="R49" s="250"/>
       <c r="S49" s="29">
         <v>30</v>
       </c>
-      <c r="T49" s="232">
+      <c r="T49" s="223">
         <v>31</v>
       </c>
-      <c r="U49" s="233"/>
-      <c r="V49" s="232">
+      <c r="U49" s="250"/>
+      <c r="V49" s="223">
         <v>32</v>
       </c>
-      <c r="W49" s="234"/>
+      <c r="W49" s="251"/>
       <c r="X49" s="25"/>
       <c r="Y49" s="23"/>
       <c r="Z49" s="23"/>
@@ -4621,24 +4618,24 @@
       <c r="C50" s="108"/>
       <c r="D50" s="108"/>
       <c r="E50" s="108"/>
-      <c r="F50" s="276"/>
-      <c r="G50" s="276"/>
-      <c r="H50" s="276"/>
-      <c r="I50" s="276"/>
-      <c r="J50" s="276"/>
-      <c r="K50" s="276"/>
-      <c r="L50" s="276"/>
-      <c r="M50" s="276"/>
-      <c r="N50" s="276"/>
-      <c r="O50" s="276"/>
-      <c r="P50" s="276"/>
-      <c r="Q50" s="276"/>
-      <c r="R50" s="276"/>
+      <c r="F50" s="243"/>
+      <c r="G50" s="243"/>
+      <c r="H50" s="243"/>
+      <c r="I50" s="243"/>
+      <c r="J50" s="243"/>
+      <c r="K50" s="243"/>
+      <c r="L50" s="243"/>
+      <c r="M50" s="243"/>
+      <c r="N50" s="243"/>
+      <c r="O50" s="243"/>
+      <c r="P50" s="243"/>
+      <c r="Q50" s="243"/>
+      <c r="R50" s="243"/>
       <c r="S50" s="108"/>
-      <c r="T50" s="276"/>
-      <c r="U50" s="276"/>
-      <c r="V50" s="276"/>
-      <c r="W50" s="276"/>
+      <c r="T50" s="243"/>
+      <c r="U50" s="243"/>
+      <c r="V50" s="243"/>
+      <c r="W50" s="243"/>
       <c r="X50" s="107"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="2"/>
@@ -4682,47 +4679,47 @@
       <c r="AE51" s="1"/>
     </row>
     <row r="52" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="232" t="s">
+      <c r="A52" s="223" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="233"/>
-      <c r="C52" s="233"/>
-      <c r="D52" s="233"/>
-      <c r="E52" s="232" t="s">
+      <c r="B52" s="250"/>
+      <c r="C52" s="250"/>
+      <c r="D52" s="250"/>
+      <c r="E52" s="223" t="s">
         <v>107</v>
       </c>
-      <c r="F52" s="233"/>
-      <c r="G52" s="232" t="s">
+      <c r="F52" s="250"/>
+      <c r="G52" s="223" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="233"/>
-      <c r="I52" s="232" t="s">
+      <c r="H52" s="250"/>
+      <c r="I52" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="J52" s="233"/>
-      <c r="K52" s="233"/>
-      <c r="L52" s="232" t="s">
+      <c r="J52" s="250"/>
+      <c r="K52" s="250"/>
+      <c r="L52" s="223" t="s">
         <v>110</v>
       </c>
-      <c r="M52" s="233"/>
-      <c r="N52" s="232" t="s">
+      <c r="M52" s="250"/>
+      <c r="N52" s="223" t="s">
         <v>111</v>
       </c>
-      <c r="O52" s="233"/>
-      <c r="P52" s="268" t="s">
+      <c r="O52" s="250"/>
+      <c r="P52" s="252" t="s">
         <v>152</v>
       </c>
-      <c r="Q52" s="269"/>
-      <c r="R52" s="269"/>
-      <c r="S52" s="285"/>
-      <c r="T52" s="283" t="s">
+      <c r="Q52" s="253"/>
+      <c r="R52" s="253"/>
+      <c r="S52" s="254"/>
+      <c r="T52" s="255" t="s">
         <v>153</v>
       </c>
-      <c r="U52" s="232" t="s">
+      <c r="U52" s="223" t="s">
         <v>112</v>
       </c>
-      <c r="V52" s="233"/>
-      <c r="W52" s="232" t="s">
+      <c r="V52" s="250"/>
+      <c r="W52" s="223" t="s">
         <v>113</v>
       </c>
       <c r="X52" s="24"/>
@@ -4735,33 +4732,33 @@
       <c r="AE52" s="5"/>
     </row>
     <row r="53" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="250"/>
-      <c r="B53" s="218"/>
-      <c r="C53" s="218"/>
-      <c r="D53" s="218"/>
-      <c r="E53" s="250"/>
-      <c r="F53" s="218"/>
-      <c r="G53" s="250"/>
-      <c r="H53" s="218"/>
-      <c r="I53" s="250"/>
-      <c r="J53" s="218"/>
-      <c r="K53" s="218"/>
-      <c r="L53" s="250"/>
-      <c r="M53" s="218"/>
-      <c r="N53" s="250"/>
-      <c r="O53" s="218"/>
-      <c r="P53" s="232" t="s">
+      <c r="A53" s="224"/>
+      <c r="B53" s="235"/>
+      <c r="C53" s="235"/>
+      <c r="D53" s="235"/>
+      <c r="E53" s="224"/>
+      <c r="F53" s="235"/>
+      <c r="G53" s="224"/>
+      <c r="H53" s="235"/>
+      <c r="I53" s="224"/>
+      <c r="J53" s="235"/>
+      <c r="K53" s="235"/>
+      <c r="L53" s="224"/>
+      <c r="M53" s="235"/>
+      <c r="N53" s="224"/>
+      <c r="O53" s="235"/>
+      <c r="P53" s="223" t="s">
         <v>114</v>
       </c>
-      <c r="Q53" s="233"/>
-      <c r="R53" s="232" t="s">
+      <c r="Q53" s="250"/>
+      <c r="R53" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="S53" s="234"/>
-      <c r="T53" s="286"/>
-      <c r="U53" s="250"/>
-      <c r="V53" s="218"/>
-      <c r="W53" s="250"/>
+      <c r="S53" s="251"/>
+      <c r="T53" s="256"/>
+      <c r="U53" s="224"/>
+      <c r="V53" s="235"/>
+      <c r="W53" s="224"/>
       <c r="X53" s="24"/>
       <c r="Y53" s="78"/>
       <c r="Z53" s="78"/>
@@ -4772,46 +4769,46 @@
       <c r="AE53" s="78"/>
     </row>
     <row r="54" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="250"/>
-      <c r="B54" s="218"/>
-      <c r="C54" s="218"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="232">
+      <c r="A54" s="224"/>
+      <c r="B54" s="235"/>
+      <c r="C54" s="235"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="223">
         <v>33</v>
       </c>
-      <c r="F54" s="233"/>
-      <c r="G54" s="232">
+      <c r="F54" s="250"/>
+      <c r="G54" s="223">
         <v>34</v>
       </c>
-      <c r="H54" s="233"/>
-      <c r="I54" s="232">
+      <c r="H54" s="250"/>
+      <c r="I54" s="223">
         <v>35</v>
       </c>
-      <c r="J54" s="233"/>
-      <c r="K54" s="233"/>
-      <c r="L54" s="232">
+      <c r="J54" s="250"/>
+      <c r="K54" s="250"/>
+      <c r="L54" s="223">
         <v>36</v>
       </c>
-      <c r="M54" s="233"/>
-      <c r="N54" s="232">
+      <c r="M54" s="250"/>
+      <c r="N54" s="223">
         <v>37</v>
       </c>
-      <c r="O54" s="233"/>
-      <c r="P54" s="232">
+      <c r="O54" s="250"/>
+      <c r="P54" s="223">
         <v>38</v>
       </c>
-      <c r="Q54" s="233"/>
-      <c r="R54" s="232">
+      <c r="Q54" s="250"/>
+      <c r="R54" s="223">
         <v>39</v>
       </c>
-      <c r="S54" s="233"/>
+      <c r="S54" s="250"/>
       <c r="T54" s="30">
         <v>40</v>
       </c>
-      <c r="U54" s="232">
+      <c r="U54" s="223">
         <v>41</v>
       </c>
-      <c r="V54" s="233"/>
+      <c r="V54" s="250"/>
       <c r="W54" s="29">
         <v>42</v>
       </c>
@@ -4825,30 +4822,30 @@
       <c r="AE54" s="86"/>
     </row>
     <row r="55" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="289" t="s">
+      <c r="A55" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="290"/>
-      <c r="C55" s="290"/>
-      <c r="D55" s="291"/>
-      <c r="E55" s="276"/>
-      <c r="F55" s="276"/>
-      <c r="G55" s="276"/>
-      <c r="H55" s="276"/>
-      <c r="I55" s="276"/>
-      <c r="J55" s="276"/>
-      <c r="K55" s="276"/>
-      <c r="L55" s="276"/>
-      <c r="M55" s="276"/>
-      <c r="N55" s="276"/>
-      <c r="O55" s="276"/>
-      <c r="P55" s="276"/>
-      <c r="Q55" s="276"/>
-      <c r="R55" s="276"/>
-      <c r="S55" s="276"/>
+      <c r="B55" s="247"/>
+      <c r="C55" s="247"/>
+      <c r="D55" s="248"/>
+      <c r="E55" s="243"/>
+      <c r="F55" s="243"/>
+      <c r="G55" s="243"/>
+      <c r="H55" s="243"/>
+      <c r="I55" s="243"/>
+      <c r="J55" s="243"/>
+      <c r="K55" s="243"/>
+      <c r="L55" s="243"/>
+      <c r="M55" s="243"/>
+      <c r="N55" s="243"/>
+      <c r="O55" s="243"/>
+      <c r="P55" s="243"/>
+      <c r="Q55" s="243"/>
+      <c r="R55" s="243"/>
+      <c r="S55" s="243"/>
       <c r="T55" s="108"/>
-      <c r="U55" s="276"/>
-      <c r="V55" s="276"/>
+      <c r="U55" s="243"/>
+      <c r="V55" s="243"/>
       <c r="W55" s="108"/>
       <c r="X55" s="107"/>
       <c r="Y55" s="87"/>
@@ -4860,35 +4857,35 @@
       <c r="AE55" s="87"/>
     </row>
     <row r="56" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="289" t="s">
+      <c r="A56" s="246" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="290"/>
-      <c r="C56" s="290"/>
-      <c r="D56" s="291"/>
-      <c r="E56" s="276"/>
-      <c r="F56" s="276"/>
-      <c r="G56" s="276"/>
-      <c r="H56" s="276"/>
-      <c r="I56" s="276"/>
-      <c r="J56" s="276"/>
-      <c r="K56" s="276"/>
-      <c r="L56" s="276"/>
-      <c r="M56" s="276"/>
-      <c r="N56" s="276"/>
-      <c r="O56" s="276"/>
-      <c r="P56" s="276"/>
-      <c r="Q56" s="276"/>
-      <c r="R56" s="276"/>
-      <c r="S56" s="276"/>
+      <c r="B56" s="247"/>
+      <c r="C56" s="247"/>
+      <c r="D56" s="248"/>
+      <c r="E56" s="243"/>
+      <c r="F56" s="243"/>
+      <c r="G56" s="243"/>
+      <c r="H56" s="243"/>
+      <c r="I56" s="243"/>
+      <c r="J56" s="243"/>
+      <c r="K56" s="243"/>
+      <c r="L56" s="243"/>
+      <c r="M56" s="243"/>
+      <c r="N56" s="243"/>
+      <c r="O56" s="243"/>
+      <c r="P56" s="243"/>
+      <c r="Q56" s="243"/>
+      <c r="R56" s="243"/>
+      <c r="S56" s="243"/>
       <c r="T56" s="108"/>
-      <c r="U56" s="276"/>
-      <c r="V56" s="276"/>
+      <c r="U56" s="243"/>
+      <c r="V56" s="243"/>
       <c r="W56" s="108"/>
-      <c r="X56" s="287" t="s">
+      <c r="X56" s="249" t="s">
         <v>118</v>
       </c>
-      <c r="Y56" s="288"/>
+      <c r="Y56" s="238"/>
       <c r="Z56" s="88"/>
       <c r="AA56" s="88"/>
       <c r="AB56" s="88"/>
@@ -4897,43 +4894,43 @@
       <c r="AE56" s="88"/>
     </row>
     <row r="57" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="289" t="s">
+      <c r="A57" s="246" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="290"/>
-      <c r="C57" s="290"/>
-      <c r="D57" s="291"/>
-      <c r="E57" s="276"/>
-      <c r="F57" s="276"/>
-      <c r="G57" s="276"/>
-      <c r="H57" s="276"/>
-      <c r="I57" s="276"/>
-      <c r="J57" s="276"/>
-      <c r="K57" s="276"/>
-      <c r="L57" s="276"/>
-      <c r="M57" s="276"/>
-      <c r="N57" s="276"/>
-      <c r="O57" s="276"/>
-      <c r="P57" s="276"/>
-      <c r="Q57" s="276"/>
-      <c r="R57" s="276"/>
-      <c r="S57" s="276"/>
+      <c r="B57" s="247"/>
+      <c r="C57" s="247"/>
+      <c r="D57" s="248"/>
+      <c r="E57" s="243"/>
+      <c r="F57" s="243"/>
+      <c r="G57" s="243"/>
+      <c r="H57" s="243"/>
+      <c r="I57" s="243"/>
+      <c r="J57" s="243"/>
+      <c r="K57" s="243"/>
+      <c r="L57" s="243"/>
+      <c r="M57" s="243"/>
+      <c r="N57" s="243"/>
+      <c r="O57" s="243"/>
+      <c r="P57" s="243"/>
+      <c r="Q57" s="243"/>
+      <c r="R57" s="243"/>
+      <c r="S57" s="243"/>
       <c r="T57" s="108"/>
-      <c r="U57" s="276"/>
-      <c r="V57" s="276"/>
+      <c r="U57" s="243"/>
+      <c r="V57" s="243"/>
       <c r="W57" s="108"/>
       <c r="X57" s="110"/>
       <c r="Y57" s="111"/>
-      <c r="Z57" s="228" t="s">
+      <c r="Z57" s="244" t="s">
         <v>68</v>
       </c>
-      <c r="AA57" s="228"/>
-      <c r="AB57" s="228" t="s">
+      <c r="AA57" s="244"/>
+      <c r="AB57" s="244" t="s">
         <v>120</v>
       </c>
-      <c r="AC57" s="228"/>
-      <c r="AD57" s="228"/>
-      <c r="AE57" s="228"/>
+      <c r="AC57" s="244"/>
+      <c r="AD57" s="244"/>
+      <c r="AE57" s="244"/>
     </row>
     <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
@@ -4953,14 +4950,14 @@
       <c r="O58" s="44"/>
       <c r="P58" s="44"/>
       <c r="Q58" s="44"/>
-      <c r="R58" s="295"/>
-      <c r="S58" s="295"/>
-      <c r="T58" s="295"/>
-      <c r="U58" s="295"/>
-      <c r="V58" s="295"/>
-      <c r="W58" s="295"/>
-      <c r="X58" s="295"/>
-      <c r="Y58" s="295"/>
+      <c r="R58" s="245"/>
+      <c r="S58" s="245"/>
+      <c r="T58" s="245"/>
+      <c r="U58" s="245"/>
+      <c r="V58" s="245"/>
+      <c r="W58" s="245"/>
+      <c r="X58" s="245"/>
+      <c r="Y58" s="245"/>
       <c r="Z58" s="13"/>
       <c r="AA58" s="13"/>
       <c r="AB58" s="1"/>
@@ -4989,15 +4986,15 @@
       <c r="R59" s="12"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-      <c r="U59" s="292" t="s">
+      <c r="U59" s="241" t="s">
         <v>121</v>
       </c>
-      <c r="V59" s="293"/>
-      <c r="W59" s="293"/>
-      <c r="X59" s="293"/>
-      <c r="Y59" s="293"/>
-      <c r="Z59" s="293"/>
-      <c r="AA59" s="293"/>
+      <c r="V59" s="242"/>
+      <c r="W59" s="242"/>
+      <c r="X59" s="242"/>
+      <c r="Y59" s="242"/>
+      <c r="Z59" s="242"/>
+      <c r="AA59" s="242"/>
       <c r="AB59" s="14"/>
       <c r="AC59" s="14"/>
       <c r="AD59" s="14"/>
@@ -5024,18 +5021,18 @@
       <c r="R60" s="12"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="U60" s="292" t="s">
+      <c r="U60" s="241" t="s">
         <v>122</v>
       </c>
-      <c r="V60" s="293"/>
-      <c r="W60" s="293"/>
-      <c r="X60" s="293"/>
-      <c r="Y60" s="293"/>
-      <c r="Z60" s="293"/>
-      <c r="AA60" s="293"/>
-      <c r="AB60" s="293"/>
-      <c r="AC60" s="293"/>
-      <c r="AD60" s="293"/>
+      <c r="V60" s="242"/>
+      <c r="W60" s="242"/>
+      <c r="X60" s="242"/>
+      <c r="Y60" s="242"/>
+      <c r="Z60" s="242"/>
+      <c r="AA60" s="242"/>
+      <c r="AB60" s="242"/>
+      <c r="AC60" s="242"/>
+      <c r="AD60" s="242"/>
       <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5059,18 +5056,18 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="292" t="s">
+      <c r="U61" s="241" t="s">
         <v>123</v>
       </c>
-      <c r="V61" s="293"/>
-      <c r="W61" s="293"/>
-      <c r="X61" s="293"/>
-      <c r="Y61" s="293"/>
-      <c r="Z61" s="293"/>
-      <c r="AA61" s="293"/>
-      <c r="AB61" s="293"/>
-      <c r="AC61" s="293"/>
-      <c r="AD61" s="293"/>
+      <c r="V61" s="242"/>
+      <c r="W61" s="242"/>
+      <c r="X61" s="242"/>
+      <c r="Y61" s="242"/>
+      <c r="Z61" s="242"/>
+      <c r="AA61" s="242"/>
+      <c r="AB61" s="242"/>
+      <c r="AC61" s="242"/>
+      <c r="AD61" s="242"/>
       <c r="AE61" s="1"/>
     </row>
     <row r="62" spans="1:32" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5166,11 +5163,11 @@
       <c r="U64" s="14"/>
       <c r="V64" s="14"/>
       <c r="W64" s="14"/>
-      <c r="X64" s="294" t="s">
+      <c r="X64" s="226" t="s">
         <v>124</v>
       </c>
-      <c r="Y64" s="294"/>
-      <c r="Z64" s="294"/>
+      <c r="Y64" s="226"/>
+      <c r="Z64" s="226"/>
       <c r="AA64" s="14"/>
       <c r="AB64" s="125"/>
       <c r="AC64" s="145" t="s">
@@ -5182,36 +5179,36 @@
     </row>
     <row r="65" spans="1:32" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="349" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="349"/>
-      <c r="D65" s="349"/>
-      <c r="E65" s="349"/>
-      <c r="F65" s="349"/>
-      <c r="G65" s="349"/>
-      <c r="H65" s="349"/>
-      <c r="I65" s="349"/>
-      <c r="J65" s="349"/>
-      <c r="K65" s="349"/>
-      <c r="L65" s="349"/>
-      <c r="M65" s="349"/>
-      <c r="N65" s="349"/>
-      <c r="O65" s="349"/>
-      <c r="P65" s="349"/>
-      <c r="Q65" s="349"/>
-      <c r="R65" s="349"/>
-      <c r="S65" s="349"/>
-      <c r="T65" s="349"/>
-      <c r="U65" s="349"/>
-      <c r="V65" s="349"/>
-      <c r="W65" s="349"/>
-      <c r="X65" s="349"/>
-      <c r="Y65" s="349"/>
-      <c r="Z65" s="349"/>
+      <c r="B65" s="234" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="234"/>
+      <c r="D65" s="234"/>
+      <c r="E65" s="234"/>
+      <c r="F65" s="234"/>
+      <c r="G65" s="234"/>
+      <c r="H65" s="234"/>
+      <c r="I65" s="234"/>
+      <c r="J65" s="234"/>
+      <c r="K65" s="234"/>
+      <c r="L65" s="234"/>
+      <c r="M65" s="234"/>
+      <c r="N65" s="234"/>
+      <c r="O65" s="234"/>
+      <c r="P65" s="234"/>
+      <c r="Q65" s="234"/>
+      <c r="R65" s="234"/>
+      <c r="S65" s="234"/>
+      <c r="T65" s="234"/>
+      <c r="U65" s="234"/>
+      <c r="V65" s="234"/>
+      <c r="W65" s="234"/>
+      <c r="X65" s="234"/>
+      <c r="Y65" s="234"/>
+      <c r="Z65" s="234"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="128"/>
-      <c r="AC65" s="351"/>
+      <c r="AC65" s="214"/>
       <c r="AD65" s="88"/>
       <c r="AE65" s="129"/>
       <c r="AF65" s="18"/>
@@ -5235,18 +5232,18 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="218"/>
-      <c r="T66" s="218"/>
+      <c r="S66" s="235"/>
+      <c r="T66" s="235"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="350" t="s">
+      <c r="V66" s="213" t="s">
         <v>125</v>
       </c>
-      <c r="W66" s="302" t="s">
+      <c r="W66" s="236" t="s">
         <v>126</v>
       </c>
-      <c r="X66" s="303"/>
-      <c r="Y66" s="303"/>
-      <c r="Z66" s="303"/>
+      <c r="X66" s="237"/>
+      <c r="Y66" s="237"/>
+      <c r="Z66" s="237"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="130"/>
       <c r="AC66" s="150"/>
@@ -5277,10 +5274,10 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="303"/>
-      <c r="X67" s="303"/>
-      <c r="Y67" s="303"/>
-      <c r="Z67" s="303"/>
+      <c r="W67" s="237"/>
+      <c r="X67" s="237"/>
+      <c r="Y67" s="237"/>
+      <c r="Z67" s="237"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="133"/>
       <c r="AC67" s="134"/>
@@ -5289,38 +5286,38 @@
       <c r="AF67" s="18"/>
     </row>
     <row r="68" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="297" t="s">
+      <c r="A68" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="297"/>
-      <c r="C68" s="297"/>
-      <c r="D68" s="297"/>
-      <c r="E68" s="296" t="s">
+      <c r="B68" s="225"/>
+      <c r="C68" s="225"/>
+      <c r="D68" s="225"/>
+      <c r="E68" s="229" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="288"/>
-      <c r="G68" s="288"/>
-      <c r="H68" s="288"/>
-      <c r="I68" s="288"/>
-      <c r="J68" s="288"/>
-      <c r="K68" s="288"/>
-      <c r="L68" s="288"/>
-      <c r="M68" s="288"/>
-      <c r="N68" s="288"/>
-      <c r="O68" s="288"/>
-      <c r="P68" s="288"/>
-      <c r="Q68" s="288"/>
-      <c r="R68" s="288"/>
-      <c r="S68" s="304"/>
-      <c r="T68" s="304"/>
-      <c r="U68" s="304"/>
-      <c r="V68" s="304"/>
-      <c r="W68" s="288"/>
-      <c r="X68" s="305"/>
-      <c r="Y68" s="294" t="s">
+      <c r="F68" s="238"/>
+      <c r="G68" s="238"/>
+      <c r="H68" s="238"/>
+      <c r="I68" s="238"/>
+      <c r="J68" s="238"/>
+      <c r="K68" s="238"/>
+      <c r="L68" s="238"/>
+      <c r="M68" s="238"/>
+      <c r="N68" s="238"/>
+      <c r="O68" s="238"/>
+      <c r="P68" s="238"/>
+      <c r="Q68" s="238"/>
+      <c r="R68" s="238"/>
+      <c r="S68" s="239"/>
+      <c r="T68" s="239"/>
+      <c r="U68" s="239"/>
+      <c r="V68" s="239"/>
+      <c r="W68" s="238"/>
+      <c r="X68" s="240"/>
+      <c r="Y68" s="226" t="s">
         <v>128</v>
       </c>
-      <c r="Z68" s="294"/>
+      <c r="Z68" s="226"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="130"/>
       <c r="AC68" s="131"/>
@@ -5329,10 +5326,10 @@
       <c r="AF68" s="18"/>
     </row>
     <row r="69" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="296"/>
-      <c r="B69" s="296"/>
-      <c r="C69" s="296"/>
-      <c r="D69" s="296"/>
+      <c r="A69" s="229"/>
+      <c r="B69" s="229"/>
+      <c r="C69" s="229"/>
+      <c r="D69" s="229"/>
       <c r="E69" s="31"/>
       <c r="F69" s="119"/>
       <c r="G69" s="119"/>
@@ -5365,36 +5362,36 @@
       <c r="AF69" s="18"/>
     </row>
     <row r="70" spans="1:32" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="297" t="s">
+      <c r="A70" s="225" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="297"/>
-      <c r="C70" s="297"/>
-      <c r="D70" s="297"/>
-      <c r="E70" s="298"/>
-      <c r="F70" s="299"/>
-      <c r="G70" s="299"/>
-      <c r="H70" s="299"/>
-      <c r="I70" s="299"/>
-      <c r="J70" s="299"/>
-      <c r="K70" s="300"/>
-      <c r="L70" s="300"/>
-      <c r="M70" s="300"/>
-      <c r="N70" s="300"/>
-      <c r="O70" s="300"/>
-      <c r="P70" s="300"/>
-      <c r="Q70" s="300"/>
-      <c r="R70" s="300"/>
-      <c r="S70" s="300"/>
-      <c r="T70" s="300"/>
-      <c r="U70" s="299"/>
-      <c r="V70" s="299"/>
-      <c r="W70" s="301"/>
-      <c r="X70" s="301"/>
-      <c r="Y70" s="294" t="s">
+      <c r="B70" s="225"/>
+      <c r="C70" s="225"/>
+      <c r="D70" s="225"/>
+      <c r="E70" s="230"/>
+      <c r="F70" s="231"/>
+      <c r="G70" s="231"/>
+      <c r="H70" s="231"/>
+      <c r="I70" s="231"/>
+      <c r="J70" s="231"/>
+      <c r="K70" s="232"/>
+      <c r="L70" s="232"/>
+      <c r="M70" s="232"/>
+      <c r="N70" s="232"/>
+      <c r="O70" s="232"/>
+      <c r="P70" s="232"/>
+      <c r="Q70" s="232"/>
+      <c r="R70" s="232"/>
+      <c r="S70" s="232"/>
+      <c r="T70" s="232"/>
+      <c r="U70" s="231"/>
+      <c r="V70" s="231"/>
+      <c r="W70" s="233"/>
+      <c r="X70" s="233"/>
+      <c r="Y70" s="226" t="s">
         <v>128</v>
       </c>
-      <c r="Z70" s="294"/>
+      <c r="Z70" s="226"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="130"/>
       <c r="AC70" s="131"/>
@@ -5429,8 +5426,8 @@
       <c r="V71" s="119"/>
       <c r="W71" s="32"/>
       <c r="X71" s="32"/>
-      <c r="Y71" s="294"/>
-      <c r="Z71" s="294"/>
+      <c r="Y71" s="226"/>
+      <c r="Z71" s="226"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="133"/>
       <c r="AC71" s="134"/>
@@ -5439,36 +5436,36 @@
       <c r="AF71" s="18"/>
     </row>
     <row r="72" spans="1:32" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="297" t="s">
+      <c r="A72" s="225" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="297"/>
-      <c r="C72" s="297"/>
+      <c r="B72" s="225"/>
+      <c r="C72" s="225"/>
       <c r="D72" s="149"/>
-      <c r="E72" s="310"/>
-      <c r="F72" s="310"/>
-      <c r="G72" s="310"/>
-      <c r="H72" s="310"/>
-      <c r="I72" s="310"/>
-      <c r="J72" s="310"/>
-      <c r="K72" s="310"/>
-      <c r="L72" s="310"/>
-      <c r="M72" s="310"/>
-      <c r="N72" s="310"/>
-      <c r="O72" s="310"/>
-      <c r="P72" s="310"/>
-      <c r="Q72" s="310"/>
-      <c r="R72" s="310"/>
-      <c r="S72" s="310"/>
-      <c r="T72" s="310"/>
-      <c r="U72" s="310"/>
-      <c r="V72" s="310"/>
-      <c r="W72" s="310"/>
-      <c r="X72" s="310"/>
-      <c r="Y72" s="294" t="s">
+      <c r="E72" s="227"/>
+      <c r="F72" s="227"/>
+      <c r="G72" s="227"/>
+      <c r="H72" s="227"/>
+      <c r="I72" s="227"/>
+      <c r="J72" s="227"/>
+      <c r="K72" s="227"/>
+      <c r="L72" s="227"/>
+      <c r="M72" s="227"/>
+      <c r="N72" s="227"/>
+      <c r="O72" s="227"/>
+      <c r="P72" s="227"/>
+      <c r="Q72" s="227"/>
+      <c r="R72" s="227"/>
+      <c r="S72" s="227"/>
+      <c r="T72" s="227"/>
+      <c r="U72" s="227"/>
+      <c r="V72" s="227"/>
+      <c r="W72" s="227"/>
+      <c r="X72" s="227"/>
+      <c r="Y72" s="226" t="s">
         <v>128</v>
       </c>
-      <c r="Z72" s="294"/>
+      <c r="Z72" s="226"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="138"/>
       <c r="AC72" s="139"/>
@@ -5512,410 +5509,231 @@
       <c r="AE73" s="22"/>
     </row>
     <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="214" t="s">
+      <c r="A74" s="228" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="214"/>
-      <c r="C74" s="214"/>
-      <c r="D74" s="214"/>
-      <c r="E74" s="214"/>
-      <c r="F74" s="214"/>
-      <c r="G74" s="214"/>
-      <c r="H74" s="214"/>
-      <c r="I74" s="214"/>
-      <c r="J74" s="214"/>
-      <c r="K74" s="214"/>
-      <c r="L74" s="214"/>
-      <c r="M74" s="214"/>
-      <c r="N74" s="214"/>
-      <c r="O74" s="214"/>
-      <c r="P74" s="214"/>
-      <c r="Q74" s="214"/>
-      <c r="R74" s="214"/>
-      <c r="S74" s="214"/>
-      <c r="T74" s="214"/>
-      <c r="U74" s="214"/>
-      <c r="V74" s="214"/>
-      <c r="W74" s="214"/>
-      <c r="X74" s="214"/>
-      <c r="Y74" s="214"/>
-      <c r="Z74" s="214"/>
-      <c r="AA74" s="214"/>
-      <c r="AB74" s="214"/>
-      <c r="AC74" s="214"/>
-      <c r="AD74" s="214"/>
-      <c r="AE74" s="214"/>
+      <c r="B74" s="228"/>
+      <c r="C74" s="228"/>
+      <c r="D74" s="228"/>
+      <c r="E74" s="228"/>
+      <c r="F74" s="228"/>
+      <c r="G74" s="228"/>
+      <c r="H74" s="228"/>
+      <c r="I74" s="228"/>
+      <c r="J74" s="228"/>
+      <c r="K74" s="228"/>
+      <c r="L74" s="228"/>
+      <c r="M74" s="228"/>
+      <c r="N74" s="228"/>
+      <c r="O74" s="228"/>
+      <c r="P74" s="228"/>
+      <c r="Q74" s="228"/>
+      <c r="R74" s="228"/>
+      <c r="S74" s="228"/>
+      <c r="T74" s="228"/>
+      <c r="U74" s="228"/>
+      <c r="V74" s="228"/>
+      <c r="W74" s="228"/>
+      <c r="X74" s="228"/>
+      <c r="Y74" s="228"/>
+      <c r="Z74" s="228"/>
+      <c r="AA74" s="228"/>
+      <c r="AB74" s="228"/>
+      <c r="AC74" s="228"/>
+      <c r="AD74" s="228"/>
+      <c r="AE74" s="228"/>
     </row>
     <row r="75" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="232" t="s">
+      <c r="A75" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="306" t="s">
+      <c r="B75" s="217" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="307"/>
-      <c r="D75" s="307"/>
-      <c r="E75" s="307"/>
-      <c r="F75" s="306" t="s">
+      <c r="C75" s="218"/>
+      <c r="D75" s="218"/>
+      <c r="E75" s="218"/>
+      <c r="F75" s="217" t="s">
         <v>135</v>
       </c>
-      <c r="G75" s="307"/>
-      <c r="H75" s="307"/>
-      <c r="I75" s="307"/>
-      <c r="J75" s="306" t="s">
+      <c r="G75" s="218"/>
+      <c r="H75" s="218"/>
+      <c r="I75" s="218"/>
+      <c r="J75" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="K75" s="307"/>
-      <c r="L75" s="306" t="s">
+      <c r="K75" s="218"/>
+      <c r="L75" s="217" t="s">
         <v>136</v>
       </c>
-      <c r="M75" s="307"/>
-      <c r="N75" s="306" t="s">
+      <c r="M75" s="218"/>
+      <c r="N75" s="217" t="s">
         <v>137</v>
       </c>
-      <c r="O75" s="307"/>
-      <c r="P75" s="307"/>
-      <c r="Q75" s="307"/>
-      <c r="R75" s="307"/>
-      <c r="S75" s="307"/>
+      <c r="O75" s="218"/>
+      <c r="P75" s="218"/>
+      <c r="Q75" s="218"/>
+      <c r="R75" s="218"/>
+      <c r="S75" s="218"/>
       <c r="T75" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="U75" s="306" t="s">
+      <c r="U75" s="217" t="s">
         <v>139</v>
       </c>
-      <c r="V75" s="307"/>
-      <c r="W75" s="306" t="s">
+      <c r="V75" s="218"/>
+      <c r="W75" s="217" t="s">
         <v>49</v>
       </c>
-      <c r="X75" s="307"/>
-      <c r="Y75" s="306" t="s">
+      <c r="X75" s="218"/>
+      <c r="Y75" s="217" t="s">
         <v>140</v>
       </c>
-      <c r="Z75" s="307"/>
-      <c r="AA75" s="306" t="s">
+      <c r="Z75" s="218"/>
+      <c r="AA75" s="217" t="s">
         <v>141</v>
       </c>
-      <c r="AB75" s="307"/>
-      <c r="AC75" s="307"/>
-      <c r="AD75" s="306" t="s">
+      <c r="AB75" s="218"/>
+      <c r="AC75" s="218"/>
+      <c r="AD75" s="217" t="s">
         <v>142</v>
       </c>
-      <c r="AE75" s="307"/>
+      <c r="AE75" s="218"/>
       <c r="AF75" s="17"/>
     </row>
     <row r="76" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="250"/>
-      <c r="B76" s="308"/>
-      <c r="C76" s="309"/>
-      <c r="D76" s="309"/>
-      <c r="E76" s="309"/>
-      <c r="F76" s="308"/>
-      <c r="G76" s="309"/>
-      <c r="H76" s="309"/>
-      <c r="I76" s="309"/>
-      <c r="J76" s="308"/>
-      <c r="K76" s="309"/>
-      <c r="L76" s="306" t="s">
+      <c r="A76" s="224"/>
+      <c r="B76" s="219"/>
+      <c r="C76" s="220"/>
+      <c r="D76" s="220"/>
+      <c r="E76" s="220"/>
+      <c r="F76" s="219"/>
+      <c r="G76" s="220"/>
+      <c r="H76" s="220"/>
+      <c r="I76" s="220"/>
+      <c r="J76" s="219"/>
+      <c r="K76" s="220"/>
+      <c r="L76" s="217" t="s">
         <v>143</v>
       </c>
-      <c r="M76" s="307"/>
-      <c r="N76" s="306"/>
-      <c r="O76" s="307"/>
-      <c r="P76" s="307"/>
-      <c r="Q76" s="307"/>
-      <c r="R76" s="307"/>
-      <c r="S76" s="307"/>
+      <c r="M76" s="218"/>
+      <c r="N76" s="217"/>
+      <c r="O76" s="218"/>
+      <c r="P76" s="218"/>
+      <c r="Q76" s="218"/>
+      <c r="R76" s="218"/>
+      <c r="S76" s="218"/>
       <c r="T76" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="U76" s="306" t="s">
+      <c r="U76" s="217" t="s">
         <v>145</v>
       </c>
-      <c r="V76" s="307"/>
-      <c r="W76" s="306" t="s">
+      <c r="V76" s="218"/>
+      <c r="W76" s="217" t="s">
         <v>53</v>
       </c>
-      <c r="X76" s="307"/>
-      <c r="Y76" s="306" t="s">
+      <c r="X76" s="218"/>
+      <c r="Y76" s="217" t="s">
         <v>146</v>
       </c>
-      <c r="Z76" s="307"/>
-      <c r="AA76" s="306" t="s">
+      <c r="Z76" s="218"/>
+      <c r="AA76" s="217" t="s">
         <v>147</v>
       </c>
-      <c r="AB76" s="307"/>
-      <c r="AC76" s="313"/>
-      <c r="AD76" s="308"/>
-      <c r="AE76" s="309"/>
+      <c r="AB76" s="218"/>
+      <c r="AC76" s="221"/>
+      <c r="AD76" s="219"/>
+      <c r="AE76" s="220"/>
       <c r="AF76" s="17"/>
     </row>
     <row r="77" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
         <v>1</v>
       </c>
-      <c r="B77" s="311">
+      <c r="B77" s="215">
         <v>2</v>
       </c>
-      <c r="C77" s="312"/>
-      <c r="D77" s="312"/>
-      <c r="E77" s="312"/>
-      <c r="F77" s="311">
+      <c r="C77" s="216"/>
+      <c r="D77" s="216"/>
+      <c r="E77" s="216"/>
+      <c r="F77" s="215">
         <v>3</v>
       </c>
-      <c r="G77" s="312"/>
-      <c r="H77" s="312"/>
-      <c r="I77" s="312"/>
-      <c r="J77" s="311">
+      <c r="G77" s="216"/>
+      <c r="H77" s="216"/>
+      <c r="I77" s="216"/>
+      <c r="J77" s="215">
         <v>4</v>
       </c>
-      <c r="K77" s="312"/>
-      <c r="L77" s="311">
+      <c r="K77" s="216"/>
+      <c r="L77" s="215">
         <v>5</v>
       </c>
-      <c r="M77" s="312"/>
-      <c r="N77" s="311">
+      <c r="M77" s="216"/>
+      <c r="N77" s="215">
         <v>6</v>
       </c>
-      <c r="O77" s="312"/>
-      <c r="P77" s="312"/>
-      <c r="Q77" s="312"/>
-      <c r="R77" s="312"/>
-      <c r="S77" s="312"/>
+      <c r="O77" s="216"/>
+      <c r="P77" s="216"/>
+      <c r="Q77" s="216"/>
+      <c r="R77" s="216"/>
+      <c r="S77" s="216"/>
       <c r="T77" s="34">
         <v>7</v>
       </c>
-      <c r="U77" s="311">
+      <c r="U77" s="215">
         <v>8</v>
       </c>
-      <c r="V77" s="312"/>
-      <c r="W77" s="311">
+      <c r="V77" s="216"/>
+      <c r="W77" s="215">
         <v>9</v>
       </c>
-      <c r="X77" s="312"/>
-      <c r="Y77" s="311">
+      <c r="X77" s="216"/>
+      <c r="Y77" s="215">
         <v>10</v>
       </c>
-      <c r="Z77" s="312"/>
-      <c r="AA77" s="311">
+      <c r="Z77" s="216"/>
+      <c r="AA77" s="215">
         <v>11</v>
       </c>
-      <c r="AB77" s="312"/>
-      <c r="AC77" s="312"/>
-      <c r="AD77" s="311">
+      <c r="AB77" s="216"/>
+      <c r="AC77" s="216"/>
+      <c r="AD77" s="215">
         <v>12</v>
       </c>
-      <c r="AE77" s="314"/>
+      <c r="AE77" s="222"/>
       <c r="AF77" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:S77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="AA75:AC75"/>
-    <mergeCell ref="AD75:AE76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="W77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="AA77:AC77"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:E76"/>
-    <mergeCell ref="F75:I76"/>
-    <mergeCell ref="J75:K76"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:S76"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="E72:X72"/>
-    <mergeCell ref="A74:AE74"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:X70"/>
-    <mergeCell ref="Y70:Z71"/>
-    <mergeCell ref="B65:Z65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="W66:Z67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="U60:AD60"/>
-    <mergeCell ref="U61:AD61"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AE57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:K53"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:V53"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="A45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:U48"/>
-    <mergeCell ref="V47:W48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:K40"/>
-    <mergeCell ref="L39:P40"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="Z39:AB40"/>
-    <mergeCell ref="AC39:AE40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J32:L33"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="W26:AB27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="B5:AA5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:V11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:AB9"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:Y23"/>
@@ -5939,33 +5757,212 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="B5:AA5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:V11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:AB9"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="W26:AB27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J32:L33"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="L39:P40"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AB40"/>
+    <mergeCell ref="AC39:AE40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="A45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:U48"/>
+    <mergeCell ref="V47:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:V53"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="U60:AD60"/>
+    <mergeCell ref="U61:AD61"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AE57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:X70"/>
+    <mergeCell ref="Y70:Z71"/>
+    <mergeCell ref="B65:Z65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="W66:Z67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:E76"/>
+    <mergeCell ref="F75:I76"/>
+    <mergeCell ref="J75:K76"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:S76"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="E72:X72"/>
+    <mergeCell ref="A74:AE74"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="AA75:AC75"/>
+    <mergeCell ref="AD75:AE76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="AA77:AC77"/>
+    <mergeCell ref="AD77:AE77"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -5982,7 +5979,7 @@
   <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H17" sqref="H17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6007,56 +6004,56 @@
       <c r="Q1" s="153"/>
       <c r="R1" s="153"/>
       <c r="S1" s="153"/>
-      <c r="T1" s="318" t="s">
+      <c r="T1" s="343" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="318"/>
-      <c r="V1" s="318"/>
-      <c r="W1" s="318"/>
-      <c r="X1" s="318"/>
+      <c r="U1" s="343"/>
+      <c r="V1" s="343"/>
+      <c r="W1" s="343"/>
+      <c r="X1" s="343"/>
       <c r="Y1" s="198" t="s">
         <v>161</v>
       </c>
       <c r="Z1" s="199"/>
-      <c r="AA1" s="326"/>
-      <c r="AB1" s="327"/>
-      <c r="AC1" s="328"/>
+      <c r="AA1" s="349"/>
+      <c r="AB1" s="350"/>
+      <c r="AC1" s="351"/>
       <c r="AD1" s="209"/>
       <c r="AE1" s="153"/>
     </row>
     <row r="2" spans="1:31" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="319" t="s">
+      <c r="A2" s="339" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="319"/>
-      <c r="N2" s="319"/>
-      <c r="O2" s="319"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="319"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="339"/>
+      <c r="N2" s="339"/>
+      <c r="O2" s="339"/>
+      <c r="P2" s="339"/>
+      <c r="Q2" s="339"/>
+      <c r="R2" s="339"/>
       <c r="S2" s="154">
         <v>1</v>
       </c>
       <c r="T2" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="U2" s="320" t="s">
+      <c r="U2" s="344" t="s">
         <v>158</v>
       </c>
-      <c r="V2" s="320"/>
-      <c r="W2" s="319"/>
-      <c r="X2" s="319"/>
+      <c r="V2" s="344"/>
+      <c r="W2" s="339"/>
+      <c r="X2" s="339"/>
       <c r="Y2" s="201"/>
       <c r="Z2" s="202"/>
       <c r="AA2" s="208"/>
@@ -6066,10 +6063,10 @@
       <c r="AE2" s="156"/>
     </row>
     <row r="3" spans="1:31" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="345" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="321"/>
+      <c r="B3" s="345"/>
       <c r="C3" s="196"/>
       <c r="D3" s="196"/>
       <c r="E3" s="196"/>
@@ -6087,13 +6084,13 @@
       <c r="Q3" s="196"/>
       <c r="R3" s="196"/>
       <c r="S3" s="197"/>
-      <c r="T3" s="320" t="s">
+      <c r="T3" s="344" t="s">
         <v>160</v>
       </c>
-      <c r="U3" s="320"/>
-      <c r="V3" s="320"/>
-      <c r="W3" s="321"/>
-      <c r="X3" s="321"/>
+      <c r="U3" s="344"/>
+      <c r="V3" s="344"/>
+      <c r="W3" s="345"/>
+      <c r="X3" s="345"/>
       <c r="Y3" s="204"/>
       <c r="Z3" s="205"/>
       <c r="AA3" s="203"/>
@@ -6120,38 +6117,38 @@
       <c r="O4" s="157"/>
       <c r="P4" s="157"/>
       <c r="Q4" s="157"/>
-      <c r="R4" s="323"/>
-      <c r="S4" s="323"/>
+      <c r="R4" s="346"/>
+      <c r="S4" s="346"/>
       <c r="T4" s="156"/>
       <c r="U4" s="156"/>
       <c r="V4" s="156"/>
       <c r="W4" s="156"/>
       <c r="X4" s="156"/>
-      <c r="Y4" s="324"/>
-      <c r="Z4" s="324"/>
-      <c r="AA4" s="315"/>
-      <c r="AB4" s="315"/>
-      <c r="AC4" s="315"/>
+      <c r="Y4" s="347"/>
+      <c r="Z4" s="347"/>
+      <c r="AA4" s="341"/>
+      <c r="AB4" s="341"/>
+      <c r="AC4" s="341"/>
       <c r="AD4" s="156"/>
       <c r="AE4" s="156"/>
     </row>
     <row r="5" spans="1:31" ht="10.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="322" t="s">
+      <c r="A5" s="332" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="322"/>
-      <c r="C5" s="322"/>
+      <c r="B5" s="332"/>
+      <c r="C5" s="332"/>
       <c r="D5" s="158"/>
       <c r="E5" s="158"/>
       <c r="F5" s="159"/>
       <c r="G5" s="158"/>
       <c r="H5" s="158"/>
       <c r="I5" s="158"/>
-      <c r="J5" s="317" t="s">
-        <v>183</v>
-      </c>
-      <c r="K5" s="317"/>
-      <c r="L5" s="317"/>
+      <c r="J5" s="318" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="318"/>
+      <c r="L5" s="318"/>
       <c r="M5" s="158"/>
       <c r="N5" s="158"/>
       <c r="O5" s="160"/>
@@ -6164,11 +6161,11 @@
       <c r="V5" s="156"/>
       <c r="W5" s="156"/>
       <c r="X5" s="156"/>
-      <c r="Y5" s="325"/>
-      <c r="Z5" s="325"/>
-      <c r="AA5" s="316"/>
-      <c r="AB5" s="316"/>
-      <c r="AC5" s="316"/>
+      <c r="Y5" s="348"/>
+      <c r="Z5" s="348"/>
+      <c r="AA5" s="342"/>
+      <c r="AB5" s="342"/>
+      <c r="AC5" s="342"/>
       <c r="AD5" s="156"/>
       <c r="AE5" s="156"/>
     </row>
@@ -6201,19 +6198,19 @@
       <c r="V6" s="156"/>
       <c r="W6" s="156"/>
       <c r="X6" s="156"/>
-      <c r="Y6" s="319"/>
-      <c r="Z6" s="335"/>
-      <c r="AA6" s="319"/>
-      <c r="AB6" s="335"/>
-      <c r="AC6" s="335"/>
+      <c r="Y6" s="339"/>
+      <c r="Z6" s="340"/>
+      <c r="AA6" s="339"/>
+      <c r="AB6" s="340"/>
+      <c r="AC6" s="340"/>
       <c r="AD6" s="156"/>
       <c r="AE6" s="156"/>
     </row>
     <row r="7" spans="1:31" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="332" t="s">
+      <c r="A7" s="337" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="332"/>
+      <c r="B7" s="337"/>
       <c r="C7" s="167"/>
       <c r="D7" s="167"/>
       <c r="E7" s="167"/>
@@ -6221,11 +6218,11 @@
       <c r="G7" s="167"/>
       <c r="H7" s="167"/>
       <c r="I7" s="167"/>
-      <c r="J7" s="317" t="s">
+      <c r="J7" s="318" t="s">
         <v>164</v>
       </c>
-      <c r="K7" s="317"/>
-      <c r="L7" s="317"/>
+      <c r="K7" s="318"/>
+      <c r="L7" s="318"/>
       <c r="M7" s="168"/>
       <c r="N7" s="168"/>
       <c r="O7" s="169"/>
@@ -6238,11 +6235,11 @@
       <c r="V7" s="156"/>
       <c r="W7" s="156"/>
       <c r="X7" s="156"/>
-      <c r="Y7" s="335"/>
-      <c r="Z7" s="335"/>
-      <c r="AA7" s="335"/>
-      <c r="AB7" s="335"/>
-      <c r="AC7" s="335"/>
+      <c r="Y7" s="340"/>
+      <c r="Z7" s="340"/>
+      <c r="AA7" s="340"/>
+      <c r="AB7" s="340"/>
+      <c r="AC7" s="340"/>
       <c r="AD7" s="156"/>
       <c r="AE7" s="156"/>
     </row>
@@ -6275,29 +6272,29 @@
       <c r="V8" s="171"/>
       <c r="W8" s="171"/>
       <c r="X8" s="171"/>
-      <c r="Y8" s="329"/>
-      <c r="Z8" s="329"/>
-      <c r="AA8" s="330"/>
-      <c r="AB8" s="330"/>
-      <c r="AC8" s="330"/>
+      <c r="Y8" s="331"/>
+      <c r="Z8" s="331"/>
+      <c r="AA8" s="335"/>
+      <c r="AB8" s="335"/>
+      <c r="AC8" s="335"/>
       <c r="AD8" s="171"/>
       <c r="AE8" s="171"/>
     </row>
     <row r="9" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="322" t="s">
+      <c r="A9" s="332" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="331"/>
-      <c r="C9" s="331"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
+      <c r="B9" s="336"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="337"/>
+      <c r="E9" s="337"/>
       <c r="F9" s="158"/>
       <c r="G9" s="158"/>
       <c r="H9" s="176"/>
       <c r="I9" s="333" t="s">
         <v>166</v>
       </c>
-      <c r="J9" s="334"/>
+      <c r="J9" s="338"/>
       <c r="K9" s="177"/>
       <c r="L9" s="177"/>
       <c r="M9" s="174"/>
@@ -6328,11 +6325,11 @@
       <c r="C10" s="156"/>
       <c r="D10" s="156"/>
       <c r="E10" s="156"/>
-      <c r="F10" s="344" t="s">
+      <c r="F10" s="327" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="344"/>
-      <c r="H10" s="344"/>
+      <c r="G10" s="327"/>
+      <c r="H10" s="327"/>
       <c r="I10" s="156"/>
       <c r="J10" s="156"/>
       <c r="K10" s="153"/>
@@ -6358,10 +6355,10 @@
       <c r="AE10" s="156"/>
     </row>
     <row r="11" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="322" t="s">
+      <c r="A11" s="332" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="322"/>
+      <c r="B11" s="332"/>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
       <c r="E11" s="333"/>
@@ -6443,11 +6440,11 @@
       <c r="I13" s="171"/>
       <c r="J13" s="171"/>
       <c r="K13" s="171"/>
-      <c r="L13" s="348" t="s">
+      <c r="L13" s="320" t="s">
         <v>171</v>
       </c>
-      <c r="M13" s="348"/>
-      <c r="N13" s="348"/>
+      <c r="M13" s="320"/>
+      <c r="N13" s="320"/>
       <c r="O13" s="171"/>
       <c r="P13" s="171"/>
       <c r="Q13" s="171"/>
@@ -6473,27 +6470,27 @@
       <c r="AE13" s="171"/>
     </row>
     <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="336" t="s">
+      <c r="A14" s="322" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="336"/>
-      <c r="C14" s="336"/>
-      <c r="D14" s="337" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="337"/>
-      <c r="F14" s="338"/>
-      <c r="G14" s="338"/>
-      <c r="H14" s="339" t="s">
+      <c r="B14" s="322"/>
+      <c r="C14" s="322"/>
+      <c r="D14" s="323" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="323"/>
+      <c r="F14" s="321"/>
+      <c r="G14" s="321"/>
+      <c r="H14" s="319" t="s">
         <v>173</v>
       </c>
-      <c r="I14" s="339"/>
-      <c r="J14" s="339"/>
+      <c r="I14" s="319"/>
+      <c r="J14" s="319"/>
       <c r="K14" s="171"/>
-      <c r="L14" s="336" t="s">
+      <c r="L14" s="322" t="s">
         <v>174</v>
       </c>
-      <c r="M14" s="336"/>
+      <c r="M14" s="322"/>
       <c r="N14" s="211"/>
       <c r="O14" s="212" t="s">
         <v>175</v>
@@ -6501,16 +6498,16 @@
       <c r="P14" s="210"/>
       <c r="Q14" s="210"/>
       <c r="R14" s="178"/>
-      <c r="S14" s="340"/>
-      <c r="T14" s="340"/>
-      <c r="U14" s="340"/>
-      <c r="V14" s="340"/>
-      <c r="W14" s="340"/>
-      <c r="X14" s="340"/>
-      <c r="Y14" s="340"/>
-      <c r="Z14" s="340"/>
-      <c r="AA14" s="340"/>
-      <c r="AB14" s="340"/>
+      <c r="S14" s="334"/>
+      <c r="T14" s="334"/>
+      <c r="U14" s="334"/>
+      <c r="V14" s="334"/>
+      <c r="W14" s="334"/>
+      <c r="X14" s="334"/>
+      <c r="Y14" s="334"/>
+      <c r="Z14" s="334"/>
+      <c r="AA14" s="334"/>
+      <c r="AB14" s="334"/>
       <c r="AC14" s="174"/>
       <c r="AD14" s="174"/>
       <c r="AE14" s="156"/>
@@ -6533,8 +6530,8 @@
       <c r="I15" s="164"/>
       <c r="J15" s="164"/>
       <c r="K15" s="174"/>
-      <c r="L15" s="347"/>
-      <c r="M15" s="347"/>
+      <c r="L15" s="330"/>
+      <c r="M15" s="330"/>
       <c r="N15" s="164" t="s">
         <v>176</v>
       </c>
@@ -6544,18 +6541,18 @@
       </c>
       <c r="Q15" s="186"/>
       <c r="R15" s="178"/>
-      <c r="S15" s="329" t="s">
+      <c r="S15" s="331" t="s">
         <v>178</v>
       </c>
-      <c r="T15" s="329"/>
-      <c r="U15" s="329"/>
-      <c r="V15" s="329"/>
-      <c r="W15" s="329"/>
-      <c r="X15" s="329"/>
-      <c r="Y15" s="329"/>
-      <c r="Z15" s="329"/>
-      <c r="AA15" s="329"/>
-      <c r="AB15" s="329"/>
+      <c r="T15" s="331"/>
+      <c r="U15" s="331"/>
+      <c r="V15" s="331"/>
+      <c r="W15" s="331"/>
+      <c r="X15" s="331"/>
+      <c r="Y15" s="331"/>
+      <c r="Z15" s="331"/>
+      <c r="AA15" s="331"/>
+      <c r="AB15" s="331"/>
       <c r="AC15" s="156"/>
       <c r="AD15" s="156"/>
       <c r="AE15" s="156"/>
@@ -6594,22 +6591,20 @@
       <c r="AE16" s="156"/>
     </row>
     <row r="17" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="336" t="s">
+      <c r="A17" s="322" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="336"/>
-      <c r="C17" s="336"/>
-      <c r="D17" s="337" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="337"/>
-      <c r="F17" s="338"/>
-      <c r="G17" s="338"/>
-      <c r="H17" s="339" t="s">
-        <v>180</v>
-      </c>
-      <c r="I17" s="339"/>
-      <c r="J17" s="339"/>
+      <c r="B17" s="322"/>
+      <c r="C17" s="322"/>
+      <c r="D17" s="323" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="323"/>
+      <c r="F17" s="321"/>
+      <c r="G17" s="321"/>
+      <c r="H17" s="319"/>
+      <c r="I17" s="319"/>
+      <c r="J17" s="319"/>
       <c r="K17" s="192"/>
       <c r="L17" s="171"/>
       <c r="M17" s="171"/>
@@ -6618,14 +6613,14 @@
       <c r="P17" s="171"/>
       <c r="Q17" s="171"/>
       <c r="R17" s="178"/>
-      <c r="S17" s="345" t="s">
-        <v>181</v>
-      </c>
-      <c r="T17" s="345"/>
-      <c r="U17" s="343"/>
-      <c r="V17" s="346"/>
-      <c r="W17" s="343"/>
-      <c r="X17" s="343"/>
+      <c r="S17" s="328" t="s">
+        <v>180</v>
+      </c>
+      <c r="T17" s="328"/>
+      <c r="U17" s="326"/>
+      <c r="V17" s="329"/>
+      <c r="W17" s="326"/>
+      <c r="X17" s="326"/>
       <c r="Y17" s="172"/>
       <c r="Z17" s="172"/>
       <c r="AA17" s="157"/>
@@ -6680,11 +6675,11 @@
       <c r="AE18" s="156"/>
     </row>
     <row r="19" spans="1:31" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="348"/>
-      <c r="B19" s="348"/>
-      <c r="C19" s="348"/>
-      <c r="D19" s="338"/>
-      <c r="E19" s="338"/>
+      <c r="A19" s="320"/>
+      <c r="B19" s="320"/>
+      <c r="C19" s="320"/>
+      <c r="D19" s="321"/>
+      <c r="E19" s="321"/>
       <c r="F19" s="171"/>
       <c r="G19" s="171"/>
       <c r="H19" s="171"/>
@@ -6700,14 +6695,14 @@
       <c r="R19" s="178"/>
       <c r="S19" s="171"/>
       <c r="T19" s="171"/>
-      <c r="U19" s="341"/>
-      <c r="V19" s="341"/>
-      <c r="W19" s="342"/>
-      <c r="X19" s="342"/>
-      <c r="Y19" s="342"/>
-      <c r="Z19" s="342"/>
-      <c r="AA19" s="342"/>
-      <c r="AB19" s="342"/>
+      <c r="U19" s="324"/>
+      <c r="V19" s="324"/>
+      <c r="W19" s="325"/>
+      <c r="X19" s="325"/>
+      <c r="Y19" s="325"/>
+      <c r="Z19" s="325"/>
+      <c r="AA19" s="325"/>
+      <c r="AB19" s="325"/>
       <c r="AC19" s="171"/>
       <c r="AD19" s="171"/>
       <c r="AE19" s="171"/>
@@ -6716,19 +6711,19 @@
       <c r="A20" s="174"/>
       <c r="B20" s="174"/>
       <c r="C20" s="174"/>
-      <c r="D20" s="317"/>
-      <c r="E20" s="317"/>
+      <c r="D20" s="318"/>
+      <c r="E20" s="318"/>
       <c r="F20" s="194"/>
       <c r="G20" s="171"/>
-      <c r="H20" s="317"/>
-      <c r="I20" s="317"/>
-      <c r="J20" s="317"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="318"/>
+      <c r="J20" s="318"/>
       <c r="K20" s="195" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L20" s="194"/>
-      <c r="M20" s="317"/>
-      <c r="N20" s="317"/>
+      <c r="M20" s="318"/>
+      <c r="N20" s="318"/>
       <c r="O20" s="156"/>
       <c r="P20" s="194"/>
       <c r="Q20" s="174"/>
@@ -6749,42 +6744,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="S15:AB15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="S14:AB14"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="AA6:AC7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AA4:AC5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="T1:X1"/>
@@ -6797,6 +6756,42 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="Y4:Z5"/>
     <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="AA6:AC7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="S14:AB14"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="S15:AB15"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -607,7 +607,7 @@
     <t>Ген. Директор</t>
   </si>
   <si>
-    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в ВТБ (ПАО) г. Москва к/с 30101810700000000187 БИК 044525187</t>
+    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал № 7701 Банка ВТБ (ПАО)  г. Москва к/с 30101810345250000745 БИК 044525745</t>
   </si>
 </sst>
 </file>
@@ -1918,419 +1918,419 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2641,7 +2641,7 @@
   </sheetPr>
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:AE2"/>
     </sheetView>
   </sheetViews>
@@ -2706,49 +2706,49 @@
       <c r="W1" s="60"/>
       <c r="X1" s="60"/>
       <c r="Y1" s="60"/>
-      <c r="Z1" s="295" t="s">
+      <c r="Z1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="295"/>
-      <c r="AB1" s="295"/>
-      <c r="AC1" s="295"/>
-      <c r="AD1" s="295"/>
-      <c r="AE1" s="295"/>
+      <c r="AA1" s="204"/>
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="204"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
     </row>
     <row r="2" spans="1:32" ht="9.1999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="217"/>
-      <c r="AB2" s="217"/>
-      <c r="AC2" s="217"/>
-      <c r="AD2" s="217"/>
-      <c r="AE2" s="217"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="205"/>
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="205"/>
     </row>
     <row r="3" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
@@ -2793,20 +2793,20 @@
       <c r="AF3" s="71"/>
     </row>
     <row r="4" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="274" t="s">
+      <c r="A4" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="274"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="274"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
       <c r="O4" s="72"/>
@@ -2820,11 +2820,11 @@
       <c r="W4" s="66"/>
       <c r="X4" s="66"/>
       <c r="Y4" s="66"/>
-      <c r="Z4" s="295" t="s">
+      <c r="Z4" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="295"/>
-      <c r="AB4" s="295"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="204"/>
       <c r="AC4" s="73"/>
       <c r="AD4" s="74"/>
       <c r="AE4" s="75"/>
@@ -2834,32 +2834,32 @@
       <c r="A5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="300"/>
-      <c r="J5" s="300"/>
-      <c r="K5" s="300"/>
-      <c r="L5" s="300"/>
-      <c r="M5" s="300"/>
-      <c r="N5" s="300"/>
-      <c r="O5" s="300"/>
-      <c r="P5" s="300"/>
-      <c r="Q5" s="300"/>
-      <c r="R5" s="300"/>
-      <c r="S5" s="300"/>
-      <c r="T5" s="300"/>
-      <c r="U5" s="300"/>
-      <c r="V5" s="300"/>
-      <c r="W5" s="300"/>
-      <c r="X5" s="300"/>
-      <c r="Y5" s="300"/>
-      <c r="Z5" s="300"/>
-      <c r="AA5" s="300"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="207"/>
+      <c r="W5" s="207"/>
+      <c r="X5" s="207"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="207"/>
+      <c r="AA5" s="207"/>
       <c r="AB5" s="77" t="s">
         <v>6</v>
       </c>
@@ -2908,25 +2908,25 @@
       <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
-      <c r="I7" s="278" t="s">
+      <c r="I7" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="278"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="278"/>
-      <c r="N7" s="224"/>
-      <c r="O7" s="224"/>
-      <c r="P7" s="224"/>
-      <c r="Q7" s="224"/>
-      <c r="R7" s="224"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="209"/>
+      <c r="Q7" s="209"/>
+      <c r="R7" s="209"/>
       <c r="S7" s="72"/>
       <c r="T7" s="72"/>
       <c r="U7" s="72"/>
@@ -2978,39 +2978,39 @@
       <c r="AE8" s="89"/>
       <c r="AF8" s="71"/>
     </row>
-    <row r="9" spans="1:32" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="274" t="s">
+    <row r="9" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="206" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="341" t="s">
+      <c r="B9" s="216"/>
+      <c r="C9" s="217" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="305"/>
-      <c r="E9" s="305"/>
-      <c r="F9" s="305"/>
-      <c r="G9" s="305"/>
-      <c r="H9" s="305"/>
-      <c r="I9" s="305"/>
-      <c r="J9" s="305"/>
-      <c r="K9" s="305"/>
-      <c r="L9" s="305"/>
-      <c r="M9" s="305"/>
-      <c r="N9" s="305"/>
-      <c r="O9" s="305"/>
-      <c r="P9" s="305"/>
-      <c r="Q9" s="305"/>
-      <c r="R9" s="305"/>
-      <c r="S9" s="305"/>
-      <c r="T9" s="305"/>
-      <c r="U9" s="305"/>
-      <c r="V9" s="305"/>
-      <c r="W9" s="305"/>
-      <c r="X9" s="305"/>
-      <c r="Y9" s="305"/>
-      <c r="Z9" s="305"/>
-      <c r="AA9" s="305"/>
-      <c r="AB9" s="306"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="218"/>
+      <c r="P9" s="218"/>
+      <c r="Q9" s="218"/>
+      <c r="R9" s="218"/>
+      <c r="S9" s="218"/>
+      <c r="T9" s="218"/>
+      <c r="U9" s="218"/>
+      <c r="V9" s="218"/>
+      <c r="W9" s="218"/>
+      <c r="X9" s="218"/>
+      <c r="Y9" s="218"/>
+      <c r="Z9" s="218"/>
+      <c r="AA9" s="218"/>
+      <c r="AB9" s="219"/>
       <c r="AC9" s="91"/>
       <c r="AD9" s="92"/>
       <c r="AE9" s="93"/>
@@ -3053,38 +3053,38 @@
       <c r="AF10" s="71"/>
     </row>
     <row r="11" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="270" t="s">
+      <c r="A11" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="270"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="224"/>
-      <c r="F11" s="224"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="258"/>
-      <c r="I11" s="258"/>
-      <c r="J11" s="258"/>
-      <c r="K11" s="258"/>
-      <c r="L11" s="258"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="258"/>
-      <c r="O11" s="301"/>
-      <c r="P11" s="301"/>
-      <c r="Q11" s="301"/>
-      <c r="R11" s="301"/>
-      <c r="S11" s="301"/>
-      <c r="T11" s="301"/>
-      <c r="U11" s="301"/>
-      <c r="V11" s="301"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="210"/>
+      <c r="L11" s="210"/>
+      <c r="M11" s="210"/>
+      <c r="N11" s="210"/>
+      <c r="O11" s="211"/>
+      <c r="P11" s="211"/>
+      <c r="Q11" s="211"/>
+      <c r="R11" s="211"/>
+      <c r="S11" s="211"/>
+      <c r="T11" s="211"/>
+      <c r="U11" s="211"/>
+      <c r="V11" s="211"/>
       <c r="W11" s="98"/>
       <c r="X11" s="99" t="s">
         <v>12</v>
       </c>
       <c r="Y11" s="65"/>
-      <c r="Z11" s="302"/>
-      <c r="AA11" s="302"/>
-      <c r="AB11" s="303"/>
+      <c r="Z11" s="212"/>
+      <c r="AA11" s="212"/>
+      <c r="AB11" s="213"/>
       <c r="AC11" s="88"/>
       <c r="AD11" s="65"/>
       <c r="AE11" s="89"/>
@@ -3127,17 +3127,17 @@
       <c r="AF12" s="71"/>
     </row>
     <row r="13" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="274" t="s">
+      <c r="A13" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="274"/>
-      <c r="C13" s="224" t="s">
+      <c r="B13" s="206"/>
+      <c r="C13" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="224"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="224"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="209"/>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
       <c r="J13" s="102"/>
@@ -3146,19 +3146,19 @@
       <c r="M13" s="102"/>
       <c r="N13" s="102"/>
       <c r="O13" s="102"/>
-      <c r="P13" s="274" t="s">
+      <c r="P13" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="274"/>
-      <c r="R13" s="304"/>
-      <c r="S13" s="304"/>
-      <c r="T13" s="304"/>
-      <c r="U13" s="304"/>
-      <c r="V13" s="304"/>
-      <c r="W13" s="304"/>
-      <c r="X13" s="304"/>
-      <c r="Y13" s="304"/>
-      <c r="Z13" s="304"/>
+      <c r="Q13" s="206"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="214"/>
+      <c r="V13" s="214"/>
+      <c r="W13" s="214"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="214"/>
+      <c r="Z13" s="214"/>
       <c r="AA13" s="64"/>
       <c r="AB13" s="103" t="s">
         <v>148</v>
@@ -3205,10 +3205,10 @@
       <c r="AF14" s="71"/>
     </row>
     <row r="15" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="274" t="s">
+      <c r="A15" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="274"/>
+      <c r="B15" s="206"/>
       <c r="C15" s="107"/>
       <c r="D15" s="107"/>
       <c r="E15" s="107"/>
@@ -3248,24 +3248,24 @@
       <c r="A16" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="298"/>
-      <c r="C16" s="298"/>
-      <c r="D16" s="298"/>
-      <c r="E16" s="298"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="298"/>
-      <c r="I16" s="298"/>
-      <c r="J16" s="298"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="222"/>
+      <c r="K16" s="222"/>
+      <c r="L16" s="222"/>
       <c r="M16" s="72"/>
       <c r="N16" s="112"/>
-      <c r="O16" s="299" t="s">
+      <c r="O16" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="299"/>
-      <c r="Q16" s="299"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="223"/>
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
       <c r="T16" s="114"/>
@@ -3275,10 +3275,10 @@
       <c r="X16" s="114"/>
       <c r="Y16" s="114"/>
       <c r="Z16" s="66"/>
-      <c r="AA16" s="295" t="s">
+      <c r="AA16" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="AB16" s="296"/>
+      <c r="AB16" s="221"/>
       <c r="AC16" s="104"/>
       <c r="AD16" s="63"/>
       <c r="AE16" s="105"/>
@@ -3306,11 +3306,11 @@
       <c r="Q17" s="60"/>
       <c r="R17" s="94"/>
       <c r="S17" s="94"/>
-      <c r="T17" s="233" t="s">
+      <c r="T17" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="U17" s="233"/>
-      <c r="V17" s="233"/>
+      <c r="U17" s="220"/>
+      <c r="V17" s="220"/>
       <c r="W17" s="94"/>
       <c r="X17" s="94"/>
       <c r="Y17" s="94"/>
@@ -3323,42 +3323,42 @@
       <c r="AF17" s="71"/>
     </row>
     <row r="18" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="274" t="s">
+      <c r="A18" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="274"/>
-      <c r="C18" s="274"/>
-      <c r="D18" s="270"/>
-      <c r="E18" s="270"/>
-      <c r="F18" s="270"/>
-      <c r="G18" s="270"/>
-      <c r="H18" s="270"/>
-      <c r="I18" s="270"/>
-      <c r="J18" s="270"/>
-      <c r="K18" s="270"/>
-      <c r="L18" s="270"/>
-      <c r="M18" s="274" t="s">
+      <c r="B18" s="206"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="274"/>
+      <c r="N18" s="206"/>
       <c r="O18" s="63"/>
       <c r="P18" s="63"/>
-      <c r="Q18" s="295" t="s">
+      <c r="Q18" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="295"/>
-      <c r="S18" s="295"/>
-      <c r="T18" s="295"/>
+      <c r="R18" s="204"/>
+      <c r="S18" s="204"/>
+      <c r="T18" s="204"/>
       <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
       <c r="X18" s="63"/>
       <c r="Y18" s="63"/>
-      <c r="Z18" s="295" t="s">
+      <c r="Z18" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="AA18" s="295"/>
-      <c r="AB18" s="296"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="221"/>
       <c r="AC18" s="104"/>
       <c r="AD18" s="63"/>
       <c r="AE18" s="105"/>
@@ -3415,28 +3415,28 @@
       <c r="J20" s="60"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="274" t="s">
+      <c r="M20" s="206" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="274"/>
+      <c r="N20" s="206"/>
       <c r="O20" s="121"/>
       <c r="P20" s="121"/>
-      <c r="Q20" s="295" t="s">
+      <c r="Q20" s="204" t="s">
         <v>149</v>
       </c>
-      <c r="R20" s="295"/>
-      <c r="S20" s="295"/>
-      <c r="T20" s="295"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
+      <c r="T20" s="204"/>
       <c r="U20" s="63"/>
       <c r="V20" s="63"/>
       <c r="W20" s="121"/>
       <c r="X20" s="121"/>
       <c r="Y20" s="121"/>
-      <c r="Z20" s="295" t="s">
+      <c r="Z20" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="AA20" s="295"/>
-      <c r="AB20" s="296"/>
+      <c r="AA20" s="204"/>
+      <c r="AB20" s="221"/>
       <c r="AC20" s="122"/>
       <c r="AD20" s="123"/>
       <c r="AE20" s="124"/>
@@ -3480,23 +3480,23 @@
     <row r="22" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
       <c r="B22" s="60"/>
-      <c r="C22" s="268" t="s">
+      <c r="C22" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="268"/>
-      <c r="E22" s="268"/>
-      <c r="F22" s="268"/>
-      <c r="G22" s="268"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="227"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
-      <c r="L22" s="297" t="s">
+      <c r="L22" s="228" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="297"/>
-      <c r="N22" s="297"/>
-      <c r="O22" s="297"/>
+      <c r="M22" s="228"/>
+      <c r="N22" s="228"/>
+      <c r="O22" s="228"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="60"/>
       <c r="R22" s="60"/>
@@ -3515,147 +3515,147 @@
       <c r="AE22" s="60"/>
     </row>
     <row r="23" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="212" t="s">
+      <c r="A23" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="239"/>
-      <c r="C23" s="239"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="212" t="s">
+      <c r="B23" s="225"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="225"/>
+      <c r="E23" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="239"/>
-      <c r="G23" s="239"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="239"/>
-      <c r="J23" s="212" t="s">
+      <c r="F23" s="225"/>
+      <c r="G23" s="225"/>
+      <c r="H23" s="225"/>
+      <c r="I23" s="225"/>
+      <c r="J23" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="239"/>
-      <c r="L23" s="239"/>
-      <c r="M23" s="212" t="s">
+      <c r="K23" s="225"/>
+      <c r="L23" s="225"/>
+      <c r="M23" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="239"/>
-      <c r="O23" s="239"/>
-      <c r="P23" s="239"/>
-      <c r="Q23" s="239"/>
-      <c r="R23" s="212" t="s">
+      <c r="N23" s="225"/>
+      <c r="O23" s="225"/>
+      <c r="P23" s="225"/>
+      <c r="Q23" s="225"/>
+      <c r="R23" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="239"/>
-      <c r="T23" s="239"/>
-      <c r="U23" s="212" t="s">
+      <c r="S23" s="225"/>
+      <c r="T23" s="225"/>
+      <c r="U23" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="239"/>
-      <c r="W23" s="212" t="s">
+      <c r="V23" s="225"/>
+      <c r="W23" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="X23" s="239"/>
-      <c r="Y23" s="239"/>
-      <c r="Z23" s="212" t="s">
+      <c r="X23" s="225"/>
+      <c r="Y23" s="225"/>
+      <c r="Z23" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="AA23" s="239"/>
-      <c r="AB23" s="239"/>
-      <c r="AC23" s="212" t="s">
+      <c r="AA23" s="225"/>
+      <c r="AB23" s="225"/>
+      <c r="AC23" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="239"/>
-      <c r="AE23" s="239"/>
+      <c r="AD23" s="225"/>
+      <c r="AE23" s="225"/>
       <c r="AF23" s="127"/>
     </row>
     <row r="24" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="212">
+      <c r="A24" s="224">
         <v>1</v>
       </c>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="212">
+      <c r="B24" s="225"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="225"/>
+      <c r="E24" s="224">
         <v>2</v>
       </c>
-      <c r="F24" s="239"/>
-      <c r="G24" s="239"/>
-      <c r="H24" s="239"/>
-      <c r="I24" s="239"/>
-      <c r="J24" s="212">
+      <c r="F24" s="225"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="225"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="224">
         <v>3</v>
       </c>
-      <c r="K24" s="239"/>
-      <c r="L24" s="239"/>
-      <c r="M24" s="212">
+      <c r="K24" s="225"/>
+      <c r="L24" s="225"/>
+      <c r="M24" s="224">
         <v>4</v>
       </c>
-      <c r="N24" s="239"/>
-      <c r="O24" s="239"/>
-      <c r="P24" s="239"/>
-      <c r="Q24" s="239"/>
-      <c r="R24" s="212">
+      <c r="N24" s="225"/>
+      <c r="O24" s="225"/>
+      <c r="P24" s="225"/>
+      <c r="Q24" s="225"/>
+      <c r="R24" s="224">
         <v>5</v>
       </c>
-      <c r="S24" s="239"/>
-      <c r="T24" s="239"/>
-      <c r="U24" s="212">
+      <c r="S24" s="225"/>
+      <c r="T24" s="225"/>
+      <c r="U24" s="224">
         <v>6</v>
       </c>
-      <c r="V24" s="239"/>
-      <c r="W24" s="212">
+      <c r="V24" s="225"/>
+      <c r="W24" s="224">
         <v>7</v>
       </c>
-      <c r="X24" s="239"/>
-      <c r="Y24" s="239"/>
-      <c r="Z24" s="212">
+      <c r="X24" s="225"/>
+      <c r="Y24" s="225"/>
+      <c r="Z24" s="224">
         <v>8</v>
       </c>
-      <c r="AA24" s="239"/>
-      <c r="AB24" s="239"/>
-      <c r="AC24" s="212">
+      <c r="AA24" s="225"/>
+      <c r="AB24" s="225"/>
+      <c r="AC24" s="224">
         <v>9</v>
       </c>
-      <c r="AD24" s="239"/>
-      <c r="AE24" s="240"/>
+      <c r="AD24" s="225"/>
+      <c r="AE24" s="226"/>
       <c r="AF24" s="127"/>
     </row>
     <row r="25" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="289" t="s">
+      <c r="A25" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="290"/>
-      <c r="C25" s="290"/>
-      <c r="D25" s="290"/>
-      <c r="E25" s="271" t="s">
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="272"/>
-      <c r="G25" s="272"/>
-      <c r="H25" s="272"/>
-      <c r="I25" s="272"/>
-      <c r="J25" s="291" t="s">
+      <c r="F25" s="238"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="239" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="292"/>
-      <c r="L25" s="292"/>
-      <c r="M25" s="293"/>
-      <c r="N25" s="293"/>
-      <c r="O25" s="293"/>
-      <c r="P25" s="293"/>
-      <c r="Q25" s="293"/>
-      <c r="R25" s="290"/>
-      <c r="S25" s="290"/>
-      <c r="T25" s="290"/>
-      <c r="U25" s="281"/>
-      <c r="V25" s="281"/>
-      <c r="W25" s="281"/>
-      <c r="X25" s="281"/>
-      <c r="Y25" s="281"/>
-      <c r="Z25" s="281"/>
-      <c r="AA25" s="281"/>
-      <c r="AB25" s="281"/>
-      <c r="AC25" s="281"/>
-      <c r="AD25" s="281"/>
-      <c r="AE25" s="281"/>
+      <c r="K25" s="240"/>
+      <c r="L25" s="240"/>
+      <c r="M25" s="241"/>
+      <c r="N25" s="241"/>
+      <c r="O25" s="241"/>
+      <c r="P25" s="241"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="236"/>
+      <c r="U25" s="229"/>
+      <c r="V25" s="229"/>
+      <c r="W25" s="229"/>
+      <c r="X25" s="229"/>
+      <c r="Y25" s="229"/>
+      <c r="Z25" s="229"/>
+      <c r="AA25" s="229"/>
+      <c r="AB25" s="229"/>
+      <c r="AC25" s="229"/>
+      <c r="AD25" s="229"/>
+      <c r="AE25" s="229"/>
       <c r="AF25" s="128"/>
     </row>
     <row r="26" spans="1:32" ht="3.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3681,39 +3681,39 @@
       <c r="T26" s="81"/>
       <c r="U26" s="131"/>
       <c r="V26" s="132"/>
-      <c r="W26" s="284" t="s">
+      <c r="W26" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="X26" s="285"/>
-      <c r="Y26" s="285"/>
-      <c r="Z26" s="285"/>
-      <c r="AA26" s="285"/>
-      <c r="AB26" s="285"/>
+      <c r="X26" s="231"/>
+      <c r="Y26" s="231"/>
+      <c r="Z26" s="231"/>
+      <c r="AA26" s="231"/>
+      <c r="AB26" s="231"/>
       <c r="AC26" s="133"/>
       <c r="AD26" s="119"/>
       <c r="AE26" s="132"/>
       <c r="AF26" s="128"/>
     </row>
     <row r="27" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="274" t="s">
+      <c r="A27" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="274"/>
-      <c r="C27" s="274"/>
-      <c r="D27" s="274"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
       <c r="E27" s="66"/>
-      <c r="F27" s="224" t="s">
+      <c r="F27" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="224"/>
-      <c r="H27" s="287"/>
+      <c r="G27" s="209"/>
+      <c r="H27" s="233"/>
       <c r="I27" s="66"/>
-      <c r="J27" s="273" t="s">
+      <c r="J27" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="274"/>
-      <c r="L27" s="274"/>
-      <c r="M27" s="288"/>
+      <c r="K27" s="206"/>
+      <c r="L27" s="206"/>
+      <c r="M27" s="216"/>
       <c r="N27" s="134"/>
       <c r="O27" s="134"/>
       <c r="P27" s="135" t="s">
@@ -3721,56 +3721,56 @@
       </c>
       <c r="Q27" s="79"/>
       <c r="R27" s="136"/>
-      <c r="S27" s="213" t="s">
+      <c r="S27" s="242" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="284"/>
+      <c r="T27" s="230"/>
       <c r="U27" s="137"/>
       <c r="V27" s="138"/>
-      <c r="W27" s="285"/>
-      <c r="X27" s="286"/>
-      <c r="Y27" s="286"/>
-      <c r="Z27" s="286"/>
-      <c r="AA27" s="286"/>
-      <c r="AB27" s="286"/>
+      <c r="W27" s="231"/>
+      <c r="X27" s="232"/>
+      <c r="Y27" s="232"/>
+      <c r="Z27" s="232"/>
+      <c r="AA27" s="232"/>
+      <c r="AB27" s="232"/>
       <c r="AC27" s="137"/>
       <c r="AD27" s="63"/>
       <c r="AE27" s="138"/>
       <c r="AF27" s="128"/>
     </row>
     <row r="28" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="278" t="s">
+      <c r="A28" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="278"/>
-      <c r="D28" s="278"/>
+      <c r="B28" s="215"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
       <c r="G28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="282"/>
-      <c r="I28" s="283"/>
-      <c r="J28" s="273"/>
-      <c r="K28" s="274"/>
-      <c r="L28" s="274"/>
-      <c r="M28" s="274"/>
-      <c r="N28" s="268" t="s">
+      <c r="H28" s="249"/>
+      <c r="I28" s="250"/>
+      <c r="J28" s="234"/>
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="206"/>
+      <c r="N28" s="227" t="s">
         <v>53</v>
       </c>
-      <c r="O28" s="268"/>
+      <c r="O28" s="227"/>
       <c r="P28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="Q28" s="268" t="s">
+      <c r="Q28" s="227" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="294"/>
-      <c r="S28" s="264" t="s">
+      <c r="R28" s="243"/>
+      <c r="S28" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="T28" s="280"/>
+      <c r="T28" s="245"/>
       <c r="U28" s="140"/>
       <c r="V28" s="140"/>
       <c r="W28" s="66"/>
@@ -3788,10 +3788,10 @@
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
       <c r="D29" s="66"/>
-      <c r="E29" s="265" t="s">
+      <c r="E29" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="265"/>
+      <c r="F29" s="246"/>
       <c r="G29" s="66"/>
       <c r="H29" s="115"/>
       <c r="I29" s="141"/>
@@ -3799,11 +3799,11 @@
       <c r="K29" s="66"/>
       <c r="L29" s="66"/>
       <c r="M29" s="66"/>
-      <c r="N29" s="265"/>
-      <c r="O29" s="265"/>
+      <c r="N29" s="246"/>
+      <c r="O29" s="246"/>
       <c r="P29" s="66"/>
-      <c r="Q29" s="265"/>
-      <c r="R29" s="265"/>
+      <c r="Q29" s="246"/>
+      <c r="R29" s="246"/>
       <c r="S29" s="143"/>
       <c r="T29" s="66"/>
       <c r="U29" s="66"/>
@@ -3819,10 +3819,10 @@
       <c r="AE29" s="66"/>
     </row>
     <row r="30" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="270" t="s">
+      <c r="A30" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="270"/>
+      <c r="B30" s="208"/>
       <c r="C30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
@@ -3830,28 +3830,28 @@
       <c r="G30" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="248" t="s">
+      <c r="H30" s="247" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="248"/>
-      <c r="J30" s="269" t="s">
+      <c r="I30" s="247"/>
+      <c r="J30" s="248" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="270"/>
-      <c r="L30" s="270"/>
+      <c r="K30" s="208"/>
+      <c r="L30" s="208"/>
       <c r="M30" s="134"/>
       <c r="N30" s="134"/>
       <c r="O30" s="134"/>
-      <c r="P30" s="270" t="s">
+      <c r="P30" s="208" t="s">
         <v>60</v>
       </c>
-      <c r="Q30" s="270"/>
-      <c r="R30" s="270"/>
-      <c r="S30" s="269" t="s">
+      <c r="Q30" s="208"/>
+      <c r="R30" s="208"/>
+      <c r="S30" s="248" t="s">
         <v>61</v>
       </c>
-      <c r="T30" s="270"/>
-      <c r="U30" s="270"/>
+      <c r="T30" s="208"/>
+      <c r="U30" s="208"/>
       <c r="V30" s="134"/>
       <c r="W30" s="134"/>
       <c r="X30" s="134"/>
@@ -3867,22 +3867,22 @@
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="81"/>
-      <c r="D31" s="263" t="s">
+      <c r="D31" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="263"/>
-      <c r="F31" s="263"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="251"/>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="142"/>
       <c r="K31" s="66"/>
       <c r="L31" s="66"/>
-      <c r="M31" s="268" t="s">
+      <c r="M31" s="227" t="s">
         <v>54</v>
       </c>
-      <c r="N31" s="268"/>
-      <c r="O31" s="268"/>
+      <c r="N31" s="227"/>
+      <c r="O31" s="227"/>
       <c r="P31" s="66"/>
       <c r="Q31" s="66"/>
       <c r="R31" s="66"/>
@@ -3912,21 +3912,21 @@
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="136"/>
-      <c r="J32" s="269" t="s">
+      <c r="J32" s="248" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="270"/>
-      <c r="L32" s="270"/>
+      <c r="K32" s="208"/>
+      <c r="L32" s="208"/>
       <c r="M32" s="63"/>
       <c r="N32" s="63"/>
       <c r="O32" s="79"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="144"/>
-      <c r="S32" s="273" t="s">
+      <c r="S32" s="234" t="s">
         <v>65</v>
       </c>
-      <c r="T32" s="274"/>
+      <c r="T32" s="206"/>
       <c r="U32" s="134"/>
       <c r="V32" s="134"/>
       <c r="W32" s="134"/>
@@ -3941,33 +3941,33 @@
     </row>
     <row r="33" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66"/>
-      <c r="B33" s="233" t="s">
+      <c r="B33" s="220" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="233"/>
-      <c r="D33" s="233" t="s">
+      <c r="C33" s="220"/>
+      <c r="D33" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
       <c r="G33" s="145" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="82"/>
       <c r="I33" s="146"/>
-      <c r="J33" s="271"/>
-      <c r="K33" s="272"/>
-      <c r="L33" s="272"/>
-      <c r="M33" s="268" t="s">
+      <c r="J33" s="237"/>
+      <c r="K33" s="238"/>
+      <c r="L33" s="238"/>
+      <c r="M33" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="N33" s="268"/>
-      <c r="O33" s="268" t="s">
+      <c r="N33" s="227"/>
+      <c r="O33" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="P33" s="268"/>
-      <c r="Q33" s="268"/>
-      <c r="R33" s="275"/>
+      <c r="P33" s="227"/>
+      <c r="Q33" s="227"/>
+      <c r="R33" s="252"/>
       <c r="S33" s="142"/>
       <c r="T33" s="66"/>
       <c r="U33" s="81"/>
@@ -3983,10 +3983,10 @@
       <c r="AE33" s="81"/>
     </row>
     <row r="34" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="278" t="s">
+      <c r="A34" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="279"/>
+      <c r="B34" s="255"/>
       <c r="C34" s="144"/>
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
@@ -3994,17 +3994,17 @@
       <c r="G34" s="147"/>
       <c r="H34" s="147"/>
       <c r="I34" s="148"/>
-      <c r="J34" s="269" t="s">
+      <c r="J34" s="248" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="270"/>
+      <c r="K34" s="208"/>
       <c r="L34" s="144"/>
       <c r="M34" s="63"/>
       <c r="N34" s="63"/>
       <c r="O34" s="79"/>
       <c r="P34" s="79"/>
       <c r="Q34" s="79"/>
-      <c r="R34" s="276"/>
+      <c r="R34" s="253"/>
       <c r="S34" s="142"/>
       <c r="T34" s="134"/>
       <c r="U34" s="134"/>
@@ -4020,34 +4020,34 @@
       <c r="AE34" s="134"/>
     </row>
     <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="280"/>
-      <c r="B35" s="279"/>
+      <c r="A35" s="245"/>
+      <c r="B35" s="255"/>
       <c r="C35" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="268" t="s">
+      <c r="D35" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="268"/>
-      <c r="F35" s="268"/>
+      <c r="E35" s="227"/>
+      <c r="F35" s="227"/>
       <c r="G35" s="150"/>
       <c r="H35" s="150"/>
       <c r="I35" s="151"/>
-      <c r="J35" s="264"/>
-      <c r="K35" s="265"/>
+      <c r="J35" s="244"/>
+      <c r="K35" s="246"/>
       <c r="L35" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="268" t="s">
+      <c r="M35" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="N35" s="268"/>
-      <c r="O35" s="268" t="s">
+      <c r="N35" s="227"/>
+      <c r="O35" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="P35" s="268"/>
-      <c r="Q35" s="268"/>
-      <c r="R35" s="277"/>
+      <c r="P35" s="227"/>
+      <c r="Q35" s="227"/>
+      <c r="R35" s="254"/>
       <c r="S35" s="152"/>
       <c r="T35" s="129"/>
       <c r="U35" s="129"/>
@@ -4069,11 +4069,11 @@
       <c r="D36" s="66"/>
       <c r="E36" s="66"/>
       <c r="F36" s="66"/>
-      <c r="G36" s="258" t="s">
+      <c r="G36" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="258"/>
-      <c r="I36" s="259"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="256"/>
       <c r="J36" s="152"/>
       <c r="K36" s="144"/>
       <c r="L36" s="144"/>
@@ -4133,257 +4133,257 @@
       <c r="AE37" s="144"/>
     </row>
     <row r="38" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="257" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="261"/>
-      <c r="C38" s="261"/>
-      <c r="D38" s="261"/>
-      <c r="E38" s="261"/>
-      <c r="F38" s="261"/>
-      <c r="G38" s="261"/>
-      <c r="H38" s="261"/>
-      <c r="I38" s="261"/>
-      <c r="J38" s="261"/>
-      <c r="K38" s="261"/>
-      <c r="L38" s="261"/>
-      <c r="M38" s="261"/>
-      <c r="N38" s="261"/>
-      <c r="O38" s="261"/>
-      <c r="P38" s="261"/>
-      <c r="Q38" s="261"/>
-      <c r="R38" s="261"/>
-      <c r="S38" s="261"/>
-      <c r="T38" s="261"/>
-      <c r="U38" s="261"/>
-      <c r="V38" s="261"/>
-      <c r="W38" s="261"/>
-      <c r="X38" s="261"/>
-      <c r="Y38" s="261"/>
-      <c r="Z38" s="261"/>
-      <c r="AA38" s="261"/>
-      <c r="AB38" s="261"/>
-      <c r="AC38" s="261"/>
-      <c r="AD38" s="261"/>
-      <c r="AE38" s="261"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="258"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="258"/>
+      <c r="G38" s="258"/>
+      <c r="H38" s="258"/>
+      <c r="I38" s="258"/>
+      <c r="J38" s="258"/>
+      <c r="K38" s="258"/>
+      <c r="L38" s="258"/>
+      <c r="M38" s="258"/>
+      <c r="N38" s="258"/>
+      <c r="O38" s="258"/>
+      <c r="P38" s="258"/>
+      <c r="Q38" s="258"/>
+      <c r="R38" s="258"/>
+      <c r="S38" s="258"/>
+      <c r="T38" s="258"/>
+      <c r="U38" s="258"/>
+      <c r="V38" s="258"/>
+      <c r="W38" s="258"/>
+      <c r="X38" s="258"/>
+      <c r="Y38" s="258"/>
+      <c r="Z38" s="258"/>
+      <c r="AA38" s="258"/>
+      <c r="AB38" s="258"/>
+      <c r="AC38" s="258"/>
+      <c r="AD38" s="258"/>
+      <c r="AE38" s="258"/>
       <c r="AF38" s="127"/>
     </row>
     <row r="39" spans="1:32" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="262" t="s">
+      <c r="A39" s="259" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="263"/>
-      <c r="C39" s="262" t="s">
+      <c r="B39" s="251"/>
+      <c r="C39" s="259" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="263"/>
-      <c r="E39" s="263"/>
-      <c r="F39" s="263"/>
-      <c r="G39" s="262" t="s">
+      <c r="D39" s="251"/>
+      <c r="E39" s="251"/>
+      <c r="F39" s="251"/>
+      <c r="G39" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="H39" s="263"/>
-      <c r="I39" s="263"/>
-      <c r="J39" s="263"/>
-      <c r="K39" s="263"/>
-      <c r="L39" s="262" t="s">
+      <c r="H39" s="251"/>
+      <c r="I39" s="251"/>
+      <c r="J39" s="251"/>
+      <c r="K39" s="251"/>
+      <c r="L39" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="M39" s="263"/>
-      <c r="N39" s="263"/>
-      <c r="O39" s="263"/>
-      <c r="P39" s="263"/>
-      <c r="Q39" s="212" t="s">
+      <c r="M39" s="251"/>
+      <c r="N39" s="251"/>
+      <c r="O39" s="251"/>
+      <c r="P39" s="251"/>
+      <c r="Q39" s="224" t="s">
         <v>77</v>
       </c>
-      <c r="R39" s="239"/>
-      <c r="S39" s="239"/>
-      <c r="T39" s="239"/>
-      <c r="U39" s="239"/>
-      <c r="V39" s="241" t="s">
+      <c r="R39" s="225"/>
+      <c r="S39" s="225"/>
+      <c r="T39" s="225"/>
+      <c r="U39" s="225"/>
+      <c r="V39" s="260" t="s">
         <v>78</v>
       </c>
-      <c r="W39" s="242"/>
-      <c r="X39" s="266"/>
-      <c r="Y39" s="267"/>
-      <c r="Z39" s="212" t="s">
+      <c r="W39" s="261"/>
+      <c r="X39" s="262"/>
+      <c r="Y39" s="263"/>
+      <c r="Z39" s="224" t="s">
         <v>79</v>
       </c>
-      <c r="AA39" s="239"/>
-      <c r="AB39" s="239"/>
-      <c r="AC39" s="212" t="s">
+      <c r="AA39" s="225"/>
+      <c r="AB39" s="225"/>
+      <c r="AC39" s="224" t="s">
         <v>80</v>
       </c>
-      <c r="AD39" s="239"/>
-      <c r="AE39" s="240"/>
+      <c r="AD39" s="225"/>
+      <c r="AE39" s="226"/>
       <c r="AF39" s="127"/>
     </row>
     <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="264"/>
-      <c r="B40" s="265"/>
-      <c r="C40" s="264"/>
-      <c r="D40" s="265"/>
-      <c r="E40" s="265"/>
-      <c r="F40" s="265"/>
-      <c r="G40" s="264"/>
-      <c r="H40" s="265"/>
-      <c r="I40" s="265"/>
-      <c r="J40" s="265"/>
-      <c r="K40" s="265"/>
-      <c r="L40" s="264"/>
-      <c r="M40" s="265"/>
-      <c r="N40" s="265"/>
-      <c r="O40" s="265"/>
-      <c r="P40" s="265"/>
-      <c r="Q40" s="253" t="s">
+      <c r="A40" s="244"/>
+      <c r="B40" s="246"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="246"/>
+      <c r="E40" s="246"/>
+      <c r="F40" s="246"/>
+      <c r="G40" s="244"/>
+      <c r="H40" s="246"/>
+      <c r="I40" s="246"/>
+      <c r="J40" s="246"/>
+      <c r="K40" s="246"/>
+      <c r="L40" s="244"/>
+      <c r="M40" s="246"/>
+      <c r="N40" s="246"/>
+      <c r="O40" s="246"/>
+      <c r="P40" s="246"/>
+      <c r="Q40" s="264" t="s">
         <v>81</v>
       </c>
-      <c r="R40" s="254"/>
-      <c r="S40" s="254"/>
-      <c r="T40" s="254"/>
+      <c r="R40" s="265"/>
+      <c r="S40" s="265"/>
+      <c r="T40" s="265"/>
       <c r="U40" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="V40" s="212" t="s">
+      <c r="V40" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="W40" s="239"/>
-      <c r="X40" s="212" t="s">
+      <c r="W40" s="225"/>
+      <c r="X40" s="224" t="s">
         <v>83</v>
       </c>
-      <c r="Y40" s="240"/>
-      <c r="Z40" s="213"/>
-      <c r="AA40" s="224"/>
-      <c r="AB40" s="224"/>
-      <c r="AC40" s="213"/>
-      <c r="AD40" s="224"/>
-      <c r="AE40" s="224"/>
+      <c r="Y40" s="226"/>
+      <c r="Z40" s="242"/>
+      <c r="AA40" s="209"/>
+      <c r="AB40" s="209"/>
+      <c r="AC40" s="242"/>
+      <c r="AD40" s="209"/>
+      <c r="AE40" s="209"/>
       <c r="AF40" s="127"/>
     </row>
     <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="212">
+      <c r="A41" s="224">
         <v>10</v>
       </c>
-      <c r="B41" s="239"/>
-      <c r="C41" s="212">
+      <c r="B41" s="225"/>
+      <c r="C41" s="224">
         <v>11</v>
       </c>
-      <c r="D41" s="239"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="239"/>
-      <c r="G41" s="212">
+      <c r="D41" s="225"/>
+      <c r="E41" s="225"/>
+      <c r="F41" s="225"/>
+      <c r="G41" s="224">
         <v>12</v>
       </c>
-      <c r="H41" s="239"/>
-      <c r="I41" s="239"/>
-      <c r="J41" s="239"/>
-      <c r="K41" s="239"/>
-      <c r="L41" s="212">
+      <c r="H41" s="225"/>
+      <c r="I41" s="225"/>
+      <c r="J41" s="225"/>
+      <c r="K41" s="225"/>
+      <c r="L41" s="224">
         <v>13</v>
       </c>
-      <c r="M41" s="239"/>
-      <c r="N41" s="239"/>
-      <c r="O41" s="239"/>
-      <c r="P41" s="239"/>
-      <c r="Q41" s="212">
+      <c r="M41" s="225"/>
+      <c r="N41" s="225"/>
+      <c r="O41" s="225"/>
+      <c r="P41" s="225"/>
+      <c r="Q41" s="224">
         <v>14</v>
       </c>
-      <c r="R41" s="239"/>
-      <c r="S41" s="239"/>
-      <c r="T41" s="239"/>
+      <c r="R41" s="225"/>
+      <c r="S41" s="225"/>
+      <c r="T41" s="225"/>
       <c r="U41" s="158">
         <v>15</v>
       </c>
-      <c r="V41" s="212">
+      <c r="V41" s="224">
         <v>16</v>
       </c>
-      <c r="W41" s="239"/>
-      <c r="X41" s="212">
+      <c r="W41" s="225"/>
+      <c r="X41" s="224">
         <v>17</v>
       </c>
-      <c r="Y41" s="239"/>
-      <c r="Z41" s="212">
+      <c r="Y41" s="225"/>
+      <c r="Z41" s="224">
         <v>18</v>
       </c>
-      <c r="AA41" s="239"/>
-      <c r="AB41" s="239"/>
-      <c r="AC41" s="212">
+      <c r="AA41" s="225"/>
+      <c r="AB41" s="225"/>
+      <c r="AC41" s="224">
         <v>19</v>
       </c>
-      <c r="AD41" s="239"/>
-      <c r="AE41" s="240"/>
+      <c r="AD41" s="225"/>
+      <c r="AE41" s="226"/>
       <c r="AF41" s="127"/>
     </row>
     <row r="42" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="253" t="s">
+      <c r="A42" s="264" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="254"/>
-      <c r="C42" s="255"/>
-      <c r="D42" s="256"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255"/>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="256"/>
-      <c r="L42" s="255"/>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="256"/>
-      <c r="Q42" s="255"/>
-      <c r="R42" s="256"/>
-      <c r="S42" s="256"/>
-      <c r="T42" s="256"/>
+      <c r="B42" s="265"/>
+      <c r="C42" s="266"/>
+      <c r="D42" s="267"/>
+      <c r="E42" s="267"/>
+      <c r="F42" s="267"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="267"/>
+      <c r="I42" s="267"/>
+      <c r="J42" s="267"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="266"/>
+      <c r="M42" s="267"/>
+      <c r="N42" s="267"/>
+      <c r="O42" s="267"/>
+      <c r="P42" s="267"/>
+      <c r="Q42" s="266"/>
+      <c r="R42" s="267"/>
+      <c r="S42" s="267"/>
+      <c r="T42" s="267"/>
       <c r="U42" s="159"/>
-      <c r="V42" s="232"/>
-      <c r="W42" s="232"/>
-      <c r="X42" s="232"/>
-      <c r="Y42" s="232"/>
-      <c r="Z42" s="232"/>
-      <c r="AA42" s="232"/>
-      <c r="AB42" s="232"/>
-      <c r="AC42" s="256"/>
-      <c r="AD42" s="256"/>
-      <c r="AE42" s="257"/>
+      <c r="V42" s="268"/>
+      <c r="W42" s="268"/>
+      <c r="X42" s="268"/>
+      <c r="Y42" s="268"/>
+      <c r="Z42" s="268"/>
+      <c r="AA42" s="268"/>
+      <c r="AB42" s="268"/>
+      <c r="AC42" s="267"/>
+      <c r="AD42" s="267"/>
+      <c r="AE42" s="269"/>
       <c r="AF42" s="127"/>
     </row>
     <row r="43" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="253" t="s">
+      <c r="A43" s="264" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="254"/>
-      <c r="C43" s="255"/>
-      <c r="D43" s="256"/>
-      <c r="E43" s="256"/>
-      <c r="F43" s="256"/>
-      <c r="G43" s="255"/>
-      <c r="H43" s="256"/>
-      <c r="I43" s="256"/>
-      <c r="J43" s="256"/>
-      <c r="K43" s="256"/>
-      <c r="L43" s="255"/>
-      <c r="M43" s="256"/>
-      <c r="N43" s="256"/>
-      <c r="O43" s="256"/>
-      <c r="P43" s="256"/>
-      <c r="Q43" s="255"/>
-      <c r="R43" s="256"/>
-      <c r="S43" s="256"/>
-      <c r="T43" s="256"/>
+      <c r="B43" s="265"/>
+      <c r="C43" s="266"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="267"/>
+      <c r="F43" s="267"/>
+      <c r="G43" s="266"/>
+      <c r="H43" s="267"/>
+      <c r="I43" s="267"/>
+      <c r="J43" s="267"/>
+      <c r="K43" s="267"/>
+      <c r="L43" s="266"/>
+      <c r="M43" s="267"/>
+      <c r="N43" s="267"/>
+      <c r="O43" s="267"/>
+      <c r="P43" s="267"/>
+      <c r="Q43" s="266"/>
+      <c r="R43" s="267"/>
+      <c r="S43" s="267"/>
+      <c r="T43" s="267"/>
       <c r="U43" s="159"/>
-      <c r="V43" s="232"/>
-      <c r="W43" s="232"/>
-      <c r="X43" s="232"/>
-      <c r="Y43" s="232"/>
-      <c r="Z43" s="232"/>
-      <c r="AA43" s="232"/>
-      <c r="AB43" s="232"/>
-      <c r="AC43" s="256"/>
-      <c r="AD43" s="256"/>
-      <c r="AE43" s="257"/>
+      <c r="V43" s="268"/>
+      <c r="W43" s="268"/>
+      <c r="X43" s="268"/>
+      <c r="Y43" s="268"/>
+      <c r="Z43" s="268"/>
+      <c r="AA43" s="268"/>
+      <c r="AB43" s="268"/>
+      <c r="AC43" s="267"/>
+      <c r="AD43" s="267"/>
+      <c r="AE43" s="269"/>
       <c r="AF43" s="127"/>
     </row>
     <row r="44" spans="1:32" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -4420,78 +4420,78 @@
       <c r="AE44" s="94"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="239"/>
-      <c r="C45" s="239"/>
-      <c r="D45" s="239"/>
-      <c r="E45" s="239"/>
-      <c r="F45" s="239"/>
-      <c r="G45" s="239"/>
-      <c r="H45" s="239"/>
-      <c r="I45" s="239"/>
-      <c r="J45" s="239"/>
-      <c r="K45" s="239"/>
-      <c r="L45" s="239"/>
-      <c r="M45" s="239"/>
-      <c r="N45" s="239"/>
-      <c r="O45" s="239"/>
-      <c r="P45" s="239"/>
-      <c r="Q45" s="239"/>
-      <c r="R45" s="239"/>
-      <c r="S45" s="239"/>
-      <c r="T45" s="239"/>
-      <c r="U45" s="239"/>
-      <c r="V45" s="239"/>
-      <c r="W45" s="239"/>
-      <c r="X45" s="246" t="s">
+      <c r="B45" s="225"/>
+      <c r="C45" s="225"/>
+      <c r="D45" s="225"/>
+      <c r="E45" s="225"/>
+      <c r="F45" s="225"/>
+      <c r="G45" s="225"/>
+      <c r="H45" s="225"/>
+      <c r="I45" s="225"/>
+      <c r="J45" s="225"/>
+      <c r="K45" s="225"/>
+      <c r="L45" s="225"/>
+      <c r="M45" s="225"/>
+      <c r="N45" s="225"/>
+      <c r="O45" s="225"/>
+      <c r="P45" s="225"/>
+      <c r="Q45" s="225"/>
+      <c r="R45" s="225"/>
+      <c r="S45" s="225"/>
+      <c r="T45" s="225"/>
+      <c r="U45" s="225"/>
+      <c r="V45" s="225"/>
+      <c r="W45" s="225"/>
+      <c r="X45" s="270" t="s">
         <v>87</v>
       </c>
-      <c r="Y45" s="247"/>
-      <c r="Z45" s="248"/>
-      <c r="AA45" s="248"/>
-      <c r="AB45" s="248"/>
-      <c r="AC45" s="248"/>
-      <c r="AD45" s="248"/>
-      <c r="AE45" s="248"/>
+      <c r="Y45" s="271"/>
+      <c r="Z45" s="247"/>
+      <c r="AA45" s="247"/>
+      <c r="AB45" s="247"/>
+      <c r="AC45" s="247"/>
+      <c r="AD45" s="247"/>
+      <c r="AE45" s="247"/>
     </row>
     <row r="46" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="224" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="239"/>
-      <c r="C46" s="239"/>
-      <c r="D46" s="239"/>
-      <c r="E46" s="239"/>
-      <c r="F46" s="212" t="s">
+      <c r="B46" s="225"/>
+      <c r="C46" s="225"/>
+      <c r="D46" s="225"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="239"/>
-      <c r="H46" s="249" t="s">
+      <c r="G46" s="225"/>
+      <c r="H46" s="272" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="250"/>
-      <c r="J46" s="250"/>
-      <c r="K46" s="251"/>
-      <c r="L46" s="212" t="s">
+      <c r="I46" s="273"/>
+      <c r="J46" s="273"/>
+      <c r="K46" s="274"/>
+      <c r="L46" s="224" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="239"/>
-      <c r="N46" s="239"/>
-      <c r="O46" s="239"/>
-      <c r="P46" s="239"/>
-      <c r="Q46" s="212" t="s">
+      <c r="M46" s="225"/>
+      <c r="N46" s="225"/>
+      <c r="O46" s="225"/>
+      <c r="P46" s="225"/>
+      <c r="Q46" s="224" t="s">
         <v>92</v>
       </c>
-      <c r="R46" s="239"/>
-      <c r="S46" s="239"/>
-      <c r="T46" s="212" t="s">
+      <c r="R46" s="225"/>
+      <c r="S46" s="225"/>
+      <c r="T46" s="224" t="s">
         <v>93</v>
       </c>
-      <c r="U46" s="239"/>
-      <c r="V46" s="239"/>
-      <c r="W46" s="240"/>
+      <c r="U46" s="225"/>
+      <c r="V46" s="225"/>
+      <c r="W46" s="226"/>
       <c r="X46" s="152"/>
       <c r="Y46" s="79"/>
       <c r="Z46" s="79"/>
@@ -4502,41 +4502,41 @@
       <c r="AE46" s="79"/>
     </row>
     <row r="47" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="213"/>
-      <c r="B47" s="224"/>
-      <c r="C47" s="224"/>
-      <c r="D47" s="224"/>
-      <c r="E47" s="224"/>
-      <c r="F47" s="213"/>
-      <c r="G47" s="224"/>
-      <c r="H47" s="212" t="s">
+      <c r="A47" s="242"/>
+      <c r="B47" s="209"/>
+      <c r="C47" s="209"/>
+      <c r="D47" s="209"/>
+      <c r="E47" s="209"/>
+      <c r="F47" s="242"/>
+      <c r="G47" s="209"/>
+      <c r="H47" s="224" t="s">
         <v>94</v>
       </c>
-      <c r="I47" s="239"/>
-      <c r="J47" s="212" t="s">
+      <c r="I47" s="225"/>
+      <c r="J47" s="224" t="s">
         <v>95</v>
       </c>
-      <c r="K47" s="239"/>
-      <c r="L47" s="212"/>
-      <c r="M47" s="239"/>
-      <c r="N47" s="239"/>
-      <c r="O47" s="239"/>
-      <c r="P47" s="239"/>
-      <c r="Q47" s="212" t="s">
+      <c r="K47" s="225"/>
+      <c r="L47" s="224"/>
+      <c r="M47" s="225"/>
+      <c r="N47" s="225"/>
+      <c r="O47" s="225"/>
+      <c r="P47" s="225"/>
+      <c r="Q47" s="224" t="s">
         <v>96</v>
       </c>
-      <c r="R47" s="239"/>
-      <c r="S47" s="244" t="s">
+      <c r="R47" s="225"/>
+      <c r="S47" s="275" t="s">
         <v>97</v>
       </c>
-      <c r="T47" s="212" t="s">
+      <c r="T47" s="224" t="s">
         <v>98</v>
       </c>
-      <c r="U47" s="239"/>
-      <c r="V47" s="212" t="s">
+      <c r="U47" s="225"/>
+      <c r="V47" s="224" t="s">
         <v>99</v>
       </c>
-      <c r="W47" s="240"/>
+      <c r="W47" s="226"/>
       <c r="X47" s="152"/>
       <c r="Y47" s="160"/>
       <c r="Z47" s="160"/>
@@ -4562,24 +4562,24 @@
       <c r="E48" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="213"/>
-      <c r="G48" s="224"/>
-      <c r="H48" s="213"/>
-      <c r="I48" s="224"/>
-      <c r="J48" s="213"/>
-      <c r="K48" s="224"/>
-      <c r="L48" s="213"/>
-      <c r="M48" s="224"/>
-      <c r="N48" s="224"/>
-      <c r="O48" s="224"/>
-      <c r="P48" s="224"/>
-      <c r="Q48" s="213"/>
-      <c r="R48" s="224"/>
-      <c r="S48" s="252"/>
-      <c r="T48" s="213"/>
-      <c r="U48" s="224"/>
-      <c r="V48" s="213"/>
-      <c r="W48" s="224"/>
+      <c r="F48" s="242"/>
+      <c r="G48" s="209"/>
+      <c r="H48" s="242"/>
+      <c r="I48" s="209"/>
+      <c r="J48" s="242"/>
+      <c r="K48" s="209"/>
+      <c r="L48" s="242"/>
+      <c r="M48" s="209"/>
+      <c r="N48" s="209"/>
+      <c r="O48" s="209"/>
+      <c r="P48" s="209"/>
+      <c r="Q48" s="242"/>
+      <c r="R48" s="209"/>
+      <c r="S48" s="276"/>
+      <c r="T48" s="242"/>
+      <c r="U48" s="209"/>
+      <c r="V48" s="242"/>
+      <c r="W48" s="209"/>
       <c r="X48" s="152"/>
       <c r="Y48" s="160"/>
       <c r="Z48" s="160"/>
@@ -4605,40 +4605,40 @@
       <c r="E49" s="158">
         <v>24</v>
       </c>
-      <c r="F49" s="212">
+      <c r="F49" s="224">
         <v>25</v>
       </c>
-      <c r="G49" s="239"/>
-      <c r="H49" s="212">
+      <c r="G49" s="225"/>
+      <c r="H49" s="224">
         <v>26</v>
       </c>
-      <c r="I49" s="239"/>
-      <c r="J49" s="212">
+      <c r="I49" s="225"/>
+      <c r="J49" s="224">
         <v>27</v>
       </c>
-      <c r="K49" s="239"/>
-      <c r="L49" s="212">
+      <c r="K49" s="225"/>
+      <c r="L49" s="224">
         <v>28</v>
       </c>
-      <c r="M49" s="239"/>
-      <c r="N49" s="239"/>
-      <c r="O49" s="239"/>
-      <c r="P49" s="239"/>
-      <c r="Q49" s="212">
+      <c r="M49" s="225"/>
+      <c r="N49" s="225"/>
+      <c r="O49" s="225"/>
+      <c r="P49" s="225"/>
+      <c r="Q49" s="224">
         <v>29</v>
       </c>
-      <c r="R49" s="239"/>
+      <c r="R49" s="225"/>
       <c r="S49" s="158">
         <v>30</v>
       </c>
-      <c r="T49" s="212">
+      <c r="T49" s="224">
         <v>31</v>
       </c>
-      <c r="U49" s="239"/>
-      <c r="V49" s="212">
+      <c r="U49" s="225"/>
+      <c r="V49" s="224">
         <v>32</v>
       </c>
-      <c r="W49" s="240"/>
+      <c r="W49" s="226"/>
       <c r="X49" s="152"/>
       <c r="Y49" s="129"/>
       <c r="Z49" s="129"/>
@@ -4654,24 +4654,24 @@
       <c r="C50" s="159"/>
       <c r="D50" s="159"/>
       <c r="E50" s="159"/>
-      <c r="F50" s="232"/>
-      <c r="G50" s="232"/>
-      <c r="H50" s="232"/>
-      <c r="I50" s="232"/>
-      <c r="J50" s="232"/>
-      <c r="K50" s="232"/>
-      <c r="L50" s="232"/>
-      <c r="M50" s="232"/>
-      <c r="N50" s="232"/>
-      <c r="O50" s="232"/>
-      <c r="P50" s="232"/>
-      <c r="Q50" s="232"/>
-      <c r="R50" s="232"/>
+      <c r="F50" s="268"/>
+      <c r="G50" s="268"/>
+      <c r="H50" s="268"/>
+      <c r="I50" s="268"/>
+      <c r="J50" s="268"/>
+      <c r="K50" s="268"/>
+      <c r="L50" s="268"/>
+      <c r="M50" s="268"/>
+      <c r="N50" s="268"/>
+      <c r="O50" s="268"/>
+      <c r="P50" s="268"/>
+      <c r="Q50" s="268"/>
+      <c r="R50" s="268"/>
       <c r="S50" s="159"/>
-      <c r="T50" s="232"/>
-      <c r="U50" s="232"/>
-      <c r="V50" s="232"/>
-      <c r="W50" s="232"/>
+      <c r="T50" s="268"/>
+      <c r="U50" s="268"/>
+      <c r="V50" s="268"/>
+      <c r="W50" s="268"/>
       <c r="X50" s="140"/>
       <c r="Y50" s="144"/>
       <c r="Z50" s="66"/>
@@ -4715,47 +4715,47 @@
       <c r="AE51" s="60"/>
     </row>
     <row r="52" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="212" t="s">
+      <c r="A52" s="224" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="239"/>
-      <c r="C52" s="239"/>
-      <c r="D52" s="239"/>
-      <c r="E52" s="212" t="s">
+      <c r="B52" s="225"/>
+      <c r="C52" s="225"/>
+      <c r="D52" s="225"/>
+      <c r="E52" s="224" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="239"/>
-      <c r="G52" s="212" t="s">
+      <c r="F52" s="225"/>
+      <c r="G52" s="224" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="239"/>
-      <c r="I52" s="212" t="s">
+      <c r="H52" s="225"/>
+      <c r="I52" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="J52" s="239"/>
-      <c r="K52" s="239"/>
-      <c r="L52" s="212" t="s">
+      <c r="J52" s="225"/>
+      <c r="K52" s="225"/>
+      <c r="L52" s="224" t="s">
         <v>109</v>
       </c>
-      <c r="M52" s="239"/>
-      <c r="N52" s="212" t="s">
+      <c r="M52" s="225"/>
+      <c r="N52" s="224" t="s">
         <v>110</v>
       </c>
-      <c r="O52" s="239"/>
-      <c r="P52" s="241" t="s">
+      <c r="O52" s="225"/>
+      <c r="P52" s="260" t="s">
         <v>151</v>
       </c>
-      <c r="Q52" s="242"/>
-      <c r="R52" s="242"/>
-      <c r="S52" s="243"/>
-      <c r="T52" s="244" t="s">
+      <c r="Q52" s="261"/>
+      <c r="R52" s="261"/>
+      <c r="S52" s="277"/>
+      <c r="T52" s="275" t="s">
         <v>152</v>
       </c>
-      <c r="U52" s="212" t="s">
+      <c r="U52" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="V52" s="239"/>
-      <c r="W52" s="212" t="s">
+      <c r="V52" s="225"/>
+      <c r="W52" s="224" t="s">
         <v>112</v>
       </c>
       <c r="X52" s="142"/>
@@ -4768,33 +4768,33 @@
       <c r="AE52" s="144"/>
     </row>
     <row r="53" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="213"/>
-      <c r="B53" s="224"/>
-      <c r="C53" s="224"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="213"/>
-      <c r="F53" s="224"/>
-      <c r="G53" s="213"/>
-      <c r="H53" s="224"/>
-      <c r="I53" s="213"/>
-      <c r="J53" s="224"/>
-      <c r="K53" s="224"/>
-      <c r="L53" s="213"/>
-      <c r="M53" s="224"/>
-      <c r="N53" s="213"/>
-      <c r="O53" s="224"/>
-      <c r="P53" s="212" t="s">
+      <c r="A53" s="242"/>
+      <c r="B53" s="209"/>
+      <c r="C53" s="209"/>
+      <c r="D53" s="209"/>
+      <c r="E53" s="242"/>
+      <c r="F53" s="209"/>
+      <c r="G53" s="242"/>
+      <c r="H53" s="209"/>
+      <c r="I53" s="242"/>
+      <c r="J53" s="209"/>
+      <c r="K53" s="209"/>
+      <c r="L53" s="242"/>
+      <c r="M53" s="209"/>
+      <c r="N53" s="242"/>
+      <c r="O53" s="209"/>
+      <c r="P53" s="224" t="s">
         <v>113</v>
       </c>
-      <c r="Q53" s="239"/>
-      <c r="R53" s="212" t="s">
+      <c r="Q53" s="225"/>
+      <c r="R53" s="224" t="s">
         <v>114</v>
       </c>
-      <c r="S53" s="240"/>
-      <c r="T53" s="245"/>
-      <c r="U53" s="213"/>
-      <c r="V53" s="224"/>
-      <c r="W53" s="213"/>
+      <c r="S53" s="226"/>
+      <c r="T53" s="278"/>
+      <c r="U53" s="242"/>
+      <c r="V53" s="209"/>
+      <c r="W53" s="242"/>
       <c r="X53" s="142"/>
       <c r="Y53" s="79"/>
       <c r="Z53" s="79"/>
@@ -4805,46 +4805,46 @@
       <c r="AE53" s="79"/>
     </row>
     <row r="54" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="213"/>
-      <c r="B54" s="224"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="224"/>
-      <c r="E54" s="212">
+      <c r="A54" s="242"/>
+      <c r="B54" s="209"/>
+      <c r="C54" s="209"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="224">
         <v>33</v>
       </c>
-      <c r="F54" s="239"/>
-      <c r="G54" s="212">
+      <c r="F54" s="225"/>
+      <c r="G54" s="224">
         <v>34</v>
       </c>
-      <c r="H54" s="239"/>
-      <c r="I54" s="212">
+      <c r="H54" s="225"/>
+      <c r="I54" s="224">
         <v>35</v>
       </c>
-      <c r="J54" s="239"/>
-      <c r="K54" s="239"/>
-      <c r="L54" s="212">
+      <c r="J54" s="225"/>
+      <c r="K54" s="225"/>
+      <c r="L54" s="224">
         <v>36</v>
       </c>
-      <c r="M54" s="239"/>
-      <c r="N54" s="212">
+      <c r="M54" s="225"/>
+      <c r="N54" s="224">
         <v>37</v>
       </c>
-      <c r="O54" s="239"/>
-      <c r="P54" s="212">
+      <c r="O54" s="225"/>
+      <c r="P54" s="224">
         <v>38</v>
       </c>
-      <c r="Q54" s="239"/>
-      <c r="R54" s="212">
+      <c r="Q54" s="225"/>
+      <c r="R54" s="224">
         <v>39</v>
       </c>
-      <c r="S54" s="239"/>
+      <c r="S54" s="225"/>
       <c r="T54" s="161">
         <v>40</v>
       </c>
-      <c r="U54" s="212">
+      <c r="U54" s="224">
         <v>41</v>
       </c>
-      <c r="V54" s="239"/>
+      <c r="V54" s="225"/>
       <c r="W54" s="158">
         <v>42</v>
       </c>
@@ -4858,30 +4858,30 @@
       <c r="AE54" s="160"/>
     </row>
     <row r="55" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="235" t="s">
+      <c r="A55" s="281" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="236"/>
-      <c r="C55" s="236"/>
-      <c r="D55" s="237"/>
-      <c r="E55" s="232"/>
-      <c r="F55" s="232"/>
-      <c r="G55" s="232"/>
-      <c r="H55" s="232"/>
-      <c r="I55" s="232"/>
-      <c r="J55" s="232"/>
-      <c r="K55" s="232"/>
-      <c r="L55" s="232"/>
-      <c r="M55" s="232"/>
-      <c r="N55" s="232"/>
-      <c r="O55" s="232"/>
-      <c r="P55" s="232"/>
-      <c r="Q55" s="232"/>
-      <c r="R55" s="232"/>
-      <c r="S55" s="232"/>
+      <c r="B55" s="282"/>
+      <c r="C55" s="282"/>
+      <c r="D55" s="283"/>
+      <c r="E55" s="268"/>
+      <c r="F55" s="268"/>
+      <c r="G55" s="268"/>
+      <c r="H55" s="268"/>
+      <c r="I55" s="268"/>
+      <c r="J55" s="268"/>
+      <c r="K55" s="268"/>
+      <c r="L55" s="268"/>
+      <c r="M55" s="268"/>
+      <c r="N55" s="268"/>
+      <c r="O55" s="268"/>
+      <c r="P55" s="268"/>
+      <c r="Q55" s="268"/>
+      <c r="R55" s="268"/>
+      <c r="S55" s="268"/>
       <c r="T55" s="159"/>
-      <c r="U55" s="232"/>
-      <c r="V55" s="232"/>
+      <c r="U55" s="268"/>
+      <c r="V55" s="268"/>
       <c r="W55" s="159"/>
       <c r="X55" s="140"/>
       <c r="Y55" s="74"/>
@@ -4893,35 +4893,35 @@
       <c r="AE55" s="74"/>
     </row>
     <row r="56" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="235" t="s">
+      <c r="A56" s="281" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="236"/>
-      <c r="C56" s="236"/>
-      <c r="D56" s="237"/>
-      <c r="E56" s="232"/>
-      <c r="F56" s="232"/>
-      <c r="G56" s="232"/>
-      <c r="H56" s="232"/>
-      <c r="I56" s="232"/>
-      <c r="J56" s="232"/>
-      <c r="K56" s="232"/>
-      <c r="L56" s="232"/>
-      <c r="M56" s="232"/>
-      <c r="N56" s="232"/>
-      <c r="O56" s="232"/>
-      <c r="P56" s="232"/>
-      <c r="Q56" s="232"/>
-      <c r="R56" s="232"/>
-      <c r="S56" s="232"/>
+      <c r="B56" s="282"/>
+      <c r="C56" s="282"/>
+      <c r="D56" s="283"/>
+      <c r="E56" s="268"/>
+      <c r="F56" s="268"/>
+      <c r="G56" s="268"/>
+      <c r="H56" s="268"/>
+      <c r="I56" s="268"/>
+      <c r="J56" s="268"/>
+      <c r="K56" s="268"/>
+      <c r="L56" s="268"/>
+      <c r="M56" s="268"/>
+      <c r="N56" s="268"/>
+      <c r="O56" s="268"/>
+      <c r="P56" s="268"/>
+      <c r="Q56" s="268"/>
+      <c r="R56" s="268"/>
+      <c r="S56" s="268"/>
       <c r="T56" s="159"/>
-      <c r="U56" s="232"/>
-      <c r="V56" s="232"/>
+      <c r="U56" s="268"/>
+      <c r="V56" s="268"/>
       <c r="W56" s="159"/>
-      <c r="X56" s="238" t="s">
+      <c r="X56" s="279" t="s">
         <v>117</v>
       </c>
-      <c r="Y56" s="227"/>
+      <c r="Y56" s="280"/>
       <c r="Z56" s="164"/>
       <c r="AA56" s="164"/>
       <c r="AB56" s="164"/>
@@ -4930,43 +4930,43 @@
       <c r="AE56" s="164"/>
     </row>
     <row r="57" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="235" t="s">
+      <c r="A57" s="281" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="236"/>
-      <c r="C57" s="236"/>
-      <c r="D57" s="237"/>
-      <c r="E57" s="232"/>
-      <c r="F57" s="232"/>
-      <c r="G57" s="232"/>
-      <c r="H57" s="232"/>
-      <c r="I57" s="232"/>
-      <c r="J57" s="232"/>
-      <c r="K57" s="232"/>
-      <c r="L57" s="232"/>
-      <c r="M57" s="232"/>
-      <c r="N57" s="232"/>
-      <c r="O57" s="232"/>
-      <c r="P57" s="232"/>
-      <c r="Q57" s="232"/>
-      <c r="R57" s="232"/>
-      <c r="S57" s="232"/>
+      <c r="B57" s="282"/>
+      <c r="C57" s="282"/>
+      <c r="D57" s="283"/>
+      <c r="E57" s="268"/>
+      <c r="F57" s="268"/>
+      <c r="G57" s="268"/>
+      <c r="H57" s="268"/>
+      <c r="I57" s="268"/>
+      <c r="J57" s="268"/>
+      <c r="K57" s="268"/>
+      <c r="L57" s="268"/>
+      <c r="M57" s="268"/>
+      <c r="N57" s="268"/>
+      <c r="O57" s="268"/>
+      <c r="P57" s="268"/>
+      <c r="Q57" s="268"/>
+      <c r="R57" s="268"/>
+      <c r="S57" s="268"/>
       <c r="T57" s="159"/>
-      <c r="U57" s="232"/>
-      <c r="V57" s="232"/>
+      <c r="U57" s="268"/>
+      <c r="V57" s="268"/>
       <c r="W57" s="159"/>
       <c r="X57" s="165"/>
       <c r="Y57" s="166"/>
-      <c r="Z57" s="233" t="s">
+      <c r="Z57" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="AA57" s="233"/>
-      <c r="AB57" s="233" t="s">
+      <c r="AA57" s="220"/>
+      <c r="AB57" s="220" t="s">
         <v>119</v>
       </c>
-      <c r="AC57" s="233"/>
-      <c r="AD57" s="233"/>
-      <c r="AE57" s="233"/>
+      <c r="AC57" s="220"/>
+      <c r="AD57" s="220"/>
+      <c r="AE57" s="220"/>
     </row>
     <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94"/>
@@ -4986,14 +4986,14 @@
       <c r="O58" s="97"/>
       <c r="P58" s="97"/>
       <c r="Q58" s="97"/>
-      <c r="R58" s="234"/>
-      <c r="S58" s="234"/>
-      <c r="T58" s="234"/>
-      <c r="U58" s="234"/>
-      <c r="V58" s="234"/>
-      <c r="W58" s="234"/>
-      <c r="X58" s="234"/>
-      <c r="Y58" s="234"/>
+      <c r="R58" s="287"/>
+      <c r="S58" s="287"/>
+      <c r="T58" s="287"/>
+      <c r="U58" s="287"/>
+      <c r="V58" s="287"/>
+      <c r="W58" s="287"/>
+      <c r="X58" s="287"/>
+      <c r="Y58" s="287"/>
       <c r="Z58" s="167"/>
       <c r="AA58" s="167"/>
       <c r="AB58" s="60"/>
@@ -5022,15 +5022,15 @@
       <c r="R59" s="168"/>
       <c r="S59" s="60"/>
       <c r="T59" s="60"/>
-      <c r="U59" s="230" t="s">
+      <c r="U59" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="V59" s="231"/>
-      <c r="W59" s="231"/>
-      <c r="X59" s="231"/>
-      <c r="Y59" s="231"/>
-      <c r="Z59" s="231"/>
-      <c r="AA59" s="231"/>
+      <c r="V59" s="285"/>
+      <c r="W59" s="285"/>
+      <c r="X59" s="285"/>
+      <c r="Y59" s="285"/>
+      <c r="Z59" s="285"/>
+      <c r="AA59" s="285"/>
       <c r="AB59" s="169"/>
       <c r="AC59" s="169"/>
       <c r="AD59" s="169"/>
@@ -5057,18 +5057,18 @@
       <c r="R60" s="168"/>
       <c r="S60" s="60"/>
       <c r="T60" s="60"/>
-      <c r="U60" s="230" t="s">
+      <c r="U60" s="284" t="s">
         <v>121</v>
       </c>
-      <c r="V60" s="231"/>
-      <c r="W60" s="231"/>
-      <c r="X60" s="231"/>
-      <c r="Y60" s="231"/>
-      <c r="Z60" s="231"/>
-      <c r="AA60" s="231"/>
-      <c r="AB60" s="231"/>
-      <c r="AC60" s="231"/>
-      <c r="AD60" s="231"/>
+      <c r="V60" s="285"/>
+      <c r="W60" s="285"/>
+      <c r="X60" s="285"/>
+      <c r="Y60" s="285"/>
+      <c r="Z60" s="285"/>
+      <c r="AA60" s="285"/>
+      <c r="AB60" s="285"/>
+      <c r="AC60" s="285"/>
+      <c r="AD60" s="285"/>
       <c r="AE60" s="60"/>
     </row>
     <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5092,18 +5092,18 @@
       <c r="R61" s="60"/>
       <c r="S61" s="60"/>
       <c r="T61" s="60"/>
-      <c r="U61" s="230" t="s">
+      <c r="U61" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="V61" s="231"/>
-      <c r="W61" s="231"/>
-      <c r="X61" s="231"/>
-      <c r="Y61" s="231"/>
-      <c r="Z61" s="231"/>
-      <c r="AA61" s="231"/>
-      <c r="AB61" s="231"/>
-      <c r="AC61" s="231"/>
-      <c r="AD61" s="231"/>
+      <c r="V61" s="285"/>
+      <c r="W61" s="285"/>
+      <c r="X61" s="285"/>
+      <c r="Y61" s="285"/>
+      <c r="Z61" s="285"/>
+      <c r="AA61" s="285"/>
+      <c r="AB61" s="285"/>
+      <c r="AC61" s="285"/>
+      <c r="AD61" s="285"/>
       <c r="AE61" s="60"/>
     </row>
     <row r="62" spans="1:32" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5199,11 +5199,11 @@
       <c r="U64" s="169"/>
       <c r="V64" s="169"/>
       <c r="W64" s="169"/>
-      <c r="X64" s="215" t="s">
+      <c r="X64" s="286" t="s">
         <v>123</v>
       </c>
-      <c r="Y64" s="215"/>
-      <c r="Z64" s="215"/>
+      <c r="Y64" s="286"/>
+      <c r="Z64" s="286"/>
       <c r="AA64" s="169"/>
       <c r="AB64" s="174"/>
       <c r="AC64" s="175" t="s">
@@ -5215,33 +5215,33 @@
     </row>
     <row r="65" spans="1:32" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="178"/>
-      <c r="B65" s="223" t="s">
+      <c r="B65" s="294" t="s">
         <v>183</v>
       </c>
-      <c r="C65" s="223"/>
-      <c r="D65" s="223"/>
-      <c r="E65" s="223"/>
-      <c r="F65" s="223"/>
-      <c r="G65" s="223"/>
-      <c r="H65" s="223"/>
-      <c r="I65" s="223"/>
-      <c r="J65" s="223"/>
-      <c r="K65" s="223"/>
-      <c r="L65" s="223"/>
-      <c r="M65" s="223"/>
-      <c r="N65" s="223"/>
-      <c r="O65" s="223"/>
-      <c r="P65" s="223"/>
-      <c r="Q65" s="223"/>
-      <c r="R65" s="223"/>
-      <c r="S65" s="223"/>
-      <c r="T65" s="223"/>
-      <c r="U65" s="223"/>
-      <c r="V65" s="223"/>
-      <c r="W65" s="223"/>
-      <c r="X65" s="223"/>
-      <c r="Y65" s="223"/>
-      <c r="Z65" s="223"/>
+      <c r="C65" s="294"/>
+      <c r="D65" s="294"/>
+      <c r="E65" s="294"/>
+      <c r="F65" s="294"/>
+      <c r="G65" s="294"/>
+      <c r="H65" s="294"/>
+      <c r="I65" s="294"/>
+      <c r="J65" s="294"/>
+      <c r="K65" s="294"/>
+      <c r="L65" s="294"/>
+      <c r="M65" s="294"/>
+      <c r="N65" s="294"/>
+      <c r="O65" s="294"/>
+      <c r="P65" s="294"/>
+      <c r="Q65" s="294"/>
+      <c r="R65" s="294"/>
+      <c r="S65" s="294"/>
+      <c r="T65" s="294"/>
+      <c r="U65" s="294"/>
+      <c r="V65" s="294"/>
+      <c r="W65" s="294"/>
+      <c r="X65" s="294"/>
+      <c r="Y65" s="294"/>
+      <c r="Z65" s="294"/>
       <c r="AA65" s="60"/>
       <c r="AB65" s="179"/>
       <c r="AC65" s="180"/>
@@ -5268,18 +5268,18 @@
       <c r="P66" s="60"/>
       <c r="Q66" s="60"/>
       <c r="R66" s="60"/>
-      <c r="S66" s="224"/>
-      <c r="T66" s="224"/>
+      <c r="S66" s="209"/>
+      <c r="T66" s="209"/>
       <c r="U66" s="60"/>
       <c r="V66" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="W66" s="225" t="s">
+      <c r="W66" s="295" t="s">
         <v>125</v>
       </c>
-      <c r="X66" s="226"/>
-      <c r="Y66" s="226"/>
-      <c r="Z66" s="226"/>
+      <c r="X66" s="296"/>
+      <c r="Y66" s="296"/>
+      <c r="Z66" s="296"/>
       <c r="AA66" s="60"/>
       <c r="AB66" s="183"/>
       <c r="AC66" s="184"/>
@@ -5310,10 +5310,10 @@
       <c r="T67" s="60"/>
       <c r="U67" s="60"/>
       <c r="V67" s="60"/>
-      <c r="W67" s="226"/>
-      <c r="X67" s="226"/>
-      <c r="Y67" s="226"/>
-      <c r="Z67" s="226"/>
+      <c r="W67" s="296"/>
+      <c r="X67" s="296"/>
+      <c r="Y67" s="296"/>
+      <c r="Z67" s="296"/>
       <c r="AA67" s="60"/>
       <c r="AB67" s="187"/>
       <c r="AC67" s="188"/>
@@ -5322,38 +5322,38 @@
       <c r="AF67" s="71"/>
     </row>
     <row r="68" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="214" t="s">
+      <c r="A68" s="289" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="214"/>
-      <c r="C68" s="214"/>
-      <c r="D68" s="214"/>
-      <c r="E68" s="218" t="s">
+      <c r="B68" s="289"/>
+      <c r="C68" s="289"/>
+      <c r="D68" s="289"/>
+      <c r="E68" s="288" t="s">
         <v>185</v>
       </c>
-      <c r="F68" s="227"/>
-      <c r="G68" s="227"/>
-      <c r="H68" s="227"/>
-      <c r="I68" s="227"/>
-      <c r="J68" s="227"/>
-      <c r="K68" s="227"/>
-      <c r="L68" s="227"/>
-      <c r="M68" s="227"/>
-      <c r="N68" s="227"/>
-      <c r="O68" s="227"/>
-      <c r="P68" s="227"/>
-      <c r="Q68" s="227"/>
-      <c r="R68" s="227"/>
-      <c r="S68" s="228"/>
-      <c r="T68" s="228"/>
-      <c r="U68" s="228"/>
-      <c r="V68" s="228"/>
-      <c r="W68" s="227"/>
-      <c r="X68" s="229"/>
-      <c r="Y68" s="215" t="s">
+      <c r="F68" s="280"/>
+      <c r="G68" s="280"/>
+      <c r="H68" s="280"/>
+      <c r="I68" s="280"/>
+      <c r="J68" s="280"/>
+      <c r="K68" s="280"/>
+      <c r="L68" s="280"/>
+      <c r="M68" s="280"/>
+      <c r="N68" s="280"/>
+      <c r="O68" s="280"/>
+      <c r="P68" s="280"/>
+      <c r="Q68" s="280"/>
+      <c r="R68" s="280"/>
+      <c r="S68" s="297"/>
+      <c r="T68" s="297"/>
+      <c r="U68" s="297"/>
+      <c r="V68" s="297"/>
+      <c r="W68" s="280"/>
+      <c r="X68" s="298"/>
+      <c r="Y68" s="286" t="s">
         <v>127</v>
       </c>
-      <c r="Z68" s="215"/>
+      <c r="Z68" s="286"/>
       <c r="AA68" s="60"/>
       <c r="AB68" s="183"/>
       <c r="AC68" s="185"/>
@@ -5362,10 +5362,10 @@
       <c r="AF68" s="71"/>
     </row>
     <row r="69" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="218"/>
-      <c r="B69" s="218"/>
-      <c r="C69" s="218"/>
-      <c r="D69" s="218"/>
+      <c r="A69" s="288"/>
+      <c r="B69" s="288"/>
+      <c r="C69" s="288"/>
+      <c r="D69" s="288"/>
       <c r="E69" s="190"/>
       <c r="F69" s="94"/>
       <c r="G69" s="94"/>
@@ -5398,36 +5398,36 @@
       <c r="AF69" s="71"/>
     </row>
     <row r="70" spans="1:32" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="214" t="s">
+      <c r="A70" s="289" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="214"/>
-      <c r="C70" s="214"/>
-      <c r="D70" s="214"/>
-      <c r="E70" s="219"/>
-      <c r="F70" s="220"/>
-      <c r="G70" s="220"/>
-      <c r="H70" s="220"/>
-      <c r="I70" s="220"/>
-      <c r="J70" s="220"/>
-      <c r="K70" s="221"/>
-      <c r="L70" s="221"/>
-      <c r="M70" s="221"/>
-      <c r="N70" s="221"/>
-      <c r="O70" s="221"/>
-      <c r="P70" s="221"/>
-      <c r="Q70" s="221"/>
-      <c r="R70" s="221"/>
-      <c r="S70" s="221"/>
-      <c r="T70" s="221"/>
-      <c r="U70" s="220"/>
-      <c r="V70" s="220"/>
-      <c r="W70" s="222"/>
-      <c r="X70" s="222"/>
-      <c r="Y70" s="215" t="s">
+      <c r="B70" s="289"/>
+      <c r="C70" s="289"/>
+      <c r="D70" s="289"/>
+      <c r="E70" s="290"/>
+      <c r="F70" s="291"/>
+      <c r="G70" s="291"/>
+      <c r="H70" s="291"/>
+      <c r="I70" s="291"/>
+      <c r="J70" s="291"/>
+      <c r="K70" s="292"/>
+      <c r="L70" s="292"/>
+      <c r="M70" s="292"/>
+      <c r="N70" s="292"/>
+      <c r="O70" s="292"/>
+      <c r="P70" s="292"/>
+      <c r="Q70" s="292"/>
+      <c r="R70" s="292"/>
+      <c r="S70" s="292"/>
+      <c r="T70" s="292"/>
+      <c r="U70" s="291"/>
+      <c r="V70" s="291"/>
+      <c r="W70" s="293"/>
+      <c r="X70" s="293"/>
+      <c r="Y70" s="286" t="s">
         <v>127</v>
       </c>
-      <c r="Z70" s="215"/>
+      <c r="Z70" s="286"/>
       <c r="AA70" s="60"/>
       <c r="AB70" s="183"/>
       <c r="AC70" s="185"/>
@@ -5462,8 +5462,8 @@
       <c r="V71" s="94"/>
       <c r="W71" s="193"/>
       <c r="X71" s="193"/>
-      <c r="Y71" s="215"/>
-      <c r="Z71" s="215"/>
+      <c r="Y71" s="286"/>
+      <c r="Z71" s="286"/>
       <c r="AA71" s="60"/>
       <c r="AB71" s="187"/>
       <c r="AC71" s="188"/>
@@ -5472,36 +5472,36 @@
       <c r="AF71" s="71"/>
     </row>
     <row r="72" spans="1:32" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="214" t="s">
+      <c r="A72" s="289" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="214"/>
-      <c r="C72" s="214"/>
+      <c r="B72" s="289"/>
+      <c r="C72" s="289"/>
       <c r="D72" s="197"/>
-      <c r="E72" s="216"/>
-      <c r="F72" s="216"/>
-      <c r="G72" s="216"/>
-      <c r="H72" s="216"/>
-      <c r="I72" s="216"/>
-      <c r="J72" s="216"/>
-      <c r="K72" s="216"/>
-      <c r="L72" s="216"/>
-      <c r="M72" s="216"/>
-      <c r="N72" s="216"/>
-      <c r="O72" s="216"/>
-      <c r="P72" s="216"/>
-      <c r="Q72" s="216"/>
-      <c r="R72" s="216"/>
-      <c r="S72" s="216"/>
-      <c r="T72" s="216"/>
-      <c r="U72" s="216"/>
-      <c r="V72" s="216"/>
-      <c r="W72" s="216"/>
-      <c r="X72" s="216"/>
-      <c r="Y72" s="215" t="s">
+      <c r="E72" s="303"/>
+      <c r="F72" s="303"/>
+      <c r="G72" s="303"/>
+      <c r="H72" s="303"/>
+      <c r="I72" s="303"/>
+      <c r="J72" s="303"/>
+      <c r="K72" s="303"/>
+      <c r="L72" s="303"/>
+      <c r="M72" s="303"/>
+      <c r="N72" s="303"/>
+      <c r="O72" s="303"/>
+      <c r="P72" s="303"/>
+      <c r="Q72" s="303"/>
+      <c r="R72" s="303"/>
+      <c r="S72" s="303"/>
+      <c r="T72" s="303"/>
+      <c r="U72" s="303"/>
+      <c r="V72" s="303"/>
+      <c r="W72" s="303"/>
+      <c r="X72" s="303"/>
+      <c r="Y72" s="286" t="s">
         <v>127</v>
       </c>
-      <c r="Z72" s="215"/>
+      <c r="Z72" s="286"/>
       <c r="AA72" s="60"/>
       <c r="AB72" s="198"/>
       <c r="AC72" s="199"/>
@@ -5545,231 +5545,410 @@
       <c r="AE73" s="126"/>
     </row>
     <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="217" t="s">
+      <c r="A74" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="217"/>
-      <c r="C74" s="217"/>
-      <c r="D74" s="217"/>
-      <c r="E74" s="217"/>
-      <c r="F74" s="217"/>
-      <c r="G74" s="217"/>
-      <c r="H74" s="217"/>
-      <c r="I74" s="217"/>
-      <c r="J74" s="217"/>
-      <c r="K74" s="217"/>
-      <c r="L74" s="217"/>
-      <c r="M74" s="217"/>
-      <c r="N74" s="217"/>
-      <c r="O74" s="217"/>
-      <c r="P74" s="217"/>
-      <c r="Q74" s="217"/>
-      <c r="R74" s="217"/>
-      <c r="S74" s="217"/>
-      <c r="T74" s="217"/>
-      <c r="U74" s="217"/>
-      <c r="V74" s="217"/>
-      <c r="W74" s="217"/>
-      <c r="X74" s="217"/>
-      <c r="Y74" s="217"/>
-      <c r="Z74" s="217"/>
-      <c r="AA74" s="217"/>
-      <c r="AB74" s="217"/>
-      <c r="AC74" s="217"/>
-      <c r="AD74" s="217"/>
-      <c r="AE74" s="217"/>
+      <c r="B74" s="205"/>
+      <c r="C74" s="205"/>
+      <c r="D74" s="205"/>
+      <c r="E74" s="205"/>
+      <c r="F74" s="205"/>
+      <c r="G74" s="205"/>
+      <c r="H74" s="205"/>
+      <c r="I74" s="205"/>
+      <c r="J74" s="205"/>
+      <c r="K74" s="205"/>
+      <c r="L74" s="205"/>
+      <c r="M74" s="205"/>
+      <c r="N74" s="205"/>
+      <c r="O74" s="205"/>
+      <c r="P74" s="205"/>
+      <c r="Q74" s="205"/>
+      <c r="R74" s="205"/>
+      <c r="S74" s="205"/>
+      <c r="T74" s="205"/>
+      <c r="U74" s="205"/>
+      <c r="V74" s="205"/>
+      <c r="W74" s="205"/>
+      <c r="X74" s="205"/>
+      <c r="Y74" s="205"/>
+      <c r="Z74" s="205"/>
+      <c r="AA74" s="205"/>
+      <c r="AB74" s="205"/>
+      <c r="AC74" s="205"/>
+      <c r="AD74" s="205"/>
+      <c r="AE74" s="205"/>
     </row>
     <row r="75" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="212" t="s">
+      <c r="A75" s="224" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="206" t="s">
+      <c r="B75" s="299" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="207"/>
-      <c r="D75" s="207"/>
-      <c r="E75" s="207"/>
-      <c r="F75" s="206" t="s">
+      <c r="C75" s="300"/>
+      <c r="D75" s="300"/>
+      <c r="E75" s="300"/>
+      <c r="F75" s="299" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="207"/>
-      <c r="H75" s="207"/>
-      <c r="I75" s="207"/>
-      <c r="J75" s="206" t="s">
+      <c r="G75" s="300"/>
+      <c r="H75" s="300"/>
+      <c r="I75" s="300"/>
+      <c r="J75" s="299" t="s">
         <v>50</v>
       </c>
-      <c r="K75" s="207"/>
-      <c r="L75" s="206" t="s">
+      <c r="K75" s="300"/>
+      <c r="L75" s="299" t="s">
         <v>135</v>
       </c>
-      <c r="M75" s="207"/>
-      <c r="N75" s="206" t="s">
+      <c r="M75" s="300"/>
+      <c r="N75" s="299" t="s">
         <v>136</v>
       </c>
-      <c r="O75" s="207"/>
-      <c r="P75" s="207"/>
-      <c r="Q75" s="207"/>
-      <c r="R75" s="207"/>
-      <c r="S75" s="207"/>
+      <c r="O75" s="300"/>
+      <c r="P75" s="300"/>
+      <c r="Q75" s="300"/>
+      <c r="R75" s="300"/>
+      <c r="S75" s="300"/>
       <c r="T75" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="U75" s="206" t="s">
+      <c r="U75" s="299" t="s">
         <v>138</v>
       </c>
-      <c r="V75" s="207"/>
-      <c r="W75" s="206" t="s">
+      <c r="V75" s="300"/>
+      <c r="W75" s="299" t="s">
         <v>48</v>
       </c>
-      <c r="X75" s="207"/>
-      <c r="Y75" s="206" t="s">
+      <c r="X75" s="300"/>
+      <c r="Y75" s="299" t="s">
         <v>139</v>
       </c>
-      <c r="Z75" s="207"/>
-      <c r="AA75" s="206" t="s">
+      <c r="Z75" s="300"/>
+      <c r="AA75" s="299" t="s">
         <v>140</v>
       </c>
-      <c r="AB75" s="207"/>
-      <c r="AC75" s="207"/>
-      <c r="AD75" s="206" t="s">
+      <c r="AB75" s="300"/>
+      <c r="AC75" s="300"/>
+      <c r="AD75" s="299" t="s">
         <v>141</v>
       </c>
-      <c r="AE75" s="207"/>
+      <c r="AE75" s="300"/>
       <c r="AF75" s="127"/>
     </row>
     <row r="76" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="213"/>
-      <c r="B76" s="208"/>
-      <c r="C76" s="209"/>
-      <c r="D76" s="209"/>
-      <c r="E76" s="209"/>
-      <c r="F76" s="208"/>
-      <c r="G76" s="209"/>
-      <c r="H76" s="209"/>
-      <c r="I76" s="209"/>
-      <c r="J76" s="208"/>
-      <c r="K76" s="209"/>
-      <c r="L76" s="206" t="s">
+      <c r="A76" s="242"/>
+      <c r="B76" s="301"/>
+      <c r="C76" s="302"/>
+      <c r="D76" s="302"/>
+      <c r="E76" s="302"/>
+      <c r="F76" s="301"/>
+      <c r="G76" s="302"/>
+      <c r="H76" s="302"/>
+      <c r="I76" s="302"/>
+      <c r="J76" s="301"/>
+      <c r="K76" s="302"/>
+      <c r="L76" s="299" t="s">
         <v>142</v>
       </c>
-      <c r="M76" s="207"/>
-      <c r="N76" s="206"/>
-      <c r="O76" s="207"/>
-      <c r="P76" s="207"/>
-      <c r="Q76" s="207"/>
-      <c r="R76" s="207"/>
-      <c r="S76" s="207"/>
+      <c r="M76" s="300"/>
+      <c r="N76" s="299"/>
+      <c r="O76" s="300"/>
+      <c r="P76" s="300"/>
+      <c r="Q76" s="300"/>
+      <c r="R76" s="300"/>
+      <c r="S76" s="300"/>
       <c r="T76" s="202" t="s">
         <v>143</v>
       </c>
-      <c r="U76" s="206" t="s">
+      <c r="U76" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="V76" s="207"/>
-      <c r="W76" s="206" t="s">
+      <c r="V76" s="300"/>
+      <c r="W76" s="299" t="s">
         <v>52</v>
       </c>
-      <c r="X76" s="207"/>
-      <c r="Y76" s="206" t="s">
+      <c r="X76" s="300"/>
+      <c r="Y76" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="Z76" s="207"/>
-      <c r="AA76" s="206" t="s">
+      <c r="Z76" s="300"/>
+      <c r="AA76" s="299" t="s">
         <v>146</v>
       </c>
-      <c r="AB76" s="207"/>
-      <c r="AC76" s="210"/>
-      <c r="AD76" s="208"/>
-      <c r="AE76" s="209"/>
+      <c r="AB76" s="300"/>
+      <c r="AC76" s="306"/>
+      <c r="AD76" s="301"/>
+      <c r="AE76" s="302"/>
       <c r="AF76" s="127"/>
     </row>
     <row r="77" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="203">
         <v>1</v>
       </c>
-      <c r="B77" s="204">
+      <c r="B77" s="304">
         <v>2</v>
       </c>
-      <c r="C77" s="205"/>
-      <c r="D77" s="205"/>
-      <c r="E77" s="205"/>
-      <c r="F77" s="204">
+      <c r="C77" s="305"/>
+      <c r="D77" s="305"/>
+      <c r="E77" s="305"/>
+      <c r="F77" s="304">
         <v>3</v>
       </c>
-      <c r="G77" s="205"/>
-      <c r="H77" s="205"/>
-      <c r="I77" s="205"/>
-      <c r="J77" s="204">
+      <c r="G77" s="305"/>
+      <c r="H77" s="305"/>
+      <c r="I77" s="305"/>
+      <c r="J77" s="304">
         <v>4</v>
       </c>
-      <c r="K77" s="205"/>
-      <c r="L77" s="204">
+      <c r="K77" s="305"/>
+      <c r="L77" s="304">
         <v>5</v>
       </c>
-      <c r="M77" s="205"/>
-      <c r="N77" s="204">
+      <c r="M77" s="305"/>
+      <c r="N77" s="304">
         <v>6</v>
       </c>
-      <c r="O77" s="205"/>
-      <c r="P77" s="205"/>
-      <c r="Q77" s="205"/>
-      <c r="R77" s="205"/>
-      <c r="S77" s="205"/>
+      <c r="O77" s="305"/>
+      <c r="P77" s="305"/>
+      <c r="Q77" s="305"/>
+      <c r="R77" s="305"/>
+      <c r="S77" s="305"/>
       <c r="T77" s="203">
         <v>7</v>
       </c>
-      <c r="U77" s="204">
+      <c r="U77" s="304">
         <v>8</v>
       </c>
-      <c r="V77" s="205"/>
-      <c r="W77" s="204">
+      <c r="V77" s="305"/>
+      <c r="W77" s="304">
         <v>9</v>
       </c>
-      <c r="X77" s="205"/>
-      <c r="Y77" s="204">
+      <c r="X77" s="305"/>
+      <c r="Y77" s="304">
         <v>10</v>
       </c>
-      <c r="Z77" s="205"/>
-      <c r="AA77" s="204">
+      <c r="Z77" s="305"/>
+      <c r="AA77" s="304">
         <v>11</v>
       </c>
-      <c r="AB77" s="205"/>
-      <c r="AC77" s="205"/>
-      <c r="AD77" s="204">
+      <c r="AB77" s="305"/>
+      <c r="AC77" s="305"/>
+      <c r="AD77" s="304">
         <v>12</v>
       </c>
-      <c r="AE77" s="211"/>
+      <c r="AE77" s="307"/>
       <c r="AF77" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="B5:AA5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:V11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:AB9"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="AA75:AC75"/>
+    <mergeCell ref="AD75:AE76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="AA77:AC77"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:E76"/>
+    <mergeCell ref="F75:I76"/>
+    <mergeCell ref="J75:K76"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:S76"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="E72:X72"/>
+    <mergeCell ref="A74:AE74"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:X70"/>
+    <mergeCell ref="Y70:Z71"/>
+    <mergeCell ref="B65:Z65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="W66:Z67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="U60:AD60"/>
+    <mergeCell ref="U61:AD61"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AE57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:V53"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="A45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:U48"/>
+    <mergeCell ref="V47:W48"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="L39:P40"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AB40"/>
+    <mergeCell ref="AC39:AE40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J32:L33"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="W26:AB27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
     <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:Y23"/>
@@ -5793,216 +5972,37 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="W26:AB27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J32:L33"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:K40"/>
-    <mergeCell ref="L39:P40"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="Z39:AB40"/>
-    <mergeCell ref="AC39:AE40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="A45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:U48"/>
-    <mergeCell ref="V47:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:K53"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:V53"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="U60:AD60"/>
-    <mergeCell ref="U61:AD61"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AE57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:X70"/>
-    <mergeCell ref="Y70:Z71"/>
-    <mergeCell ref="B65:Z65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="W66:Z67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:E76"/>
-    <mergeCell ref="F75:I76"/>
-    <mergeCell ref="J75:K76"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:S76"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="E72:X72"/>
-    <mergeCell ref="A74:AE74"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:S77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="AA75:AC75"/>
-    <mergeCell ref="AD75:AE76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="W77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="AA77:AC77"/>
-    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="B5:AA5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:V11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:AB9"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="58" max="16383" man="1"/>
@@ -6040,56 +6040,56 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="332" t="s">
+      <c r="T1" s="311" t="s">
         <v>154</v>
       </c>
-      <c r="U1" s="332"/>
-      <c r="V1" s="332"/>
-      <c r="W1" s="332"/>
-      <c r="X1" s="332"/>
+      <c r="U1" s="311"/>
+      <c r="V1" s="311"/>
+      <c r="W1" s="311"/>
+      <c r="X1" s="311"/>
       <c r="Y1" s="46" t="s">
         <v>160</v>
       </c>
       <c r="Z1" s="47"/>
-      <c r="AA1" s="338"/>
-      <c r="AB1" s="339"/>
-      <c r="AC1" s="340"/>
+      <c r="AA1" s="319"/>
+      <c r="AB1" s="320"/>
+      <c r="AC1" s="321"/>
       <c r="AD1" s="56"/>
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="312" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328"/>
-      <c r="N2" s="328"/>
-      <c r="O2" s="328"/>
-      <c r="P2" s="328"/>
-      <c r="Q2" s="328"/>
-      <c r="R2" s="328"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="312"/>
+      <c r="Q2" s="312"/>
+      <c r="R2" s="312"/>
       <c r="S2" s="2">
         <v>1</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="U2" s="333" t="s">
+      <c r="U2" s="313" t="s">
         <v>157</v>
       </c>
-      <c r="V2" s="333"/>
-      <c r="W2" s="328"/>
-      <c r="X2" s="328"/>
+      <c r="V2" s="313"/>
+      <c r="W2" s="312"/>
+      <c r="X2" s="312"/>
       <c r="Y2" s="49"/>
       <c r="Z2" s="50"/>
       <c r="AA2" s="55"/>
@@ -6099,10 +6099,10 @@
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="334" t="s">
+      <c r="A3" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="334"/>
+      <c r="B3" s="314"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -6120,13 +6120,13 @@
       <c r="Q3" s="44"/>
       <c r="R3" s="44"/>
       <c r="S3" s="45"/>
-      <c r="T3" s="333" t="s">
+      <c r="T3" s="313" t="s">
         <v>159</v>
       </c>
-      <c r="U3" s="333"/>
-      <c r="V3" s="333"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
+      <c r="U3" s="313"/>
+      <c r="V3" s="313"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="53"/>
       <c r="AA3" s="51"/>
@@ -6153,38 +6153,38 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="335"/>
-      <c r="S4" s="335"/>
+      <c r="R4" s="316"/>
+      <c r="S4" s="316"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="336"/>
-      <c r="Z4" s="336"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="330"/>
-      <c r="AC4" s="330"/>
+      <c r="Y4" s="317"/>
+      <c r="Z4" s="317"/>
+      <c r="AA4" s="308"/>
+      <c r="AB4" s="308"/>
+      <c r="AC4" s="308"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="10.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="321" t="s">
+      <c r="A5" s="315" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="321"/>
-      <c r="C5" s="321"/>
+      <c r="B5" s="315"/>
+      <c r="C5" s="315"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="307" t="s">
+      <c r="J5" s="310" t="s">
         <v>181</v>
       </c>
-      <c r="K5" s="307"/>
-      <c r="L5" s="307"/>
+      <c r="K5" s="310"/>
+      <c r="L5" s="310"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="8"/>
@@ -6197,11 +6197,11 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="337"/>
-      <c r="Z5" s="337"/>
-      <c r="AA5" s="331"/>
-      <c r="AB5" s="331"/>
-      <c r="AC5" s="331"/>
+      <c r="Y5" s="318"/>
+      <c r="Z5" s="318"/>
+      <c r="AA5" s="309"/>
+      <c r="AB5" s="309"/>
+      <c r="AC5" s="309"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
     </row>
@@ -6234,19 +6234,19 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="328"/>
-      <c r="Z6" s="329"/>
-      <c r="AA6" s="328"/>
-      <c r="AB6" s="329"/>
-      <c r="AC6" s="329"/>
+      <c r="Y6" s="312"/>
+      <c r="Z6" s="328"/>
+      <c r="AA6" s="312"/>
+      <c r="AB6" s="328"/>
+      <c r="AC6" s="328"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:31" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="326" t="s">
+      <c r="A7" s="325" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="326"/>
+      <c r="B7" s="325"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -6254,11 +6254,11 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="307" t="s">
+      <c r="J7" s="310" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="307"/>
-      <c r="L7" s="307"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="310"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="17"/>
@@ -6271,11 +6271,11 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="329"/>
-      <c r="Z7" s="329"/>
-      <c r="AA7" s="329"/>
-      <c r="AB7" s="329"/>
-      <c r="AC7" s="329"/>
+      <c r="Y7" s="328"/>
+      <c r="Z7" s="328"/>
+      <c r="AA7" s="328"/>
+      <c r="AB7" s="328"/>
+      <c r="AC7" s="328"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
     </row>
@@ -6308,26 +6308,26 @@
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
       <c r="X8" s="19"/>
-      <c r="Y8" s="320"/>
-      <c r="Z8" s="320"/>
-      <c r="AA8" s="324"/>
-      <c r="AB8" s="324"/>
-      <c r="AC8" s="324"/>
+      <c r="Y8" s="322"/>
+      <c r="Z8" s="322"/>
+      <c r="AA8" s="323"/>
+      <c r="AB8" s="323"/>
+      <c r="AC8" s="323"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
     </row>
     <row r="9" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="321" t="s">
+      <c r="A9" s="315" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="325"/>
-      <c r="C9" s="325"/>
-      <c r="D9" s="326"/>
-      <c r="E9" s="326"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="324"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="322" t="s">
+      <c r="I9" s="326" t="s">
         <v>165</v>
       </c>
       <c r="J9" s="327"/>
@@ -6361,11 +6361,11 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="316" t="s">
+      <c r="F10" s="337" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="316"/>
-      <c r="H10" s="316"/>
+      <c r="G10" s="337"/>
+      <c r="H10" s="337"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
@@ -6391,25 +6391,25 @@
       <c r="AE10" s="4"/>
     </row>
     <row r="11" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="321" t="s">
+      <c r="A11" s="315" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="321"/>
-      <c r="C11" s="322"/>
-      <c r="D11" s="322"/>
-      <c r="E11" s="322"/>
-      <c r="F11" s="322"/>
-      <c r="G11" s="322"/>
-      <c r="H11" s="322"/>
-      <c r="I11" s="322"/>
-      <c r="J11" s="322"/>
-      <c r="K11" s="322"/>
-      <c r="L11" s="322"/>
-      <c r="M11" s="322"/>
-      <c r="N11" s="322"/>
-      <c r="O11" s="322"/>
-      <c r="P11" s="322"/>
-      <c r="Q11" s="322"/>
+      <c r="B11" s="315"/>
+      <c r="C11" s="326"/>
+      <c r="D11" s="326"/>
+      <c r="E11" s="326"/>
+      <c r="F11" s="326"/>
+      <c r="G11" s="326"/>
+      <c r="H11" s="326"/>
+      <c r="I11" s="326"/>
+      <c r="J11" s="326"/>
+      <c r="K11" s="326"/>
+      <c r="L11" s="326"/>
+      <c r="M11" s="326"/>
+      <c r="N11" s="326"/>
+      <c r="O11" s="326"/>
+      <c r="P11" s="326"/>
+      <c r="Q11" s="326"/>
       <c r="R11" s="26"/>
       <c r="S11" s="18" t="s">
         <v>168</v>
@@ -6448,10 +6448,10 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="26"/>
-      <c r="S12" s="322" t="s">
+      <c r="S12" s="326" t="s">
         <v>169</v>
       </c>
-      <c r="T12" s="322"/>
+      <c r="T12" s="326"/>
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
       <c r="W12" s="32"/>
@@ -6476,11 +6476,11 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="309" t="s">
+      <c r="L13" s="341" t="s">
         <v>170</v>
       </c>
-      <c r="M13" s="309"/>
-      <c r="N13" s="309"/>
+      <c r="M13" s="341"/>
+      <c r="N13" s="341"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -6506,27 +6506,27 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="311" t="s">
+      <c r="A14" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="311"/>
-      <c r="C14" s="311"/>
-      <c r="D14" s="312" t="s">
+      <c r="B14" s="329"/>
+      <c r="C14" s="329"/>
+      <c r="D14" s="330" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="312"/>
-      <c r="F14" s="310"/>
-      <c r="G14" s="310"/>
-      <c r="H14" s="308" t="s">
+      <c r="E14" s="330"/>
+      <c r="F14" s="331"/>
+      <c r="G14" s="331"/>
+      <c r="H14" s="332" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="308"/>
-      <c r="J14" s="308"/>
+      <c r="I14" s="332"/>
+      <c r="J14" s="332"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="311" t="s">
+      <c r="L14" s="329" t="s">
         <v>173</v>
       </c>
-      <c r="M14" s="311"/>
+      <c r="M14" s="329"/>
       <c r="N14" s="58"/>
       <c r="O14" s="59" t="s">
         <v>174</v>
@@ -6534,16 +6534,16 @@
       <c r="P14" s="57"/>
       <c r="Q14" s="57"/>
       <c r="R14" s="26"/>
-      <c r="S14" s="323"/>
-      <c r="T14" s="323"/>
-      <c r="U14" s="323"/>
-      <c r="V14" s="323"/>
-      <c r="W14" s="323"/>
-      <c r="X14" s="323"/>
-      <c r="Y14" s="323"/>
-      <c r="Z14" s="323"/>
-      <c r="AA14" s="323"/>
-      <c r="AB14" s="323"/>
+      <c r="S14" s="333"/>
+      <c r="T14" s="333"/>
+      <c r="U14" s="333"/>
+      <c r="V14" s="333"/>
+      <c r="W14" s="333"/>
+      <c r="X14" s="333"/>
+      <c r="Y14" s="333"/>
+      <c r="Z14" s="333"/>
+      <c r="AA14" s="333"/>
+      <c r="AB14" s="333"/>
       <c r="AC14" s="22"/>
       <c r="AD14" s="22"/>
       <c r="AE14" s="4"/>
@@ -6566,8 +6566,8 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="319"/>
-      <c r="M15" s="319"/>
+      <c r="L15" s="340"/>
+      <c r="M15" s="340"/>
       <c r="N15" s="12" t="s">
         <v>175</v>
       </c>
@@ -6577,18 +6577,18 @@
       </c>
       <c r="Q15" s="34"/>
       <c r="R15" s="26"/>
-      <c r="S15" s="320" t="s">
+      <c r="S15" s="322" t="s">
         <v>177</v>
       </c>
-      <c r="T15" s="320"/>
-      <c r="U15" s="320"/>
-      <c r="V15" s="320"/>
-      <c r="W15" s="320"/>
-      <c r="X15" s="320"/>
-      <c r="Y15" s="320"/>
-      <c r="Z15" s="320"/>
-      <c r="AA15" s="320"/>
-      <c r="AB15" s="320"/>
+      <c r="T15" s="322"/>
+      <c r="U15" s="322"/>
+      <c r="V15" s="322"/>
+      <c r="W15" s="322"/>
+      <c r="X15" s="322"/>
+      <c r="Y15" s="322"/>
+      <c r="Z15" s="322"/>
+      <c r="AA15" s="322"/>
+      <c r="AB15" s="322"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
@@ -6627,20 +6627,20 @@
       <c r="AE16" s="4"/>
     </row>
     <row r="17" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="311" t="s">
+      <c r="A17" s="329" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="311"/>
-      <c r="C17" s="311"/>
-      <c r="D17" s="312" t="s">
+      <c r="B17" s="329"/>
+      <c r="C17" s="329"/>
+      <c r="D17" s="330" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="312"/>
-      <c r="F17" s="310"/>
-      <c r="G17" s="310"/>
-      <c r="H17" s="308"/>
-      <c r="I17" s="308"/>
-      <c r="J17" s="308"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="331"/>
+      <c r="G17" s="331"/>
+      <c r="H17" s="332"/>
+      <c r="I17" s="332"/>
+      <c r="J17" s="332"/>
       <c r="K17" s="40"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -6649,14 +6649,14 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="317" t="s">
+      <c r="S17" s="338" t="s">
         <v>179</v>
       </c>
-      <c r="T17" s="317"/>
-      <c r="U17" s="315"/>
-      <c r="V17" s="318"/>
-      <c r="W17" s="315"/>
-      <c r="X17" s="315"/>
+      <c r="T17" s="338"/>
+      <c r="U17" s="336"/>
+      <c r="V17" s="339"/>
+      <c r="W17" s="336"/>
+      <c r="X17" s="336"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="5"/>
@@ -6711,11 +6711,11 @@
       <c r="AE18" s="4"/>
     </row>
     <row r="19" spans="1:31" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="309"/>
-      <c r="B19" s="309"/>
-      <c r="C19" s="309"/>
-      <c r="D19" s="310"/>
-      <c r="E19" s="310"/>
+      <c r="A19" s="341"/>
+      <c r="B19" s="341"/>
+      <c r="C19" s="341"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="331"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -6731,14 +6731,14 @@
       <c r="R19" s="26"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
-      <c r="U19" s="313"/>
-      <c r="V19" s="313"/>
-      <c r="W19" s="314"/>
-      <c r="X19" s="314"/>
-      <c r="Y19" s="314"/>
-      <c r="Z19" s="314"/>
-      <c r="AA19" s="314"/>
-      <c r="AB19" s="314"/>
+      <c r="U19" s="334"/>
+      <c r="V19" s="334"/>
+      <c r="W19" s="335"/>
+      <c r="X19" s="335"/>
+      <c r="Y19" s="335"/>
+      <c r="Z19" s="335"/>
+      <c r="AA19" s="335"/>
+      <c r="AB19" s="335"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
@@ -6747,19 +6747,19 @@
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="307"/>
-      <c r="E20" s="307"/>
+      <c r="D20" s="310"/>
+      <c r="E20" s="310"/>
       <c r="F20" s="42"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="307"/>
-      <c r="I20" s="307"/>
-      <c r="J20" s="307"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="310"/>
+      <c r="J20" s="310"/>
       <c r="K20" s="43" t="s">
         <v>180</v>
       </c>
       <c r="L20" s="42"/>
-      <c r="M20" s="307"/>
-      <c r="N20" s="307"/>
+      <c r="M20" s="310"/>
+      <c r="N20" s="310"/>
       <c r="O20" s="4"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="22"/>
@@ -6780,6 +6780,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="S15:AB15"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="S14:AB14"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="AA6:AC7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AA4:AC5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="T1:X1"/>
@@ -6792,42 +6828,6 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="Y4:Z5"/>
     <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="AA6:AC7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="S14:AB14"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="S15:AB15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -574,9 +574,6 @@
     <t>бухгалтер</t>
   </si>
   <si>
-    <t>Жанчибон Т.Д.</t>
-  </si>
-  <si>
     <t xml:space="preserve">(подпись) </t>
   </si>
   <si>
@@ -598,9 +595,6 @@
     <t>Масса груза (нетто)</t>
   </si>
   <si>
-    <t>Менеджер</t>
-  </si>
-  <si>
     <t>ТОВАРНО-ТРАНСПОРТНАЯ НАКЛАДНАЯ _____________________________________  №</t>
   </si>
   <si>
@@ -608,6 +602,12 @@
   </si>
   <si>
     <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал № 7701 Банка ВТБ (ПАО)  г. Москва к/с 30101810345250000745 БИК 044525745</t>
+  </si>
+  <si>
+    <t>Ответственный</t>
+  </si>
+  <si>
+    <t>Косяченко В.А.</t>
   </si>
 </sst>
 </file>
@@ -1918,27 +1918,297 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1951,12 +2221,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1966,269 +2230,74 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2236,24 +2305,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2271,66 +2331,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2641,9 +2641,7 @@
   </sheetPr>
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AE2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2706,49 +2704,49 @@
       <c r="W1" s="60"/>
       <c r="X1" s="60"/>
       <c r="Y1" s="60"/>
-      <c r="Z1" s="204" t="s">
+      <c r="Z1" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="204"/>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="204"/>
-      <c r="AD1" s="204"/>
-      <c r="AE1" s="204"/>
+      <c r="AA1" s="295"/>
+      <c r="AB1" s="295"/>
+      <c r="AC1" s="295"/>
+      <c r="AD1" s="295"/>
+      <c r="AE1" s="295"/>
     </row>
     <row r="2" spans="1:32" ht="9.1999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205"/>
-      <c r="W2" s="205"/>
-      <c r="X2" s="205"/>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="205"/>
-      <c r="AA2" s="205"/>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="205"/>
-      <c r="AE2" s="205"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
+      <c r="Q2" s="217"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="217"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="217"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="217"/>
+      <c r="AB2" s="217"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="217"/>
+      <c r="AE2" s="217"/>
     </row>
     <row r="3" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
@@ -2793,20 +2791,20 @@
       <c r="AF3" s="71"/>
     </row>
     <row r="4" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="274" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="274"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="274"/>
+      <c r="J4" s="274"/>
+      <c r="K4" s="274"/>
+      <c r="L4" s="274"/>
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
       <c r="O4" s="72"/>
@@ -2820,11 +2818,11 @@
       <c r="W4" s="66"/>
       <c r="X4" s="66"/>
       <c r="Y4" s="66"/>
-      <c r="Z4" s="204" t="s">
+      <c r="Z4" s="295" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="204"/>
-      <c r="AB4" s="204"/>
+      <c r="AA4" s="295"/>
+      <c r="AB4" s="295"/>
       <c r="AC4" s="73"/>
       <c r="AD4" s="74"/>
       <c r="AE4" s="75"/>
@@ -2834,32 +2832,32 @@
       <c r="A5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="207"/>
-      <c r="O5" s="207"/>
-      <c r="P5" s="207"/>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="207"/>
-      <c r="U5" s="207"/>
-      <c r="V5" s="207"/>
-      <c r="W5" s="207"/>
-      <c r="X5" s="207"/>
-      <c r="Y5" s="207"/>
-      <c r="Z5" s="207"/>
-      <c r="AA5" s="207"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
+      <c r="H5" s="300"/>
+      <c r="I5" s="300"/>
+      <c r="J5" s="300"/>
+      <c r="K5" s="300"/>
+      <c r="L5" s="300"/>
+      <c r="M5" s="300"/>
+      <c r="N5" s="300"/>
+      <c r="O5" s="300"/>
+      <c r="P5" s="300"/>
+      <c r="Q5" s="300"/>
+      <c r="R5" s="300"/>
+      <c r="S5" s="300"/>
+      <c r="T5" s="300"/>
+      <c r="U5" s="300"/>
+      <c r="V5" s="300"/>
+      <c r="W5" s="300"/>
+      <c r="X5" s="300"/>
+      <c r="Y5" s="300"/>
+      <c r="Z5" s="300"/>
+      <c r="AA5" s="300"/>
       <c r="AB5" s="77" t="s">
         <v>6</v>
       </c>
@@ -2908,25 +2906,25 @@
       <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
-      <c r="I7" s="215" t="s">
+      <c r="I7" s="278" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="J7" s="278"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="278"/>
+      <c r="N7" s="224"/>
+      <c r="O7" s="224"/>
+      <c r="P7" s="224"/>
+      <c r="Q7" s="224"/>
+      <c r="R7" s="224"/>
       <c r="S7" s="72"/>
       <c r="T7" s="72"/>
       <c r="U7" s="72"/>
@@ -2979,38 +2977,38 @@
       <c r="AF8" s="71"/>
     </row>
     <row r="9" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="274" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="216"/>
-      <c r="C9" s="217" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="218"/>
-      <c r="Q9" s="218"/>
-      <c r="R9" s="218"/>
-      <c r="S9" s="218"/>
-      <c r="T9" s="218"/>
-      <c r="U9" s="218"/>
-      <c r="V9" s="218"/>
-      <c r="W9" s="218"/>
-      <c r="X9" s="218"/>
-      <c r="Y9" s="218"/>
-      <c r="Z9" s="218"/>
-      <c r="AA9" s="218"/>
-      <c r="AB9" s="219"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="305" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="306"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="306"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="306"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="306"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306"/>
+      <c r="M9" s="306"/>
+      <c r="N9" s="306"/>
+      <c r="O9" s="306"/>
+      <c r="P9" s="306"/>
+      <c r="Q9" s="306"/>
+      <c r="R9" s="306"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="306"/>
+      <c r="V9" s="306"/>
+      <c r="W9" s="306"/>
+      <c r="X9" s="306"/>
+      <c r="Y9" s="306"/>
+      <c r="Z9" s="306"/>
+      <c r="AA9" s="306"/>
+      <c r="AB9" s="307"/>
       <c r="AC9" s="91"/>
       <c r="AD9" s="92"/>
       <c r="AE9" s="93"/>
@@ -3053,38 +3051,38 @@
       <c r="AF10" s="71"/>
     </row>
     <row r="11" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="208" t="s">
+      <c r="A11" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="208"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="211"/>
-      <c r="P11" s="211"/>
-      <c r="Q11" s="211"/>
-      <c r="R11" s="211"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="211"/>
-      <c r="U11" s="211"/>
-      <c r="V11" s="211"/>
+      <c r="B11" s="270"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="258"/>
+      <c r="I11" s="258"/>
+      <c r="J11" s="258"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="258"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="301"/>
+      <c r="P11" s="301"/>
+      <c r="Q11" s="301"/>
+      <c r="R11" s="301"/>
+      <c r="S11" s="301"/>
+      <c r="T11" s="301"/>
+      <c r="U11" s="301"/>
+      <c r="V11" s="301"/>
       <c r="W11" s="98"/>
       <c r="X11" s="99" t="s">
         <v>12</v>
       </c>
       <c r="Y11" s="65"/>
-      <c r="Z11" s="212"/>
-      <c r="AA11" s="212"/>
-      <c r="AB11" s="213"/>
+      <c r="Z11" s="302"/>
+      <c r="AA11" s="302"/>
+      <c r="AB11" s="303"/>
       <c r="AC11" s="88"/>
       <c r="AD11" s="65"/>
       <c r="AE11" s="89"/>
@@ -3127,17 +3125,17 @@
       <c r="AF12" s="71"/>
     </row>
     <row r="13" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="206"/>
-      <c r="C13" s="209" t="s">
+      <c r="B13" s="274"/>
+      <c r="C13" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
       <c r="J13" s="102"/>
@@ -3146,19 +3144,19 @@
       <c r="M13" s="102"/>
       <c r="N13" s="102"/>
       <c r="O13" s="102"/>
-      <c r="P13" s="206" t="s">
+      <c r="P13" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="206"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="214"/>
-      <c r="U13" s="214"/>
-      <c r="V13" s="214"/>
-      <c r="W13" s="214"/>
-      <c r="X13" s="214"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="214"/>
+      <c r="Q13" s="274"/>
+      <c r="R13" s="304"/>
+      <c r="S13" s="304"/>
+      <c r="T13" s="304"/>
+      <c r="U13" s="304"/>
+      <c r="V13" s="304"/>
+      <c r="W13" s="304"/>
+      <c r="X13" s="304"/>
+      <c r="Y13" s="304"/>
+      <c r="Z13" s="304"/>
       <c r="AA13" s="64"/>
       <c r="AB13" s="103" t="s">
         <v>148</v>
@@ -3205,10 +3203,10 @@
       <c r="AF14" s="71"/>
     </row>
     <row r="15" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="206"/>
+      <c r="B15" s="274"/>
       <c r="C15" s="107"/>
       <c r="D15" s="107"/>
       <c r="E15" s="107"/>
@@ -3248,24 +3246,24 @@
       <c r="A16" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="222"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="222"/>
-      <c r="L16" s="222"/>
+      <c r="B16" s="298"/>
+      <c r="C16" s="298"/>
+      <c r="D16" s="298"/>
+      <c r="E16" s="298"/>
+      <c r="F16" s="298"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="298"/>
+      <c r="I16" s="298"/>
+      <c r="J16" s="298"/>
+      <c r="K16" s="298"/>
+      <c r="L16" s="298"/>
       <c r="M16" s="72"/>
       <c r="N16" s="112"/>
-      <c r="O16" s="223" t="s">
+      <c r="O16" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="223"/>
+      <c r="P16" s="299"/>
+      <c r="Q16" s="299"/>
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
       <c r="T16" s="114"/>
@@ -3275,10 +3273,10 @@
       <c r="X16" s="114"/>
       <c r="Y16" s="114"/>
       <c r="Z16" s="66"/>
-      <c r="AA16" s="204" t="s">
+      <c r="AA16" s="295" t="s">
         <v>24</v>
       </c>
-      <c r="AB16" s="221"/>
+      <c r="AB16" s="296"/>
       <c r="AC16" s="104"/>
       <c r="AD16" s="63"/>
       <c r="AE16" s="105"/>
@@ -3306,11 +3304,11 @@
       <c r="Q17" s="60"/>
       <c r="R17" s="94"/>
       <c r="S17" s="94"/>
-      <c r="T17" s="220" t="s">
+      <c r="T17" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="U17" s="220"/>
-      <c r="V17" s="220"/>
+      <c r="U17" s="233"/>
+      <c r="V17" s="233"/>
       <c r="W17" s="94"/>
       <c r="X17" s="94"/>
       <c r="Y17" s="94"/>
@@ -3323,42 +3321,42 @@
       <c r="AF17" s="71"/>
     </row>
     <row r="18" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="274" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="206"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="206" t="s">
+      <c r="B18" s="274"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="270"/>
+      <c r="F18" s="270"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="270"/>
+      <c r="I18" s="270"/>
+      <c r="J18" s="270"/>
+      <c r="K18" s="270"/>
+      <c r="L18" s="270"/>
+      <c r="M18" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="206"/>
+      <c r="N18" s="274"/>
       <c r="O18" s="63"/>
       <c r="P18" s="63"/>
-      <c r="Q18" s="204" t="s">
+      <c r="Q18" s="295" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="204"/>
-      <c r="S18" s="204"/>
-      <c r="T18" s="204"/>
+      <c r="R18" s="295"/>
+      <c r="S18" s="295"/>
+      <c r="T18" s="295"/>
       <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
       <c r="X18" s="63"/>
       <c r="Y18" s="63"/>
-      <c r="Z18" s="204" t="s">
+      <c r="Z18" s="295" t="s">
         <v>29</v>
       </c>
-      <c r="AA18" s="204"/>
-      <c r="AB18" s="221"/>
+      <c r="AA18" s="295"/>
+      <c r="AB18" s="296"/>
       <c r="AC18" s="104"/>
       <c r="AD18" s="63"/>
       <c r="AE18" s="105"/>
@@ -3415,28 +3413,28 @@
       <c r="J20" s="60"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="206" t="s">
+      <c r="M20" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="206"/>
+      <c r="N20" s="274"/>
       <c r="O20" s="121"/>
       <c r="P20" s="121"/>
-      <c r="Q20" s="204" t="s">
+      <c r="Q20" s="295" t="s">
         <v>149</v>
       </c>
-      <c r="R20" s="204"/>
-      <c r="S20" s="204"/>
-      <c r="T20" s="204"/>
+      <c r="R20" s="295"/>
+      <c r="S20" s="295"/>
+      <c r="T20" s="295"/>
       <c r="U20" s="63"/>
       <c r="V20" s="63"/>
       <c r="W20" s="121"/>
       <c r="X20" s="121"/>
       <c r="Y20" s="121"/>
-      <c r="Z20" s="204" t="s">
+      <c r="Z20" s="295" t="s">
         <v>147</v>
       </c>
-      <c r="AA20" s="204"/>
-      <c r="AB20" s="221"/>
+      <c r="AA20" s="295"/>
+      <c r="AB20" s="296"/>
       <c r="AC20" s="122"/>
       <c r="AD20" s="123"/>
       <c r="AE20" s="124"/>
@@ -3480,23 +3478,23 @@
     <row r="22" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
       <c r="B22" s="60"/>
-      <c r="C22" s="227" t="s">
+      <c r="C22" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="227"/>
+      <c r="D22" s="268"/>
+      <c r="E22" s="268"/>
+      <c r="F22" s="268"/>
+      <c r="G22" s="268"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
-      <c r="L22" s="228" t="s">
+      <c r="L22" s="297" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="228"/>
-      <c r="N22" s="228"/>
-      <c r="O22" s="228"/>
+      <c r="M22" s="297"/>
+      <c r="N22" s="297"/>
+      <c r="O22" s="297"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="60"/>
       <c r="R22" s="60"/>
@@ -3515,147 +3513,147 @@
       <c r="AE22" s="60"/>
     </row>
     <row r="23" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="224" t="s">
+      <c r="A23" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="225"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="225"/>
-      <c r="E23" s="224" t="s">
+      <c r="B23" s="239"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="225"/>
-      <c r="G23" s="225"/>
-      <c r="H23" s="225"/>
-      <c r="I23" s="225"/>
-      <c r="J23" s="224" t="s">
+      <c r="F23" s="239"/>
+      <c r="G23" s="239"/>
+      <c r="H23" s="239"/>
+      <c r="I23" s="239"/>
+      <c r="J23" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="225"/>
-      <c r="L23" s="225"/>
-      <c r="M23" s="224" t="s">
+      <c r="K23" s="239"/>
+      <c r="L23" s="239"/>
+      <c r="M23" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="225"/>
-      <c r="O23" s="225"/>
-      <c r="P23" s="225"/>
-      <c r="Q23" s="225"/>
-      <c r="R23" s="224" t="s">
+      <c r="N23" s="239"/>
+      <c r="O23" s="239"/>
+      <c r="P23" s="239"/>
+      <c r="Q23" s="239"/>
+      <c r="R23" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="225"/>
-      <c r="T23" s="225"/>
-      <c r="U23" s="224" t="s">
+      <c r="S23" s="239"/>
+      <c r="T23" s="239"/>
+      <c r="U23" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="225"/>
-      <c r="W23" s="224" t="s">
+      <c r="V23" s="239"/>
+      <c r="W23" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="X23" s="225"/>
-      <c r="Y23" s="225"/>
-      <c r="Z23" s="224" t="s">
+      <c r="X23" s="239"/>
+      <c r="Y23" s="239"/>
+      <c r="Z23" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="AA23" s="225"/>
-      <c r="AB23" s="225"/>
-      <c r="AC23" s="224" t="s">
+      <c r="AA23" s="239"/>
+      <c r="AB23" s="239"/>
+      <c r="AC23" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="225"/>
-      <c r="AE23" s="225"/>
+      <c r="AD23" s="239"/>
+      <c r="AE23" s="239"/>
       <c r="AF23" s="127"/>
     </row>
     <row r="24" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="224">
+      <c r="A24" s="212">
         <v>1</v>
       </c>
-      <c r="B24" s="225"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="225"/>
-      <c r="E24" s="224">
+      <c r="B24" s="239"/>
+      <c r="C24" s="239"/>
+      <c r="D24" s="239"/>
+      <c r="E24" s="212">
         <v>2</v>
       </c>
-      <c r="F24" s="225"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="225"/>
-      <c r="I24" s="225"/>
-      <c r="J24" s="224">
+      <c r="F24" s="239"/>
+      <c r="G24" s="239"/>
+      <c r="H24" s="239"/>
+      <c r="I24" s="239"/>
+      <c r="J24" s="212">
         <v>3</v>
       </c>
-      <c r="K24" s="225"/>
-      <c r="L24" s="225"/>
-      <c r="M24" s="224">
+      <c r="K24" s="239"/>
+      <c r="L24" s="239"/>
+      <c r="M24" s="212">
         <v>4</v>
       </c>
-      <c r="N24" s="225"/>
-      <c r="O24" s="225"/>
-      <c r="P24" s="225"/>
-      <c r="Q24" s="225"/>
-      <c r="R24" s="224">
+      <c r="N24" s="239"/>
+      <c r="O24" s="239"/>
+      <c r="P24" s="239"/>
+      <c r="Q24" s="239"/>
+      <c r="R24" s="212">
         <v>5</v>
       </c>
-      <c r="S24" s="225"/>
-      <c r="T24" s="225"/>
-      <c r="U24" s="224">
+      <c r="S24" s="239"/>
+      <c r="T24" s="239"/>
+      <c r="U24" s="212">
         <v>6</v>
       </c>
-      <c r="V24" s="225"/>
-      <c r="W24" s="224">
+      <c r="V24" s="239"/>
+      <c r="W24" s="212">
         <v>7</v>
       </c>
-      <c r="X24" s="225"/>
-      <c r="Y24" s="225"/>
-      <c r="Z24" s="224">
+      <c r="X24" s="239"/>
+      <c r="Y24" s="239"/>
+      <c r="Z24" s="212">
         <v>8</v>
       </c>
-      <c r="AA24" s="225"/>
-      <c r="AB24" s="225"/>
-      <c r="AC24" s="224">
+      <c r="AA24" s="239"/>
+      <c r="AB24" s="239"/>
+      <c r="AC24" s="212">
         <v>9</v>
       </c>
-      <c r="AD24" s="225"/>
-      <c r="AE24" s="226"/>
+      <c r="AD24" s="239"/>
+      <c r="AE24" s="240"/>
       <c r="AF24" s="127"/>
     </row>
     <row r="25" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="235" t="s">
+      <c r="A25" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="237" t="s">
+      <c r="B25" s="290"/>
+      <c r="C25" s="290"/>
+      <c r="D25" s="290"/>
+      <c r="E25" s="271" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="238"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="238"/>
-      <c r="I25" s="238"/>
-      <c r="J25" s="239" t="s">
+      <c r="F25" s="272"/>
+      <c r="G25" s="272"/>
+      <c r="H25" s="272"/>
+      <c r="I25" s="272"/>
+      <c r="J25" s="291" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="240"/>
-      <c r="L25" s="240"/>
-      <c r="M25" s="241"/>
-      <c r="N25" s="241"/>
-      <c r="O25" s="241"/>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="236"/>
-      <c r="S25" s="236"/>
-      <c r="T25" s="236"/>
-      <c r="U25" s="229"/>
-      <c r="V25" s="229"/>
-      <c r="W25" s="229"/>
-      <c r="X25" s="229"/>
-      <c r="Y25" s="229"/>
-      <c r="Z25" s="229"/>
-      <c r="AA25" s="229"/>
-      <c r="AB25" s="229"/>
-      <c r="AC25" s="229"/>
-      <c r="AD25" s="229"/>
-      <c r="AE25" s="229"/>
+      <c r="K25" s="292"/>
+      <c r="L25" s="292"/>
+      <c r="M25" s="293"/>
+      <c r="N25" s="293"/>
+      <c r="O25" s="293"/>
+      <c r="P25" s="293"/>
+      <c r="Q25" s="293"/>
+      <c r="R25" s="290"/>
+      <c r="S25" s="290"/>
+      <c r="T25" s="290"/>
+      <c r="U25" s="281"/>
+      <c r="V25" s="281"/>
+      <c r="W25" s="281"/>
+      <c r="X25" s="281"/>
+      <c r="Y25" s="281"/>
+      <c r="Z25" s="281"/>
+      <c r="AA25" s="281"/>
+      <c r="AB25" s="281"/>
+      <c r="AC25" s="281"/>
+      <c r="AD25" s="281"/>
+      <c r="AE25" s="281"/>
       <c r="AF25" s="128"/>
     </row>
     <row r="26" spans="1:32" ht="3.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3681,39 +3679,39 @@
       <c r="T26" s="81"/>
       <c r="U26" s="131"/>
       <c r="V26" s="132"/>
-      <c r="W26" s="230" t="s">
+      <c r="W26" s="284" t="s">
         <v>46</v>
       </c>
-      <c r="X26" s="231"/>
-      <c r="Y26" s="231"/>
-      <c r="Z26" s="231"/>
-      <c r="AA26" s="231"/>
-      <c r="AB26" s="231"/>
+      <c r="X26" s="285"/>
+      <c r="Y26" s="285"/>
+      <c r="Z26" s="285"/>
+      <c r="AA26" s="285"/>
+      <c r="AB26" s="285"/>
       <c r="AC26" s="133"/>
       <c r="AD26" s="119"/>
       <c r="AE26" s="132"/>
       <c r="AF26" s="128"/>
     </row>
     <row r="27" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="206" t="s">
+      <c r="A27" s="274" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="206"/>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
+      <c r="B27" s="274"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="274"/>
       <c r="E27" s="66"/>
-      <c r="F27" s="209" t="s">
+      <c r="F27" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="209"/>
-      <c r="H27" s="233"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="287"/>
       <c r="I27" s="66"/>
-      <c r="J27" s="234" t="s">
+      <c r="J27" s="273" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="206"/>
-      <c r="L27" s="206"/>
-      <c r="M27" s="216"/>
+      <c r="K27" s="274"/>
+      <c r="L27" s="274"/>
+      <c r="M27" s="288"/>
       <c r="N27" s="134"/>
       <c r="O27" s="134"/>
       <c r="P27" s="135" t="s">
@@ -3721,56 +3719,56 @@
       </c>
       <c r="Q27" s="79"/>
       <c r="R27" s="136"/>
-      <c r="S27" s="242" t="s">
+      <c r="S27" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="230"/>
+      <c r="T27" s="284"/>
       <c r="U27" s="137"/>
       <c r="V27" s="138"/>
-      <c r="W27" s="231"/>
-      <c r="X27" s="232"/>
-      <c r="Y27" s="232"/>
-      <c r="Z27" s="232"/>
-      <c r="AA27" s="232"/>
-      <c r="AB27" s="232"/>
+      <c r="W27" s="285"/>
+      <c r="X27" s="286"/>
+      <c r="Y27" s="286"/>
+      <c r="Z27" s="286"/>
+      <c r="AA27" s="286"/>
+      <c r="AB27" s="286"/>
       <c r="AC27" s="137"/>
       <c r="AD27" s="63"/>
       <c r="AE27" s="138"/>
       <c r="AF27" s="128"/>
     </row>
     <row r="28" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="215" t="s">
+      <c r="A28" s="278" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="215"/>
-      <c r="C28" s="215"/>
-      <c r="D28" s="215"/>
+      <c r="B28" s="278"/>
+      <c r="C28" s="278"/>
+      <c r="D28" s="278"/>
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
       <c r="G28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="249"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="234"/>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="206"/>
-      <c r="N28" s="227" t="s">
+      <c r="H28" s="282"/>
+      <c r="I28" s="283"/>
+      <c r="J28" s="273"/>
+      <c r="K28" s="274"/>
+      <c r="L28" s="274"/>
+      <c r="M28" s="274"/>
+      <c r="N28" s="268" t="s">
         <v>53</v>
       </c>
-      <c r="O28" s="227"/>
+      <c r="O28" s="268"/>
       <c r="P28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="Q28" s="227" t="s">
+      <c r="Q28" s="268" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="243"/>
-      <c r="S28" s="244" t="s">
+      <c r="R28" s="294"/>
+      <c r="S28" s="264" t="s">
         <v>55</v>
       </c>
-      <c r="T28" s="245"/>
+      <c r="T28" s="280"/>
       <c r="U28" s="140"/>
       <c r="V28" s="140"/>
       <c r="W28" s="66"/>
@@ -3788,10 +3786,10 @@
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
       <c r="D29" s="66"/>
-      <c r="E29" s="246" t="s">
+      <c r="E29" s="265" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="246"/>
+      <c r="F29" s="265"/>
       <c r="G29" s="66"/>
       <c r="H29" s="115"/>
       <c r="I29" s="141"/>
@@ -3799,11 +3797,11 @@
       <c r="K29" s="66"/>
       <c r="L29" s="66"/>
       <c r="M29" s="66"/>
-      <c r="N29" s="246"/>
-      <c r="O29" s="246"/>
+      <c r="N29" s="265"/>
+      <c r="O29" s="265"/>
       <c r="P29" s="66"/>
-      <c r="Q29" s="246"/>
-      <c r="R29" s="246"/>
+      <c r="Q29" s="265"/>
+      <c r="R29" s="265"/>
       <c r="S29" s="143"/>
       <c r="T29" s="66"/>
       <c r="U29" s="66"/>
@@ -3819,10 +3817,10 @@
       <c r="AE29" s="66"/>
     </row>
     <row r="30" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="208" t="s">
+      <c r="A30" s="270" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="208"/>
+      <c r="B30" s="270"/>
       <c r="C30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
@@ -3830,28 +3828,28 @@
       <c r="G30" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="247" t="s">
+      <c r="H30" s="248" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="247"/>
-      <c r="J30" s="248" t="s">
+      <c r="I30" s="248"/>
+      <c r="J30" s="269" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
+      <c r="K30" s="270"/>
+      <c r="L30" s="270"/>
       <c r="M30" s="134"/>
       <c r="N30" s="134"/>
       <c r="O30" s="134"/>
-      <c r="P30" s="208" t="s">
+      <c r="P30" s="270" t="s">
         <v>60</v>
       </c>
-      <c r="Q30" s="208"/>
-      <c r="R30" s="208"/>
-      <c r="S30" s="248" t="s">
+      <c r="Q30" s="270"/>
+      <c r="R30" s="270"/>
+      <c r="S30" s="269" t="s">
         <v>61</v>
       </c>
-      <c r="T30" s="208"/>
-      <c r="U30" s="208"/>
+      <c r="T30" s="270"/>
+      <c r="U30" s="270"/>
       <c r="V30" s="134"/>
       <c r="W30" s="134"/>
       <c r="X30" s="134"/>
@@ -3867,22 +3865,22 @@
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="81"/>
-      <c r="D31" s="251" t="s">
+      <c r="D31" s="263" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="251"/>
-      <c r="F31" s="251"/>
+      <c r="E31" s="263"/>
+      <c r="F31" s="263"/>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="142"/>
       <c r="K31" s="66"/>
       <c r="L31" s="66"/>
-      <c r="M31" s="227" t="s">
+      <c r="M31" s="268" t="s">
         <v>54</v>
       </c>
-      <c r="N31" s="227"/>
-      <c r="O31" s="227"/>
+      <c r="N31" s="268"/>
+      <c r="O31" s="268"/>
       <c r="P31" s="66"/>
       <c r="Q31" s="66"/>
       <c r="R31" s="66"/>
@@ -3912,21 +3910,21 @@
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="136"/>
-      <c r="J32" s="248" t="s">
+      <c r="J32" s="269" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="208"/>
-      <c r="L32" s="208"/>
+      <c r="K32" s="270"/>
+      <c r="L32" s="270"/>
       <c r="M32" s="63"/>
       <c r="N32" s="63"/>
       <c r="O32" s="79"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="144"/>
-      <c r="S32" s="234" t="s">
+      <c r="S32" s="273" t="s">
         <v>65</v>
       </c>
-      <c r="T32" s="206"/>
+      <c r="T32" s="274"/>
       <c r="U32" s="134"/>
       <c r="V32" s="134"/>
       <c r="W32" s="134"/>
@@ -3941,33 +3939,33 @@
     </row>
     <row r="33" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66"/>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="233" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220" t="s">
+      <c r="C33" s="233"/>
+      <c r="D33" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="233"/>
       <c r="G33" s="145" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="82"/>
       <c r="I33" s="146"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="238"/>
-      <c r="L33" s="238"/>
-      <c r="M33" s="227" t="s">
+      <c r="J33" s="271"/>
+      <c r="K33" s="272"/>
+      <c r="L33" s="272"/>
+      <c r="M33" s="268" t="s">
         <v>67</v>
       </c>
-      <c r="N33" s="227"/>
-      <c r="O33" s="227" t="s">
+      <c r="N33" s="268"/>
+      <c r="O33" s="268" t="s">
         <v>68</v>
       </c>
-      <c r="P33" s="227"/>
-      <c r="Q33" s="227"/>
-      <c r="R33" s="252"/>
+      <c r="P33" s="268"/>
+      <c r="Q33" s="268"/>
+      <c r="R33" s="275"/>
       <c r="S33" s="142"/>
       <c r="T33" s="66"/>
       <c r="U33" s="81"/>
@@ -3983,10 +3981,10 @@
       <c r="AE33" s="81"/>
     </row>
     <row r="34" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="215" t="s">
+      <c r="A34" s="278" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="255"/>
+      <c r="B34" s="279"/>
       <c r="C34" s="144"/>
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
@@ -3994,17 +3992,17 @@
       <c r="G34" s="147"/>
       <c r="H34" s="147"/>
       <c r="I34" s="148"/>
-      <c r="J34" s="248" t="s">
+      <c r="J34" s="269" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="208"/>
+      <c r="K34" s="270"/>
       <c r="L34" s="144"/>
       <c r="M34" s="63"/>
       <c r="N34" s="63"/>
       <c r="O34" s="79"/>
       <c r="P34" s="79"/>
       <c r="Q34" s="79"/>
-      <c r="R34" s="253"/>
+      <c r="R34" s="276"/>
       <c r="S34" s="142"/>
       <c r="T34" s="134"/>
       <c r="U34" s="134"/>
@@ -4020,34 +4018,34 @@
       <c r="AE34" s="134"/>
     </row>
     <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="245"/>
-      <c r="B35" s="255"/>
+      <c r="A35" s="280"/>
+      <c r="B35" s="279"/>
       <c r="C35" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="227" t="s">
+      <c r="D35" s="268" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="227"/>
-      <c r="F35" s="227"/>
+      <c r="E35" s="268"/>
+      <c r="F35" s="268"/>
       <c r="G35" s="150"/>
       <c r="H35" s="150"/>
       <c r="I35" s="151"/>
-      <c r="J35" s="244"/>
-      <c r="K35" s="246"/>
+      <c r="J35" s="264"/>
+      <c r="K35" s="265"/>
       <c r="L35" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="227" t="s">
+      <c r="M35" s="268" t="s">
         <v>67</v>
       </c>
-      <c r="N35" s="227"/>
-      <c r="O35" s="227" t="s">
+      <c r="N35" s="268"/>
+      <c r="O35" s="268" t="s">
         <v>68</v>
       </c>
-      <c r="P35" s="227"/>
-      <c r="Q35" s="227"/>
-      <c r="R35" s="254"/>
+      <c r="P35" s="268"/>
+      <c r="Q35" s="268"/>
+      <c r="R35" s="277"/>
       <c r="S35" s="152"/>
       <c r="T35" s="129"/>
       <c r="U35" s="129"/>
@@ -4069,11 +4067,11 @@
       <c r="D36" s="66"/>
       <c r="E36" s="66"/>
       <c r="F36" s="66"/>
-      <c r="G36" s="210" t="s">
+      <c r="G36" s="258" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="210"/>
-      <c r="I36" s="256"/>
+      <c r="H36" s="258"/>
+      <c r="I36" s="259"/>
       <c r="J36" s="152"/>
       <c r="K36" s="144"/>
       <c r="L36" s="144"/>
@@ -4133,257 +4131,257 @@
       <c r="AE37" s="144"/>
     </row>
     <row r="38" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="257" t="s">
+      <c r="A38" s="260" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="258"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
-      <c r="H38" s="258"/>
-      <c r="I38" s="258"/>
-      <c r="J38" s="258"/>
-      <c r="K38" s="258"/>
-      <c r="L38" s="258"/>
-      <c r="M38" s="258"/>
-      <c r="N38" s="258"/>
-      <c r="O38" s="258"/>
-      <c r="P38" s="258"/>
-      <c r="Q38" s="258"/>
-      <c r="R38" s="258"/>
-      <c r="S38" s="258"/>
-      <c r="T38" s="258"/>
-      <c r="U38" s="258"/>
-      <c r="V38" s="258"/>
-      <c r="W38" s="258"/>
-      <c r="X38" s="258"/>
-      <c r="Y38" s="258"/>
-      <c r="Z38" s="258"/>
-      <c r="AA38" s="258"/>
-      <c r="AB38" s="258"/>
-      <c r="AC38" s="258"/>
-      <c r="AD38" s="258"/>
-      <c r="AE38" s="258"/>
+      <c r="B38" s="261"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="261"/>
+      <c r="F38" s="261"/>
+      <c r="G38" s="261"/>
+      <c r="H38" s="261"/>
+      <c r="I38" s="261"/>
+      <c r="J38" s="261"/>
+      <c r="K38" s="261"/>
+      <c r="L38" s="261"/>
+      <c r="M38" s="261"/>
+      <c r="N38" s="261"/>
+      <c r="O38" s="261"/>
+      <c r="P38" s="261"/>
+      <c r="Q38" s="261"/>
+      <c r="R38" s="261"/>
+      <c r="S38" s="261"/>
+      <c r="T38" s="261"/>
+      <c r="U38" s="261"/>
+      <c r="V38" s="261"/>
+      <c r="W38" s="261"/>
+      <c r="X38" s="261"/>
+      <c r="Y38" s="261"/>
+      <c r="Z38" s="261"/>
+      <c r="AA38" s="261"/>
+      <c r="AB38" s="261"/>
+      <c r="AC38" s="261"/>
+      <c r="AD38" s="261"/>
+      <c r="AE38" s="261"/>
       <c r="AF38" s="127"/>
     </row>
     <row r="39" spans="1:32" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="259" t="s">
+      <c r="A39" s="262" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="251"/>
-      <c r="C39" s="259" t="s">
+      <c r="B39" s="263"/>
+      <c r="C39" s="262" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="251"/>
-      <c r="E39" s="251"/>
-      <c r="F39" s="251"/>
-      <c r="G39" s="259" t="s">
+      <c r="D39" s="263"/>
+      <c r="E39" s="263"/>
+      <c r="F39" s="263"/>
+      <c r="G39" s="262" t="s">
         <v>75</v>
       </c>
-      <c r="H39" s="251"/>
-      <c r="I39" s="251"/>
-      <c r="J39" s="251"/>
-      <c r="K39" s="251"/>
-      <c r="L39" s="259" t="s">
+      <c r="H39" s="263"/>
+      <c r="I39" s="263"/>
+      <c r="J39" s="263"/>
+      <c r="K39" s="263"/>
+      <c r="L39" s="262" t="s">
         <v>76</v>
       </c>
-      <c r="M39" s="251"/>
-      <c r="N39" s="251"/>
-      <c r="O39" s="251"/>
-      <c r="P39" s="251"/>
-      <c r="Q39" s="224" t="s">
+      <c r="M39" s="263"/>
+      <c r="N39" s="263"/>
+      <c r="O39" s="263"/>
+      <c r="P39" s="263"/>
+      <c r="Q39" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="R39" s="225"/>
-      <c r="S39" s="225"/>
-      <c r="T39" s="225"/>
-      <c r="U39" s="225"/>
-      <c r="V39" s="260" t="s">
+      <c r="R39" s="239"/>
+      <c r="S39" s="239"/>
+      <c r="T39" s="239"/>
+      <c r="U39" s="239"/>
+      <c r="V39" s="241" t="s">
         <v>78</v>
       </c>
-      <c r="W39" s="261"/>
-      <c r="X39" s="262"/>
-      <c r="Y39" s="263"/>
-      <c r="Z39" s="224" t="s">
+      <c r="W39" s="242"/>
+      <c r="X39" s="266"/>
+      <c r="Y39" s="267"/>
+      <c r="Z39" s="212" t="s">
         <v>79</v>
       </c>
-      <c r="AA39" s="225"/>
-      <c r="AB39" s="225"/>
-      <c r="AC39" s="224" t="s">
+      <c r="AA39" s="239"/>
+      <c r="AB39" s="239"/>
+      <c r="AC39" s="212" t="s">
         <v>80</v>
       </c>
-      <c r="AD39" s="225"/>
-      <c r="AE39" s="226"/>
+      <c r="AD39" s="239"/>
+      <c r="AE39" s="240"/>
       <c r="AF39" s="127"/>
     </row>
     <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="244"/>
-      <c r="B40" s="246"/>
-      <c r="C40" s="244"/>
-      <c r="D40" s="246"/>
-      <c r="E40" s="246"/>
-      <c r="F40" s="246"/>
-      <c r="G40" s="244"/>
-      <c r="H40" s="246"/>
-      <c r="I40" s="246"/>
-      <c r="J40" s="246"/>
-      <c r="K40" s="246"/>
-      <c r="L40" s="244"/>
-      <c r="M40" s="246"/>
-      <c r="N40" s="246"/>
-      <c r="O40" s="246"/>
-      <c r="P40" s="246"/>
-      <c r="Q40" s="264" t="s">
+      <c r="A40" s="264"/>
+      <c r="B40" s="265"/>
+      <c r="C40" s="264"/>
+      <c r="D40" s="265"/>
+      <c r="E40" s="265"/>
+      <c r="F40" s="265"/>
+      <c r="G40" s="264"/>
+      <c r="H40" s="265"/>
+      <c r="I40" s="265"/>
+      <c r="J40" s="265"/>
+      <c r="K40" s="265"/>
+      <c r="L40" s="264"/>
+      <c r="M40" s="265"/>
+      <c r="N40" s="265"/>
+      <c r="O40" s="265"/>
+      <c r="P40" s="265"/>
+      <c r="Q40" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="R40" s="265"/>
-      <c r="S40" s="265"/>
-      <c r="T40" s="265"/>
+      <c r="R40" s="254"/>
+      <c r="S40" s="254"/>
+      <c r="T40" s="254"/>
       <c r="U40" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="V40" s="224" t="s">
+      <c r="V40" s="212" t="s">
         <v>82</v>
       </c>
-      <c r="W40" s="225"/>
-      <c r="X40" s="224" t="s">
+      <c r="W40" s="239"/>
+      <c r="X40" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="Y40" s="226"/>
-      <c r="Z40" s="242"/>
-      <c r="AA40" s="209"/>
-      <c r="AB40" s="209"/>
-      <c r="AC40" s="242"/>
-      <c r="AD40" s="209"/>
-      <c r="AE40" s="209"/>
+      <c r="Y40" s="240"/>
+      <c r="Z40" s="213"/>
+      <c r="AA40" s="224"/>
+      <c r="AB40" s="224"/>
+      <c r="AC40" s="213"/>
+      <c r="AD40" s="224"/>
+      <c r="AE40" s="224"/>
       <c r="AF40" s="127"/>
     </row>
     <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="224">
+      <c r="A41" s="212">
         <v>10</v>
       </c>
-      <c r="B41" s="225"/>
-      <c r="C41" s="224">
+      <c r="B41" s="239"/>
+      <c r="C41" s="212">
         <v>11</v>
       </c>
-      <c r="D41" s="225"/>
-      <c r="E41" s="225"/>
-      <c r="F41" s="225"/>
-      <c r="G41" s="224">
+      <c r="D41" s="239"/>
+      <c r="E41" s="239"/>
+      <c r="F41" s="239"/>
+      <c r="G41" s="212">
         <v>12</v>
       </c>
-      <c r="H41" s="225"/>
-      <c r="I41" s="225"/>
-      <c r="J41" s="225"/>
-      <c r="K41" s="225"/>
-      <c r="L41" s="224">
+      <c r="H41" s="239"/>
+      <c r="I41" s="239"/>
+      <c r="J41" s="239"/>
+      <c r="K41" s="239"/>
+      <c r="L41" s="212">
         <v>13</v>
       </c>
-      <c r="M41" s="225"/>
-      <c r="N41" s="225"/>
-      <c r="O41" s="225"/>
-      <c r="P41" s="225"/>
-      <c r="Q41" s="224">
+      <c r="M41" s="239"/>
+      <c r="N41" s="239"/>
+      <c r="O41" s="239"/>
+      <c r="P41" s="239"/>
+      <c r="Q41" s="212">
         <v>14</v>
       </c>
-      <c r="R41" s="225"/>
-      <c r="S41" s="225"/>
-      <c r="T41" s="225"/>
+      <c r="R41" s="239"/>
+      <c r="S41" s="239"/>
+      <c r="T41" s="239"/>
       <c r="U41" s="158">
         <v>15</v>
       </c>
-      <c r="V41" s="224">
+      <c r="V41" s="212">
         <v>16</v>
       </c>
-      <c r="W41" s="225"/>
-      <c r="X41" s="224">
+      <c r="W41" s="239"/>
+      <c r="X41" s="212">
         <v>17</v>
       </c>
-      <c r="Y41" s="225"/>
-      <c r="Z41" s="224">
+      <c r="Y41" s="239"/>
+      <c r="Z41" s="212">
         <v>18</v>
       </c>
-      <c r="AA41" s="225"/>
-      <c r="AB41" s="225"/>
-      <c r="AC41" s="224">
+      <c r="AA41" s="239"/>
+      <c r="AB41" s="239"/>
+      <c r="AC41" s="212">
         <v>19</v>
       </c>
-      <c r="AD41" s="225"/>
-      <c r="AE41" s="226"/>
+      <c r="AD41" s="239"/>
+      <c r="AE41" s="240"/>
       <c r="AF41" s="127"/>
     </row>
     <row r="42" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="264" t="s">
+      <c r="A42" s="253" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="265"/>
-      <c r="C42" s="266"/>
-      <c r="D42" s="267"/>
-      <c r="E42" s="267"/>
-      <c r="F42" s="267"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="267"/>
-      <c r="I42" s="267"/>
-      <c r="J42" s="267"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="266"/>
-      <c r="M42" s="267"/>
-      <c r="N42" s="267"/>
-      <c r="O42" s="267"/>
-      <c r="P42" s="267"/>
-      <c r="Q42" s="266"/>
-      <c r="R42" s="267"/>
-      <c r="S42" s="267"/>
-      <c r="T42" s="267"/>
+      <c r="B42" s="254"/>
+      <c r="C42" s="255"/>
+      <c r="D42" s="256"/>
+      <c r="E42" s="256"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="255"/>
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="256"/>
+      <c r="L42" s="255"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="256"/>
+      <c r="Q42" s="255"/>
+      <c r="R42" s="256"/>
+      <c r="S42" s="256"/>
+      <c r="T42" s="256"/>
       <c r="U42" s="159"/>
-      <c r="V42" s="268"/>
-      <c r="W42" s="268"/>
-      <c r="X42" s="268"/>
-      <c r="Y42" s="268"/>
-      <c r="Z42" s="268"/>
-      <c r="AA42" s="268"/>
-      <c r="AB42" s="268"/>
-      <c r="AC42" s="267"/>
-      <c r="AD42" s="267"/>
-      <c r="AE42" s="269"/>
+      <c r="V42" s="232"/>
+      <c r="W42" s="232"/>
+      <c r="X42" s="232"/>
+      <c r="Y42" s="232"/>
+      <c r="Z42" s="232"/>
+      <c r="AA42" s="232"/>
+      <c r="AB42" s="232"/>
+      <c r="AC42" s="256"/>
+      <c r="AD42" s="256"/>
+      <c r="AE42" s="257"/>
       <c r="AF42" s="127"/>
     </row>
     <row r="43" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="264" t="s">
+      <c r="A43" s="253" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="265"/>
-      <c r="C43" s="266"/>
-      <c r="D43" s="267"/>
-      <c r="E43" s="267"/>
-      <c r="F43" s="267"/>
-      <c r="G43" s="266"/>
-      <c r="H43" s="267"/>
-      <c r="I43" s="267"/>
-      <c r="J43" s="267"/>
-      <c r="K43" s="267"/>
-      <c r="L43" s="266"/>
-      <c r="M43" s="267"/>
-      <c r="N43" s="267"/>
-      <c r="O43" s="267"/>
-      <c r="P43" s="267"/>
-      <c r="Q43" s="266"/>
-      <c r="R43" s="267"/>
-      <c r="S43" s="267"/>
-      <c r="T43" s="267"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="255"/>
+      <c r="D43" s="256"/>
+      <c r="E43" s="256"/>
+      <c r="F43" s="256"/>
+      <c r="G43" s="255"/>
+      <c r="H43" s="256"/>
+      <c r="I43" s="256"/>
+      <c r="J43" s="256"/>
+      <c r="K43" s="256"/>
+      <c r="L43" s="255"/>
+      <c r="M43" s="256"/>
+      <c r="N43" s="256"/>
+      <c r="O43" s="256"/>
+      <c r="P43" s="256"/>
+      <c r="Q43" s="255"/>
+      <c r="R43" s="256"/>
+      <c r="S43" s="256"/>
+      <c r="T43" s="256"/>
       <c r="U43" s="159"/>
-      <c r="V43" s="268"/>
-      <c r="W43" s="268"/>
-      <c r="X43" s="268"/>
-      <c r="Y43" s="268"/>
-      <c r="Z43" s="268"/>
-      <c r="AA43" s="268"/>
-      <c r="AB43" s="268"/>
-      <c r="AC43" s="267"/>
-      <c r="AD43" s="267"/>
-      <c r="AE43" s="269"/>
+      <c r="V43" s="232"/>
+      <c r="W43" s="232"/>
+      <c r="X43" s="232"/>
+      <c r="Y43" s="232"/>
+      <c r="Z43" s="232"/>
+      <c r="AA43" s="232"/>
+      <c r="AB43" s="232"/>
+      <c r="AC43" s="256"/>
+      <c r="AD43" s="256"/>
+      <c r="AE43" s="257"/>
       <c r="AF43" s="127"/>
     </row>
     <row r="44" spans="1:32" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -4420,78 +4418,78 @@
       <c r="AE44" s="94"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="224" t="s">
+      <c r="A45" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="225"/>
-      <c r="C45" s="225"/>
-      <c r="D45" s="225"/>
-      <c r="E45" s="225"/>
-      <c r="F45" s="225"/>
-      <c r="G45" s="225"/>
-      <c r="H45" s="225"/>
-      <c r="I45" s="225"/>
-      <c r="J45" s="225"/>
-      <c r="K45" s="225"/>
-      <c r="L45" s="225"/>
-      <c r="M45" s="225"/>
-      <c r="N45" s="225"/>
-      <c r="O45" s="225"/>
-      <c r="P45" s="225"/>
-      <c r="Q45" s="225"/>
-      <c r="R45" s="225"/>
-      <c r="S45" s="225"/>
-      <c r="T45" s="225"/>
-      <c r="U45" s="225"/>
-      <c r="V45" s="225"/>
-      <c r="W45" s="225"/>
-      <c r="X45" s="270" t="s">
+      <c r="B45" s="239"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="239"/>
+      <c r="G45" s="239"/>
+      <c r="H45" s="239"/>
+      <c r="I45" s="239"/>
+      <c r="J45" s="239"/>
+      <c r="K45" s="239"/>
+      <c r="L45" s="239"/>
+      <c r="M45" s="239"/>
+      <c r="N45" s="239"/>
+      <c r="O45" s="239"/>
+      <c r="P45" s="239"/>
+      <c r="Q45" s="239"/>
+      <c r="R45" s="239"/>
+      <c r="S45" s="239"/>
+      <c r="T45" s="239"/>
+      <c r="U45" s="239"/>
+      <c r="V45" s="239"/>
+      <c r="W45" s="239"/>
+      <c r="X45" s="246" t="s">
         <v>87</v>
       </c>
-      <c r="Y45" s="271"/>
-      <c r="Z45" s="247"/>
-      <c r="AA45" s="247"/>
-      <c r="AB45" s="247"/>
-      <c r="AC45" s="247"/>
-      <c r="AD45" s="247"/>
-      <c r="AE45" s="247"/>
+      <c r="Y45" s="247"/>
+      <c r="Z45" s="248"/>
+      <c r="AA45" s="248"/>
+      <c r="AB45" s="248"/>
+      <c r="AC45" s="248"/>
+      <c r="AD45" s="248"/>
+      <c r="AE45" s="248"/>
     </row>
     <row r="46" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="224" t="s">
+      <c r="A46" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="225"/>
-      <c r="C46" s="225"/>
-      <c r="D46" s="225"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="224" t="s">
+      <c r="B46" s="239"/>
+      <c r="C46" s="239"/>
+      <c r="D46" s="239"/>
+      <c r="E46" s="239"/>
+      <c r="F46" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="225"/>
-      <c r="H46" s="272" t="s">
+      <c r="G46" s="239"/>
+      <c r="H46" s="249" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="273"/>
-      <c r="J46" s="273"/>
-      <c r="K46" s="274"/>
-      <c r="L46" s="224" t="s">
+      <c r="I46" s="250"/>
+      <c r="J46" s="250"/>
+      <c r="K46" s="251"/>
+      <c r="L46" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="225"/>
-      <c r="N46" s="225"/>
-      <c r="O46" s="225"/>
-      <c r="P46" s="225"/>
-      <c r="Q46" s="224" t="s">
+      <c r="M46" s="239"/>
+      <c r="N46" s="239"/>
+      <c r="O46" s="239"/>
+      <c r="P46" s="239"/>
+      <c r="Q46" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="R46" s="225"/>
-      <c r="S46" s="225"/>
-      <c r="T46" s="224" t="s">
+      <c r="R46" s="239"/>
+      <c r="S46" s="239"/>
+      <c r="T46" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="U46" s="225"/>
-      <c r="V46" s="225"/>
-      <c r="W46" s="226"/>
+      <c r="U46" s="239"/>
+      <c r="V46" s="239"/>
+      <c r="W46" s="240"/>
       <c r="X46" s="152"/>
       <c r="Y46" s="79"/>
       <c r="Z46" s="79"/>
@@ -4502,41 +4500,41 @@
       <c r="AE46" s="79"/>
     </row>
     <row r="47" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="242"/>
-      <c r="B47" s="209"/>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
-      <c r="E47" s="209"/>
-      <c r="F47" s="242"/>
-      <c r="G47" s="209"/>
-      <c r="H47" s="224" t="s">
+      <c r="A47" s="213"/>
+      <c r="B47" s="224"/>
+      <c r="C47" s="224"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="224"/>
+      <c r="F47" s="213"/>
+      <c r="G47" s="224"/>
+      <c r="H47" s="212" t="s">
         <v>94</v>
       </c>
-      <c r="I47" s="225"/>
-      <c r="J47" s="224" t="s">
+      <c r="I47" s="239"/>
+      <c r="J47" s="212" t="s">
         <v>95</v>
       </c>
-      <c r="K47" s="225"/>
-      <c r="L47" s="224"/>
-      <c r="M47" s="225"/>
-      <c r="N47" s="225"/>
-      <c r="O47" s="225"/>
-      <c r="P47" s="225"/>
-      <c r="Q47" s="224" t="s">
+      <c r="K47" s="239"/>
+      <c r="L47" s="212"/>
+      <c r="M47" s="239"/>
+      <c r="N47" s="239"/>
+      <c r="O47" s="239"/>
+      <c r="P47" s="239"/>
+      <c r="Q47" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="R47" s="225"/>
-      <c r="S47" s="275" t="s">
+      <c r="R47" s="239"/>
+      <c r="S47" s="244" t="s">
         <v>97</v>
       </c>
-      <c r="T47" s="224" t="s">
+      <c r="T47" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="U47" s="225"/>
-      <c r="V47" s="224" t="s">
+      <c r="U47" s="239"/>
+      <c r="V47" s="212" t="s">
         <v>99</v>
       </c>
-      <c r="W47" s="226"/>
+      <c r="W47" s="240"/>
       <c r="X47" s="152"/>
       <c r="Y47" s="160"/>
       <c r="Z47" s="160"/>
@@ -4562,24 +4560,24 @@
       <c r="E48" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="242"/>
-      <c r="G48" s="209"/>
-      <c r="H48" s="242"/>
-      <c r="I48" s="209"/>
-      <c r="J48" s="242"/>
-      <c r="K48" s="209"/>
-      <c r="L48" s="242"/>
-      <c r="M48" s="209"/>
-      <c r="N48" s="209"/>
-      <c r="O48" s="209"/>
-      <c r="P48" s="209"/>
-      <c r="Q48" s="242"/>
-      <c r="R48" s="209"/>
-      <c r="S48" s="276"/>
-      <c r="T48" s="242"/>
-      <c r="U48" s="209"/>
-      <c r="V48" s="242"/>
-      <c r="W48" s="209"/>
+      <c r="F48" s="213"/>
+      <c r="G48" s="224"/>
+      <c r="H48" s="213"/>
+      <c r="I48" s="224"/>
+      <c r="J48" s="213"/>
+      <c r="K48" s="224"/>
+      <c r="L48" s="213"/>
+      <c r="M48" s="224"/>
+      <c r="N48" s="224"/>
+      <c r="O48" s="224"/>
+      <c r="P48" s="224"/>
+      <c r="Q48" s="213"/>
+      <c r="R48" s="224"/>
+      <c r="S48" s="252"/>
+      <c r="T48" s="213"/>
+      <c r="U48" s="224"/>
+      <c r="V48" s="213"/>
+      <c r="W48" s="224"/>
       <c r="X48" s="152"/>
       <c r="Y48" s="160"/>
       <c r="Z48" s="160"/>
@@ -4605,40 +4603,40 @@
       <c r="E49" s="158">
         <v>24</v>
       </c>
-      <c r="F49" s="224">
+      <c r="F49" s="212">
         <v>25</v>
       </c>
-      <c r="G49" s="225"/>
-      <c r="H49" s="224">
+      <c r="G49" s="239"/>
+      <c r="H49" s="212">
         <v>26</v>
       </c>
-      <c r="I49" s="225"/>
-      <c r="J49" s="224">
+      <c r="I49" s="239"/>
+      <c r="J49" s="212">
         <v>27</v>
       </c>
-      <c r="K49" s="225"/>
-      <c r="L49" s="224">
+      <c r="K49" s="239"/>
+      <c r="L49" s="212">
         <v>28</v>
       </c>
-      <c r="M49" s="225"/>
-      <c r="N49" s="225"/>
-      <c r="O49" s="225"/>
-      <c r="P49" s="225"/>
-      <c r="Q49" s="224">
+      <c r="M49" s="239"/>
+      <c r="N49" s="239"/>
+      <c r="O49" s="239"/>
+      <c r="P49" s="239"/>
+      <c r="Q49" s="212">
         <v>29</v>
       </c>
-      <c r="R49" s="225"/>
+      <c r="R49" s="239"/>
       <c r="S49" s="158">
         <v>30</v>
       </c>
-      <c r="T49" s="224">
+      <c r="T49" s="212">
         <v>31</v>
       </c>
-      <c r="U49" s="225"/>
-      <c r="V49" s="224">
+      <c r="U49" s="239"/>
+      <c r="V49" s="212">
         <v>32</v>
       </c>
-      <c r="W49" s="226"/>
+      <c r="W49" s="240"/>
       <c r="X49" s="152"/>
       <c r="Y49" s="129"/>
       <c r="Z49" s="129"/>
@@ -4654,24 +4652,24 @@
       <c r="C50" s="159"/>
       <c r="D50" s="159"/>
       <c r="E50" s="159"/>
-      <c r="F50" s="268"/>
-      <c r="G50" s="268"/>
-      <c r="H50" s="268"/>
-      <c r="I50" s="268"/>
-      <c r="J50" s="268"/>
-      <c r="K50" s="268"/>
-      <c r="L50" s="268"/>
-      <c r="M50" s="268"/>
-      <c r="N50" s="268"/>
-      <c r="O50" s="268"/>
-      <c r="P50" s="268"/>
-      <c r="Q50" s="268"/>
-      <c r="R50" s="268"/>
+      <c r="F50" s="232"/>
+      <c r="G50" s="232"/>
+      <c r="H50" s="232"/>
+      <c r="I50" s="232"/>
+      <c r="J50" s="232"/>
+      <c r="K50" s="232"/>
+      <c r="L50" s="232"/>
+      <c r="M50" s="232"/>
+      <c r="N50" s="232"/>
+      <c r="O50" s="232"/>
+      <c r="P50" s="232"/>
+      <c r="Q50" s="232"/>
+      <c r="R50" s="232"/>
       <c r="S50" s="159"/>
-      <c r="T50" s="268"/>
-      <c r="U50" s="268"/>
-      <c r="V50" s="268"/>
-      <c r="W50" s="268"/>
+      <c r="T50" s="232"/>
+      <c r="U50" s="232"/>
+      <c r="V50" s="232"/>
+      <c r="W50" s="232"/>
       <c r="X50" s="140"/>
       <c r="Y50" s="144"/>
       <c r="Z50" s="66"/>
@@ -4715,47 +4713,47 @@
       <c r="AE51" s="60"/>
     </row>
     <row r="52" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="224" t="s">
+      <c r="A52" s="212" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="225"/>
-      <c r="C52" s="225"/>
-      <c r="D52" s="225"/>
-      <c r="E52" s="224" t="s">
+      <c r="B52" s="239"/>
+      <c r="C52" s="239"/>
+      <c r="D52" s="239"/>
+      <c r="E52" s="212" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="225"/>
-      <c r="G52" s="224" t="s">
+      <c r="F52" s="239"/>
+      <c r="G52" s="212" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="225"/>
-      <c r="I52" s="224" t="s">
+      <c r="H52" s="239"/>
+      <c r="I52" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="J52" s="225"/>
-      <c r="K52" s="225"/>
-      <c r="L52" s="224" t="s">
+      <c r="J52" s="239"/>
+      <c r="K52" s="239"/>
+      <c r="L52" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="M52" s="225"/>
-      <c r="N52" s="224" t="s">
+      <c r="M52" s="239"/>
+      <c r="N52" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="O52" s="225"/>
-      <c r="P52" s="260" t="s">
+      <c r="O52" s="239"/>
+      <c r="P52" s="241" t="s">
         <v>151</v>
       </c>
-      <c r="Q52" s="261"/>
-      <c r="R52" s="261"/>
-      <c r="S52" s="277"/>
-      <c r="T52" s="275" t="s">
+      <c r="Q52" s="242"/>
+      <c r="R52" s="242"/>
+      <c r="S52" s="243"/>
+      <c r="T52" s="244" t="s">
         <v>152</v>
       </c>
-      <c r="U52" s="224" t="s">
+      <c r="U52" s="212" t="s">
         <v>111</v>
       </c>
-      <c r="V52" s="225"/>
-      <c r="W52" s="224" t="s">
+      <c r="V52" s="239"/>
+      <c r="W52" s="212" t="s">
         <v>112</v>
       </c>
       <c r="X52" s="142"/>
@@ -4768,33 +4766,33 @@
       <c r="AE52" s="144"/>
     </row>
     <row r="53" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="242"/>
-      <c r="B53" s="209"/>
-      <c r="C53" s="209"/>
-      <c r="D53" s="209"/>
-      <c r="E53" s="242"/>
-      <c r="F53" s="209"/>
-      <c r="G53" s="242"/>
-      <c r="H53" s="209"/>
-      <c r="I53" s="242"/>
-      <c r="J53" s="209"/>
-      <c r="K53" s="209"/>
-      <c r="L53" s="242"/>
-      <c r="M53" s="209"/>
-      <c r="N53" s="242"/>
-      <c r="O53" s="209"/>
-      <c r="P53" s="224" t="s">
+      <c r="A53" s="213"/>
+      <c r="B53" s="224"/>
+      <c r="C53" s="224"/>
+      <c r="D53" s="224"/>
+      <c r="E53" s="213"/>
+      <c r="F53" s="224"/>
+      <c r="G53" s="213"/>
+      <c r="H53" s="224"/>
+      <c r="I53" s="213"/>
+      <c r="J53" s="224"/>
+      <c r="K53" s="224"/>
+      <c r="L53" s="213"/>
+      <c r="M53" s="224"/>
+      <c r="N53" s="213"/>
+      <c r="O53" s="224"/>
+      <c r="P53" s="212" t="s">
         <v>113</v>
       </c>
-      <c r="Q53" s="225"/>
-      <c r="R53" s="224" t="s">
+      <c r="Q53" s="239"/>
+      <c r="R53" s="212" t="s">
         <v>114</v>
       </c>
-      <c r="S53" s="226"/>
-      <c r="T53" s="278"/>
-      <c r="U53" s="242"/>
-      <c r="V53" s="209"/>
-      <c r="W53" s="242"/>
+      <c r="S53" s="240"/>
+      <c r="T53" s="245"/>
+      <c r="U53" s="213"/>
+      <c r="V53" s="224"/>
+      <c r="W53" s="213"/>
       <c r="X53" s="142"/>
       <c r="Y53" s="79"/>
       <c r="Z53" s="79"/>
@@ -4805,46 +4803,46 @@
       <c r="AE53" s="79"/>
     </row>
     <row r="54" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="242"/>
-      <c r="B54" s="209"/>
-      <c r="C54" s="209"/>
-      <c r="D54" s="209"/>
-      <c r="E54" s="224">
+      <c r="A54" s="213"/>
+      <c r="B54" s="224"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="224"/>
+      <c r="E54" s="212">
         <v>33</v>
       </c>
-      <c r="F54" s="225"/>
-      <c r="G54" s="224">
+      <c r="F54" s="239"/>
+      <c r="G54" s="212">
         <v>34</v>
       </c>
-      <c r="H54" s="225"/>
-      <c r="I54" s="224">
+      <c r="H54" s="239"/>
+      <c r="I54" s="212">
         <v>35</v>
       </c>
-      <c r="J54" s="225"/>
-      <c r="K54" s="225"/>
-      <c r="L54" s="224">
+      <c r="J54" s="239"/>
+      <c r="K54" s="239"/>
+      <c r="L54" s="212">
         <v>36</v>
       </c>
-      <c r="M54" s="225"/>
-      <c r="N54" s="224">
+      <c r="M54" s="239"/>
+      <c r="N54" s="212">
         <v>37</v>
       </c>
-      <c r="O54" s="225"/>
-      <c r="P54" s="224">
+      <c r="O54" s="239"/>
+      <c r="P54" s="212">
         <v>38</v>
       </c>
-      <c r="Q54" s="225"/>
-      <c r="R54" s="224">
+      <c r="Q54" s="239"/>
+      <c r="R54" s="212">
         <v>39</v>
       </c>
-      <c r="S54" s="225"/>
+      <c r="S54" s="239"/>
       <c r="T54" s="161">
         <v>40</v>
       </c>
-      <c r="U54" s="224">
+      <c r="U54" s="212">
         <v>41</v>
       </c>
-      <c r="V54" s="225"/>
+      <c r="V54" s="239"/>
       <c r="W54" s="158">
         <v>42</v>
       </c>
@@ -4858,30 +4856,30 @@
       <c r="AE54" s="160"/>
     </row>
     <row r="55" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="281" t="s">
+      <c r="A55" s="235" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="282"/>
-      <c r="C55" s="282"/>
-      <c r="D55" s="283"/>
-      <c r="E55" s="268"/>
-      <c r="F55" s="268"/>
-      <c r="G55" s="268"/>
-      <c r="H55" s="268"/>
-      <c r="I55" s="268"/>
-      <c r="J55" s="268"/>
-      <c r="K55" s="268"/>
-      <c r="L55" s="268"/>
-      <c r="M55" s="268"/>
-      <c r="N55" s="268"/>
-      <c r="O55" s="268"/>
-      <c r="P55" s="268"/>
-      <c r="Q55" s="268"/>
-      <c r="R55" s="268"/>
-      <c r="S55" s="268"/>
+      <c r="B55" s="236"/>
+      <c r="C55" s="236"/>
+      <c r="D55" s="237"/>
+      <c r="E55" s="232"/>
+      <c r="F55" s="232"/>
+      <c r="G55" s="232"/>
+      <c r="H55" s="232"/>
+      <c r="I55" s="232"/>
+      <c r="J55" s="232"/>
+      <c r="K55" s="232"/>
+      <c r="L55" s="232"/>
+      <c r="M55" s="232"/>
+      <c r="N55" s="232"/>
+      <c r="O55" s="232"/>
+      <c r="P55" s="232"/>
+      <c r="Q55" s="232"/>
+      <c r="R55" s="232"/>
+      <c r="S55" s="232"/>
       <c r="T55" s="159"/>
-      <c r="U55" s="268"/>
-      <c r="V55" s="268"/>
+      <c r="U55" s="232"/>
+      <c r="V55" s="232"/>
       <c r="W55" s="159"/>
       <c r="X55" s="140"/>
       <c r="Y55" s="74"/>
@@ -4893,35 +4891,35 @@
       <c r="AE55" s="74"/>
     </row>
     <row r="56" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="281" t="s">
+      <c r="A56" s="235" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="282"/>
-      <c r="C56" s="282"/>
-      <c r="D56" s="283"/>
-      <c r="E56" s="268"/>
-      <c r="F56" s="268"/>
-      <c r="G56" s="268"/>
-      <c r="H56" s="268"/>
-      <c r="I56" s="268"/>
-      <c r="J56" s="268"/>
-      <c r="K56" s="268"/>
-      <c r="L56" s="268"/>
-      <c r="M56" s="268"/>
-      <c r="N56" s="268"/>
-      <c r="O56" s="268"/>
-      <c r="P56" s="268"/>
-      <c r="Q56" s="268"/>
-      <c r="R56" s="268"/>
-      <c r="S56" s="268"/>
+      <c r="B56" s="236"/>
+      <c r="C56" s="236"/>
+      <c r="D56" s="237"/>
+      <c r="E56" s="232"/>
+      <c r="F56" s="232"/>
+      <c r="G56" s="232"/>
+      <c r="H56" s="232"/>
+      <c r="I56" s="232"/>
+      <c r="J56" s="232"/>
+      <c r="K56" s="232"/>
+      <c r="L56" s="232"/>
+      <c r="M56" s="232"/>
+      <c r="N56" s="232"/>
+      <c r="O56" s="232"/>
+      <c r="P56" s="232"/>
+      <c r="Q56" s="232"/>
+      <c r="R56" s="232"/>
+      <c r="S56" s="232"/>
       <c r="T56" s="159"/>
-      <c r="U56" s="268"/>
-      <c r="V56" s="268"/>
+      <c r="U56" s="232"/>
+      <c r="V56" s="232"/>
       <c r="W56" s="159"/>
-      <c r="X56" s="279" t="s">
+      <c r="X56" s="238" t="s">
         <v>117</v>
       </c>
-      <c r="Y56" s="280"/>
+      <c r="Y56" s="227"/>
       <c r="Z56" s="164"/>
       <c r="AA56" s="164"/>
       <c r="AB56" s="164"/>
@@ -4930,43 +4928,43 @@
       <c r="AE56" s="164"/>
     </row>
     <row r="57" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="281" t="s">
+      <c r="A57" s="235" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="282"/>
-      <c r="C57" s="282"/>
-      <c r="D57" s="283"/>
-      <c r="E57" s="268"/>
-      <c r="F57" s="268"/>
-      <c r="G57" s="268"/>
-      <c r="H57" s="268"/>
-      <c r="I57" s="268"/>
-      <c r="J57" s="268"/>
-      <c r="K57" s="268"/>
-      <c r="L57" s="268"/>
-      <c r="M57" s="268"/>
-      <c r="N57" s="268"/>
-      <c r="O57" s="268"/>
-      <c r="P57" s="268"/>
-      <c r="Q57" s="268"/>
-      <c r="R57" s="268"/>
-      <c r="S57" s="268"/>
+      <c r="B57" s="236"/>
+      <c r="C57" s="236"/>
+      <c r="D57" s="237"/>
+      <c r="E57" s="232"/>
+      <c r="F57" s="232"/>
+      <c r="G57" s="232"/>
+      <c r="H57" s="232"/>
+      <c r="I57" s="232"/>
+      <c r="J57" s="232"/>
+      <c r="K57" s="232"/>
+      <c r="L57" s="232"/>
+      <c r="M57" s="232"/>
+      <c r="N57" s="232"/>
+      <c r="O57" s="232"/>
+      <c r="P57" s="232"/>
+      <c r="Q57" s="232"/>
+      <c r="R57" s="232"/>
+      <c r="S57" s="232"/>
       <c r="T57" s="159"/>
-      <c r="U57" s="268"/>
-      <c r="V57" s="268"/>
+      <c r="U57" s="232"/>
+      <c r="V57" s="232"/>
       <c r="W57" s="159"/>
       <c r="X57" s="165"/>
       <c r="Y57" s="166"/>
-      <c r="Z57" s="220" t="s">
+      <c r="Z57" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="AA57" s="220"/>
-      <c r="AB57" s="220" t="s">
+      <c r="AA57" s="233"/>
+      <c r="AB57" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AC57" s="220"/>
-      <c r="AD57" s="220"/>
-      <c r="AE57" s="220"/>
+      <c r="AC57" s="233"/>
+      <c r="AD57" s="233"/>
+      <c r="AE57" s="233"/>
     </row>
     <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94"/>
@@ -4986,14 +4984,14 @@
       <c r="O58" s="97"/>
       <c r="P58" s="97"/>
       <c r="Q58" s="97"/>
-      <c r="R58" s="287"/>
-      <c r="S58" s="287"/>
-      <c r="T58" s="287"/>
-      <c r="U58" s="287"/>
-      <c r="V58" s="287"/>
-      <c r="W58" s="287"/>
-      <c r="X58" s="287"/>
-      <c r="Y58" s="287"/>
+      <c r="R58" s="234"/>
+      <c r="S58" s="234"/>
+      <c r="T58" s="234"/>
+      <c r="U58" s="234"/>
+      <c r="V58" s="234"/>
+      <c r="W58" s="234"/>
+      <c r="X58" s="234"/>
+      <c r="Y58" s="234"/>
       <c r="Z58" s="167"/>
       <c r="AA58" s="167"/>
       <c r="AB58" s="60"/>
@@ -5022,15 +5020,15 @@
       <c r="R59" s="168"/>
       <c r="S59" s="60"/>
       <c r="T59" s="60"/>
-      <c r="U59" s="284" t="s">
+      <c r="U59" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="V59" s="285"/>
-      <c r="W59" s="285"/>
-      <c r="X59" s="285"/>
-      <c r="Y59" s="285"/>
-      <c r="Z59" s="285"/>
-      <c r="AA59" s="285"/>
+      <c r="V59" s="231"/>
+      <c r="W59" s="231"/>
+      <c r="X59" s="231"/>
+      <c r="Y59" s="231"/>
+      <c r="Z59" s="231"/>
+      <c r="AA59" s="231"/>
       <c r="AB59" s="169"/>
       <c r="AC59" s="169"/>
       <c r="AD59" s="169"/>
@@ -5057,18 +5055,18 @@
       <c r="R60" s="168"/>
       <c r="S60" s="60"/>
       <c r="T60" s="60"/>
-      <c r="U60" s="284" t="s">
+      <c r="U60" s="230" t="s">
         <v>121</v>
       </c>
-      <c r="V60" s="285"/>
-      <c r="W60" s="285"/>
-      <c r="X60" s="285"/>
-      <c r="Y60" s="285"/>
-      <c r="Z60" s="285"/>
-      <c r="AA60" s="285"/>
-      <c r="AB60" s="285"/>
-      <c r="AC60" s="285"/>
-      <c r="AD60" s="285"/>
+      <c r="V60" s="231"/>
+      <c r="W60" s="231"/>
+      <c r="X60" s="231"/>
+      <c r="Y60" s="231"/>
+      <c r="Z60" s="231"/>
+      <c r="AA60" s="231"/>
+      <c r="AB60" s="231"/>
+      <c r="AC60" s="231"/>
+      <c r="AD60" s="231"/>
       <c r="AE60" s="60"/>
     </row>
     <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5092,18 +5090,18 @@
       <c r="R61" s="60"/>
       <c r="S61" s="60"/>
       <c r="T61" s="60"/>
-      <c r="U61" s="284" t="s">
+      <c r="U61" s="230" t="s">
         <v>122</v>
       </c>
-      <c r="V61" s="285"/>
-      <c r="W61" s="285"/>
-      <c r="X61" s="285"/>
-      <c r="Y61" s="285"/>
-      <c r="Z61" s="285"/>
-      <c r="AA61" s="285"/>
-      <c r="AB61" s="285"/>
-      <c r="AC61" s="285"/>
-      <c r="AD61" s="285"/>
+      <c r="V61" s="231"/>
+      <c r="W61" s="231"/>
+      <c r="X61" s="231"/>
+      <c r="Y61" s="231"/>
+      <c r="Z61" s="231"/>
+      <c r="AA61" s="231"/>
+      <c r="AB61" s="231"/>
+      <c r="AC61" s="231"/>
+      <c r="AD61" s="231"/>
       <c r="AE61" s="60"/>
     </row>
     <row r="62" spans="1:32" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5199,11 +5197,11 @@
       <c r="U64" s="169"/>
       <c r="V64" s="169"/>
       <c r="W64" s="169"/>
-      <c r="X64" s="286" t="s">
+      <c r="X64" s="215" t="s">
         <v>123</v>
       </c>
-      <c r="Y64" s="286"/>
-      <c r="Z64" s="286"/>
+      <c r="Y64" s="215"/>
+      <c r="Z64" s="215"/>
       <c r="AA64" s="169"/>
       <c r="AB64" s="174"/>
       <c r="AC64" s="175" t="s">
@@ -5215,33 +5213,33 @@
     </row>
     <row r="65" spans="1:32" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="178"/>
-      <c r="B65" s="294" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" s="294"/>
-      <c r="D65" s="294"/>
-      <c r="E65" s="294"/>
-      <c r="F65" s="294"/>
-      <c r="G65" s="294"/>
-      <c r="H65" s="294"/>
-      <c r="I65" s="294"/>
-      <c r="J65" s="294"/>
-      <c r="K65" s="294"/>
-      <c r="L65" s="294"/>
-      <c r="M65" s="294"/>
-      <c r="N65" s="294"/>
-      <c r="O65" s="294"/>
-      <c r="P65" s="294"/>
-      <c r="Q65" s="294"/>
-      <c r="R65" s="294"/>
-      <c r="S65" s="294"/>
-      <c r="T65" s="294"/>
-      <c r="U65" s="294"/>
-      <c r="V65" s="294"/>
-      <c r="W65" s="294"/>
-      <c r="X65" s="294"/>
-      <c r="Y65" s="294"/>
-      <c r="Z65" s="294"/>
+      <c r="B65" s="223" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="223"/>
+      <c r="D65" s="223"/>
+      <c r="E65" s="223"/>
+      <c r="F65" s="223"/>
+      <c r="G65" s="223"/>
+      <c r="H65" s="223"/>
+      <c r="I65" s="223"/>
+      <c r="J65" s="223"/>
+      <c r="K65" s="223"/>
+      <c r="L65" s="223"/>
+      <c r="M65" s="223"/>
+      <c r="N65" s="223"/>
+      <c r="O65" s="223"/>
+      <c r="P65" s="223"/>
+      <c r="Q65" s="223"/>
+      <c r="R65" s="223"/>
+      <c r="S65" s="223"/>
+      <c r="T65" s="223"/>
+      <c r="U65" s="223"/>
+      <c r="V65" s="223"/>
+      <c r="W65" s="223"/>
+      <c r="X65" s="223"/>
+      <c r="Y65" s="223"/>
+      <c r="Z65" s="223"/>
       <c r="AA65" s="60"/>
       <c r="AB65" s="179"/>
       <c r="AC65" s="180"/>
@@ -5268,18 +5266,18 @@
       <c r="P66" s="60"/>
       <c r="Q66" s="60"/>
       <c r="R66" s="60"/>
-      <c r="S66" s="209"/>
-      <c r="T66" s="209"/>
+      <c r="S66" s="224"/>
+      <c r="T66" s="224"/>
       <c r="U66" s="60"/>
       <c r="V66" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="W66" s="295" t="s">
+      <c r="W66" s="225" t="s">
         <v>125</v>
       </c>
-      <c r="X66" s="296"/>
-      <c r="Y66" s="296"/>
-      <c r="Z66" s="296"/>
+      <c r="X66" s="226"/>
+      <c r="Y66" s="226"/>
+      <c r="Z66" s="226"/>
       <c r="AA66" s="60"/>
       <c r="AB66" s="183"/>
       <c r="AC66" s="184"/>
@@ -5310,10 +5308,10 @@
       <c r="T67" s="60"/>
       <c r="U67" s="60"/>
       <c r="V67" s="60"/>
-      <c r="W67" s="296"/>
-      <c r="X67" s="296"/>
-      <c r="Y67" s="296"/>
-      <c r="Z67" s="296"/>
+      <c r="W67" s="226"/>
+      <c r="X67" s="226"/>
+      <c r="Y67" s="226"/>
+      <c r="Z67" s="226"/>
       <c r="AA67" s="60"/>
       <c r="AB67" s="187"/>
       <c r="AC67" s="188"/>
@@ -5322,38 +5320,38 @@
       <c r="AF67" s="71"/>
     </row>
     <row r="68" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="289" t="s">
+      <c r="A68" s="214" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="289"/>
-      <c r="C68" s="289"/>
-      <c r="D68" s="289"/>
-      <c r="E68" s="288" t="s">
-        <v>185</v>
-      </c>
-      <c r="F68" s="280"/>
-      <c r="G68" s="280"/>
-      <c r="H68" s="280"/>
-      <c r="I68" s="280"/>
-      <c r="J68" s="280"/>
-      <c r="K68" s="280"/>
-      <c r="L68" s="280"/>
-      <c r="M68" s="280"/>
-      <c r="N68" s="280"/>
-      <c r="O68" s="280"/>
-      <c r="P68" s="280"/>
-      <c r="Q68" s="280"/>
-      <c r="R68" s="280"/>
-      <c r="S68" s="297"/>
-      <c r="T68" s="297"/>
-      <c r="U68" s="297"/>
-      <c r="V68" s="297"/>
-      <c r="W68" s="280"/>
-      <c r="X68" s="298"/>
-      <c r="Y68" s="286" t="s">
+      <c r="B68" s="214"/>
+      <c r="C68" s="214"/>
+      <c r="D68" s="214"/>
+      <c r="E68" s="218" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" s="227"/>
+      <c r="G68" s="227"/>
+      <c r="H68" s="227"/>
+      <c r="I68" s="227"/>
+      <c r="J68" s="227"/>
+      <c r="K68" s="227"/>
+      <c r="L68" s="227"/>
+      <c r="M68" s="227"/>
+      <c r="N68" s="227"/>
+      <c r="O68" s="227"/>
+      <c r="P68" s="227"/>
+      <c r="Q68" s="227"/>
+      <c r="R68" s="227"/>
+      <c r="S68" s="228"/>
+      <c r="T68" s="228"/>
+      <c r="U68" s="228"/>
+      <c r="V68" s="228"/>
+      <c r="W68" s="227"/>
+      <c r="X68" s="229"/>
+      <c r="Y68" s="215" t="s">
         <v>127</v>
       </c>
-      <c r="Z68" s="286"/>
+      <c r="Z68" s="215"/>
       <c r="AA68" s="60"/>
       <c r="AB68" s="183"/>
       <c r="AC68" s="185"/>
@@ -5362,10 +5360,10 @@
       <c r="AF68" s="71"/>
     </row>
     <row r="69" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="288"/>
-      <c r="B69" s="288"/>
-      <c r="C69" s="288"/>
-      <c r="D69" s="288"/>
+      <c r="A69" s="218"/>
+      <c r="B69" s="218"/>
+      <c r="C69" s="218"/>
+      <c r="D69" s="218"/>
       <c r="E69" s="190"/>
       <c r="F69" s="94"/>
       <c r="G69" s="94"/>
@@ -5398,36 +5396,36 @@
       <c r="AF69" s="71"/>
     </row>
     <row r="70" spans="1:32" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="289" t="s">
+      <c r="A70" s="214" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="289"/>
-      <c r="C70" s="289"/>
-      <c r="D70" s="289"/>
-      <c r="E70" s="290"/>
-      <c r="F70" s="291"/>
-      <c r="G70" s="291"/>
-      <c r="H70" s="291"/>
-      <c r="I70" s="291"/>
-      <c r="J70" s="291"/>
-      <c r="K70" s="292"/>
-      <c r="L70" s="292"/>
-      <c r="M70" s="292"/>
-      <c r="N70" s="292"/>
-      <c r="O70" s="292"/>
-      <c r="P70" s="292"/>
-      <c r="Q70" s="292"/>
-      <c r="R70" s="292"/>
-      <c r="S70" s="292"/>
-      <c r="T70" s="292"/>
-      <c r="U70" s="291"/>
-      <c r="V70" s="291"/>
-      <c r="W70" s="293"/>
-      <c r="X70" s="293"/>
-      <c r="Y70" s="286" t="s">
+      <c r="B70" s="214"/>
+      <c r="C70" s="214"/>
+      <c r="D70" s="214"/>
+      <c r="E70" s="219"/>
+      <c r="F70" s="220"/>
+      <c r="G70" s="220"/>
+      <c r="H70" s="220"/>
+      <c r="I70" s="220"/>
+      <c r="J70" s="220"/>
+      <c r="K70" s="221"/>
+      <c r="L70" s="221"/>
+      <c r="M70" s="221"/>
+      <c r="N70" s="221"/>
+      <c r="O70" s="221"/>
+      <c r="P70" s="221"/>
+      <c r="Q70" s="221"/>
+      <c r="R70" s="221"/>
+      <c r="S70" s="221"/>
+      <c r="T70" s="221"/>
+      <c r="U70" s="220"/>
+      <c r="V70" s="220"/>
+      <c r="W70" s="222"/>
+      <c r="X70" s="222"/>
+      <c r="Y70" s="215" t="s">
         <v>127</v>
       </c>
-      <c r="Z70" s="286"/>
+      <c r="Z70" s="215"/>
       <c r="AA70" s="60"/>
       <c r="AB70" s="183"/>
       <c r="AC70" s="185"/>
@@ -5462,8 +5460,8 @@
       <c r="V71" s="94"/>
       <c r="W71" s="193"/>
       <c r="X71" s="193"/>
-      <c r="Y71" s="286"/>
-      <c r="Z71" s="286"/>
+      <c r="Y71" s="215"/>
+      <c r="Z71" s="215"/>
       <c r="AA71" s="60"/>
       <c r="AB71" s="187"/>
       <c r="AC71" s="188"/>
@@ -5472,36 +5470,36 @@
       <c r="AF71" s="71"/>
     </row>
     <row r="72" spans="1:32" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="289" t="s">
+      <c r="A72" s="214" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="289"/>
-      <c r="C72" s="289"/>
+      <c r="B72" s="214"/>
+      <c r="C72" s="214"/>
       <c r="D72" s="197"/>
-      <c r="E72" s="303"/>
-      <c r="F72" s="303"/>
-      <c r="G72" s="303"/>
-      <c r="H72" s="303"/>
-      <c r="I72" s="303"/>
-      <c r="J72" s="303"/>
-      <c r="K72" s="303"/>
-      <c r="L72" s="303"/>
-      <c r="M72" s="303"/>
-      <c r="N72" s="303"/>
-      <c r="O72" s="303"/>
-      <c r="P72" s="303"/>
-      <c r="Q72" s="303"/>
-      <c r="R72" s="303"/>
-      <c r="S72" s="303"/>
-      <c r="T72" s="303"/>
-      <c r="U72" s="303"/>
-      <c r="V72" s="303"/>
-      <c r="W72" s="303"/>
-      <c r="X72" s="303"/>
-      <c r="Y72" s="286" t="s">
+      <c r="E72" s="216"/>
+      <c r="F72" s="216"/>
+      <c r="G72" s="216"/>
+      <c r="H72" s="216"/>
+      <c r="I72" s="216"/>
+      <c r="J72" s="216"/>
+      <c r="K72" s="216"/>
+      <c r="L72" s="216"/>
+      <c r="M72" s="216"/>
+      <c r="N72" s="216"/>
+      <c r="O72" s="216"/>
+      <c r="P72" s="216"/>
+      <c r="Q72" s="216"/>
+      <c r="R72" s="216"/>
+      <c r="S72" s="216"/>
+      <c r="T72" s="216"/>
+      <c r="U72" s="216"/>
+      <c r="V72" s="216"/>
+      <c r="W72" s="216"/>
+      <c r="X72" s="216"/>
+      <c r="Y72" s="215" t="s">
         <v>127</v>
       </c>
-      <c r="Z72" s="286"/>
+      <c r="Z72" s="215"/>
       <c r="AA72" s="60"/>
       <c r="AB72" s="198"/>
       <c r="AC72" s="199"/>
@@ -5545,410 +5543,231 @@
       <c r="AE73" s="126"/>
     </row>
     <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="205" t="s">
+      <c r="A74" s="217" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="205"/>
-      <c r="C74" s="205"/>
-      <c r="D74" s="205"/>
-      <c r="E74" s="205"/>
-      <c r="F74" s="205"/>
-      <c r="G74" s="205"/>
-      <c r="H74" s="205"/>
-      <c r="I74" s="205"/>
-      <c r="J74" s="205"/>
-      <c r="K74" s="205"/>
-      <c r="L74" s="205"/>
-      <c r="M74" s="205"/>
-      <c r="N74" s="205"/>
-      <c r="O74" s="205"/>
-      <c r="P74" s="205"/>
-      <c r="Q74" s="205"/>
-      <c r="R74" s="205"/>
-      <c r="S74" s="205"/>
-      <c r="T74" s="205"/>
-      <c r="U74" s="205"/>
-      <c r="V74" s="205"/>
-      <c r="W74" s="205"/>
-      <c r="X74" s="205"/>
-      <c r="Y74" s="205"/>
-      <c r="Z74" s="205"/>
-      <c r="AA74" s="205"/>
-      <c r="AB74" s="205"/>
-      <c r="AC74" s="205"/>
-      <c r="AD74" s="205"/>
-      <c r="AE74" s="205"/>
+      <c r="B74" s="217"/>
+      <c r="C74" s="217"/>
+      <c r="D74" s="217"/>
+      <c r="E74" s="217"/>
+      <c r="F74" s="217"/>
+      <c r="G74" s="217"/>
+      <c r="H74" s="217"/>
+      <c r="I74" s="217"/>
+      <c r="J74" s="217"/>
+      <c r="K74" s="217"/>
+      <c r="L74" s="217"/>
+      <c r="M74" s="217"/>
+      <c r="N74" s="217"/>
+      <c r="O74" s="217"/>
+      <c r="P74" s="217"/>
+      <c r="Q74" s="217"/>
+      <c r="R74" s="217"/>
+      <c r="S74" s="217"/>
+      <c r="T74" s="217"/>
+      <c r="U74" s="217"/>
+      <c r="V74" s="217"/>
+      <c r="W74" s="217"/>
+      <c r="X74" s="217"/>
+      <c r="Y74" s="217"/>
+      <c r="Z74" s="217"/>
+      <c r="AA74" s="217"/>
+      <c r="AB74" s="217"/>
+      <c r="AC74" s="217"/>
+      <c r="AD74" s="217"/>
+      <c r="AE74" s="217"/>
     </row>
     <row r="75" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="224" t="s">
+      <c r="A75" s="212" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="299" t="s">
+      <c r="B75" s="206" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="300"/>
-      <c r="D75" s="300"/>
-      <c r="E75" s="300"/>
-      <c r="F75" s="299" t="s">
+      <c r="C75" s="207"/>
+      <c r="D75" s="207"/>
+      <c r="E75" s="207"/>
+      <c r="F75" s="206" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="300"/>
-      <c r="H75" s="300"/>
-      <c r="I75" s="300"/>
-      <c r="J75" s="299" t="s">
+      <c r="G75" s="207"/>
+      <c r="H75" s="207"/>
+      <c r="I75" s="207"/>
+      <c r="J75" s="206" t="s">
         <v>50</v>
       </c>
-      <c r="K75" s="300"/>
-      <c r="L75" s="299" t="s">
+      <c r="K75" s="207"/>
+      <c r="L75" s="206" t="s">
         <v>135</v>
       </c>
-      <c r="M75" s="300"/>
-      <c r="N75" s="299" t="s">
+      <c r="M75" s="207"/>
+      <c r="N75" s="206" t="s">
         <v>136</v>
       </c>
-      <c r="O75" s="300"/>
-      <c r="P75" s="300"/>
-      <c r="Q75" s="300"/>
-      <c r="R75" s="300"/>
-      <c r="S75" s="300"/>
+      <c r="O75" s="207"/>
+      <c r="P75" s="207"/>
+      <c r="Q75" s="207"/>
+      <c r="R75" s="207"/>
+      <c r="S75" s="207"/>
       <c r="T75" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="U75" s="299" t="s">
+      <c r="U75" s="206" t="s">
         <v>138</v>
       </c>
-      <c r="V75" s="300"/>
-      <c r="W75" s="299" t="s">
+      <c r="V75" s="207"/>
+      <c r="W75" s="206" t="s">
         <v>48</v>
       </c>
-      <c r="X75" s="300"/>
-      <c r="Y75" s="299" t="s">
+      <c r="X75" s="207"/>
+      <c r="Y75" s="206" t="s">
         <v>139</v>
       </c>
-      <c r="Z75" s="300"/>
-      <c r="AA75" s="299" t="s">
+      <c r="Z75" s="207"/>
+      <c r="AA75" s="206" t="s">
         <v>140</v>
       </c>
-      <c r="AB75" s="300"/>
-      <c r="AC75" s="300"/>
-      <c r="AD75" s="299" t="s">
+      <c r="AB75" s="207"/>
+      <c r="AC75" s="207"/>
+      <c r="AD75" s="206" t="s">
         <v>141</v>
       </c>
-      <c r="AE75" s="300"/>
+      <c r="AE75" s="207"/>
       <c r="AF75" s="127"/>
     </row>
     <row r="76" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="242"/>
-      <c r="B76" s="301"/>
-      <c r="C76" s="302"/>
-      <c r="D76" s="302"/>
-      <c r="E76" s="302"/>
-      <c r="F76" s="301"/>
-      <c r="G76" s="302"/>
-      <c r="H76" s="302"/>
-      <c r="I76" s="302"/>
-      <c r="J76" s="301"/>
-      <c r="K76" s="302"/>
-      <c r="L76" s="299" t="s">
+      <c r="A76" s="213"/>
+      <c r="B76" s="208"/>
+      <c r="C76" s="209"/>
+      <c r="D76" s="209"/>
+      <c r="E76" s="209"/>
+      <c r="F76" s="208"/>
+      <c r="G76" s="209"/>
+      <c r="H76" s="209"/>
+      <c r="I76" s="209"/>
+      <c r="J76" s="208"/>
+      <c r="K76" s="209"/>
+      <c r="L76" s="206" t="s">
         <v>142</v>
       </c>
-      <c r="M76" s="300"/>
-      <c r="N76" s="299"/>
-      <c r="O76" s="300"/>
-      <c r="P76" s="300"/>
-      <c r="Q76" s="300"/>
-      <c r="R76" s="300"/>
-      <c r="S76" s="300"/>
+      <c r="M76" s="207"/>
+      <c r="N76" s="206"/>
+      <c r="O76" s="207"/>
+      <c r="P76" s="207"/>
+      <c r="Q76" s="207"/>
+      <c r="R76" s="207"/>
+      <c r="S76" s="207"/>
       <c r="T76" s="202" t="s">
         <v>143</v>
       </c>
-      <c r="U76" s="299" t="s">
+      <c r="U76" s="206" t="s">
         <v>144</v>
       </c>
-      <c r="V76" s="300"/>
-      <c r="W76" s="299" t="s">
+      <c r="V76" s="207"/>
+      <c r="W76" s="206" t="s">
         <v>52</v>
       </c>
-      <c r="X76" s="300"/>
-      <c r="Y76" s="299" t="s">
+      <c r="X76" s="207"/>
+      <c r="Y76" s="206" t="s">
         <v>145</v>
       </c>
-      <c r="Z76" s="300"/>
-      <c r="AA76" s="299" t="s">
+      <c r="Z76" s="207"/>
+      <c r="AA76" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="AB76" s="300"/>
-      <c r="AC76" s="306"/>
-      <c r="AD76" s="301"/>
-      <c r="AE76" s="302"/>
+      <c r="AB76" s="207"/>
+      <c r="AC76" s="210"/>
+      <c r="AD76" s="208"/>
+      <c r="AE76" s="209"/>
       <c r="AF76" s="127"/>
     </row>
     <row r="77" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="203">
         <v>1</v>
       </c>
-      <c r="B77" s="304">
+      <c r="B77" s="204">
         <v>2</v>
       </c>
-      <c r="C77" s="305"/>
-      <c r="D77" s="305"/>
-      <c r="E77" s="305"/>
-      <c r="F77" s="304">
+      <c r="C77" s="205"/>
+      <c r="D77" s="205"/>
+      <c r="E77" s="205"/>
+      <c r="F77" s="204">
         <v>3</v>
       </c>
-      <c r="G77" s="305"/>
-      <c r="H77" s="305"/>
-      <c r="I77" s="305"/>
-      <c r="J77" s="304">
+      <c r="G77" s="205"/>
+      <c r="H77" s="205"/>
+      <c r="I77" s="205"/>
+      <c r="J77" s="204">
         <v>4</v>
       </c>
-      <c r="K77" s="305"/>
-      <c r="L77" s="304">
+      <c r="K77" s="205"/>
+      <c r="L77" s="204">
         <v>5</v>
       </c>
-      <c r="M77" s="305"/>
-      <c r="N77" s="304">
+      <c r="M77" s="205"/>
+      <c r="N77" s="204">
         <v>6</v>
       </c>
-      <c r="O77" s="305"/>
-      <c r="P77" s="305"/>
-      <c r="Q77" s="305"/>
-      <c r="R77" s="305"/>
-      <c r="S77" s="305"/>
+      <c r="O77" s="205"/>
+      <c r="P77" s="205"/>
+      <c r="Q77" s="205"/>
+      <c r="R77" s="205"/>
+      <c r="S77" s="205"/>
       <c r="T77" s="203">
         <v>7</v>
       </c>
-      <c r="U77" s="304">
+      <c r="U77" s="204">
         <v>8</v>
       </c>
-      <c r="V77" s="305"/>
-      <c r="W77" s="304">
+      <c r="V77" s="205"/>
+      <c r="W77" s="204">
         <v>9</v>
       </c>
-      <c r="X77" s="305"/>
-      <c r="Y77" s="304">
+      <c r="X77" s="205"/>
+      <c r="Y77" s="204">
         <v>10</v>
       </c>
-      <c r="Z77" s="305"/>
-      <c r="AA77" s="304">
+      <c r="Z77" s="205"/>
+      <c r="AA77" s="204">
         <v>11</v>
       </c>
-      <c r="AB77" s="305"/>
-      <c r="AC77" s="305"/>
-      <c r="AD77" s="304">
+      <c r="AB77" s="205"/>
+      <c r="AC77" s="205"/>
+      <c r="AD77" s="204">
         <v>12</v>
       </c>
-      <c r="AE77" s="307"/>
+      <c r="AE77" s="211"/>
       <c r="AF77" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:S77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="AA75:AC75"/>
-    <mergeCell ref="AD75:AE76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="W77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="AA77:AC77"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:E76"/>
-    <mergeCell ref="F75:I76"/>
-    <mergeCell ref="J75:K76"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:S76"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="E72:X72"/>
-    <mergeCell ref="A74:AE74"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:X70"/>
-    <mergeCell ref="Y70:Z71"/>
-    <mergeCell ref="B65:Z65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="W66:Z67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="U60:AD60"/>
-    <mergeCell ref="U61:AD61"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AE57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:K53"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:V53"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="A45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:U48"/>
-    <mergeCell ref="V47:W48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:K40"/>
-    <mergeCell ref="L39:P40"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="Z39:AB40"/>
-    <mergeCell ref="AC39:AE40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J32:L33"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="W26:AB27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="B5:AA5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:V11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:AB9"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:Y23"/>
@@ -5972,33 +5791,212 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="B5:AA5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:V11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:AB9"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="W26:AB27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J32:L33"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="L39:P40"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AB40"/>
+    <mergeCell ref="AC39:AE40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="A45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:U48"/>
+    <mergeCell ref="V47:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:V53"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="U60:AD60"/>
+    <mergeCell ref="U61:AD61"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AE57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:X70"/>
+    <mergeCell ref="Y70:Z71"/>
+    <mergeCell ref="B65:Z65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="W66:Z67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:E76"/>
+    <mergeCell ref="F75:I76"/>
+    <mergeCell ref="J75:K76"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:S76"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="E72:X72"/>
+    <mergeCell ref="A74:AE74"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="AA75:AC75"/>
+    <mergeCell ref="AD75:AE76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="AA77:AC77"/>
+    <mergeCell ref="AD77:AE77"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -6015,7 +6013,7 @@
   <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6040,56 +6038,56 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="311" t="s">
+      <c r="T1" s="333" t="s">
         <v>154</v>
       </c>
-      <c r="U1" s="311"/>
-      <c r="V1" s="311"/>
-      <c r="W1" s="311"/>
-      <c r="X1" s="311"/>
+      <c r="U1" s="333"/>
+      <c r="V1" s="333"/>
+      <c r="W1" s="333"/>
+      <c r="X1" s="333"/>
       <c r="Y1" s="46" t="s">
         <v>160</v>
       </c>
       <c r="Z1" s="47"/>
-      <c r="AA1" s="319"/>
-      <c r="AB1" s="320"/>
-      <c r="AC1" s="321"/>
+      <c r="AA1" s="339"/>
+      <c r="AB1" s="340"/>
+      <c r="AC1" s="341"/>
       <c r="AD1" s="56"/>
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="329" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="312"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="312"/>
-      <c r="Q2" s="312"/>
-      <c r="R2" s="312"/>
+      <c r="B2" s="329"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="329"/>
+      <c r="K2" s="329"/>
+      <c r="L2" s="329"/>
+      <c r="M2" s="329"/>
+      <c r="N2" s="329"/>
+      <c r="O2" s="329"/>
+      <c r="P2" s="329"/>
+      <c r="Q2" s="329"/>
+      <c r="R2" s="329"/>
       <c r="S2" s="2">
         <v>1</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="U2" s="313" t="s">
+      <c r="U2" s="334" t="s">
         <v>157</v>
       </c>
-      <c r="V2" s="313"/>
-      <c r="W2" s="312"/>
-      <c r="X2" s="312"/>
+      <c r="V2" s="334"/>
+      <c r="W2" s="329"/>
+      <c r="X2" s="329"/>
       <c r="Y2" s="49"/>
       <c r="Z2" s="50"/>
       <c r="AA2" s="55"/>
@@ -6099,10 +6097,10 @@
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="335" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="314"/>
+      <c r="B3" s="335"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -6120,13 +6118,13 @@
       <c r="Q3" s="44"/>
       <c r="R3" s="44"/>
       <c r="S3" s="45"/>
-      <c r="T3" s="313" t="s">
+      <c r="T3" s="334" t="s">
         <v>159</v>
       </c>
-      <c r="U3" s="313"/>
-      <c r="V3" s="313"/>
-      <c r="W3" s="314"/>
-      <c r="X3" s="314"/>
+      <c r="U3" s="334"/>
+      <c r="V3" s="334"/>
+      <c r="W3" s="335"/>
+      <c r="X3" s="335"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="53"/>
       <c r="AA3" s="51"/>
@@ -6153,38 +6151,38 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="316"/>
-      <c r="S4" s="316"/>
+      <c r="R4" s="336"/>
+      <c r="S4" s="336"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="317"/>
-      <c r="Z4" s="317"/>
-      <c r="AA4" s="308"/>
-      <c r="AB4" s="308"/>
-      <c r="AC4" s="308"/>
+      <c r="Y4" s="337"/>
+      <c r="Z4" s="337"/>
+      <c r="AA4" s="331"/>
+      <c r="AB4" s="331"/>
+      <c r="AC4" s="331"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="10.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="315" t="s">
+      <c r="A5" s="322" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="315"/>
-      <c r="C5" s="315"/>
+      <c r="B5" s="322"/>
+      <c r="C5" s="322"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="310" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="310"/>
-      <c r="L5" s="310"/>
+      <c r="J5" s="308" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="308"/>
+      <c r="L5" s="308"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="8"/>
@@ -6197,11 +6195,11 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="318"/>
-      <c r="Z5" s="318"/>
-      <c r="AA5" s="309"/>
-      <c r="AB5" s="309"/>
-      <c r="AC5" s="309"/>
+      <c r="Y5" s="338"/>
+      <c r="Z5" s="338"/>
+      <c r="AA5" s="332"/>
+      <c r="AB5" s="332"/>
+      <c r="AC5" s="332"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
     </row>
@@ -6234,19 +6232,19 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="312"/>
-      <c r="Z6" s="328"/>
-      <c r="AA6" s="312"/>
-      <c r="AB6" s="328"/>
-      <c r="AC6" s="328"/>
+      <c r="Y6" s="329"/>
+      <c r="Z6" s="330"/>
+      <c r="AA6" s="329"/>
+      <c r="AB6" s="330"/>
+      <c r="AC6" s="330"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:31" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="325" t="s">
+      <c r="A7" s="327" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="325"/>
+      <c r="B7" s="327"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -6254,11 +6252,11 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="310" t="s">
+      <c r="J7" s="308" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="310"/>
-      <c r="L7" s="310"/>
+      <c r="K7" s="308"/>
+      <c r="L7" s="308"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="17"/>
@@ -6271,11 +6269,11 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="328"/>
-      <c r="Z7" s="328"/>
-      <c r="AA7" s="328"/>
-      <c r="AB7" s="328"/>
-      <c r="AC7" s="328"/>
+      <c r="Y7" s="330"/>
+      <c r="Z7" s="330"/>
+      <c r="AA7" s="330"/>
+      <c r="AB7" s="330"/>
+      <c r="AC7" s="330"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
     </row>
@@ -6308,29 +6306,29 @@
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
       <c r="X8" s="19"/>
-      <c r="Y8" s="322"/>
-      <c r="Z8" s="322"/>
-      <c r="AA8" s="323"/>
-      <c r="AB8" s="323"/>
-      <c r="AC8" s="323"/>
+      <c r="Y8" s="321"/>
+      <c r="Z8" s="321"/>
+      <c r="AA8" s="325"/>
+      <c r="AB8" s="325"/>
+      <c r="AC8" s="325"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
     </row>
     <row r="9" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="315" t="s">
+      <c r="A9" s="322" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="324"/>
-      <c r="C9" s="324"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
+      <c r="B9" s="326"/>
+      <c r="C9" s="326"/>
+      <c r="D9" s="327"/>
+      <c r="E9" s="327"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="326" t="s">
+      <c r="I9" s="323" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="327"/>
+      <c r="J9" s="328"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="22"/>
@@ -6361,11 +6359,11 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="337" t="s">
+      <c r="F10" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="337"/>
-      <c r="H10" s="337"/>
+      <c r="G10" s="317"/>
+      <c r="H10" s="317"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
@@ -6391,25 +6389,25 @@
       <c r="AE10" s="4"/>
     </row>
     <row r="11" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="315" t="s">
+      <c r="A11" s="322" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="315"/>
-      <c r="C11" s="326"/>
-      <c r="D11" s="326"/>
-      <c r="E11" s="326"/>
-      <c r="F11" s="326"/>
-      <c r="G11" s="326"/>
-      <c r="H11" s="326"/>
-      <c r="I11" s="326"/>
-      <c r="J11" s="326"/>
-      <c r="K11" s="326"/>
-      <c r="L11" s="326"/>
-      <c r="M11" s="326"/>
-      <c r="N11" s="326"/>
-      <c r="O11" s="326"/>
-      <c r="P11" s="326"/>
-      <c r="Q11" s="326"/>
+      <c r="B11" s="322"/>
+      <c r="C11" s="323"/>
+      <c r="D11" s="323"/>
+      <c r="E11" s="323"/>
+      <c r="F11" s="323"/>
+      <c r="G11" s="323"/>
+      <c r="H11" s="323"/>
+      <c r="I11" s="323"/>
+      <c r="J11" s="323"/>
+      <c r="K11" s="323"/>
+      <c r="L11" s="323"/>
+      <c r="M11" s="323"/>
+      <c r="N11" s="323"/>
+      <c r="O11" s="323"/>
+      <c r="P11" s="323"/>
+      <c r="Q11" s="323"/>
       <c r="R11" s="26"/>
       <c r="S11" s="18" t="s">
         <v>168</v>
@@ -6448,10 +6446,10 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="26"/>
-      <c r="S12" s="326" t="s">
+      <c r="S12" s="323" t="s">
         <v>169</v>
       </c>
-      <c r="T12" s="326"/>
+      <c r="T12" s="323"/>
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
       <c r="W12" s="32"/>
@@ -6476,11 +6474,11 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="341" t="s">
+      <c r="L13" s="310" t="s">
         <v>170</v>
       </c>
-      <c r="M13" s="341"/>
-      <c r="N13" s="341"/>
+      <c r="M13" s="310"/>
+      <c r="N13" s="310"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -6506,44 +6504,44 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="329" t="s">
+      <c r="A14" s="312" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="329"/>
-      <c r="C14" s="329"/>
-      <c r="D14" s="330" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="330"/>
-      <c r="F14" s="331"/>
-      <c r="G14" s="331"/>
-      <c r="H14" s="332" t="s">
+      <c r="B14" s="312"/>
+      <c r="C14" s="312"/>
+      <c r="D14" s="313" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="313"/>
+      <c r="F14" s="311"/>
+      <c r="G14" s="311"/>
+      <c r="H14" s="309" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="332"/>
-      <c r="J14" s="332"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="309"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="329" t="s">
+      <c r="L14" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="M14" s="329"/>
+      <c r="M14" s="312"/>
       <c r="N14" s="58"/>
       <c r="O14" s="59" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="P14" s="57"/>
       <c r="Q14" s="57"/>
       <c r="R14" s="26"/>
-      <c r="S14" s="333"/>
-      <c r="T14" s="333"/>
-      <c r="U14" s="333"/>
-      <c r="V14" s="333"/>
-      <c r="W14" s="333"/>
-      <c r="X14" s="333"/>
-      <c r="Y14" s="333"/>
-      <c r="Z14" s="333"/>
-      <c r="AA14" s="333"/>
-      <c r="AB14" s="333"/>
+      <c r="S14" s="324"/>
+      <c r="T14" s="324"/>
+      <c r="U14" s="324"/>
+      <c r="V14" s="324"/>
+      <c r="W14" s="324"/>
+      <c r="X14" s="324"/>
+      <c r="Y14" s="324"/>
+      <c r="Z14" s="324"/>
+      <c r="AA14" s="324"/>
+      <c r="AB14" s="324"/>
       <c r="AC14" s="22"/>
       <c r="AD14" s="22"/>
       <c r="AE14" s="4"/>
@@ -6557,7 +6555,7 @@
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="33" t="s">
@@ -6566,29 +6564,29 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="340"/>
-      <c r="M15" s="340"/>
+      <c r="L15" s="320"/>
+      <c r="M15" s="320"/>
       <c r="N15" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q15" s="34"/>
       <c r="R15" s="26"/>
-      <c r="S15" s="322" t="s">
-        <v>177</v>
-      </c>
-      <c r="T15" s="322"/>
-      <c r="U15" s="322"/>
-      <c r="V15" s="322"/>
-      <c r="W15" s="322"/>
-      <c r="X15" s="322"/>
-      <c r="Y15" s="322"/>
-      <c r="Z15" s="322"/>
-      <c r="AA15" s="322"/>
-      <c r="AB15" s="322"/>
+      <c r="S15" s="321" t="s">
+        <v>176</v>
+      </c>
+      <c r="T15" s="321"/>
+      <c r="U15" s="321"/>
+      <c r="V15" s="321"/>
+      <c r="W15" s="321"/>
+      <c r="X15" s="321"/>
+      <c r="Y15" s="321"/>
+      <c r="Z15" s="321"/>
+      <c r="AA15" s="321"/>
+      <c r="AB15" s="321"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
@@ -6627,20 +6625,20 @@
       <c r="AE16" s="4"/>
     </row>
     <row r="17" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="329" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="329"/>
-      <c r="C17" s="329"/>
-      <c r="D17" s="330" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="330"/>
-      <c r="F17" s="331"/>
-      <c r="G17" s="331"/>
-      <c r="H17" s="332"/>
-      <c r="I17" s="332"/>
-      <c r="J17" s="332"/>
+      <c r="A17" s="312" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="312"/>
+      <c r="C17" s="312"/>
+      <c r="D17" s="313" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="313"/>
+      <c r="F17" s="311"/>
+      <c r="G17" s="311"/>
+      <c r="H17" s="309"/>
+      <c r="I17" s="309"/>
+      <c r="J17" s="309"/>
       <c r="K17" s="40"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -6649,14 +6647,14 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="338" t="s">
-        <v>179</v>
-      </c>
-      <c r="T17" s="338"/>
-      <c r="U17" s="336"/>
-      <c r="V17" s="339"/>
-      <c r="W17" s="336"/>
-      <c r="X17" s="336"/>
+      <c r="S17" s="318" t="s">
+        <v>178</v>
+      </c>
+      <c r="T17" s="318"/>
+      <c r="U17" s="316"/>
+      <c r="V17" s="319"/>
+      <c r="W17" s="316"/>
+      <c r="X17" s="316"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="5"/>
@@ -6674,7 +6672,7 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="33" t="s">
@@ -6711,11 +6709,11 @@
       <c r="AE18" s="4"/>
     </row>
     <row r="19" spans="1:31" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="341"/>
-      <c r="B19" s="341"/>
-      <c r="C19" s="341"/>
-      <c r="D19" s="331"/>
-      <c r="E19" s="331"/>
+      <c r="A19" s="310"/>
+      <c r="B19" s="310"/>
+      <c r="C19" s="310"/>
+      <c r="D19" s="311"/>
+      <c r="E19" s="311"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -6731,14 +6729,14 @@
       <c r="R19" s="26"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
-      <c r="U19" s="334"/>
-      <c r="V19" s="334"/>
-      <c r="W19" s="335"/>
-      <c r="X19" s="335"/>
-      <c r="Y19" s="335"/>
-      <c r="Z19" s="335"/>
-      <c r="AA19" s="335"/>
-      <c r="AB19" s="335"/>
+      <c r="U19" s="314"/>
+      <c r="V19" s="314"/>
+      <c r="W19" s="315"/>
+      <c r="X19" s="315"/>
+      <c r="Y19" s="315"/>
+      <c r="Z19" s="315"/>
+      <c r="AA19" s="315"/>
+      <c r="AB19" s="315"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
@@ -6747,19 +6745,19 @@
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="310"/>
-      <c r="E20" s="310"/>
+      <c r="D20" s="308"/>
+      <c r="E20" s="308"/>
       <c r="F20" s="42"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="310"/>
-      <c r="I20" s="310"/>
-      <c r="J20" s="310"/>
+      <c r="H20" s="308"/>
+      <c r="I20" s="308"/>
+      <c r="J20" s="308"/>
       <c r="K20" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L20" s="42"/>
-      <c r="M20" s="310"/>
-      <c r="N20" s="310"/>
+      <c r="M20" s="308"/>
+      <c r="N20" s="308"/>
       <c r="O20" s="4"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="22"/>
@@ -6780,42 +6778,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="S15:AB15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="S14:AB14"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="AA6:AC7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AA4:AC5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="T1:X1"/>
@@ -6828,6 +6790,42 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="Y4:Z5"/>
     <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="AA6:AC7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="S14:AB14"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="S15:AB15"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -562,18 +562,12 @@
     <t>Груз принял к перевозке принял</t>
   </si>
   <si>
-    <t>Главный (старший)</t>
-  </si>
-  <si>
     <t>Отпуск разрешил:</t>
   </si>
   <si>
     <t>Ширяева Н.А.</t>
   </si>
   <si>
-    <t>бухгалтер</t>
-  </si>
-  <si>
     <t xml:space="preserve">(подпись) </t>
   </si>
   <si>
@@ -608,6 +602,12 @@
   </si>
   <si>
     <t>Косяченко В.А.</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер по</t>
+  </si>
+  <si>
+    <t>дог. № 2 от 01.03.2019</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1918,419 +1918,422 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2641,7 +2644,7 @@
   </sheetPr>
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2704,49 +2707,49 @@
       <c r="W1" s="60"/>
       <c r="X1" s="60"/>
       <c r="Y1" s="60"/>
-      <c r="Z1" s="295" t="s">
+      <c r="Z1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="295"/>
-      <c r="AB1" s="295"/>
-      <c r="AC1" s="295"/>
-      <c r="AD1" s="295"/>
-      <c r="AE1" s="295"/>
+      <c r="AA1" s="204"/>
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="204"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
     </row>
     <row r="2" spans="1:32" ht="9.1999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="217"/>
-      <c r="Z2" s="217"/>
-      <c r="AA2" s="217"/>
-      <c r="AB2" s="217"/>
-      <c r="AC2" s="217"/>
-      <c r="AD2" s="217"/>
-      <c r="AE2" s="217"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="205"/>
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="205"/>
     </row>
     <row r="3" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
@@ -2791,20 +2794,20 @@
       <c r="AF3" s="71"/>
     </row>
     <row r="4" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="274" t="s">
+      <c r="A4" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="274"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="274"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
       <c r="O4" s="72"/>
@@ -2818,11 +2821,11 @@
       <c r="W4" s="66"/>
       <c r="X4" s="66"/>
       <c r="Y4" s="66"/>
-      <c r="Z4" s="295" t="s">
+      <c r="Z4" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="295"/>
-      <c r="AB4" s="295"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="204"/>
       <c r="AC4" s="73"/>
       <c r="AD4" s="74"/>
       <c r="AE4" s="75"/>
@@ -2832,32 +2835,32 @@
       <c r="A5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="300"/>
-      <c r="J5" s="300"/>
-      <c r="K5" s="300"/>
-      <c r="L5" s="300"/>
-      <c r="M5" s="300"/>
-      <c r="N5" s="300"/>
-      <c r="O5" s="300"/>
-      <c r="P5" s="300"/>
-      <c r="Q5" s="300"/>
-      <c r="R5" s="300"/>
-      <c r="S5" s="300"/>
-      <c r="T5" s="300"/>
-      <c r="U5" s="300"/>
-      <c r="V5" s="300"/>
-      <c r="W5" s="300"/>
-      <c r="X5" s="300"/>
-      <c r="Y5" s="300"/>
-      <c r="Z5" s="300"/>
-      <c r="AA5" s="300"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="207"/>
+      <c r="W5" s="207"/>
+      <c r="X5" s="207"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="207"/>
+      <c r="AA5" s="207"/>
       <c r="AB5" s="77" t="s">
         <v>6</v>
       </c>
@@ -2906,25 +2909,25 @@
       <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
-      <c r="I7" s="278" t="s">
+      <c r="I7" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="278"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="278"/>
-      <c r="N7" s="224"/>
-      <c r="O7" s="224"/>
-      <c r="P7" s="224"/>
-      <c r="Q7" s="224"/>
-      <c r="R7" s="224"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="209"/>
+      <c r="Q7" s="209"/>
+      <c r="R7" s="209"/>
       <c r="S7" s="72"/>
       <c r="T7" s="72"/>
       <c r="U7" s="72"/>
@@ -2977,38 +2980,38 @@
       <c r="AF8" s="71"/>
     </row>
     <row r="9" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="274" t="s">
+      <c r="A9" s="206" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="305" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="306"/>
-      <c r="E9" s="306"/>
-      <c r="F9" s="306"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="306"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="306"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306"/>
-      <c r="M9" s="306"/>
-      <c r="N9" s="306"/>
-      <c r="O9" s="306"/>
-      <c r="P9" s="306"/>
-      <c r="Q9" s="306"/>
-      <c r="R9" s="306"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="306"/>
-      <c r="V9" s="306"/>
-      <c r="W9" s="306"/>
-      <c r="X9" s="306"/>
-      <c r="Y9" s="306"/>
-      <c r="Z9" s="306"/>
-      <c r="AA9" s="306"/>
-      <c r="AB9" s="307"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="217" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="218"/>
+      <c r="P9" s="218"/>
+      <c r="Q9" s="218"/>
+      <c r="R9" s="218"/>
+      <c r="S9" s="218"/>
+      <c r="T9" s="218"/>
+      <c r="U9" s="218"/>
+      <c r="V9" s="218"/>
+      <c r="W9" s="218"/>
+      <c r="X9" s="218"/>
+      <c r="Y9" s="218"/>
+      <c r="Z9" s="218"/>
+      <c r="AA9" s="218"/>
+      <c r="AB9" s="219"/>
       <c r="AC9" s="91"/>
       <c r="AD9" s="92"/>
       <c r="AE9" s="93"/>
@@ -3051,38 +3054,38 @@
       <c r="AF10" s="71"/>
     </row>
     <row r="11" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="270" t="s">
+      <c r="A11" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="270"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="224"/>
-      <c r="F11" s="224"/>
-      <c r="G11" s="224"/>
-      <c r="H11" s="258"/>
-      <c r="I11" s="258"/>
-      <c r="J11" s="258"/>
-      <c r="K11" s="258"/>
-      <c r="L11" s="258"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="258"/>
-      <c r="O11" s="301"/>
-      <c r="P11" s="301"/>
-      <c r="Q11" s="301"/>
-      <c r="R11" s="301"/>
-      <c r="S11" s="301"/>
-      <c r="T11" s="301"/>
-      <c r="U11" s="301"/>
-      <c r="V11" s="301"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="210"/>
+      <c r="L11" s="210"/>
+      <c r="M11" s="210"/>
+      <c r="N11" s="210"/>
+      <c r="O11" s="211"/>
+      <c r="P11" s="211"/>
+      <c r="Q11" s="211"/>
+      <c r="R11" s="211"/>
+      <c r="S11" s="211"/>
+      <c r="T11" s="211"/>
+      <c r="U11" s="211"/>
+      <c r="V11" s="211"/>
       <c r="W11" s="98"/>
       <c r="X11" s="99" t="s">
         <v>12</v>
       </c>
       <c r="Y11" s="65"/>
-      <c r="Z11" s="302"/>
-      <c r="AA11" s="302"/>
-      <c r="AB11" s="303"/>
+      <c r="Z11" s="212"/>
+      <c r="AA11" s="212"/>
+      <c r="AB11" s="213"/>
       <c r="AC11" s="88"/>
       <c r="AD11" s="65"/>
       <c r="AE11" s="89"/>
@@ -3125,17 +3128,17 @@
       <c r="AF12" s="71"/>
     </row>
     <row r="13" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="274" t="s">
+      <c r="A13" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="274"/>
-      <c r="C13" s="224" t="s">
+      <c r="B13" s="206"/>
+      <c r="C13" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="224"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="224"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="209"/>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
       <c r="J13" s="102"/>
@@ -3144,19 +3147,19 @@
       <c r="M13" s="102"/>
       <c r="N13" s="102"/>
       <c r="O13" s="102"/>
-      <c r="P13" s="274" t="s">
+      <c r="P13" s="206" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="274"/>
-      <c r="R13" s="304"/>
-      <c r="S13" s="304"/>
-      <c r="T13" s="304"/>
-      <c r="U13" s="304"/>
-      <c r="V13" s="304"/>
-      <c r="W13" s="304"/>
-      <c r="X13" s="304"/>
-      <c r="Y13" s="304"/>
-      <c r="Z13" s="304"/>
+      <c r="Q13" s="206"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="214"/>
+      <c r="V13" s="214"/>
+      <c r="W13" s="214"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="214"/>
+      <c r="Z13" s="214"/>
       <c r="AA13" s="64"/>
       <c r="AB13" s="103" t="s">
         <v>148</v>
@@ -3203,10 +3206,10 @@
       <c r="AF14" s="71"/>
     </row>
     <row r="15" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="274" t="s">
+      <c r="A15" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="274"/>
+      <c r="B15" s="206"/>
       <c r="C15" s="107"/>
       <c r="D15" s="107"/>
       <c r="E15" s="107"/>
@@ -3246,24 +3249,24 @@
       <c r="A16" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="298"/>
-      <c r="C16" s="298"/>
-      <c r="D16" s="298"/>
-      <c r="E16" s="298"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="298"/>
-      <c r="I16" s="298"/>
-      <c r="J16" s="298"/>
-      <c r="K16" s="298"/>
-      <c r="L16" s="298"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="222"/>
+      <c r="K16" s="222"/>
+      <c r="L16" s="222"/>
       <c r="M16" s="72"/>
       <c r="N16" s="112"/>
-      <c r="O16" s="299" t="s">
+      <c r="O16" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="299"/>
-      <c r="Q16" s="299"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="223"/>
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
       <c r="T16" s="114"/>
@@ -3273,10 +3276,10 @@
       <c r="X16" s="114"/>
       <c r="Y16" s="114"/>
       <c r="Z16" s="66"/>
-      <c r="AA16" s="295" t="s">
+      <c r="AA16" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="AB16" s="296"/>
+      <c r="AB16" s="221"/>
       <c r="AC16" s="104"/>
       <c r="AD16" s="63"/>
       <c r="AE16" s="105"/>
@@ -3304,11 +3307,11 @@
       <c r="Q17" s="60"/>
       <c r="R17" s="94"/>
       <c r="S17" s="94"/>
-      <c r="T17" s="233" t="s">
+      <c r="T17" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="U17" s="233"/>
-      <c r="V17" s="233"/>
+      <c r="U17" s="220"/>
+      <c r="V17" s="220"/>
       <c r="W17" s="94"/>
       <c r="X17" s="94"/>
       <c r="Y17" s="94"/>
@@ -3321,42 +3324,42 @@
       <c r="AF17" s="71"/>
     </row>
     <row r="18" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="274" t="s">
+      <c r="A18" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="274"/>
-      <c r="C18" s="274"/>
-      <c r="D18" s="270"/>
-      <c r="E18" s="270"/>
-      <c r="F18" s="270"/>
-      <c r="G18" s="270"/>
-      <c r="H18" s="270"/>
-      <c r="I18" s="270"/>
-      <c r="J18" s="270"/>
-      <c r="K18" s="270"/>
-      <c r="L18" s="270"/>
-      <c r="M18" s="274" t="s">
+      <c r="B18" s="206"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="208"/>
+      <c r="M18" s="206" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="274"/>
+      <c r="N18" s="206"/>
       <c r="O18" s="63"/>
       <c r="P18" s="63"/>
-      <c r="Q18" s="295" t="s">
+      <c r="Q18" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="295"/>
-      <c r="S18" s="295"/>
-      <c r="T18" s="295"/>
+      <c r="R18" s="204"/>
+      <c r="S18" s="204"/>
+      <c r="T18" s="204"/>
       <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
       <c r="X18" s="63"/>
       <c r="Y18" s="63"/>
-      <c r="Z18" s="295" t="s">
+      <c r="Z18" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="AA18" s="295"/>
-      <c r="AB18" s="296"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="221"/>
       <c r="AC18" s="104"/>
       <c r="AD18" s="63"/>
       <c r="AE18" s="105"/>
@@ -3413,28 +3416,28 @@
       <c r="J20" s="60"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="274" t="s">
+      <c r="M20" s="206" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="274"/>
+      <c r="N20" s="206"/>
       <c r="O20" s="121"/>
       <c r="P20" s="121"/>
-      <c r="Q20" s="295" t="s">
+      <c r="Q20" s="204" t="s">
         <v>149</v>
       </c>
-      <c r="R20" s="295"/>
-      <c r="S20" s="295"/>
-      <c r="T20" s="295"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
+      <c r="T20" s="204"/>
       <c r="U20" s="63"/>
       <c r="V20" s="63"/>
       <c r="W20" s="121"/>
       <c r="X20" s="121"/>
       <c r="Y20" s="121"/>
-      <c r="Z20" s="295" t="s">
+      <c r="Z20" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="AA20" s="295"/>
-      <c r="AB20" s="296"/>
+      <c r="AA20" s="204"/>
+      <c r="AB20" s="221"/>
       <c r="AC20" s="122"/>
       <c r="AD20" s="123"/>
       <c r="AE20" s="124"/>
@@ -3478,23 +3481,23 @@
     <row r="22" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
       <c r="B22" s="60"/>
-      <c r="C22" s="268" t="s">
+      <c r="C22" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="268"/>
-      <c r="E22" s="268"/>
-      <c r="F22" s="268"/>
-      <c r="G22" s="268"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="227"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
-      <c r="L22" s="297" t="s">
+      <c r="L22" s="228" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="297"/>
-      <c r="N22" s="297"/>
-      <c r="O22" s="297"/>
+      <c r="M22" s="228"/>
+      <c r="N22" s="228"/>
+      <c r="O22" s="228"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="60"/>
       <c r="R22" s="60"/>
@@ -3513,147 +3516,147 @@
       <c r="AE22" s="60"/>
     </row>
     <row r="23" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="212" t="s">
+      <c r="A23" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="239"/>
-      <c r="C23" s="239"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="212" t="s">
+      <c r="B23" s="225"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="225"/>
+      <c r="E23" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="239"/>
-      <c r="G23" s="239"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="239"/>
-      <c r="J23" s="212" t="s">
+      <c r="F23" s="225"/>
+      <c r="G23" s="225"/>
+      <c r="H23" s="225"/>
+      <c r="I23" s="225"/>
+      <c r="J23" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="239"/>
-      <c r="L23" s="239"/>
-      <c r="M23" s="212" t="s">
+      <c r="K23" s="225"/>
+      <c r="L23" s="225"/>
+      <c r="M23" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="239"/>
-      <c r="O23" s="239"/>
-      <c r="P23" s="239"/>
-      <c r="Q23" s="239"/>
-      <c r="R23" s="212" t="s">
+      <c r="N23" s="225"/>
+      <c r="O23" s="225"/>
+      <c r="P23" s="225"/>
+      <c r="Q23" s="225"/>
+      <c r="R23" s="224" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="239"/>
-      <c r="T23" s="239"/>
-      <c r="U23" s="212" t="s">
+      <c r="S23" s="225"/>
+      <c r="T23" s="225"/>
+      <c r="U23" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="239"/>
-      <c r="W23" s="212" t="s">
+      <c r="V23" s="225"/>
+      <c r="W23" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="X23" s="239"/>
-      <c r="Y23" s="239"/>
-      <c r="Z23" s="212" t="s">
+      <c r="X23" s="225"/>
+      <c r="Y23" s="225"/>
+      <c r="Z23" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="AA23" s="239"/>
-      <c r="AB23" s="239"/>
-      <c r="AC23" s="212" t="s">
+      <c r="AA23" s="225"/>
+      <c r="AB23" s="225"/>
+      <c r="AC23" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="239"/>
-      <c r="AE23" s="239"/>
+      <c r="AD23" s="225"/>
+      <c r="AE23" s="225"/>
       <c r="AF23" s="127"/>
     </row>
     <row r="24" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="212">
+      <c r="A24" s="224">
         <v>1</v>
       </c>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="212">
+      <c r="B24" s="225"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="225"/>
+      <c r="E24" s="224">
         <v>2</v>
       </c>
-      <c r="F24" s="239"/>
-      <c r="G24" s="239"/>
-      <c r="H24" s="239"/>
-      <c r="I24" s="239"/>
-      <c r="J24" s="212">
+      <c r="F24" s="225"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="225"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="224">
         <v>3</v>
       </c>
-      <c r="K24" s="239"/>
-      <c r="L24" s="239"/>
-      <c r="M24" s="212">
+      <c r="K24" s="225"/>
+      <c r="L24" s="225"/>
+      <c r="M24" s="224">
         <v>4</v>
       </c>
-      <c r="N24" s="239"/>
-      <c r="O24" s="239"/>
-      <c r="P24" s="239"/>
-      <c r="Q24" s="239"/>
-      <c r="R24" s="212">
+      <c r="N24" s="225"/>
+      <c r="O24" s="225"/>
+      <c r="P24" s="225"/>
+      <c r="Q24" s="225"/>
+      <c r="R24" s="224">
         <v>5</v>
       </c>
-      <c r="S24" s="239"/>
-      <c r="T24" s="239"/>
-      <c r="U24" s="212">
+      <c r="S24" s="225"/>
+      <c r="T24" s="225"/>
+      <c r="U24" s="224">
         <v>6</v>
       </c>
-      <c r="V24" s="239"/>
-      <c r="W24" s="212">
+      <c r="V24" s="225"/>
+      <c r="W24" s="224">
         <v>7</v>
       </c>
-      <c r="X24" s="239"/>
-      <c r="Y24" s="239"/>
-      <c r="Z24" s="212">
+      <c r="X24" s="225"/>
+      <c r="Y24" s="225"/>
+      <c r="Z24" s="224">
         <v>8</v>
       </c>
-      <c r="AA24" s="239"/>
-      <c r="AB24" s="239"/>
-      <c r="AC24" s="212">
+      <c r="AA24" s="225"/>
+      <c r="AB24" s="225"/>
+      <c r="AC24" s="224">
         <v>9</v>
       </c>
-      <c r="AD24" s="239"/>
-      <c r="AE24" s="240"/>
+      <c r="AD24" s="225"/>
+      <c r="AE24" s="226"/>
       <c r="AF24" s="127"/>
     </row>
     <row r="25" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="289" t="s">
+      <c r="A25" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="290"/>
-      <c r="C25" s="290"/>
-      <c r="D25" s="290"/>
-      <c r="E25" s="271" t="s">
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
+      <c r="E25" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="272"/>
-      <c r="G25" s="272"/>
-      <c r="H25" s="272"/>
-      <c r="I25" s="272"/>
-      <c r="J25" s="291" t="s">
+      <c r="F25" s="238"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="239" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="292"/>
-      <c r="L25" s="292"/>
-      <c r="M25" s="293"/>
-      <c r="N25" s="293"/>
-      <c r="O25" s="293"/>
-      <c r="P25" s="293"/>
-      <c r="Q25" s="293"/>
-      <c r="R25" s="290"/>
-      <c r="S25" s="290"/>
-      <c r="T25" s="290"/>
-      <c r="U25" s="281"/>
-      <c r="V25" s="281"/>
-      <c r="W25" s="281"/>
-      <c r="X25" s="281"/>
-      <c r="Y25" s="281"/>
-      <c r="Z25" s="281"/>
-      <c r="AA25" s="281"/>
-      <c r="AB25" s="281"/>
-      <c r="AC25" s="281"/>
-      <c r="AD25" s="281"/>
-      <c r="AE25" s="281"/>
+      <c r="K25" s="240"/>
+      <c r="L25" s="240"/>
+      <c r="M25" s="241"/>
+      <c r="N25" s="241"/>
+      <c r="O25" s="241"/>
+      <c r="P25" s="241"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="236"/>
+      <c r="U25" s="229"/>
+      <c r="V25" s="229"/>
+      <c r="W25" s="229"/>
+      <c r="X25" s="229"/>
+      <c r="Y25" s="229"/>
+      <c r="Z25" s="229"/>
+      <c r="AA25" s="229"/>
+      <c r="AB25" s="229"/>
+      <c r="AC25" s="229"/>
+      <c r="AD25" s="229"/>
+      <c r="AE25" s="229"/>
       <c r="AF25" s="128"/>
     </row>
     <row r="26" spans="1:32" ht="3.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3679,39 +3682,39 @@
       <c r="T26" s="81"/>
       <c r="U26" s="131"/>
       <c r="V26" s="132"/>
-      <c r="W26" s="284" t="s">
+      <c r="W26" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="X26" s="285"/>
-      <c r="Y26" s="285"/>
-      <c r="Z26" s="285"/>
-      <c r="AA26" s="285"/>
-      <c r="AB26" s="285"/>
+      <c r="X26" s="231"/>
+      <c r="Y26" s="231"/>
+      <c r="Z26" s="231"/>
+      <c r="AA26" s="231"/>
+      <c r="AB26" s="231"/>
       <c r="AC26" s="133"/>
       <c r="AD26" s="119"/>
       <c r="AE26" s="132"/>
       <c r="AF26" s="128"/>
     </row>
     <row r="27" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="274" t="s">
+      <c r="A27" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="274"/>
-      <c r="C27" s="274"/>
-      <c r="D27" s="274"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
       <c r="E27" s="66"/>
-      <c r="F27" s="224" t="s">
+      <c r="F27" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="224"/>
-      <c r="H27" s="287"/>
+      <c r="G27" s="209"/>
+      <c r="H27" s="233"/>
       <c r="I27" s="66"/>
-      <c r="J27" s="273" t="s">
+      <c r="J27" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="274"/>
-      <c r="L27" s="274"/>
-      <c r="M27" s="288"/>
+      <c r="K27" s="206"/>
+      <c r="L27" s="206"/>
+      <c r="M27" s="216"/>
       <c r="N27" s="134"/>
       <c r="O27" s="134"/>
       <c r="P27" s="135" t="s">
@@ -3719,56 +3722,56 @@
       </c>
       <c r="Q27" s="79"/>
       <c r="R27" s="136"/>
-      <c r="S27" s="213" t="s">
+      <c r="S27" s="242" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="284"/>
+      <c r="T27" s="230"/>
       <c r="U27" s="137"/>
       <c r="V27" s="138"/>
-      <c r="W27" s="285"/>
-      <c r="X27" s="286"/>
-      <c r="Y27" s="286"/>
-      <c r="Z27" s="286"/>
-      <c r="AA27" s="286"/>
-      <c r="AB27" s="286"/>
+      <c r="W27" s="231"/>
+      <c r="X27" s="232"/>
+      <c r="Y27" s="232"/>
+      <c r="Z27" s="232"/>
+      <c r="AA27" s="232"/>
+      <c r="AB27" s="232"/>
       <c r="AC27" s="137"/>
       <c r="AD27" s="63"/>
       <c r="AE27" s="138"/>
       <c r="AF27" s="128"/>
     </row>
     <row r="28" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="278" t="s">
+      <c r="A28" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="278"/>
-      <c r="D28" s="278"/>
+      <c r="B28" s="215"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
       <c r="G28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="282"/>
-      <c r="I28" s="283"/>
-      <c r="J28" s="273"/>
-      <c r="K28" s="274"/>
-      <c r="L28" s="274"/>
-      <c r="M28" s="274"/>
-      <c r="N28" s="268" t="s">
+      <c r="H28" s="249"/>
+      <c r="I28" s="250"/>
+      <c r="J28" s="234"/>
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="206"/>
+      <c r="N28" s="227" t="s">
         <v>53</v>
       </c>
-      <c r="O28" s="268"/>
+      <c r="O28" s="227"/>
       <c r="P28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="Q28" s="268" t="s">
+      <c r="Q28" s="227" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="294"/>
-      <c r="S28" s="264" t="s">
+      <c r="R28" s="243"/>
+      <c r="S28" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="T28" s="280"/>
+      <c r="T28" s="245"/>
       <c r="U28" s="140"/>
       <c r="V28" s="140"/>
       <c r="W28" s="66"/>
@@ -3786,10 +3789,10 @@
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
       <c r="D29" s="66"/>
-      <c r="E29" s="265" t="s">
+      <c r="E29" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="265"/>
+      <c r="F29" s="246"/>
       <c r="G29" s="66"/>
       <c r="H29" s="115"/>
       <c r="I29" s="141"/>
@@ -3797,11 +3800,11 @@
       <c r="K29" s="66"/>
       <c r="L29" s="66"/>
       <c r="M29" s="66"/>
-      <c r="N29" s="265"/>
-      <c r="O29" s="265"/>
+      <c r="N29" s="246"/>
+      <c r="O29" s="246"/>
       <c r="P29" s="66"/>
-      <c r="Q29" s="265"/>
-      <c r="R29" s="265"/>
+      <c r="Q29" s="246"/>
+      <c r="R29" s="246"/>
       <c r="S29" s="143"/>
       <c r="T29" s="66"/>
       <c r="U29" s="66"/>
@@ -3817,10 +3820,10 @@
       <c r="AE29" s="66"/>
     </row>
     <row r="30" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="270" t="s">
+      <c r="A30" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="270"/>
+      <c r="B30" s="208"/>
       <c r="C30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
@@ -3828,28 +3831,28 @@
       <c r="G30" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="248" t="s">
+      <c r="H30" s="247" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="248"/>
-      <c r="J30" s="269" t="s">
+      <c r="I30" s="247"/>
+      <c r="J30" s="248" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="270"/>
-      <c r="L30" s="270"/>
+      <c r="K30" s="208"/>
+      <c r="L30" s="208"/>
       <c r="M30" s="134"/>
       <c r="N30" s="134"/>
       <c r="O30" s="134"/>
-      <c r="P30" s="270" t="s">
+      <c r="P30" s="208" t="s">
         <v>60</v>
       </c>
-      <c r="Q30" s="270"/>
-      <c r="R30" s="270"/>
-      <c r="S30" s="269" t="s">
+      <c r="Q30" s="208"/>
+      <c r="R30" s="208"/>
+      <c r="S30" s="248" t="s">
         <v>61</v>
       </c>
-      <c r="T30" s="270"/>
-      <c r="U30" s="270"/>
+      <c r="T30" s="208"/>
+      <c r="U30" s="208"/>
       <c r="V30" s="134"/>
       <c r="W30" s="134"/>
       <c r="X30" s="134"/>
@@ -3865,22 +3868,22 @@
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="81"/>
-      <c r="D31" s="263" t="s">
+      <c r="D31" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="263"/>
-      <c r="F31" s="263"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="251"/>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="142"/>
       <c r="K31" s="66"/>
       <c r="L31" s="66"/>
-      <c r="M31" s="268" t="s">
+      <c r="M31" s="227" t="s">
         <v>54</v>
       </c>
-      <c r="N31" s="268"/>
-      <c r="O31" s="268"/>
+      <c r="N31" s="227"/>
+      <c r="O31" s="227"/>
       <c r="P31" s="66"/>
       <c r="Q31" s="66"/>
       <c r="R31" s="66"/>
@@ -3910,21 +3913,21 @@
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="136"/>
-      <c r="J32" s="269" t="s">
+      <c r="J32" s="248" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="270"/>
-      <c r="L32" s="270"/>
+      <c r="K32" s="208"/>
+      <c r="L32" s="208"/>
       <c r="M32" s="63"/>
       <c r="N32" s="63"/>
       <c r="O32" s="79"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="144"/>
-      <c r="S32" s="273" t="s">
+      <c r="S32" s="234" t="s">
         <v>65</v>
       </c>
-      <c r="T32" s="274"/>
+      <c r="T32" s="206"/>
       <c r="U32" s="134"/>
       <c r="V32" s="134"/>
       <c r="W32" s="134"/>
@@ -3939,33 +3942,33 @@
     </row>
     <row r="33" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66"/>
-      <c r="B33" s="233" t="s">
+      <c r="B33" s="220" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="233"/>
-      <c r="D33" s="233" t="s">
+      <c r="C33" s="220"/>
+      <c r="D33" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
       <c r="G33" s="145" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="82"/>
       <c r="I33" s="146"/>
-      <c r="J33" s="271"/>
-      <c r="K33" s="272"/>
-      <c r="L33" s="272"/>
-      <c r="M33" s="268" t="s">
+      <c r="J33" s="237"/>
+      <c r="K33" s="238"/>
+      <c r="L33" s="238"/>
+      <c r="M33" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="N33" s="268"/>
-      <c r="O33" s="268" t="s">
+      <c r="N33" s="227"/>
+      <c r="O33" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="P33" s="268"/>
-      <c r="Q33" s="268"/>
-      <c r="R33" s="275"/>
+      <c r="P33" s="227"/>
+      <c r="Q33" s="227"/>
+      <c r="R33" s="252"/>
       <c r="S33" s="142"/>
       <c r="T33" s="66"/>
       <c r="U33" s="81"/>
@@ -3981,10 +3984,10 @@
       <c r="AE33" s="81"/>
     </row>
     <row r="34" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="278" t="s">
+      <c r="A34" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="279"/>
+      <c r="B34" s="255"/>
       <c r="C34" s="144"/>
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
@@ -3992,17 +3995,17 @@
       <c r="G34" s="147"/>
       <c r="H34" s="147"/>
       <c r="I34" s="148"/>
-      <c r="J34" s="269" t="s">
+      <c r="J34" s="248" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="270"/>
+      <c r="K34" s="208"/>
       <c r="L34" s="144"/>
       <c r="M34" s="63"/>
       <c r="N34" s="63"/>
       <c r="O34" s="79"/>
       <c r="P34" s="79"/>
       <c r="Q34" s="79"/>
-      <c r="R34" s="276"/>
+      <c r="R34" s="253"/>
       <c r="S34" s="142"/>
       <c r="T34" s="134"/>
       <c r="U34" s="134"/>
@@ -4018,34 +4021,34 @@
       <c r="AE34" s="134"/>
     </row>
     <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="280"/>
-      <c r="B35" s="279"/>
+      <c r="A35" s="245"/>
+      <c r="B35" s="255"/>
       <c r="C35" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="268" t="s">
+      <c r="D35" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="268"/>
-      <c r="F35" s="268"/>
+      <c r="E35" s="227"/>
+      <c r="F35" s="227"/>
       <c r="G35" s="150"/>
       <c r="H35" s="150"/>
       <c r="I35" s="151"/>
-      <c r="J35" s="264"/>
-      <c r="K35" s="265"/>
+      <c r="J35" s="244"/>
+      <c r="K35" s="246"/>
       <c r="L35" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="268" t="s">
+      <c r="M35" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="N35" s="268"/>
-      <c r="O35" s="268" t="s">
+      <c r="N35" s="227"/>
+      <c r="O35" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="P35" s="268"/>
-      <c r="Q35" s="268"/>
-      <c r="R35" s="277"/>
+      <c r="P35" s="227"/>
+      <c r="Q35" s="227"/>
+      <c r="R35" s="254"/>
       <c r="S35" s="152"/>
       <c r="T35" s="129"/>
       <c r="U35" s="129"/>
@@ -4067,11 +4070,11 @@
       <c r="D36" s="66"/>
       <c r="E36" s="66"/>
       <c r="F36" s="66"/>
-      <c r="G36" s="258" t="s">
+      <c r="G36" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="258"/>
-      <c r="I36" s="259"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="256"/>
       <c r="J36" s="152"/>
       <c r="K36" s="144"/>
       <c r="L36" s="144"/>
@@ -4131,257 +4134,257 @@
       <c r="AE37" s="144"/>
     </row>
     <row r="38" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="257" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="261"/>
-      <c r="C38" s="261"/>
-      <c r="D38" s="261"/>
-      <c r="E38" s="261"/>
-      <c r="F38" s="261"/>
-      <c r="G38" s="261"/>
-      <c r="H38" s="261"/>
-      <c r="I38" s="261"/>
-      <c r="J38" s="261"/>
-      <c r="K38" s="261"/>
-      <c r="L38" s="261"/>
-      <c r="M38" s="261"/>
-      <c r="N38" s="261"/>
-      <c r="O38" s="261"/>
-      <c r="P38" s="261"/>
-      <c r="Q38" s="261"/>
-      <c r="R38" s="261"/>
-      <c r="S38" s="261"/>
-      <c r="T38" s="261"/>
-      <c r="U38" s="261"/>
-      <c r="V38" s="261"/>
-      <c r="W38" s="261"/>
-      <c r="X38" s="261"/>
-      <c r="Y38" s="261"/>
-      <c r="Z38" s="261"/>
-      <c r="AA38" s="261"/>
-      <c r="AB38" s="261"/>
-      <c r="AC38" s="261"/>
-      <c r="AD38" s="261"/>
-      <c r="AE38" s="261"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="258"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="258"/>
+      <c r="G38" s="258"/>
+      <c r="H38" s="258"/>
+      <c r="I38" s="258"/>
+      <c r="J38" s="258"/>
+      <c r="K38" s="258"/>
+      <c r="L38" s="258"/>
+      <c r="M38" s="258"/>
+      <c r="N38" s="258"/>
+      <c r="O38" s="258"/>
+      <c r="P38" s="258"/>
+      <c r="Q38" s="258"/>
+      <c r="R38" s="258"/>
+      <c r="S38" s="258"/>
+      <c r="T38" s="258"/>
+      <c r="U38" s="258"/>
+      <c r="V38" s="258"/>
+      <c r="W38" s="258"/>
+      <c r="X38" s="258"/>
+      <c r="Y38" s="258"/>
+      <c r="Z38" s="258"/>
+      <c r="AA38" s="258"/>
+      <c r="AB38" s="258"/>
+      <c r="AC38" s="258"/>
+      <c r="AD38" s="258"/>
+      <c r="AE38" s="258"/>
       <c r="AF38" s="127"/>
     </row>
     <row r="39" spans="1:32" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="262" t="s">
+      <c r="A39" s="259" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="263"/>
-      <c r="C39" s="262" t="s">
+      <c r="B39" s="251"/>
+      <c r="C39" s="259" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="263"/>
-      <c r="E39" s="263"/>
-      <c r="F39" s="263"/>
-      <c r="G39" s="262" t="s">
+      <c r="D39" s="251"/>
+      <c r="E39" s="251"/>
+      <c r="F39" s="251"/>
+      <c r="G39" s="259" t="s">
         <v>75</v>
       </c>
-      <c r="H39" s="263"/>
-      <c r="I39" s="263"/>
-      <c r="J39" s="263"/>
-      <c r="K39" s="263"/>
-      <c r="L39" s="262" t="s">
+      <c r="H39" s="251"/>
+      <c r="I39" s="251"/>
+      <c r="J39" s="251"/>
+      <c r="K39" s="251"/>
+      <c r="L39" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="M39" s="263"/>
-      <c r="N39" s="263"/>
-      <c r="O39" s="263"/>
-      <c r="P39" s="263"/>
-      <c r="Q39" s="212" t="s">
+      <c r="M39" s="251"/>
+      <c r="N39" s="251"/>
+      <c r="O39" s="251"/>
+      <c r="P39" s="251"/>
+      <c r="Q39" s="224" t="s">
         <v>77</v>
       </c>
-      <c r="R39" s="239"/>
-      <c r="S39" s="239"/>
-      <c r="T39" s="239"/>
-      <c r="U39" s="239"/>
-      <c r="V39" s="241" t="s">
+      <c r="R39" s="225"/>
+      <c r="S39" s="225"/>
+      <c r="T39" s="225"/>
+      <c r="U39" s="225"/>
+      <c r="V39" s="260" t="s">
         <v>78</v>
       </c>
-      <c r="W39" s="242"/>
-      <c r="X39" s="266"/>
-      <c r="Y39" s="267"/>
-      <c r="Z39" s="212" t="s">
+      <c r="W39" s="261"/>
+      <c r="X39" s="262"/>
+      <c r="Y39" s="263"/>
+      <c r="Z39" s="224" t="s">
         <v>79</v>
       </c>
-      <c r="AA39" s="239"/>
-      <c r="AB39" s="239"/>
-      <c r="AC39" s="212" t="s">
+      <c r="AA39" s="225"/>
+      <c r="AB39" s="225"/>
+      <c r="AC39" s="224" t="s">
         <v>80</v>
       </c>
-      <c r="AD39" s="239"/>
-      <c r="AE39" s="240"/>
+      <c r="AD39" s="225"/>
+      <c r="AE39" s="226"/>
       <c r="AF39" s="127"/>
     </row>
     <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="264"/>
-      <c r="B40" s="265"/>
-      <c r="C40" s="264"/>
-      <c r="D40" s="265"/>
-      <c r="E40" s="265"/>
-      <c r="F40" s="265"/>
-      <c r="G40" s="264"/>
-      <c r="H40" s="265"/>
-      <c r="I40" s="265"/>
-      <c r="J40" s="265"/>
-      <c r="K40" s="265"/>
-      <c r="L40" s="264"/>
-      <c r="M40" s="265"/>
-      <c r="N40" s="265"/>
-      <c r="O40" s="265"/>
-      <c r="P40" s="265"/>
-      <c r="Q40" s="253" t="s">
+      <c r="A40" s="244"/>
+      <c r="B40" s="246"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="246"/>
+      <c r="E40" s="246"/>
+      <c r="F40" s="246"/>
+      <c r="G40" s="244"/>
+      <c r="H40" s="246"/>
+      <c r="I40" s="246"/>
+      <c r="J40" s="246"/>
+      <c r="K40" s="246"/>
+      <c r="L40" s="244"/>
+      <c r="M40" s="246"/>
+      <c r="N40" s="246"/>
+      <c r="O40" s="246"/>
+      <c r="P40" s="246"/>
+      <c r="Q40" s="264" t="s">
         <v>81</v>
       </c>
-      <c r="R40" s="254"/>
-      <c r="S40" s="254"/>
-      <c r="T40" s="254"/>
+      <c r="R40" s="265"/>
+      <c r="S40" s="265"/>
+      <c r="T40" s="265"/>
       <c r="U40" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="V40" s="212" t="s">
+      <c r="V40" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="W40" s="239"/>
-      <c r="X40" s="212" t="s">
+      <c r="W40" s="225"/>
+      <c r="X40" s="224" t="s">
         <v>83</v>
       </c>
-      <c r="Y40" s="240"/>
-      <c r="Z40" s="213"/>
-      <c r="AA40" s="224"/>
-      <c r="AB40" s="224"/>
-      <c r="AC40" s="213"/>
-      <c r="AD40" s="224"/>
-      <c r="AE40" s="224"/>
+      <c r="Y40" s="226"/>
+      <c r="Z40" s="242"/>
+      <c r="AA40" s="209"/>
+      <c r="AB40" s="209"/>
+      <c r="AC40" s="242"/>
+      <c r="AD40" s="209"/>
+      <c r="AE40" s="209"/>
       <c r="AF40" s="127"/>
     </row>
     <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="212">
+      <c r="A41" s="224">
         <v>10</v>
       </c>
-      <c r="B41" s="239"/>
-      <c r="C41" s="212">
+      <c r="B41" s="225"/>
+      <c r="C41" s="224">
         <v>11</v>
       </c>
-      <c r="D41" s="239"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="239"/>
-      <c r="G41" s="212">
+      <c r="D41" s="225"/>
+      <c r="E41" s="225"/>
+      <c r="F41" s="225"/>
+      <c r="G41" s="224">
         <v>12</v>
       </c>
-      <c r="H41" s="239"/>
-      <c r="I41" s="239"/>
-      <c r="J41" s="239"/>
-      <c r="K41" s="239"/>
-      <c r="L41" s="212">
+      <c r="H41" s="225"/>
+      <c r="I41" s="225"/>
+      <c r="J41" s="225"/>
+      <c r="K41" s="225"/>
+      <c r="L41" s="224">
         <v>13</v>
       </c>
-      <c r="M41" s="239"/>
-      <c r="N41" s="239"/>
-      <c r="O41" s="239"/>
-      <c r="P41" s="239"/>
-      <c r="Q41" s="212">
+      <c r="M41" s="225"/>
+      <c r="N41" s="225"/>
+      <c r="O41" s="225"/>
+      <c r="P41" s="225"/>
+      <c r="Q41" s="224">
         <v>14</v>
       </c>
-      <c r="R41" s="239"/>
-      <c r="S41" s="239"/>
-      <c r="T41" s="239"/>
+      <c r="R41" s="225"/>
+      <c r="S41" s="225"/>
+      <c r="T41" s="225"/>
       <c r="U41" s="158">
         <v>15</v>
       </c>
-      <c r="V41" s="212">
+      <c r="V41" s="224">
         <v>16</v>
       </c>
-      <c r="W41" s="239"/>
-      <c r="X41" s="212">
+      <c r="W41" s="225"/>
+      <c r="X41" s="224">
         <v>17</v>
       </c>
-      <c r="Y41" s="239"/>
-      <c r="Z41" s="212">
+      <c r="Y41" s="225"/>
+      <c r="Z41" s="224">
         <v>18</v>
       </c>
-      <c r="AA41" s="239"/>
-      <c r="AB41" s="239"/>
-      <c r="AC41" s="212">
+      <c r="AA41" s="225"/>
+      <c r="AB41" s="225"/>
+      <c r="AC41" s="224">
         <v>19</v>
       </c>
-      <c r="AD41" s="239"/>
-      <c r="AE41" s="240"/>
+      <c r="AD41" s="225"/>
+      <c r="AE41" s="226"/>
       <c r="AF41" s="127"/>
     </row>
     <row r="42" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="253" t="s">
+      <c r="A42" s="264" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="254"/>
-      <c r="C42" s="255"/>
-      <c r="D42" s="256"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255"/>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="256"/>
-      <c r="L42" s="255"/>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="256"/>
-      <c r="Q42" s="255"/>
-      <c r="R42" s="256"/>
-      <c r="S42" s="256"/>
-      <c r="T42" s="256"/>
+      <c r="B42" s="265"/>
+      <c r="C42" s="266"/>
+      <c r="D42" s="267"/>
+      <c r="E42" s="267"/>
+      <c r="F42" s="267"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="267"/>
+      <c r="I42" s="267"/>
+      <c r="J42" s="267"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="266"/>
+      <c r="M42" s="267"/>
+      <c r="N42" s="267"/>
+      <c r="O42" s="267"/>
+      <c r="P42" s="267"/>
+      <c r="Q42" s="266"/>
+      <c r="R42" s="267"/>
+      <c r="S42" s="267"/>
+      <c r="T42" s="267"/>
       <c r="U42" s="159"/>
-      <c r="V42" s="232"/>
-      <c r="W42" s="232"/>
-      <c r="X42" s="232"/>
-      <c r="Y42" s="232"/>
-      <c r="Z42" s="232"/>
-      <c r="AA42" s="232"/>
-      <c r="AB42" s="232"/>
-      <c r="AC42" s="256"/>
-      <c r="AD42" s="256"/>
-      <c r="AE42" s="257"/>
+      <c r="V42" s="268"/>
+      <c r="W42" s="268"/>
+      <c r="X42" s="268"/>
+      <c r="Y42" s="268"/>
+      <c r="Z42" s="268"/>
+      <c r="AA42" s="268"/>
+      <c r="AB42" s="268"/>
+      <c r="AC42" s="267"/>
+      <c r="AD42" s="267"/>
+      <c r="AE42" s="269"/>
       <c r="AF42" s="127"/>
     </row>
     <row r="43" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="253" t="s">
+      <c r="A43" s="264" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="254"/>
-      <c r="C43" s="255"/>
-      <c r="D43" s="256"/>
-      <c r="E43" s="256"/>
-      <c r="F43" s="256"/>
-      <c r="G43" s="255"/>
-      <c r="H43" s="256"/>
-      <c r="I43" s="256"/>
-      <c r="J43" s="256"/>
-      <c r="K43" s="256"/>
-      <c r="L43" s="255"/>
-      <c r="M43" s="256"/>
-      <c r="N43" s="256"/>
-      <c r="O43" s="256"/>
-      <c r="P43" s="256"/>
-      <c r="Q43" s="255"/>
-      <c r="R43" s="256"/>
-      <c r="S43" s="256"/>
-      <c r="T43" s="256"/>
+      <c r="B43" s="265"/>
+      <c r="C43" s="266"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="267"/>
+      <c r="F43" s="267"/>
+      <c r="G43" s="266"/>
+      <c r="H43" s="267"/>
+      <c r="I43" s="267"/>
+      <c r="J43" s="267"/>
+      <c r="K43" s="267"/>
+      <c r="L43" s="266"/>
+      <c r="M43" s="267"/>
+      <c r="N43" s="267"/>
+      <c r="O43" s="267"/>
+      <c r="P43" s="267"/>
+      <c r="Q43" s="266"/>
+      <c r="R43" s="267"/>
+      <c r="S43" s="267"/>
+      <c r="T43" s="267"/>
       <c r="U43" s="159"/>
-      <c r="V43" s="232"/>
-      <c r="W43" s="232"/>
-      <c r="X43" s="232"/>
-      <c r="Y43" s="232"/>
-      <c r="Z43" s="232"/>
-      <c r="AA43" s="232"/>
-      <c r="AB43" s="232"/>
-      <c r="AC43" s="256"/>
-      <c r="AD43" s="256"/>
-      <c r="AE43" s="257"/>
+      <c r="V43" s="268"/>
+      <c r="W43" s="268"/>
+      <c r="X43" s="268"/>
+      <c r="Y43" s="268"/>
+      <c r="Z43" s="268"/>
+      <c r="AA43" s="268"/>
+      <c r="AB43" s="268"/>
+      <c r="AC43" s="267"/>
+      <c r="AD43" s="267"/>
+      <c r="AE43" s="269"/>
       <c r="AF43" s="127"/>
     </row>
     <row r="44" spans="1:32" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -4418,78 +4421,78 @@
       <c r="AE44" s="94"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="239"/>
-      <c r="C45" s="239"/>
-      <c r="D45" s="239"/>
-      <c r="E45" s="239"/>
-      <c r="F45" s="239"/>
-      <c r="G45" s="239"/>
-      <c r="H45" s="239"/>
-      <c r="I45" s="239"/>
-      <c r="J45" s="239"/>
-      <c r="K45" s="239"/>
-      <c r="L45" s="239"/>
-      <c r="M45" s="239"/>
-      <c r="N45" s="239"/>
-      <c r="O45" s="239"/>
-      <c r="P45" s="239"/>
-      <c r="Q45" s="239"/>
-      <c r="R45" s="239"/>
-      <c r="S45" s="239"/>
-      <c r="T45" s="239"/>
-      <c r="U45" s="239"/>
-      <c r="V45" s="239"/>
-      <c r="W45" s="239"/>
-      <c r="X45" s="246" t="s">
+      <c r="B45" s="225"/>
+      <c r="C45" s="225"/>
+      <c r="D45" s="225"/>
+      <c r="E45" s="225"/>
+      <c r="F45" s="225"/>
+      <c r="G45" s="225"/>
+      <c r="H45" s="225"/>
+      <c r="I45" s="225"/>
+      <c r="J45" s="225"/>
+      <c r="K45" s="225"/>
+      <c r="L45" s="225"/>
+      <c r="M45" s="225"/>
+      <c r="N45" s="225"/>
+      <c r="O45" s="225"/>
+      <c r="P45" s="225"/>
+      <c r="Q45" s="225"/>
+      <c r="R45" s="225"/>
+      <c r="S45" s="225"/>
+      <c r="T45" s="225"/>
+      <c r="U45" s="225"/>
+      <c r="V45" s="225"/>
+      <c r="W45" s="225"/>
+      <c r="X45" s="270" t="s">
         <v>87</v>
       </c>
-      <c r="Y45" s="247"/>
-      <c r="Z45" s="248"/>
-      <c r="AA45" s="248"/>
-      <c r="AB45" s="248"/>
-      <c r="AC45" s="248"/>
-      <c r="AD45" s="248"/>
-      <c r="AE45" s="248"/>
+      <c r="Y45" s="271"/>
+      <c r="Z45" s="247"/>
+      <c r="AA45" s="247"/>
+      <c r="AB45" s="247"/>
+      <c r="AC45" s="247"/>
+      <c r="AD45" s="247"/>
+      <c r="AE45" s="247"/>
     </row>
     <row r="46" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="224" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="239"/>
-      <c r="C46" s="239"/>
-      <c r="D46" s="239"/>
-      <c r="E46" s="239"/>
-      <c r="F46" s="212" t="s">
+      <c r="B46" s="225"/>
+      <c r="C46" s="225"/>
+      <c r="D46" s="225"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="239"/>
-      <c r="H46" s="249" t="s">
+      <c r="G46" s="225"/>
+      <c r="H46" s="272" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="250"/>
-      <c r="J46" s="250"/>
-      <c r="K46" s="251"/>
-      <c r="L46" s="212" t="s">
+      <c r="I46" s="273"/>
+      <c r="J46" s="273"/>
+      <c r="K46" s="274"/>
+      <c r="L46" s="224" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="239"/>
-      <c r="N46" s="239"/>
-      <c r="O46" s="239"/>
-      <c r="P46" s="239"/>
-      <c r="Q46" s="212" t="s">
+      <c r="M46" s="225"/>
+      <c r="N46" s="225"/>
+      <c r="O46" s="225"/>
+      <c r="P46" s="225"/>
+      <c r="Q46" s="224" t="s">
         <v>92</v>
       </c>
-      <c r="R46" s="239"/>
-      <c r="S46" s="239"/>
-      <c r="T46" s="212" t="s">
+      <c r="R46" s="225"/>
+      <c r="S46" s="225"/>
+      <c r="T46" s="224" t="s">
         <v>93</v>
       </c>
-      <c r="U46" s="239"/>
-      <c r="V46" s="239"/>
-      <c r="W46" s="240"/>
+      <c r="U46" s="225"/>
+      <c r="V46" s="225"/>
+      <c r="W46" s="226"/>
       <c r="X46" s="152"/>
       <c r="Y46" s="79"/>
       <c r="Z46" s="79"/>
@@ -4500,41 +4503,41 @@
       <c r="AE46" s="79"/>
     </row>
     <row r="47" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="213"/>
-      <c r="B47" s="224"/>
-      <c r="C47" s="224"/>
-      <c r="D47" s="224"/>
-      <c r="E47" s="224"/>
-      <c r="F47" s="213"/>
-      <c r="G47" s="224"/>
-      <c r="H47" s="212" t="s">
+      <c r="A47" s="242"/>
+      <c r="B47" s="209"/>
+      <c r="C47" s="209"/>
+      <c r="D47" s="209"/>
+      <c r="E47" s="209"/>
+      <c r="F47" s="242"/>
+      <c r="G47" s="209"/>
+      <c r="H47" s="224" t="s">
         <v>94</v>
       </c>
-      <c r="I47" s="239"/>
-      <c r="J47" s="212" t="s">
+      <c r="I47" s="225"/>
+      <c r="J47" s="224" t="s">
         <v>95</v>
       </c>
-      <c r="K47" s="239"/>
-      <c r="L47" s="212"/>
-      <c r="M47" s="239"/>
-      <c r="N47" s="239"/>
-      <c r="O47" s="239"/>
-      <c r="P47" s="239"/>
-      <c r="Q47" s="212" t="s">
+      <c r="K47" s="225"/>
+      <c r="L47" s="224"/>
+      <c r="M47" s="225"/>
+      <c r="N47" s="225"/>
+      <c r="O47" s="225"/>
+      <c r="P47" s="225"/>
+      <c r="Q47" s="224" t="s">
         <v>96</v>
       </c>
-      <c r="R47" s="239"/>
-      <c r="S47" s="244" t="s">
+      <c r="R47" s="225"/>
+      <c r="S47" s="275" t="s">
         <v>97</v>
       </c>
-      <c r="T47" s="212" t="s">
+      <c r="T47" s="224" t="s">
         <v>98</v>
       </c>
-      <c r="U47" s="239"/>
-      <c r="V47" s="212" t="s">
+      <c r="U47" s="225"/>
+      <c r="V47" s="224" t="s">
         <v>99</v>
       </c>
-      <c r="W47" s="240"/>
+      <c r="W47" s="226"/>
       <c r="X47" s="152"/>
       <c r="Y47" s="160"/>
       <c r="Z47" s="160"/>
@@ -4560,24 +4563,24 @@
       <c r="E48" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="213"/>
-      <c r="G48" s="224"/>
-      <c r="H48" s="213"/>
-      <c r="I48" s="224"/>
-      <c r="J48" s="213"/>
-      <c r="K48" s="224"/>
-      <c r="L48" s="213"/>
-      <c r="M48" s="224"/>
-      <c r="N48" s="224"/>
-      <c r="O48" s="224"/>
-      <c r="P48" s="224"/>
-      <c r="Q48" s="213"/>
-      <c r="R48" s="224"/>
-      <c r="S48" s="252"/>
-      <c r="T48" s="213"/>
-      <c r="U48" s="224"/>
-      <c r="V48" s="213"/>
-      <c r="W48" s="224"/>
+      <c r="F48" s="242"/>
+      <c r="G48" s="209"/>
+      <c r="H48" s="242"/>
+      <c r="I48" s="209"/>
+      <c r="J48" s="242"/>
+      <c r="K48" s="209"/>
+      <c r="L48" s="242"/>
+      <c r="M48" s="209"/>
+      <c r="N48" s="209"/>
+      <c r="O48" s="209"/>
+      <c r="P48" s="209"/>
+      <c r="Q48" s="242"/>
+      <c r="R48" s="209"/>
+      <c r="S48" s="276"/>
+      <c r="T48" s="242"/>
+      <c r="U48" s="209"/>
+      <c r="V48" s="242"/>
+      <c r="W48" s="209"/>
       <c r="X48" s="152"/>
       <c r="Y48" s="160"/>
       <c r="Z48" s="160"/>
@@ -4603,40 +4606,40 @@
       <c r="E49" s="158">
         <v>24</v>
       </c>
-      <c r="F49" s="212">
+      <c r="F49" s="224">
         <v>25</v>
       </c>
-      <c r="G49" s="239"/>
-      <c r="H49" s="212">
+      <c r="G49" s="225"/>
+      <c r="H49" s="224">
         <v>26</v>
       </c>
-      <c r="I49" s="239"/>
-      <c r="J49" s="212">
+      <c r="I49" s="225"/>
+      <c r="J49" s="224">
         <v>27</v>
       </c>
-      <c r="K49" s="239"/>
-      <c r="L49" s="212">
+      <c r="K49" s="225"/>
+      <c r="L49" s="224">
         <v>28</v>
       </c>
-      <c r="M49" s="239"/>
-      <c r="N49" s="239"/>
-      <c r="O49" s="239"/>
-      <c r="P49" s="239"/>
-      <c r="Q49" s="212">
+      <c r="M49" s="225"/>
+      <c r="N49" s="225"/>
+      <c r="O49" s="225"/>
+      <c r="P49" s="225"/>
+      <c r="Q49" s="224">
         <v>29</v>
       </c>
-      <c r="R49" s="239"/>
+      <c r="R49" s="225"/>
       <c r="S49" s="158">
         <v>30</v>
       </c>
-      <c r="T49" s="212">
+      <c r="T49" s="224">
         <v>31</v>
       </c>
-      <c r="U49" s="239"/>
-      <c r="V49" s="212">
+      <c r="U49" s="225"/>
+      <c r="V49" s="224">
         <v>32</v>
       </c>
-      <c r="W49" s="240"/>
+      <c r="W49" s="226"/>
       <c r="X49" s="152"/>
       <c r="Y49" s="129"/>
       <c r="Z49" s="129"/>
@@ -4652,24 +4655,24 @@
       <c r="C50" s="159"/>
       <c r="D50" s="159"/>
       <c r="E50" s="159"/>
-      <c r="F50" s="232"/>
-      <c r="G50" s="232"/>
-      <c r="H50" s="232"/>
-      <c r="I50" s="232"/>
-      <c r="J50" s="232"/>
-      <c r="K50" s="232"/>
-      <c r="L50" s="232"/>
-      <c r="M50" s="232"/>
-      <c r="N50" s="232"/>
-      <c r="O50" s="232"/>
-      <c r="P50" s="232"/>
-      <c r="Q50" s="232"/>
-      <c r="R50" s="232"/>
+      <c r="F50" s="268"/>
+      <c r="G50" s="268"/>
+      <c r="H50" s="268"/>
+      <c r="I50" s="268"/>
+      <c r="J50" s="268"/>
+      <c r="K50" s="268"/>
+      <c r="L50" s="268"/>
+      <c r="M50" s="268"/>
+      <c r="N50" s="268"/>
+      <c r="O50" s="268"/>
+      <c r="P50" s="268"/>
+      <c r="Q50" s="268"/>
+      <c r="R50" s="268"/>
       <c r="S50" s="159"/>
-      <c r="T50" s="232"/>
-      <c r="U50" s="232"/>
-      <c r="V50" s="232"/>
-      <c r="W50" s="232"/>
+      <c r="T50" s="268"/>
+      <c r="U50" s="268"/>
+      <c r="V50" s="268"/>
+      <c r="W50" s="268"/>
       <c r="X50" s="140"/>
       <c r="Y50" s="144"/>
       <c r="Z50" s="66"/>
@@ -4713,47 +4716,47 @@
       <c r="AE51" s="60"/>
     </row>
     <row r="52" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="212" t="s">
+      <c r="A52" s="224" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="239"/>
-      <c r="C52" s="239"/>
-      <c r="D52" s="239"/>
-      <c r="E52" s="212" t="s">
+      <c r="B52" s="225"/>
+      <c r="C52" s="225"/>
+      <c r="D52" s="225"/>
+      <c r="E52" s="224" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="239"/>
-      <c r="G52" s="212" t="s">
+      <c r="F52" s="225"/>
+      <c r="G52" s="224" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="239"/>
-      <c r="I52" s="212" t="s">
+      <c r="H52" s="225"/>
+      <c r="I52" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="J52" s="239"/>
-      <c r="K52" s="239"/>
-      <c r="L52" s="212" t="s">
+      <c r="J52" s="225"/>
+      <c r="K52" s="225"/>
+      <c r="L52" s="224" t="s">
         <v>109</v>
       </c>
-      <c r="M52" s="239"/>
-      <c r="N52" s="212" t="s">
+      <c r="M52" s="225"/>
+      <c r="N52" s="224" t="s">
         <v>110</v>
       </c>
-      <c r="O52" s="239"/>
-      <c r="P52" s="241" t="s">
+      <c r="O52" s="225"/>
+      <c r="P52" s="260" t="s">
         <v>151</v>
       </c>
-      <c r="Q52" s="242"/>
-      <c r="R52" s="242"/>
-      <c r="S52" s="243"/>
-      <c r="T52" s="244" t="s">
+      <c r="Q52" s="261"/>
+      <c r="R52" s="261"/>
+      <c r="S52" s="277"/>
+      <c r="T52" s="275" t="s">
         <v>152</v>
       </c>
-      <c r="U52" s="212" t="s">
+      <c r="U52" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="V52" s="239"/>
-      <c r="W52" s="212" t="s">
+      <c r="V52" s="225"/>
+      <c r="W52" s="224" t="s">
         <v>112</v>
       </c>
       <c r="X52" s="142"/>
@@ -4766,33 +4769,33 @@
       <c r="AE52" s="144"/>
     </row>
     <row r="53" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="213"/>
-      <c r="B53" s="224"/>
-      <c r="C53" s="224"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="213"/>
-      <c r="F53" s="224"/>
-      <c r="G53" s="213"/>
-      <c r="H53" s="224"/>
-      <c r="I53" s="213"/>
-      <c r="J53" s="224"/>
-      <c r="K53" s="224"/>
-      <c r="L53" s="213"/>
-      <c r="M53" s="224"/>
-      <c r="N53" s="213"/>
-      <c r="O53" s="224"/>
-      <c r="P53" s="212" t="s">
+      <c r="A53" s="242"/>
+      <c r="B53" s="209"/>
+      <c r="C53" s="209"/>
+      <c r="D53" s="209"/>
+      <c r="E53" s="242"/>
+      <c r="F53" s="209"/>
+      <c r="G53" s="242"/>
+      <c r="H53" s="209"/>
+      <c r="I53" s="242"/>
+      <c r="J53" s="209"/>
+      <c r="K53" s="209"/>
+      <c r="L53" s="242"/>
+      <c r="M53" s="209"/>
+      <c r="N53" s="242"/>
+      <c r="O53" s="209"/>
+      <c r="P53" s="224" t="s">
         <v>113</v>
       </c>
-      <c r="Q53" s="239"/>
-      <c r="R53" s="212" t="s">
+      <c r="Q53" s="225"/>
+      <c r="R53" s="224" t="s">
         <v>114</v>
       </c>
-      <c r="S53" s="240"/>
-      <c r="T53" s="245"/>
-      <c r="U53" s="213"/>
-      <c r="V53" s="224"/>
-      <c r="W53" s="213"/>
+      <c r="S53" s="226"/>
+      <c r="T53" s="278"/>
+      <c r="U53" s="242"/>
+      <c r="V53" s="209"/>
+      <c r="W53" s="242"/>
       <c r="X53" s="142"/>
       <c r="Y53" s="79"/>
       <c r="Z53" s="79"/>
@@ -4803,46 +4806,46 @@
       <c r="AE53" s="79"/>
     </row>
     <row r="54" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="213"/>
-      <c r="B54" s="224"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="224"/>
-      <c r="E54" s="212">
+      <c r="A54" s="242"/>
+      <c r="B54" s="209"/>
+      <c r="C54" s="209"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="224">
         <v>33</v>
       </c>
-      <c r="F54" s="239"/>
-      <c r="G54" s="212">
+      <c r="F54" s="225"/>
+      <c r="G54" s="224">
         <v>34</v>
       </c>
-      <c r="H54" s="239"/>
-      <c r="I54" s="212">
+      <c r="H54" s="225"/>
+      <c r="I54" s="224">
         <v>35</v>
       </c>
-      <c r="J54" s="239"/>
-      <c r="K54" s="239"/>
-      <c r="L54" s="212">
+      <c r="J54" s="225"/>
+      <c r="K54" s="225"/>
+      <c r="L54" s="224">
         <v>36</v>
       </c>
-      <c r="M54" s="239"/>
-      <c r="N54" s="212">
+      <c r="M54" s="225"/>
+      <c r="N54" s="224">
         <v>37</v>
       </c>
-      <c r="O54" s="239"/>
-      <c r="P54" s="212">
+      <c r="O54" s="225"/>
+      <c r="P54" s="224">
         <v>38</v>
       </c>
-      <c r="Q54" s="239"/>
-      <c r="R54" s="212">
+      <c r="Q54" s="225"/>
+      <c r="R54" s="224">
         <v>39</v>
       </c>
-      <c r="S54" s="239"/>
+      <c r="S54" s="225"/>
       <c r="T54" s="161">
         <v>40</v>
       </c>
-      <c r="U54" s="212">
+      <c r="U54" s="224">
         <v>41</v>
       </c>
-      <c r="V54" s="239"/>
+      <c r="V54" s="225"/>
       <c r="W54" s="158">
         <v>42</v>
       </c>
@@ -4856,30 +4859,30 @@
       <c r="AE54" s="160"/>
     </row>
     <row r="55" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="235" t="s">
+      <c r="A55" s="281" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="236"/>
-      <c r="C55" s="236"/>
-      <c r="D55" s="237"/>
-      <c r="E55" s="232"/>
-      <c r="F55" s="232"/>
-      <c r="G55" s="232"/>
-      <c r="H55" s="232"/>
-      <c r="I55" s="232"/>
-      <c r="J55" s="232"/>
-      <c r="K55" s="232"/>
-      <c r="L55" s="232"/>
-      <c r="M55" s="232"/>
-      <c r="N55" s="232"/>
-      <c r="O55" s="232"/>
-      <c r="P55" s="232"/>
-      <c r="Q55" s="232"/>
-      <c r="R55" s="232"/>
-      <c r="S55" s="232"/>
+      <c r="B55" s="282"/>
+      <c r="C55" s="282"/>
+      <c r="D55" s="283"/>
+      <c r="E55" s="268"/>
+      <c r="F55" s="268"/>
+      <c r="G55" s="268"/>
+      <c r="H55" s="268"/>
+      <c r="I55" s="268"/>
+      <c r="J55" s="268"/>
+      <c r="K55" s="268"/>
+      <c r="L55" s="268"/>
+      <c r="M55" s="268"/>
+      <c r="N55" s="268"/>
+      <c r="O55" s="268"/>
+      <c r="P55" s="268"/>
+      <c r="Q55" s="268"/>
+      <c r="R55" s="268"/>
+      <c r="S55" s="268"/>
       <c r="T55" s="159"/>
-      <c r="U55" s="232"/>
-      <c r="V55" s="232"/>
+      <c r="U55" s="268"/>
+      <c r="V55" s="268"/>
       <c r="W55" s="159"/>
       <c r="X55" s="140"/>
       <c r="Y55" s="74"/>
@@ -4891,35 +4894,35 @@
       <c r="AE55" s="74"/>
     </row>
     <row r="56" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="235" t="s">
+      <c r="A56" s="281" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="236"/>
-      <c r="C56" s="236"/>
-      <c r="D56" s="237"/>
-      <c r="E56" s="232"/>
-      <c r="F56" s="232"/>
-      <c r="G56" s="232"/>
-      <c r="H56" s="232"/>
-      <c r="I56" s="232"/>
-      <c r="J56" s="232"/>
-      <c r="K56" s="232"/>
-      <c r="L56" s="232"/>
-      <c r="M56" s="232"/>
-      <c r="N56" s="232"/>
-      <c r="O56" s="232"/>
-      <c r="P56" s="232"/>
-      <c r="Q56" s="232"/>
-      <c r="R56" s="232"/>
-      <c r="S56" s="232"/>
+      <c r="B56" s="282"/>
+      <c r="C56" s="282"/>
+      <c r="D56" s="283"/>
+      <c r="E56" s="268"/>
+      <c r="F56" s="268"/>
+      <c r="G56" s="268"/>
+      <c r="H56" s="268"/>
+      <c r="I56" s="268"/>
+      <c r="J56" s="268"/>
+      <c r="K56" s="268"/>
+      <c r="L56" s="268"/>
+      <c r="M56" s="268"/>
+      <c r="N56" s="268"/>
+      <c r="O56" s="268"/>
+      <c r="P56" s="268"/>
+      <c r="Q56" s="268"/>
+      <c r="R56" s="268"/>
+      <c r="S56" s="268"/>
       <c r="T56" s="159"/>
-      <c r="U56" s="232"/>
-      <c r="V56" s="232"/>
+      <c r="U56" s="268"/>
+      <c r="V56" s="268"/>
       <c r="W56" s="159"/>
-      <c r="X56" s="238" t="s">
+      <c r="X56" s="279" t="s">
         <v>117</v>
       </c>
-      <c r="Y56" s="227"/>
+      <c r="Y56" s="280"/>
       <c r="Z56" s="164"/>
       <c r="AA56" s="164"/>
       <c r="AB56" s="164"/>
@@ -4928,43 +4931,43 @@
       <c r="AE56" s="164"/>
     </row>
     <row r="57" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="235" t="s">
+      <c r="A57" s="281" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="236"/>
-      <c r="C57" s="236"/>
-      <c r="D57" s="237"/>
-      <c r="E57" s="232"/>
-      <c r="F57" s="232"/>
-      <c r="G57" s="232"/>
-      <c r="H57" s="232"/>
-      <c r="I57" s="232"/>
-      <c r="J57" s="232"/>
-      <c r="K57" s="232"/>
-      <c r="L57" s="232"/>
-      <c r="M57" s="232"/>
-      <c r="N57" s="232"/>
-      <c r="O57" s="232"/>
-      <c r="P57" s="232"/>
-      <c r="Q57" s="232"/>
-      <c r="R57" s="232"/>
-      <c r="S57" s="232"/>
+      <c r="B57" s="282"/>
+      <c r="C57" s="282"/>
+      <c r="D57" s="283"/>
+      <c r="E57" s="268"/>
+      <c r="F57" s="268"/>
+      <c r="G57" s="268"/>
+      <c r="H57" s="268"/>
+      <c r="I57" s="268"/>
+      <c r="J57" s="268"/>
+      <c r="K57" s="268"/>
+      <c r="L57" s="268"/>
+      <c r="M57" s="268"/>
+      <c r="N57" s="268"/>
+      <c r="O57" s="268"/>
+      <c r="P57" s="268"/>
+      <c r="Q57" s="268"/>
+      <c r="R57" s="268"/>
+      <c r="S57" s="268"/>
       <c r="T57" s="159"/>
-      <c r="U57" s="232"/>
-      <c r="V57" s="232"/>
+      <c r="U57" s="268"/>
+      <c r="V57" s="268"/>
       <c r="W57" s="159"/>
       <c r="X57" s="165"/>
       <c r="Y57" s="166"/>
-      <c r="Z57" s="233" t="s">
+      <c r="Z57" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="AA57" s="233"/>
-      <c r="AB57" s="233" t="s">
+      <c r="AA57" s="220"/>
+      <c r="AB57" s="220" t="s">
         <v>119</v>
       </c>
-      <c r="AC57" s="233"/>
-      <c r="AD57" s="233"/>
-      <c r="AE57" s="233"/>
+      <c r="AC57" s="220"/>
+      <c r="AD57" s="220"/>
+      <c r="AE57" s="220"/>
     </row>
     <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94"/>
@@ -4984,14 +4987,14 @@
       <c r="O58" s="97"/>
       <c r="P58" s="97"/>
       <c r="Q58" s="97"/>
-      <c r="R58" s="234"/>
-      <c r="S58" s="234"/>
-      <c r="T58" s="234"/>
-      <c r="U58" s="234"/>
-      <c r="V58" s="234"/>
-      <c r="W58" s="234"/>
-      <c r="X58" s="234"/>
-      <c r="Y58" s="234"/>
+      <c r="R58" s="287"/>
+      <c r="S58" s="287"/>
+      <c r="T58" s="287"/>
+      <c r="U58" s="287"/>
+      <c r="V58" s="287"/>
+      <c r="W58" s="287"/>
+      <c r="X58" s="287"/>
+      <c r="Y58" s="287"/>
       <c r="Z58" s="167"/>
       <c r="AA58" s="167"/>
       <c r="AB58" s="60"/>
@@ -5020,15 +5023,15 @@
       <c r="R59" s="168"/>
       <c r="S59" s="60"/>
       <c r="T59" s="60"/>
-      <c r="U59" s="230" t="s">
+      <c r="U59" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="V59" s="231"/>
-      <c r="W59" s="231"/>
-      <c r="X59" s="231"/>
-      <c r="Y59" s="231"/>
-      <c r="Z59" s="231"/>
-      <c r="AA59" s="231"/>
+      <c r="V59" s="285"/>
+      <c r="W59" s="285"/>
+      <c r="X59" s="285"/>
+      <c r="Y59" s="285"/>
+      <c r="Z59" s="285"/>
+      <c r="AA59" s="285"/>
       <c r="AB59" s="169"/>
       <c r="AC59" s="169"/>
       <c r="AD59" s="169"/>
@@ -5055,18 +5058,18 @@
       <c r="R60" s="168"/>
       <c r="S60" s="60"/>
       <c r="T60" s="60"/>
-      <c r="U60" s="230" t="s">
+      <c r="U60" s="284" t="s">
         <v>121</v>
       </c>
-      <c r="V60" s="231"/>
-      <c r="W60" s="231"/>
-      <c r="X60" s="231"/>
-      <c r="Y60" s="231"/>
-      <c r="Z60" s="231"/>
-      <c r="AA60" s="231"/>
-      <c r="AB60" s="231"/>
-      <c r="AC60" s="231"/>
-      <c r="AD60" s="231"/>
+      <c r="V60" s="285"/>
+      <c r="W60" s="285"/>
+      <c r="X60" s="285"/>
+      <c r="Y60" s="285"/>
+      <c r="Z60" s="285"/>
+      <c r="AA60" s="285"/>
+      <c r="AB60" s="285"/>
+      <c r="AC60" s="285"/>
+      <c r="AD60" s="285"/>
       <c r="AE60" s="60"/>
     </row>
     <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5090,18 +5093,18 @@
       <c r="R61" s="60"/>
       <c r="S61" s="60"/>
       <c r="T61" s="60"/>
-      <c r="U61" s="230" t="s">
+      <c r="U61" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="V61" s="231"/>
-      <c r="W61" s="231"/>
-      <c r="X61" s="231"/>
-      <c r="Y61" s="231"/>
-      <c r="Z61" s="231"/>
-      <c r="AA61" s="231"/>
-      <c r="AB61" s="231"/>
-      <c r="AC61" s="231"/>
-      <c r="AD61" s="231"/>
+      <c r="V61" s="285"/>
+      <c r="W61" s="285"/>
+      <c r="X61" s="285"/>
+      <c r="Y61" s="285"/>
+      <c r="Z61" s="285"/>
+      <c r="AA61" s="285"/>
+      <c r="AB61" s="285"/>
+      <c r="AC61" s="285"/>
+      <c r="AD61" s="285"/>
       <c r="AE61" s="60"/>
     </row>
     <row r="62" spans="1:32" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5197,11 +5200,11 @@
       <c r="U64" s="169"/>
       <c r="V64" s="169"/>
       <c r="W64" s="169"/>
-      <c r="X64" s="215" t="s">
+      <c r="X64" s="286" t="s">
         <v>123</v>
       </c>
-      <c r="Y64" s="215"/>
-      <c r="Z64" s="215"/>
+      <c r="Y64" s="286"/>
+      <c r="Z64" s="286"/>
       <c r="AA64" s="169"/>
       <c r="AB64" s="174"/>
       <c r="AC64" s="175" t="s">
@@ -5213,33 +5216,33 @@
     </row>
     <row r="65" spans="1:32" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="178"/>
-      <c r="B65" s="223" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="223"/>
-      <c r="D65" s="223"/>
-      <c r="E65" s="223"/>
-      <c r="F65" s="223"/>
-      <c r="G65" s="223"/>
-      <c r="H65" s="223"/>
-      <c r="I65" s="223"/>
-      <c r="J65" s="223"/>
-      <c r="K65" s="223"/>
-      <c r="L65" s="223"/>
-      <c r="M65" s="223"/>
-      <c r="N65" s="223"/>
-      <c r="O65" s="223"/>
-      <c r="P65" s="223"/>
-      <c r="Q65" s="223"/>
-      <c r="R65" s="223"/>
-      <c r="S65" s="223"/>
-      <c r="T65" s="223"/>
-      <c r="U65" s="223"/>
-      <c r="V65" s="223"/>
-      <c r="W65" s="223"/>
-      <c r="X65" s="223"/>
-      <c r="Y65" s="223"/>
-      <c r="Z65" s="223"/>
+      <c r="B65" s="294" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="294"/>
+      <c r="D65" s="294"/>
+      <c r="E65" s="294"/>
+      <c r="F65" s="294"/>
+      <c r="G65" s="294"/>
+      <c r="H65" s="294"/>
+      <c r="I65" s="294"/>
+      <c r="J65" s="294"/>
+      <c r="K65" s="294"/>
+      <c r="L65" s="294"/>
+      <c r="M65" s="294"/>
+      <c r="N65" s="294"/>
+      <c r="O65" s="294"/>
+      <c r="P65" s="294"/>
+      <c r="Q65" s="294"/>
+      <c r="R65" s="294"/>
+      <c r="S65" s="294"/>
+      <c r="T65" s="294"/>
+      <c r="U65" s="294"/>
+      <c r="V65" s="294"/>
+      <c r="W65" s="294"/>
+      <c r="X65" s="294"/>
+      <c r="Y65" s="294"/>
+      <c r="Z65" s="294"/>
       <c r="AA65" s="60"/>
       <c r="AB65" s="179"/>
       <c r="AC65" s="180"/>
@@ -5266,18 +5269,18 @@
       <c r="P66" s="60"/>
       <c r="Q66" s="60"/>
       <c r="R66" s="60"/>
-      <c r="S66" s="224"/>
-      <c r="T66" s="224"/>
+      <c r="S66" s="209"/>
+      <c r="T66" s="209"/>
       <c r="U66" s="60"/>
       <c r="V66" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="W66" s="225" t="s">
+      <c r="W66" s="295" t="s">
         <v>125</v>
       </c>
-      <c r="X66" s="226"/>
-      <c r="Y66" s="226"/>
-      <c r="Z66" s="226"/>
+      <c r="X66" s="296"/>
+      <c r="Y66" s="296"/>
+      <c r="Z66" s="296"/>
       <c r="AA66" s="60"/>
       <c r="AB66" s="183"/>
       <c r="AC66" s="184"/>
@@ -5308,10 +5311,10 @@
       <c r="T67" s="60"/>
       <c r="U67" s="60"/>
       <c r="V67" s="60"/>
-      <c r="W67" s="226"/>
-      <c r="X67" s="226"/>
-      <c r="Y67" s="226"/>
-      <c r="Z67" s="226"/>
+      <c r="W67" s="296"/>
+      <c r="X67" s="296"/>
+      <c r="Y67" s="296"/>
+      <c r="Z67" s="296"/>
       <c r="AA67" s="60"/>
       <c r="AB67" s="187"/>
       <c r="AC67" s="188"/>
@@ -5320,38 +5323,38 @@
       <c r="AF67" s="71"/>
     </row>
     <row r="68" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="214" t="s">
+      <c r="A68" s="289" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="214"/>
-      <c r="C68" s="214"/>
-      <c r="D68" s="214"/>
-      <c r="E68" s="218" t="s">
-        <v>183</v>
-      </c>
-      <c r="F68" s="227"/>
-      <c r="G68" s="227"/>
-      <c r="H68" s="227"/>
-      <c r="I68" s="227"/>
-      <c r="J68" s="227"/>
-      <c r="K68" s="227"/>
-      <c r="L68" s="227"/>
-      <c r="M68" s="227"/>
-      <c r="N68" s="227"/>
-      <c r="O68" s="227"/>
-      <c r="P68" s="227"/>
-      <c r="Q68" s="227"/>
-      <c r="R68" s="227"/>
-      <c r="S68" s="228"/>
-      <c r="T68" s="228"/>
-      <c r="U68" s="228"/>
-      <c r="V68" s="228"/>
-      <c r="W68" s="227"/>
-      <c r="X68" s="229"/>
-      <c r="Y68" s="215" t="s">
+      <c r="B68" s="289"/>
+      <c r="C68" s="289"/>
+      <c r="D68" s="289"/>
+      <c r="E68" s="288" t="s">
+        <v>181</v>
+      </c>
+      <c r="F68" s="280"/>
+      <c r="G68" s="280"/>
+      <c r="H68" s="280"/>
+      <c r="I68" s="280"/>
+      <c r="J68" s="280"/>
+      <c r="K68" s="280"/>
+      <c r="L68" s="280"/>
+      <c r="M68" s="280"/>
+      <c r="N68" s="280"/>
+      <c r="O68" s="280"/>
+      <c r="P68" s="280"/>
+      <c r="Q68" s="280"/>
+      <c r="R68" s="280"/>
+      <c r="S68" s="297"/>
+      <c r="T68" s="297"/>
+      <c r="U68" s="297"/>
+      <c r="V68" s="297"/>
+      <c r="W68" s="280"/>
+      <c r="X68" s="298"/>
+      <c r="Y68" s="286" t="s">
         <v>127</v>
       </c>
-      <c r="Z68" s="215"/>
+      <c r="Z68" s="286"/>
       <c r="AA68" s="60"/>
       <c r="AB68" s="183"/>
       <c r="AC68" s="185"/>
@@ -5360,10 +5363,10 @@
       <c r="AF68" s="71"/>
     </row>
     <row r="69" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="218"/>
-      <c r="B69" s="218"/>
-      <c r="C69" s="218"/>
-      <c r="D69" s="218"/>
+      <c r="A69" s="288"/>
+      <c r="B69" s="288"/>
+      <c r="C69" s="288"/>
+      <c r="D69" s="288"/>
       <c r="E69" s="190"/>
       <c r="F69" s="94"/>
       <c r="G69" s="94"/>
@@ -5396,36 +5399,36 @@
       <c r="AF69" s="71"/>
     </row>
     <row r="70" spans="1:32" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="214" t="s">
+      <c r="A70" s="289" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="214"/>
-      <c r="C70" s="214"/>
-      <c r="D70" s="214"/>
-      <c r="E70" s="219"/>
-      <c r="F70" s="220"/>
-      <c r="G70" s="220"/>
-      <c r="H70" s="220"/>
-      <c r="I70" s="220"/>
-      <c r="J70" s="220"/>
-      <c r="K70" s="221"/>
-      <c r="L70" s="221"/>
-      <c r="M70" s="221"/>
-      <c r="N70" s="221"/>
-      <c r="O70" s="221"/>
-      <c r="P70" s="221"/>
-      <c r="Q70" s="221"/>
-      <c r="R70" s="221"/>
-      <c r="S70" s="221"/>
-      <c r="T70" s="221"/>
-      <c r="U70" s="220"/>
-      <c r="V70" s="220"/>
-      <c r="W70" s="222"/>
-      <c r="X70" s="222"/>
-      <c r="Y70" s="215" t="s">
+      <c r="B70" s="289"/>
+      <c r="C70" s="289"/>
+      <c r="D70" s="289"/>
+      <c r="E70" s="290"/>
+      <c r="F70" s="291"/>
+      <c r="G70" s="291"/>
+      <c r="H70" s="291"/>
+      <c r="I70" s="291"/>
+      <c r="J70" s="291"/>
+      <c r="K70" s="292"/>
+      <c r="L70" s="292"/>
+      <c r="M70" s="292"/>
+      <c r="N70" s="292"/>
+      <c r="O70" s="292"/>
+      <c r="P70" s="292"/>
+      <c r="Q70" s="292"/>
+      <c r="R70" s="292"/>
+      <c r="S70" s="292"/>
+      <c r="T70" s="292"/>
+      <c r="U70" s="291"/>
+      <c r="V70" s="291"/>
+      <c r="W70" s="293"/>
+      <c r="X70" s="293"/>
+      <c r="Y70" s="286" t="s">
         <v>127</v>
       </c>
-      <c r="Z70" s="215"/>
+      <c r="Z70" s="286"/>
       <c r="AA70" s="60"/>
       <c r="AB70" s="183"/>
       <c r="AC70" s="185"/>
@@ -5460,8 +5463,8 @@
       <c r="V71" s="94"/>
       <c r="W71" s="193"/>
       <c r="X71" s="193"/>
-      <c r="Y71" s="215"/>
-      <c r="Z71" s="215"/>
+      <c r="Y71" s="286"/>
+      <c r="Z71" s="286"/>
       <c r="AA71" s="60"/>
       <c r="AB71" s="187"/>
       <c r="AC71" s="188"/>
@@ -5470,36 +5473,36 @@
       <c r="AF71" s="71"/>
     </row>
     <row r="72" spans="1:32" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="214" t="s">
+      <c r="A72" s="289" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="214"/>
-      <c r="C72" s="214"/>
+      <c r="B72" s="289"/>
+      <c r="C72" s="289"/>
       <c r="D72" s="197"/>
-      <c r="E72" s="216"/>
-      <c r="F72" s="216"/>
-      <c r="G72" s="216"/>
-      <c r="H72" s="216"/>
-      <c r="I72" s="216"/>
-      <c r="J72" s="216"/>
-      <c r="K72" s="216"/>
-      <c r="L72" s="216"/>
-      <c r="M72" s="216"/>
-      <c r="N72" s="216"/>
-      <c r="O72" s="216"/>
-      <c r="P72" s="216"/>
-      <c r="Q72" s="216"/>
-      <c r="R72" s="216"/>
-      <c r="S72" s="216"/>
-      <c r="T72" s="216"/>
-      <c r="U72" s="216"/>
-      <c r="V72" s="216"/>
-      <c r="W72" s="216"/>
-      <c r="X72" s="216"/>
-      <c r="Y72" s="215" t="s">
+      <c r="E72" s="303"/>
+      <c r="F72" s="303"/>
+      <c r="G72" s="303"/>
+      <c r="H72" s="303"/>
+      <c r="I72" s="303"/>
+      <c r="J72" s="303"/>
+      <c r="K72" s="303"/>
+      <c r="L72" s="303"/>
+      <c r="M72" s="303"/>
+      <c r="N72" s="303"/>
+      <c r="O72" s="303"/>
+      <c r="P72" s="303"/>
+      <c r="Q72" s="303"/>
+      <c r="R72" s="303"/>
+      <c r="S72" s="303"/>
+      <c r="T72" s="303"/>
+      <c r="U72" s="303"/>
+      <c r="V72" s="303"/>
+      <c r="W72" s="303"/>
+      <c r="X72" s="303"/>
+      <c r="Y72" s="286" t="s">
         <v>127</v>
       </c>
-      <c r="Z72" s="215"/>
+      <c r="Z72" s="286"/>
       <c r="AA72" s="60"/>
       <c r="AB72" s="198"/>
       <c r="AC72" s="199"/>
@@ -5543,231 +5546,410 @@
       <c r="AE73" s="126"/>
     </row>
     <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="217" t="s">
+      <c r="A74" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="217"/>
-      <c r="C74" s="217"/>
-      <c r="D74" s="217"/>
-      <c r="E74" s="217"/>
-      <c r="F74" s="217"/>
-      <c r="G74" s="217"/>
-      <c r="H74" s="217"/>
-      <c r="I74" s="217"/>
-      <c r="J74" s="217"/>
-      <c r="K74" s="217"/>
-      <c r="L74" s="217"/>
-      <c r="M74" s="217"/>
-      <c r="N74" s="217"/>
-      <c r="O74" s="217"/>
-      <c r="P74" s="217"/>
-      <c r="Q74" s="217"/>
-      <c r="R74" s="217"/>
-      <c r="S74" s="217"/>
-      <c r="T74" s="217"/>
-      <c r="U74" s="217"/>
-      <c r="V74" s="217"/>
-      <c r="W74" s="217"/>
-      <c r="X74" s="217"/>
-      <c r="Y74" s="217"/>
-      <c r="Z74" s="217"/>
-      <c r="AA74" s="217"/>
-      <c r="AB74" s="217"/>
-      <c r="AC74" s="217"/>
-      <c r="AD74" s="217"/>
-      <c r="AE74" s="217"/>
+      <c r="B74" s="205"/>
+      <c r="C74" s="205"/>
+      <c r="D74" s="205"/>
+      <c r="E74" s="205"/>
+      <c r="F74" s="205"/>
+      <c r="G74" s="205"/>
+      <c r="H74" s="205"/>
+      <c r="I74" s="205"/>
+      <c r="J74" s="205"/>
+      <c r="K74" s="205"/>
+      <c r="L74" s="205"/>
+      <c r="M74" s="205"/>
+      <c r="N74" s="205"/>
+      <c r="O74" s="205"/>
+      <c r="P74" s="205"/>
+      <c r="Q74" s="205"/>
+      <c r="R74" s="205"/>
+      <c r="S74" s="205"/>
+      <c r="T74" s="205"/>
+      <c r="U74" s="205"/>
+      <c r="V74" s="205"/>
+      <c r="W74" s="205"/>
+      <c r="X74" s="205"/>
+      <c r="Y74" s="205"/>
+      <c r="Z74" s="205"/>
+      <c r="AA74" s="205"/>
+      <c r="AB74" s="205"/>
+      <c r="AC74" s="205"/>
+      <c r="AD74" s="205"/>
+      <c r="AE74" s="205"/>
     </row>
     <row r="75" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="212" t="s">
+      <c r="A75" s="224" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="206" t="s">
+      <c r="B75" s="299" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="207"/>
-      <c r="D75" s="207"/>
-      <c r="E75" s="207"/>
-      <c r="F75" s="206" t="s">
+      <c r="C75" s="300"/>
+      <c r="D75" s="300"/>
+      <c r="E75" s="300"/>
+      <c r="F75" s="299" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="207"/>
-      <c r="H75" s="207"/>
-      <c r="I75" s="207"/>
-      <c r="J75" s="206" t="s">
+      <c r="G75" s="300"/>
+      <c r="H75" s="300"/>
+      <c r="I75" s="300"/>
+      <c r="J75" s="299" t="s">
         <v>50</v>
       </c>
-      <c r="K75" s="207"/>
-      <c r="L75" s="206" t="s">
+      <c r="K75" s="300"/>
+      <c r="L75" s="299" t="s">
         <v>135</v>
       </c>
-      <c r="M75" s="207"/>
-      <c r="N75" s="206" t="s">
+      <c r="M75" s="300"/>
+      <c r="N75" s="299" t="s">
         <v>136</v>
       </c>
-      <c r="O75" s="207"/>
-      <c r="P75" s="207"/>
-      <c r="Q75" s="207"/>
-      <c r="R75" s="207"/>
-      <c r="S75" s="207"/>
+      <c r="O75" s="300"/>
+      <c r="P75" s="300"/>
+      <c r="Q75" s="300"/>
+      <c r="R75" s="300"/>
+      <c r="S75" s="300"/>
       <c r="T75" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="U75" s="206" t="s">
+      <c r="U75" s="299" t="s">
         <v>138</v>
       </c>
-      <c r="V75" s="207"/>
-      <c r="W75" s="206" t="s">
+      <c r="V75" s="300"/>
+      <c r="W75" s="299" t="s">
         <v>48</v>
       </c>
-      <c r="X75" s="207"/>
-      <c r="Y75" s="206" t="s">
+      <c r="X75" s="300"/>
+      <c r="Y75" s="299" t="s">
         <v>139</v>
       </c>
-      <c r="Z75" s="207"/>
-      <c r="AA75" s="206" t="s">
+      <c r="Z75" s="300"/>
+      <c r="AA75" s="299" t="s">
         <v>140</v>
       </c>
-      <c r="AB75" s="207"/>
-      <c r="AC75" s="207"/>
-      <c r="AD75" s="206" t="s">
+      <c r="AB75" s="300"/>
+      <c r="AC75" s="300"/>
+      <c r="AD75" s="299" t="s">
         <v>141</v>
       </c>
-      <c r="AE75" s="207"/>
+      <c r="AE75" s="300"/>
       <c r="AF75" s="127"/>
     </row>
     <row r="76" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="213"/>
-      <c r="B76" s="208"/>
-      <c r="C76" s="209"/>
-      <c r="D76" s="209"/>
-      <c r="E76" s="209"/>
-      <c r="F76" s="208"/>
-      <c r="G76" s="209"/>
-      <c r="H76" s="209"/>
-      <c r="I76" s="209"/>
-      <c r="J76" s="208"/>
-      <c r="K76" s="209"/>
-      <c r="L76" s="206" t="s">
+      <c r="A76" s="242"/>
+      <c r="B76" s="301"/>
+      <c r="C76" s="302"/>
+      <c r="D76" s="302"/>
+      <c r="E76" s="302"/>
+      <c r="F76" s="301"/>
+      <c r="G76" s="302"/>
+      <c r="H76" s="302"/>
+      <c r="I76" s="302"/>
+      <c r="J76" s="301"/>
+      <c r="K76" s="302"/>
+      <c r="L76" s="299" t="s">
         <v>142</v>
       </c>
-      <c r="M76" s="207"/>
-      <c r="N76" s="206"/>
-      <c r="O76" s="207"/>
-      <c r="P76" s="207"/>
-      <c r="Q76" s="207"/>
-      <c r="R76" s="207"/>
-      <c r="S76" s="207"/>
+      <c r="M76" s="300"/>
+      <c r="N76" s="299"/>
+      <c r="O76" s="300"/>
+      <c r="P76" s="300"/>
+      <c r="Q76" s="300"/>
+      <c r="R76" s="300"/>
+      <c r="S76" s="300"/>
       <c r="T76" s="202" t="s">
         <v>143</v>
       </c>
-      <c r="U76" s="206" t="s">
+      <c r="U76" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="V76" s="207"/>
-      <c r="W76" s="206" t="s">
+      <c r="V76" s="300"/>
+      <c r="W76" s="299" t="s">
         <v>52</v>
       </c>
-      <c r="X76" s="207"/>
-      <c r="Y76" s="206" t="s">
+      <c r="X76" s="300"/>
+      <c r="Y76" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="Z76" s="207"/>
-      <c r="AA76" s="206" t="s">
+      <c r="Z76" s="300"/>
+      <c r="AA76" s="299" t="s">
         <v>146</v>
       </c>
-      <c r="AB76" s="207"/>
-      <c r="AC76" s="210"/>
-      <c r="AD76" s="208"/>
-      <c r="AE76" s="209"/>
+      <c r="AB76" s="300"/>
+      <c r="AC76" s="306"/>
+      <c r="AD76" s="301"/>
+      <c r="AE76" s="302"/>
       <c r="AF76" s="127"/>
     </row>
     <row r="77" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="203">
         <v>1</v>
       </c>
-      <c r="B77" s="204">
+      <c r="B77" s="304">
         <v>2</v>
       </c>
-      <c r="C77" s="205"/>
-      <c r="D77" s="205"/>
-      <c r="E77" s="205"/>
-      <c r="F77" s="204">
+      <c r="C77" s="305"/>
+      <c r="D77" s="305"/>
+      <c r="E77" s="305"/>
+      <c r="F77" s="304">
         <v>3</v>
       </c>
-      <c r="G77" s="205"/>
-      <c r="H77" s="205"/>
-      <c r="I77" s="205"/>
-      <c r="J77" s="204">
+      <c r="G77" s="305"/>
+      <c r="H77" s="305"/>
+      <c r="I77" s="305"/>
+      <c r="J77" s="304">
         <v>4</v>
       </c>
-      <c r="K77" s="205"/>
-      <c r="L77" s="204">
+      <c r="K77" s="305"/>
+      <c r="L77" s="304">
         <v>5</v>
       </c>
-      <c r="M77" s="205"/>
-      <c r="N77" s="204">
+      <c r="M77" s="305"/>
+      <c r="N77" s="304">
         <v>6</v>
       </c>
-      <c r="O77" s="205"/>
-      <c r="P77" s="205"/>
-      <c r="Q77" s="205"/>
-      <c r="R77" s="205"/>
-      <c r="S77" s="205"/>
+      <c r="O77" s="305"/>
+      <c r="P77" s="305"/>
+      <c r="Q77" s="305"/>
+      <c r="R77" s="305"/>
+      <c r="S77" s="305"/>
       <c r="T77" s="203">
         <v>7</v>
       </c>
-      <c r="U77" s="204">
+      <c r="U77" s="304">
         <v>8</v>
       </c>
-      <c r="V77" s="205"/>
-      <c r="W77" s="204">
+      <c r="V77" s="305"/>
+      <c r="W77" s="304">
         <v>9</v>
       </c>
-      <c r="X77" s="205"/>
-      <c r="Y77" s="204">
+      <c r="X77" s="305"/>
+      <c r="Y77" s="304">
         <v>10</v>
       </c>
-      <c r="Z77" s="205"/>
-      <c r="AA77" s="204">
+      <c r="Z77" s="305"/>
+      <c r="AA77" s="304">
         <v>11</v>
       </c>
-      <c r="AB77" s="205"/>
-      <c r="AC77" s="205"/>
-      <c r="AD77" s="204">
+      <c r="AB77" s="305"/>
+      <c r="AC77" s="305"/>
+      <c r="AD77" s="304">
         <v>12</v>
       </c>
-      <c r="AE77" s="211"/>
+      <c r="AE77" s="307"/>
       <c r="AF77" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="B5:AA5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:V11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:AB9"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="AA75:AC75"/>
+    <mergeCell ref="AD75:AE76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="AA77:AC77"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:E76"/>
+    <mergeCell ref="F75:I76"/>
+    <mergeCell ref="J75:K76"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:S76"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="E72:X72"/>
+    <mergeCell ref="A74:AE74"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:X70"/>
+    <mergeCell ref="Y70:Z71"/>
+    <mergeCell ref="B65:Z65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="W66:Z67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="U60:AD60"/>
+    <mergeCell ref="U61:AD61"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AE57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:V53"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="A45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:U48"/>
+    <mergeCell ref="V47:W48"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="L39:P40"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AB40"/>
+    <mergeCell ref="AC39:AE40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J32:L33"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="W26:AB27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
     <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:Y23"/>
@@ -5791,212 +5973,33 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="W26:AB27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J32:L33"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:K40"/>
-    <mergeCell ref="L39:P40"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="Z39:AB40"/>
-    <mergeCell ref="AC39:AE40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="A45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:U48"/>
-    <mergeCell ref="V47:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:K53"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:V53"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="U60:AD60"/>
-    <mergeCell ref="U61:AD61"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AE57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:X70"/>
-    <mergeCell ref="Y70:Z71"/>
-    <mergeCell ref="B65:Z65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="W66:Z67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:E76"/>
-    <mergeCell ref="F75:I76"/>
-    <mergeCell ref="J75:K76"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:S76"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="E72:X72"/>
-    <mergeCell ref="A74:AE74"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:S77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="AA75:AC75"/>
-    <mergeCell ref="AD75:AE76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="W77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="AA77:AC77"/>
-    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="B5:AA5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:V11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:AB9"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -6012,8 +6015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6038,56 +6041,56 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="333" t="s">
+      <c r="T1" s="311" t="s">
         <v>154</v>
       </c>
-      <c r="U1" s="333"/>
-      <c r="V1" s="333"/>
-      <c r="W1" s="333"/>
-      <c r="X1" s="333"/>
+      <c r="U1" s="311"/>
+      <c r="V1" s="311"/>
+      <c r="W1" s="311"/>
+      <c r="X1" s="311"/>
       <c r="Y1" s="46" t="s">
         <v>160</v>
       </c>
       <c r="Z1" s="47"/>
-      <c r="AA1" s="339"/>
-      <c r="AB1" s="340"/>
-      <c r="AC1" s="341"/>
+      <c r="AA1" s="319"/>
+      <c r="AB1" s="320"/>
+      <c r="AC1" s="321"/>
       <c r="AD1" s="56"/>
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="329" t="s">
+      <c r="A2" s="312" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="329"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
-      <c r="M2" s="329"/>
-      <c r="N2" s="329"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="329"/>
-      <c r="Q2" s="329"/>
-      <c r="R2" s="329"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="312"/>
+      <c r="Q2" s="312"/>
+      <c r="R2" s="312"/>
       <c r="S2" s="2">
         <v>1</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="U2" s="334" t="s">
+      <c r="U2" s="313" t="s">
         <v>157</v>
       </c>
-      <c r="V2" s="334"/>
-      <c r="W2" s="329"/>
-      <c r="X2" s="329"/>
+      <c r="V2" s="313"/>
+      <c r="W2" s="312"/>
+      <c r="X2" s="312"/>
       <c r="Y2" s="49"/>
       <c r="Z2" s="50"/>
       <c r="AA2" s="55"/>
@@ -6097,10 +6100,10 @@
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="314" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="335"/>
+      <c r="B3" s="314"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -6118,13 +6121,13 @@
       <c r="Q3" s="44"/>
       <c r="R3" s="44"/>
       <c r="S3" s="45"/>
-      <c r="T3" s="334" t="s">
+      <c r="T3" s="313" t="s">
         <v>159</v>
       </c>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="335"/>
-      <c r="X3" s="335"/>
+      <c r="U3" s="313"/>
+      <c r="V3" s="313"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="53"/>
       <c r="AA3" s="51"/>
@@ -6151,38 +6154,38 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="336"/>
-      <c r="S4" s="336"/>
+      <c r="R4" s="316"/>
+      <c r="S4" s="316"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="337"/>
-      <c r="Z4" s="337"/>
-      <c r="AA4" s="331"/>
-      <c r="AB4" s="331"/>
-      <c r="AC4" s="331"/>
+      <c r="Y4" s="317"/>
+      <c r="Z4" s="317"/>
+      <c r="AA4" s="308"/>
+      <c r="AB4" s="308"/>
+      <c r="AC4" s="308"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="10.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="322" t="s">
+      <c r="A5" s="315" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="322"/>
-      <c r="C5" s="322"/>
+      <c r="B5" s="315"/>
+      <c r="C5" s="315"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="308" t="s">
-        <v>180</v>
-      </c>
-      <c r="K5" s="308"/>
-      <c r="L5" s="308"/>
+      <c r="J5" s="310" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="310"/>
+      <c r="L5" s="310"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="8"/>
@@ -6195,11 +6198,11 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="338"/>
-      <c r="Z5" s="338"/>
-      <c r="AA5" s="332"/>
-      <c r="AB5" s="332"/>
-      <c r="AC5" s="332"/>
+      <c r="Y5" s="318"/>
+      <c r="Z5" s="318"/>
+      <c r="AA5" s="309"/>
+      <c r="AB5" s="309"/>
+      <c r="AC5" s="309"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
     </row>
@@ -6232,19 +6235,19 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="329"/>
-      <c r="Z6" s="330"/>
-      <c r="AA6" s="329"/>
-      <c r="AB6" s="330"/>
-      <c r="AC6" s="330"/>
+      <c r="Y6" s="312"/>
+      <c r="Z6" s="328"/>
+      <c r="AA6" s="312"/>
+      <c r="AB6" s="328"/>
+      <c r="AC6" s="328"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:31" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="327" t="s">
+      <c r="A7" s="325" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="327"/>
+      <c r="B7" s="325"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -6252,11 +6255,11 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="308" t="s">
+      <c r="J7" s="310" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
+      <c r="K7" s="310"/>
+      <c r="L7" s="310"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="17"/>
@@ -6269,11 +6272,11 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="330"/>
-      <c r="Z7" s="330"/>
-      <c r="AA7" s="330"/>
-      <c r="AB7" s="330"/>
-      <c r="AC7" s="330"/>
+      <c r="Y7" s="328"/>
+      <c r="Z7" s="328"/>
+      <c r="AA7" s="328"/>
+      <c r="AB7" s="328"/>
+      <c r="AC7" s="328"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
     </row>
@@ -6306,29 +6309,29 @@
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
       <c r="X8" s="19"/>
-      <c r="Y8" s="321"/>
-      <c r="Z8" s="321"/>
-      <c r="AA8" s="325"/>
-      <c r="AB8" s="325"/>
-      <c r="AC8" s="325"/>
+      <c r="Y8" s="322"/>
+      <c r="Z8" s="322"/>
+      <c r="AA8" s="323"/>
+      <c r="AB8" s="323"/>
+      <c r="AC8" s="323"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
     </row>
     <row r="9" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="322" t="s">
+      <c r="A9" s="315" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="326"/>
-      <c r="C9" s="326"/>
-      <c r="D9" s="327"/>
-      <c r="E9" s="327"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="324"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="323" t="s">
+      <c r="I9" s="326" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="328"/>
+      <c r="J9" s="327"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="22"/>
@@ -6359,11 +6362,11 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="317" t="s">
+      <c r="F10" s="337" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="317"/>
-      <c r="H10" s="317"/>
+      <c r="G10" s="337"/>
+      <c r="H10" s="337"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
@@ -6389,25 +6392,25 @@
       <c r="AE10" s="4"/>
     </row>
     <row r="11" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="322" t="s">
+      <c r="A11" s="315" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="322"/>
-      <c r="C11" s="323"/>
-      <c r="D11" s="323"/>
-      <c r="E11" s="323"/>
-      <c r="F11" s="323"/>
-      <c r="G11" s="323"/>
-      <c r="H11" s="323"/>
-      <c r="I11" s="323"/>
-      <c r="J11" s="323"/>
-      <c r="K11" s="323"/>
-      <c r="L11" s="323"/>
-      <c r="M11" s="323"/>
-      <c r="N11" s="323"/>
-      <c r="O11" s="323"/>
-      <c r="P11" s="323"/>
-      <c r="Q11" s="323"/>
+      <c r="B11" s="315"/>
+      <c r="C11" s="326"/>
+      <c r="D11" s="326"/>
+      <c r="E11" s="326"/>
+      <c r="F11" s="326"/>
+      <c r="G11" s="326"/>
+      <c r="H11" s="326"/>
+      <c r="I11" s="326"/>
+      <c r="J11" s="326"/>
+      <c r="K11" s="326"/>
+      <c r="L11" s="326"/>
+      <c r="M11" s="326"/>
+      <c r="N11" s="326"/>
+      <c r="O11" s="326"/>
+      <c r="P11" s="326"/>
+      <c r="Q11" s="326"/>
       <c r="R11" s="26"/>
       <c r="S11" s="18" t="s">
         <v>168</v>
@@ -6446,10 +6449,10 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="26"/>
-      <c r="S12" s="323" t="s">
+      <c r="S12" s="326" t="s">
         <v>169</v>
       </c>
-      <c r="T12" s="323"/>
+      <c r="T12" s="326"/>
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
       <c r="W12" s="32"/>
@@ -6474,11 +6477,11 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="310" t="s">
-        <v>170</v>
-      </c>
-      <c r="M13" s="310"/>
-      <c r="N13" s="310"/>
+      <c r="L13" s="341" t="s">
+        <v>184</v>
+      </c>
+      <c r="M13" s="341"/>
+      <c r="N13" s="341"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -6504,44 +6507,44 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="312" t="s">
+      <c r="A14" s="329" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="329"/>
+      <c r="C14" s="329"/>
+      <c r="D14" s="330" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="330"/>
+      <c r="F14" s="331"/>
+      <c r="G14" s="331"/>
+      <c r="H14" s="332" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="312"/>
-      <c r="C14" s="312"/>
-      <c r="D14" s="313" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="313"/>
-      <c r="F14" s="311"/>
-      <c r="G14" s="311"/>
-      <c r="H14" s="309" t="s">
-        <v>172</v>
-      </c>
-      <c r="I14" s="309"/>
-      <c r="J14" s="309"/>
+      <c r="I14" s="332"/>
+      <c r="J14" s="332"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="312" t="s">
-        <v>173</v>
-      </c>
-      <c r="M14" s="312"/>
+      <c r="L14" s="329" t="s">
+        <v>185</v>
+      </c>
+      <c r="M14" s="329"/>
       <c r="N14" s="58"/>
-      <c r="O14" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="P14" s="57"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="342" t="s">
+        <v>183</v>
+      </c>
       <c r="Q14" s="57"/>
       <c r="R14" s="26"/>
-      <c r="S14" s="324"/>
-      <c r="T14" s="324"/>
-      <c r="U14" s="324"/>
-      <c r="V14" s="324"/>
-      <c r="W14" s="324"/>
-      <c r="X14" s="324"/>
-      <c r="Y14" s="324"/>
-      <c r="Z14" s="324"/>
-      <c r="AA14" s="324"/>
-      <c r="AB14" s="324"/>
+      <c r="S14" s="333"/>
+      <c r="T14" s="333"/>
+      <c r="U14" s="333"/>
+      <c r="V14" s="333"/>
+      <c r="W14" s="333"/>
+      <c r="X14" s="333"/>
+      <c r="Y14" s="333"/>
+      <c r="Z14" s="333"/>
+      <c r="AA14" s="333"/>
+      <c r="AB14" s="333"/>
       <c r="AC14" s="22"/>
       <c r="AD14" s="22"/>
       <c r="AE14" s="4"/>
@@ -6555,7 +6558,7 @@
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="33" t="s">
@@ -6564,29 +6567,29 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="320"/>
-      <c r="M15" s="320"/>
+      <c r="L15" s="340"/>
+      <c r="M15" s="340"/>
       <c r="N15" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q15" s="34"/>
       <c r="R15" s="26"/>
-      <c r="S15" s="321" t="s">
-        <v>176</v>
-      </c>
-      <c r="T15" s="321"/>
-      <c r="U15" s="321"/>
-      <c r="V15" s="321"/>
-      <c r="W15" s="321"/>
-      <c r="X15" s="321"/>
-      <c r="Y15" s="321"/>
-      <c r="Z15" s="321"/>
-      <c r="AA15" s="321"/>
-      <c r="AB15" s="321"/>
+      <c r="S15" s="322" t="s">
+        <v>174</v>
+      </c>
+      <c r="T15" s="322"/>
+      <c r="U15" s="322"/>
+      <c r="V15" s="322"/>
+      <c r="W15" s="322"/>
+      <c r="X15" s="322"/>
+      <c r="Y15" s="322"/>
+      <c r="Z15" s="322"/>
+      <c r="AA15" s="322"/>
+      <c r="AB15" s="322"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
@@ -6625,20 +6628,20 @@
       <c r="AE16" s="4"/>
     </row>
     <row r="17" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="312" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="312"/>
-      <c r="C17" s="312"/>
-      <c r="D17" s="313" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="313"/>
-      <c r="F17" s="311"/>
-      <c r="G17" s="311"/>
-      <c r="H17" s="309"/>
-      <c r="I17" s="309"/>
-      <c r="J17" s="309"/>
+      <c r="A17" s="329" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="329"/>
+      <c r="C17" s="329"/>
+      <c r="D17" s="330" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="330"/>
+      <c r="F17" s="331"/>
+      <c r="G17" s="331"/>
+      <c r="H17" s="332"/>
+      <c r="I17" s="332"/>
+      <c r="J17" s="332"/>
       <c r="K17" s="40"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -6647,14 +6650,14 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="318" t="s">
-        <v>178</v>
-      </c>
-      <c r="T17" s="318"/>
-      <c r="U17" s="316"/>
-      <c r="V17" s="319"/>
-      <c r="W17" s="316"/>
-      <c r="X17" s="316"/>
+      <c r="S17" s="338" t="s">
+        <v>176</v>
+      </c>
+      <c r="T17" s="338"/>
+      <c r="U17" s="336"/>
+      <c r="V17" s="339"/>
+      <c r="W17" s="336"/>
+      <c r="X17" s="336"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="5"/>
@@ -6672,7 +6675,7 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="33" t="s">
@@ -6709,11 +6712,11 @@
       <c r="AE18" s="4"/>
     </row>
     <row r="19" spans="1:31" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="310"/>
-      <c r="B19" s="310"/>
-      <c r="C19" s="310"/>
-      <c r="D19" s="311"/>
-      <c r="E19" s="311"/>
+      <c r="A19" s="341"/>
+      <c r="B19" s="341"/>
+      <c r="C19" s="341"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="331"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -6729,14 +6732,14 @@
       <c r="R19" s="26"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
-      <c r="U19" s="314"/>
-      <c r="V19" s="314"/>
-      <c r="W19" s="315"/>
-      <c r="X19" s="315"/>
-      <c r="Y19" s="315"/>
-      <c r="Z19" s="315"/>
-      <c r="AA19" s="315"/>
-      <c r="AB19" s="315"/>
+      <c r="U19" s="334"/>
+      <c r="V19" s="334"/>
+      <c r="W19" s="335"/>
+      <c r="X19" s="335"/>
+      <c r="Y19" s="335"/>
+      <c r="Z19" s="335"/>
+      <c r="AA19" s="335"/>
+      <c r="AB19" s="335"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
@@ -6745,19 +6748,19 @@
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="308"/>
-      <c r="E20" s="308"/>
+      <c r="D20" s="310"/>
+      <c r="E20" s="310"/>
       <c r="F20" s="42"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="308"/>
-      <c r="I20" s="308"/>
-      <c r="J20" s="308"/>
+      <c r="H20" s="310"/>
+      <c r="I20" s="310"/>
+      <c r="J20" s="310"/>
       <c r="K20" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L20" s="42"/>
-      <c r="M20" s="308"/>
-      <c r="N20" s="308"/>
+      <c r="M20" s="310"/>
+      <c r="N20" s="310"/>
       <c r="O20" s="4"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="22"/>
@@ -6778,6 +6781,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="S15:AB15"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="S14:AB14"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="AA6:AC7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AA4:AC5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="T1:X1"/>
@@ -6790,42 +6829,6 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="Y4:Z5"/>
     <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="AA6:AC7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="S14:AB14"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="S15:AB15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\CRM-Avi\templates\order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2568E851-3DD8-4538-B504-8790F47C63CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="187">
   <si>
     <t>Оборотная сторона формы № 1-Т</t>
   </si>
@@ -595,9 +596,6 @@
     <t>Ген. Директор</t>
   </si>
   <si>
-    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал № 7701 Банка ВТБ (ПАО)  г. Москва к/с 30101810345250000745 БИК 044525745</t>
-  </si>
-  <si>
     <t>Ответственный</t>
   </si>
   <si>
@@ -608,12 +606,18 @@
   </si>
   <si>
     <t>дог. № 2 от 01.03.2019</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал "ЦЕНТРАЛЬНЫЙ" Банка ВТБ (ПАО)  г. Москва к/с 30101810145250000411 БИК 044525411</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал "Центральный" Банка ВТБ (ПАО)  г. Москва к/с 30101810145250000411 БИК 044525411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1918,27 +1922,300 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1951,12 +2228,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1966,269 +2237,74 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2236,24 +2312,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2271,69 +2338,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2638,13 +2642,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2707,49 +2713,49 @@
       <c r="W1" s="60"/>
       <c r="X1" s="60"/>
       <c r="Y1" s="60"/>
-      <c r="Z1" s="204" t="s">
+      <c r="Z1" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="204"/>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="204"/>
-      <c r="AD1" s="204"/>
-      <c r="AE1" s="204"/>
+      <c r="AA1" s="296"/>
+      <c r="AB1" s="296"/>
+      <c r="AC1" s="296"/>
+      <c r="AD1" s="296"/>
+      <c r="AE1" s="296"/>
     </row>
     <row r="2" spans="1:32" ht="9.1999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205"/>
-      <c r="W2" s="205"/>
-      <c r="X2" s="205"/>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="205"/>
-      <c r="AA2" s="205"/>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="205"/>
-      <c r="AE2" s="205"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="218"/>
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="218"/>
+      <c r="AD2" s="218"/>
+      <c r="AE2" s="218"/>
     </row>
     <row r="3" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
@@ -2794,20 +2800,20 @@
       <c r="AF3" s="71"/>
     </row>
     <row r="4" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="275"/>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="275"/>
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
       <c r="O4" s="72"/>
@@ -2821,11 +2827,11 @@
       <c r="W4" s="66"/>
       <c r="X4" s="66"/>
       <c r="Y4" s="66"/>
-      <c r="Z4" s="204" t="s">
+      <c r="Z4" s="296" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="204"/>
-      <c r="AB4" s="204"/>
+      <c r="AA4" s="296"/>
+      <c r="AB4" s="296"/>
       <c r="AC4" s="73"/>
       <c r="AD4" s="74"/>
       <c r="AE4" s="75"/>
@@ -2835,32 +2841,32 @@
       <c r="A5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="207"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="207"/>
-      <c r="O5" s="207"/>
-      <c r="P5" s="207"/>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="207"/>
-      <c r="U5" s="207"/>
-      <c r="V5" s="207"/>
-      <c r="W5" s="207"/>
-      <c r="X5" s="207"/>
-      <c r="Y5" s="207"/>
-      <c r="Z5" s="207"/>
-      <c r="AA5" s="207"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="301"/>
+      <c r="J5" s="301"/>
+      <c r="K5" s="301"/>
+      <c r="L5" s="301"/>
+      <c r="M5" s="301"/>
+      <c r="N5" s="301"/>
+      <c r="O5" s="301"/>
+      <c r="P5" s="301"/>
+      <c r="Q5" s="301"/>
+      <c r="R5" s="301"/>
+      <c r="S5" s="301"/>
+      <c r="T5" s="301"/>
+      <c r="U5" s="301"/>
+      <c r="V5" s="301"/>
+      <c r="W5" s="301"/>
+      <c r="X5" s="301"/>
+      <c r="Y5" s="301"/>
+      <c r="Z5" s="301"/>
+      <c r="AA5" s="301"/>
       <c r="AB5" s="77" t="s">
         <v>6</v>
       </c>
@@ -2909,25 +2915,25 @@
       <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
-      <c r="I7" s="215" t="s">
+      <c r="I7" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="J7" s="279"/>
+      <c r="K7" s="279"/>
+      <c r="L7" s="279"/>
+      <c r="M7" s="279"/>
+      <c r="N7" s="225"/>
+      <c r="O7" s="225"/>
+      <c r="P7" s="225"/>
+      <c r="Q7" s="225"/>
+      <c r="R7" s="225"/>
       <c r="S7" s="72"/>
       <c r="T7" s="72"/>
       <c r="U7" s="72"/>
@@ -2980,38 +2986,38 @@
       <c r="AF8" s="71"/>
     </row>
     <row r="9" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="275" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="216"/>
-      <c r="C9" s="217" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="218"/>
-      <c r="Q9" s="218"/>
-      <c r="R9" s="218"/>
-      <c r="S9" s="218"/>
-      <c r="T9" s="218"/>
-      <c r="U9" s="218"/>
-      <c r="V9" s="218"/>
-      <c r="W9" s="218"/>
-      <c r="X9" s="218"/>
-      <c r="Y9" s="218"/>
-      <c r="Z9" s="218"/>
-      <c r="AA9" s="218"/>
-      <c r="AB9" s="219"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="306" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="307"/>
+      <c r="E9" s="307"/>
+      <c r="F9" s="307"/>
+      <c r="G9" s="307"/>
+      <c r="H9" s="307"/>
+      <c r="I9" s="307"/>
+      <c r="J9" s="307"/>
+      <c r="K9" s="307"/>
+      <c r="L9" s="307"/>
+      <c r="M9" s="307"/>
+      <c r="N9" s="307"/>
+      <c r="O9" s="307"/>
+      <c r="P9" s="307"/>
+      <c r="Q9" s="307"/>
+      <c r="R9" s="307"/>
+      <c r="S9" s="307"/>
+      <c r="T9" s="307"/>
+      <c r="U9" s="307"/>
+      <c r="V9" s="307"/>
+      <c r="W9" s="307"/>
+      <c r="X9" s="307"/>
+      <c r="Y9" s="307"/>
+      <c r="Z9" s="307"/>
+      <c r="AA9" s="307"/>
+      <c r="AB9" s="308"/>
       <c r="AC9" s="91"/>
       <c r="AD9" s="92"/>
       <c r="AE9" s="93"/>
@@ -3054,38 +3060,38 @@
       <c r="AF10" s="71"/>
     </row>
     <row r="11" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="208" t="s">
+      <c r="A11" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="208"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="211"/>
-      <c r="P11" s="211"/>
-      <c r="Q11" s="211"/>
-      <c r="R11" s="211"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="211"/>
-      <c r="U11" s="211"/>
-      <c r="V11" s="211"/>
+      <c r="B11" s="271"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="225"/>
+      <c r="G11" s="225"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="259"/>
+      <c r="J11" s="259"/>
+      <c r="K11" s="259"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="259"/>
+      <c r="N11" s="259"/>
+      <c r="O11" s="302"/>
+      <c r="P11" s="302"/>
+      <c r="Q11" s="302"/>
+      <c r="R11" s="302"/>
+      <c r="S11" s="302"/>
+      <c r="T11" s="302"/>
+      <c r="U11" s="302"/>
+      <c r="V11" s="302"/>
       <c r="W11" s="98"/>
       <c r="X11" s="99" t="s">
         <v>12</v>
       </c>
       <c r="Y11" s="65"/>
-      <c r="Z11" s="212"/>
-      <c r="AA11" s="212"/>
-      <c r="AB11" s="213"/>
+      <c r="Z11" s="303"/>
+      <c r="AA11" s="303"/>
+      <c r="AB11" s="304"/>
       <c r="AC11" s="88"/>
       <c r="AD11" s="65"/>
       <c r="AE11" s="89"/>
@@ -3128,17 +3134,17 @@
       <c r="AF12" s="71"/>
     </row>
     <row r="13" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="206"/>
-      <c r="C13" s="209" t="s">
+      <c r="B13" s="275"/>
+      <c r="C13" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="225"/>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
       <c r="J13" s="102"/>
@@ -3147,19 +3153,19 @@
       <c r="M13" s="102"/>
       <c r="N13" s="102"/>
       <c r="O13" s="102"/>
-      <c r="P13" s="206" t="s">
+      <c r="P13" s="275" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="206"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="214"/>
-      <c r="U13" s="214"/>
-      <c r="V13" s="214"/>
-      <c r="W13" s="214"/>
-      <c r="X13" s="214"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="214"/>
+      <c r="Q13" s="275"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="305"/>
+      <c r="U13" s="305"/>
+      <c r="V13" s="305"/>
+      <c r="W13" s="305"/>
+      <c r="X13" s="305"/>
+      <c r="Y13" s="305"/>
+      <c r="Z13" s="305"/>
       <c r="AA13" s="64"/>
       <c r="AB13" s="103" t="s">
         <v>148</v>
@@ -3206,10 +3212,10 @@
       <c r="AF14" s="71"/>
     </row>
     <row r="15" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="275" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="206"/>
+      <c r="B15" s="275"/>
       <c r="C15" s="107"/>
       <c r="D15" s="107"/>
       <c r="E15" s="107"/>
@@ -3249,24 +3255,24 @@
       <c r="A16" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="222"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="222"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="222"/>
-      <c r="L16" s="222"/>
+      <c r="B16" s="299"/>
+      <c r="C16" s="299"/>
+      <c r="D16" s="299"/>
+      <c r="E16" s="299"/>
+      <c r="F16" s="299"/>
+      <c r="G16" s="299"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="299"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="299"/>
       <c r="M16" s="72"/>
       <c r="N16" s="112"/>
-      <c r="O16" s="223" t="s">
+      <c r="O16" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="223"/>
+      <c r="P16" s="300"/>
+      <c r="Q16" s="300"/>
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
       <c r="T16" s="114"/>
@@ -3276,10 +3282,10 @@
       <c r="X16" s="114"/>
       <c r="Y16" s="114"/>
       <c r="Z16" s="66"/>
-      <c r="AA16" s="204" t="s">
+      <c r="AA16" s="296" t="s">
         <v>24</v>
       </c>
-      <c r="AB16" s="221"/>
+      <c r="AB16" s="297"/>
       <c r="AC16" s="104"/>
       <c r="AD16" s="63"/>
       <c r="AE16" s="105"/>
@@ -3307,11 +3313,11 @@
       <c r="Q17" s="60"/>
       <c r="R17" s="94"/>
       <c r="S17" s="94"/>
-      <c r="T17" s="220" t="s">
+      <c r="T17" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="U17" s="220"/>
-      <c r="V17" s="220"/>
+      <c r="U17" s="234"/>
+      <c r="V17" s="234"/>
       <c r="W17" s="94"/>
       <c r="X17" s="94"/>
       <c r="Y17" s="94"/>
@@ -3324,42 +3330,42 @@
       <c r="AF17" s="71"/>
     </row>
     <row r="18" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="275" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="206"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="206" t="s">
+      <c r="B18" s="275"/>
+      <c r="C18" s="275"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="271"/>
+      <c r="G18" s="271"/>
+      <c r="H18" s="271"/>
+      <c r="I18" s="271"/>
+      <c r="J18" s="271"/>
+      <c r="K18" s="271"/>
+      <c r="L18" s="271"/>
+      <c r="M18" s="275" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="206"/>
+      <c r="N18" s="275"/>
       <c r="O18" s="63"/>
       <c r="P18" s="63"/>
-      <c r="Q18" s="204" t="s">
+      <c r="Q18" s="296" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="204"/>
-      <c r="S18" s="204"/>
-      <c r="T18" s="204"/>
+      <c r="R18" s="296"/>
+      <c r="S18" s="296"/>
+      <c r="T18" s="296"/>
       <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
       <c r="X18" s="63"/>
       <c r="Y18" s="63"/>
-      <c r="Z18" s="204" t="s">
+      <c r="Z18" s="296" t="s">
         <v>29</v>
       </c>
-      <c r="AA18" s="204"/>
-      <c r="AB18" s="221"/>
+      <c r="AA18" s="296"/>
+      <c r="AB18" s="297"/>
       <c r="AC18" s="104"/>
       <c r="AD18" s="63"/>
       <c r="AE18" s="105"/>
@@ -3416,28 +3422,28 @@
       <c r="J20" s="60"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="206" t="s">
+      <c r="M20" s="275" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="206"/>
+      <c r="N20" s="275"/>
       <c r="O20" s="121"/>
       <c r="P20" s="121"/>
-      <c r="Q20" s="204" t="s">
+      <c r="Q20" s="296" t="s">
         <v>149</v>
       </c>
-      <c r="R20" s="204"/>
-      <c r="S20" s="204"/>
-      <c r="T20" s="204"/>
+      <c r="R20" s="296"/>
+      <c r="S20" s="296"/>
+      <c r="T20" s="296"/>
       <c r="U20" s="63"/>
       <c r="V20" s="63"/>
       <c r="W20" s="121"/>
       <c r="X20" s="121"/>
       <c r="Y20" s="121"/>
-      <c r="Z20" s="204" t="s">
+      <c r="Z20" s="296" t="s">
         <v>147</v>
       </c>
-      <c r="AA20" s="204"/>
-      <c r="AB20" s="221"/>
+      <c r="AA20" s="296"/>
+      <c r="AB20" s="297"/>
       <c r="AC20" s="122"/>
       <c r="AD20" s="123"/>
       <c r="AE20" s="124"/>
@@ -3481,23 +3487,23 @@
     <row r="22" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
       <c r="B22" s="60"/>
-      <c r="C22" s="227" t="s">
+      <c r="C22" s="269" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="227"/>
+      <c r="D22" s="269"/>
+      <c r="E22" s="269"/>
+      <c r="F22" s="269"/>
+      <c r="G22" s="269"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
-      <c r="L22" s="228" t="s">
+      <c r="L22" s="298" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="228"/>
-      <c r="N22" s="228"/>
-      <c r="O22" s="228"/>
+      <c r="M22" s="298"/>
+      <c r="N22" s="298"/>
+      <c r="O22" s="298"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="60"/>
       <c r="R22" s="60"/>
@@ -3516,147 +3522,147 @@
       <c r="AE22" s="60"/>
     </row>
     <row r="23" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="224" t="s">
+      <c r="A23" s="213" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="225"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="225"/>
-      <c r="E23" s="224" t="s">
+      <c r="B23" s="240"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="240"/>
+      <c r="E23" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="225"/>
-      <c r="G23" s="225"/>
-      <c r="H23" s="225"/>
-      <c r="I23" s="225"/>
-      <c r="J23" s="224" t="s">
+      <c r="F23" s="240"/>
+      <c r="G23" s="240"/>
+      <c r="H23" s="240"/>
+      <c r="I23" s="240"/>
+      <c r="J23" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="225"/>
-      <c r="L23" s="225"/>
-      <c r="M23" s="224" t="s">
+      <c r="K23" s="240"/>
+      <c r="L23" s="240"/>
+      <c r="M23" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="225"/>
-      <c r="O23" s="225"/>
-      <c r="P23" s="225"/>
-      <c r="Q23" s="225"/>
-      <c r="R23" s="224" t="s">
+      <c r="N23" s="240"/>
+      <c r="O23" s="240"/>
+      <c r="P23" s="240"/>
+      <c r="Q23" s="240"/>
+      <c r="R23" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="225"/>
-      <c r="T23" s="225"/>
-      <c r="U23" s="224" t="s">
+      <c r="S23" s="240"/>
+      <c r="T23" s="240"/>
+      <c r="U23" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="225"/>
-      <c r="W23" s="224" t="s">
+      <c r="V23" s="240"/>
+      <c r="W23" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="X23" s="225"/>
-      <c r="Y23" s="225"/>
-      <c r="Z23" s="224" t="s">
+      <c r="X23" s="240"/>
+      <c r="Y23" s="240"/>
+      <c r="Z23" s="213" t="s">
         <v>41</v>
       </c>
-      <c r="AA23" s="225"/>
-      <c r="AB23" s="225"/>
-      <c r="AC23" s="224" t="s">
+      <c r="AA23" s="240"/>
+      <c r="AB23" s="240"/>
+      <c r="AC23" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="225"/>
-      <c r="AE23" s="225"/>
+      <c r="AD23" s="240"/>
+      <c r="AE23" s="240"/>
       <c r="AF23" s="127"/>
     </row>
     <row r="24" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="224">
+      <c r="A24" s="213">
         <v>1</v>
       </c>
-      <c r="B24" s="225"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="225"/>
-      <c r="E24" s="224">
+      <c r="B24" s="240"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="240"/>
+      <c r="E24" s="213">
         <v>2</v>
       </c>
-      <c r="F24" s="225"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="225"/>
-      <c r="I24" s="225"/>
-      <c r="J24" s="224">
+      <c r="F24" s="240"/>
+      <c r="G24" s="240"/>
+      <c r="H24" s="240"/>
+      <c r="I24" s="240"/>
+      <c r="J24" s="213">
         <v>3</v>
       </c>
-      <c r="K24" s="225"/>
-      <c r="L24" s="225"/>
-      <c r="M24" s="224">
+      <c r="K24" s="240"/>
+      <c r="L24" s="240"/>
+      <c r="M24" s="213">
         <v>4</v>
       </c>
-      <c r="N24" s="225"/>
-      <c r="O24" s="225"/>
-      <c r="P24" s="225"/>
-      <c r="Q24" s="225"/>
-      <c r="R24" s="224">
+      <c r="N24" s="240"/>
+      <c r="O24" s="240"/>
+      <c r="P24" s="240"/>
+      <c r="Q24" s="240"/>
+      <c r="R24" s="213">
         <v>5</v>
       </c>
-      <c r="S24" s="225"/>
-      <c r="T24" s="225"/>
-      <c r="U24" s="224">
+      <c r="S24" s="240"/>
+      <c r="T24" s="240"/>
+      <c r="U24" s="213">
         <v>6</v>
       </c>
-      <c r="V24" s="225"/>
-      <c r="W24" s="224">
+      <c r="V24" s="240"/>
+      <c r="W24" s="213">
         <v>7</v>
       </c>
-      <c r="X24" s="225"/>
-      <c r="Y24" s="225"/>
-      <c r="Z24" s="224">
+      <c r="X24" s="240"/>
+      <c r="Y24" s="240"/>
+      <c r="Z24" s="213">
         <v>8</v>
       </c>
-      <c r="AA24" s="225"/>
-      <c r="AB24" s="225"/>
-      <c r="AC24" s="224">
+      <c r="AA24" s="240"/>
+      <c r="AB24" s="240"/>
+      <c r="AC24" s="213">
         <v>9</v>
       </c>
-      <c r="AD24" s="225"/>
-      <c r="AE24" s="226"/>
+      <c r="AD24" s="240"/>
+      <c r="AE24" s="241"/>
       <c r="AF24" s="127"/>
     </row>
     <row r="25" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="235" t="s">
+      <c r="A25" s="290" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="237" t="s">
+      <c r="B25" s="291"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
+      <c r="E25" s="272" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="238"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="238"/>
-      <c r="I25" s="238"/>
-      <c r="J25" s="239" t="s">
+      <c r="F25" s="273"/>
+      <c r="G25" s="273"/>
+      <c r="H25" s="273"/>
+      <c r="I25" s="273"/>
+      <c r="J25" s="292" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="240"/>
-      <c r="L25" s="240"/>
-      <c r="M25" s="241"/>
-      <c r="N25" s="241"/>
-      <c r="O25" s="241"/>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="236"/>
-      <c r="S25" s="236"/>
-      <c r="T25" s="236"/>
-      <c r="U25" s="229"/>
-      <c r="V25" s="229"/>
-      <c r="W25" s="229"/>
-      <c r="X25" s="229"/>
-      <c r="Y25" s="229"/>
-      <c r="Z25" s="229"/>
-      <c r="AA25" s="229"/>
-      <c r="AB25" s="229"/>
-      <c r="AC25" s="229"/>
-      <c r="AD25" s="229"/>
-      <c r="AE25" s="229"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="293"/>
+      <c r="M25" s="294"/>
+      <c r="N25" s="294"/>
+      <c r="O25" s="294"/>
+      <c r="P25" s="294"/>
+      <c r="Q25" s="294"/>
+      <c r="R25" s="291"/>
+      <c r="S25" s="291"/>
+      <c r="T25" s="291"/>
+      <c r="U25" s="282"/>
+      <c r="V25" s="282"/>
+      <c r="W25" s="282"/>
+      <c r="X25" s="282"/>
+      <c r="Y25" s="282"/>
+      <c r="Z25" s="282"/>
+      <c r="AA25" s="282"/>
+      <c r="AB25" s="282"/>
+      <c r="AC25" s="282"/>
+      <c r="AD25" s="282"/>
+      <c r="AE25" s="282"/>
       <c r="AF25" s="128"/>
     </row>
     <row r="26" spans="1:32" ht="3.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3682,39 +3688,39 @@
       <c r="T26" s="81"/>
       <c r="U26" s="131"/>
       <c r="V26" s="132"/>
-      <c r="W26" s="230" t="s">
+      <c r="W26" s="285" t="s">
         <v>46</v>
       </c>
-      <c r="X26" s="231"/>
-      <c r="Y26" s="231"/>
-      <c r="Z26" s="231"/>
-      <c r="AA26" s="231"/>
-      <c r="AB26" s="231"/>
+      <c r="X26" s="286"/>
+      <c r="Y26" s="286"/>
+      <c r="Z26" s="286"/>
+      <c r="AA26" s="286"/>
+      <c r="AB26" s="286"/>
       <c r="AC26" s="133"/>
       <c r="AD26" s="119"/>
       <c r="AE26" s="132"/>
       <c r="AF26" s="128"/>
     </row>
     <row r="27" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="206" t="s">
+      <c r="A27" s="275" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="206"/>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="275"/>
+      <c r="D27" s="275"/>
       <c r="E27" s="66"/>
-      <c r="F27" s="209" t="s">
+      <c r="F27" s="225" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="209"/>
-      <c r="H27" s="233"/>
+      <c r="G27" s="225"/>
+      <c r="H27" s="288"/>
       <c r="I27" s="66"/>
-      <c r="J27" s="234" t="s">
+      <c r="J27" s="274" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="206"/>
-      <c r="L27" s="206"/>
-      <c r="M27" s="216"/>
+      <c r="K27" s="275"/>
+      <c r="L27" s="275"/>
+      <c r="M27" s="289"/>
       <c r="N27" s="134"/>
       <c r="O27" s="134"/>
       <c r="P27" s="135" t="s">
@@ -3722,56 +3728,56 @@
       </c>
       <c r="Q27" s="79"/>
       <c r="R27" s="136"/>
-      <c r="S27" s="242" t="s">
+      <c r="S27" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="230"/>
+      <c r="T27" s="285"/>
       <c r="U27" s="137"/>
       <c r="V27" s="138"/>
-      <c r="W27" s="231"/>
-      <c r="X27" s="232"/>
-      <c r="Y27" s="232"/>
-      <c r="Z27" s="232"/>
-      <c r="AA27" s="232"/>
-      <c r="AB27" s="232"/>
+      <c r="W27" s="286"/>
+      <c r="X27" s="287"/>
+      <c r="Y27" s="287"/>
+      <c r="Z27" s="287"/>
+      <c r="AA27" s="287"/>
+      <c r="AB27" s="287"/>
       <c r="AC27" s="137"/>
       <c r="AD27" s="63"/>
       <c r="AE27" s="138"/>
       <c r="AF27" s="128"/>
     </row>
     <row r="28" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="215" t="s">
+      <c r="A28" s="279" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="215"/>
-      <c r="C28" s="215"/>
-      <c r="D28" s="215"/>
+      <c r="B28" s="279"/>
+      <c r="C28" s="279"/>
+      <c r="D28" s="279"/>
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
       <c r="G28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="249"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="234"/>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="206"/>
-      <c r="N28" s="227" t="s">
+      <c r="H28" s="283"/>
+      <c r="I28" s="284"/>
+      <c r="J28" s="274"/>
+      <c r="K28" s="275"/>
+      <c r="L28" s="275"/>
+      <c r="M28" s="275"/>
+      <c r="N28" s="269" t="s">
         <v>53</v>
       </c>
-      <c r="O28" s="227"/>
+      <c r="O28" s="269"/>
       <c r="P28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="Q28" s="227" t="s">
+      <c r="Q28" s="269" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="243"/>
-      <c r="S28" s="244" t="s">
+      <c r="R28" s="295"/>
+      <c r="S28" s="265" t="s">
         <v>55</v>
       </c>
-      <c r="T28" s="245"/>
+      <c r="T28" s="281"/>
       <c r="U28" s="140"/>
       <c r="V28" s="140"/>
       <c r="W28" s="66"/>
@@ -3789,10 +3795,10 @@
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
       <c r="D29" s="66"/>
-      <c r="E29" s="246" t="s">
+      <c r="E29" s="266" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="246"/>
+      <c r="F29" s="266"/>
       <c r="G29" s="66"/>
       <c r="H29" s="115"/>
       <c r="I29" s="141"/>
@@ -3800,11 +3806,11 @@
       <c r="K29" s="66"/>
       <c r="L29" s="66"/>
       <c r="M29" s="66"/>
-      <c r="N29" s="246"/>
-      <c r="O29" s="246"/>
+      <c r="N29" s="266"/>
+      <c r="O29" s="266"/>
       <c r="P29" s="66"/>
-      <c r="Q29" s="246"/>
-      <c r="R29" s="246"/>
+      <c r="Q29" s="266"/>
+      <c r="R29" s="266"/>
       <c r="S29" s="143"/>
       <c r="T29" s="66"/>
       <c r="U29" s="66"/>
@@ -3820,10 +3826,10 @@
       <c r="AE29" s="66"/>
     </row>
     <row r="30" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="208" t="s">
+      <c r="A30" s="271" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="208"/>
+      <c r="B30" s="271"/>
       <c r="C30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
@@ -3831,28 +3837,28 @@
       <c r="G30" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="247" t="s">
+      <c r="H30" s="249" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="247"/>
-      <c r="J30" s="248" t="s">
+      <c r="I30" s="249"/>
+      <c r="J30" s="270" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
+      <c r="K30" s="271"/>
+      <c r="L30" s="271"/>
       <c r="M30" s="134"/>
       <c r="N30" s="134"/>
       <c r="O30" s="134"/>
-      <c r="P30" s="208" t="s">
+      <c r="P30" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="Q30" s="208"/>
-      <c r="R30" s="208"/>
-      <c r="S30" s="248" t="s">
+      <c r="Q30" s="271"/>
+      <c r="R30" s="271"/>
+      <c r="S30" s="270" t="s">
         <v>61</v>
       </c>
-      <c r="T30" s="208"/>
-      <c r="U30" s="208"/>
+      <c r="T30" s="271"/>
+      <c r="U30" s="271"/>
       <c r="V30" s="134"/>
       <c r="W30" s="134"/>
       <c r="X30" s="134"/>
@@ -3868,22 +3874,22 @@
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="81"/>
-      <c r="D31" s="251" t="s">
+      <c r="D31" s="264" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="251"/>
-      <c r="F31" s="251"/>
+      <c r="E31" s="264"/>
+      <c r="F31" s="264"/>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="142"/>
       <c r="K31" s="66"/>
       <c r="L31" s="66"/>
-      <c r="M31" s="227" t="s">
+      <c r="M31" s="269" t="s">
         <v>54</v>
       </c>
-      <c r="N31" s="227"/>
-      <c r="O31" s="227"/>
+      <c r="N31" s="269"/>
+      <c r="O31" s="269"/>
       <c r="P31" s="66"/>
       <c r="Q31" s="66"/>
       <c r="R31" s="66"/>
@@ -3913,21 +3919,21 @@
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="136"/>
-      <c r="J32" s="248" t="s">
+      <c r="J32" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="208"/>
-      <c r="L32" s="208"/>
+      <c r="K32" s="271"/>
+      <c r="L32" s="271"/>
       <c r="M32" s="63"/>
       <c r="N32" s="63"/>
       <c r="O32" s="79"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="144"/>
-      <c r="S32" s="234" t="s">
+      <c r="S32" s="274" t="s">
         <v>65</v>
       </c>
-      <c r="T32" s="206"/>
+      <c r="T32" s="275"/>
       <c r="U32" s="134"/>
       <c r="V32" s="134"/>
       <c r="W32" s="134"/>
@@ -3942,33 +3948,33 @@
     </row>
     <row r="33" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66"/>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="234" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220" t="s">
+      <c r="C33" s="234"/>
+      <c r="D33" s="234" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="234"/>
       <c r="G33" s="145" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="82"/>
       <c r="I33" s="146"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="238"/>
-      <c r="L33" s="238"/>
-      <c r="M33" s="227" t="s">
+      <c r="J33" s="272"/>
+      <c r="K33" s="273"/>
+      <c r="L33" s="273"/>
+      <c r="M33" s="269" t="s">
         <v>67</v>
       </c>
-      <c r="N33" s="227"/>
-      <c r="O33" s="227" t="s">
+      <c r="N33" s="269"/>
+      <c r="O33" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="P33" s="227"/>
-      <c r="Q33" s="227"/>
-      <c r="R33" s="252"/>
+      <c r="P33" s="269"/>
+      <c r="Q33" s="269"/>
+      <c r="R33" s="276"/>
       <c r="S33" s="142"/>
       <c r="T33" s="66"/>
       <c r="U33" s="81"/>
@@ -3984,10 +3990,10 @@
       <c r="AE33" s="81"/>
     </row>
     <row r="34" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="215" t="s">
+      <c r="A34" s="279" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="255"/>
+      <c r="B34" s="280"/>
       <c r="C34" s="144"/>
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
@@ -3995,17 +4001,17 @@
       <c r="G34" s="147"/>
       <c r="H34" s="147"/>
       <c r="I34" s="148"/>
-      <c r="J34" s="248" t="s">
+      <c r="J34" s="270" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="208"/>
+      <c r="K34" s="271"/>
       <c r="L34" s="144"/>
       <c r="M34" s="63"/>
       <c r="N34" s="63"/>
       <c r="O34" s="79"/>
       <c r="P34" s="79"/>
       <c r="Q34" s="79"/>
-      <c r="R34" s="253"/>
+      <c r="R34" s="277"/>
       <c r="S34" s="142"/>
       <c r="T34" s="134"/>
       <c r="U34" s="134"/>
@@ -4021,34 +4027,34 @@
       <c r="AE34" s="134"/>
     </row>
     <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="245"/>
-      <c r="B35" s="255"/>
+      <c r="A35" s="281"/>
+      <c r="B35" s="280"/>
       <c r="C35" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="227" t="s">
+      <c r="D35" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="227"/>
-      <c r="F35" s="227"/>
+      <c r="E35" s="269"/>
+      <c r="F35" s="269"/>
       <c r="G35" s="150"/>
       <c r="H35" s="150"/>
       <c r="I35" s="151"/>
-      <c r="J35" s="244"/>
-      <c r="K35" s="246"/>
+      <c r="J35" s="265"/>
+      <c r="K35" s="266"/>
       <c r="L35" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="227" t="s">
+      <c r="M35" s="269" t="s">
         <v>67</v>
       </c>
-      <c r="N35" s="227"/>
-      <c r="O35" s="227" t="s">
+      <c r="N35" s="269"/>
+      <c r="O35" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="P35" s="227"/>
-      <c r="Q35" s="227"/>
-      <c r="R35" s="254"/>
+      <c r="P35" s="269"/>
+      <c r="Q35" s="269"/>
+      <c r="R35" s="278"/>
       <c r="S35" s="152"/>
       <c r="T35" s="129"/>
       <c r="U35" s="129"/>
@@ -4070,11 +4076,11 @@
       <c r="D36" s="66"/>
       <c r="E36" s="66"/>
       <c r="F36" s="66"/>
-      <c r="G36" s="210" t="s">
+      <c r="G36" s="259" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="210"/>
-      <c r="I36" s="256"/>
+      <c r="H36" s="259"/>
+      <c r="I36" s="260"/>
       <c r="J36" s="152"/>
       <c r="K36" s="144"/>
       <c r="L36" s="144"/>
@@ -4134,257 +4140,257 @@
       <c r="AE37" s="144"/>
     </row>
     <row r="38" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="257" t="s">
+      <c r="A38" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="258"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
-      <c r="H38" s="258"/>
-      <c r="I38" s="258"/>
-      <c r="J38" s="258"/>
-      <c r="K38" s="258"/>
-      <c r="L38" s="258"/>
-      <c r="M38" s="258"/>
-      <c r="N38" s="258"/>
-      <c r="O38" s="258"/>
-      <c r="P38" s="258"/>
-      <c r="Q38" s="258"/>
-      <c r="R38" s="258"/>
-      <c r="S38" s="258"/>
-      <c r="T38" s="258"/>
-      <c r="U38" s="258"/>
-      <c r="V38" s="258"/>
-      <c r="W38" s="258"/>
-      <c r="X38" s="258"/>
-      <c r="Y38" s="258"/>
-      <c r="Z38" s="258"/>
-      <c r="AA38" s="258"/>
-      <c r="AB38" s="258"/>
-      <c r="AC38" s="258"/>
-      <c r="AD38" s="258"/>
-      <c r="AE38" s="258"/>
+      <c r="B38" s="262"/>
+      <c r="C38" s="262"/>
+      <c r="D38" s="262"/>
+      <c r="E38" s="262"/>
+      <c r="F38" s="262"/>
+      <c r="G38" s="262"/>
+      <c r="H38" s="262"/>
+      <c r="I38" s="262"/>
+      <c r="J38" s="262"/>
+      <c r="K38" s="262"/>
+      <c r="L38" s="262"/>
+      <c r="M38" s="262"/>
+      <c r="N38" s="262"/>
+      <c r="O38" s="262"/>
+      <c r="P38" s="262"/>
+      <c r="Q38" s="262"/>
+      <c r="R38" s="262"/>
+      <c r="S38" s="262"/>
+      <c r="T38" s="262"/>
+      <c r="U38" s="262"/>
+      <c r="V38" s="262"/>
+      <c r="W38" s="262"/>
+      <c r="X38" s="262"/>
+      <c r="Y38" s="262"/>
+      <c r="Z38" s="262"/>
+      <c r="AA38" s="262"/>
+      <c r="AB38" s="262"/>
+      <c r="AC38" s="262"/>
+      <c r="AD38" s="262"/>
+      <c r="AE38" s="262"/>
       <c r="AF38" s="127"/>
     </row>
     <row r="39" spans="1:32" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="259" t="s">
+      <c r="A39" s="263" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="251"/>
-      <c r="C39" s="259" t="s">
+      <c r="B39" s="264"/>
+      <c r="C39" s="263" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="251"/>
-      <c r="E39" s="251"/>
-      <c r="F39" s="251"/>
-      <c r="G39" s="259" t="s">
+      <c r="D39" s="264"/>
+      <c r="E39" s="264"/>
+      <c r="F39" s="264"/>
+      <c r="G39" s="263" t="s">
         <v>75</v>
       </c>
-      <c r="H39" s="251"/>
-      <c r="I39" s="251"/>
-      <c r="J39" s="251"/>
-      <c r="K39" s="251"/>
-      <c r="L39" s="259" t="s">
+      <c r="H39" s="264"/>
+      <c r="I39" s="264"/>
+      <c r="J39" s="264"/>
+      <c r="K39" s="264"/>
+      <c r="L39" s="263" t="s">
         <v>76</v>
       </c>
-      <c r="M39" s="251"/>
-      <c r="N39" s="251"/>
-      <c r="O39" s="251"/>
-      <c r="P39" s="251"/>
-      <c r="Q39" s="224" t="s">
+      <c r="M39" s="264"/>
+      <c r="N39" s="264"/>
+      <c r="O39" s="264"/>
+      <c r="P39" s="264"/>
+      <c r="Q39" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="R39" s="225"/>
-      <c r="S39" s="225"/>
-      <c r="T39" s="225"/>
-      <c r="U39" s="225"/>
-      <c r="V39" s="260" t="s">
+      <c r="R39" s="240"/>
+      <c r="S39" s="240"/>
+      <c r="T39" s="240"/>
+      <c r="U39" s="240"/>
+      <c r="V39" s="242" t="s">
         <v>78</v>
       </c>
-      <c r="W39" s="261"/>
-      <c r="X39" s="262"/>
-      <c r="Y39" s="263"/>
-      <c r="Z39" s="224" t="s">
+      <c r="W39" s="243"/>
+      <c r="X39" s="267"/>
+      <c r="Y39" s="268"/>
+      <c r="Z39" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="AA39" s="225"/>
-      <c r="AB39" s="225"/>
-      <c r="AC39" s="224" t="s">
+      <c r="AA39" s="240"/>
+      <c r="AB39" s="240"/>
+      <c r="AC39" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="AD39" s="225"/>
-      <c r="AE39" s="226"/>
+      <c r="AD39" s="240"/>
+      <c r="AE39" s="241"/>
       <c r="AF39" s="127"/>
     </row>
     <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="244"/>
-      <c r="B40" s="246"/>
-      <c r="C40" s="244"/>
-      <c r="D40" s="246"/>
-      <c r="E40" s="246"/>
-      <c r="F40" s="246"/>
-      <c r="G40" s="244"/>
-      <c r="H40" s="246"/>
-      <c r="I40" s="246"/>
-      <c r="J40" s="246"/>
-      <c r="K40" s="246"/>
-      <c r="L40" s="244"/>
-      <c r="M40" s="246"/>
-      <c r="N40" s="246"/>
-      <c r="O40" s="246"/>
-      <c r="P40" s="246"/>
-      <c r="Q40" s="264" t="s">
+      <c r="A40" s="265"/>
+      <c r="B40" s="266"/>
+      <c r="C40" s="265"/>
+      <c r="D40" s="266"/>
+      <c r="E40" s="266"/>
+      <c r="F40" s="266"/>
+      <c r="G40" s="265"/>
+      <c r="H40" s="266"/>
+      <c r="I40" s="266"/>
+      <c r="J40" s="266"/>
+      <c r="K40" s="266"/>
+      <c r="L40" s="265"/>
+      <c r="M40" s="266"/>
+      <c r="N40" s="266"/>
+      <c r="O40" s="266"/>
+      <c r="P40" s="266"/>
+      <c r="Q40" s="254" t="s">
         <v>81</v>
       </c>
-      <c r="R40" s="265"/>
-      <c r="S40" s="265"/>
-      <c r="T40" s="265"/>
+      <c r="R40" s="255"/>
+      <c r="S40" s="255"/>
+      <c r="T40" s="255"/>
       <c r="U40" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="V40" s="224" t="s">
+      <c r="V40" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="W40" s="225"/>
-      <c r="X40" s="224" t="s">
+      <c r="W40" s="240"/>
+      <c r="X40" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="Y40" s="226"/>
-      <c r="Z40" s="242"/>
-      <c r="AA40" s="209"/>
-      <c r="AB40" s="209"/>
-      <c r="AC40" s="242"/>
-      <c r="AD40" s="209"/>
-      <c r="AE40" s="209"/>
+      <c r="Y40" s="241"/>
+      <c r="Z40" s="214"/>
+      <c r="AA40" s="225"/>
+      <c r="AB40" s="225"/>
+      <c r="AC40" s="214"/>
+      <c r="AD40" s="225"/>
+      <c r="AE40" s="225"/>
       <c r="AF40" s="127"/>
     </row>
     <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="224">
+      <c r="A41" s="213">
         <v>10</v>
       </c>
-      <c r="B41" s="225"/>
-      <c r="C41" s="224">
+      <c r="B41" s="240"/>
+      <c r="C41" s="213">
         <v>11</v>
       </c>
-      <c r="D41" s="225"/>
-      <c r="E41" s="225"/>
-      <c r="F41" s="225"/>
-      <c r="G41" s="224">
+      <c r="D41" s="240"/>
+      <c r="E41" s="240"/>
+      <c r="F41" s="240"/>
+      <c r="G41" s="213">
         <v>12</v>
       </c>
-      <c r="H41" s="225"/>
-      <c r="I41" s="225"/>
-      <c r="J41" s="225"/>
-      <c r="K41" s="225"/>
-      <c r="L41" s="224">
+      <c r="H41" s="240"/>
+      <c r="I41" s="240"/>
+      <c r="J41" s="240"/>
+      <c r="K41" s="240"/>
+      <c r="L41" s="213">
         <v>13</v>
       </c>
-      <c r="M41" s="225"/>
-      <c r="N41" s="225"/>
-      <c r="O41" s="225"/>
-      <c r="P41" s="225"/>
-      <c r="Q41" s="224">
+      <c r="M41" s="240"/>
+      <c r="N41" s="240"/>
+      <c r="O41" s="240"/>
+      <c r="P41" s="240"/>
+      <c r="Q41" s="213">
         <v>14</v>
       </c>
-      <c r="R41" s="225"/>
-      <c r="S41" s="225"/>
-      <c r="T41" s="225"/>
+      <c r="R41" s="240"/>
+      <c r="S41" s="240"/>
+      <c r="T41" s="240"/>
       <c r="U41" s="158">
         <v>15</v>
       </c>
-      <c r="V41" s="224">
+      <c r="V41" s="213">
         <v>16</v>
       </c>
-      <c r="W41" s="225"/>
-      <c r="X41" s="224">
+      <c r="W41" s="240"/>
+      <c r="X41" s="213">
         <v>17</v>
       </c>
-      <c r="Y41" s="225"/>
-      <c r="Z41" s="224">
+      <c r="Y41" s="240"/>
+      <c r="Z41" s="213">
         <v>18</v>
       </c>
-      <c r="AA41" s="225"/>
-      <c r="AB41" s="225"/>
-      <c r="AC41" s="224">
+      <c r="AA41" s="240"/>
+      <c r="AB41" s="240"/>
+      <c r="AC41" s="213">
         <v>19</v>
       </c>
-      <c r="AD41" s="225"/>
-      <c r="AE41" s="226"/>
+      <c r="AD41" s="240"/>
+      <c r="AE41" s="241"/>
       <c r="AF41" s="127"/>
     </row>
     <row r="42" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="264" t="s">
+      <c r="A42" s="254" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="265"/>
-      <c r="C42" s="266"/>
-      <c r="D42" s="267"/>
-      <c r="E42" s="267"/>
-      <c r="F42" s="267"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="267"/>
-      <c r="I42" s="267"/>
-      <c r="J42" s="267"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="266"/>
-      <c r="M42" s="267"/>
-      <c r="N42" s="267"/>
-      <c r="O42" s="267"/>
-      <c r="P42" s="267"/>
-      <c r="Q42" s="266"/>
-      <c r="R42" s="267"/>
-      <c r="S42" s="267"/>
-      <c r="T42" s="267"/>
+      <c r="B42" s="255"/>
+      <c r="C42" s="256"/>
+      <c r="D42" s="257"/>
+      <c r="E42" s="257"/>
+      <c r="F42" s="257"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="257"/>
+      <c r="I42" s="257"/>
+      <c r="J42" s="257"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="256"/>
+      <c r="M42" s="257"/>
+      <c r="N42" s="257"/>
+      <c r="O42" s="257"/>
+      <c r="P42" s="257"/>
+      <c r="Q42" s="256"/>
+      <c r="R42" s="257"/>
+      <c r="S42" s="257"/>
+      <c r="T42" s="257"/>
       <c r="U42" s="159"/>
-      <c r="V42" s="268"/>
-      <c r="W42" s="268"/>
-      <c r="X42" s="268"/>
-      <c r="Y42" s="268"/>
-      <c r="Z42" s="268"/>
-      <c r="AA42" s="268"/>
-      <c r="AB42" s="268"/>
-      <c r="AC42" s="267"/>
-      <c r="AD42" s="267"/>
-      <c r="AE42" s="269"/>
+      <c r="V42" s="233"/>
+      <c r="W42" s="233"/>
+      <c r="X42" s="233"/>
+      <c r="Y42" s="233"/>
+      <c r="Z42" s="233"/>
+      <c r="AA42" s="233"/>
+      <c r="AB42" s="233"/>
+      <c r="AC42" s="257"/>
+      <c r="AD42" s="257"/>
+      <c r="AE42" s="258"/>
       <c r="AF42" s="127"/>
     </row>
     <row r="43" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="264" t="s">
+      <c r="A43" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="265"/>
-      <c r="C43" s="266"/>
-      <c r="D43" s="267"/>
-      <c r="E43" s="267"/>
-      <c r="F43" s="267"/>
-      <c r="G43" s="266"/>
-      <c r="H43" s="267"/>
-      <c r="I43" s="267"/>
-      <c r="J43" s="267"/>
-      <c r="K43" s="267"/>
-      <c r="L43" s="266"/>
-      <c r="M43" s="267"/>
-      <c r="N43" s="267"/>
-      <c r="O43" s="267"/>
-      <c r="P43" s="267"/>
-      <c r="Q43" s="266"/>
-      <c r="R43" s="267"/>
-      <c r="S43" s="267"/>
-      <c r="T43" s="267"/>
+      <c r="B43" s="255"/>
+      <c r="C43" s="256"/>
+      <c r="D43" s="257"/>
+      <c r="E43" s="257"/>
+      <c r="F43" s="257"/>
+      <c r="G43" s="256"/>
+      <c r="H43" s="257"/>
+      <c r="I43" s="257"/>
+      <c r="J43" s="257"/>
+      <c r="K43" s="257"/>
+      <c r="L43" s="256"/>
+      <c r="M43" s="257"/>
+      <c r="N43" s="257"/>
+      <c r="O43" s="257"/>
+      <c r="P43" s="257"/>
+      <c r="Q43" s="256"/>
+      <c r="R43" s="257"/>
+      <c r="S43" s="257"/>
+      <c r="T43" s="257"/>
       <c r="U43" s="159"/>
-      <c r="V43" s="268"/>
-      <c r="W43" s="268"/>
-      <c r="X43" s="268"/>
-      <c r="Y43" s="268"/>
-      <c r="Z43" s="268"/>
-      <c r="AA43" s="268"/>
-      <c r="AB43" s="268"/>
-      <c r="AC43" s="267"/>
-      <c r="AD43" s="267"/>
-      <c r="AE43" s="269"/>
+      <c r="V43" s="233"/>
+      <c r="W43" s="233"/>
+      <c r="X43" s="233"/>
+      <c r="Y43" s="233"/>
+      <c r="Z43" s="233"/>
+      <c r="AA43" s="233"/>
+      <c r="AB43" s="233"/>
+      <c r="AC43" s="257"/>
+      <c r="AD43" s="257"/>
+      <c r="AE43" s="258"/>
       <c r="AF43" s="127"/>
     </row>
     <row r="44" spans="1:32" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -4421,78 +4427,78 @@
       <c r="AE44" s="94"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="224" t="s">
+      <c r="A45" s="213" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="225"/>
-      <c r="C45" s="225"/>
-      <c r="D45" s="225"/>
-      <c r="E45" s="225"/>
-      <c r="F45" s="225"/>
-      <c r="G45" s="225"/>
-      <c r="H45" s="225"/>
-      <c r="I45" s="225"/>
-      <c r="J45" s="225"/>
-      <c r="K45" s="225"/>
-      <c r="L45" s="225"/>
-      <c r="M45" s="225"/>
-      <c r="N45" s="225"/>
-      <c r="O45" s="225"/>
-      <c r="P45" s="225"/>
-      <c r="Q45" s="225"/>
-      <c r="R45" s="225"/>
-      <c r="S45" s="225"/>
-      <c r="T45" s="225"/>
-      <c r="U45" s="225"/>
-      <c r="V45" s="225"/>
-      <c r="W45" s="225"/>
-      <c r="X45" s="270" t="s">
+      <c r="B45" s="240"/>
+      <c r="C45" s="240"/>
+      <c r="D45" s="240"/>
+      <c r="E45" s="240"/>
+      <c r="F45" s="240"/>
+      <c r="G45" s="240"/>
+      <c r="H45" s="240"/>
+      <c r="I45" s="240"/>
+      <c r="J45" s="240"/>
+      <c r="K45" s="240"/>
+      <c r="L45" s="240"/>
+      <c r="M45" s="240"/>
+      <c r="N45" s="240"/>
+      <c r="O45" s="240"/>
+      <c r="P45" s="240"/>
+      <c r="Q45" s="240"/>
+      <c r="R45" s="240"/>
+      <c r="S45" s="240"/>
+      <c r="T45" s="240"/>
+      <c r="U45" s="240"/>
+      <c r="V45" s="240"/>
+      <c r="W45" s="240"/>
+      <c r="X45" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="Y45" s="271"/>
-      <c r="Z45" s="247"/>
-      <c r="AA45" s="247"/>
-      <c r="AB45" s="247"/>
-      <c r="AC45" s="247"/>
-      <c r="AD45" s="247"/>
-      <c r="AE45" s="247"/>
+      <c r="Y45" s="248"/>
+      <c r="Z45" s="249"/>
+      <c r="AA45" s="249"/>
+      <c r="AB45" s="249"/>
+      <c r="AC45" s="249"/>
+      <c r="AD45" s="249"/>
+      <c r="AE45" s="249"/>
     </row>
     <row r="46" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="224" t="s">
+      <c r="A46" s="213" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="225"/>
-      <c r="C46" s="225"/>
-      <c r="D46" s="225"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="224" t="s">
+      <c r="B46" s="240"/>
+      <c r="C46" s="240"/>
+      <c r="D46" s="240"/>
+      <c r="E46" s="240"/>
+      <c r="F46" s="213" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="225"/>
-      <c r="H46" s="272" t="s">
+      <c r="G46" s="240"/>
+      <c r="H46" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="273"/>
-      <c r="J46" s="273"/>
-      <c r="K46" s="274"/>
-      <c r="L46" s="224" t="s">
+      <c r="I46" s="251"/>
+      <c r="J46" s="251"/>
+      <c r="K46" s="252"/>
+      <c r="L46" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="225"/>
-      <c r="N46" s="225"/>
-      <c r="O46" s="225"/>
-      <c r="P46" s="225"/>
-      <c r="Q46" s="224" t="s">
+      <c r="M46" s="240"/>
+      <c r="N46" s="240"/>
+      <c r="O46" s="240"/>
+      <c r="P46" s="240"/>
+      <c r="Q46" s="213" t="s">
         <v>92</v>
       </c>
-      <c r="R46" s="225"/>
-      <c r="S46" s="225"/>
-      <c r="T46" s="224" t="s">
+      <c r="R46" s="240"/>
+      <c r="S46" s="240"/>
+      <c r="T46" s="213" t="s">
         <v>93</v>
       </c>
-      <c r="U46" s="225"/>
-      <c r="V46" s="225"/>
-      <c r="W46" s="226"/>
+      <c r="U46" s="240"/>
+      <c r="V46" s="240"/>
+      <c r="W46" s="241"/>
       <c r="X46" s="152"/>
       <c r="Y46" s="79"/>
       <c r="Z46" s="79"/>
@@ -4503,41 +4509,41 @@
       <c r="AE46" s="79"/>
     </row>
     <row r="47" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="242"/>
-      <c r="B47" s="209"/>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
-      <c r="E47" s="209"/>
-      <c r="F47" s="242"/>
-      <c r="G47" s="209"/>
-      <c r="H47" s="224" t="s">
+      <c r="A47" s="214"/>
+      <c r="B47" s="225"/>
+      <c r="C47" s="225"/>
+      <c r="D47" s="225"/>
+      <c r="E47" s="225"/>
+      <c r="F47" s="214"/>
+      <c r="G47" s="225"/>
+      <c r="H47" s="213" t="s">
         <v>94</v>
       </c>
-      <c r="I47" s="225"/>
-      <c r="J47" s="224" t="s">
+      <c r="I47" s="240"/>
+      <c r="J47" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="K47" s="225"/>
-      <c r="L47" s="224"/>
-      <c r="M47" s="225"/>
-      <c r="N47" s="225"/>
-      <c r="O47" s="225"/>
-      <c r="P47" s="225"/>
-      <c r="Q47" s="224" t="s">
+      <c r="K47" s="240"/>
+      <c r="L47" s="213"/>
+      <c r="M47" s="240"/>
+      <c r="N47" s="240"/>
+      <c r="O47" s="240"/>
+      <c r="P47" s="240"/>
+      <c r="Q47" s="213" t="s">
         <v>96</v>
       </c>
-      <c r="R47" s="225"/>
-      <c r="S47" s="275" t="s">
+      <c r="R47" s="240"/>
+      <c r="S47" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="T47" s="224" t="s">
+      <c r="T47" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="U47" s="225"/>
-      <c r="V47" s="224" t="s">
+      <c r="U47" s="240"/>
+      <c r="V47" s="213" t="s">
         <v>99</v>
       </c>
-      <c r="W47" s="226"/>
+      <c r="W47" s="241"/>
       <c r="X47" s="152"/>
       <c r="Y47" s="160"/>
       <c r="Z47" s="160"/>
@@ -4563,24 +4569,24 @@
       <c r="E48" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="242"/>
-      <c r="G48" s="209"/>
-      <c r="H48" s="242"/>
-      <c r="I48" s="209"/>
-      <c r="J48" s="242"/>
-      <c r="K48" s="209"/>
-      <c r="L48" s="242"/>
-      <c r="M48" s="209"/>
-      <c r="N48" s="209"/>
-      <c r="O48" s="209"/>
-      <c r="P48" s="209"/>
-      <c r="Q48" s="242"/>
-      <c r="R48" s="209"/>
-      <c r="S48" s="276"/>
-      <c r="T48" s="242"/>
-      <c r="U48" s="209"/>
-      <c r="V48" s="242"/>
-      <c r="W48" s="209"/>
+      <c r="F48" s="214"/>
+      <c r="G48" s="225"/>
+      <c r="H48" s="214"/>
+      <c r="I48" s="225"/>
+      <c r="J48" s="214"/>
+      <c r="K48" s="225"/>
+      <c r="L48" s="214"/>
+      <c r="M48" s="225"/>
+      <c r="N48" s="225"/>
+      <c r="O48" s="225"/>
+      <c r="P48" s="225"/>
+      <c r="Q48" s="214"/>
+      <c r="R48" s="225"/>
+      <c r="S48" s="253"/>
+      <c r="T48" s="214"/>
+      <c r="U48" s="225"/>
+      <c r="V48" s="214"/>
+      <c r="W48" s="225"/>
       <c r="X48" s="152"/>
       <c r="Y48" s="160"/>
       <c r="Z48" s="160"/>
@@ -4606,40 +4612,40 @@
       <c r="E49" s="158">
         <v>24</v>
       </c>
-      <c r="F49" s="224">
+      <c r="F49" s="213">
         <v>25</v>
       </c>
-      <c r="G49" s="225"/>
-      <c r="H49" s="224">
+      <c r="G49" s="240"/>
+      <c r="H49" s="213">
         <v>26</v>
       </c>
-      <c r="I49" s="225"/>
-      <c r="J49" s="224">
+      <c r="I49" s="240"/>
+      <c r="J49" s="213">
         <v>27</v>
       </c>
-      <c r="K49" s="225"/>
-      <c r="L49" s="224">
+      <c r="K49" s="240"/>
+      <c r="L49" s="213">
         <v>28</v>
       </c>
-      <c r="M49" s="225"/>
-      <c r="N49" s="225"/>
-      <c r="O49" s="225"/>
-      <c r="P49" s="225"/>
-      <c r="Q49" s="224">
+      <c r="M49" s="240"/>
+      <c r="N49" s="240"/>
+      <c r="O49" s="240"/>
+      <c r="P49" s="240"/>
+      <c r="Q49" s="213">
         <v>29</v>
       </c>
-      <c r="R49" s="225"/>
+      <c r="R49" s="240"/>
       <c r="S49" s="158">
         <v>30</v>
       </c>
-      <c r="T49" s="224">
+      <c r="T49" s="213">
         <v>31</v>
       </c>
-      <c r="U49" s="225"/>
-      <c r="V49" s="224">
+      <c r="U49" s="240"/>
+      <c r="V49" s="213">
         <v>32</v>
       </c>
-      <c r="W49" s="226"/>
+      <c r="W49" s="241"/>
       <c r="X49" s="152"/>
       <c r="Y49" s="129"/>
       <c r="Z49" s="129"/>
@@ -4655,24 +4661,24 @@
       <c r="C50" s="159"/>
       <c r="D50" s="159"/>
       <c r="E50" s="159"/>
-      <c r="F50" s="268"/>
-      <c r="G50" s="268"/>
-      <c r="H50" s="268"/>
-      <c r="I50" s="268"/>
-      <c r="J50" s="268"/>
-      <c r="K50" s="268"/>
-      <c r="L50" s="268"/>
-      <c r="M50" s="268"/>
-      <c r="N50" s="268"/>
-      <c r="O50" s="268"/>
-      <c r="P50" s="268"/>
-      <c r="Q50" s="268"/>
-      <c r="R50" s="268"/>
+      <c r="F50" s="233"/>
+      <c r="G50" s="233"/>
+      <c r="H50" s="233"/>
+      <c r="I50" s="233"/>
+      <c r="J50" s="233"/>
+      <c r="K50" s="233"/>
+      <c r="L50" s="233"/>
+      <c r="M50" s="233"/>
+      <c r="N50" s="233"/>
+      <c r="O50" s="233"/>
+      <c r="P50" s="233"/>
+      <c r="Q50" s="233"/>
+      <c r="R50" s="233"/>
       <c r="S50" s="159"/>
-      <c r="T50" s="268"/>
-      <c r="U50" s="268"/>
-      <c r="V50" s="268"/>
-      <c r="W50" s="268"/>
+      <c r="T50" s="233"/>
+      <c r="U50" s="233"/>
+      <c r="V50" s="233"/>
+      <c r="W50" s="233"/>
       <c r="X50" s="140"/>
       <c r="Y50" s="144"/>
       <c r="Z50" s="66"/>
@@ -4716,47 +4722,47 @@
       <c r="AE51" s="60"/>
     </row>
     <row r="52" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="224" t="s">
+      <c r="A52" s="213" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="225"/>
-      <c r="C52" s="225"/>
-      <c r="D52" s="225"/>
-      <c r="E52" s="224" t="s">
+      <c r="B52" s="240"/>
+      <c r="C52" s="240"/>
+      <c r="D52" s="240"/>
+      <c r="E52" s="213" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="225"/>
-      <c r="G52" s="224" t="s">
+      <c r="F52" s="240"/>
+      <c r="G52" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="225"/>
-      <c r="I52" s="224" t="s">
+      <c r="H52" s="240"/>
+      <c r="I52" s="213" t="s">
         <v>108</v>
       </c>
-      <c r="J52" s="225"/>
-      <c r="K52" s="225"/>
-      <c r="L52" s="224" t="s">
+      <c r="J52" s="240"/>
+      <c r="K52" s="240"/>
+      <c r="L52" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="M52" s="225"/>
-      <c r="N52" s="224" t="s">
+      <c r="M52" s="240"/>
+      <c r="N52" s="213" t="s">
         <v>110</v>
       </c>
-      <c r="O52" s="225"/>
-      <c r="P52" s="260" t="s">
+      <c r="O52" s="240"/>
+      <c r="P52" s="242" t="s">
         <v>151</v>
       </c>
-      <c r="Q52" s="261"/>
-      <c r="R52" s="261"/>
-      <c r="S52" s="277"/>
-      <c r="T52" s="275" t="s">
+      <c r="Q52" s="243"/>
+      <c r="R52" s="243"/>
+      <c r="S52" s="244"/>
+      <c r="T52" s="245" t="s">
         <v>152</v>
       </c>
-      <c r="U52" s="224" t="s">
+      <c r="U52" s="213" t="s">
         <v>111</v>
       </c>
-      <c r="V52" s="225"/>
-      <c r="W52" s="224" t="s">
+      <c r="V52" s="240"/>
+      <c r="W52" s="213" t="s">
         <v>112</v>
       </c>
       <c r="X52" s="142"/>
@@ -4769,33 +4775,33 @@
       <c r="AE52" s="144"/>
     </row>
     <row r="53" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="242"/>
-      <c r="B53" s="209"/>
-      <c r="C53" s="209"/>
-      <c r="D53" s="209"/>
-      <c r="E53" s="242"/>
-      <c r="F53" s="209"/>
-      <c r="G53" s="242"/>
-      <c r="H53" s="209"/>
-      <c r="I53" s="242"/>
-      <c r="J53" s="209"/>
-      <c r="K53" s="209"/>
-      <c r="L53" s="242"/>
-      <c r="M53" s="209"/>
-      <c r="N53" s="242"/>
-      <c r="O53" s="209"/>
-      <c r="P53" s="224" t="s">
+      <c r="A53" s="214"/>
+      <c r="B53" s="225"/>
+      <c r="C53" s="225"/>
+      <c r="D53" s="225"/>
+      <c r="E53" s="214"/>
+      <c r="F53" s="225"/>
+      <c r="G53" s="214"/>
+      <c r="H53" s="225"/>
+      <c r="I53" s="214"/>
+      <c r="J53" s="225"/>
+      <c r="K53" s="225"/>
+      <c r="L53" s="214"/>
+      <c r="M53" s="225"/>
+      <c r="N53" s="214"/>
+      <c r="O53" s="225"/>
+      <c r="P53" s="213" t="s">
         <v>113</v>
       </c>
-      <c r="Q53" s="225"/>
-      <c r="R53" s="224" t="s">
+      <c r="Q53" s="240"/>
+      <c r="R53" s="213" t="s">
         <v>114</v>
       </c>
-      <c r="S53" s="226"/>
-      <c r="T53" s="278"/>
-      <c r="U53" s="242"/>
-      <c r="V53" s="209"/>
-      <c r="W53" s="242"/>
+      <c r="S53" s="241"/>
+      <c r="T53" s="246"/>
+      <c r="U53" s="214"/>
+      <c r="V53" s="225"/>
+      <c r="W53" s="214"/>
       <c r="X53" s="142"/>
       <c r="Y53" s="79"/>
       <c r="Z53" s="79"/>
@@ -4806,46 +4812,46 @@
       <c r="AE53" s="79"/>
     </row>
     <row r="54" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="242"/>
-      <c r="B54" s="209"/>
-      <c r="C54" s="209"/>
-      <c r="D54" s="209"/>
-      <c r="E54" s="224">
+      <c r="A54" s="214"/>
+      <c r="B54" s="225"/>
+      <c r="C54" s="225"/>
+      <c r="D54" s="225"/>
+      <c r="E54" s="213">
         <v>33</v>
       </c>
-      <c r="F54" s="225"/>
-      <c r="G54" s="224">
+      <c r="F54" s="240"/>
+      <c r="G54" s="213">
         <v>34</v>
       </c>
-      <c r="H54" s="225"/>
-      <c r="I54" s="224">
+      <c r="H54" s="240"/>
+      <c r="I54" s="213">
         <v>35</v>
       </c>
-      <c r="J54" s="225"/>
-      <c r="K54" s="225"/>
-      <c r="L54" s="224">
+      <c r="J54" s="240"/>
+      <c r="K54" s="240"/>
+      <c r="L54" s="213">
         <v>36</v>
       </c>
-      <c r="M54" s="225"/>
-      <c r="N54" s="224">
+      <c r="M54" s="240"/>
+      <c r="N54" s="213">
         <v>37</v>
       </c>
-      <c r="O54" s="225"/>
-      <c r="P54" s="224">
+      <c r="O54" s="240"/>
+      <c r="P54" s="213">
         <v>38</v>
       </c>
-      <c r="Q54" s="225"/>
-      <c r="R54" s="224">
+      <c r="Q54" s="240"/>
+      <c r="R54" s="213">
         <v>39</v>
       </c>
-      <c r="S54" s="225"/>
+      <c r="S54" s="240"/>
       <c r="T54" s="161">
         <v>40</v>
       </c>
-      <c r="U54" s="224">
+      <c r="U54" s="213">
         <v>41</v>
       </c>
-      <c r="V54" s="225"/>
+      <c r="V54" s="240"/>
       <c r="W54" s="158">
         <v>42</v>
       </c>
@@ -4859,30 +4865,30 @@
       <c r="AE54" s="160"/>
     </row>
     <row r="55" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="281" t="s">
+      <c r="A55" s="236" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="282"/>
-      <c r="C55" s="282"/>
-      <c r="D55" s="283"/>
-      <c r="E55" s="268"/>
-      <c r="F55" s="268"/>
-      <c r="G55" s="268"/>
-      <c r="H55" s="268"/>
-      <c r="I55" s="268"/>
-      <c r="J55" s="268"/>
-      <c r="K55" s="268"/>
-      <c r="L55" s="268"/>
-      <c r="M55" s="268"/>
-      <c r="N55" s="268"/>
-      <c r="O55" s="268"/>
-      <c r="P55" s="268"/>
-      <c r="Q55" s="268"/>
-      <c r="R55" s="268"/>
-      <c r="S55" s="268"/>
+      <c r="B55" s="237"/>
+      <c r="C55" s="237"/>
+      <c r="D55" s="238"/>
+      <c r="E55" s="233"/>
+      <c r="F55" s="233"/>
+      <c r="G55" s="233"/>
+      <c r="H55" s="233"/>
+      <c r="I55" s="233"/>
+      <c r="J55" s="233"/>
+      <c r="K55" s="233"/>
+      <c r="L55" s="233"/>
+      <c r="M55" s="233"/>
+      <c r="N55" s="233"/>
+      <c r="O55" s="233"/>
+      <c r="P55" s="233"/>
+      <c r="Q55" s="233"/>
+      <c r="R55" s="233"/>
+      <c r="S55" s="233"/>
       <c r="T55" s="159"/>
-      <c r="U55" s="268"/>
-      <c r="V55" s="268"/>
+      <c r="U55" s="233"/>
+      <c r="V55" s="233"/>
       <c r="W55" s="159"/>
       <c r="X55" s="140"/>
       <c r="Y55" s="74"/>
@@ -4894,35 +4900,35 @@
       <c r="AE55" s="74"/>
     </row>
     <row r="56" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="281" t="s">
+      <c r="A56" s="236" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="282"/>
-      <c r="C56" s="282"/>
-      <c r="D56" s="283"/>
-      <c r="E56" s="268"/>
-      <c r="F56" s="268"/>
-      <c r="G56" s="268"/>
-      <c r="H56" s="268"/>
-      <c r="I56" s="268"/>
-      <c r="J56" s="268"/>
-      <c r="K56" s="268"/>
-      <c r="L56" s="268"/>
-      <c r="M56" s="268"/>
-      <c r="N56" s="268"/>
-      <c r="O56" s="268"/>
-      <c r="P56" s="268"/>
-      <c r="Q56" s="268"/>
-      <c r="R56" s="268"/>
-      <c r="S56" s="268"/>
+      <c r="B56" s="237"/>
+      <c r="C56" s="237"/>
+      <c r="D56" s="238"/>
+      <c r="E56" s="233"/>
+      <c r="F56" s="233"/>
+      <c r="G56" s="233"/>
+      <c r="H56" s="233"/>
+      <c r="I56" s="233"/>
+      <c r="J56" s="233"/>
+      <c r="K56" s="233"/>
+      <c r="L56" s="233"/>
+      <c r="M56" s="233"/>
+      <c r="N56" s="233"/>
+      <c r="O56" s="233"/>
+      <c r="P56" s="233"/>
+      <c r="Q56" s="233"/>
+      <c r="R56" s="233"/>
+      <c r="S56" s="233"/>
       <c r="T56" s="159"/>
-      <c r="U56" s="268"/>
-      <c r="V56" s="268"/>
+      <c r="U56" s="233"/>
+      <c r="V56" s="233"/>
       <c r="W56" s="159"/>
-      <c r="X56" s="279" t="s">
+      <c r="X56" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="Y56" s="280"/>
+      <c r="Y56" s="228"/>
       <c r="Z56" s="164"/>
       <c r="AA56" s="164"/>
       <c r="AB56" s="164"/>
@@ -4931,43 +4937,43 @@
       <c r="AE56" s="164"/>
     </row>
     <row r="57" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="281" t="s">
+      <c r="A57" s="236" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="282"/>
-      <c r="C57" s="282"/>
-      <c r="D57" s="283"/>
-      <c r="E57" s="268"/>
-      <c r="F57" s="268"/>
-      <c r="G57" s="268"/>
-      <c r="H57" s="268"/>
-      <c r="I57" s="268"/>
-      <c r="J57" s="268"/>
-      <c r="K57" s="268"/>
-      <c r="L57" s="268"/>
-      <c r="M57" s="268"/>
-      <c r="N57" s="268"/>
-      <c r="O57" s="268"/>
-      <c r="P57" s="268"/>
-      <c r="Q57" s="268"/>
-      <c r="R57" s="268"/>
-      <c r="S57" s="268"/>
+      <c r="B57" s="237"/>
+      <c r="C57" s="237"/>
+      <c r="D57" s="238"/>
+      <c r="E57" s="233"/>
+      <c r="F57" s="233"/>
+      <c r="G57" s="233"/>
+      <c r="H57" s="233"/>
+      <c r="I57" s="233"/>
+      <c r="J57" s="233"/>
+      <c r="K57" s="233"/>
+      <c r="L57" s="233"/>
+      <c r="M57" s="233"/>
+      <c r="N57" s="233"/>
+      <c r="O57" s="233"/>
+      <c r="P57" s="233"/>
+      <c r="Q57" s="233"/>
+      <c r="R57" s="233"/>
+      <c r="S57" s="233"/>
       <c r="T57" s="159"/>
-      <c r="U57" s="268"/>
-      <c r="V57" s="268"/>
+      <c r="U57" s="233"/>
+      <c r="V57" s="233"/>
       <c r="W57" s="159"/>
       <c r="X57" s="165"/>
       <c r="Y57" s="166"/>
-      <c r="Z57" s="220" t="s">
+      <c r="Z57" s="234" t="s">
         <v>67</v>
       </c>
-      <c r="AA57" s="220"/>
-      <c r="AB57" s="220" t="s">
+      <c r="AA57" s="234"/>
+      <c r="AB57" s="234" t="s">
         <v>119</v>
       </c>
-      <c r="AC57" s="220"/>
-      <c r="AD57" s="220"/>
-      <c r="AE57" s="220"/>
+      <c r="AC57" s="234"/>
+      <c r="AD57" s="234"/>
+      <c r="AE57" s="234"/>
     </row>
     <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94"/>
@@ -4987,14 +4993,14 @@
       <c r="O58" s="97"/>
       <c r="P58" s="97"/>
       <c r="Q58" s="97"/>
-      <c r="R58" s="287"/>
-      <c r="S58" s="287"/>
-      <c r="T58" s="287"/>
-      <c r="U58" s="287"/>
-      <c r="V58" s="287"/>
-      <c r="W58" s="287"/>
-      <c r="X58" s="287"/>
-      <c r="Y58" s="287"/>
+      <c r="R58" s="235"/>
+      <c r="S58" s="235"/>
+      <c r="T58" s="235"/>
+      <c r="U58" s="235"/>
+      <c r="V58" s="235"/>
+      <c r="W58" s="235"/>
+      <c r="X58" s="235"/>
+      <c r="Y58" s="235"/>
       <c r="Z58" s="167"/>
       <c r="AA58" s="167"/>
       <c r="AB58" s="60"/>
@@ -5023,15 +5029,15 @@
       <c r="R59" s="168"/>
       <c r="S59" s="60"/>
       <c r="T59" s="60"/>
-      <c r="U59" s="284" t="s">
+      <c r="U59" s="231" t="s">
         <v>120</v>
       </c>
-      <c r="V59" s="285"/>
-      <c r="W59" s="285"/>
-      <c r="X59" s="285"/>
-      <c r="Y59" s="285"/>
-      <c r="Z59" s="285"/>
-      <c r="AA59" s="285"/>
+      <c r="V59" s="232"/>
+      <c r="W59" s="232"/>
+      <c r="X59" s="232"/>
+      <c r="Y59" s="232"/>
+      <c r="Z59" s="232"/>
+      <c r="AA59" s="232"/>
       <c r="AB59" s="169"/>
       <c r="AC59" s="169"/>
       <c r="AD59" s="169"/>
@@ -5058,18 +5064,18 @@
       <c r="R60" s="168"/>
       <c r="S60" s="60"/>
       <c r="T60" s="60"/>
-      <c r="U60" s="284" t="s">
+      <c r="U60" s="231" t="s">
         <v>121</v>
       </c>
-      <c r="V60" s="285"/>
-      <c r="W60" s="285"/>
-      <c r="X60" s="285"/>
-      <c r="Y60" s="285"/>
-      <c r="Z60" s="285"/>
-      <c r="AA60" s="285"/>
-      <c r="AB60" s="285"/>
-      <c r="AC60" s="285"/>
-      <c r="AD60" s="285"/>
+      <c r="V60" s="232"/>
+      <c r="W60" s="232"/>
+      <c r="X60" s="232"/>
+      <c r="Y60" s="232"/>
+      <c r="Z60" s="232"/>
+      <c r="AA60" s="232"/>
+      <c r="AB60" s="232"/>
+      <c r="AC60" s="232"/>
+      <c r="AD60" s="232"/>
       <c r="AE60" s="60"/>
     </row>
     <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5093,18 +5099,18 @@
       <c r="R61" s="60"/>
       <c r="S61" s="60"/>
       <c r="T61" s="60"/>
-      <c r="U61" s="284" t="s">
+      <c r="U61" s="231" t="s">
         <v>122</v>
       </c>
-      <c r="V61" s="285"/>
-      <c r="W61" s="285"/>
-      <c r="X61" s="285"/>
-      <c r="Y61" s="285"/>
-      <c r="Z61" s="285"/>
-      <c r="AA61" s="285"/>
-      <c r="AB61" s="285"/>
-      <c r="AC61" s="285"/>
-      <c r="AD61" s="285"/>
+      <c r="V61" s="232"/>
+      <c r="W61" s="232"/>
+      <c r="X61" s="232"/>
+      <c r="Y61" s="232"/>
+      <c r="Z61" s="232"/>
+      <c r="AA61" s="232"/>
+      <c r="AB61" s="232"/>
+      <c r="AC61" s="232"/>
+      <c r="AD61" s="232"/>
       <c r="AE61" s="60"/>
     </row>
     <row r="62" spans="1:32" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5200,11 +5206,11 @@
       <c r="U64" s="169"/>
       <c r="V64" s="169"/>
       <c r="W64" s="169"/>
-      <c r="X64" s="286" t="s">
+      <c r="X64" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="Y64" s="286"/>
-      <c r="Z64" s="286"/>
+      <c r="Y64" s="216"/>
+      <c r="Z64" s="216"/>
       <c r="AA64" s="169"/>
       <c r="AB64" s="174"/>
       <c r="AC64" s="175" t="s">
@@ -5216,33 +5222,33 @@
     </row>
     <row r="65" spans="1:32" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="178"/>
-      <c r="B65" s="294" t="s">
+      <c r="B65" s="224" t="s">
         <v>179</v>
       </c>
-      <c r="C65" s="294"/>
-      <c r="D65" s="294"/>
-      <c r="E65" s="294"/>
-      <c r="F65" s="294"/>
-      <c r="G65" s="294"/>
-      <c r="H65" s="294"/>
-      <c r="I65" s="294"/>
-      <c r="J65" s="294"/>
-      <c r="K65" s="294"/>
-      <c r="L65" s="294"/>
-      <c r="M65" s="294"/>
-      <c r="N65" s="294"/>
-      <c r="O65" s="294"/>
-      <c r="P65" s="294"/>
-      <c r="Q65" s="294"/>
-      <c r="R65" s="294"/>
-      <c r="S65" s="294"/>
-      <c r="T65" s="294"/>
-      <c r="U65" s="294"/>
-      <c r="V65" s="294"/>
-      <c r="W65" s="294"/>
-      <c r="X65" s="294"/>
-      <c r="Y65" s="294"/>
-      <c r="Z65" s="294"/>
+      <c r="C65" s="224"/>
+      <c r="D65" s="224"/>
+      <c r="E65" s="224"/>
+      <c r="F65" s="224"/>
+      <c r="G65" s="224"/>
+      <c r="H65" s="224"/>
+      <c r="I65" s="224"/>
+      <c r="J65" s="224"/>
+      <c r="K65" s="224"/>
+      <c r="L65" s="224"/>
+      <c r="M65" s="224"/>
+      <c r="N65" s="224"/>
+      <c r="O65" s="224"/>
+      <c r="P65" s="224"/>
+      <c r="Q65" s="224"/>
+      <c r="R65" s="224"/>
+      <c r="S65" s="224"/>
+      <c r="T65" s="224"/>
+      <c r="U65" s="224"/>
+      <c r="V65" s="224"/>
+      <c r="W65" s="224"/>
+      <c r="X65" s="224"/>
+      <c r="Y65" s="224"/>
+      <c r="Z65" s="224"/>
       <c r="AA65" s="60"/>
       <c r="AB65" s="179"/>
       <c r="AC65" s="180"/>
@@ -5269,18 +5275,18 @@
       <c r="P66" s="60"/>
       <c r="Q66" s="60"/>
       <c r="R66" s="60"/>
-      <c r="S66" s="209"/>
-      <c r="T66" s="209"/>
+      <c r="S66" s="225"/>
+      <c r="T66" s="225"/>
       <c r="U66" s="60"/>
       <c r="V66" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="W66" s="295" t="s">
+      <c r="W66" s="226" t="s">
         <v>125</v>
       </c>
-      <c r="X66" s="296"/>
-      <c r="Y66" s="296"/>
-      <c r="Z66" s="296"/>
+      <c r="X66" s="227"/>
+      <c r="Y66" s="227"/>
+      <c r="Z66" s="227"/>
       <c r="AA66" s="60"/>
       <c r="AB66" s="183"/>
       <c r="AC66" s="184"/>
@@ -5311,10 +5317,10 @@
       <c r="T67" s="60"/>
       <c r="U67" s="60"/>
       <c r="V67" s="60"/>
-      <c r="W67" s="296"/>
-      <c r="X67" s="296"/>
-      <c r="Y67" s="296"/>
-      <c r="Z67" s="296"/>
+      <c r="W67" s="227"/>
+      <c r="X67" s="227"/>
+      <c r="Y67" s="227"/>
+      <c r="Z67" s="227"/>
       <c r="AA67" s="60"/>
       <c r="AB67" s="187"/>
       <c r="AC67" s="188"/>
@@ -5323,38 +5329,38 @@
       <c r="AF67" s="71"/>
     </row>
     <row r="68" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="289" t="s">
+      <c r="A68" s="215" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="289"/>
-      <c r="C68" s="289"/>
-      <c r="D68" s="289"/>
-      <c r="E68" s="288" t="s">
-        <v>181</v>
-      </c>
-      <c r="F68" s="280"/>
-      <c r="G68" s="280"/>
-      <c r="H68" s="280"/>
-      <c r="I68" s="280"/>
-      <c r="J68" s="280"/>
-      <c r="K68" s="280"/>
-      <c r="L68" s="280"/>
-      <c r="M68" s="280"/>
-      <c r="N68" s="280"/>
-      <c r="O68" s="280"/>
-      <c r="P68" s="280"/>
-      <c r="Q68" s="280"/>
-      <c r="R68" s="280"/>
-      <c r="S68" s="297"/>
-      <c r="T68" s="297"/>
-      <c r="U68" s="297"/>
-      <c r="V68" s="297"/>
-      <c r="W68" s="280"/>
-      <c r="X68" s="298"/>
-      <c r="Y68" s="286" t="s">
+      <c r="B68" s="215"/>
+      <c r="C68" s="215"/>
+      <c r="D68" s="215"/>
+      <c r="E68" s="219" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" s="228"/>
+      <c r="G68" s="228"/>
+      <c r="H68" s="228"/>
+      <c r="I68" s="228"/>
+      <c r="J68" s="228"/>
+      <c r="K68" s="228"/>
+      <c r="L68" s="228"/>
+      <c r="M68" s="228"/>
+      <c r="N68" s="228"/>
+      <c r="O68" s="228"/>
+      <c r="P68" s="228"/>
+      <c r="Q68" s="228"/>
+      <c r="R68" s="228"/>
+      <c r="S68" s="229"/>
+      <c r="T68" s="229"/>
+      <c r="U68" s="229"/>
+      <c r="V68" s="229"/>
+      <c r="W68" s="228"/>
+      <c r="X68" s="230"/>
+      <c r="Y68" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="Z68" s="286"/>
+      <c r="Z68" s="216"/>
       <c r="AA68" s="60"/>
       <c r="AB68" s="183"/>
       <c r="AC68" s="185"/>
@@ -5363,10 +5369,10 @@
       <c r="AF68" s="71"/>
     </row>
     <row r="69" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="288"/>
-      <c r="B69" s="288"/>
-      <c r="C69" s="288"/>
-      <c r="D69" s="288"/>
+      <c r="A69" s="219"/>
+      <c r="B69" s="219"/>
+      <c r="C69" s="219"/>
+      <c r="D69" s="219"/>
       <c r="E69" s="190"/>
       <c r="F69" s="94"/>
       <c r="G69" s="94"/>
@@ -5399,36 +5405,36 @@
       <c r="AF69" s="71"/>
     </row>
     <row r="70" spans="1:32" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="289" t="s">
+      <c r="A70" s="215" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="289"/>
-      <c r="C70" s="289"/>
-      <c r="D70" s="289"/>
-      <c r="E70" s="290"/>
-      <c r="F70" s="291"/>
-      <c r="G70" s="291"/>
-      <c r="H70" s="291"/>
-      <c r="I70" s="291"/>
-      <c r="J70" s="291"/>
-      <c r="K70" s="292"/>
-      <c r="L70" s="292"/>
-      <c r="M70" s="292"/>
-      <c r="N70" s="292"/>
-      <c r="O70" s="292"/>
-      <c r="P70" s="292"/>
-      <c r="Q70" s="292"/>
-      <c r="R70" s="292"/>
-      <c r="S70" s="292"/>
-      <c r="T70" s="292"/>
-      <c r="U70" s="291"/>
-      <c r="V70" s="291"/>
-      <c r="W70" s="293"/>
-      <c r="X70" s="293"/>
-      <c r="Y70" s="286" t="s">
+      <c r="B70" s="215"/>
+      <c r="C70" s="215"/>
+      <c r="D70" s="215"/>
+      <c r="E70" s="220"/>
+      <c r="F70" s="221"/>
+      <c r="G70" s="221"/>
+      <c r="H70" s="221"/>
+      <c r="I70" s="221"/>
+      <c r="J70" s="221"/>
+      <c r="K70" s="222"/>
+      <c r="L70" s="222"/>
+      <c r="M70" s="222"/>
+      <c r="N70" s="222"/>
+      <c r="O70" s="222"/>
+      <c r="P70" s="222"/>
+      <c r="Q70" s="222"/>
+      <c r="R70" s="222"/>
+      <c r="S70" s="222"/>
+      <c r="T70" s="222"/>
+      <c r="U70" s="221"/>
+      <c r="V70" s="221"/>
+      <c r="W70" s="223"/>
+      <c r="X70" s="223"/>
+      <c r="Y70" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="Z70" s="286"/>
+      <c r="Z70" s="216"/>
       <c r="AA70" s="60"/>
       <c r="AB70" s="183"/>
       <c r="AC70" s="185"/>
@@ -5463,8 +5469,8 @@
       <c r="V71" s="94"/>
       <c r="W71" s="193"/>
       <c r="X71" s="193"/>
-      <c r="Y71" s="286"/>
-      <c r="Z71" s="286"/>
+      <c r="Y71" s="216"/>
+      <c r="Z71" s="216"/>
       <c r="AA71" s="60"/>
       <c r="AB71" s="187"/>
       <c r="AC71" s="188"/>
@@ -5473,36 +5479,36 @@
       <c r="AF71" s="71"/>
     </row>
     <row r="72" spans="1:32" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="289" t="s">
+      <c r="A72" s="215" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="289"/>
-      <c r="C72" s="289"/>
+      <c r="B72" s="215"/>
+      <c r="C72" s="215"/>
       <c r="D72" s="197"/>
-      <c r="E72" s="303"/>
-      <c r="F72" s="303"/>
-      <c r="G72" s="303"/>
-      <c r="H72" s="303"/>
-      <c r="I72" s="303"/>
-      <c r="J72" s="303"/>
-      <c r="K72" s="303"/>
-      <c r="L72" s="303"/>
-      <c r="M72" s="303"/>
-      <c r="N72" s="303"/>
-      <c r="O72" s="303"/>
-      <c r="P72" s="303"/>
-      <c r="Q72" s="303"/>
-      <c r="R72" s="303"/>
-      <c r="S72" s="303"/>
-      <c r="T72" s="303"/>
-      <c r="U72" s="303"/>
-      <c r="V72" s="303"/>
-      <c r="W72" s="303"/>
-      <c r="X72" s="303"/>
-      <c r="Y72" s="286" t="s">
+      <c r="E72" s="217"/>
+      <c r="F72" s="217"/>
+      <c r="G72" s="217"/>
+      <c r="H72" s="217"/>
+      <c r="I72" s="217"/>
+      <c r="J72" s="217"/>
+      <c r="K72" s="217"/>
+      <c r="L72" s="217"/>
+      <c r="M72" s="217"/>
+      <c r="N72" s="217"/>
+      <c r="O72" s="217"/>
+      <c r="P72" s="217"/>
+      <c r="Q72" s="217"/>
+      <c r="R72" s="217"/>
+      <c r="S72" s="217"/>
+      <c r="T72" s="217"/>
+      <c r="U72" s="217"/>
+      <c r="V72" s="217"/>
+      <c r="W72" s="217"/>
+      <c r="X72" s="217"/>
+      <c r="Y72" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="Z72" s="286"/>
+      <c r="Z72" s="216"/>
       <c r="AA72" s="60"/>
       <c r="AB72" s="198"/>
       <c r="AC72" s="199"/>
@@ -5546,410 +5552,231 @@
       <c r="AE73" s="126"/>
     </row>
     <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="205" t="s">
+      <c r="A74" s="218" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="205"/>
-      <c r="C74" s="205"/>
-      <c r="D74" s="205"/>
-      <c r="E74" s="205"/>
-      <c r="F74" s="205"/>
-      <c r="G74" s="205"/>
-      <c r="H74" s="205"/>
-      <c r="I74" s="205"/>
-      <c r="J74" s="205"/>
-      <c r="K74" s="205"/>
-      <c r="L74" s="205"/>
-      <c r="M74" s="205"/>
-      <c r="N74" s="205"/>
-      <c r="O74" s="205"/>
-      <c r="P74" s="205"/>
-      <c r="Q74" s="205"/>
-      <c r="R74" s="205"/>
-      <c r="S74" s="205"/>
-      <c r="T74" s="205"/>
-      <c r="U74" s="205"/>
-      <c r="V74" s="205"/>
-      <c r="W74" s="205"/>
-      <c r="X74" s="205"/>
-      <c r="Y74" s="205"/>
-      <c r="Z74" s="205"/>
-      <c r="AA74" s="205"/>
-      <c r="AB74" s="205"/>
-      <c r="AC74" s="205"/>
-      <c r="AD74" s="205"/>
-      <c r="AE74" s="205"/>
+      <c r="B74" s="218"/>
+      <c r="C74" s="218"/>
+      <c r="D74" s="218"/>
+      <c r="E74" s="218"/>
+      <c r="F74" s="218"/>
+      <c r="G74" s="218"/>
+      <c r="H74" s="218"/>
+      <c r="I74" s="218"/>
+      <c r="J74" s="218"/>
+      <c r="K74" s="218"/>
+      <c r="L74" s="218"/>
+      <c r="M74" s="218"/>
+      <c r="N74" s="218"/>
+      <c r="O74" s="218"/>
+      <c r="P74" s="218"/>
+      <c r="Q74" s="218"/>
+      <c r="R74" s="218"/>
+      <c r="S74" s="218"/>
+      <c r="T74" s="218"/>
+      <c r="U74" s="218"/>
+      <c r="V74" s="218"/>
+      <c r="W74" s="218"/>
+      <c r="X74" s="218"/>
+      <c r="Y74" s="218"/>
+      <c r="Z74" s="218"/>
+      <c r="AA74" s="218"/>
+      <c r="AB74" s="218"/>
+      <c r="AC74" s="218"/>
+      <c r="AD74" s="218"/>
+      <c r="AE74" s="218"/>
     </row>
     <row r="75" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="224" t="s">
+      <c r="A75" s="213" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="299" t="s">
+      <c r="B75" s="207" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="300"/>
-      <c r="D75" s="300"/>
-      <c r="E75" s="300"/>
-      <c r="F75" s="299" t="s">
+      <c r="C75" s="208"/>
+      <c r="D75" s="208"/>
+      <c r="E75" s="208"/>
+      <c r="F75" s="207" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="300"/>
-      <c r="H75" s="300"/>
-      <c r="I75" s="300"/>
-      <c r="J75" s="299" t="s">
+      <c r="G75" s="208"/>
+      <c r="H75" s="208"/>
+      <c r="I75" s="208"/>
+      <c r="J75" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="K75" s="300"/>
-      <c r="L75" s="299" t="s">
+      <c r="K75" s="208"/>
+      <c r="L75" s="207" t="s">
         <v>135</v>
       </c>
-      <c r="M75" s="300"/>
-      <c r="N75" s="299" t="s">
+      <c r="M75" s="208"/>
+      <c r="N75" s="207" t="s">
         <v>136</v>
       </c>
-      <c r="O75" s="300"/>
-      <c r="P75" s="300"/>
-      <c r="Q75" s="300"/>
-      <c r="R75" s="300"/>
-      <c r="S75" s="300"/>
+      <c r="O75" s="208"/>
+      <c r="P75" s="208"/>
+      <c r="Q75" s="208"/>
+      <c r="R75" s="208"/>
+      <c r="S75" s="208"/>
       <c r="T75" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="U75" s="299" t="s">
+      <c r="U75" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="V75" s="300"/>
-      <c r="W75" s="299" t="s">
+      <c r="V75" s="208"/>
+      <c r="W75" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="X75" s="300"/>
-      <c r="Y75" s="299" t="s">
+      <c r="X75" s="208"/>
+      <c r="Y75" s="207" t="s">
         <v>139</v>
       </c>
-      <c r="Z75" s="300"/>
-      <c r="AA75" s="299" t="s">
+      <c r="Z75" s="208"/>
+      <c r="AA75" s="207" t="s">
         <v>140</v>
       </c>
-      <c r="AB75" s="300"/>
-      <c r="AC75" s="300"/>
-      <c r="AD75" s="299" t="s">
+      <c r="AB75" s="208"/>
+      <c r="AC75" s="208"/>
+      <c r="AD75" s="207" t="s">
         <v>141</v>
       </c>
-      <c r="AE75" s="300"/>
+      <c r="AE75" s="208"/>
       <c r="AF75" s="127"/>
     </row>
     <row r="76" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="242"/>
-      <c r="B76" s="301"/>
-      <c r="C76" s="302"/>
-      <c r="D76" s="302"/>
-      <c r="E76" s="302"/>
-      <c r="F76" s="301"/>
-      <c r="G76" s="302"/>
-      <c r="H76" s="302"/>
-      <c r="I76" s="302"/>
-      <c r="J76" s="301"/>
-      <c r="K76" s="302"/>
-      <c r="L76" s="299" t="s">
+      <c r="A76" s="214"/>
+      <c r="B76" s="209"/>
+      <c r="C76" s="210"/>
+      <c r="D76" s="210"/>
+      <c r="E76" s="210"/>
+      <c r="F76" s="209"/>
+      <c r="G76" s="210"/>
+      <c r="H76" s="210"/>
+      <c r="I76" s="210"/>
+      <c r="J76" s="209"/>
+      <c r="K76" s="210"/>
+      <c r="L76" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="M76" s="300"/>
-      <c r="N76" s="299"/>
-      <c r="O76" s="300"/>
-      <c r="P76" s="300"/>
-      <c r="Q76" s="300"/>
-      <c r="R76" s="300"/>
-      <c r="S76" s="300"/>
+      <c r="M76" s="208"/>
+      <c r="N76" s="207"/>
+      <c r="O76" s="208"/>
+      <c r="P76" s="208"/>
+      <c r="Q76" s="208"/>
+      <c r="R76" s="208"/>
+      <c r="S76" s="208"/>
       <c r="T76" s="202" t="s">
         <v>143</v>
       </c>
-      <c r="U76" s="299" t="s">
+      <c r="U76" s="207" t="s">
         <v>144</v>
       </c>
-      <c r="V76" s="300"/>
-      <c r="W76" s="299" t="s">
+      <c r="V76" s="208"/>
+      <c r="W76" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="X76" s="300"/>
-      <c r="Y76" s="299" t="s">
+      <c r="X76" s="208"/>
+      <c r="Y76" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="Z76" s="300"/>
-      <c r="AA76" s="299" t="s">
+      <c r="Z76" s="208"/>
+      <c r="AA76" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="AB76" s="300"/>
-      <c r="AC76" s="306"/>
-      <c r="AD76" s="301"/>
-      <c r="AE76" s="302"/>
+      <c r="AB76" s="208"/>
+      <c r="AC76" s="211"/>
+      <c r="AD76" s="209"/>
+      <c r="AE76" s="210"/>
       <c r="AF76" s="127"/>
     </row>
     <row r="77" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="203">
         <v>1</v>
       </c>
-      <c r="B77" s="304">
+      <c r="B77" s="205">
         <v>2</v>
       </c>
-      <c r="C77" s="305"/>
-      <c r="D77" s="305"/>
-      <c r="E77" s="305"/>
-      <c r="F77" s="304">
+      <c r="C77" s="206"/>
+      <c r="D77" s="206"/>
+      <c r="E77" s="206"/>
+      <c r="F77" s="205">
         <v>3</v>
       </c>
-      <c r="G77" s="305"/>
-      <c r="H77" s="305"/>
-      <c r="I77" s="305"/>
-      <c r="J77" s="304">
+      <c r="G77" s="206"/>
+      <c r="H77" s="206"/>
+      <c r="I77" s="206"/>
+      <c r="J77" s="205">
         <v>4</v>
       </c>
-      <c r="K77" s="305"/>
-      <c r="L77" s="304">
+      <c r="K77" s="206"/>
+      <c r="L77" s="205">
         <v>5</v>
       </c>
-      <c r="M77" s="305"/>
-      <c r="N77" s="304">
+      <c r="M77" s="206"/>
+      <c r="N77" s="205">
         <v>6</v>
       </c>
-      <c r="O77" s="305"/>
-      <c r="P77" s="305"/>
-      <c r="Q77" s="305"/>
-      <c r="R77" s="305"/>
-      <c r="S77" s="305"/>
+      <c r="O77" s="206"/>
+      <c r="P77" s="206"/>
+      <c r="Q77" s="206"/>
+      <c r="R77" s="206"/>
+      <c r="S77" s="206"/>
       <c r="T77" s="203">
         <v>7</v>
       </c>
-      <c r="U77" s="304">
+      <c r="U77" s="205">
         <v>8</v>
       </c>
-      <c r="V77" s="305"/>
-      <c r="W77" s="304">
+      <c r="V77" s="206"/>
+      <c r="W77" s="205">
         <v>9</v>
       </c>
-      <c r="X77" s="305"/>
-      <c r="Y77" s="304">
+      <c r="X77" s="206"/>
+      <c r="Y77" s="205">
         <v>10</v>
       </c>
-      <c r="Z77" s="305"/>
-      <c r="AA77" s="304">
+      <c r="Z77" s="206"/>
+      <c r="AA77" s="205">
         <v>11</v>
       </c>
-      <c r="AB77" s="305"/>
-      <c r="AC77" s="305"/>
-      <c r="AD77" s="304">
+      <c r="AB77" s="206"/>
+      <c r="AC77" s="206"/>
+      <c r="AD77" s="205">
         <v>12</v>
       </c>
-      <c r="AE77" s="307"/>
+      <c r="AE77" s="212"/>
       <c r="AF77" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:S77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="AA75:AC75"/>
-    <mergeCell ref="AD75:AE76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="W77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="AA77:AC77"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:E76"/>
-    <mergeCell ref="F75:I76"/>
-    <mergeCell ref="J75:K76"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:S76"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="E72:X72"/>
-    <mergeCell ref="A74:AE74"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:X70"/>
-    <mergeCell ref="Y70:Z71"/>
-    <mergeCell ref="B65:Z65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="W66:Z67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="U60:AD60"/>
-    <mergeCell ref="U61:AD61"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AE57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:K53"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:V53"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="A45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:U48"/>
-    <mergeCell ref="V47:W48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:K40"/>
-    <mergeCell ref="L39:P40"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="Z39:AB40"/>
-    <mergeCell ref="AC39:AE40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J32:L33"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="W26:AB27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="B5:AA5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:V11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:AB9"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:Y23"/>
@@ -5973,33 +5800,212 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="B5:AA5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:V11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:AB9"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="W26:AB27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J32:L33"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="L39:P40"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AB40"/>
+    <mergeCell ref="AC39:AE40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="A45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:U48"/>
+    <mergeCell ref="V47:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:V53"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="U60:AD60"/>
+    <mergeCell ref="U61:AD61"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AE57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:X70"/>
+    <mergeCell ref="Y70:Z71"/>
+    <mergeCell ref="B65:Z65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="W66:Z67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:E76"/>
+    <mergeCell ref="F75:I76"/>
+    <mergeCell ref="J75:K76"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:S76"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="E72:X72"/>
+    <mergeCell ref="A74:AE74"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="AA75:AC75"/>
+    <mergeCell ref="AD75:AE76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="AA77:AC77"/>
+    <mergeCell ref="AD77:AE77"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -6012,10 +6018,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -6041,56 +6047,56 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="311" t="s">
+      <c r="T1" s="334" t="s">
         <v>154</v>
       </c>
-      <c r="U1" s="311"/>
-      <c r="V1" s="311"/>
-      <c r="W1" s="311"/>
-      <c r="X1" s="311"/>
+      <c r="U1" s="334"/>
+      <c r="V1" s="334"/>
+      <c r="W1" s="334"/>
+      <c r="X1" s="334"/>
       <c r="Y1" s="46" t="s">
         <v>160</v>
       </c>
       <c r="Z1" s="47"/>
-      <c r="AA1" s="319"/>
-      <c r="AB1" s="320"/>
-      <c r="AC1" s="321"/>
+      <c r="AA1" s="340"/>
+      <c r="AB1" s="341"/>
+      <c r="AC1" s="342"/>
       <c r="AD1" s="56"/>
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="330" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="312"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="312"/>
-      <c r="Q2" s="312"/>
-      <c r="R2" s="312"/>
+      <c r="B2" s="330"/>
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="330"/>
+      <c r="G2" s="330"/>
+      <c r="H2" s="330"/>
+      <c r="I2" s="330"/>
+      <c r="J2" s="330"/>
+      <c r="K2" s="330"/>
+      <c r="L2" s="330"/>
+      <c r="M2" s="330"/>
+      <c r="N2" s="330"/>
+      <c r="O2" s="330"/>
+      <c r="P2" s="330"/>
+      <c r="Q2" s="330"/>
+      <c r="R2" s="330"/>
       <c r="S2" s="2">
         <v>1</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="U2" s="313" t="s">
+      <c r="U2" s="335" t="s">
         <v>157</v>
       </c>
-      <c r="V2" s="313"/>
-      <c r="W2" s="312"/>
-      <c r="X2" s="312"/>
+      <c r="V2" s="335"/>
+      <c r="W2" s="330"/>
+      <c r="X2" s="330"/>
       <c r="Y2" s="49"/>
       <c r="Z2" s="50"/>
       <c r="AA2" s="55"/>
@@ -6100,10 +6106,10 @@
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="336" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="314"/>
+      <c r="B3" s="336"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -6121,13 +6127,13 @@
       <c r="Q3" s="44"/>
       <c r="R3" s="44"/>
       <c r="S3" s="45"/>
-      <c r="T3" s="313" t="s">
+      <c r="T3" s="335" t="s">
         <v>159</v>
       </c>
-      <c r="U3" s="313"/>
-      <c r="V3" s="313"/>
-      <c r="W3" s="314"/>
-      <c r="X3" s="314"/>
+      <c r="U3" s="335"/>
+      <c r="V3" s="335"/>
+      <c r="W3" s="336"/>
+      <c r="X3" s="336"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="53"/>
       <c r="AA3" s="51"/>
@@ -6154,38 +6160,38 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="316"/>
-      <c r="S4" s="316"/>
+      <c r="R4" s="337"/>
+      <c r="S4" s="337"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="317"/>
-      <c r="Z4" s="317"/>
-      <c r="AA4" s="308"/>
-      <c r="AB4" s="308"/>
-      <c r="AC4" s="308"/>
+      <c r="Y4" s="338"/>
+      <c r="Z4" s="338"/>
+      <c r="AA4" s="332"/>
+      <c r="AB4" s="332"/>
+      <c r="AC4" s="332"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="10.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="315" t="s">
+      <c r="A5" s="323" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="315"/>
-      <c r="C5" s="315"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="323"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="310" t="s">
+      <c r="J5" s="309" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="310"/>
-      <c r="L5" s="310"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="8"/>
@@ -6198,11 +6204,11 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="318"/>
-      <c r="Z5" s="318"/>
-      <c r="AA5" s="309"/>
-      <c r="AB5" s="309"/>
-      <c r="AC5" s="309"/>
+      <c r="Y5" s="339"/>
+      <c r="Z5" s="339"/>
+      <c r="AA5" s="333"/>
+      <c r="AB5" s="333"/>
+      <c r="AC5" s="333"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
     </row>
@@ -6235,19 +6241,19 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="312"/>
-      <c r="Z6" s="328"/>
-      <c r="AA6" s="312"/>
-      <c r="AB6" s="328"/>
-      <c r="AC6" s="328"/>
+      <c r="Y6" s="330"/>
+      <c r="Z6" s="331"/>
+      <c r="AA6" s="330"/>
+      <c r="AB6" s="331"/>
+      <c r="AC6" s="331"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:31" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="325" t="s">
+      <c r="A7" s="328" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="325"/>
+      <c r="B7" s="328"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -6255,11 +6261,11 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="310" t="s">
+      <c r="J7" s="309" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="310"/>
-      <c r="L7" s="310"/>
+      <c r="K7" s="309"/>
+      <c r="L7" s="309"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="17"/>
@@ -6272,11 +6278,11 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="328"/>
-      <c r="Z7" s="328"/>
-      <c r="AA7" s="328"/>
-      <c r="AB7" s="328"/>
-      <c r="AC7" s="328"/>
+      <c r="Y7" s="331"/>
+      <c r="Z7" s="331"/>
+      <c r="AA7" s="331"/>
+      <c r="AB7" s="331"/>
+      <c r="AC7" s="331"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
     </row>
@@ -6311,27 +6317,27 @@
       <c r="X8" s="19"/>
       <c r="Y8" s="322"/>
       <c r="Z8" s="322"/>
-      <c r="AA8" s="323"/>
-      <c r="AB8" s="323"/>
-      <c r="AC8" s="323"/>
+      <c r="AA8" s="326"/>
+      <c r="AB8" s="326"/>
+      <c r="AC8" s="326"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
     </row>
     <row r="9" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="315" t="s">
+      <c r="A9" s="323" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="324"/>
-      <c r="C9" s="324"/>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
+      <c r="B9" s="327"/>
+      <c r="C9" s="327"/>
+      <c r="D9" s="328"/>
+      <c r="E9" s="328"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="326" t="s">
+      <c r="I9" s="324" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="327"/>
+      <c r="J9" s="329"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="22"/>
@@ -6362,11 +6368,11 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="337" t="s">
+      <c r="F10" s="318" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="337"/>
-      <c r="H10" s="337"/>
+      <c r="G10" s="318"/>
+      <c r="H10" s="318"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
@@ -6392,25 +6398,25 @@
       <c r="AE10" s="4"/>
     </row>
     <row r="11" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="315" t="s">
+      <c r="A11" s="323" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="315"/>
-      <c r="C11" s="326"/>
-      <c r="D11" s="326"/>
-      <c r="E11" s="326"/>
-      <c r="F11" s="326"/>
-      <c r="G11" s="326"/>
-      <c r="H11" s="326"/>
-      <c r="I11" s="326"/>
-      <c r="J11" s="326"/>
-      <c r="K11" s="326"/>
-      <c r="L11" s="326"/>
-      <c r="M11" s="326"/>
-      <c r="N11" s="326"/>
-      <c r="O11" s="326"/>
-      <c r="P11" s="326"/>
-      <c r="Q11" s="326"/>
+      <c r="B11" s="323"/>
+      <c r="C11" s="324"/>
+      <c r="D11" s="324"/>
+      <c r="E11" s="324"/>
+      <c r="F11" s="324"/>
+      <c r="G11" s="324"/>
+      <c r="H11" s="324"/>
+      <c r="I11" s="324"/>
+      <c r="J11" s="324"/>
+      <c r="K11" s="324"/>
+      <c r="L11" s="324"/>
+      <c r="M11" s="324"/>
+      <c r="N11" s="324"/>
+      <c r="O11" s="324"/>
+      <c r="P11" s="324"/>
+      <c r="Q11" s="324"/>
       <c r="R11" s="26"/>
       <c r="S11" s="18" t="s">
         <v>168</v>
@@ -6449,10 +6455,10 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="26"/>
-      <c r="S12" s="326" t="s">
+      <c r="S12" s="324" t="s">
         <v>169</v>
       </c>
-      <c r="T12" s="326"/>
+      <c r="T12" s="324"/>
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
       <c r="W12" s="32"/>
@@ -6477,11 +6483,11 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="341" t="s">
-        <v>184</v>
-      </c>
-      <c r="M13" s="341"/>
-      <c r="N13" s="341"/>
+      <c r="L13" s="311" t="s">
+        <v>183</v>
+      </c>
+      <c r="M13" s="311"/>
+      <c r="N13" s="311"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -6507,44 +6513,44 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="329" t="s">
+      <c r="A14" s="313" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="329"/>
-      <c r="C14" s="329"/>
-      <c r="D14" s="330" t="s">
+      <c r="B14" s="313"/>
+      <c r="C14" s="313"/>
+      <c r="D14" s="314" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="330"/>
-      <c r="F14" s="331"/>
-      <c r="G14" s="331"/>
-      <c r="H14" s="332" t="s">
+      <c r="E14" s="314"/>
+      <c r="F14" s="312"/>
+      <c r="G14" s="312"/>
+      <c r="H14" s="310" t="s">
         <v>171</v>
       </c>
-      <c r="I14" s="332"/>
-      <c r="J14" s="332"/>
+      <c r="I14" s="310"/>
+      <c r="J14" s="310"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="329" t="s">
-        <v>185</v>
-      </c>
-      <c r="M14" s="329"/>
+      <c r="L14" s="313" t="s">
+        <v>184</v>
+      </c>
+      <c r="M14" s="313"/>
       <c r="N14" s="58"/>
       <c r="O14" s="59"/>
-      <c r="P14" s="342" t="s">
-        <v>183</v>
+      <c r="P14" s="204" t="s">
+        <v>182</v>
       </c>
       <c r="Q14" s="57"/>
       <c r="R14" s="26"/>
-      <c r="S14" s="333"/>
-      <c r="T14" s="333"/>
-      <c r="U14" s="333"/>
-      <c r="V14" s="333"/>
-      <c r="W14" s="333"/>
-      <c r="X14" s="333"/>
-      <c r="Y14" s="333"/>
-      <c r="Z14" s="333"/>
-      <c r="AA14" s="333"/>
-      <c r="AB14" s="333"/>
+      <c r="S14" s="325"/>
+      <c r="T14" s="325"/>
+      <c r="U14" s="325"/>
+      <c r="V14" s="325"/>
+      <c r="W14" s="325"/>
+      <c r="X14" s="325"/>
+      <c r="Y14" s="325"/>
+      <c r="Z14" s="325"/>
+      <c r="AA14" s="325"/>
+      <c r="AB14" s="325"/>
       <c r="AC14" s="22"/>
       <c r="AD14" s="22"/>
       <c r="AE14" s="4"/>
@@ -6567,8 +6573,8 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="340"/>
-      <c r="M15" s="340"/>
+      <c r="L15" s="321"/>
+      <c r="M15" s="321"/>
       <c r="N15" s="12" t="s">
         <v>172</v>
       </c>
@@ -6628,20 +6634,20 @@
       <c r="AE16" s="4"/>
     </row>
     <row r="17" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="329" t="s">
+      <c r="A17" s="313" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="329"/>
-      <c r="C17" s="329"/>
-      <c r="D17" s="330" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="330"/>
-      <c r="F17" s="331"/>
-      <c r="G17" s="331"/>
-      <c r="H17" s="332"/>
-      <c r="I17" s="332"/>
-      <c r="J17" s="332"/>
+      <c r="B17" s="313"/>
+      <c r="C17" s="313"/>
+      <c r="D17" s="314" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="314"/>
+      <c r="F17" s="312"/>
+      <c r="G17" s="312"/>
+      <c r="H17" s="310"/>
+      <c r="I17" s="310"/>
+      <c r="J17" s="310"/>
       <c r="K17" s="40"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -6650,14 +6656,14 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="338" t="s">
+      <c r="S17" s="319" t="s">
         <v>176</v>
       </c>
-      <c r="T17" s="338"/>
-      <c r="U17" s="336"/>
-      <c r="V17" s="339"/>
-      <c r="W17" s="336"/>
-      <c r="X17" s="336"/>
+      <c r="T17" s="319"/>
+      <c r="U17" s="317"/>
+      <c r="V17" s="320"/>
+      <c r="W17" s="317"/>
+      <c r="X17" s="317"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="5"/>
@@ -6712,11 +6718,11 @@
       <c r="AE18" s="4"/>
     </row>
     <row r="19" spans="1:31" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="341"/>
-      <c r="B19" s="341"/>
-      <c r="C19" s="341"/>
-      <c r="D19" s="331"/>
-      <c r="E19" s="331"/>
+      <c r="A19" s="311"/>
+      <c r="B19" s="311"/>
+      <c r="C19" s="311"/>
+      <c r="D19" s="312"/>
+      <c r="E19" s="312"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -6732,14 +6738,14 @@
       <c r="R19" s="26"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
-      <c r="U19" s="334"/>
-      <c r="V19" s="334"/>
-      <c r="W19" s="335"/>
-      <c r="X19" s="335"/>
-      <c r="Y19" s="335"/>
-      <c r="Z19" s="335"/>
-      <c r="AA19" s="335"/>
-      <c r="AB19" s="335"/>
+      <c r="U19" s="315"/>
+      <c r="V19" s="315"/>
+      <c r="W19" s="316"/>
+      <c r="X19" s="316"/>
+      <c r="Y19" s="316"/>
+      <c r="Z19" s="316"/>
+      <c r="AA19" s="316"/>
+      <c r="AB19" s="316"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
@@ -6748,19 +6754,19 @@
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="310"/>
-      <c r="E20" s="310"/>
+      <c r="D20" s="309"/>
+      <c r="E20" s="309"/>
       <c r="F20" s="42"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="310"/>
-      <c r="I20" s="310"/>
-      <c r="J20" s="310"/>
+      <c r="H20" s="309"/>
+      <c r="I20" s="309"/>
+      <c r="J20" s="309"/>
       <c r="K20" s="43" t="s">
         <v>177</v>
       </c>
       <c r="L20" s="42"/>
-      <c r="M20" s="310"/>
-      <c r="N20" s="310"/>
+      <c r="M20" s="309"/>
+      <c r="N20" s="309"/>
       <c r="O20" s="4"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="22"/>
@@ -6781,42 +6787,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="S15:AB15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="S14:AB14"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="AA6:AC7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AA4:AC5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="T1:X1"/>
@@ -6829,6 +6799,42 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="Y4:Z5"/>
     <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="AA6:AC7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="S14:AB14"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="S15:AB15"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2568E851-3DD8-4538-B504-8790F47C63CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3884AE5-1748-4B49-B225-B87F8AB544B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
     <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал "ЦЕНТРАЛЬНЫЙ" Банка ВТБ (ПАО)  г. Москва к/с 30101810145250000411 БИК 044525411</t>
   </si>
   <si>
-    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810417030008128 в Филиал "Центральный" Банка ВТБ (ПАО)  г. Москва к/с 30101810145250000411 БИК 044525411</t>
+    <t>Общество с ограниченной ответственностью "Авидевелопмент-М"(ООО"Авидевелопмент-М") ИНН7703561330\773001001 123995, г.Москва, Кутузовский проезд д.16 стр.15 тел. (499)145-43-33 р/с 40702810617030008128 в Филиал "Центральный" Банка ВТБ (ПАО)  г. Москва к/с 30101810145250000411 БИК 044525411</t>
   </si>
 </sst>
 </file>
@@ -1925,419 +1925,419 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2648,8 +2648,8 @@
   </sheetPr>
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,49 +2713,49 @@
       <c r="W1" s="60"/>
       <c r="X1" s="60"/>
       <c r="Y1" s="60"/>
-      <c r="Z1" s="296" t="s">
+      <c r="Z1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="296"/>
-      <c r="AB1" s="296"/>
-      <c r="AC1" s="296"/>
-      <c r="AD1" s="296"/>
-      <c r="AE1" s="296"/>
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="205"/>
+      <c r="AE1" s="205"/>
     </row>
     <row r="2" spans="1:32" ht="9.1999999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="218"/>
-      <c r="AA2" s="218"/>
-      <c r="AB2" s="218"/>
-      <c r="AC2" s="218"/>
-      <c r="AD2" s="218"/>
-      <c r="AE2" s="218"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="206"/>
+      <c r="AE2" s="206"/>
     </row>
     <row r="3" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
@@ -2800,20 +2800,20 @@
       <c r="AF3" s="71"/>
     </row>
     <row r="4" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="275" t="s">
+      <c r="A4" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="275"/>
-      <c r="C4" s="275"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
-      <c r="I4" s="275"/>
-      <c r="J4" s="275"/>
-      <c r="K4" s="275"/>
-      <c r="L4" s="275"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
       <c r="M4" s="72"/>
       <c r="N4" s="72"/>
       <c r="O4" s="72"/>
@@ -2827,11 +2827,11 @@
       <c r="W4" s="66"/>
       <c r="X4" s="66"/>
       <c r="Y4" s="66"/>
-      <c r="Z4" s="296" t="s">
+      <c r="Z4" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="296"/>
-      <c r="AB4" s="296"/>
+      <c r="AA4" s="205"/>
+      <c r="AB4" s="205"/>
       <c r="AC4" s="73"/>
       <c r="AD4" s="74"/>
       <c r="AE4" s="75"/>
@@ -2841,32 +2841,32 @@
       <c r="A5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="301"/>
-      <c r="J5" s="301"/>
-      <c r="K5" s="301"/>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
-      <c r="N5" s="301"/>
-      <c r="O5" s="301"/>
-      <c r="P5" s="301"/>
-      <c r="Q5" s="301"/>
-      <c r="R5" s="301"/>
-      <c r="S5" s="301"/>
-      <c r="T5" s="301"/>
-      <c r="U5" s="301"/>
-      <c r="V5" s="301"/>
-      <c r="W5" s="301"/>
-      <c r="X5" s="301"/>
-      <c r="Y5" s="301"/>
-      <c r="Z5" s="301"/>
-      <c r="AA5" s="301"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="208"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
+      <c r="O5" s="208"/>
+      <c r="P5" s="208"/>
+      <c r="Q5" s="208"/>
+      <c r="R5" s="208"/>
+      <c r="S5" s="208"/>
+      <c r="T5" s="208"/>
+      <c r="U5" s="208"/>
+      <c r="V5" s="208"/>
+      <c r="W5" s="208"/>
+      <c r="X5" s="208"/>
+      <c r="Y5" s="208"/>
+      <c r="Z5" s="208"/>
+      <c r="AA5" s="208"/>
       <c r="AB5" s="77" t="s">
         <v>6</v>
       </c>
@@ -2915,25 +2915,25 @@
       <c r="A7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="225"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
-      <c r="I7" s="279" t="s">
+      <c r="I7" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="279"/>
-      <c r="K7" s="279"/>
-      <c r="L7" s="279"/>
-      <c r="M7" s="279"/>
-      <c r="N7" s="225"/>
-      <c r="O7" s="225"/>
-      <c r="P7" s="225"/>
-      <c r="Q7" s="225"/>
-      <c r="R7" s="225"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="210"/>
+      <c r="P7" s="210"/>
+      <c r="Q7" s="210"/>
+      <c r="R7" s="210"/>
       <c r="S7" s="72"/>
       <c r="T7" s="72"/>
       <c r="U7" s="72"/>
@@ -2986,38 +2986,38 @@
       <c r="AF8" s="71"/>
     </row>
     <row r="9" spans="1:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="275" t="s">
+      <c r="A9" s="207" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="289"/>
-      <c r="C9" s="306" t="s">
+      <c r="B9" s="217"/>
+      <c r="C9" s="218" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="307"/>
-      <c r="E9" s="307"/>
-      <c r="F9" s="307"/>
-      <c r="G9" s="307"/>
-      <c r="H9" s="307"/>
-      <c r="I9" s="307"/>
-      <c r="J9" s="307"/>
-      <c r="K9" s="307"/>
-      <c r="L9" s="307"/>
-      <c r="M9" s="307"/>
-      <c r="N9" s="307"/>
-      <c r="O9" s="307"/>
-      <c r="P9" s="307"/>
-      <c r="Q9" s="307"/>
-      <c r="R9" s="307"/>
-      <c r="S9" s="307"/>
-      <c r="T9" s="307"/>
-      <c r="U9" s="307"/>
-      <c r="V9" s="307"/>
-      <c r="W9" s="307"/>
-      <c r="X9" s="307"/>
-      <c r="Y9" s="307"/>
-      <c r="Z9" s="307"/>
-      <c r="AA9" s="307"/>
-      <c r="AB9" s="308"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="219"/>
+      <c r="R9" s="219"/>
+      <c r="S9" s="219"/>
+      <c r="T9" s="219"/>
+      <c r="U9" s="219"/>
+      <c r="V9" s="219"/>
+      <c r="W9" s="219"/>
+      <c r="X9" s="219"/>
+      <c r="Y9" s="219"/>
+      <c r="Z9" s="219"/>
+      <c r="AA9" s="219"/>
+      <c r="AB9" s="220"/>
       <c r="AC9" s="91"/>
       <c r="AD9" s="92"/>
       <c r="AE9" s="93"/>
@@ -3060,38 +3060,38 @@
       <c r="AF10" s="71"/>
     </row>
     <row r="11" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="271" t="s">
+      <c r="A11" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="271"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="225"/>
-      <c r="G11" s="225"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
-      <c r="J11" s="259"/>
-      <c r="K11" s="259"/>
-      <c r="L11" s="259"/>
-      <c r="M11" s="259"/>
-      <c r="N11" s="259"/>
-      <c r="O11" s="302"/>
-      <c r="P11" s="302"/>
-      <c r="Q11" s="302"/>
-      <c r="R11" s="302"/>
-      <c r="S11" s="302"/>
-      <c r="T11" s="302"/>
-      <c r="U11" s="302"/>
-      <c r="V11" s="302"/>
+      <c r="B11" s="209"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="211"/>
+      <c r="N11" s="211"/>
+      <c r="O11" s="212"/>
+      <c r="P11" s="212"/>
+      <c r="Q11" s="212"/>
+      <c r="R11" s="212"/>
+      <c r="S11" s="212"/>
+      <c r="T11" s="212"/>
+      <c r="U11" s="212"/>
+      <c r="V11" s="212"/>
       <c r="W11" s="98"/>
       <c r="X11" s="99" t="s">
         <v>12</v>
       </c>
       <c r="Y11" s="65"/>
-      <c r="Z11" s="303"/>
-      <c r="AA11" s="303"/>
-      <c r="AB11" s="304"/>
+      <c r="Z11" s="213"/>
+      <c r="AA11" s="213"/>
+      <c r="AB11" s="214"/>
       <c r="AC11" s="88"/>
       <c r="AD11" s="65"/>
       <c r="AE11" s="89"/>
@@ -3134,17 +3134,17 @@
       <c r="AF12" s="71"/>
     </row>
     <row r="13" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="275" t="s">
+      <c r="A13" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="275"/>
-      <c r="C13" s="225" t="s">
+      <c r="B13" s="207"/>
+      <c r="C13" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="225"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="225"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
       <c r="J13" s="102"/>
@@ -3153,19 +3153,19 @@
       <c r="M13" s="102"/>
       <c r="N13" s="102"/>
       <c r="O13" s="102"/>
-      <c r="P13" s="275" t="s">
+      <c r="P13" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="275"/>
-      <c r="R13" s="305"/>
-      <c r="S13" s="305"/>
-      <c r="T13" s="305"/>
-      <c r="U13" s="305"/>
-      <c r="V13" s="305"/>
-      <c r="W13" s="305"/>
-      <c r="X13" s="305"/>
-      <c r="Y13" s="305"/>
-      <c r="Z13" s="305"/>
+      <c r="Q13" s="207"/>
+      <c r="R13" s="215"/>
+      <c r="S13" s="215"/>
+      <c r="T13" s="215"/>
+      <c r="U13" s="215"/>
+      <c r="V13" s="215"/>
+      <c r="W13" s="215"/>
+      <c r="X13" s="215"/>
+      <c r="Y13" s="215"/>
+      <c r="Z13" s="215"/>
       <c r="AA13" s="64"/>
       <c r="AB13" s="103" t="s">
         <v>148</v>
@@ -3212,10 +3212,10 @@
       <c r="AF14" s="71"/>
     </row>
     <row r="15" spans="1:32" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="275" t="s">
+      <c r="A15" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="275"/>
+      <c r="B15" s="207"/>
       <c r="C15" s="107"/>
       <c r="D15" s="107"/>
       <c r="E15" s="107"/>
@@ -3255,24 +3255,24 @@
       <c r="A16" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="299"/>
-      <c r="C16" s="299"/>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="299"/>
-      <c r="L16" s="299"/>
+      <c r="B16" s="223"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
       <c r="M16" s="72"/>
       <c r="N16" s="112"/>
-      <c r="O16" s="300" t="s">
+      <c r="O16" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="300"/>
-      <c r="Q16" s="300"/>
+      <c r="P16" s="224"/>
+      <c r="Q16" s="224"/>
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
       <c r="T16" s="114"/>
@@ -3282,10 +3282,10 @@
       <c r="X16" s="114"/>
       <c r="Y16" s="114"/>
       <c r="Z16" s="66"/>
-      <c r="AA16" s="296" t="s">
+      <c r="AA16" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AB16" s="297"/>
+      <c r="AB16" s="222"/>
       <c r="AC16" s="104"/>
       <c r="AD16" s="63"/>
       <c r="AE16" s="105"/>
@@ -3313,11 +3313,11 @@
       <c r="Q17" s="60"/>
       <c r="R17" s="94"/>
       <c r="S17" s="94"/>
-      <c r="T17" s="234" t="s">
+      <c r="T17" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="U17" s="234"/>
-      <c r="V17" s="234"/>
+      <c r="U17" s="221"/>
+      <c r="V17" s="221"/>
       <c r="W17" s="94"/>
       <c r="X17" s="94"/>
       <c r="Y17" s="94"/>
@@ -3330,42 +3330,42 @@
       <c r="AF17" s="71"/>
     </row>
     <row r="18" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="275" t="s">
+      <c r="A18" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="275"/>
-      <c r="C18" s="275"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="271"/>
-      <c r="H18" s="271"/>
-      <c r="I18" s="271"/>
-      <c r="J18" s="271"/>
-      <c r="K18" s="271"/>
-      <c r="L18" s="271"/>
-      <c r="M18" s="275" t="s">
+      <c r="B18" s="207"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="275"/>
+      <c r="N18" s="207"/>
       <c r="O18" s="63"/>
       <c r="P18" s="63"/>
-      <c r="Q18" s="296" t="s">
+      <c r="Q18" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="296"/>
-      <c r="S18" s="296"/>
-      <c r="T18" s="296"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="205"/>
       <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
       <c r="X18" s="63"/>
       <c r="Y18" s="63"/>
-      <c r="Z18" s="296" t="s">
+      <c r="Z18" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="AA18" s="296"/>
-      <c r="AB18" s="297"/>
+      <c r="AA18" s="205"/>
+      <c r="AB18" s="222"/>
       <c r="AC18" s="104"/>
       <c r="AD18" s="63"/>
       <c r="AE18" s="105"/>
@@ -3422,28 +3422,28 @@
       <c r="J20" s="60"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="275" t="s">
+      <c r="M20" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="275"/>
+      <c r="N20" s="207"/>
       <c r="O20" s="121"/>
       <c r="P20" s="121"/>
-      <c r="Q20" s="296" t="s">
+      <c r="Q20" s="205" t="s">
         <v>149</v>
       </c>
-      <c r="R20" s="296"/>
-      <c r="S20" s="296"/>
-      <c r="T20" s="296"/>
+      <c r="R20" s="205"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="205"/>
       <c r="U20" s="63"/>
       <c r="V20" s="63"/>
       <c r="W20" s="121"/>
       <c r="X20" s="121"/>
       <c r="Y20" s="121"/>
-      <c r="Z20" s="296" t="s">
+      <c r="Z20" s="205" t="s">
         <v>147</v>
       </c>
-      <c r="AA20" s="296"/>
-      <c r="AB20" s="297"/>
+      <c r="AA20" s="205"/>
+      <c r="AB20" s="222"/>
       <c r="AC20" s="122"/>
       <c r="AD20" s="123"/>
       <c r="AE20" s="124"/>
@@ -3487,23 +3487,23 @@
     <row r="22" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
       <c r="B22" s="60"/>
-      <c r="C22" s="269" t="s">
+      <c r="C22" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="269"/>
-      <c r="E22" s="269"/>
-      <c r="F22" s="269"/>
-      <c r="G22" s="269"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="228"/>
+      <c r="G22" s="228"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60"/>
-      <c r="L22" s="298" t="s">
+      <c r="L22" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="298"/>
-      <c r="N22" s="298"/>
-      <c r="O22" s="298"/>
+      <c r="M22" s="229"/>
+      <c r="N22" s="229"/>
+      <c r="O22" s="229"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="60"/>
       <c r="R22" s="60"/>
@@ -3522,147 +3522,147 @@
       <c r="AE22" s="60"/>
     </row>
     <row r="23" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="213" t="s">
+      <c r="A23" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="240"/>
-      <c r="C23" s="240"/>
-      <c r="D23" s="240"/>
-      <c r="E23" s="213" t="s">
+      <c r="B23" s="226"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="240"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="240"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="213" t="s">
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="226"/>
+      <c r="I23" s="226"/>
+      <c r="J23" s="225" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="240"/>
-      <c r="L23" s="240"/>
-      <c r="M23" s="213" t="s">
+      <c r="K23" s="226"/>
+      <c r="L23" s="226"/>
+      <c r="M23" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="240"/>
-      <c r="O23" s="240"/>
-      <c r="P23" s="240"/>
-      <c r="Q23" s="240"/>
-      <c r="R23" s="213" t="s">
+      <c r="N23" s="226"/>
+      <c r="O23" s="226"/>
+      <c r="P23" s="226"/>
+      <c r="Q23" s="226"/>
+      <c r="R23" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="240"/>
-      <c r="T23" s="240"/>
-      <c r="U23" s="213" t="s">
+      <c r="S23" s="226"/>
+      <c r="T23" s="226"/>
+      <c r="U23" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="240"/>
-      <c r="W23" s="213" t="s">
+      <c r="V23" s="226"/>
+      <c r="W23" s="225" t="s">
         <v>40</v>
       </c>
-      <c r="X23" s="240"/>
-      <c r="Y23" s="240"/>
-      <c r="Z23" s="213" t="s">
+      <c r="X23" s="226"/>
+      <c r="Y23" s="226"/>
+      <c r="Z23" s="225" t="s">
         <v>41</v>
       </c>
-      <c r="AA23" s="240"/>
-      <c r="AB23" s="240"/>
-      <c r="AC23" s="213" t="s">
+      <c r="AA23" s="226"/>
+      <c r="AB23" s="226"/>
+      <c r="AC23" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="240"/>
-      <c r="AE23" s="240"/>
+      <c r="AD23" s="226"/>
+      <c r="AE23" s="226"/>
       <c r="AF23" s="127"/>
     </row>
     <row r="24" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="213">
+      <c r="A24" s="225">
         <v>1</v>
       </c>
-      <c r="B24" s="240"/>
-      <c r="C24" s="240"/>
-      <c r="D24" s="240"/>
-      <c r="E24" s="213">
+      <c r="B24" s="226"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="225">
         <v>2</v>
       </c>
-      <c r="F24" s="240"/>
-      <c r="G24" s="240"/>
-      <c r="H24" s="240"/>
-      <c r="I24" s="240"/>
-      <c r="J24" s="213">
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="225">
         <v>3</v>
       </c>
-      <c r="K24" s="240"/>
-      <c r="L24" s="240"/>
-      <c r="M24" s="213">
+      <c r="K24" s="226"/>
+      <c r="L24" s="226"/>
+      <c r="M24" s="225">
         <v>4</v>
       </c>
-      <c r="N24" s="240"/>
-      <c r="O24" s="240"/>
-      <c r="P24" s="240"/>
-      <c r="Q24" s="240"/>
-      <c r="R24" s="213">
+      <c r="N24" s="226"/>
+      <c r="O24" s="226"/>
+      <c r="P24" s="226"/>
+      <c r="Q24" s="226"/>
+      <c r="R24" s="225">
         <v>5</v>
       </c>
-      <c r="S24" s="240"/>
-      <c r="T24" s="240"/>
-      <c r="U24" s="213">
+      <c r="S24" s="226"/>
+      <c r="T24" s="226"/>
+      <c r="U24" s="225">
         <v>6</v>
       </c>
-      <c r="V24" s="240"/>
-      <c r="W24" s="213">
+      <c r="V24" s="226"/>
+      <c r="W24" s="225">
         <v>7</v>
       </c>
-      <c r="X24" s="240"/>
-      <c r="Y24" s="240"/>
-      <c r="Z24" s="213">
+      <c r="X24" s="226"/>
+      <c r="Y24" s="226"/>
+      <c r="Z24" s="225">
         <v>8</v>
       </c>
-      <c r="AA24" s="240"/>
-      <c r="AB24" s="240"/>
-      <c r="AC24" s="213">
+      <c r="AA24" s="226"/>
+      <c r="AB24" s="226"/>
+      <c r="AC24" s="225">
         <v>9</v>
       </c>
-      <c r="AD24" s="240"/>
-      <c r="AE24" s="241"/>
+      <c r="AD24" s="226"/>
+      <c r="AE24" s="227"/>
       <c r="AF24" s="127"/>
     </row>
     <row r="25" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="290" t="s">
+      <c r="A25" s="236" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="291"/>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
-      <c r="E25" s="272" t="s">
+      <c r="B25" s="237"/>
+      <c r="C25" s="237"/>
+      <c r="D25" s="237"/>
+      <c r="E25" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="273"/>
-      <c r="G25" s="273"/>
-      <c r="H25" s="273"/>
-      <c r="I25" s="273"/>
-      <c r="J25" s="292" t="s">
+      <c r="F25" s="239"/>
+      <c r="G25" s="239"/>
+      <c r="H25" s="239"/>
+      <c r="I25" s="239"/>
+      <c r="J25" s="240" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="293"/>
-      <c r="L25" s="293"/>
-      <c r="M25" s="294"/>
-      <c r="N25" s="294"/>
-      <c r="O25" s="294"/>
-      <c r="P25" s="294"/>
-      <c r="Q25" s="294"/>
-      <c r="R25" s="291"/>
-      <c r="S25" s="291"/>
-      <c r="T25" s="291"/>
-      <c r="U25" s="282"/>
-      <c r="V25" s="282"/>
-      <c r="W25" s="282"/>
-      <c r="X25" s="282"/>
-      <c r="Y25" s="282"/>
-      <c r="Z25" s="282"/>
-      <c r="AA25" s="282"/>
-      <c r="AB25" s="282"/>
-      <c r="AC25" s="282"/>
-      <c r="AD25" s="282"/>
-      <c r="AE25" s="282"/>
+      <c r="K25" s="241"/>
+      <c r="L25" s="241"/>
+      <c r="M25" s="242"/>
+      <c r="N25" s="242"/>
+      <c r="O25" s="242"/>
+      <c r="P25" s="242"/>
+      <c r="Q25" s="242"/>
+      <c r="R25" s="237"/>
+      <c r="S25" s="237"/>
+      <c r="T25" s="237"/>
+      <c r="U25" s="230"/>
+      <c r="V25" s="230"/>
+      <c r="W25" s="230"/>
+      <c r="X25" s="230"/>
+      <c r="Y25" s="230"/>
+      <c r="Z25" s="230"/>
+      <c r="AA25" s="230"/>
+      <c r="AB25" s="230"/>
+      <c r="AC25" s="230"/>
+      <c r="AD25" s="230"/>
+      <c r="AE25" s="230"/>
       <c r="AF25" s="128"/>
     </row>
     <row r="26" spans="1:32" ht="3.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -3688,39 +3688,39 @@
       <c r="T26" s="81"/>
       <c r="U26" s="131"/>
       <c r="V26" s="132"/>
-      <c r="W26" s="285" t="s">
+      <c r="W26" s="231" t="s">
         <v>46</v>
       </c>
-      <c r="X26" s="286"/>
-      <c r="Y26" s="286"/>
-      <c r="Z26" s="286"/>
-      <c r="AA26" s="286"/>
-      <c r="AB26" s="286"/>
+      <c r="X26" s="232"/>
+      <c r="Y26" s="232"/>
+      <c r="Z26" s="232"/>
+      <c r="AA26" s="232"/>
+      <c r="AB26" s="232"/>
       <c r="AC26" s="133"/>
       <c r="AD26" s="119"/>
       <c r="AE26" s="132"/>
       <c r="AF26" s="128"/>
     </row>
     <row r="27" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="275" t="s">
+      <c r="A27" s="207" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="275"/>
-      <c r="C27" s="275"/>
-      <c r="D27" s="275"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
       <c r="E27" s="66"/>
-      <c r="F27" s="225" t="s">
+      <c r="F27" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="225"/>
-      <c r="H27" s="288"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="234"/>
       <c r="I27" s="66"/>
-      <c r="J27" s="274" t="s">
+      <c r="J27" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="275"/>
-      <c r="L27" s="275"/>
-      <c r="M27" s="289"/>
+      <c r="K27" s="207"/>
+      <c r="L27" s="207"/>
+      <c r="M27" s="217"/>
       <c r="N27" s="134"/>
       <c r="O27" s="134"/>
       <c r="P27" s="135" t="s">
@@ -3728,56 +3728,56 @@
       </c>
       <c r="Q27" s="79"/>
       <c r="R27" s="136"/>
-      <c r="S27" s="214" t="s">
+      <c r="S27" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="285"/>
+      <c r="T27" s="231"/>
       <c r="U27" s="137"/>
       <c r="V27" s="138"/>
-      <c r="W27" s="286"/>
-      <c r="X27" s="287"/>
-      <c r="Y27" s="287"/>
-      <c r="Z27" s="287"/>
-      <c r="AA27" s="287"/>
-      <c r="AB27" s="287"/>
+      <c r="W27" s="232"/>
+      <c r="X27" s="233"/>
+      <c r="Y27" s="233"/>
+      <c r="Z27" s="233"/>
+      <c r="AA27" s="233"/>
+      <c r="AB27" s="233"/>
       <c r="AC27" s="137"/>
       <c r="AD27" s="63"/>
       <c r="AE27" s="138"/>
       <c r="AF27" s="128"/>
     </row>
     <row r="28" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="279" t="s">
+      <c r="A28" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="279"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="279"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="216"/>
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
       <c r="G28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="283"/>
-      <c r="I28" s="284"/>
-      <c r="J28" s="274"/>
-      <c r="K28" s="275"/>
-      <c r="L28" s="275"/>
-      <c r="M28" s="275"/>
-      <c r="N28" s="269" t="s">
+      <c r="H28" s="250"/>
+      <c r="I28" s="251"/>
+      <c r="J28" s="235"/>
+      <c r="K28" s="207"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="207"/>
+      <c r="N28" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="O28" s="269"/>
+      <c r="O28" s="228"/>
       <c r="P28" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="Q28" s="269" t="s">
+      <c r="Q28" s="228" t="s">
         <v>54</v>
       </c>
-      <c r="R28" s="295"/>
-      <c r="S28" s="265" t="s">
+      <c r="R28" s="244"/>
+      <c r="S28" s="245" t="s">
         <v>55</v>
       </c>
-      <c r="T28" s="281"/>
+      <c r="T28" s="246"/>
       <c r="U28" s="140"/>
       <c r="V28" s="140"/>
       <c r="W28" s="66"/>
@@ -3795,10 +3795,10 @@
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
       <c r="D29" s="66"/>
-      <c r="E29" s="266" t="s">
+      <c r="E29" s="247" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="266"/>
+      <c r="F29" s="247"/>
       <c r="G29" s="66"/>
       <c r="H29" s="115"/>
       <c r="I29" s="141"/>
@@ -3806,11 +3806,11 @@
       <c r="K29" s="66"/>
       <c r="L29" s="66"/>
       <c r="M29" s="66"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
+      <c r="N29" s="247"/>
+      <c r="O29" s="247"/>
       <c r="P29" s="66"/>
-      <c r="Q29" s="266"/>
-      <c r="R29" s="266"/>
+      <c r="Q29" s="247"/>
+      <c r="R29" s="247"/>
       <c r="S29" s="143"/>
       <c r="T29" s="66"/>
       <c r="U29" s="66"/>
@@ -3826,10 +3826,10 @@
       <c r="AE29" s="66"/>
     </row>
     <row r="30" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="271" t="s">
+      <c r="A30" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="271"/>
+      <c r="B30" s="209"/>
       <c r="C30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="79"/>
@@ -3837,28 +3837,28 @@
       <c r="G30" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="249" t="s">
+      <c r="H30" s="248" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="249"/>
-      <c r="J30" s="270" t="s">
+      <c r="I30" s="248"/>
+      <c r="J30" s="249" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="271"/>
-      <c r="L30" s="271"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="209"/>
       <c r="M30" s="134"/>
       <c r="N30" s="134"/>
       <c r="O30" s="134"/>
-      <c r="P30" s="271" t="s">
+      <c r="P30" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="Q30" s="271"/>
-      <c r="R30" s="271"/>
-      <c r="S30" s="270" t="s">
+      <c r="Q30" s="209"/>
+      <c r="R30" s="209"/>
+      <c r="S30" s="249" t="s">
         <v>61</v>
       </c>
-      <c r="T30" s="271"/>
-      <c r="U30" s="271"/>
+      <c r="T30" s="209"/>
+      <c r="U30" s="209"/>
       <c r="V30" s="134"/>
       <c r="W30" s="134"/>
       <c r="X30" s="134"/>
@@ -3874,22 +3874,22 @@
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="81"/>
-      <c r="D31" s="264" t="s">
+      <c r="D31" s="252" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="264"/>
-      <c r="F31" s="264"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="252"/>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="142"/>
       <c r="K31" s="66"/>
       <c r="L31" s="66"/>
-      <c r="M31" s="269" t="s">
+      <c r="M31" s="228" t="s">
         <v>54</v>
       </c>
-      <c r="N31" s="269"/>
-      <c r="O31" s="269"/>
+      <c r="N31" s="228"/>
+      <c r="O31" s="228"/>
       <c r="P31" s="66"/>
       <c r="Q31" s="66"/>
       <c r="R31" s="66"/>
@@ -3919,21 +3919,21 @@
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
       <c r="I32" s="136"/>
-      <c r="J32" s="270" t="s">
+      <c r="J32" s="249" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="271"/>
-      <c r="L32" s="271"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="209"/>
       <c r="M32" s="63"/>
       <c r="N32" s="63"/>
       <c r="O32" s="79"/>
       <c r="P32" s="79"/>
       <c r="Q32" s="79"/>
       <c r="R32" s="144"/>
-      <c r="S32" s="274" t="s">
+      <c r="S32" s="235" t="s">
         <v>65</v>
       </c>
-      <c r="T32" s="275"/>
+      <c r="T32" s="207"/>
       <c r="U32" s="134"/>
       <c r="V32" s="134"/>
       <c r="W32" s="134"/>
@@ -3948,33 +3948,33 @@
     </row>
     <row r="33" spans="1:32" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66"/>
-      <c r="B33" s="234" t="s">
+      <c r="B33" s="221" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="234"/>
-      <c r="D33" s="234" t="s">
+      <c r="C33" s="221"/>
+      <c r="D33" s="221" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="234"/>
-      <c r="F33" s="234"/>
+      <c r="E33" s="221"/>
+      <c r="F33" s="221"/>
       <c r="G33" s="145" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="82"/>
       <c r="I33" s="146"/>
-      <c r="J33" s="272"/>
-      <c r="K33" s="273"/>
-      <c r="L33" s="273"/>
-      <c r="M33" s="269" t="s">
+      <c r="J33" s="238"/>
+      <c r="K33" s="239"/>
+      <c r="L33" s="239"/>
+      <c r="M33" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="N33" s="269"/>
-      <c r="O33" s="269" t="s">
+      <c r="N33" s="228"/>
+      <c r="O33" s="228" t="s">
         <v>68</v>
       </c>
-      <c r="P33" s="269"/>
-      <c r="Q33" s="269"/>
-      <c r="R33" s="276"/>
+      <c r="P33" s="228"/>
+      <c r="Q33" s="228"/>
+      <c r="R33" s="253"/>
       <c r="S33" s="142"/>
       <c r="T33" s="66"/>
       <c r="U33" s="81"/>
@@ -3990,10 +3990,10 @@
       <c r="AE33" s="81"/>
     </row>
     <row r="34" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="279" t="s">
+      <c r="A34" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="280"/>
+      <c r="B34" s="256"/>
       <c r="C34" s="144"/>
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
@@ -4001,17 +4001,17 @@
       <c r="G34" s="147"/>
       <c r="H34" s="147"/>
       <c r="I34" s="148"/>
-      <c r="J34" s="270" t="s">
+      <c r="J34" s="249" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="271"/>
+      <c r="K34" s="209"/>
       <c r="L34" s="144"/>
       <c r="M34" s="63"/>
       <c r="N34" s="63"/>
       <c r="O34" s="79"/>
       <c r="P34" s="79"/>
       <c r="Q34" s="79"/>
-      <c r="R34" s="277"/>
+      <c r="R34" s="254"/>
       <c r="S34" s="142"/>
       <c r="T34" s="134"/>
       <c r="U34" s="134"/>
@@ -4027,34 +4027,34 @@
       <c r="AE34" s="134"/>
     </row>
     <row r="35" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="281"/>
-      <c r="B35" s="280"/>
+      <c r="A35" s="246"/>
+      <c r="B35" s="256"/>
       <c r="C35" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="269" t="s">
+      <c r="D35" s="228" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="269"/>
-      <c r="F35" s="269"/>
+      <c r="E35" s="228"/>
+      <c r="F35" s="228"/>
       <c r="G35" s="150"/>
       <c r="H35" s="150"/>
       <c r="I35" s="151"/>
-      <c r="J35" s="265"/>
-      <c r="K35" s="266"/>
+      <c r="J35" s="245"/>
+      <c r="K35" s="247"/>
       <c r="L35" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="269" t="s">
+      <c r="M35" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="N35" s="269"/>
-      <c r="O35" s="269" t="s">
+      <c r="N35" s="228"/>
+      <c r="O35" s="228" t="s">
         <v>68</v>
       </c>
-      <c r="P35" s="269"/>
-      <c r="Q35" s="269"/>
-      <c r="R35" s="278"/>
+      <c r="P35" s="228"/>
+      <c r="Q35" s="228"/>
+      <c r="R35" s="255"/>
       <c r="S35" s="152"/>
       <c r="T35" s="129"/>
       <c r="U35" s="129"/>
@@ -4076,11 +4076,11 @@
       <c r="D36" s="66"/>
       <c r="E36" s="66"/>
       <c r="F36" s="66"/>
-      <c r="G36" s="259" t="s">
+      <c r="G36" s="211" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="259"/>
-      <c r="I36" s="260"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="257"/>
       <c r="J36" s="152"/>
       <c r="K36" s="144"/>
       <c r="L36" s="144"/>
@@ -4140,257 +4140,257 @@
       <c r="AE37" s="144"/>
     </row>
     <row r="38" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="261" t="s">
+      <c r="A38" s="258" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="262"/>
-      <c r="C38" s="262"/>
-      <c r="D38" s="262"/>
-      <c r="E38" s="262"/>
-      <c r="F38" s="262"/>
-      <c r="G38" s="262"/>
-      <c r="H38" s="262"/>
-      <c r="I38" s="262"/>
-      <c r="J38" s="262"/>
-      <c r="K38" s="262"/>
-      <c r="L38" s="262"/>
-      <c r="M38" s="262"/>
-      <c r="N38" s="262"/>
-      <c r="O38" s="262"/>
-      <c r="P38" s="262"/>
-      <c r="Q38" s="262"/>
-      <c r="R38" s="262"/>
-      <c r="S38" s="262"/>
-      <c r="T38" s="262"/>
-      <c r="U38" s="262"/>
-      <c r="V38" s="262"/>
-      <c r="W38" s="262"/>
-      <c r="X38" s="262"/>
-      <c r="Y38" s="262"/>
-      <c r="Z38" s="262"/>
-      <c r="AA38" s="262"/>
-      <c r="AB38" s="262"/>
-      <c r="AC38" s="262"/>
-      <c r="AD38" s="262"/>
-      <c r="AE38" s="262"/>
+      <c r="B38" s="259"/>
+      <c r="C38" s="259"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="259"/>
+      <c r="F38" s="259"/>
+      <c r="G38" s="259"/>
+      <c r="H38" s="259"/>
+      <c r="I38" s="259"/>
+      <c r="J38" s="259"/>
+      <c r="K38" s="259"/>
+      <c r="L38" s="259"/>
+      <c r="M38" s="259"/>
+      <c r="N38" s="259"/>
+      <c r="O38" s="259"/>
+      <c r="P38" s="259"/>
+      <c r="Q38" s="259"/>
+      <c r="R38" s="259"/>
+      <c r="S38" s="259"/>
+      <c r="T38" s="259"/>
+      <c r="U38" s="259"/>
+      <c r="V38" s="259"/>
+      <c r="W38" s="259"/>
+      <c r="X38" s="259"/>
+      <c r="Y38" s="259"/>
+      <c r="Z38" s="259"/>
+      <c r="AA38" s="259"/>
+      <c r="AB38" s="259"/>
+      <c r="AC38" s="259"/>
+      <c r="AD38" s="259"/>
+      <c r="AE38" s="259"/>
       <c r="AF38" s="127"/>
     </row>
     <row r="39" spans="1:32" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="263" t="s">
+      <c r="A39" s="260" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="264"/>
-      <c r="C39" s="263" t="s">
+      <c r="B39" s="252"/>
+      <c r="C39" s="260" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="264"/>
-      <c r="E39" s="264"/>
-      <c r="F39" s="264"/>
-      <c r="G39" s="263" t="s">
+      <c r="D39" s="252"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="H39" s="264"/>
-      <c r="I39" s="264"/>
-      <c r="J39" s="264"/>
-      <c r="K39" s="264"/>
-      <c r="L39" s="263" t="s">
+      <c r="H39" s="252"/>
+      <c r="I39" s="252"/>
+      <c r="J39" s="252"/>
+      <c r="K39" s="252"/>
+      <c r="L39" s="260" t="s">
         <v>76</v>
       </c>
-      <c r="M39" s="264"/>
-      <c r="N39" s="264"/>
-      <c r="O39" s="264"/>
-      <c r="P39" s="264"/>
-      <c r="Q39" s="213" t="s">
+      <c r="M39" s="252"/>
+      <c r="N39" s="252"/>
+      <c r="O39" s="252"/>
+      <c r="P39" s="252"/>
+      <c r="Q39" s="225" t="s">
         <v>77</v>
       </c>
-      <c r="R39" s="240"/>
-      <c r="S39" s="240"/>
-      <c r="T39" s="240"/>
-      <c r="U39" s="240"/>
-      <c r="V39" s="242" t="s">
+      <c r="R39" s="226"/>
+      <c r="S39" s="226"/>
+      <c r="T39" s="226"/>
+      <c r="U39" s="226"/>
+      <c r="V39" s="261" t="s">
         <v>78</v>
       </c>
-      <c r="W39" s="243"/>
-      <c r="X39" s="267"/>
-      <c r="Y39" s="268"/>
-      <c r="Z39" s="213" t="s">
+      <c r="W39" s="262"/>
+      <c r="X39" s="263"/>
+      <c r="Y39" s="264"/>
+      <c r="Z39" s="225" t="s">
         <v>79</v>
       </c>
-      <c r="AA39" s="240"/>
-      <c r="AB39" s="240"/>
-      <c r="AC39" s="213" t="s">
+      <c r="AA39" s="226"/>
+      <c r="AB39" s="226"/>
+      <c r="AC39" s="225" t="s">
         <v>80</v>
       </c>
-      <c r="AD39" s="240"/>
-      <c r="AE39" s="241"/>
+      <c r="AD39" s="226"/>
+      <c r="AE39" s="227"/>
       <c r="AF39" s="127"/>
     </row>
     <row r="40" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="265"/>
-      <c r="B40" s="266"/>
-      <c r="C40" s="265"/>
-      <c r="D40" s="266"/>
-      <c r="E40" s="266"/>
-      <c r="F40" s="266"/>
-      <c r="G40" s="265"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="266"/>
-      <c r="J40" s="266"/>
-      <c r="K40" s="266"/>
-      <c r="L40" s="265"/>
-      <c r="M40" s="266"/>
-      <c r="N40" s="266"/>
-      <c r="O40" s="266"/>
-      <c r="P40" s="266"/>
-      <c r="Q40" s="254" t="s">
+      <c r="A40" s="245"/>
+      <c r="B40" s="247"/>
+      <c r="C40" s="245"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="247"/>
+      <c r="F40" s="247"/>
+      <c r="G40" s="245"/>
+      <c r="H40" s="247"/>
+      <c r="I40" s="247"/>
+      <c r="J40" s="247"/>
+      <c r="K40" s="247"/>
+      <c r="L40" s="245"/>
+      <c r="M40" s="247"/>
+      <c r="N40" s="247"/>
+      <c r="O40" s="247"/>
+      <c r="P40" s="247"/>
+      <c r="Q40" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="R40" s="255"/>
-      <c r="S40" s="255"/>
-      <c r="T40" s="255"/>
+      <c r="R40" s="266"/>
+      <c r="S40" s="266"/>
+      <c r="T40" s="266"/>
       <c r="U40" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="V40" s="213" t="s">
+      <c r="V40" s="225" t="s">
         <v>82</v>
       </c>
-      <c r="W40" s="240"/>
-      <c r="X40" s="213" t="s">
+      <c r="W40" s="226"/>
+      <c r="X40" s="225" t="s">
         <v>83</v>
       </c>
-      <c r="Y40" s="241"/>
-      <c r="Z40" s="214"/>
-      <c r="AA40" s="225"/>
-      <c r="AB40" s="225"/>
-      <c r="AC40" s="214"/>
-      <c r="AD40" s="225"/>
-      <c r="AE40" s="225"/>
+      <c r="Y40" s="227"/>
+      <c r="Z40" s="243"/>
+      <c r="AA40" s="210"/>
+      <c r="AB40" s="210"/>
+      <c r="AC40" s="243"/>
+      <c r="AD40" s="210"/>
+      <c r="AE40" s="210"/>
       <c r="AF40" s="127"/>
     </row>
     <row r="41" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="213">
+      <c r="A41" s="225">
         <v>10</v>
       </c>
-      <c r="B41" s="240"/>
-      <c r="C41" s="213">
+      <c r="B41" s="226"/>
+      <c r="C41" s="225">
         <v>11</v>
       </c>
-      <c r="D41" s="240"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="240"/>
-      <c r="G41" s="213">
+      <c r="D41" s="226"/>
+      <c r="E41" s="226"/>
+      <c r="F41" s="226"/>
+      <c r="G41" s="225">
         <v>12</v>
       </c>
-      <c r="H41" s="240"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="240"/>
-      <c r="K41" s="240"/>
-      <c r="L41" s="213">
+      <c r="H41" s="226"/>
+      <c r="I41" s="226"/>
+      <c r="J41" s="226"/>
+      <c r="K41" s="226"/>
+      <c r="L41" s="225">
         <v>13</v>
       </c>
-      <c r="M41" s="240"/>
-      <c r="N41" s="240"/>
-      <c r="O41" s="240"/>
-      <c r="P41" s="240"/>
-      <c r="Q41" s="213">
+      <c r="M41" s="226"/>
+      <c r="N41" s="226"/>
+      <c r="O41" s="226"/>
+      <c r="P41" s="226"/>
+      <c r="Q41" s="225">
         <v>14</v>
       </c>
-      <c r="R41" s="240"/>
-      <c r="S41" s="240"/>
-      <c r="T41" s="240"/>
+      <c r="R41" s="226"/>
+      <c r="S41" s="226"/>
+      <c r="T41" s="226"/>
       <c r="U41" s="158">
         <v>15</v>
       </c>
-      <c r="V41" s="213">
+      <c r="V41" s="225">
         <v>16</v>
       </c>
-      <c r="W41" s="240"/>
-      <c r="X41" s="213">
+      <c r="W41" s="226"/>
+      <c r="X41" s="225">
         <v>17</v>
       </c>
-      <c r="Y41" s="240"/>
-      <c r="Z41" s="213">
+      <c r="Y41" s="226"/>
+      <c r="Z41" s="225">
         <v>18</v>
       </c>
-      <c r="AA41" s="240"/>
-      <c r="AB41" s="240"/>
-      <c r="AC41" s="213">
+      <c r="AA41" s="226"/>
+      <c r="AB41" s="226"/>
+      <c r="AC41" s="225">
         <v>19</v>
       </c>
-      <c r="AD41" s="240"/>
-      <c r="AE41" s="241"/>
+      <c r="AD41" s="226"/>
+      <c r="AE41" s="227"/>
       <c r="AF41" s="127"/>
     </row>
     <row r="42" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="254" t="s">
+      <c r="A42" s="265" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="255"/>
-      <c r="C42" s="256"/>
-      <c r="D42" s="257"/>
-      <c r="E42" s="257"/>
-      <c r="F42" s="257"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="257"/>
-      <c r="I42" s="257"/>
-      <c r="J42" s="257"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="256"/>
-      <c r="M42" s="257"/>
-      <c r="N42" s="257"/>
-      <c r="O42" s="257"/>
-      <c r="P42" s="257"/>
-      <c r="Q42" s="256"/>
-      <c r="R42" s="257"/>
-      <c r="S42" s="257"/>
-      <c r="T42" s="257"/>
+      <c r="B42" s="266"/>
+      <c r="C42" s="267"/>
+      <c r="D42" s="268"/>
+      <c r="E42" s="268"/>
+      <c r="F42" s="268"/>
+      <c r="G42" s="267"/>
+      <c r="H42" s="268"/>
+      <c r="I42" s="268"/>
+      <c r="J42" s="268"/>
+      <c r="K42" s="268"/>
+      <c r="L42" s="267"/>
+      <c r="M42" s="268"/>
+      <c r="N42" s="268"/>
+      <c r="O42" s="268"/>
+      <c r="P42" s="268"/>
+      <c r="Q42" s="267"/>
+      <c r="R42" s="268"/>
+      <c r="S42" s="268"/>
+      <c r="T42" s="268"/>
       <c r="U42" s="159"/>
-      <c r="V42" s="233"/>
-      <c r="W42" s="233"/>
-      <c r="X42" s="233"/>
-      <c r="Y42" s="233"/>
-      <c r="Z42" s="233"/>
-      <c r="AA42" s="233"/>
-      <c r="AB42" s="233"/>
-      <c r="AC42" s="257"/>
-      <c r="AD42" s="257"/>
-      <c r="AE42" s="258"/>
+      <c r="V42" s="269"/>
+      <c r="W42" s="269"/>
+      <c r="X42" s="269"/>
+      <c r="Y42" s="269"/>
+      <c r="Z42" s="269"/>
+      <c r="AA42" s="269"/>
+      <c r="AB42" s="269"/>
+      <c r="AC42" s="268"/>
+      <c r="AD42" s="268"/>
+      <c r="AE42" s="270"/>
       <c r="AF42" s="127"/>
     </row>
     <row r="43" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="254" t="s">
+      <c r="A43" s="265" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="255"/>
-      <c r="C43" s="256"/>
-      <c r="D43" s="257"/>
-      <c r="E43" s="257"/>
-      <c r="F43" s="257"/>
-      <c r="G43" s="256"/>
-      <c r="H43" s="257"/>
-      <c r="I43" s="257"/>
-      <c r="J43" s="257"/>
-      <c r="K43" s="257"/>
-      <c r="L43" s="256"/>
-      <c r="M43" s="257"/>
-      <c r="N43" s="257"/>
-      <c r="O43" s="257"/>
-      <c r="P43" s="257"/>
-      <c r="Q43" s="256"/>
-      <c r="R43" s="257"/>
-      <c r="S43" s="257"/>
-      <c r="T43" s="257"/>
+      <c r="B43" s="266"/>
+      <c r="C43" s="267"/>
+      <c r="D43" s="268"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="268"/>
+      <c r="G43" s="267"/>
+      <c r="H43" s="268"/>
+      <c r="I43" s="268"/>
+      <c r="J43" s="268"/>
+      <c r="K43" s="268"/>
+      <c r="L43" s="267"/>
+      <c r="M43" s="268"/>
+      <c r="N43" s="268"/>
+      <c r="O43" s="268"/>
+      <c r="P43" s="268"/>
+      <c r="Q43" s="267"/>
+      <c r="R43" s="268"/>
+      <c r="S43" s="268"/>
+      <c r="T43" s="268"/>
       <c r="U43" s="159"/>
-      <c r="V43" s="233"/>
-      <c r="W43" s="233"/>
-      <c r="X43" s="233"/>
-      <c r="Y43" s="233"/>
-      <c r="Z43" s="233"/>
-      <c r="AA43" s="233"/>
-      <c r="AB43" s="233"/>
-      <c r="AC43" s="257"/>
-      <c r="AD43" s="257"/>
-      <c r="AE43" s="258"/>
+      <c r="V43" s="269"/>
+      <c r="W43" s="269"/>
+      <c r="X43" s="269"/>
+      <c r="Y43" s="269"/>
+      <c r="Z43" s="269"/>
+      <c r="AA43" s="269"/>
+      <c r="AB43" s="269"/>
+      <c r="AC43" s="268"/>
+      <c r="AD43" s="268"/>
+      <c r="AE43" s="270"/>
       <c r="AF43" s="127"/>
     </row>
     <row r="44" spans="1:32" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -4427,78 +4427,78 @@
       <c r="AE44" s="94"/>
     </row>
     <row r="45" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="213" t="s">
+      <c r="A45" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="240"/>
-      <c r="C45" s="240"/>
-      <c r="D45" s="240"/>
-      <c r="E45" s="240"/>
-      <c r="F45" s="240"/>
-      <c r="G45" s="240"/>
-      <c r="H45" s="240"/>
-      <c r="I45" s="240"/>
-      <c r="J45" s="240"/>
-      <c r="K45" s="240"/>
-      <c r="L45" s="240"/>
-      <c r="M45" s="240"/>
-      <c r="N45" s="240"/>
-      <c r="O45" s="240"/>
-      <c r="P45" s="240"/>
-      <c r="Q45" s="240"/>
-      <c r="R45" s="240"/>
-      <c r="S45" s="240"/>
-      <c r="T45" s="240"/>
-      <c r="U45" s="240"/>
-      <c r="V45" s="240"/>
-      <c r="W45" s="240"/>
-      <c r="X45" s="247" t="s">
+      <c r="B45" s="226"/>
+      <c r="C45" s="226"/>
+      <c r="D45" s="226"/>
+      <c r="E45" s="226"/>
+      <c r="F45" s="226"/>
+      <c r="G45" s="226"/>
+      <c r="H45" s="226"/>
+      <c r="I45" s="226"/>
+      <c r="J45" s="226"/>
+      <c r="K45" s="226"/>
+      <c r="L45" s="226"/>
+      <c r="M45" s="226"/>
+      <c r="N45" s="226"/>
+      <c r="O45" s="226"/>
+      <c r="P45" s="226"/>
+      <c r="Q45" s="226"/>
+      <c r="R45" s="226"/>
+      <c r="S45" s="226"/>
+      <c r="T45" s="226"/>
+      <c r="U45" s="226"/>
+      <c r="V45" s="226"/>
+      <c r="W45" s="226"/>
+      <c r="X45" s="271" t="s">
         <v>87</v>
       </c>
-      <c r="Y45" s="248"/>
-      <c r="Z45" s="249"/>
-      <c r="AA45" s="249"/>
-      <c r="AB45" s="249"/>
-      <c r="AC45" s="249"/>
-      <c r="AD45" s="249"/>
-      <c r="AE45" s="249"/>
+      <c r="Y45" s="272"/>
+      <c r="Z45" s="248"/>
+      <c r="AA45" s="248"/>
+      <c r="AB45" s="248"/>
+      <c r="AC45" s="248"/>
+      <c r="AD45" s="248"/>
+      <c r="AE45" s="248"/>
     </row>
     <row r="46" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="213" t="s">
+      <c r="A46" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="240"/>
-      <c r="C46" s="240"/>
-      <c r="D46" s="240"/>
-      <c r="E46" s="240"/>
-      <c r="F46" s="213" t="s">
+      <c r="B46" s="226"/>
+      <c r="C46" s="226"/>
+      <c r="D46" s="226"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="225" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="240"/>
-      <c r="H46" s="250" t="s">
+      <c r="G46" s="226"/>
+      <c r="H46" s="273" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="251"/>
-      <c r="J46" s="251"/>
-      <c r="K46" s="252"/>
-      <c r="L46" s="213" t="s">
+      <c r="I46" s="274"/>
+      <c r="J46" s="274"/>
+      <c r="K46" s="275"/>
+      <c r="L46" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="240"/>
-      <c r="N46" s="240"/>
-      <c r="O46" s="240"/>
-      <c r="P46" s="240"/>
-      <c r="Q46" s="213" t="s">
+      <c r="M46" s="226"/>
+      <c r="N46" s="226"/>
+      <c r="O46" s="226"/>
+      <c r="P46" s="226"/>
+      <c r="Q46" s="225" t="s">
         <v>92</v>
       </c>
-      <c r="R46" s="240"/>
-      <c r="S46" s="240"/>
-      <c r="T46" s="213" t="s">
+      <c r="R46" s="226"/>
+      <c r="S46" s="226"/>
+      <c r="T46" s="225" t="s">
         <v>93</v>
       </c>
-      <c r="U46" s="240"/>
-      <c r="V46" s="240"/>
-      <c r="W46" s="241"/>
+      <c r="U46" s="226"/>
+      <c r="V46" s="226"/>
+      <c r="W46" s="227"/>
       <c r="X46" s="152"/>
       <c r="Y46" s="79"/>
       <c r="Z46" s="79"/>
@@ -4509,41 +4509,41 @@
       <c r="AE46" s="79"/>
     </row>
     <row r="47" spans="1:32" ht="9.1999999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="214"/>
-      <c r="B47" s="225"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="225"/>
-      <c r="E47" s="225"/>
-      <c r="F47" s="214"/>
-      <c r="G47" s="225"/>
-      <c r="H47" s="213" t="s">
+      <c r="A47" s="243"/>
+      <c r="B47" s="210"/>
+      <c r="C47" s="210"/>
+      <c r="D47" s="210"/>
+      <c r="E47" s="210"/>
+      <c r="F47" s="243"/>
+      <c r="G47" s="210"/>
+      <c r="H47" s="225" t="s">
         <v>94</v>
       </c>
-      <c r="I47" s="240"/>
-      <c r="J47" s="213" t="s">
+      <c r="I47" s="226"/>
+      <c r="J47" s="225" t="s">
         <v>95</v>
       </c>
-      <c r="K47" s="240"/>
-      <c r="L47" s="213"/>
-      <c r="M47" s="240"/>
-      <c r="N47" s="240"/>
-      <c r="O47" s="240"/>
-      <c r="P47" s="240"/>
-      <c r="Q47" s="213" t="s">
+      <c r="K47" s="226"/>
+      <c r="L47" s="225"/>
+      <c r="M47" s="226"/>
+      <c r="N47" s="226"/>
+      <c r="O47" s="226"/>
+      <c r="P47" s="226"/>
+      <c r="Q47" s="225" t="s">
         <v>96</v>
       </c>
-      <c r="R47" s="240"/>
-      <c r="S47" s="245" t="s">
+      <c r="R47" s="226"/>
+      <c r="S47" s="276" t="s">
         <v>97</v>
       </c>
-      <c r="T47" s="213" t="s">
+      <c r="T47" s="225" t="s">
         <v>98</v>
       </c>
-      <c r="U47" s="240"/>
-      <c r="V47" s="213" t="s">
+      <c r="U47" s="226"/>
+      <c r="V47" s="225" t="s">
         <v>99</v>
       </c>
-      <c r="W47" s="241"/>
+      <c r="W47" s="227"/>
       <c r="X47" s="152"/>
       <c r="Y47" s="160"/>
       <c r="Z47" s="160"/>
@@ -4569,24 +4569,24 @@
       <c r="E48" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="214"/>
-      <c r="G48" s="225"/>
-      <c r="H48" s="214"/>
-      <c r="I48" s="225"/>
-      <c r="J48" s="214"/>
-      <c r="K48" s="225"/>
-      <c r="L48" s="214"/>
-      <c r="M48" s="225"/>
-      <c r="N48" s="225"/>
-      <c r="O48" s="225"/>
-      <c r="P48" s="225"/>
-      <c r="Q48" s="214"/>
-      <c r="R48" s="225"/>
-      <c r="S48" s="253"/>
-      <c r="T48" s="214"/>
-      <c r="U48" s="225"/>
-      <c r="V48" s="214"/>
-      <c r="W48" s="225"/>
+      <c r="F48" s="243"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="243"/>
+      <c r="I48" s="210"/>
+      <c r="J48" s="243"/>
+      <c r="K48" s="210"/>
+      <c r="L48" s="243"/>
+      <c r="M48" s="210"/>
+      <c r="N48" s="210"/>
+      <c r="O48" s="210"/>
+      <c r="P48" s="210"/>
+      <c r="Q48" s="243"/>
+      <c r="R48" s="210"/>
+      <c r="S48" s="277"/>
+      <c r="T48" s="243"/>
+      <c r="U48" s="210"/>
+      <c r="V48" s="243"/>
+      <c r="W48" s="210"/>
       <c r="X48" s="152"/>
       <c r="Y48" s="160"/>
       <c r="Z48" s="160"/>
@@ -4612,40 +4612,40 @@
       <c r="E49" s="158">
         <v>24</v>
       </c>
-      <c r="F49" s="213">
+      <c r="F49" s="225">
         <v>25</v>
       </c>
-      <c r="G49" s="240"/>
-      <c r="H49" s="213">
+      <c r="G49" s="226"/>
+      <c r="H49" s="225">
         <v>26</v>
       </c>
-      <c r="I49" s="240"/>
-      <c r="J49" s="213">
+      <c r="I49" s="226"/>
+      <c r="J49" s="225">
         <v>27</v>
       </c>
-      <c r="K49" s="240"/>
-      <c r="L49" s="213">
+      <c r="K49" s="226"/>
+      <c r="L49" s="225">
         <v>28</v>
       </c>
-      <c r="M49" s="240"/>
-      <c r="N49" s="240"/>
-      <c r="O49" s="240"/>
-      <c r="P49" s="240"/>
-      <c r="Q49" s="213">
+      <c r="M49" s="226"/>
+      <c r="N49" s="226"/>
+      <c r="O49" s="226"/>
+      <c r="P49" s="226"/>
+      <c r="Q49" s="225">
         <v>29</v>
       </c>
-      <c r="R49" s="240"/>
+      <c r="R49" s="226"/>
       <c r="S49" s="158">
         <v>30</v>
       </c>
-      <c r="T49" s="213">
+      <c r="T49" s="225">
         <v>31</v>
       </c>
-      <c r="U49" s="240"/>
-      <c r="V49" s="213">
+      <c r="U49" s="226"/>
+      <c r="V49" s="225">
         <v>32</v>
       </c>
-      <c r="W49" s="241"/>
+      <c r="W49" s="227"/>
       <c r="X49" s="152"/>
       <c r="Y49" s="129"/>
       <c r="Z49" s="129"/>
@@ -4661,24 +4661,24 @@
       <c r="C50" s="159"/>
       <c r="D50" s="159"/>
       <c r="E50" s="159"/>
-      <c r="F50" s="233"/>
-      <c r="G50" s="233"/>
-      <c r="H50" s="233"/>
-      <c r="I50" s="233"/>
-      <c r="J50" s="233"/>
-      <c r="K50" s="233"/>
-      <c r="L50" s="233"/>
-      <c r="M50" s="233"/>
-      <c r="N50" s="233"/>
-      <c r="O50" s="233"/>
-      <c r="P50" s="233"/>
-      <c r="Q50" s="233"/>
-      <c r="R50" s="233"/>
+      <c r="F50" s="269"/>
+      <c r="G50" s="269"/>
+      <c r="H50" s="269"/>
+      <c r="I50" s="269"/>
+      <c r="J50" s="269"/>
+      <c r="K50" s="269"/>
+      <c r="L50" s="269"/>
+      <c r="M50" s="269"/>
+      <c r="N50" s="269"/>
+      <c r="O50" s="269"/>
+      <c r="P50" s="269"/>
+      <c r="Q50" s="269"/>
+      <c r="R50" s="269"/>
       <c r="S50" s="159"/>
-      <c r="T50" s="233"/>
-      <c r="U50" s="233"/>
-      <c r="V50" s="233"/>
-      <c r="W50" s="233"/>
+      <c r="T50" s="269"/>
+      <c r="U50" s="269"/>
+      <c r="V50" s="269"/>
+      <c r="W50" s="269"/>
       <c r="X50" s="140"/>
       <c r="Y50" s="144"/>
       <c r="Z50" s="66"/>
@@ -4722,47 +4722,47 @@
       <c r="AE51" s="60"/>
     </row>
     <row r="52" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="213" t="s">
+      <c r="A52" s="225" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="240"/>
-      <c r="C52" s="240"/>
-      <c r="D52" s="240"/>
-      <c r="E52" s="213" t="s">
+      <c r="B52" s="226"/>
+      <c r="C52" s="226"/>
+      <c r="D52" s="226"/>
+      <c r="E52" s="225" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="240"/>
-      <c r="G52" s="213" t="s">
+      <c r="F52" s="226"/>
+      <c r="G52" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="240"/>
-      <c r="I52" s="213" t="s">
+      <c r="H52" s="226"/>
+      <c r="I52" s="225" t="s">
         <v>108</v>
       </c>
-      <c r="J52" s="240"/>
-      <c r="K52" s="240"/>
-      <c r="L52" s="213" t="s">
+      <c r="J52" s="226"/>
+      <c r="K52" s="226"/>
+      <c r="L52" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="M52" s="240"/>
-      <c r="N52" s="213" t="s">
+      <c r="M52" s="226"/>
+      <c r="N52" s="225" t="s">
         <v>110</v>
       </c>
-      <c r="O52" s="240"/>
-      <c r="P52" s="242" t="s">
+      <c r="O52" s="226"/>
+      <c r="P52" s="261" t="s">
         <v>151</v>
       </c>
-      <c r="Q52" s="243"/>
-      <c r="R52" s="243"/>
-      <c r="S52" s="244"/>
-      <c r="T52" s="245" t="s">
+      <c r="Q52" s="262"/>
+      <c r="R52" s="262"/>
+      <c r="S52" s="278"/>
+      <c r="T52" s="276" t="s">
         <v>152</v>
       </c>
-      <c r="U52" s="213" t="s">
+      <c r="U52" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="V52" s="240"/>
-      <c r="W52" s="213" t="s">
+      <c r="V52" s="226"/>
+      <c r="W52" s="225" t="s">
         <v>112</v>
       </c>
       <c r="X52" s="142"/>
@@ -4775,33 +4775,33 @@
       <c r="AE52" s="144"/>
     </row>
     <row r="53" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="214"/>
-      <c r="B53" s="225"/>
-      <c r="C53" s="225"/>
-      <c r="D53" s="225"/>
-      <c r="E53" s="214"/>
-      <c r="F53" s="225"/>
-      <c r="G53" s="214"/>
-      <c r="H53" s="225"/>
-      <c r="I53" s="214"/>
-      <c r="J53" s="225"/>
-      <c r="K53" s="225"/>
-      <c r="L53" s="214"/>
-      <c r="M53" s="225"/>
-      <c r="N53" s="214"/>
-      <c r="O53" s="225"/>
-      <c r="P53" s="213" t="s">
+      <c r="A53" s="243"/>
+      <c r="B53" s="210"/>
+      <c r="C53" s="210"/>
+      <c r="D53" s="210"/>
+      <c r="E53" s="243"/>
+      <c r="F53" s="210"/>
+      <c r="G53" s="243"/>
+      <c r="H53" s="210"/>
+      <c r="I53" s="243"/>
+      <c r="J53" s="210"/>
+      <c r="K53" s="210"/>
+      <c r="L53" s="243"/>
+      <c r="M53" s="210"/>
+      <c r="N53" s="243"/>
+      <c r="O53" s="210"/>
+      <c r="P53" s="225" t="s">
         <v>113</v>
       </c>
-      <c r="Q53" s="240"/>
-      <c r="R53" s="213" t="s">
+      <c r="Q53" s="226"/>
+      <c r="R53" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="S53" s="241"/>
-      <c r="T53" s="246"/>
-      <c r="U53" s="214"/>
-      <c r="V53" s="225"/>
-      <c r="W53" s="214"/>
+      <c r="S53" s="227"/>
+      <c r="T53" s="279"/>
+      <c r="U53" s="243"/>
+      <c r="V53" s="210"/>
+      <c r="W53" s="243"/>
       <c r="X53" s="142"/>
       <c r="Y53" s="79"/>
       <c r="Z53" s="79"/>
@@ -4812,46 +4812,46 @@
       <c r="AE53" s="79"/>
     </row>
     <row r="54" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="214"/>
-      <c r="B54" s="225"/>
-      <c r="C54" s="225"/>
-      <c r="D54" s="225"/>
-      <c r="E54" s="213">
+      <c r="A54" s="243"/>
+      <c r="B54" s="210"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="210"/>
+      <c r="E54" s="225">
         <v>33</v>
       </c>
-      <c r="F54" s="240"/>
-      <c r="G54" s="213">
+      <c r="F54" s="226"/>
+      <c r="G54" s="225">
         <v>34</v>
       </c>
-      <c r="H54" s="240"/>
-      <c r="I54" s="213">
+      <c r="H54" s="226"/>
+      <c r="I54" s="225">
         <v>35</v>
       </c>
-      <c r="J54" s="240"/>
-      <c r="K54" s="240"/>
-      <c r="L54" s="213">
+      <c r="J54" s="226"/>
+      <c r="K54" s="226"/>
+      <c r="L54" s="225">
         <v>36</v>
       </c>
-      <c r="M54" s="240"/>
-      <c r="N54" s="213">
+      <c r="M54" s="226"/>
+      <c r="N54" s="225">
         <v>37</v>
       </c>
-      <c r="O54" s="240"/>
-      <c r="P54" s="213">
+      <c r="O54" s="226"/>
+      <c r="P54" s="225">
         <v>38</v>
       </c>
-      <c r="Q54" s="240"/>
-      <c r="R54" s="213">
+      <c r="Q54" s="226"/>
+      <c r="R54" s="225">
         <v>39</v>
       </c>
-      <c r="S54" s="240"/>
+      <c r="S54" s="226"/>
       <c r="T54" s="161">
         <v>40</v>
       </c>
-      <c r="U54" s="213">
+      <c r="U54" s="225">
         <v>41</v>
       </c>
-      <c r="V54" s="240"/>
+      <c r="V54" s="226"/>
       <c r="W54" s="158">
         <v>42</v>
       </c>
@@ -4865,30 +4865,30 @@
       <c r="AE54" s="160"/>
     </row>
     <row r="55" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="236" t="s">
+      <c r="A55" s="282" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="237"/>
-      <c r="C55" s="237"/>
-      <c r="D55" s="238"/>
-      <c r="E55" s="233"/>
-      <c r="F55" s="233"/>
-      <c r="G55" s="233"/>
-      <c r="H55" s="233"/>
-      <c r="I55" s="233"/>
-      <c r="J55" s="233"/>
-      <c r="K55" s="233"/>
-      <c r="L55" s="233"/>
-      <c r="M55" s="233"/>
-      <c r="N55" s="233"/>
-      <c r="O55" s="233"/>
-      <c r="P55" s="233"/>
-      <c r="Q55" s="233"/>
-      <c r="R55" s="233"/>
-      <c r="S55" s="233"/>
+      <c r="B55" s="283"/>
+      <c r="C55" s="283"/>
+      <c r="D55" s="284"/>
+      <c r="E55" s="269"/>
+      <c r="F55" s="269"/>
+      <c r="G55" s="269"/>
+      <c r="H55" s="269"/>
+      <c r="I55" s="269"/>
+      <c r="J55" s="269"/>
+      <c r="K55" s="269"/>
+      <c r="L55" s="269"/>
+      <c r="M55" s="269"/>
+      <c r="N55" s="269"/>
+      <c r="O55" s="269"/>
+      <c r="P55" s="269"/>
+      <c r="Q55" s="269"/>
+      <c r="R55" s="269"/>
+      <c r="S55" s="269"/>
       <c r="T55" s="159"/>
-      <c r="U55" s="233"/>
-      <c r="V55" s="233"/>
+      <c r="U55" s="269"/>
+      <c r="V55" s="269"/>
       <c r="W55" s="159"/>
       <c r="X55" s="140"/>
       <c r="Y55" s="74"/>
@@ -4900,35 +4900,35 @@
       <c r="AE55" s="74"/>
     </row>
     <row r="56" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="236" t="s">
+      <c r="A56" s="282" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="237"/>
-      <c r="C56" s="237"/>
-      <c r="D56" s="238"/>
-      <c r="E56" s="233"/>
-      <c r="F56" s="233"/>
-      <c r="G56" s="233"/>
-      <c r="H56" s="233"/>
-      <c r="I56" s="233"/>
-      <c r="J56" s="233"/>
-      <c r="K56" s="233"/>
-      <c r="L56" s="233"/>
-      <c r="M56" s="233"/>
-      <c r="N56" s="233"/>
-      <c r="O56" s="233"/>
-      <c r="P56" s="233"/>
-      <c r="Q56" s="233"/>
-      <c r="R56" s="233"/>
-      <c r="S56" s="233"/>
+      <c r="B56" s="283"/>
+      <c r="C56" s="283"/>
+      <c r="D56" s="284"/>
+      <c r="E56" s="269"/>
+      <c r="F56" s="269"/>
+      <c r="G56" s="269"/>
+      <c r="H56" s="269"/>
+      <c r="I56" s="269"/>
+      <c r="J56" s="269"/>
+      <c r="K56" s="269"/>
+      <c r="L56" s="269"/>
+      <c r="M56" s="269"/>
+      <c r="N56" s="269"/>
+      <c r="O56" s="269"/>
+      <c r="P56" s="269"/>
+      <c r="Q56" s="269"/>
+      <c r="R56" s="269"/>
+      <c r="S56" s="269"/>
       <c r="T56" s="159"/>
-      <c r="U56" s="233"/>
-      <c r="V56" s="233"/>
+      <c r="U56" s="269"/>
+      <c r="V56" s="269"/>
       <c r="W56" s="159"/>
-      <c r="X56" s="239" t="s">
+      <c r="X56" s="280" t="s">
         <v>117</v>
       </c>
-      <c r="Y56" s="228"/>
+      <c r="Y56" s="281"/>
       <c r="Z56" s="164"/>
       <c r="AA56" s="164"/>
       <c r="AB56" s="164"/>
@@ -4937,43 +4937,43 @@
       <c r="AE56" s="164"/>
     </row>
     <row r="57" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="236" t="s">
+      <c r="A57" s="282" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="237"/>
-      <c r="C57" s="237"/>
-      <c r="D57" s="238"/>
-      <c r="E57" s="233"/>
-      <c r="F57" s="233"/>
-      <c r="G57" s="233"/>
-      <c r="H57" s="233"/>
-      <c r="I57" s="233"/>
-      <c r="J57" s="233"/>
-      <c r="K57" s="233"/>
-      <c r="L57" s="233"/>
-      <c r="M57" s="233"/>
-      <c r="N57" s="233"/>
-      <c r="O57" s="233"/>
-      <c r="P57" s="233"/>
-      <c r="Q57" s="233"/>
-      <c r="R57" s="233"/>
-      <c r="S57" s="233"/>
+      <c r="B57" s="283"/>
+      <c r="C57" s="283"/>
+      <c r="D57" s="284"/>
+      <c r="E57" s="269"/>
+      <c r="F57" s="269"/>
+      <c r="G57" s="269"/>
+      <c r="H57" s="269"/>
+      <c r="I57" s="269"/>
+      <c r="J57" s="269"/>
+      <c r="K57" s="269"/>
+      <c r="L57" s="269"/>
+      <c r="M57" s="269"/>
+      <c r="N57" s="269"/>
+      <c r="O57" s="269"/>
+      <c r="P57" s="269"/>
+      <c r="Q57" s="269"/>
+      <c r="R57" s="269"/>
+      <c r="S57" s="269"/>
       <c r="T57" s="159"/>
-      <c r="U57" s="233"/>
-      <c r="V57" s="233"/>
+      <c r="U57" s="269"/>
+      <c r="V57" s="269"/>
       <c r="W57" s="159"/>
       <c r="X57" s="165"/>
       <c r="Y57" s="166"/>
-      <c r="Z57" s="234" t="s">
+      <c r="Z57" s="221" t="s">
         <v>67</v>
       </c>
-      <c r="AA57" s="234"/>
-      <c r="AB57" s="234" t="s">
+      <c r="AA57" s="221"/>
+      <c r="AB57" s="221" t="s">
         <v>119</v>
       </c>
-      <c r="AC57" s="234"/>
-      <c r="AD57" s="234"/>
-      <c r="AE57" s="234"/>
+      <c r="AC57" s="221"/>
+      <c r="AD57" s="221"/>
+      <c r="AE57" s="221"/>
     </row>
     <row r="58" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94"/>
@@ -4993,14 +4993,14 @@
       <c r="O58" s="97"/>
       <c r="P58" s="97"/>
       <c r="Q58" s="97"/>
-      <c r="R58" s="235"/>
-      <c r="S58" s="235"/>
-      <c r="T58" s="235"/>
-      <c r="U58" s="235"/>
-      <c r="V58" s="235"/>
-      <c r="W58" s="235"/>
-      <c r="X58" s="235"/>
-      <c r="Y58" s="235"/>
+      <c r="R58" s="288"/>
+      <c r="S58" s="288"/>
+      <c r="T58" s="288"/>
+      <c r="U58" s="288"/>
+      <c r="V58" s="288"/>
+      <c r="W58" s="288"/>
+      <c r="X58" s="288"/>
+      <c r="Y58" s="288"/>
       <c r="Z58" s="167"/>
       <c r="AA58" s="167"/>
       <c r="AB58" s="60"/>
@@ -5029,15 +5029,15 @@
       <c r="R59" s="168"/>
       <c r="S59" s="60"/>
       <c r="T59" s="60"/>
-      <c r="U59" s="231" t="s">
+      <c r="U59" s="285" t="s">
         <v>120</v>
       </c>
-      <c r="V59" s="232"/>
-      <c r="W59" s="232"/>
-      <c r="X59" s="232"/>
-      <c r="Y59" s="232"/>
-      <c r="Z59" s="232"/>
-      <c r="AA59" s="232"/>
+      <c r="V59" s="286"/>
+      <c r="W59" s="286"/>
+      <c r="X59" s="286"/>
+      <c r="Y59" s="286"/>
+      <c r="Z59" s="286"/>
+      <c r="AA59" s="286"/>
       <c r="AB59" s="169"/>
       <c r="AC59" s="169"/>
       <c r="AD59" s="169"/>
@@ -5064,18 +5064,18 @@
       <c r="R60" s="168"/>
       <c r="S60" s="60"/>
       <c r="T60" s="60"/>
-      <c r="U60" s="231" t="s">
+      <c r="U60" s="285" t="s">
         <v>121</v>
       </c>
-      <c r="V60" s="232"/>
-      <c r="W60" s="232"/>
-      <c r="X60" s="232"/>
-      <c r="Y60" s="232"/>
-      <c r="Z60" s="232"/>
-      <c r="AA60" s="232"/>
-      <c r="AB60" s="232"/>
-      <c r="AC60" s="232"/>
-      <c r="AD60" s="232"/>
+      <c r="V60" s="286"/>
+      <c r="W60" s="286"/>
+      <c r="X60" s="286"/>
+      <c r="Y60" s="286"/>
+      <c r="Z60" s="286"/>
+      <c r="AA60" s="286"/>
+      <c r="AB60" s="286"/>
+      <c r="AC60" s="286"/>
+      <c r="AD60" s="286"/>
       <c r="AE60" s="60"/>
     </row>
     <row r="61" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5099,18 +5099,18 @@
       <c r="R61" s="60"/>
       <c r="S61" s="60"/>
       <c r="T61" s="60"/>
-      <c r="U61" s="231" t="s">
+      <c r="U61" s="285" t="s">
         <v>122</v>
       </c>
-      <c r="V61" s="232"/>
-      <c r="W61" s="232"/>
-      <c r="X61" s="232"/>
-      <c r="Y61" s="232"/>
-      <c r="Z61" s="232"/>
-      <c r="AA61" s="232"/>
-      <c r="AB61" s="232"/>
-      <c r="AC61" s="232"/>
-      <c r="AD61" s="232"/>
+      <c r="V61" s="286"/>
+      <c r="W61" s="286"/>
+      <c r="X61" s="286"/>
+      <c r="Y61" s="286"/>
+      <c r="Z61" s="286"/>
+      <c r="AA61" s="286"/>
+      <c r="AB61" s="286"/>
+      <c r="AC61" s="286"/>
+      <c r="AD61" s="286"/>
       <c r="AE61" s="60"/>
     </row>
     <row r="62" spans="1:32" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5206,11 +5206,11 @@
       <c r="U64" s="169"/>
       <c r="V64" s="169"/>
       <c r="W64" s="169"/>
-      <c r="X64" s="216" t="s">
+      <c r="X64" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="Y64" s="216"/>
-      <c r="Z64" s="216"/>
+      <c r="Y64" s="287"/>
+      <c r="Z64" s="287"/>
       <c r="AA64" s="169"/>
       <c r="AB64" s="174"/>
       <c r="AC64" s="175" t="s">
@@ -5222,33 +5222,33 @@
     </row>
     <row r="65" spans="1:32" ht="18.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="178"/>
-      <c r="B65" s="224" t="s">
+      <c r="B65" s="295" t="s">
         <v>179</v>
       </c>
-      <c r="C65" s="224"/>
-      <c r="D65" s="224"/>
-      <c r="E65" s="224"/>
-      <c r="F65" s="224"/>
-      <c r="G65" s="224"/>
-      <c r="H65" s="224"/>
-      <c r="I65" s="224"/>
-      <c r="J65" s="224"/>
-      <c r="K65" s="224"/>
-      <c r="L65" s="224"/>
-      <c r="M65" s="224"/>
-      <c r="N65" s="224"/>
-      <c r="O65" s="224"/>
-      <c r="P65" s="224"/>
-      <c r="Q65" s="224"/>
-      <c r="R65" s="224"/>
-      <c r="S65" s="224"/>
-      <c r="T65" s="224"/>
-      <c r="U65" s="224"/>
-      <c r="V65" s="224"/>
-      <c r="W65" s="224"/>
-      <c r="X65" s="224"/>
-      <c r="Y65" s="224"/>
-      <c r="Z65" s="224"/>
+      <c r="C65" s="295"/>
+      <c r="D65" s="295"/>
+      <c r="E65" s="295"/>
+      <c r="F65" s="295"/>
+      <c r="G65" s="295"/>
+      <c r="H65" s="295"/>
+      <c r="I65" s="295"/>
+      <c r="J65" s="295"/>
+      <c r="K65" s="295"/>
+      <c r="L65" s="295"/>
+      <c r="M65" s="295"/>
+      <c r="N65" s="295"/>
+      <c r="O65" s="295"/>
+      <c r="P65" s="295"/>
+      <c r="Q65" s="295"/>
+      <c r="R65" s="295"/>
+      <c r="S65" s="295"/>
+      <c r="T65" s="295"/>
+      <c r="U65" s="295"/>
+      <c r="V65" s="295"/>
+      <c r="W65" s="295"/>
+      <c r="X65" s="295"/>
+      <c r="Y65" s="295"/>
+      <c r="Z65" s="295"/>
       <c r="AA65" s="60"/>
       <c r="AB65" s="179"/>
       <c r="AC65" s="180"/>
@@ -5275,18 +5275,18 @@
       <c r="P66" s="60"/>
       <c r="Q66" s="60"/>
       <c r="R66" s="60"/>
-      <c r="S66" s="225"/>
-      <c r="T66" s="225"/>
+      <c r="S66" s="210"/>
+      <c r="T66" s="210"/>
       <c r="U66" s="60"/>
       <c r="V66" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="W66" s="226" t="s">
+      <c r="W66" s="296" t="s">
         <v>125</v>
       </c>
-      <c r="X66" s="227"/>
-      <c r="Y66" s="227"/>
-      <c r="Z66" s="227"/>
+      <c r="X66" s="297"/>
+      <c r="Y66" s="297"/>
+      <c r="Z66" s="297"/>
       <c r="AA66" s="60"/>
       <c r="AB66" s="183"/>
       <c r="AC66" s="184"/>
@@ -5317,10 +5317,10 @@
       <c r="T67" s="60"/>
       <c r="U67" s="60"/>
       <c r="V67" s="60"/>
-      <c r="W67" s="227"/>
-      <c r="X67" s="227"/>
-      <c r="Y67" s="227"/>
-      <c r="Z67" s="227"/>
+      <c r="W67" s="297"/>
+      <c r="X67" s="297"/>
+      <c r="Y67" s="297"/>
+      <c r="Z67" s="297"/>
       <c r="AA67" s="60"/>
       <c r="AB67" s="187"/>
       <c r="AC67" s="188"/>
@@ -5329,38 +5329,38 @@
       <c r="AF67" s="71"/>
     </row>
     <row r="68" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="215" t="s">
+      <c r="A68" s="290" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="215"/>
-      <c r="C68" s="215"/>
-      <c r="D68" s="215"/>
-      <c r="E68" s="219" t="s">
+      <c r="B68" s="290"/>
+      <c r="C68" s="290"/>
+      <c r="D68" s="290"/>
+      <c r="E68" s="289" t="s">
         <v>186</v>
       </c>
-      <c r="F68" s="228"/>
-      <c r="G68" s="228"/>
-      <c r="H68" s="228"/>
-      <c r="I68" s="228"/>
-      <c r="J68" s="228"/>
-      <c r="K68" s="228"/>
-      <c r="L68" s="228"/>
-      <c r="M68" s="228"/>
-      <c r="N68" s="228"/>
-      <c r="O68" s="228"/>
-      <c r="P68" s="228"/>
-      <c r="Q68" s="228"/>
-      <c r="R68" s="228"/>
-      <c r="S68" s="229"/>
-      <c r="T68" s="229"/>
-      <c r="U68" s="229"/>
-      <c r="V68" s="229"/>
-      <c r="W68" s="228"/>
-      <c r="X68" s="230"/>
-      <c r="Y68" s="216" t="s">
+      <c r="F68" s="281"/>
+      <c r="G68" s="281"/>
+      <c r="H68" s="281"/>
+      <c r="I68" s="281"/>
+      <c r="J68" s="281"/>
+      <c r="K68" s="281"/>
+      <c r="L68" s="281"/>
+      <c r="M68" s="281"/>
+      <c r="N68" s="281"/>
+      <c r="O68" s="281"/>
+      <c r="P68" s="281"/>
+      <c r="Q68" s="281"/>
+      <c r="R68" s="281"/>
+      <c r="S68" s="298"/>
+      <c r="T68" s="298"/>
+      <c r="U68" s="298"/>
+      <c r="V68" s="298"/>
+      <c r="W68" s="281"/>
+      <c r="X68" s="299"/>
+      <c r="Y68" s="287" t="s">
         <v>127</v>
       </c>
-      <c r="Z68" s="216"/>
+      <c r="Z68" s="287"/>
       <c r="AA68" s="60"/>
       <c r="AB68" s="183"/>
       <c r="AC68" s="185"/>
@@ -5369,10 +5369,10 @@
       <c r="AF68" s="71"/>
     </row>
     <row r="69" spans="1:32" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="219"/>
-      <c r="B69" s="219"/>
-      <c r="C69" s="219"/>
-      <c r="D69" s="219"/>
+      <c r="A69" s="289"/>
+      <c r="B69" s="289"/>
+      <c r="C69" s="289"/>
+      <c r="D69" s="289"/>
       <c r="E69" s="190"/>
       <c r="F69" s="94"/>
       <c r="G69" s="94"/>
@@ -5405,36 +5405,36 @@
       <c r="AF69" s="71"/>
     </row>
     <row r="70" spans="1:32" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="215" t="s">
+      <c r="A70" s="290" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="215"/>
-      <c r="C70" s="215"/>
-      <c r="D70" s="215"/>
-      <c r="E70" s="220"/>
-      <c r="F70" s="221"/>
-      <c r="G70" s="221"/>
-      <c r="H70" s="221"/>
-      <c r="I70" s="221"/>
-      <c r="J70" s="221"/>
-      <c r="K70" s="222"/>
-      <c r="L70" s="222"/>
-      <c r="M70" s="222"/>
-      <c r="N70" s="222"/>
-      <c r="O70" s="222"/>
-      <c r="P70" s="222"/>
-      <c r="Q70" s="222"/>
-      <c r="R70" s="222"/>
-      <c r="S70" s="222"/>
-      <c r="T70" s="222"/>
-      <c r="U70" s="221"/>
-      <c r="V70" s="221"/>
-      <c r="W70" s="223"/>
-      <c r="X70" s="223"/>
-      <c r="Y70" s="216" t="s">
+      <c r="B70" s="290"/>
+      <c r="C70" s="290"/>
+      <c r="D70" s="290"/>
+      <c r="E70" s="291"/>
+      <c r="F70" s="292"/>
+      <c r="G70" s="292"/>
+      <c r="H70" s="292"/>
+      <c r="I70" s="292"/>
+      <c r="J70" s="292"/>
+      <c r="K70" s="293"/>
+      <c r="L70" s="293"/>
+      <c r="M70" s="293"/>
+      <c r="N70" s="293"/>
+      <c r="O70" s="293"/>
+      <c r="P70" s="293"/>
+      <c r="Q70" s="293"/>
+      <c r="R70" s="293"/>
+      <c r="S70" s="293"/>
+      <c r="T70" s="293"/>
+      <c r="U70" s="292"/>
+      <c r="V70" s="292"/>
+      <c r="W70" s="294"/>
+      <c r="X70" s="294"/>
+      <c r="Y70" s="287" t="s">
         <v>127</v>
       </c>
-      <c r="Z70" s="216"/>
+      <c r="Z70" s="287"/>
       <c r="AA70" s="60"/>
       <c r="AB70" s="183"/>
       <c r="AC70" s="185"/>
@@ -5469,8 +5469,8 @@
       <c r="V71" s="94"/>
       <c r="W71" s="193"/>
       <c r="X71" s="193"/>
-      <c r="Y71" s="216"/>
-      <c r="Z71" s="216"/>
+      <c r="Y71" s="287"/>
+      <c r="Z71" s="287"/>
       <c r="AA71" s="60"/>
       <c r="AB71" s="187"/>
       <c r="AC71" s="188"/>
@@ -5479,36 +5479,36 @@
       <c r="AF71" s="71"/>
     </row>
     <row r="72" spans="1:32" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="215" t="s">
+      <c r="A72" s="290" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="215"/>
-      <c r="C72" s="215"/>
+      <c r="B72" s="290"/>
+      <c r="C72" s="290"/>
       <c r="D72" s="197"/>
-      <c r="E72" s="217"/>
-      <c r="F72" s="217"/>
-      <c r="G72" s="217"/>
-      <c r="H72" s="217"/>
-      <c r="I72" s="217"/>
-      <c r="J72" s="217"/>
-      <c r="K72" s="217"/>
-      <c r="L72" s="217"/>
-      <c r="M72" s="217"/>
-      <c r="N72" s="217"/>
-      <c r="O72" s="217"/>
-      <c r="P72" s="217"/>
-      <c r="Q72" s="217"/>
-      <c r="R72" s="217"/>
-      <c r="S72" s="217"/>
-      <c r="T72" s="217"/>
-      <c r="U72" s="217"/>
-      <c r="V72" s="217"/>
-      <c r="W72" s="217"/>
-      <c r="X72" s="217"/>
-      <c r="Y72" s="216" t="s">
+      <c r="E72" s="304"/>
+      <c r="F72" s="304"/>
+      <c r="G72" s="304"/>
+      <c r="H72" s="304"/>
+      <c r="I72" s="304"/>
+      <c r="J72" s="304"/>
+      <c r="K72" s="304"/>
+      <c r="L72" s="304"/>
+      <c r="M72" s="304"/>
+      <c r="N72" s="304"/>
+      <c r="O72" s="304"/>
+      <c r="P72" s="304"/>
+      <c r="Q72" s="304"/>
+      <c r="R72" s="304"/>
+      <c r="S72" s="304"/>
+      <c r="T72" s="304"/>
+      <c r="U72" s="304"/>
+      <c r="V72" s="304"/>
+      <c r="W72" s="304"/>
+      <c r="X72" s="304"/>
+      <c r="Y72" s="287" t="s">
         <v>127</v>
       </c>
-      <c r="Z72" s="216"/>
+      <c r="Z72" s="287"/>
       <c r="AA72" s="60"/>
       <c r="AB72" s="198"/>
       <c r="AC72" s="199"/>
@@ -5552,231 +5552,410 @@
       <c r="AE73" s="126"/>
     </row>
     <row r="74" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="218" t="s">
+      <c r="A74" s="206" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="218"/>
-      <c r="C74" s="218"/>
-      <c r="D74" s="218"/>
-      <c r="E74" s="218"/>
-      <c r="F74" s="218"/>
-      <c r="G74" s="218"/>
-      <c r="H74" s="218"/>
-      <c r="I74" s="218"/>
-      <c r="J74" s="218"/>
-      <c r="K74" s="218"/>
-      <c r="L74" s="218"/>
-      <c r="M74" s="218"/>
-      <c r="N74" s="218"/>
-      <c r="O74" s="218"/>
-      <c r="P74" s="218"/>
-      <c r="Q74" s="218"/>
-      <c r="R74" s="218"/>
-      <c r="S74" s="218"/>
-      <c r="T74" s="218"/>
-      <c r="U74" s="218"/>
-      <c r="V74" s="218"/>
-      <c r="W74" s="218"/>
-      <c r="X74" s="218"/>
-      <c r="Y74" s="218"/>
-      <c r="Z74" s="218"/>
-      <c r="AA74" s="218"/>
-      <c r="AB74" s="218"/>
-      <c r="AC74" s="218"/>
-      <c r="AD74" s="218"/>
-      <c r="AE74" s="218"/>
+      <c r="B74" s="206"/>
+      <c r="C74" s="206"/>
+      <c r="D74" s="206"/>
+      <c r="E74" s="206"/>
+      <c r="F74" s="206"/>
+      <c r="G74" s="206"/>
+      <c r="H74" s="206"/>
+      <c r="I74" s="206"/>
+      <c r="J74" s="206"/>
+      <c r="K74" s="206"/>
+      <c r="L74" s="206"/>
+      <c r="M74" s="206"/>
+      <c r="N74" s="206"/>
+      <c r="O74" s="206"/>
+      <c r="P74" s="206"/>
+      <c r="Q74" s="206"/>
+      <c r="R74" s="206"/>
+      <c r="S74" s="206"/>
+      <c r="T74" s="206"/>
+      <c r="U74" s="206"/>
+      <c r="V74" s="206"/>
+      <c r="W74" s="206"/>
+      <c r="X74" s="206"/>
+      <c r="Y74" s="206"/>
+      <c r="Z74" s="206"/>
+      <c r="AA74" s="206"/>
+      <c r="AB74" s="206"/>
+      <c r="AC74" s="206"/>
+      <c r="AD74" s="206"/>
+      <c r="AE74" s="206"/>
     </row>
     <row r="75" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="213" t="s">
+      <c r="A75" s="225" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="207" t="s">
+      <c r="B75" s="300" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="208"/>
-      <c r="D75" s="208"/>
-      <c r="E75" s="208"/>
-      <c r="F75" s="207" t="s">
+      <c r="C75" s="301"/>
+      <c r="D75" s="301"/>
+      <c r="E75" s="301"/>
+      <c r="F75" s="300" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="208"/>
-      <c r="H75" s="208"/>
-      <c r="I75" s="208"/>
-      <c r="J75" s="207" t="s">
+      <c r="G75" s="301"/>
+      <c r="H75" s="301"/>
+      <c r="I75" s="301"/>
+      <c r="J75" s="300" t="s">
         <v>50</v>
       </c>
-      <c r="K75" s="208"/>
-      <c r="L75" s="207" t="s">
+      <c r="K75" s="301"/>
+      <c r="L75" s="300" t="s">
         <v>135</v>
       </c>
-      <c r="M75" s="208"/>
-      <c r="N75" s="207" t="s">
+      <c r="M75" s="301"/>
+      <c r="N75" s="300" t="s">
         <v>136</v>
       </c>
-      <c r="O75" s="208"/>
-      <c r="P75" s="208"/>
-      <c r="Q75" s="208"/>
-      <c r="R75" s="208"/>
-      <c r="S75" s="208"/>
+      <c r="O75" s="301"/>
+      <c r="P75" s="301"/>
+      <c r="Q75" s="301"/>
+      <c r="R75" s="301"/>
+      <c r="S75" s="301"/>
       <c r="T75" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="U75" s="207" t="s">
+      <c r="U75" s="300" t="s">
         <v>138</v>
       </c>
-      <c r="V75" s="208"/>
-      <c r="W75" s="207" t="s">
+      <c r="V75" s="301"/>
+      <c r="W75" s="300" t="s">
         <v>48</v>
       </c>
-      <c r="X75" s="208"/>
-      <c r="Y75" s="207" t="s">
+      <c r="X75" s="301"/>
+      <c r="Y75" s="300" t="s">
         <v>139</v>
       </c>
-      <c r="Z75" s="208"/>
-      <c r="AA75" s="207" t="s">
+      <c r="Z75" s="301"/>
+      <c r="AA75" s="300" t="s">
         <v>140</v>
       </c>
-      <c r="AB75" s="208"/>
-      <c r="AC75" s="208"/>
-      <c r="AD75" s="207" t="s">
+      <c r="AB75" s="301"/>
+      <c r="AC75" s="301"/>
+      <c r="AD75" s="300" t="s">
         <v>141</v>
       </c>
-      <c r="AE75" s="208"/>
+      <c r="AE75" s="301"/>
       <c r="AF75" s="127"/>
     </row>
     <row r="76" spans="1:32" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="214"/>
-      <c r="B76" s="209"/>
-      <c r="C76" s="210"/>
-      <c r="D76" s="210"/>
-      <c r="E76" s="210"/>
-      <c r="F76" s="209"/>
-      <c r="G76" s="210"/>
-      <c r="H76" s="210"/>
-      <c r="I76" s="210"/>
-      <c r="J76" s="209"/>
-      <c r="K76" s="210"/>
-      <c r="L76" s="207" t="s">
+      <c r="A76" s="243"/>
+      <c r="B76" s="302"/>
+      <c r="C76" s="303"/>
+      <c r="D76" s="303"/>
+      <c r="E76" s="303"/>
+      <c r="F76" s="302"/>
+      <c r="G76" s="303"/>
+      <c r="H76" s="303"/>
+      <c r="I76" s="303"/>
+      <c r="J76" s="302"/>
+      <c r="K76" s="303"/>
+      <c r="L76" s="300" t="s">
         <v>142</v>
       </c>
-      <c r="M76" s="208"/>
-      <c r="N76" s="207"/>
-      <c r="O76" s="208"/>
-      <c r="P76" s="208"/>
-      <c r="Q76" s="208"/>
-      <c r="R76" s="208"/>
-      <c r="S76" s="208"/>
+      <c r="M76" s="301"/>
+      <c r="N76" s="300"/>
+      <c r="O76" s="301"/>
+      <c r="P76" s="301"/>
+      <c r="Q76" s="301"/>
+      <c r="R76" s="301"/>
+      <c r="S76" s="301"/>
       <c r="T76" s="202" t="s">
         <v>143</v>
       </c>
-      <c r="U76" s="207" t="s">
+      <c r="U76" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="V76" s="208"/>
-      <c r="W76" s="207" t="s">
+      <c r="V76" s="301"/>
+      <c r="W76" s="300" t="s">
         <v>52</v>
       </c>
-      <c r="X76" s="208"/>
-      <c r="Y76" s="207" t="s">
+      <c r="X76" s="301"/>
+      <c r="Y76" s="300" t="s">
         <v>145</v>
       </c>
-      <c r="Z76" s="208"/>
-      <c r="AA76" s="207" t="s">
+      <c r="Z76" s="301"/>
+      <c r="AA76" s="300" t="s">
         <v>146</v>
       </c>
-      <c r="AB76" s="208"/>
-      <c r="AC76" s="211"/>
-      <c r="AD76" s="209"/>
-      <c r="AE76" s="210"/>
+      <c r="AB76" s="301"/>
+      <c r="AC76" s="307"/>
+      <c r="AD76" s="302"/>
+      <c r="AE76" s="303"/>
       <c r="AF76" s="127"/>
     </row>
     <row r="77" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="203">
         <v>1</v>
       </c>
-      <c r="B77" s="205">
+      <c r="B77" s="305">
         <v>2</v>
       </c>
-      <c r="C77" s="206"/>
-      <c r="D77" s="206"/>
-      <c r="E77" s="206"/>
-      <c r="F77" s="205">
+      <c r="C77" s="306"/>
+      <c r="D77" s="306"/>
+      <c r="E77" s="306"/>
+      <c r="F77" s="305">
         <v>3</v>
       </c>
-      <c r="G77" s="206"/>
-      <c r="H77" s="206"/>
-      <c r="I77" s="206"/>
-      <c r="J77" s="205">
+      <c r="G77" s="306"/>
+      <c r="H77" s="306"/>
+      <c r="I77" s="306"/>
+      <c r="J77" s="305">
         <v>4</v>
       </c>
-      <c r="K77" s="206"/>
-      <c r="L77" s="205">
+      <c r="K77" s="306"/>
+      <c r="L77" s="305">
         <v>5</v>
       </c>
-      <c r="M77" s="206"/>
-      <c r="N77" s="205">
+      <c r="M77" s="306"/>
+      <c r="N77" s="305">
         <v>6</v>
       </c>
-      <c r="O77" s="206"/>
-      <c r="P77" s="206"/>
-      <c r="Q77" s="206"/>
-      <c r="R77" s="206"/>
-      <c r="S77" s="206"/>
+      <c r="O77" s="306"/>
+      <c r="P77" s="306"/>
+      <c r="Q77" s="306"/>
+      <c r="R77" s="306"/>
+      <c r="S77" s="306"/>
       <c r="T77" s="203">
         <v>7</v>
       </c>
-      <c r="U77" s="205">
+      <c r="U77" s="305">
         <v>8</v>
       </c>
-      <c r="V77" s="206"/>
-      <c r="W77" s="205">
+      <c r="V77" s="306"/>
+      <c r="W77" s="305">
         <v>9</v>
       </c>
-      <c r="X77" s="206"/>
-      <c r="Y77" s="205">
+      <c r="X77" s="306"/>
+      <c r="Y77" s="305">
         <v>10</v>
       </c>
-      <c r="Z77" s="206"/>
-      <c r="AA77" s="205">
+      <c r="Z77" s="306"/>
+      <c r="AA77" s="305">
         <v>11</v>
       </c>
-      <c r="AB77" s="206"/>
-      <c r="AC77" s="206"/>
-      <c r="AD77" s="205">
+      <c r="AB77" s="306"/>
+      <c r="AC77" s="306"/>
+      <c r="AD77" s="305">
         <v>12</v>
       </c>
-      <c r="AE77" s="212"/>
+      <c r="AE77" s="308"/>
       <c r="AF77" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="A2:AE2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="B5:AA5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:V11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:Z13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:AB9"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:S77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="AA75:AC75"/>
+    <mergeCell ref="AD75:AE76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="AA77:AC77"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:E76"/>
+    <mergeCell ref="F75:I76"/>
+    <mergeCell ref="J75:K76"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:S76"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="E72:X72"/>
+    <mergeCell ref="A74:AE74"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:X70"/>
+    <mergeCell ref="Y70:Z71"/>
+    <mergeCell ref="B65:Z65"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="W66:Z67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="U60:AD60"/>
+    <mergeCell ref="U61:AD61"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AE57"/>
+    <mergeCell ref="R58:Y58"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="X56:Y56"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A52:D54"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:K53"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:V53"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="A45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:P48"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="Q47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:U48"/>
+    <mergeCell ref="V47:W48"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="A38:AE38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:K40"/>
+    <mergeCell ref="L39:P40"/>
+    <mergeCell ref="Q39:U39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AB40"/>
+    <mergeCell ref="AC39:AE40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J32:L33"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="W26:AB27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
     <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:Y23"/>
@@ -5800,212 +5979,33 @@
     <mergeCell ref="R23:T23"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="W26:AB27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J32:L33"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="A38:AE38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:K40"/>
-    <mergeCell ref="L39:P40"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="Z39:AB40"/>
-    <mergeCell ref="AC39:AE40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="A45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:P48"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="Q47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:U48"/>
-    <mergeCell ref="V47:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A52:D54"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:K53"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="U52:V53"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="U60:AD60"/>
-    <mergeCell ref="U61:AD61"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AE57"/>
-    <mergeCell ref="R58:Y58"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:X70"/>
-    <mergeCell ref="Y70:Z71"/>
-    <mergeCell ref="B65:Z65"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="W66:Z67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:X68"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:E76"/>
-    <mergeCell ref="F75:I76"/>
-    <mergeCell ref="J75:K76"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:S76"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="Y72:Z72"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="E72:X72"/>
-    <mergeCell ref="A74:AE74"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:S77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="AA75:AC75"/>
-    <mergeCell ref="AD75:AE76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="W77:X77"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="AA77:AC77"/>
-    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="B5:AA5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:V11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:AB9"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -6047,56 +6047,56 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="334" t="s">
+      <c r="T1" s="312" t="s">
         <v>154</v>
       </c>
-      <c r="U1" s="334"/>
-      <c r="V1" s="334"/>
-      <c r="W1" s="334"/>
-      <c r="X1" s="334"/>
+      <c r="U1" s="312"/>
+      <c r="V1" s="312"/>
+      <c r="W1" s="312"/>
+      <c r="X1" s="312"/>
       <c r="Y1" s="46" t="s">
         <v>160</v>
       </c>
       <c r="Z1" s="47"/>
-      <c r="AA1" s="340"/>
-      <c r="AB1" s="341"/>
-      <c r="AC1" s="342"/>
+      <c r="AA1" s="320"/>
+      <c r="AB1" s="321"/>
+      <c r="AC1" s="322"/>
       <c r="AD1" s="56"/>
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="330" t="s">
+      <c r="A2" s="313" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="330"/>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="330"/>
-      <c r="F2" s="330"/>
-      <c r="G2" s="330"/>
-      <c r="H2" s="330"/>
-      <c r="I2" s="330"/>
-      <c r="J2" s="330"/>
-      <c r="K2" s="330"/>
-      <c r="L2" s="330"/>
-      <c r="M2" s="330"/>
-      <c r="N2" s="330"/>
-      <c r="O2" s="330"/>
-      <c r="P2" s="330"/>
-      <c r="Q2" s="330"/>
-      <c r="R2" s="330"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="313"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+      <c r="P2" s="313"/>
+      <c r="Q2" s="313"/>
+      <c r="R2" s="313"/>
       <c r="S2" s="2">
         <v>1</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="U2" s="335" t="s">
+      <c r="U2" s="314" t="s">
         <v>157</v>
       </c>
-      <c r="V2" s="335"/>
-      <c r="W2" s="330"/>
-      <c r="X2" s="330"/>
+      <c r="V2" s="314"/>
+      <c r="W2" s="313"/>
+      <c r="X2" s="313"/>
       <c r="Y2" s="49"/>
       <c r="Z2" s="50"/>
       <c r="AA2" s="55"/>
@@ -6106,10 +6106,10 @@
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="315" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="336"/>
+      <c r="B3" s="315"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -6127,13 +6127,13 @@
       <c r="Q3" s="44"/>
       <c r="R3" s="44"/>
       <c r="S3" s="45"/>
-      <c r="T3" s="335" t="s">
+      <c r="T3" s="314" t="s">
         <v>159</v>
       </c>
-      <c r="U3" s="335"/>
-      <c r="V3" s="335"/>
-      <c r="W3" s="336"/>
-      <c r="X3" s="336"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="315"/>
+      <c r="X3" s="315"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="53"/>
       <c r="AA3" s="51"/>
@@ -6160,38 +6160,38 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="337"/>
-      <c r="S4" s="337"/>
+      <c r="R4" s="317"/>
+      <c r="S4" s="317"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="338"/>
-      <c r="Z4" s="338"/>
-      <c r="AA4" s="332"/>
-      <c r="AB4" s="332"/>
-      <c r="AC4" s="332"/>
+      <c r="Y4" s="318"/>
+      <c r="Z4" s="318"/>
+      <c r="AA4" s="309"/>
+      <c r="AB4" s="309"/>
+      <c r="AC4" s="309"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:31" ht="10.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="323" t="s">
+      <c r="A5" s="316" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="323"/>
-      <c r="C5" s="323"/>
+      <c r="B5" s="316"/>
+      <c r="C5" s="316"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="309" t="s">
+      <c r="J5" s="311" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="309"/>
-      <c r="L5" s="309"/>
+      <c r="K5" s="311"/>
+      <c r="L5" s="311"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="8"/>
@@ -6204,11 +6204,11 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="339"/>
-      <c r="Z5" s="339"/>
-      <c r="AA5" s="333"/>
-      <c r="AB5" s="333"/>
-      <c r="AC5" s="333"/>
+      <c r="Y5" s="319"/>
+      <c r="Z5" s="319"/>
+      <c r="AA5" s="310"/>
+      <c r="AB5" s="310"/>
+      <c r="AC5" s="310"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
     </row>
@@ -6241,19 +6241,19 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="330"/>
-      <c r="Z6" s="331"/>
-      <c r="AA6" s="330"/>
-      <c r="AB6" s="331"/>
-      <c r="AC6" s="331"/>
+      <c r="Y6" s="313"/>
+      <c r="Z6" s="329"/>
+      <c r="AA6" s="313"/>
+      <c r="AB6" s="329"/>
+      <c r="AC6" s="329"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:31" ht="8.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="328" t="s">
+      <c r="A7" s="326" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="328"/>
+      <c r="B7" s="326"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -6261,11 +6261,11 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="309" t="s">
+      <c r="J7" s="311" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="309"/>
-      <c r="L7" s="309"/>
+      <c r="K7" s="311"/>
+      <c r="L7" s="311"/>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="17"/>
@@ -6278,11 +6278,11 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Y7" s="331"/>
-      <c r="Z7" s="331"/>
-      <c r="AA7" s="331"/>
-      <c r="AB7" s="331"/>
-      <c r="AC7" s="331"/>
+      <c r="Y7" s="329"/>
+      <c r="Z7" s="329"/>
+      <c r="AA7" s="329"/>
+      <c r="AB7" s="329"/>
+      <c r="AC7" s="329"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
     </row>
@@ -6315,29 +6315,29 @@
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
       <c r="X8" s="19"/>
-      <c r="Y8" s="322"/>
-      <c r="Z8" s="322"/>
-      <c r="AA8" s="326"/>
-      <c r="AB8" s="326"/>
-      <c r="AC8" s="326"/>
+      <c r="Y8" s="323"/>
+      <c r="Z8" s="323"/>
+      <c r="AA8" s="324"/>
+      <c r="AB8" s="324"/>
+      <c r="AC8" s="324"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
     </row>
     <row r="9" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="323" t="s">
+      <c r="A9" s="316" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="327"/>
-      <c r="C9" s="327"/>
-      <c r="D9" s="328"/>
-      <c r="E9" s="328"/>
+      <c r="B9" s="325"/>
+      <c r="C9" s="325"/>
+      <c r="D9" s="326"/>
+      <c r="E9" s="326"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="324" t="s">
+      <c r="I9" s="327" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="329"/>
+      <c r="J9" s="328"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="22"/>
@@ -6368,11 +6368,11 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="318" t="s">
+      <c r="F10" s="338" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="318"/>
-      <c r="H10" s="318"/>
+      <c r="G10" s="338"/>
+      <c r="H10" s="338"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
@@ -6398,25 +6398,25 @@
       <c r="AE10" s="4"/>
     </row>
     <row r="11" spans="1:31" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="323" t="s">
+      <c r="A11" s="316" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="323"/>
-      <c r="C11" s="324"/>
-      <c r="D11" s="324"/>
-      <c r="E11" s="324"/>
-      <c r="F11" s="324"/>
-      <c r="G11" s="324"/>
-      <c r="H11" s="324"/>
-      <c r="I11" s="324"/>
-      <c r="J11" s="324"/>
-      <c r="K11" s="324"/>
-      <c r="L11" s="324"/>
-      <c r="M11" s="324"/>
-      <c r="N11" s="324"/>
-      <c r="O11" s="324"/>
-      <c r="P11" s="324"/>
-      <c r="Q11" s="324"/>
+      <c r="B11" s="316"/>
+      <c r="C11" s="327"/>
+      <c r="D11" s="327"/>
+      <c r="E11" s="327"/>
+      <c r="F11" s="327"/>
+      <c r="G11" s="327"/>
+      <c r="H11" s="327"/>
+      <c r="I11" s="327"/>
+      <c r="J11" s="327"/>
+      <c r="K11" s="327"/>
+      <c r="L11" s="327"/>
+      <c r="M11" s="327"/>
+      <c r="N11" s="327"/>
+      <c r="O11" s="327"/>
+      <c r="P11" s="327"/>
+      <c r="Q11" s="327"/>
       <c r="R11" s="26"/>
       <c r="S11" s="18" t="s">
         <v>168</v>
@@ -6455,10 +6455,10 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="26"/>
-      <c r="S12" s="324" t="s">
+      <c r="S12" s="327" t="s">
         <v>169</v>
       </c>
-      <c r="T12" s="324"/>
+      <c r="T12" s="327"/>
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
       <c r="W12" s="32"/>
@@ -6483,11 +6483,11 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="311" t="s">
+      <c r="L13" s="342" t="s">
         <v>183</v>
       </c>
-      <c r="M13" s="311"/>
-      <c r="N13" s="311"/>
+      <c r="M13" s="342"/>
+      <c r="N13" s="342"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -6513,27 +6513,27 @@
       <c r="AE13" s="19"/>
     </row>
     <row r="14" spans="1:31" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="313" t="s">
+      <c r="A14" s="330" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="313"/>
-      <c r="C14" s="313"/>
-      <c r="D14" s="314" t="s">
+      <c r="B14" s="330"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="331" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="314"/>
-      <c r="F14" s="312"/>
-      <c r="G14" s="312"/>
-      <c r="H14" s="310" t="s">
+      <c r="E14" s="331"/>
+      <c r="F14" s="332"/>
+      <c r="G14" s="332"/>
+      <c r="H14" s="333" t="s">
         <v>171</v>
       </c>
-      <c r="I14" s="310"/>
-      <c r="J14" s="310"/>
+      <c r="I14" s="333"/>
+      <c r="J14" s="333"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="313" t="s">
+      <c r="L14" s="330" t="s">
         <v>184</v>
       </c>
-      <c r="M14" s="313"/>
+      <c r="M14" s="330"/>
       <c r="N14" s="58"/>
       <c r="O14" s="59"/>
       <c r="P14" s="204" t="s">
@@ -6541,16 +6541,16 @@
       </c>
       <c r="Q14" s="57"/>
       <c r="R14" s="26"/>
-      <c r="S14" s="325"/>
-      <c r="T14" s="325"/>
-      <c r="U14" s="325"/>
-      <c r="V14" s="325"/>
-      <c r="W14" s="325"/>
-      <c r="X14" s="325"/>
-      <c r="Y14" s="325"/>
-      <c r="Z14" s="325"/>
-      <c r="AA14" s="325"/>
-      <c r="AB14" s="325"/>
+      <c r="S14" s="334"/>
+      <c r="T14" s="334"/>
+      <c r="U14" s="334"/>
+      <c r="V14" s="334"/>
+      <c r="W14" s="334"/>
+      <c r="X14" s="334"/>
+      <c r="Y14" s="334"/>
+      <c r="Z14" s="334"/>
+      <c r="AA14" s="334"/>
+      <c r="AB14" s="334"/>
       <c r="AC14" s="22"/>
       <c r="AD14" s="22"/>
       <c r="AE14" s="4"/>
@@ -6573,8 +6573,8 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="321"/>
-      <c r="M15" s="321"/>
+      <c r="L15" s="341"/>
+      <c r="M15" s="341"/>
       <c r="N15" s="12" t="s">
         <v>172</v>
       </c>
@@ -6584,18 +6584,18 @@
       </c>
       <c r="Q15" s="34"/>
       <c r="R15" s="26"/>
-      <c r="S15" s="322" t="s">
+      <c r="S15" s="323" t="s">
         <v>174</v>
       </c>
-      <c r="T15" s="322"/>
-      <c r="U15" s="322"/>
-      <c r="V15" s="322"/>
-      <c r="W15" s="322"/>
-      <c r="X15" s="322"/>
-      <c r="Y15" s="322"/>
-      <c r="Z15" s="322"/>
-      <c r="AA15" s="322"/>
-      <c r="AB15" s="322"/>
+      <c r="T15" s="323"/>
+      <c r="U15" s="323"/>
+      <c r="V15" s="323"/>
+      <c r="W15" s="323"/>
+      <c r="X15" s="323"/>
+      <c r="Y15" s="323"/>
+      <c r="Z15" s="323"/>
+      <c r="AA15" s="323"/>
+      <c r="AB15" s="323"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
@@ -6634,20 +6634,20 @@
       <c r="AE16" s="4"/>
     </row>
     <row r="17" spans="1:31" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="313" t="s">
+      <c r="A17" s="330" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="313"/>
-      <c r="C17" s="313"/>
-      <c r="D17" s="314" t="s">
+      <c r="B17" s="330"/>
+      <c r="C17" s="330"/>
+      <c r="D17" s="331" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="314"/>
-      <c r="F17" s="312"/>
-      <c r="G17" s="312"/>
-      <c r="H17" s="310"/>
-      <c r="I17" s="310"/>
-      <c r="J17" s="310"/>
+      <c r="E17" s="331"/>
+      <c r="F17" s="332"/>
+      <c r="G17" s="332"/>
+      <c r="H17" s="333"/>
+      <c r="I17" s="333"/>
+      <c r="J17" s="333"/>
       <c r="K17" s="40"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -6656,14 +6656,14 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="319" t="s">
+      <c r="S17" s="339" t="s">
         <v>176</v>
       </c>
-      <c r="T17" s="319"/>
-      <c r="U17" s="317"/>
-      <c r="V17" s="320"/>
-      <c r="W17" s="317"/>
-      <c r="X17" s="317"/>
+      <c r="T17" s="339"/>
+      <c r="U17" s="337"/>
+      <c r="V17" s="340"/>
+      <c r="W17" s="337"/>
+      <c r="X17" s="337"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="5"/>
@@ -6718,11 +6718,11 @@
       <c r="AE18" s="4"/>
     </row>
     <row r="19" spans="1:31" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="311"/>
-      <c r="B19" s="311"/>
-      <c r="C19" s="311"/>
-      <c r="D19" s="312"/>
-      <c r="E19" s="312"/>
+      <c r="A19" s="342"/>
+      <c r="B19" s="342"/>
+      <c r="C19" s="342"/>
+      <c r="D19" s="332"/>
+      <c r="E19" s="332"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -6738,14 +6738,14 @@
       <c r="R19" s="26"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
-      <c r="U19" s="315"/>
-      <c r="V19" s="315"/>
-      <c r="W19" s="316"/>
-      <c r="X19" s="316"/>
-      <c r="Y19" s="316"/>
-      <c r="Z19" s="316"/>
-      <c r="AA19" s="316"/>
-      <c r="AB19" s="316"/>
+      <c r="U19" s="335"/>
+      <c r="V19" s="335"/>
+      <c r="W19" s="336"/>
+      <c r="X19" s="336"/>
+      <c r="Y19" s="336"/>
+      <c r="Z19" s="336"/>
+      <c r="AA19" s="336"/>
+      <c r="AB19" s="336"/>
       <c r="AC19" s="19"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
@@ -6754,19 +6754,19 @@
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="309"/>
-      <c r="E20" s="309"/>
+      <c r="D20" s="311"/>
+      <c r="E20" s="311"/>
       <c r="F20" s="42"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="309"/>
-      <c r="I20" s="309"/>
-      <c r="J20" s="309"/>
+      <c r="H20" s="311"/>
+      <c r="I20" s="311"/>
+      <c r="J20" s="311"/>
       <c r="K20" s="43" t="s">
         <v>177</v>
       </c>
       <c r="L20" s="42"/>
-      <c r="M20" s="309"/>
-      <c r="N20" s="309"/>
+      <c r="M20" s="311"/>
+      <c r="N20" s="311"/>
       <c r="O20" s="4"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="22"/>
@@ -6787,6 +6787,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="S15:AB15"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="S14:AB14"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="AA6:AC7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="AA4:AC5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="T1:X1"/>
@@ -6799,42 +6835,6 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="Y4:Z5"/>
     <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="AA6:AC7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="S14:AB14"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="S15:AB15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/templates/order/ТТН.xlsx
+++ b/templates/order/ТТН.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3884AE5-1748-4B49-B225-B87F8AB544B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C4EF97-CF57-4160-801C-824D5543A728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1925,27 +1925,294 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1958,12 +2225,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1973,269 +2234,74 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment h